--- a/src/modules/mail/templates/excels/ni_mcit_p_01.xlsx
+++ b/src/modules/mail/templates/excels/ni_mcit_p_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr showInkAnnotation="0" updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GF63\Desktop\REGXI\Metrocal-admin-backend\src\modules\mail\templates\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FD2047-EDFF-4837-BA31-D55EA39D09B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A444510D-8672-4620-8314-B3DC5EC483C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="887" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="887" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NI-R01-MCIT-P-01" sheetId="19" r:id="rId1"/>
@@ -177,7 +177,6 @@
     <definedName name="UnidadEscala">[4]Calibración!$C$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -8501,12 +8500,90 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="53" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8532,85 +8609,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8651,41 +8650,86 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -8704,51 +8748,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -8758,6 +8757,114 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="68" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="68" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="68" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8769,114 +8876,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="68" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="68" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="68" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -12744,56 +12743,6 @@
             <v>2</v>
           </cell>
         </row>
-        <row r="38">
-          <cell r="C38">
-            <v>10.014500074951281</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>20.026000666666665</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>30.017665666666669</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>40.029334000000006</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>50.030999759961595</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>60.020400264042244</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>70.029799567930866</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>80.029199471915504</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>90.028599375900143</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>100.02799783982718</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -13323,59 +13272,59 @@
     <row r="3" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="7.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="360" t="s">
+      <c r="A5" s="350" t="s">
         <v>1237</v>
       </c>
-      <c r="B5" s="360"/>
-      <c r="C5" s="360"/>
-      <c r="D5" s="360"/>
-      <c r="E5" s="360"/>
-      <c r="F5" s="360"/>
-      <c r="G5" s="360"/>
-      <c r="H5" s="360"/>
-      <c r="I5" s="360"/>
+      <c r="B5" s="350"/>
+      <c r="C5" s="350"/>
+      <c r="D5" s="350"/>
+      <c r="E5" s="350"/>
+      <c r="F5" s="350"/>
+      <c r="G5" s="350"/>
+      <c r="H5" s="350"/>
+      <c r="I5" s="350"/>
     </row>
     <row r="6" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="296" t="s">
         <v>1093</v>
       </c>
-      <c r="B6" s="354" t="s">
+      <c r="B6" s="351" t="s">
         <v>433</v>
       </c>
-      <c r="C6" s="354"/>
-      <c r="D6" s="354"/>
-      <c r="E6" s="354"/>
-      <c r="F6" s="354"/>
-      <c r="G6" s="354"/>
-      <c r="H6" s="354"/>
+      <c r="C6" s="351"/>
+      <c r="D6" s="351"/>
+      <c r="E6" s="351"/>
+      <c r="F6" s="351"/>
+      <c r="G6" s="351"/>
+      <c r="H6" s="351"/>
       <c r="I6" s="297" t="s">
         <v>1094</v>
       </c>
-      <c r="J6" s="344">
+      <c r="J6" s="371">
         <v>44965</v>
       </c>
-      <c r="K6" s="344"/>
+      <c r="K6" s="371"/>
     </row>
     <row r="7" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="361" t="s">
+      <c r="A7" s="366" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="361"/>
-      <c r="C7" s="354" t="s">
+      <c r="B7" s="366"/>
+      <c r="C7" s="351" t="s">
         <v>349</v>
       </c>
-      <c r="D7" s="354"/>
-      <c r="E7" s="354"/>
-      <c r="F7" s="354"/>
-      <c r="G7" s="354"/>
-      <c r="H7" s="354"/>
+      <c r="D7" s="351"/>
+      <c r="E7" s="351"/>
+      <c r="F7" s="351"/>
+      <c r="G7" s="351"/>
+      <c r="H7" s="351"/>
       <c r="I7" s="297" t="s">
         <v>1095</v>
       </c>
-      <c r="J7" s="345" t="s">
+      <c r="J7" s="344" t="s">
         <v>1190</v>
       </c>
-      <c r="K7" s="345"/>
+      <c r="K7" s="344"/>
     </row>
     <row r="8" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="298"/>
@@ -13391,138 +13340,138 @@
       <c r="K8" s="299"/>
     </row>
     <row r="9" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="360" t="s">
+      <c r="A9" s="350" t="s">
         <v>1238</v>
       </c>
-      <c r="B9" s="360"/>
-      <c r="C9" s="360"/>
-      <c r="D9" s="360"/>
-      <c r="E9" s="360"/>
-      <c r="F9" s="360"/>
-      <c r="G9" s="360"/>
-      <c r="H9" s="360"/>
-      <c r="I9" s="360"/>
+      <c r="B9" s="350"/>
+      <c r="C9" s="350"/>
+      <c r="D9" s="350"/>
+      <c r="E9" s="350"/>
+      <c r="F9" s="350"/>
+      <c r="G9" s="350"/>
+      <c r="H9" s="350"/>
+      <c r="I9" s="350"/>
       <c r="J9" s="299"/>
       <c r="K9" s="299"/>
     </row>
     <row r="10" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="354" t="s">
+      <c r="A10" s="351" t="s">
         <v>1096</v>
       </c>
-      <c r="B10" s="354"/>
-      <c r="C10" s="354"/>
-      <c r="D10" s="356" t="s">
+      <c r="B10" s="351"/>
+      <c r="C10" s="351"/>
+      <c r="D10" s="368" t="s">
         <v>232</v>
       </c>
-      <c r="E10" s="357"/>
-      <c r="F10" s="357"/>
-      <c r="G10" s="345" t="s">
+      <c r="E10" s="369"/>
+      <c r="F10" s="369"/>
+      <c r="G10" s="344" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="345"/>
-      <c r="I10" s="356" t="s">
+      <c r="H10" s="344"/>
+      <c r="I10" s="368" t="s">
         <v>228</v>
       </c>
-      <c r="J10" s="357"/>
-      <c r="K10" s="358"/>
+      <c r="J10" s="369"/>
+      <c r="K10" s="370"/>
     </row>
     <row r="11" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="354" t="s">
+      <c r="A11" s="351" t="s">
         <v>1097</v>
       </c>
-      <c r="B11" s="354"/>
-      <c r="C11" s="354"/>
-      <c r="D11" s="359" t="s">
+      <c r="B11" s="351"/>
+      <c r="C11" s="351"/>
+      <c r="D11" s="345" t="s">
         <v>1192</v>
       </c>
-      <c r="E11" s="359"/>
-      <c r="F11" s="359"/>
-      <c r="G11" s="345" t="s">
+      <c r="E11" s="345"/>
+      <c r="F11" s="345"/>
+      <c r="G11" s="344" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="345"/>
-      <c r="I11" s="355" t="s">
+      <c r="H11" s="344"/>
+      <c r="I11" s="380" t="s">
         <v>1193</v>
       </c>
-      <c r="J11" s="355"/>
-      <c r="K11" s="355"/>
+      <c r="J11" s="380"/>
+      <c r="K11" s="380"/>
     </row>
     <row r="12" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="354" t="s">
+      <c r="A12" s="351" t="s">
         <v>1098</v>
       </c>
-      <c r="B12" s="354"/>
-      <c r="C12" s="354"/>
-      <c r="D12" s="359" t="s">
+      <c r="B12" s="351"/>
+      <c r="C12" s="351"/>
+      <c r="D12" s="345" t="s">
         <v>1194</v>
       </c>
-      <c r="E12" s="359"/>
-      <c r="F12" s="359"/>
-      <c r="G12" s="345" t="s">
+      <c r="E12" s="345"/>
+      <c r="F12" s="345"/>
+      <c r="G12" s="344" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="345"/>
-      <c r="I12" s="355" t="s">
+      <c r="H12" s="344"/>
+      <c r="I12" s="380" t="s">
         <v>1191</v>
       </c>
-      <c r="J12" s="355"/>
-      <c r="K12" s="355"/>
+      <c r="J12" s="380"/>
+      <c r="K12" s="380"/>
     </row>
     <row r="13" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="354" t="s">
+      <c r="A13" s="351" t="s">
         <v>1099</v>
       </c>
-      <c r="B13" s="354"/>
-      <c r="C13" s="354"/>
-      <c r="D13" s="359" t="s">
+      <c r="B13" s="351"/>
+      <c r="C13" s="351"/>
+      <c r="D13" s="345" t="s">
         <v>408</v>
       </c>
-      <c r="E13" s="359"/>
-      <c r="F13" s="359"/>
-      <c r="G13" s="345" t="s">
+      <c r="E13" s="345"/>
+      <c r="F13" s="345"/>
+      <c r="G13" s="344" t="s">
         <v>1100</v>
       </c>
-      <c r="H13" s="345"/>
-      <c r="I13" s="355">
+      <c r="H13" s="344"/>
+      <c r="I13" s="380">
         <v>1</v>
       </c>
-      <c r="J13" s="355"/>
-      <c r="K13" s="355"/>
+      <c r="J13" s="380"/>
+      <c r="K13" s="380"/>
     </row>
     <row r="14" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="354" t="s">
+      <c r="A14" s="351" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="354"/>
-      <c r="C14" s="354"/>
-      <c r="D14" s="359">
+      <c r="B14" s="351"/>
+      <c r="C14" s="351"/>
+      <c r="D14" s="345">
         <v>0.5</v>
       </c>
-      <c r="E14" s="359"/>
-      <c r="F14" s="359"/>
-      <c r="G14" s="345" t="s">
+      <c r="E14" s="345"/>
+      <c r="F14" s="345"/>
+      <c r="G14" s="344" t="s">
         <v>1195</v>
       </c>
-      <c r="H14" s="345"/>
-      <c r="I14" s="355">
-        <v>0</v>
-      </c>
-      <c r="J14" s="355"/>
-      <c r="K14" s="355"/>
+      <c r="H14" s="344"/>
+      <c r="I14" s="380">
+        <v>0</v>
+      </c>
+      <c r="J14" s="380"/>
+      <c r="K14" s="380"/>
     </row>
     <row r="15" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="354" t="s">
+      <c r="A15" s="351" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="354"/>
-      <c r="C15" s="354"/>
-      <c r="D15" s="359"/>
-      <c r="E15" s="359"/>
-      <c r="F15" s="359"/>
-      <c r="G15" s="345" t="s">
+      <c r="B15" s="351"/>
+      <c r="C15" s="351"/>
+      <c r="D15" s="345"/>
+      <c r="E15" s="345"/>
+      <c r="F15" s="345"/>
+      <c r="G15" s="344" t="s">
         <v>226</v>
       </c>
-      <c r="H15" s="345"/>
+      <c r="H15" s="344"/>
       <c r="I15" s="301"/>
       <c r="J15" s="297" t="s">
         <v>227</v>
@@ -13530,11 +13479,11 @@
       <c r="K15" s="301"/>
     </row>
     <row r="16" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="354" t="s">
+      <c r="A16" s="351" t="s">
         <v>1196</v>
       </c>
-      <c r="B16" s="354"/>
-      <c r="C16" s="354"/>
+      <c r="B16" s="351"/>
+      <c r="C16" s="351"/>
       <c r="D16" s="300" t="s">
         <v>1197</v>
       </c>
@@ -13542,13 +13491,13 @@
       <c r="F16" s="300" t="s">
         <v>1198</v>
       </c>
-      <c r="G16" s="345" t="s">
+      <c r="G16" s="344" t="s">
         <v>1199</v>
       </c>
-      <c r="H16" s="345"/>
-      <c r="I16" s="378"/>
-      <c r="J16" s="379"/>
-      <c r="K16" s="380"/>
+      <c r="H16" s="344"/>
+      <c r="I16" s="347"/>
+      <c r="J16" s="348"/>
+      <c r="K16" s="349"/>
     </row>
     <row r="17" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="302"/>
@@ -13564,17 +13513,17 @@
       <c r="K17" s="299"/>
     </row>
     <row r="18" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="360" t="s">
+      <c r="A18" s="350" t="s">
         <v>1239</v>
       </c>
-      <c r="B18" s="360"/>
-      <c r="C18" s="360"/>
-      <c r="D18" s="360"/>
-      <c r="E18" s="360"/>
-      <c r="F18" s="360"/>
-      <c r="G18" s="360"/>
-      <c r="H18" s="360"/>
-      <c r="I18" s="360"/>
+      <c r="B18" s="350"/>
+      <c r="C18" s="350"/>
+      <c r="D18" s="350"/>
+      <c r="E18" s="350"/>
+      <c r="F18" s="350"/>
+      <c r="G18" s="350"/>
+      <c r="H18" s="350"/>
+      <c r="I18" s="350"/>
       <c r="J18" s="299"/>
       <c r="K18" s="299"/>
     </row>
@@ -13599,7 +13548,7 @@
       <c r="L19" s="299"/>
     </row>
     <row r="20" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="374" t="s">
+      <c r="A20" s="358" t="s">
         <v>270</v>
       </c>
       <c r="B20" s="294" t="s">
@@ -13611,11 +13560,11 @@
       <c r="D20" s="295">
         <v>60</v>
       </c>
-      <c r="E20" s="352" t="s">
+      <c r="E20" s="378" t="s">
         <v>1104</v>
       </c>
-      <c r="F20" s="353"/>
-      <c r="G20" s="374" t="s">
+      <c r="F20" s="379"/>
+      <c r="G20" s="358" t="s">
         <v>270</v>
       </c>
       <c r="H20" s="294" t="s">
@@ -13624,14 +13573,14 @@
       <c r="I20" s="295">
         <v>1000</v>
       </c>
-      <c r="J20" s="352" t="s">
+      <c r="J20" s="378" t="s">
         <v>1104</v>
       </c>
-      <c r="K20" s="353"/>
+      <c r="K20" s="379"/>
       <c r="L20" s="299"/>
     </row>
     <row r="21" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="374"/>
+      <c r="A21" s="358"/>
       <c r="B21" s="294" t="s">
         <v>352</v>
       </c>
@@ -13641,25 +13590,25 @@
       <c r="D21" s="295">
         <v>70</v>
       </c>
-      <c r="E21" s="346" t="s">
+      <c r="E21" s="372" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="347"/>
-      <c r="G21" s="374"/>
+      <c r="F21" s="373"/>
+      <c r="G21" s="358"/>
       <c r="H21" s="294" t="s">
         <v>352</v>
       </c>
       <c r="I21" s="295">
         <v>1010</v>
       </c>
-      <c r="J21" s="346" t="s">
+      <c r="J21" s="372" t="s">
         <v>347</v>
       </c>
-      <c r="K21" s="347"/>
+      <c r="K21" s="373"/>
       <c r="L21" s="299"/>
     </row>
     <row r="22" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="374" t="s">
+      <c r="A22" s="358" t="s">
         <v>269</v>
       </c>
       <c r="B22" s="294" t="s">
@@ -13671,9 +13620,9 @@
       <c r="D22" s="295">
         <v>65</v>
       </c>
-      <c r="E22" s="348"/>
-      <c r="F22" s="349"/>
-      <c r="G22" s="374" t="s">
+      <c r="E22" s="374"/>
+      <c r="F22" s="375"/>
+      <c r="G22" s="358" t="s">
         <v>269</v>
       </c>
       <c r="H22" s="294" t="s">
@@ -13682,12 +13631,12 @@
       <c r="I22" s="295">
         <v>990</v>
       </c>
-      <c r="J22" s="348"/>
-      <c r="K22" s="349"/>
+      <c r="J22" s="374"/>
+      <c r="K22" s="375"/>
       <c r="L22" s="299"/>
     </row>
     <row r="23" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="374"/>
+      <c r="A23" s="358"/>
       <c r="B23" s="294" t="s">
         <v>352</v>
       </c>
@@ -13697,21 +13646,21 @@
       <c r="D23" s="295">
         <v>75</v>
       </c>
-      <c r="E23" s="348"/>
-      <c r="F23" s="349"/>
-      <c r="G23" s="374"/>
+      <c r="E23" s="374"/>
+      <c r="F23" s="375"/>
+      <c r="G23" s="358"/>
       <c r="H23" s="294" t="s">
         <v>352</v>
       </c>
       <c r="I23" s="295">
         <v>1005</v>
       </c>
-      <c r="J23" s="348"/>
-      <c r="K23" s="349"/>
+      <c r="J23" s="374"/>
+      <c r="K23" s="375"/>
       <c r="L23" s="299"/>
     </row>
     <row r="24" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="374" t="s">
+      <c r="A24" s="358" t="s">
         <v>271</v>
       </c>
       <c r="B24" s="294" t="s">
@@ -13723,9 +13672,9 @@
       <c r="D24" s="295">
         <v>55</v>
       </c>
-      <c r="E24" s="348"/>
-      <c r="F24" s="349"/>
-      <c r="G24" s="374" t="s">
+      <c r="E24" s="374"/>
+      <c r="F24" s="375"/>
+      <c r="G24" s="358" t="s">
         <v>271</v>
       </c>
       <c r="H24" s="294" t="s">
@@ -13734,12 +13683,12 @@
       <c r="I24" s="295">
         <v>1015</v>
       </c>
-      <c r="J24" s="348"/>
-      <c r="K24" s="349"/>
+      <c r="J24" s="374"/>
+      <c r="K24" s="375"/>
       <c r="L24" s="299"/>
     </row>
     <row r="25" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="374"/>
+      <c r="A25" s="358"/>
       <c r="B25" s="294" t="s">
         <v>352</v>
       </c>
@@ -13749,145 +13698,145 @@
       <c r="D25" s="295">
         <v>60</v>
       </c>
-      <c r="E25" s="350"/>
-      <c r="F25" s="351"/>
-      <c r="G25" s="374"/>
+      <c r="E25" s="376"/>
+      <c r="F25" s="377"/>
+      <c r="G25" s="358"/>
       <c r="H25" s="294" t="s">
         <v>352</v>
       </c>
       <c r="I25" s="295">
         <v>1025</v>
       </c>
-      <c r="J25" s="350"/>
-      <c r="K25" s="351"/>
+      <c r="J25" s="376"/>
+      <c r="K25" s="377"/>
       <c r="L25" s="299"/>
     </row>
     <row r="26" spans="1:12" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="283"/>
     </row>
     <row r="27" spans="1:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="375" t="s">
+      <c r="A27" s="355" t="s">
         <v>1240</v>
       </c>
-      <c r="B27" s="375"/>
-      <c r="C27" s="375"/>
-      <c r="D27" s="375"/>
-      <c r="E27" s="375"/>
-      <c r="F27" s="375"/>
-      <c r="G27" s="375"/>
-      <c r="H27" s="375"/>
-      <c r="I27" s="375"/>
+      <c r="B27" s="355"/>
+      <c r="C27" s="355"/>
+      <c r="D27" s="355"/>
+      <c r="E27" s="355"/>
+      <c r="F27" s="355"/>
+      <c r="G27" s="355"/>
+      <c r="H27" s="355"/>
+      <c r="I27" s="355"/>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="376" t="s">
+      <c r="A28" s="359" t="s">
         <v>1200</v>
       </c>
-      <c r="B28" s="376"/>
-      <c r="C28" s="376"/>
-      <c r="D28" s="377" t="s">
+      <c r="B28" s="359"/>
+      <c r="C28" s="359"/>
+      <c r="D28" s="356" t="s">
         <v>1203</v>
       </c>
-      <c r="E28" s="377"/>
-      <c r="F28" s="377"/>
-      <c r="G28" s="377"/>
-      <c r="H28" s="377" t="s">
+      <c r="E28" s="356"/>
+      <c r="F28" s="356"/>
+      <c r="G28" s="356"/>
+      <c r="H28" s="356" t="s">
         <v>345</v>
       </c>
-      <c r="I28" s="377"/>
-      <c r="J28" s="377"/>
-      <c r="K28" s="377"/>
+      <c r="I28" s="356"/>
+      <c r="J28" s="356"/>
+      <c r="K28" s="356"/>
     </row>
     <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="376" t="s">
+      <c r="A29" s="359" t="s">
         <v>1201</v>
       </c>
-      <c r="B29" s="376"/>
-      <c r="C29" s="376"/>
-      <c r="D29" s="377"/>
-      <c r="E29" s="377"/>
-      <c r="F29" s="377"/>
-      <c r="G29" s="377"/>
-      <c r="H29" s="377"/>
-      <c r="I29" s="377"/>
-      <c r="J29" s="377"/>
-      <c r="K29" s="377"/>
+      <c r="B29" s="359"/>
+      <c r="C29" s="359"/>
+      <c r="D29" s="356"/>
+      <c r="E29" s="356"/>
+      <c r="F29" s="356"/>
+      <c r="G29" s="356"/>
+      <c r="H29" s="356"/>
+      <c r="I29" s="356"/>
+      <c r="J29" s="356"/>
+      <c r="K29" s="356"/>
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="376" t="s">
+      <c r="A30" s="359" t="s">
         <v>1202</v>
       </c>
-      <c r="B30" s="376"/>
-      <c r="C30" s="376"/>
-      <c r="D30" s="377"/>
-      <c r="E30" s="377"/>
-      <c r="F30" s="377"/>
-      <c r="G30" s="377"/>
-      <c r="H30" s="377"/>
-      <c r="I30" s="377"/>
-      <c r="J30" s="377"/>
-      <c r="K30" s="377"/>
+      <c r="B30" s="359"/>
+      <c r="C30" s="359"/>
+      <c r="D30" s="356"/>
+      <c r="E30" s="356"/>
+      <c r="F30" s="356"/>
+      <c r="G30" s="356"/>
+      <c r="H30" s="356"/>
+      <c r="I30" s="356"/>
+      <c r="J30" s="356"/>
+      <c r="K30" s="356"/>
     </row>
     <row r="31" spans="1:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="283"/>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="375" t="s">
+      <c r="A32" s="355" t="s">
         <v>1241</v>
       </c>
-      <c r="B32" s="375"/>
-      <c r="C32" s="375"/>
-      <c r="D32" s="375"/>
-      <c r="E32" s="375"/>
-      <c r="F32" s="375"/>
-      <c r="G32" s="375"/>
-      <c r="H32" s="375"/>
-      <c r="I32" s="375"/>
+      <c r="B32" s="355"/>
+      <c r="C32" s="355"/>
+      <c r="D32" s="355"/>
+      <c r="E32" s="355"/>
+      <c r="F32" s="355"/>
+      <c r="G32" s="355"/>
+      <c r="H32" s="355"/>
+      <c r="I32" s="355"/>
     </row>
     <row r="33" spans="1:12" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="365" t="s">
+      <c r="A33" s="352" t="s">
         <v>1105</v>
       </c>
-      <c r="B33" s="366"/>
-      <c r="C33" s="366"/>
-      <c r="D33" s="367"/>
-      <c r="E33" s="365" t="s">
+      <c r="B33" s="353"/>
+      <c r="C33" s="353"/>
+      <c r="D33" s="354"/>
+      <c r="E33" s="352" t="s">
         <v>1106</v>
       </c>
-      <c r="F33" s="366"/>
-      <c r="G33" s="366"/>
-      <c r="H33" s="367"/>
-      <c r="I33" s="365" t="s">
+      <c r="F33" s="353"/>
+      <c r="G33" s="353"/>
+      <c r="H33" s="354"/>
+      <c r="I33" s="352" t="s">
         <v>1107</v>
       </c>
-      <c r="J33" s="366"/>
-      <c r="K33" s="366"/>
-      <c r="L33" s="367"/>
+      <c r="J33" s="353"/>
+      <c r="K33" s="353"/>
+      <c r="L33" s="354"/>
     </row>
     <row r="34" spans="1:12" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="365" t="s">
+      <c r="A34" s="352" t="s">
         <v>1108</v>
       </c>
-      <c r="B34" s="367"/>
-      <c r="C34" s="365" t="s">
+      <c r="B34" s="354"/>
+      <c r="C34" s="352" t="s">
         <v>1109</v>
       </c>
-      <c r="D34" s="367"/>
-      <c r="E34" s="365" t="s">
+      <c r="D34" s="354"/>
+      <c r="E34" s="352" t="s">
         <v>1108</v>
       </c>
-      <c r="F34" s="367"/>
-      <c r="G34" s="365" t="s">
+      <c r="F34" s="354"/>
+      <c r="G34" s="352" t="s">
         <v>1109</v>
       </c>
-      <c r="H34" s="367"/>
-      <c r="I34" s="365" t="s">
+      <c r="H34" s="354"/>
+      <c r="I34" s="352" t="s">
         <v>1108</v>
       </c>
-      <c r="J34" s="367"/>
-      <c r="K34" s="365" t="s">
+      <c r="J34" s="354"/>
+      <c r="K34" s="352" t="s">
         <v>1109</v>
       </c>
-      <c r="L34" s="367"/>
+      <c r="L34" s="354"/>
     </row>
     <row r="35" spans="1:12" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="304" t="s">
@@ -14311,63 +14260,63 @@
       <c r="A46" s="283"/>
     </row>
     <row r="47" spans="1:12" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="360" t="s">
+      <c r="A47" s="350" t="s">
         <v>1242</v>
       </c>
-      <c r="B47" s="360"/>
-      <c r="C47" s="360"/>
-      <c r="D47" s="360"/>
-      <c r="E47" s="360"/>
+      <c r="B47" s="350"/>
+      <c r="C47" s="350"/>
+      <c r="D47" s="350"/>
+      <c r="E47" s="350"/>
       <c r="F47" s="308"/>
-      <c r="G47" s="361" t="s">
+      <c r="G47" s="366" t="s">
         <v>1204</v>
       </c>
-      <c r="H47" s="361"/>
+      <c r="H47" s="366"/>
       <c r="I47" s="296"/>
       <c r="J47" s="299"/>
       <c r="K47" s="299"/>
       <c r="L47" s="299"/>
     </row>
     <row r="48" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="368"/>
-      <c r="B48" s="368"/>
-      <c r="C48" s="368"/>
-      <c r="D48" s="368"/>
-      <c r="E48" s="368"/>
-      <c r="F48" s="368"/>
-      <c r="G48" s="368"/>
-      <c r="H48" s="368"/>
-      <c r="I48" s="368"/>
-      <c r="J48" s="368"/>
-      <c r="K48" s="368"/>
+      <c r="A48" s="365"/>
+      <c r="B48" s="365"/>
+      <c r="C48" s="365"/>
+      <c r="D48" s="365"/>
+      <c r="E48" s="365"/>
+      <c r="F48" s="365"/>
+      <c r="G48" s="365"/>
+      <c r="H48" s="365"/>
+      <c r="I48" s="365"/>
+      <c r="J48" s="365"/>
+      <c r="K48" s="365"/>
       <c r="L48" s="299"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="360" t="s">
+      <c r="A49" s="350" t="s">
         <v>1243</v>
       </c>
-      <c r="B49" s="360"/>
-      <c r="C49" s="360"/>
-      <c r="D49" s="360"/>
-      <c r="E49" s="360"/>
-      <c r="F49" s="360"/>
-      <c r="G49" s="360"/>
-      <c r="H49" s="360"/>
-      <c r="I49" s="360"/>
+      <c r="B49" s="350"/>
+      <c r="C49" s="350"/>
+      <c r="D49" s="350"/>
+      <c r="E49" s="350"/>
+      <c r="F49" s="350"/>
+      <c r="G49" s="350"/>
+      <c r="H49" s="350"/>
+      <c r="I49" s="350"/>
       <c r="J49" s="299"/>
       <c r="K49" s="299"/>
       <c r="L49" s="299"/>
     </row>
     <row r="50" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="373" t="s">
+      <c r="A50" s="357" t="s">
         <v>1110</v>
       </c>
-      <c r="B50" s="373"/>
+      <c r="B50" s="357"/>
       <c r="C50" s="299"/>
-      <c r="D50" s="373" t="s">
+      <c r="D50" s="357" t="s">
         <v>1110</v>
       </c>
-      <c r="E50" s="373"/>
+      <c r="E50" s="357"/>
       <c r="F50" s="299"/>
       <c r="G50" s="309" t="s">
         <v>318</v>
@@ -14381,65 +14330,65 @@
       <c r="L50" s="299"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="360" t="s">
+      <c r="A51" s="350" t="s">
         <v>1244</v>
       </c>
-      <c r="B51" s="360"/>
-      <c r="C51" s="360"/>
-      <c r="D51" s="360"/>
-      <c r="E51" s="360"/>
-      <c r="F51" s="360"/>
-      <c r="G51" s="360"/>
-      <c r="H51" s="360"/>
-      <c r="I51" s="360"/>
+      <c r="B51" s="350"/>
+      <c r="C51" s="350"/>
+      <c r="D51" s="350"/>
+      <c r="E51" s="350"/>
+      <c r="F51" s="350"/>
+      <c r="G51" s="350"/>
+      <c r="H51" s="350"/>
+      <c r="I51" s="350"/>
       <c r="J51" s="299"/>
       <c r="K51" s="299"/>
       <c r="L51" s="299"/>
     </row>
     <row r="52" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="372"/>
-      <c r="B52" s="372"/>
-      <c r="C52" s="372"/>
-      <c r="D52" s="372"/>
-      <c r="E52" s="372"/>
-      <c r="F52" s="372"/>
-      <c r="G52" s="372"/>
-      <c r="H52" s="372"/>
-      <c r="I52" s="372"/>
-      <c r="J52" s="372"/>
-      <c r="K52" s="372"/>
-      <c r="L52" s="372"/>
+      <c r="A52" s="346"/>
+      <c r="B52" s="346"/>
+      <c r="C52" s="346"/>
+      <c r="D52" s="346"/>
+      <c r="E52" s="346"/>
+      <c r="F52" s="346"/>
+      <c r="G52" s="346"/>
+      <c r="H52" s="346"/>
+      <c r="I52" s="346"/>
+      <c r="J52" s="346"/>
+      <c r="K52" s="346"/>
+      <c r="L52" s="346"/>
     </row>
     <row r="53" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="372"/>
-      <c r="B53" s="372"/>
-      <c r="C53" s="372"/>
-      <c r="D53" s="372"/>
-      <c r="E53" s="372"/>
-      <c r="F53" s="372"/>
-      <c r="G53" s="372"/>
-      <c r="H53" s="372"/>
-      <c r="I53" s="372"/>
-      <c r="J53" s="372"/>
-      <c r="K53" s="372"/>
-      <c r="L53" s="372"/>
+      <c r="A53" s="346"/>
+      <c r="B53" s="346"/>
+      <c r="C53" s="346"/>
+      <c r="D53" s="346"/>
+      <c r="E53" s="346"/>
+      <c r="F53" s="346"/>
+      <c r="G53" s="346"/>
+      <c r="H53" s="346"/>
+      <c r="I53" s="346"/>
+      <c r="J53" s="346"/>
+      <c r="K53" s="346"/>
+      <c r="L53" s="346"/>
     </row>
     <row r="54" spans="1:12" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="284"/>
     </row>
     <row r="55" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="362" t="s">
+      <c r="A55" s="363" t="s">
         <v>1245</v>
       </c>
-      <c r="B55" s="362"/>
-      <c r="C55" s="362"/>
-      <c r="D55" s="362"/>
+      <c r="B55" s="363"/>
+      <c r="C55" s="363"/>
+      <c r="D55" s="363"/>
       <c r="E55" s="299"/>
-      <c r="F55" s="363" t="s">
+      <c r="F55" s="364" t="s">
         <v>1111</v>
       </c>
-      <c r="G55" s="363"/>
-      <c r="H55" s="363"/>
+      <c r="G55" s="364"/>
+      <c r="H55" s="364"/>
       <c r="I55" s="299"/>
       <c r="J55" s="299"/>
       <c r="K55" s="299"/>
@@ -14449,18 +14398,18 @@
       <c r="A56" s="297" t="s">
         <v>1246</v>
       </c>
-      <c r="B56" s="369"/>
-      <c r="C56" s="369"/>
-      <c r="D56" s="369"/>
-      <c r="E56" s="369"/>
+      <c r="B56" s="367"/>
+      <c r="C56" s="367"/>
+      <c r="D56" s="367"/>
+      <c r="E56" s="367"/>
       <c r="F56" s="297" t="s">
         <v>1246</v>
       </c>
-      <c r="G56" s="369"/>
-      <c r="H56" s="369"/>
-      <c r="I56" s="369"/>
-      <c r="J56" s="369"/>
-      <c r="K56" s="369"/>
+      <c r="G56" s="367"/>
+      <c r="H56" s="367"/>
+      <c r="I56" s="367"/>
+      <c r="J56" s="367"/>
+      <c r="K56" s="367"/>
       <c r="L56" s="299"/>
     </row>
     <row r="57" spans="1:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -14478,62 +14427,99 @@
       <c r="L57" s="299"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="364" t="s">
+      <c r="A58" s="362" t="s">
         <v>1247</v>
       </c>
-      <c r="B58" s="364"/>
-      <c r="C58" s="364"/>
-      <c r="D58" s="364"/>
-      <c r="E58" s="364" t="s">
+      <c r="B58" s="362"/>
+      <c r="C58" s="362"/>
+      <c r="D58" s="362"/>
+      <c r="E58" s="362" t="s">
         <v>1112</v>
       </c>
-      <c r="F58" s="364"/>
+      <c r="F58" s="362"/>
       <c r="G58" s="299"/>
       <c r="H58" s="299"/>
-      <c r="I58" s="364" t="s">
+      <c r="I58" s="362" t="s">
         <v>1113</v>
       </c>
-      <c r="J58" s="364"/>
+      <c r="J58" s="362"/>
       <c r="K58" s="299"/>
       <c r="L58" s="299"/>
     </row>
     <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A59" s="370" t="s">
+      <c r="A59" s="360" t="s">
         <v>1205</v>
       </c>
-      <c r="B59" s="370"/>
-      <c r="C59" s="370"/>
-      <c r="D59" s="370"/>
+      <c r="B59" s="360"/>
+      <c r="C59" s="360"/>
+      <c r="D59" s="360"/>
       <c r="E59" s="285" t="s">
         <v>1248</v>
       </c>
-      <c r="F59" s="371"/>
-      <c r="G59" s="371"/>
-      <c r="H59" s="371"/>
-      <c r="I59" s="371"/>
-      <c r="J59" s="371"/>
-      <c r="K59" s="371"/>
+      <c r="F59" s="361"/>
+      <c r="G59" s="361"/>
+      <c r="H59" s="361"/>
+      <c r="I59" s="361"/>
+      <c r="J59" s="361"/>
+      <c r="K59" s="361"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="282"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="E21:F25"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="J21:K25"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A48:K48"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="F59:H59"/>
     <mergeCell ref="A53:L53"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="D50:E50"/>
@@ -14550,58 +14536,21 @@
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="I59:K59"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A48:K48"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="E21:F25"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="J21:K25"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -15715,7 +15664,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:BJ129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -21284,8 +21233,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:AI70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21519,44 +21468,44 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="138" t="str">
-        <f>IFERROR(CONCATENATE(FIXED([5]Calibración!C38,decim),unidad),"")</f>
-        <v>10.0psi</v>
+        <f ca="1">IFERROR(CONCATENATE(FIXED(Calibración!C38,decim),unidad),"")</f>
+        <v/>
       </c>
       <c r="H7" s="138" t="str">
-        <f>IFERROR(CONCATENATE(FIXED([5]Calibración!C39,decim),unidad),"")</f>
-        <v>20.0psi</v>
+        <f ca="1">IFERROR(CONCATENATE(FIXED(Calibración!C39,decim),unidad),"")</f>
+        <v/>
       </c>
       <c r="I7" s="138" t="str">
-        <f>IFERROR(CONCATENATE(FIXED([5]Calibración!C40,decim),unidad),"")</f>
-        <v>30.0psi</v>
+        <f ca="1">IFERROR(CONCATENATE(FIXED(Calibración!C40,decim),unidad),"")</f>
+        <v/>
       </c>
       <c r="J7" s="138" t="str">
-        <f>IFERROR(CONCATENATE(FIXED([5]Calibración!C41,decim),unidad),"")</f>
-        <v>40.0psi</v>
+        <f ca="1">IFERROR(CONCATENATE(FIXED(Calibración!C41,decim),unidad),"")</f>
+        <v/>
       </c>
       <c r="K7" s="138" t="str">
-        <f>IFERROR(CONCATENATE(FIXED([5]Calibración!C42,decim),unidad),"")</f>
-        <v>50.0psi</v>
+        <f ca="1">IFERROR(CONCATENATE(FIXED(Calibración!C42,decim),unidad),"")</f>
+        <v/>
       </c>
       <c r="L7" s="138" t="str">
-        <f>IFERROR(CONCATENATE(FIXED([5]Calibración!C43,decim),unidad),"")</f>
-        <v>60.0psi</v>
+        <f ca="1">IFERROR(CONCATENATE(FIXED(Calibración!C43,decim),unidad),"")</f>
+        <v/>
       </c>
       <c r="M7" s="138" t="str">
-        <f>IFERROR(CONCATENATE(FIXED([5]Calibración!C44,decim),unidad),"")</f>
-        <v>70.0psi</v>
+        <f ca="1">IFERROR(CONCATENATE(FIXED(Calibración!C44,decim),unidad),"")</f>
+        <v/>
       </c>
       <c r="N7" s="138" t="str">
-        <f>IFERROR(CONCATENATE(FIXED([5]Calibración!C45,decim),unidad),"")</f>
-        <v>80.0psi</v>
+        <f ca="1">IFERROR(CONCATENATE(FIXED(Calibración!C45,decim),unidad),"")</f>
+        <v/>
       </c>
       <c r="O7" s="138" t="str">
-        <f>IFERROR(CONCATENATE(FIXED([5]Calibración!C46,decim),unidad),"")</f>
-        <v>90.0psi</v>
+        <f ca="1">IFERROR(CONCATENATE(FIXED(Calibración!C46,decim),unidad),"")</f>
+        <v/>
       </c>
       <c r="P7" s="138" t="str">
-        <f>IFERROR(CONCATENATE(FIXED([5]Calibración!C47,decim),unidad),"")</f>
-        <v>100.0psi</v>
+        <f ca="1">IFERROR(CONCATENATE(FIXED(Calibración!C47,decim),unidad),"")</f>
+        <v/>
       </c>
       <c r="AG7" s="264" t="s">
         <v>231</v>
@@ -22372,44 +22321,44 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="138" t="str">
-        <f t="shared" ref="G25:P25" si="3">G7</f>
-        <v>10.0psi</v>
+        <f t="shared" ref="G25:P25" ca="1" si="3">G7</f>
+        <v/>
       </c>
       <c r="H25" s="138" t="str">
-        <f t="shared" si="3"/>
-        <v>20.0psi</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
       <c r="I25" s="138" t="str">
-        <f t="shared" si="3"/>
-        <v>30.0psi</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
       <c r="J25" s="138" t="str">
-        <f t="shared" si="3"/>
-        <v>40.0psi</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
       <c r="K25" s="138" t="str">
-        <f t="shared" si="3"/>
-        <v>50.0psi</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
       <c r="L25" s="138" t="str">
-        <f t="shared" si="3"/>
-        <v>60.0psi</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
       <c r="M25" s="138" t="str">
-        <f t="shared" si="3"/>
-        <v>70.0psi</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
       <c r="N25" s="138" t="str">
-        <f t="shared" si="3"/>
-        <v>80.0psi</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
       <c r="O25" s="138" t="str">
-        <f t="shared" si="3"/>
-        <v>90.0psi</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
       <c r="P25" s="138" t="str">
-        <f t="shared" si="3"/>
-        <v>100.0psi</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="26" spans="2:35" ht="15" x14ac:dyDescent="0.3">
@@ -23833,14 +23782,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B2" s="401" t="s">
+      <c r="B2" s="400" t="s">
         <v>400</v>
       </c>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
-      <c r="E2" s="401"/>
-      <c r="F2" s="401"/>
-      <c r="G2" s="401"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
       <c r="I2" s="246"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
@@ -23860,28 +23809,28 @@
       <c r="E4" s="247"/>
       <c r="F4" s="247"/>
       <c r="G4" s="247"/>
-      <c r="I4" s="402" t="s">
+      <c r="I4" s="401" t="s">
         <v>384</v>
       </c>
-      <c r="J4" s="402"/>
-      <c r="K4" s="402" t="s">
+      <c r="J4" s="401"/>
+      <c r="K4" s="401" t="s">
         <v>385</v>
       </c>
-      <c r="L4" s="402"/>
+      <c r="L4" s="401"/>
       <c r="N4" s="13" t="s">
         <v>405</v>
       </c>
       <c r="O4" s="13"/>
-      <c r="W4" s="405" t="s">
+      <c r="W4" s="394" t="s">
         <v>572</v>
       </c>
-      <c r="X4" s="405"/>
-      <c r="Y4" s="405"/>
-      <c r="Z4" s="405"/>
-      <c r="AA4" s="405"/>
-      <c r="AB4" s="405"/>
-      <c r="AC4" s="405"/>
-      <c r="AD4" s="405"/>
+      <c r="X4" s="394"/>
+      <c r="Y4" s="394"/>
+      <c r="Z4" s="394"/>
+      <c r="AA4" s="394"/>
+      <c r="AB4" s="394"/>
+      <c r="AC4" s="394"/>
+      <c r="AD4" s="394"/>
     </row>
     <row r="5" spans="2:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="248" t="s">
@@ -23890,12 +23839,12 @@
       <c r="C5" s="249" t="s">
         <v>402</v>
       </c>
-      <c r="D5" s="394" t="s">
+      <c r="D5" s="402" t="s">
         <v>403</v>
       </c>
-      <c r="E5" s="397"/>
-      <c r="F5" s="397"/>
-      <c r="G5" s="395"/>
+      <c r="E5" s="403"/>
+      <c r="F5" s="403"/>
+      <c r="G5" s="404"/>
       <c r="I5" s="250" t="s">
         <v>125</v>
       </c>
@@ -23937,20 +23886,20 @@
       <c r="AD5" s="267"/>
     </row>
     <row r="6" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="398">
+      <c r="B6" s="397">
         <v>-82.74</v>
       </c>
-      <c r="C6" s="398">
+      <c r="C6" s="397">
         <v>-0.06</v>
       </c>
-      <c r="D6" s="400" t="s">
+      <c r="D6" s="405" t="s">
         <v>570</v>
       </c>
-      <c r="E6" s="395"/>
-      <c r="F6" s="394" t="s">
+      <c r="E6" s="404"/>
+      <c r="F6" s="402" t="s">
         <v>559</v>
       </c>
-      <c r="G6" s="395"/>
+      <c r="G6" s="404"/>
       <c r="I6" s="25">
         <v>-82.74</v>
       </c>
@@ -23986,16 +23935,16 @@
       <c r="AD6" s="267"/>
     </row>
     <row r="7" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="399"/>
-      <c r="C7" s="399"/>
-      <c r="D7" s="394" t="s">
+      <c r="B7" s="398"/>
+      <c r="C7" s="398"/>
+      <c r="D7" s="402" t="s">
         <v>386</v>
       </c>
-      <c r="E7" s="395"/>
-      <c r="F7" s="394" t="s">
+      <c r="E7" s="404"/>
+      <c r="F7" s="402" t="s">
         <v>387</v>
       </c>
-      <c r="G7" s="395"/>
+      <c r="G7" s="404"/>
       <c r="I7" s="25">
         <v>0.01</v>
       </c>
@@ -24109,40 +24058,40 @@
       <c r="C10" s="249" t="s">
         <v>402</v>
       </c>
-      <c r="D10" s="394" t="s">
+      <c r="D10" s="402" t="s">
         <v>403</v>
       </c>
-      <c r="E10" s="397"/>
-      <c r="F10" s="397"/>
-      <c r="G10" s="395"/>
+      <c r="E10" s="403"/>
+      <c r="F10" s="403"/>
+      <c r="G10" s="404"/>
     </row>
     <row r="11" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="398">
+      <c r="B11" s="397">
         <v>0.01</v>
       </c>
-      <c r="C11" s="398">
+      <c r="C11" s="397">
         <v>699.75</v>
       </c>
-      <c r="D11" s="400" t="s">
+      <c r="D11" s="405" t="s">
         <v>571</v>
       </c>
-      <c r="E11" s="395"/>
-      <c r="F11" s="394" t="s">
+      <c r="E11" s="404"/>
+      <c r="F11" s="402" t="s">
         <v>560</v>
       </c>
-      <c r="G11" s="395"/>
+      <c r="G11" s="404"/>
     </row>
     <row r="12" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="399"/>
-      <c r="C12" s="399"/>
-      <c r="D12" s="394" t="s">
+      <c r="B12" s="398"/>
+      <c r="C12" s="398"/>
+      <c r="D12" s="402" t="s">
         <v>386</v>
       </c>
-      <c r="E12" s="395"/>
-      <c r="F12" s="394" t="s">
+      <c r="E12" s="404"/>
+      <c r="F12" s="402" t="s">
         <v>387</v>
       </c>
-      <c r="G12" s="395"/>
+      <c r="G12" s="404"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B13" s="247"/>
@@ -24165,38 +24114,38 @@
         <v>405</v>
       </c>
       <c r="J14" s="13"/>
-      <c r="K14" s="403" t="s">
+      <c r="K14" s="399" t="s">
         <v>568</v>
       </c>
-      <c r="L14" s="403"/>
-      <c r="M14" s="403"/>
+      <c r="L14" s="399"/>
+      <c r="M14" s="399"/>
       <c r="P14" s="13" t="s">
         <v>405</v>
       </c>
       <c r="Q14" s="13"/>
-      <c r="R14" s="403" t="s">
+      <c r="R14" s="399" t="s">
         <v>567</v>
       </c>
-      <c r="S14" s="403"/>
-      <c r="T14" s="403"/>
+      <c r="S14" s="399"/>
+      <c r="T14" s="399"/>
       <c r="W14" s="13" t="s">
         <v>405</v>
       </c>
       <c r="X14" s="13"/>
-      <c r="Y14" s="404" t="s">
+      <c r="Y14" s="395" t="s">
         <v>569</v>
       </c>
-      <c r="Z14" s="404"/>
-      <c r="AA14" s="404"/>
+      <c r="Z14" s="395"/>
+      <c r="AA14" s="395"/>
       <c r="AD14" s="13" t="s">
         <v>405</v>
       </c>
       <c r="AE14" s="13"/>
-      <c r="AF14" s="404" t="s">
+      <c r="AF14" s="395" t="s">
         <v>562</v>
       </c>
-      <c r="AG14" s="404"/>
-      <c r="AH14" s="404"/>
+      <c r="AG14" s="395"/>
+      <c r="AH14" s="395"/>
     </row>
     <row r="15" spans="2:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="248" t="s">
@@ -24205,12 +24154,12 @@
       <c r="C15" s="249" t="s">
         <v>402</v>
       </c>
-      <c r="D15" s="394" t="s">
+      <c r="D15" s="402" t="s">
         <v>403</v>
       </c>
-      <c r="E15" s="397"/>
-      <c r="F15" s="397"/>
-      <c r="G15" s="395"/>
+      <c r="E15" s="403"/>
+      <c r="F15" s="403"/>
+      <c r="G15" s="404"/>
       <c r="I15" s="252" t="s">
         <v>388</v>
       </c>
@@ -24273,20 +24222,20 @@
       </c>
     </row>
     <row r="16" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="398">
+      <c r="B16" s="397">
         <v>700</v>
       </c>
-      <c r="C16" s="398">
+      <c r="C16" s="397">
         <v>7000</v>
       </c>
-      <c r="D16" s="394" t="s">
+      <c r="D16" s="402" t="s">
         <v>406</v>
       </c>
-      <c r="E16" s="395"/>
-      <c r="F16" s="394" t="s">
+      <c r="E16" s="404"/>
+      <c r="F16" s="402" t="s">
         <v>561</v>
       </c>
-      <c r="G16" s="395"/>
+      <c r="G16" s="404"/>
       <c r="I16" s="18" t="s">
         <v>390</v>
       </c>
@@ -24365,16 +24314,16 @@
       </c>
     </row>
     <row r="17" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="399"/>
-      <c r="C17" s="399"/>
-      <c r="D17" s="394" t="s">
+      <c r="B17" s="398"/>
+      <c r="C17" s="398"/>
+      <c r="D17" s="402" t="s">
         <v>386</v>
       </c>
-      <c r="E17" s="395"/>
-      <c r="F17" s="394" t="s">
+      <c r="E17" s="404"/>
+      <c r="F17" s="402" t="s">
         <v>387</v>
       </c>
-      <c r="G17" s="395"/>
+      <c r="G17" s="404"/>
       <c r="I17" s="18" t="s">
         <v>391</v>
       </c>
@@ -24624,12 +24573,12 @@
       <c r="C20" s="249" t="s">
         <v>402</v>
       </c>
-      <c r="D20" s="394" t="s">
+      <c r="D20" s="402" t="s">
         <v>403</v>
       </c>
-      <c r="E20" s="397"/>
-      <c r="F20" s="397"/>
-      <c r="G20" s="395"/>
+      <c r="E20" s="403"/>
+      <c r="F20" s="403"/>
+      <c r="G20" s="404"/>
       <c r="I20" s="18" t="s">
         <v>394</v>
       </c>
@@ -24708,20 +24657,20 @@
       </c>
     </row>
     <row r="21" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="398">
+      <c r="B21" s="397">
         <v>7001</v>
       </c>
-      <c r="C21" s="398">
+      <c r="C21" s="397">
         <v>34500</v>
       </c>
-      <c r="D21" s="394" t="s">
+      <c r="D21" s="402" t="s">
         <v>407</v>
       </c>
-      <c r="E21" s="395"/>
-      <c r="F21" s="394" t="s">
+      <c r="E21" s="404"/>
+      <c r="F21" s="402" t="s">
         <v>562</v>
       </c>
-      <c r="G21" s="395"/>
+      <c r="G21" s="404"/>
       <c r="I21" s="18" t="s">
         <v>395</v>
       </c>
@@ -24800,16 +24749,16 @@
       </c>
     </row>
     <row r="22" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="399"/>
-      <c r="C22" s="399"/>
-      <c r="D22" s="394" t="s">
+      <c r="B22" s="398"/>
+      <c r="C22" s="398"/>
+      <c r="D22" s="402" t="s">
         <v>386</v>
       </c>
-      <c r="E22" s="395"/>
-      <c r="F22" s="394" t="s">
+      <c r="E22" s="404"/>
+      <c r="F22" s="402" t="s">
         <v>387</v>
       </c>
-      <c r="G22" s="395"/>
+      <c r="G22" s="404"/>
       <c r="I22" s="18" t="s">
         <v>396</v>
       </c>
@@ -25166,65 +25115,59 @@
       </c>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="I28" s="398">
+      <c r="I28" s="397">
         <v>-82.74</v>
       </c>
-      <c r="J28" s="398">
+      <c r="J28" s="397">
         <v>-0.06</v>
       </c>
-      <c r="P28" s="398">
+      <c r="P28" s="397">
         <v>0.01</v>
       </c>
-      <c r="Q28" s="398">
+      <c r="Q28" s="397">
         <v>699.75</v>
       </c>
-      <c r="W28" s="398">
+      <c r="W28" s="397">
         <v>700</v>
       </c>
-      <c r="X28" s="398">
+      <c r="X28" s="397">
         <v>7000</v>
       </c>
-      <c r="AD28" s="398">
+      <c r="AD28" s="397">
         <v>7001</v>
       </c>
-      <c r="AE28" s="398">
+      <c r="AE28" s="397">
         <v>34500</v>
       </c>
     </row>
     <row r="29" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I29" s="399"/>
-      <c r="J29" s="399"/>
-      <c r="P29" s="399"/>
-      <c r="Q29" s="399"/>
-      <c r="W29" s="399"/>
-      <c r="X29" s="399"/>
-      <c r="AD29" s="399"/>
-      <c r="AE29" s="399"/>
+      <c r="I29" s="398"/>
+      <c r="J29" s="398"/>
+      <c r="P29" s="398"/>
+      <c r="Q29" s="398"/>
+      <c r="W29" s="398"/>
+      <c r="X29" s="398"/>
+      <c r="AD29" s="398"/>
+      <c r="AE29" s="398"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="W4:AD4"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D10:G10"/>
@@ -25239,22 +25182,28 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="W4:AD4"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25344,23 +25293,23 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" s="417" t="s">
+      <c r="H4" s="408" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="418"/>
-      <c r="J4" s="417" t="s">
+      <c r="I4" s="409"/>
+      <c r="J4" s="408" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="418"/>
-      <c r="L4" s="419" t="s">
+      <c r="K4" s="409"/>
+      <c r="L4" s="410" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="421" t="s">
+      <c r="M4" s="412" t="s">
         <v>110</v>
       </c>
-      <c r="N4" s="422"/>
-      <c r="O4" s="422"/>
-      <c r="P4" s="423"/>
+      <c r="N4" s="413"/>
+      <c r="O4" s="413"/>
+      <c r="P4" s="414"/>
     </row>
     <row r="5" spans="2:23" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B5" s="46" t="s">
@@ -25393,11 +25342,11 @@
       <c r="K5" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="420"/>
-      <c r="M5" s="424"/>
-      <c r="N5" s="425"/>
-      <c r="O5" s="425"/>
-      <c r="P5" s="426"/>
+      <c r="L5" s="411"/>
+      <c r="M5" s="415"/>
+      <c r="N5" s="416"/>
+      <c r="O5" s="416"/>
+      <c r="P5" s="417"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
@@ -25641,26 +25590,26 @@
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
-      <c r="H13" s="415" t="s">
+      <c r="H13" s="406" t="s">
         <v>109</v>
       </c>
-      <c r="I13" s="416"/>
-      <c r="J13" s="415" t="s">
+      <c r="I13" s="407"/>
+      <c r="J13" s="406" t="s">
         <v>242</v>
       </c>
-      <c r="K13" s="416"/>
-      <c r="L13" s="415" t="s">
+      <c r="K13" s="407"/>
+      <c r="L13" s="406" t="s">
         <v>127</v>
       </c>
-      <c r="M13" s="416"/>
-      <c r="N13" s="415" t="s">
+      <c r="M13" s="407"/>
+      <c r="N13" s="406" t="s">
         <v>38</v>
       </c>
-      <c r="O13" s="416"/>
-      <c r="P13" s="415" t="s">
+      <c r="O13" s="407"/>
+      <c r="P13" s="406" t="s">
         <v>1303</v>
       </c>
-      <c r="Q13" s="416"/>
+      <c r="Q13" s="407"/>
       <c r="T13" s="180" t="s">
         <v>281</v>
       </c>
@@ -28060,205 +28009,229 @@
       <c r="L89"/>
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D90" s="412" t="s">
+      <c r="D90" s="418" t="s">
         <v>359</v>
       </c>
-      <c r="E90" s="413"/>
-      <c r="F90" s="413"/>
-      <c r="G90" s="414"/>
+      <c r="E90" s="419"/>
+      <c r="F90" s="419"/>
+      <c r="G90" s="420"/>
       <c r="L90"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D91" s="406" t="s">
+      <c r="D91" s="421" t="s">
         <v>360</v>
       </c>
-      <c r="E91" s="407"/>
-      <c r="F91" s="407"/>
-      <c r="G91" s="408"/>
+      <c r="E91" s="422"/>
+      <c r="F91" s="422"/>
+      <c r="G91" s="423"/>
       <c r="L91"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D92" s="406" t="s">
+      <c r="D92" s="421" t="s">
         <v>361</v>
       </c>
-      <c r="E92" s="407"/>
-      <c r="F92" s="407"/>
-      <c r="G92" s="408"/>
+      <c r="E92" s="422"/>
+      <c r="F92" s="422"/>
+      <c r="G92" s="423"/>
       <c r="L92"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D93" s="406" t="s">
+      <c r="D93" s="421" t="s">
         <v>362</v>
       </c>
-      <c r="E93" s="407"/>
-      <c r="F93" s="407"/>
-      <c r="G93" s="408"/>
+      <c r="E93" s="422"/>
+      <c r="F93" s="422"/>
+      <c r="G93" s="423"/>
       <c r="L93"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D94" s="406" t="s">
+      <c r="D94" s="421" t="s">
         <v>363</v>
       </c>
-      <c r="E94" s="407"/>
-      <c r="F94" s="407"/>
-      <c r="G94" s="408"/>
+      <c r="E94" s="422"/>
+      <c r="F94" s="422"/>
+      <c r="G94" s="423"/>
       <c r="L94"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D95" s="406" t="s">
+      <c r="D95" s="421" t="s">
         <v>364</v>
       </c>
-      <c r="E95" s="407"/>
-      <c r="F95" s="407"/>
-      <c r="G95" s="408"/>
+      <c r="E95" s="422"/>
+      <c r="F95" s="422"/>
+      <c r="G95" s="423"/>
       <c r="L95"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D96" s="406" t="s">
+      <c r="D96" s="421" t="s">
         <v>365</v>
       </c>
-      <c r="E96" s="407"/>
-      <c r="F96" s="407"/>
-      <c r="G96" s="408"/>
+      <c r="E96" s="422"/>
+      <c r="F96" s="422"/>
+      <c r="G96" s="423"/>
     </row>
     <row r="97" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D97" s="406" t="s">
+      <c r="D97" s="421" t="s">
         <v>366</v>
       </c>
-      <c r="E97" s="407"/>
-      <c r="F97" s="407"/>
-      <c r="G97" s="408"/>
+      <c r="E97" s="422"/>
+      <c r="F97" s="422"/>
+      <c r="G97" s="423"/>
     </row>
     <row r="98" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D98" s="406" t="s">
+      <c r="D98" s="421" t="s">
         <v>350</v>
       </c>
-      <c r="E98" s="407"/>
-      <c r="F98" s="407"/>
-      <c r="G98" s="408"/>
+      <c r="E98" s="422"/>
+      <c r="F98" s="422"/>
+      <c r="G98" s="423"/>
     </row>
     <row r="99" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D99" s="406" t="s">
+      <c r="D99" s="421" t="s">
         <v>367</v>
       </c>
-      <c r="E99" s="407"/>
-      <c r="F99" s="407"/>
-      <c r="G99" s="408"/>
+      <c r="E99" s="422"/>
+      <c r="F99" s="422"/>
+      <c r="G99" s="423"/>
     </row>
     <row r="100" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D100" s="406" t="s">
+      <c r="D100" s="421" t="s">
         <v>368</v>
       </c>
-      <c r="E100" s="407"/>
-      <c r="F100" s="407"/>
-      <c r="G100" s="408"/>
+      <c r="E100" s="422"/>
+      <c r="F100" s="422"/>
+      <c r="G100" s="423"/>
     </row>
     <row r="101" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D101" s="406" t="s">
+      <c r="D101" s="421" t="s">
         <v>369</v>
       </c>
-      <c r="E101" s="407"/>
-      <c r="F101" s="407"/>
-      <c r="G101" s="408"/>
+      <c r="E101" s="422"/>
+      <c r="F101" s="422"/>
+      <c r="G101" s="423"/>
     </row>
     <row r="102" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D102" s="406" t="s">
+      <c r="D102" s="421" t="s">
         <v>370</v>
       </c>
-      <c r="E102" s="407"/>
-      <c r="F102" s="407"/>
-      <c r="G102" s="408"/>
+      <c r="E102" s="422"/>
+      <c r="F102" s="422"/>
+      <c r="G102" s="423"/>
     </row>
     <row r="103" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D103" s="406" t="s">
+      <c r="D103" s="421" t="s">
         <v>371</v>
       </c>
-      <c r="E103" s="407"/>
-      <c r="F103" s="407"/>
-      <c r="G103" s="408"/>
+      <c r="E103" s="422"/>
+      <c r="F103" s="422"/>
+      <c r="G103" s="423"/>
     </row>
     <row r="104" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D104" s="406" t="s">
+      <c r="D104" s="421" t="s">
         <v>372</v>
       </c>
-      <c r="E104" s="407"/>
-      <c r="F104" s="407"/>
-      <c r="G104" s="408"/>
+      <c r="E104" s="422"/>
+      <c r="F104" s="422"/>
+      <c r="G104" s="423"/>
     </row>
     <row r="105" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D105" s="406" t="s">
+      <c r="D105" s="421" t="s">
         <v>373</v>
       </c>
-      <c r="E105" s="407"/>
-      <c r="F105" s="407"/>
-      <c r="G105" s="408"/>
+      <c r="E105" s="422"/>
+      <c r="F105" s="422"/>
+      <c r="G105" s="423"/>
     </row>
     <row r="106" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D106" s="406" t="s">
+      <c r="D106" s="421" t="s">
         <v>374</v>
       </c>
-      <c r="E106" s="407"/>
-      <c r="F106" s="407"/>
-      <c r="G106" s="408"/>
+      <c r="E106" s="422"/>
+      <c r="F106" s="422"/>
+      <c r="G106" s="423"/>
     </row>
     <row r="107" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D107" s="406" t="s">
+      <c r="D107" s="421" t="s">
         <v>375</v>
       </c>
-      <c r="E107" s="407"/>
-      <c r="F107" s="407"/>
-      <c r="G107" s="408"/>
+      <c r="E107" s="422"/>
+      <c r="F107" s="422"/>
+      <c r="G107" s="423"/>
     </row>
     <row r="108" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D108" s="406" t="s">
+      <c r="D108" s="421" t="s">
         <v>376</v>
       </c>
-      <c r="E108" s="407"/>
-      <c r="F108" s="407"/>
-      <c r="G108" s="408"/>
+      <c r="E108" s="422"/>
+      <c r="F108" s="422"/>
+      <c r="G108" s="423"/>
     </row>
     <row r="109" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D109" s="406" t="s">
+      <c r="D109" s="421" t="s">
         <v>377</v>
       </c>
-      <c r="E109" s="407"/>
-      <c r="F109" s="407"/>
-      <c r="G109" s="408"/>
+      <c r="E109" s="422"/>
+      <c r="F109" s="422"/>
+      <c r="G109" s="423"/>
     </row>
     <row r="110" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D110" s="406" t="s">
+      <c r="D110" s="421" t="s">
         <v>378</v>
       </c>
-      <c r="E110" s="407"/>
-      <c r="F110" s="407"/>
-      <c r="G110" s="408"/>
+      <c r="E110" s="422"/>
+      <c r="F110" s="422"/>
+      <c r="G110" s="423"/>
     </row>
     <row r="111" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D111" s="406" t="s">
+      <c r="D111" s="421" t="s">
         <v>379</v>
       </c>
-      <c r="E111" s="407"/>
-      <c r="F111" s="407"/>
-      <c r="G111" s="408"/>
+      <c r="E111" s="422"/>
+      <c r="F111" s="422"/>
+      <c r="G111" s="423"/>
     </row>
     <row r="112" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D112" s="406" t="s">
+      <c r="D112" s="421" t="s">
         <v>380</v>
       </c>
-      <c r="E112" s="407"/>
-      <c r="F112" s="407"/>
-      <c r="G112" s="408"/>
+      <c r="E112" s="422"/>
+      <c r="F112" s="422"/>
+      <c r="G112" s="423"/>
     </row>
     <row r="113" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D113" s="409" t="s">
+      <c r="D113" s="424" t="s">
         <v>381</v>
       </c>
-      <c r="E113" s="410"/>
-      <c r="F113" s="410"/>
-      <c r="G113" s="411"/>
+      <c r="E113" s="425"/>
+      <c r="F113" s="425"/>
+      <c r="G113" s="426"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="D110:G110"/>
+    <mergeCell ref="D111:G111"/>
+    <mergeCell ref="D112:G112"/>
+    <mergeCell ref="D113:G113"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="D109:G109"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D94:G94"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
@@ -28268,30 +28241,6 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="D110:G110"/>
-    <mergeCell ref="D111:G111"/>
-    <mergeCell ref="D112:G112"/>
-    <mergeCell ref="D113:G113"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="D109:G109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -34732,20 +34681,20 @@
       <c r="K8" s="339"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="465" t="str">
+      <c r="N8" s="441" t="str">
         <f>[1]General!F3</f>
         <v>NI-MC-P-XXXX-2024</v>
       </c>
-      <c r="O8" s="446"/>
-      <c r="P8" s="446"/>
-      <c r="Q8" s="446"/>
-      <c r="R8" s="446"/>
-      <c r="S8" s="446"/>
-      <c r="T8" s="446"/>
-      <c r="U8" s="446"/>
-      <c r="V8" s="446"/>
-      <c r="W8" s="446"/>
-      <c r="X8" s="446"/>
+      <c r="O8" s="442"/>
+      <c r="P8" s="442"/>
+      <c r="Q8" s="442"/>
+      <c r="R8" s="442"/>
+      <c r="S8" s="442"/>
+      <c r="T8" s="442"/>
+      <c r="U8" s="442"/>
+      <c r="V8" s="442"/>
+      <c r="W8" s="442"/>
+      <c r="X8" s="442"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="320" t="s">
@@ -34762,20 +34711,20 @@
       <c r="K9" s="339"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="466" t="str">
+      <c r="N9" s="434" t="str">
         <f>[1]General!F4</f>
         <v>NI-CS-0062-23</v>
       </c>
-      <c r="O9" s="448"/>
-      <c r="P9" s="448"/>
-      <c r="Q9" s="448"/>
-      <c r="R9" s="448"/>
-      <c r="S9" s="448"/>
-      <c r="T9" s="448"/>
-      <c r="U9" s="448"/>
-      <c r="V9" s="448"/>
-      <c r="W9" s="448"/>
-      <c r="X9" s="448"/>
+      <c r="O9" s="435"/>
+      <c r="P9" s="435"/>
+      <c r="Q9" s="435"/>
+      <c r="R9" s="435"/>
+      <c r="S9" s="435"/>
+      <c r="T9" s="435"/>
+      <c r="U9" s="435"/>
+      <c r="V9" s="435"/>
+      <c r="W9" s="435"/>
+      <c r="X9" s="435"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="320" t="s">
@@ -34792,20 +34741,20 @@
       <c r="K10" s="339"/>
       <c r="L10" s="343"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="467">
+      <c r="N10" s="433">
         <f>[1]General!F5</f>
         <v>44965</v>
       </c>
-      <c r="O10" s="467"/>
-      <c r="P10" s="467"/>
-      <c r="Q10" s="467"/>
-      <c r="R10" s="467"/>
-      <c r="S10" s="467"/>
-      <c r="T10" s="467"/>
-      <c r="U10" s="467"/>
-      <c r="V10" s="467"/>
-      <c r="W10" s="467"/>
-      <c r="X10" s="467"/>
+      <c r="O10" s="433"/>
+      <c r="P10" s="433"/>
+      <c r="Q10" s="433"/>
+      <c r="R10" s="433"/>
+      <c r="S10" s="433"/>
+      <c r="T10" s="433"/>
+      <c r="U10" s="433"/>
+      <c r="V10" s="433"/>
+      <c r="W10" s="433"/>
+      <c r="X10" s="433"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="320" t="s">
@@ -34822,13 +34771,13 @@
       <c r="K11" s="339"/>
       <c r="L11" s="343"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="467">
+      <c r="N11" s="433">
         <f ca="1">NOW()</f>
-        <v>45337.542691666669</v>
-      </c>
-      <c r="O11" s="467"/>
-      <c r="P11" s="467"/>
-      <c r="Q11" s="467"/>
+        <v>45363.011507754629</v>
+      </c>
+      <c r="O11" s="433"/>
+      <c r="P11" s="433"/>
+      <c r="Q11" s="433"/>
       <c r="R11" s="342"/>
       <c r="S11" s="342"/>
       <c r="T11" s="342"/>
@@ -34852,20 +34801,20 @@
       <c r="K12" s="339"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="466" t="str">
+      <c r="N12" s="434" t="str">
         <f>[1]General!F7</f>
         <v xml:space="preserve">Manómetro </v>
       </c>
-      <c r="O12" s="448"/>
-      <c r="P12" s="448"/>
-      <c r="Q12" s="448"/>
-      <c r="R12" s="448"/>
-      <c r="S12" s="448"/>
-      <c r="T12" s="448"/>
-      <c r="U12" s="448"/>
-      <c r="V12" s="448"/>
-      <c r="W12" s="448"/>
-      <c r="X12" s="448"/>
+      <c r="O12" s="435"/>
+      <c r="P12" s="435"/>
+      <c r="Q12" s="435"/>
+      <c r="R12" s="435"/>
+      <c r="S12" s="435"/>
+      <c r="T12" s="435"/>
+      <c r="U12" s="435"/>
+      <c r="V12" s="435"/>
+      <c r="W12" s="435"/>
+      <c r="X12" s="435"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="320" t="s">
@@ -34882,20 +34831,20 @@
       <c r="K13" s="339"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="466" t="str">
+      <c r="N13" s="434" t="str">
         <f>[1]General!F10</f>
         <v>Ashcroft</v>
       </c>
-      <c r="O13" s="448"/>
-      <c r="P13" s="448"/>
-      <c r="Q13" s="448"/>
-      <c r="R13" s="448"/>
-      <c r="S13" s="448"/>
-      <c r="T13" s="448"/>
-      <c r="U13" s="448"/>
-      <c r="V13" s="448"/>
-      <c r="W13" s="448"/>
-      <c r="X13" s="448"/>
+      <c r="O13" s="435"/>
+      <c r="P13" s="435"/>
+      <c r="Q13" s="435"/>
+      <c r="R13" s="435"/>
+      <c r="S13" s="435"/>
+      <c r="T13" s="435"/>
+      <c r="U13" s="435"/>
+      <c r="V13" s="435"/>
+      <c r="W13" s="435"/>
+      <c r="X13" s="435"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="320" t="s">
@@ -34912,20 +34861,20 @@
       <c r="K14" s="339"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="466" t="str">
+      <c r="N14" s="434" t="str">
         <f>[1]General!F12</f>
         <v>asdfart547657</v>
       </c>
-      <c r="O14" s="448"/>
-      <c r="P14" s="448"/>
-      <c r="Q14" s="448"/>
-      <c r="R14" s="448"/>
-      <c r="S14" s="448"/>
-      <c r="T14" s="448"/>
-      <c r="U14" s="448"/>
-      <c r="V14" s="448"/>
-      <c r="W14" s="448"/>
-      <c r="X14" s="448"/>
+      <c r="O14" s="435"/>
+      <c r="P14" s="435"/>
+      <c r="Q14" s="435"/>
+      <c r="R14" s="435"/>
+      <c r="S14" s="435"/>
+      <c r="T14" s="435"/>
+      <c r="U14" s="435"/>
+      <c r="V14" s="435"/>
+      <c r="W14" s="435"/>
+      <c r="X14" s="435"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="320" t="s">
@@ -34942,20 +34891,20 @@
       <c r="K15" s="339"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="466" t="str">
+      <c r="N15" s="434" t="str">
         <f>[1]General!F11</f>
         <v>asdfadfdfdssd</v>
       </c>
-      <c r="O15" s="448"/>
-      <c r="P15" s="448"/>
-      <c r="Q15" s="448"/>
-      <c r="R15" s="448"/>
-      <c r="S15" s="448"/>
-      <c r="T15" s="448"/>
-      <c r="U15" s="448"/>
-      <c r="V15" s="448"/>
-      <c r="W15" s="448"/>
-      <c r="X15" s="448"/>
+      <c r="O15" s="435"/>
+      <c r="P15" s="435"/>
+      <c r="Q15" s="435"/>
+      <c r="R15" s="435"/>
+      <c r="S15" s="435"/>
+      <c r="T15" s="435"/>
+      <c r="U15" s="435"/>
+      <c r="V15" s="435"/>
+      <c r="W15" s="435"/>
+      <c r="X15" s="435"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="320" t="s">
@@ -34972,20 +34921,20 @@
       <c r="K16" s="339"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="466" t="str">
+      <c r="N16" s="434" t="str">
         <f>[1]General!F18</f>
         <v>0 psi a 100 psi</v>
       </c>
-      <c r="O16" s="448"/>
-      <c r="P16" s="448"/>
-      <c r="Q16" s="448"/>
-      <c r="R16" s="448"/>
-      <c r="S16" s="448"/>
-      <c r="T16" s="448"/>
-      <c r="U16" s="448"/>
-      <c r="V16" s="448"/>
-      <c r="W16" s="448"/>
-      <c r="X16" s="448"/>
+      <c r="O16" s="435"/>
+      <c r="P16" s="435"/>
+      <c r="Q16" s="435"/>
+      <c r="R16" s="435"/>
+      <c r="S16" s="435"/>
+      <c r="T16" s="435"/>
+      <c r="U16" s="435"/>
+      <c r="V16" s="435"/>
+      <c r="W16" s="435"/>
+      <c r="X16" s="435"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="320" t="s">
@@ -35002,18 +34951,18 @@
       <c r="K17" s="339"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="466">
+      <c r="N17" s="434">
         <f>[1]General!F15</f>
         <v>0.5</v>
       </c>
-      <c r="O17" s="448"/>
-      <c r="P17" s="466" t="str">
+      <c r="O17" s="435"/>
+      <c r="P17" s="434" t="str">
         <f>[1]General!F16</f>
         <v>psi</v>
       </c>
-      <c r="Q17" s="466"/>
-      <c r="R17" s="466"/>
-      <c r="S17" s="466"/>
+      <c r="Q17" s="434"/>
+      <c r="R17" s="434"/>
+      <c r="S17" s="434"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
@@ -35035,20 +34984,20 @@
       <c r="K18" s="339"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="466" t="str">
+      <c r="N18" s="434" t="str">
         <f>[1]General!F6</f>
         <v>SAJHJLF54564+SD</v>
       </c>
-      <c r="O18" s="448"/>
-      <c r="P18" s="448"/>
-      <c r="Q18" s="448"/>
-      <c r="R18" s="448"/>
-      <c r="S18" s="448"/>
-      <c r="T18" s="448"/>
-      <c r="U18" s="448"/>
-      <c r="V18" s="448"/>
-      <c r="W18" s="448"/>
-      <c r="X18" s="448"/>
+      <c r="O18" s="435"/>
+      <c r="P18" s="435"/>
+      <c r="Q18" s="435"/>
+      <c r="R18" s="435"/>
+      <c r="S18" s="435"/>
+      <c r="T18" s="435"/>
+      <c r="U18" s="435"/>
+      <c r="V18" s="435"/>
+      <c r="W18" s="435"/>
+      <c r="X18" s="435"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="320" t="s">
@@ -35065,20 +35014,20 @@
       <c r="K19" s="339"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="466" t="str">
+      <c r="N19" s="434" t="str">
         <f>[1]General!L3</f>
         <v>Agencia Aduanera GRH S,A.</v>
       </c>
-      <c r="O19" s="448"/>
-      <c r="P19" s="448"/>
-      <c r="Q19" s="448"/>
-      <c r="R19" s="448"/>
-      <c r="S19" s="448"/>
-      <c r="T19" s="448"/>
-      <c r="U19" s="448"/>
-      <c r="V19" s="448"/>
-      <c r="W19" s="448"/>
-      <c r="X19" s="448"/>
+      <c r="O19" s="435"/>
+      <c r="P19" s="435"/>
+      <c r="Q19" s="435"/>
+      <c r="R19" s="435"/>
+      <c r="S19" s="435"/>
+      <c r="T19" s="435"/>
+      <c r="U19" s="435"/>
+      <c r="V19" s="435"/>
+      <c r="W19" s="435"/>
+      <c r="X19" s="435"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="341" t="s">
@@ -35095,20 +35044,20 @@
       <c r="K20" s="339"/>
       <c r="L20" s="340"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="448" t="str">
+      <c r="N20" s="435" t="str">
         <f>[1]General!L4</f>
         <v>De Los Semáforos de Sabana Grande 1 500 m Este.</v>
       </c>
-      <c r="O20" s="448"/>
-      <c r="P20" s="448"/>
-      <c r="Q20" s="448"/>
-      <c r="R20" s="448"/>
-      <c r="S20" s="448"/>
-      <c r="T20" s="448"/>
-      <c r="U20" s="448"/>
-      <c r="V20" s="448"/>
-      <c r="W20" s="448"/>
-      <c r="X20" s="448"/>
+      <c r="O20" s="435"/>
+      <c r="P20" s="435"/>
+      <c r="Q20" s="435"/>
+      <c r="R20" s="435"/>
+      <c r="S20" s="435"/>
+      <c r="T20" s="435"/>
+      <c r="U20" s="435"/>
+      <c r="V20" s="435"/>
+      <c r="W20" s="435"/>
+      <c r="X20" s="435"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="320" t="s">
@@ -35125,34 +35074,34 @@
       <c r="K21" s="339"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="468" t="str">
+      <c r="N21" s="439" t="str">
         <f>[1]General!L6</f>
         <v>Laboratorio #2, Metrocal</v>
       </c>
-      <c r="O21" s="468"/>
-      <c r="P21" s="468"/>
-      <c r="Q21" s="468"/>
-      <c r="R21" s="468"/>
-      <c r="S21" s="468"/>
-      <c r="T21" s="468"/>
-      <c r="U21" s="468"/>
-      <c r="V21" s="468"/>
-      <c r="W21" s="468"/>
-      <c r="X21" s="468"/>
+      <c r="O21" s="439"/>
+      <c r="P21" s="439"/>
+      <c r="Q21" s="439"/>
+      <c r="R21" s="439"/>
+      <c r="S21" s="439"/>
+      <c r="T21" s="439"/>
+      <c r="U21" s="439"/>
+      <c r="V21" s="439"/>
+      <c r="W21" s="439"/>
+      <c r="X21" s="439"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="320"/>
-      <c r="N22" s="468"/>
-      <c r="O22" s="468"/>
-      <c r="P22" s="468"/>
-      <c r="Q22" s="468"/>
-      <c r="R22" s="468"/>
-      <c r="S22" s="468"/>
-      <c r="T22" s="468"/>
-      <c r="U22" s="468"/>
-      <c r="V22" s="468"/>
-      <c r="W22" s="468"/>
-      <c r="X22" s="468"/>
+      <c r="N22" s="439"/>
+      <c r="O22" s="439"/>
+      <c r="P22" s="439"/>
+      <c r="Q22" s="439"/>
+      <c r="R22" s="439"/>
+      <c r="S22" s="439"/>
+      <c r="T22" s="439"/>
+      <c r="U22" s="439"/>
+      <c r="V22" s="439"/>
+      <c r="W22" s="439"/>
+      <c r="X22" s="439"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="320" t="s">
@@ -35167,308 +35116,308 @@
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="462" t="s">
+      <c r="D24" s="440" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="462"/>
-      <c r="F24" s="462"/>
-      <c r="G24" s="462"/>
-      <c r="H24" s="462"/>
-      <c r="I24" s="462"/>
-      <c r="J24" s="462"/>
-      <c r="K24" s="462"/>
-      <c r="L24" s="462"/>
-      <c r="M24" s="462"/>
-      <c r="N24" s="462"/>
-      <c r="O24" s="462"/>
-      <c r="P24" s="462"/>
-      <c r="Q24" s="462"/>
-      <c r="R24" s="462"/>
-      <c r="S24" s="462"/>
-      <c r="T24" s="462"/>
-      <c r="U24" s="462"/>
-      <c r="V24" s="462"/>
-      <c r="W24" s="462"/>
+      <c r="E24" s="440"/>
+      <c r="F24" s="440"/>
+      <c r="G24" s="440"/>
+      <c r="H24" s="440"/>
+      <c r="I24" s="440"/>
+      <c r="J24" s="440"/>
+      <c r="K24" s="440"/>
+      <c r="L24" s="440"/>
+      <c r="M24" s="440"/>
+      <c r="N24" s="440"/>
+      <c r="O24" s="440"/>
+      <c r="P24" s="440"/>
+      <c r="Q24" s="440"/>
+      <c r="R24" s="440"/>
+      <c r="S24" s="440"/>
+      <c r="T24" s="440"/>
+      <c r="U24" s="440"/>
+      <c r="V24" s="440"/>
+      <c r="W24" s="440"/>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="463" t="s">
+      <c r="D25" s="443" t="s">
         <v>309</v>
       </c>
-      <c r="E25" s="463"/>
-      <c r="F25" s="464" t="s">
+      <c r="E25" s="443"/>
+      <c r="F25" s="444" t="s">
         <v>1333</v>
       </c>
-      <c r="G25" s="464"/>
-      <c r="H25" s="464"/>
-      <c r="I25" s="464"/>
-      <c r="J25" s="464"/>
-      <c r="K25" s="464"/>
-      <c r="L25" s="464" t="s">
+      <c r="G25" s="444"/>
+      <c r="H25" s="444"/>
+      <c r="I25" s="444"/>
+      <c r="J25" s="444"/>
+      <c r="K25" s="444"/>
+      <c r="L25" s="444" t="s">
         <v>90</v>
       </c>
-      <c r="M25" s="464"/>
-      <c r="N25" s="464"/>
-      <c r="O25" s="464"/>
-      <c r="P25" s="464"/>
-      <c r="Q25" s="464"/>
-      <c r="R25" s="463" t="s">
+      <c r="M25" s="444"/>
+      <c r="N25" s="444"/>
+      <c r="O25" s="444"/>
+      <c r="P25" s="444"/>
+      <c r="Q25" s="444"/>
+      <c r="R25" s="443" t="s">
         <v>1332</v>
       </c>
-      <c r="S25" s="463"/>
-      <c r="T25" s="463"/>
-      <c r="U25" s="463"/>
-      <c r="V25" s="463"/>
-      <c r="W25" s="463"/>
+      <c r="S25" s="443"/>
+      <c r="T25" s="443"/>
+      <c r="U25" s="443"/>
+      <c r="V25" s="443"/>
+      <c r="W25" s="443"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="463"/>
-      <c r="E26" s="463"/>
-      <c r="F26" s="464"/>
-      <c r="G26" s="464"/>
-      <c r="H26" s="464"/>
-      <c r="I26" s="464"/>
-      <c r="J26" s="464"/>
-      <c r="K26" s="464"/>
-      <c r="L26" s="464"/>
-      <c r="M26" s="464"/>
-      <c r="N26" s="464"/>
-      <c r="O26" s="464"/>
-      <c r="P26" s="464"/>
-      <c r="Q26" s="464"/>
-      <c r="R26" s="463"/>
-      <c r="S26" s="463"/>
-      <c r="T26" s="463"/>
-      <c r="U26" s="463"/>
-      <c r="V26" s="463"/>
-      <c r="W26" s="463"/>
+      <c r="D26" s="443"/>
+      <c r="E26" s="443"/>
+      <c r="F26" s="444"/>
+      <c r="G26" s="444"/>
+      <c r="H26" s="444"/>
+      <c r="I26" s="444"/>
+      <c r="J26" s="444"/>
+      <c r="K26" s="444"/>
+      <c r="L26" s="444"/>
+      <c r="M26" s="444"/>
+      <c r="N26" s="444"/>
+      <c r="O26" s="444"/>
+      <c r="P26" s="444"/>
+      <c r="Q26" s="444"/>
+      <c r="R26" s="443"/>
+      <c r="S26" s="443"/>
+      <c r="T26" s="443"/>
+      <c r="U26" s="443"/>
+      <c r="V26" s="443"/>
+      <c r="W26" s="443"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="454" t="str">
+      <c r="D27" s="445" t="str">
         <f>Calibración!C37</f>
         <v>psi</v>
       </c>
-      <c r="E27" s="454"/>
-      <c r="F27" s="455" t="str">
+      <c r="E27" s="445"/>
+      <c r="F27" s="436" t="str">
         <f>Calibración!D37</f>
         <v>psi</v>
       </c>
-      <c r="G27" s="456"/>
-      <c r="H27" s="456"/>
-      <c r="I27" s="456"/>
-      <c r="J27" s="456"/>
-      <c r="K27" s="457"/>
-      <c r="L27" s="455" t="str">
+      <c r="G27" s="437"/>
+      <c r="H27" s="437"/>
+      <c r="I27" s="437"/>
+      <c r="J27" s="437"/>
+      <c r="K27" s="438"/>
+      <c r="L27" s="436" t="str">
         <f>Calibración!E37</f>
         <v>psi</v>
       </c>
-      <c r="M27" s="456"/>
-      <c r="N27" s="456"/>
-      <c r="O27" s="456"/>
-      <c r="P27" s="456"/>
-      <c r="Q27" s="457"/>
-      <c r="R27" s="455" t="str">
+      <c r="M27" s="437"/>
+      <c r="N27" s="437"/>
+      <c r="O27" s="437"/>
+      <c r="P27" s="437"/>
+      <c r="Q27" s="438"/>
+      <c r="R27" s="436" t="str">
         <f>Calibración!F37</f>
         <v>psi</v>
       </c>
-      <c r="S27" s="456"/>
-      <c r="T27" s="456"/>
-      <c r="U27" s="456"/>
-      <c r="V27" s="456"/>
-      <c r="W27" s="457"/>
+      <c r="S27" s="437"/>
+      <c r="T27" s="437"/>
+      <c r="U27" s="437"/>
+      <c r="V27" s="437"/>
+      <c r="W27" s="438"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="458" t="str">
+      <c r="D28" s="429" t="str">
         <f ca="1">Calibración!C38</f>
         <v/>
       </c>
-      <c r="E28" s="458"/>
-      <c r="F28" s="459" t="str">
+      <c r="E28" s="429"/>
+      <c r="F28" s="430" t="str">
         <f ca="1">Calibración!D38</f>
         <v/>
       </c>
-      <c r="G28" s="460"/>
-      <c r="H28" s="460"/>
-      <c r="I28" s="460"/>
-      <c r="J28" s="460"/>
-      <c r="K28" s="461"/>
-      <c r="L28" s="459" t="str">
+      <c r="G28" s="431"/>
+      <c r="H28" s="431"/>
+      <c r="I28" s="431"/>
+      <c r="J28" s="431"/>
+      <c r="K28" s="432"/>
+      <c r="L28" s="430" t="str">
         <f ca="1">Calibración!E38</f>
         <v/>
       </c>
-      <c r="M28" s="460"/>
-      <c r="N28" s="460"/>
-      <c r="O28" s="460"/>
-      <c r="P28" s="460"/>
-      <c r="Q28" s="461"/>
-      <c r="R28" s="459" t="str">
+      <c r="M28" s="431"/>
+      <c r="N28" s="431"/>
+      <c r="O28" s="431"/>
+      <c r="P28" s="431"/>
+      <c r="Q28" s="432"/>
+      <c r="R28" s="430" t="str">
         <f ca="1">Calibración!F38</f>
         <v/>
       </c>
-      <c r="S28" s="460"/>
-      <c r="T28" s="460"/>
-      <c r="U28" s="460"/>
-      <c r="V28" s="460"/>
-      <c r="W28" s="461"/>
+      <c r="S28" s="431"/>
+      <c r="T28" s="431"/>
+      <c r="U28" s="431"/>
+      <c r="V28" s="431"/>
+      <c r="W28" s="432"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="458" t="str">
+      <c r="D29" s="429" t="str">
         <f ca="1">Calibración!C39</f>
         <v/>
       </c>
-      <c r="E29" s="458"/>
-      <c r="F29" s="459" t="str">
+      <c r="E29" s="429"/>
+      <c r="F29" s="430" t="str">
         <f ca="1">Calibración!D39</f>
         <v/>
       </c>
-      <c r="G29" s="460"/>
-      <c r="H29" s="460"/>
-      <c r="I29" s="460"/>
-      <c r="J29" s="460"/>
-      <c r="K29" s="461"/>
-      <c r="L29" s="459" t="str">
+      <c r="G29" s="431"/>
+      <c r="H29" s="431"/>
+      <c r="I29" s="431"/>
+      <c r="J29" s="431"/>
+      <c r="K29" s="432"/>
+      <c r="L29" s="430" t="str">
         <f ca="1">Calibración!E39</f>
         <v/>
       </c>
-      <c r="M29" s="460"/>
-      <c r="N29" s="460"/>
-      <c r="O29" s="460"/>
-      <c r="P29" s="460"/>
-      <c r="Q29" s="461"/>
-      <c r="R29" s="459" t="str">
+      <c r="M29" s="431"/>
+      <c r="N29" s="431"/>
+      <c r="O29" s="431"/>
+      <c r="P29" s="431"/>
+      <c r="Q29" s="432"/>
+      <c r="R29" s="430" t="str">
         <f ca="1">Calibración!F39</f>
         <v/>
       </c>
-      <c r="S29" s="460"/>
-      <c r="T29" s="460"/>
-      <c r="U29" s="460"/>
-      <c r="V29" s="460"/>
-      <c r="W29" s="461"/>
+      <c r="S29" s="431"/>
+      <c r="T29" s="431"/>
+      <c r="U29" s="431"/>
+      <c r="V29" s="431"/>
+      <c r="W29" s="432"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="458" t="str">
+      <c r="D30" s="429" t="str">
         <f ca="1">Calibración!C40</f>
         <v/>
       </c>
-      <c r="E30" s="458"/>
-      <c r="F30" s="459" t="str">
+      <c r="E30" s="429"/>
+      <c r="F30" s="430" t="str">
         <f ca="1">Calibración!D40</f>
         <v/>
       </c>
-      <c r="G30" s="460"/>
-      <c r="H30" s="460"/>
-      <c r="I30" s="460"/>
-      <c r="J30" s="460"/>
-      <c r="K30" s="461"/>
-      <c r="L30" s="459" t="str">
+      <c r="G30" s="431"/>
+      <c r="H30" s="431"/>
+      <c r="I30" s="431"/>
+      <c r="J30" s="431"/>
+      <c r="K30" s="432"/>
+      <c r="L30" s="430" t="str">
         <f ca="1">Calibración!E40</f>
         <v/>
       </c>
-      <c r="M30" s="460"/>
-      <c r="N30" s="460"/>
-      <c r="O30" s="460"/>
-      <c r="P30" s="460"/>
-      <c r="Q30" s="461"/>
-      <c r="R30" s="459" t="str">
+      <c r="M30" s="431"/>
+      <c r="N30" s="431"/>
+      <c r="O30" s="431"/>
+      <c r="P30" s="431"/>
+      <c r="Q30" s="432"/>
+      <c r="R30" s="430" t="str">
         <f ca="1">Calibración!F40</f>
         <v/>
       </c>
-      <c r="S30" s="460"/>
-      <c r="T30" s="460"/>
-      <c r="U30" s="460"/>
-      <c r="V30" s="460"/>
-      <c r="W30" s="461"/>
+      <c r="S30" s="431"/>
+      <c r="T30" s="431"/>
+      <c r="U30" s="431"/>
+      <c r="V30" s="431"/>
+      <c r="W30" s="432"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="458" t="str">
+      <c r="D31" s="429" t="str">
         <f ca="1">Calibración!C41</f>
         <v/>
       </c>
-      <c r="E31" s="458"/>
-      <c r="F31" s="459" t="str">
+      <c r="E31" s="429"/>
+      <c r="F31" s="430" t="str">
         <f ca="1">Calibración!D41</f>
         <v/>
       </c>
-      <c r="G31" s="460"/>
-      <c r="H31" s="460"/>
-      <c r="I31" s="460"/>
-      <c r="J31" s="460"/>
-      <c r="K31" s="461"/>
-      <c r="L31" s="459" t="str">
+      <c r="G31" s="431"/>
+      <c r="H31" s="431"/>
+      <c r="I31" s="431"/>
+      <c r="J31" s="431"/>
+      <c r="K31" s="432"/>
+      <c r="L31" s="430" t="str">
         <f ca="1">Calibración!E41</f>
         <v/>
       </c>
-      <c r="M31" s="460"/>
-      <c r="N31" s="460"/>
-      <c r="O31" s="460"/>
-      <c r="P31" s="460"/>
-      <c r="Q31" s="461"/>
-      <c r="R31" s="459" t="str">
+      <c r="M31" s="431"/>
+      <c r="N31" s="431"/>
+      <c r="O31" s="431"/>
+      <c r="P31" s="431"/>
+      <c r="Q31" s="432"/>
+      <c r="R31" s="430" t="str">
         <f ca="1">Calibración!F41</f>
         <v/>
       </c>
-      <c r="S31" s="460"/>
-      <c r="T31" s="460"/>
-      <c r="U31" s="460"/>
-      <c r="V31" s="460"/>
-      <c r="W31" s="461"/>
+      <c r="S31" s="431"/>
+      <c r="T31" s="431"/>
+      <c r="U31" s="431"/>
+      <c r="V31" s="431"/>
+      <c r="W31" s="432"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="458" t="str">
+      <c r="D32" s="429" t="str">
         <f ca="1">Calibración!C42</f>
         <v/>
       </c>
-      <c r="E32" s="458"/>
-      <c r="F32" s="459" t="str">
+      <c r="E32" s="429"/>
+      <c r="F32" s="430" t="str">
         <f ca="1">Calibración!D42</f>
         <v/>
       </c>
-      <c r="G32" s="460"/>
-      <c r="H32" s="460"/>
-      <c r="I32" s="460"/>
-      <c r="J32" s="460"/>
-      <c r="K32" s="461"/>
-      <c r="L32" s="459" t="str">
+      <c r="G32" s="431"/>
+      <c r="H32" s="431"/>
+      <c r="I32" s="431"/>
+      <c r="J32" s="431"/>
+      <c r="K32" s="432"/>
+      <c r="L32" s="430" t="str">
         <f ca="1">Calibración!E42</f>
         <v/>
       </c>
-      <c r="M32" s="460"/>
-      <c r="N32" s="460"/>
-      <c r="O32" s="460"/>
-      <c r="P32" s="460"/>
-      <c r="Q32" s="461"/>
-      <c r="R32" s="459" t="str">
+      <c r="M32" s="431"/>
+      <c r="N32" s="431"/>
+      <c r="O32" s="431"/>
+      <c r="P32" s="431"/>
+      <c r="Q32" s="432"/>
+      <c r="R32" s="430" t="str">
         <f ca="1">Calibración!F42</f>
         <v/>
       </c>
-      <c r="S32" s="460"/>
-      <c r="T32" s="460"/>
-      <c r="U32" s="460"/>
-      <c r="V32" s="460"/>
-      <c r="W32" s="461"/>
+      <c r="S32" s="431"/>
+      <c r="T32" s="431"/>
+      <c r="U32" s="431"/>
+      <c r="V32" s="431"/>
+      <c r="W32" s="432"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D33" s="337"/>
@@ -35521,308 +35470,308 @@
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="462" t="s">
+      <c r="D35" s="440" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="462"/>
-      <c r="F35" s="462"/>
-      <c r="G35" s="462"/>
-      <c r="H35" s="462"/>
-      <c r="I35" s="462"/>
-      <c r="J35" s="462"/>
-      <c r="K35" s="462"/>
-      <c r="L35" s="462"/>
-      <c r="M35" s="462"/>
-      <c r="N35" s="462"/>
-      <c r="O35" s="462"/>
-      <c r="P35" s="462"/>
-      <c r="Q35" s="462"/>
-      <c r="R35" s="462"/>
-      <c r="S35" s="462"/>
-      <c r="T35" s="462"/>
-      <c r="U35" s="462"/>
-      <c r="V35" s="462"/>
-      <c r="W35" s="462"/>
+      <c r="E35" s="440"/>
+      <c r="F35" s="440"/>
+      <c r="G35" s="440"/>
+      <c r="H35" s="440"/>
+      <c r="I35" s="440"/>
+      <c r="J35" s="440"/>
+      <c r="K35" s="440"/>
+      <c r="L35" s="440"/>
+      <c r="M35" s="440"/>
+      <c r="N35" s="440"/>
+      <c r="O35" s="440"/>
+      <c r="P35" s="440"/>
+      <c r="Q35" s="440"/>
+      <c r="R35" s="440"/>
+      <c r="S35" s="440"/>
+      <c r="T35" s="440"/>
+      <c r="U35" s="440"/>
+      <c r="V35" s="440"/>
+      <c r="W35" s="440"/>
     </row>
     <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="463" t="s">
+      <c r="D36" s="443" t="s">
         <v>309</v>
       </c>
-      <c r="E36" s="463"/>
-      <c r="F36" s="464" t="s">
+      <c r="E36" s="443"/>
+      <c r="F36" s="444" t="s">
         <v>1333</v>
       </c>
-      <c r="G36" s="464"/>
-      <c r="H36" s="464"/>
-      <c r="I36" s="464"/>
-      <c r="J36" s="464"/>
-      <c r="K36" s="464"/>
-      <c r="L36" s="464" t="s">
+      <c r="G36" s="444"/>
+      <c r="H36" s="444"/>
+      <c r="I36" s="444"/>
+      <c r="J36" s="444"/>
+      <c r="K36" s="444"/>
+      <c r="L36" s="444" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="464"/>
-      <c r="N36" s="464"/>
-      <c r="O36" s="464"/>
-      <c r="P36" s="464"/>
-      <c r="Q36" s="464"/>
-      <c r="R36" s="463" t="s">
+      <c r="M36" s="444"/>
+      <c r="N36" s="444"/>
+      <c r="O36" s="444"/>
+      <c r="P36" s="444"/>
+      <c r="Q36" s="444"/>
+      <c r="R36" s="443" t="s">
         <v>1332</v>
       </c>
-      <c r="S36" s="463"/>
-      <c r="T36" s="463"/>
-      <c r="U36" s="463"/>
-      <c r="V36" s="463"/>
-      <c r="W36" s="463"/>
+      <c r="S36" s="443"/>
+      <c r="T36" s="443"/>
+      <c r="U36" s="443"/>
+      <c r="V36" s="443"/>
+      <c r="W36" s="443"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="463"/>
-      <c r="E37" s="463"/>
-      <c r="F37" s="464"/>
-      <c r="G37" s="464"/>
-      <c r="H37" s="464"/>
-      <c r="I37" s="464"/>
-      <c r="J37" s="464"/>
-      <c r="K37" s="464"/>
-      <c r="L37" s="464"/>
-      <c r="M37" s="464"/>
-      <c r="N37" s="464"/>
-      <c r="O37" s="464"/>
-      <c r="P37" s="464"/>
-      <c r="Q37" s="464"/>
-      <c r="R37" s="463"/>
-      <c r="S37" s="463"/>
-      <c r="T37" s="463"/>
-      <c r="U37" s="463"/>
-      <c r="V37" s="463"/>
-      <c r="W37" s="463"/>
+      <c r="D37" s="443"/>
+      <c r="E37" s="443"/>
+      <c r="F37" s="444"/>
+      <c r="G37" s="444"/>
+      <c r="H37" s="444"/>
+      <c r="I37" s="444"/>
+      <c r="J37" s="444"/>
+      <c r="K37" s="444"/>
+      <c r="L37" s="444"/>
+      <c r="M37" s="444"/>
+      <c r="N37" s="444"/>
+      <c r="O37" s="444"/>
+      <c r="P37" s="444"/>
+      <c r="Q37" s="444"/>
+      <c r="R37" s="443"/>
+      <c r="S37" s="443"/>
+      <c r="T37" s="443"/>
+      <c r="U37" s="443"/>
+      <c r="V37" s="443"/>
+      <c r="W37" s="443"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="454" t="str">
+      <c r="D38" s="445" t="str">
         <f>Calibración!G37</f>
         <v>kPa</v>
       </c>
-      <c r="E38" s="454"/>
-      <c r="F38" s="455" t="str">
+      <c r="E38" s="445"/>
+      <c r="F38" s="436" t="str">
         <f>Calibración!H37</f>
         <v>kPa</v>
       </c>
-      <c r="G38" s="456"/>
-      <c r="H38" s="456"/>
-      <c r="I38" s="456"/>
-      <c r="J38" s="456"/>
-      <c r="K38" s="457"/>
-      <c r="L38" s="454" t="str">
+      <c r="G38" s="437"/>
+      <c r="H38" s="437"/>
+      <c r="I38" s="437"/>
+      <c r="J38" s="437"/>
+      <c r="K38" s="438"/>
+      <c r="L38" s="445" t="str">
         <f>Calibración!I37</f>
         <v>kPa</v>
       </c>
-      <c r="M38" s="454"/>
-      <c r="N38" s="454"/>
-      <c r="O38" s="454"/>
-      <c r="P38" s="454"/>
-      <c r="Q38" s="454"/>
-      <c r="R38" s="454" t="str">
+      <c r="M38" s="445"/>
+      <c r="N38" s="445"/>
+      <c r="O38" s="445"/>
+      <c r="P38" s="445"/>
+      <c r="Q38" s="445"/>
+      <c r="R38" s="445" t="str">
         <f>Calibración!J37</f>
         <v>kPa</v>
       </c>
-      <c r="S38" s="454"/>
-      <c r="T38" s="454"/>
-      <c r="U38" s="454"/>
-      <c r="V38" s="454"/>
-      <c r="W38" s="454"/>
+      <c r="S38" s="445"/>
+      <c r="T38" s="445"/>
+      <c r="U38" s="445"/>
+      <c r="V38" s="445"/>
+      <c r="W38" s="445"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="450" t="str">
+      <c r="D39" s="446" t="str">
         <f ca="1">Calibración!G38</f>
         <v/>
       </c>
-      <c r="E39" s="451"/>
-      <c r="F39" s="450" t="str">
+      <c r="E39" s="447"/>
+      <c r="F39" s="446" t="str">
         <f ca="1">Calibración!H38</f>
         <v/>
       </c>
-      <c r="G39" s="452"/>
-      <c r="H39" s="452"/>
-      <c r="I39" s="452"/>
-      <c r="J39" s="452"/>
-      <c r="K39" s="451"/>
-      <c r="L39" s="453" t="str">
+      <c r="G39" s="448"/>
+      <c r="H39" s="448"/>
+      <c r="I39" s="448"/>
+      <c r="J39" s="448"/>
+      <c r="K39" s="447"/>
+      <c r="L39" s="449" t="str">
         <f ca="1">Calibración!I38</f>
         <v/>
       </c>
-      <c r="M39" s="453"/>
-      <c r="N39" s="453"/>
-      <c r="O39" s="453"/>
-      <c r="P39" s="453"/>
-      <c r="Q39" s="453"/>
-      <c r="R39" s="453" t="str">
+      <c r="M39" s="449"/>
+      <c r="N39" s="449"/>
+      <c r="O39" s="449"/>
+      <c r="P39" s="449"/>
+      <c r="Q39" s="449"/>
+      <c r="R39" s="449" t="str">
         <f ca="1">Calibración!J38</f>
         <v/>
       </c>
-      <c r="S39" s="453"/>
-      <c r="T39" s="453"/>
-      <c r="U39" s="453"/>
-      <c r="V39" s="453"/>
-      <c r="W39" s="453"/>
+      <c r="S39" s="449"/>
+      <c r="T39" s="449"/>
+      <c r="U39" s="449"/>
+      <c r="V39" s="449"/>
+      <c r="W39" s="449"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="450" t="str">
+      <c r="D40" s="446" t="str">
         <f ca="1">Calibración!G39</f>
         <v/>
       </c>
-      <c r="E40" s="451"/>
-      <c r="F40" s="450" t="str">
+      <c r="E40" s="447"/>
+      <c r="F40" s="446" t="str">
         <f ca="1">Calibración!H39</f>
         <v/>
       </c>
-      <c r="G40" s="452"/>
-      <c r="H40" s="452"/>
-      <c r="I40" s="452"/>
-      <c r="J40" s="452"/>
-      <c r="K40" s="451"/>
-      <c r="L40" s="453" t="str">
+      <c r="G40" s="448"/>
+      <c r="H40" s="448"/>
+      <c r="I40" s="448"/>
+      <c r="J40" s="448"/>
+      <c r="K40" s="447"/>
+      <c r="L40" s="449" t="str">
         <f ca="1">Calibración!I39</f>
         <v/>
       </c>
-      <c r="M40" s="453"/>
-      <c r="N40" s="453"/>
-      <c r="O40" s="453"/>
-      <c r="P40" s="453"/>
-      <c r="Q40" s="453"/>
-      <c r="R40" s="453" t="str">
+      <c r="M40" s="449"/>
+      <c r="N40" s="449"/>
+      <c r="O40" s="449"/>
+      <c r="P40" s="449"/>
+      <c r="Q40" s="449"/>
+      <c r="R40" s="449" t="str">
         <f ca="1">Calibración!J39</f>
         <v/>
       </c>
-      <c r="S40" s="453"/>
-      <c r="T40" s="453"/>
-      <c r="U40" s="453"/>
-      <c r="V40" s="453"/>
-      <c r="W40" s="453"/>
+      <c r="S40" s="449"/>
+      <c r="T40" s="449"/>
+      <c r="U40" s="449"/>
+      <c r="V40" s="449"/>
+      <c r="W40" s="449"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="450" t="str">
+      <c r="D41" s="446" t="str">
         <f ca="1">Calibración!G40</f>
         <v/>
       </c>
-      <c r="E41" s="451"/>
-      <c r="F41" s="450" t="str">
+      <c r="E41" s="447"/>
+      <c r="F41" s="446" t="str">
         <f ca="1">Calibración!H40</f>
         <v/>
       </c>
-      <c r="G41" s="452"/>
-      <c r="H41" s="452"/>
-      <c r="I41" s="452"/>
-      <c r="J41" s="452"/>
-      <c r="K41" s="451"/>
-      <c r="L41" s="453" t="str">
+      <c r="G41" s="448"/>
+      <c r="H41" s="448"/>
+      <c r="I41" s="448"/>
+      <c r="J41" s="448"/>
+      <c r="K41" s="447"/>
+      <c r="L41" s="449" t="str">
         <f ca="1">Calibración!I40</f>
         <v/>
       </c>
-      <c r="M41" s="453"/>
-      <c r="N41" s="453"/>
-      <c r="O41" s="453"/>
-      <c r="P41" s="453"/>
-      <c r="Q41" s="453"/>
-      <c r="R41" s="453" t="str">
+      <c r="M41" s="449"/>
+      <c r="N41" s="449"/>
+      <c r="O41" s="449"/>
+      <c r="P41" s="449"/>
+      <c r="Q41" s="449"/>
+      <c r="R41" s="449" t="str">
         <f ca="1">Calibración!J40</f>
         <v/>
       </c>
-      <c r="S41" s="453"/>
-      <c r="T41" s="453"/>
-      <c r="U41" s="453"/>
-      <c r="V41" s="453"/>
-      <c r="W41" s="453"/>
+      <c r="S41" s="449"/>
+      <c r="T41" s="449"/>
+      <c r="U41" s="449"/>
+      <c r="V41" s="449"/>
+      <c r="W41" s="449"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="450" t="str">
+      <c r="D42" s="446" t="str">
         <f ca="1">Calibración!G41</f>
         <v/>
       </c>
-      <c r="E42" s="451"/>
-      <c r="F42" s="450" t="str">
+      <c r="E42" s="447"/>
+      <c r="F42" s="446" t="str">
         <f ca="1">Calibración!H41</f>
         <v/>
       </c>
-      <c r="G42" s="452"/>
-      <c r="H42" s="452"/>
-      <c r="I42" s="452"/>
-      <c r="J42" s="452"/>
-      <c r="K42" s="451"/>
-      <c r="L42" s="453" t="str">
+      <c r="G42" s="448"/>
+      <c r="H42" s="448"/>
+      <c r="I42" s="448"/>
+      <c r="J42" s="448"/>
+      <c r="K42" s="447"/>
+      <c r="L42" s="449" t="str">
         <f ca="1">Calibración!I41</f>
         <v/>
       </c>
-      <c r="M42" s="453"/>
-      <c r="N42" s="453"/>
-      <c r="O42" s="453"/>
-      <c r="P42" s="453"/>
-      <c r="Q42" s="453"/>
-      <c r="R42" s="453" t="str">
+      <c r="M42" s="449"/>
+      <c r="N42" s="449"/>
+      <c r="O42" s="449"/>
+      <c r="P42" s="449"/>
+      <c r="Q42" s="449"/>
+      <c r="R42" s="449" t="str">
         <f ca="1">Calibración!J41</f>
         <v/>
       </c>
-      <c r="S42" s="453"/>
-      <c r="T42" s="453"/>
-      <c r="U42" s="453"/>
-      <c r="V42" s="453"/>
-      <c r="W42" s="453"/>
+      <c r="S42" s="449"/>
+      <c r="T42" s="449"/>
+      <c r="U42" s="449"/>
+      <c r="V42" s="449"/>
+      <c r="W42" s="449"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="450" t="str">
+      <c r="D43" s="446" t="str">
         <f ca="1">Calibración!G42</f>
         <v/>
       </c>
-      <c r="E43" s="451"/>
-      <c r="F43" s="450" t="str">
+      <c r="E43" s="447"/>
+      <c r="F43" s="446" t="str">
         <f ca="1">Calibración!H42</f>
         <v/>
       </c>
-      <c r="G43" s="452"/>
-      <c r="H43" s="452"/>
-      <c r="I43" s="452"/>
-      <c r="J43" s="452"/>
-      <c r="K43" s="451"/>
-      <c r="L43" s="453" t="str">
+      <c r="G43" s="448"/>
+      <c r="H43" s="448"/>
+      <c r="I43" s="448"/>
+      <c r="J43" s="448"/>
+      <c r="K43" s="447"/>
+      <c r="L43" s="449" t="str">
         <f ca="1">Calibración!I42</f>
         <v/>
       </c>
-      <c r="M43" s="453"/>
-      <c r="N43" s="453"/>
-      <c r="O43" s="453"/>
-      <c r="P43" s="453"/>
-      <c r="Q43" s="453"/>
-      <c r="R43" s="453" t="str">
+      <c r="M43" s="449"/>
+      <c r="N43" s="449"/>
+      <c r="O43" s="449"/>
+      <c r="P43" s="449"/>
+      <c r="Q43" s="449"/>
+      <c r="R43" s="449" t="str">
         <f ca="1">Calibración!J42</f>
         <v/>
       </c>
-      <c r="S43" s="453"/>
-      <c r="T43" s="453"/>
-      <c r="U43" s="453"/>
-      <c r="V43" s="453"/>
-      <c r="W43" s="453"/>
+      <c r="S43" s="449"/>
+      <c r="T43" s="449"/>
+      <c r="U43" s="449"/>
+      <c r="V43" s="449"/>
+      <c r="W43" s="449"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="320" t="s">
@@ -35857,11 +35806,11 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="335"/>
-      <c r="B46" s="447" t="s">
+      <c r="B46" s="457" t="s">
         <v>1329</v>
       </c>
-      <c r="C46" s="447"/>
-      <c r="D46" s="447"/>
+      <c r="C46" s="457"/>
+      <c r="D46" s="457"/>
       <c r="E46" s="334">
         <f>CertTempC</f>
         <v>22.25</v>
@@ -35878,8 +35827,8 @@
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="448"/>
-      <c r="L46" s="448"/>
+      <c r="K46" s="435"/>
+      <c r="L46" s="435"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
@@ -35889,11 +35838,11 @@
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
-      <c r="T46" s="449">
+      <c r="T46" s="458">
         <f>General!I18</f>
         <v>1001</v>
       </c>
-      <c r="U46" s="449"/>
+      <c r="U46" s="458"/>
       <c r="V46" s="332" t="s">
         <v>1326</v>
       </c>
@@ -36217,19 +36166,19 @@
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
-      <c r="N58" s="446" t="str">
+      <c r="N58" s="442" t="str">
         <f>N8</f>
         <v>NI-MC-P-XXXX-2024</v>
       </c>
-      <c r="O58" s="446"/>
-      <c r="P58" s="446"/>
-      <c r="Q58" s="446"/>
-      <c r="R58" s="446"/>
-      <c r="S58" s="446"/>
-      <c r="T58" s="446"/>
-      <c r="U58" s="446"/>
-      <c r="V58" s="446"/>
-      <c r="W58" s="446"/>
+      <c r="O58" s="442"/>
+      <c r="P58" s="442"/>
+      <c r="Q58" s="442"/>
+      <c r="R58" s="442"/>
+      <c r="S58" s="442"/>
+      <c r="T58" s="442"/>
+      <c r="U58" s="442"/>
+      <c r="V58" s="442"/>
+      <c r="W58" s="442"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="320"/>
@@ -36309,32 +36258,32 @@
       <c r="W61" s="8"/>
     </row>
     <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="439" t="s">
+      <c r="A62" s="450" t="s">
         <v>1320</v>
       </c>
-      <c r="B62" s="439"/>
-      <c r="C62" s="439"/>
-      <c r="D62" s="439"/>
-      <c r="E62" s="439"/>
-      <c r="F62" s="439"/>
-      <c r="G62" s="439"/>
-      <c r="H62" s="439"/>
-      <c r="I62" s="439"/>
-      <c r="J62" s="439"/>
-      <c r="K62" s="439"/>
-      <c r="L62" s="439"/>
-      <c r="M62" s="439"/>
-      <c r="N62" s="439"/>
-      <c r="O62" s="439"/>
-      <c r="P62" s="439"/>
-      <c r="Q62" s="439"/>
-      <c r="R62" s="439"/>
-      <c r="S62" s="439"/>
-      <c r="T62" s="439"/>
-      <c r="U62" s="439"/>
-      <c r="V62" s="439"/>
-      <c r="W62" s="439"/>
-      <c r="X62" s="439"/>
+      <c r="B62" s="450"/>
+      <c r="C62" s="450"/>
+      <c r="D62" s="450"/>
+      <c r="E62" s="450"/>
+      <c r="F62" s="450"/>
+      <c r="G62" s="450"/>
+      <c r="H62" s="450"/>
+      <c r="I62" s="450"/>
+      <c r="J62" s="450"/>
+      <c r="K62" s="450"/>
+      <c r="L62" s="450"/>
+      <c r="M62" s="450"/>
+      <c r="N62" s="450"/>
+      <c r="O62" s="450"/>
+      <c r="P62" s="450"/>
+      <c r="Q62" s="450"/>
+      <c r="R62" s="450"/>
+      <c r="S62" s="450"/>
+      <c r="T62" s="450"/>
+      <c r="U62" s="450"/>
+      <c r="V62" s="450"/>
+      <c r="W62" s="450"/>
+      <c r="X62" s="450"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B63" s="12"/>
@@ -36389,136 +36338,136 @@
       <c r="X64" s="12"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A65" s="439" t="s">
+      <c r="A65" s="450" t="s">
         <v>1318</v>
       </c>
-      <c r="B65" s="439"/>
-      <c r="C65" s="439"/>
-      <c r="D65" s="439"/>
-      <c r="E65" s="439"/>
-      <c r="F65" s="439"/>
-      <c r="G65" s="439"/>
-      <c r="H65" s="439"/>
-      <c r="I65" s="439"/>
-      <c r="J65" s="439"/>
-      <c r="K65" s="439"/>
-      <c r="L65" s="439"/>
-      <c r="M65" s="439"/>
-      <c r="N65" s="439"/>
-      <c r="O65" s="439"/>
-      <c r="P65" s="439"/>
-      <c r="Q65" s="439"/>
-      <c r="R65" s="439"/>
-      <c r="S65" s="439"/>
-      <c r="T65" s="439"/>
-      <c r="U65" s="439"/>
-      <c r="V65" s="439"/>
-      <c r="W65" s="439"/>
-      <c r="X65" s="439"/>
+      <c r="B65" s="450"/>
+      <c r="C65" s="450"/>
+      <c r="D65" s="450"/>
+      <c r="E65" s="450"/>
+      <c r="F65" s="450"/>
+      <c r="G65" s="450"/>
+      <c r="H65" s="450"/>
+      <c r="I65" s="450"/>
+      <c r="J65" s="450"/>
+      <c r="K65" s="450"/>
+      <c r="L65" s="450"/>
+      <c r="M65" s="450"/>
+      <c r="N65" s="450"/>
+      <c r="O65" s="450"/>
+      <c r="P65" s="450"/>
+      <c r="Q65" s="450"/>
+      <c r="R65" s="450"/>
+      <c r="S65" s="450"/>
+      <c r="T65" s="450"/>
+      <c r="U65" s="450"/>
+      <c r="V65" s="450"/>
+      <c r="W65" s="450"/>
+      <c r="X65" s="450"/>
     </row>
     <row r="66" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="439"/>
-      <c r="B66" s="439"/>
-      <c r="C66" s="439"/>
-      <c r="D66" s="439"/>
-      <c r="E66" s="439"/>
-      <c r="F66" s="439"/>
-      <c r="G66" s="439"/>
-      <c r="H66" s="439"/>
-      <c r="I66" s="439"/>
-      <c r="J66" s="439"/>
-      <c r="K66" s="439"/>
-      <c r="L66" s="439"/>
-      <c r="M66" s="439"/>
-      <c r="N66" s="439"/>
-      <c r="O66" s="439"/>
-      <c r="P66" s="439"/>
-      <c r="Q66" s="439"/>
-      <c r="R66" s="439"/>
-      <c r="S66" s="439"/>
-      <c r="T66" s="439"/>
-      <c r="U66" s="439"/>
-      <c r="V66" s="439"/>
-      <c r="W66" s="439"/>
-      <c r="X66" s="439"/>
+      <c r="A66" s="450"/>
+      <c r="B66" s="450"/>
+      <c r="C66" s="450"/>
+      <c r="D66" s="450"/>
+      <c r="E66" s="450"/>
+      <c r="F66" s="450"/>
+      <c r="G66" s="450"/>
+      <c r="H66" s="450"/>
+      <c r="I66" s="450"/>
+      <c r="J66" s="450"/>
+      <c r="K66" s="450"/>
+      <c r="L66" s="450"/>
+      <c r="M66" s="450"/>
+      <c r="N66" s="450"/>
+      <c r="O66" s="450"/>
+      <c r="P66" s="450"/>
+      <c r="Q66" s="450"/>
+      <c r="R66" s="450"/>
+      <c r="S66" s="450"/>
+      <c r="T66" s="450"/>
+      <c r="U66" s="450"/>
+      <c r="V66" s="450"/>
+      <c r="W66" s="450"/>
+      <c r="X66" s="450"/>
     </row>
     <row r="67" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="439"/>
-      <c r="B67" s="439"/>
-      <c r="C67" s="439"/>
-      <c r="D67" s="439"/>
-      <c r="E67" s="439"/>
-      <c r="F67" s="439"/>
-      <c r="G67" s="439"/>
-      <c r="H67" s="439"/>
-      <c r="I67" s="439"/>
-      <c r="J67" s="439"/>
-      <c r="K67" s="439"/>
-      <c r="L67" s="439"/>
-      <c r="M67" s="439"/>
-      <c r="N67" s="439"/>
-      <c r="O67" s="439"/>
-      <c r="P67" s="439"/>
-      <c r="Q67" s="439"/>
-      <c r="R67" s="439"/>
-      <c r="S67" s="439"/>
-      <c r="T67" s="439"/>
-      <c r="U67" s="439"/>
-      <c r="V67" s="439"/>
-      <c r="W67" s="439"/>
-      <c r="X67" s="439"/>
+      <c r="A67" s="450"/>
+      <c r="B67" s="450"/>
+      <c r="C67" s="450"/>
+      <c r="D67" s="450"/>
+      <c r="E67" s="450"/>
+      <c r="F67" s="450"/>
+      <c r="G67" s="450"/>
+      <c r="H67" s="450"/>
+      <c r="I67" s="450"/>
+      <c r="J67" s="450"/>
+      <c r="K67" s="450"/>
+      <c r="L67" s="450"/>
+      <c r="M67" s="450"/>
+      <c r="N67" s="450"/>
+      <c r="O67" s="450"/>
+      <c r="P67" s="450"/>
+      <c r="Q67" s="450"/>
+      <c r="R67" s="450"/>
+      <c r="S67" s="450"/>
+      <c r="T67" s="450"/>
+      <c r="U67" s="450"/>
+      <c r="V67" s="450"/>
+      <c r="W67" s="450"/>
+      <c r="X67" s="450"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A68" s="439"/>
-      <c r="B68" s="439"/>
-      <c r="C68" s="439"/>
-      <c r="D68" s="439"/>
-      <c r="E68" s="439"/>
-      <c r="F68" s="439"/>
-      <c r="G68" s="439"/>
-      <c r="H68" s="439"/>
-      <c r="I68" s="439"/>
-      <c r="J68" s="439"/>
-      <c r="K68" s="439"/>
-      <c r="L68" s="439"/>
-      <c r="M68" s="439"/>
-      <c r="N68" s="439"/>
-      <c r="O68" s="439"/>
-      <c r="P68" s="439"/>
-      <c r="Q68" s="439"/>
-      <c r="R68" s="439"/>
-      <c r="S68" s="439"/>
-      <c r="T68" s="439"/>
-      <c r="U68" s="439"/>
-      <c r="V68" s="439"/>
-      <c r="W68" s="439"/>
-      <c r="X68" s="439"/>
+      <c r="A68" s="450"/>
+      <c r="B68" s="450"/>
+      <c r="C68" s="450"/>
+      <c r="D68" s="450"/>
+      <c r="E68" s="450"/>
+      <c r="F68" s="450"/>
+      <c r="G68" s="450"/>
+      <c r="H68" s="450"/>
+      <c r="I68" s="450"/>
+      <c r="J68" s="450"/>
+      <c r="K68" s="450"/>
+      <c r="L68" s="450"/>
+      <c r="M68" s="450"/>
+      <c r="N68" s="450"/>
+      <c r="O68" s="450"/>
+      <c r="P68" s="450"/>
+      <c r="Q68" s="450"/>
+      <c r="R68" s="450"/>
+      <c r="S68" s="450"/>
+      <c r="T68" s="450"/>
+      <c r="U68" s="450"/>
+      <c r="V68" s="450"/>
+      <c r="W68" s="450"/>
+      <c r="X68" s="450"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A69" s="439"/>
-      <c r="B69" s="439"/>
-      <c r="C69" s="439"/>
-      <c r="D69" s="439"/>
-      <c r="E69" s="439"/>
-      <c r="F69" s="439"/>
-      <c r="G69" s="439"/>
-      <c r="H69" s="439"/>
-      <c r="I69" s="439"/>
-      <c r="J69" s="439"/>
-      <c r="K69" s="439"/>
-      <c r="L69" s="439"/>
-      <c r="M69" s="439"/>
-      <c r="N69" s="439"/>
-      <c r="O69" s="439"/>
-      <c r="P69" s="439"/>
-      <c r="Q69" s="439"/>
-      <c r="R69" s="439"/>
-      <c r="S69" s="439"/>
-      <c r="T69" s="439"/>
-      <c r="U69" s="439"/>
-      <c r="V69" s="439"/>
-      <c r="W69" s="439"/>
-      <c r="X69" s="439"/>
+      <c r="A69" s="450"/>
+      <c r="B69" s="450"/>
+      <c r="C69" s="450"/>
+      <c r="D69" s="450"/>
+      <c r="E69" s="450"/>
+      <c r="F69" s="450"/>
+      <c r="G69" s="450"/>
+      <c r="H69" s="450"/>
+      <c r="I69" s="450"/>
+      <c r="J69" s="450"/>
+      <c r="K69" s="450"/>
+      <c r="L69" s="450"/>
+      <c r="M69" s="450"/>
+      <c r="N69" s="450"/>
+      <c r="O69" s="450"/>
+      <c r="P69" s="450"/>
+      <c r="Q69" s="450"/>
+      <c r="R69" s="450"/>
+      <c r="S69" s="450"/>
+      <c r="T69" s="450"/>
+      <c r="U69" s="450"/>
+      <c r="V69" s="450"/>
+      <c r="W69" s="450"/>
+      <c r="X69" s="450"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" s="320" t="s">
@@ -36547,232 +36496,232 @@
       <c r="V70" s="8"/>
     </row>
     <row r="71" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="440" t="s">
+      <c r="A71" s="451" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="441"/>
-      <c r="C71" s="441"/>
-      <c r="D71" s="441"/>
-      <c r="E71" s="441"/>
-      <c r="F71" s="442"/>
-      <c r="G71" s="440" t="s">
+      <c r="B71" s="452"/>
+      <c r="C71" s="452"/>
+      <c r="D71" s="452"/>
+      <c r="E71" s="452"/>
+      <c r="F71" s="453"/>
+      <c r="G71" s="451" t="s">
         <v>4</v>
       </c>
-      <c r="H71" s="441"/>
-      <c r="I71" s="442"/>
-      <c r="J71" s="443" t="s">
+      <c r="H71" s="452"/>
+      <c r="I71" s="453"/>
+      <c r="J71" s="454" t="s">
         <v>95</v>
       </c>
-      <c r="K71" s="444"/>
-      <c r="L71" s="444"/>
-      <c r="M71" s="444"/>
-      <c r="N71" s="445"/>
-      <c r="O71" s="440" t="s">
+      <c r="K71" s="455"/>
+      <c r="L71" s="455"/>
+      <c r="M71" s="455"/>
+      <c r="N71" s="456"/>
+      <c r="O71" s="451" t="s">
         <v>1231</v>
       </c>
-      <c r="P71" s="441"/>
-      <c r="Q71" s="441"/>
-      <c r="R71" s="441"/>
-      <c r="S71" s="441"/>
-      <c r="T71" s="442"/>
-      <c r="U71" s="443" t="s">
+      <c r="P71" s="452"/>
+      <c r="Q71" s="452"/>
+      <c r="R71" s="452"/>
+      <c r="S71" s="452"/>
+      <c r="T71" s="453"/>
+      <c r="U71" s="454" t="s">
         <v>1230</v>
       </c>
-      <c r="V71" s="444"/>
-      <c r="W71" s="444"/>
-      <c r="X71" s="445"/>
+      <c r="V71" s="455"/>
+      <c r="W71" s="455"/>
+      <c r="X71" s="456"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A72" s="433" t="s">
+      <c r="A72" s="459" t="s">
         <v>1216</v>
       </c>
-      <c r="B72" s="434" t="s">
+      <c r="B72" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="C72" s="434" t="s">
+      <c r="C72" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="D72" s="434" t="s">
+      <c r="D72" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="E72" s="434" t="s">
+      <c r="E72" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="F72" s="435" t="s">
+      <c r="F72" s="461" t="s">
         <v>1216</v>
       </c>
-      <c r="G72" s="433" t="s">
+      <c r="G72" s="459" t="s">
         <v>236</v>
       </c>
-      <c r="H72" s="434" t="s">
+      <c r="H72" s="460" t="s">
         <v>236</v>
       </c>
-      <c r="I72" s="435" t="s">
+      <c r="I72" s="461" t="s">
         <v>236</v>
       </c>
-      <c r="J72" s="436" t="s">
+      <c r="J72" s="462" t="s">
         <v>1317</v>
       </c>
-      <c r="K72" s="437" t="s">
+      <c r="K72" s="463" t="s">
         <v>1209</v>
       </c>
-      <c r="L72" s="437">
+      <c r="L72" s="463">
         <v>43368</v>
       </c>
-      <c r="M72" s="437" t="s">
+      <c r="M72" s="463" t="s">
         <v>1229</v>
       </c>
-      <c r="N72" s="438" t="s">
+      <c r="N72" s="464" t="s">
         <v>1209</v>
       </c>
-      <c r="O72" s="433" t="s">
+      <c r="O72" s="459" t="s">
         <v>1209</v>
       </c>
-      <c r="P72" s="434" t="s">
+      <c r="P72" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="Q72" s="434" t="s">
+      <c r="Q72" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="R72" s="434" t="s">
+      <c r="R72" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="S72" s="434" t="s">
+      <c r="S72" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="T72" s="435" t="s">
+      <c r="T72" s="461" t="s">
         <v>1209</v>
       </c>
-      <c r="U72" s="436">
+      <c r="U72" s="462">
         <v>44795</v>
       </c>
-      <c r="V72" s="437" t="s">
+      <c r="V72" s="463" t="s">
         <v>1229</v>
       </c>
-      <c r="W72" s="437" t="s">
+      <c r="W72" s="463" t="s">
         <v>1209</v>
       </c>
-      <c r="X72" s="438">
+      <c r="X72" s="464">
         <v>43368</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="433" t="s">
+      <c r="A73" s="459" t="s">
         <v>1212</v>
       </c>
-      <c r="B73" s="434"/>
-      <c r="C73" s="434"/>
-      <c r="D73" s="434"/>
-      <c r="E73" s="434"/>
-      <c r="F73" s="435"/>
-      <c r="G73" s="433" t="s">
+      <c r="B73" s="460"/>
+      <c r="C73" s="460"/>
+      <c r="D73" s="460"/>
+      <c r="E73" s="460"/>
+      <c r="F73" s="461"/>
+      <c r="G73" s="459" t="s">
         <v>1211</v>
       </c>
-      <c r="H73" s="434"/>
-      <c r="I73" s="435"/>
-      <c r="J73" s="436" t="s">
+      <c r="H73" s="460"/>
+      <c r="I73" s="461"/>
+      <c r="J73" s="462" t="s">
         <v>1210</v>
       </c>
-      <c r="K73" s="437"/>
-      <c r="L73" s="437"/>
-      <c r="M73" s="437"/>
-      <c r="N73" s="438"/>
-      <c r="O73" s="433" t="s">
+      <c r="K73" s="463"/>
+      <c r="L73" s="463"/>
+      <c r="M73" s="463"/>
+      <c r="N73" s="464"/>
+      <c r="O73" s="459" t="s">
         <v>1209</v>
       </c>
-      <c r="P73" s="434" t="s">
+      <c r="P73" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="Q73" s="434" t="s">
+      <c r="Q73" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="R73" s="434" t="s">
+      <c r="R73" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="S73" s="434" t="s">
+      <c r="S73" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="T73" s="435" t="s">
+      <c r="T73" s="461" t="s">
         <v>1209</v>
       </c>
-      <c r="U73" s="436">
+      <c r="U73" s="462">
         <v>44738</v>
       </c>
-      <c r="V73" s="437"/>
-      <c r="W73" s="437"/>
-      <c r="X73" s="438"/>
+      <c r="V73" s="463"/>
+      <c r="W73" s="463"/>
+      <c r="X73" s="464"/>
     </row>
     <row r="74" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="433" t="s">
+      <c r="A74" s="459" t="s">
         <v>93</v>
       </c>
-      <c r="B74" s="434" t="s">
+      <c r="B74" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="C74" s="434" t="s">
+      <c r="C74" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="D74" s="434" t="s">
+      <c r="D74" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="E74" s="434" t="s">
+      <c r="E74" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="F74" s="435" t="s">
+      <c r="F74" s="461" t="s">
         <v>1216</v>
       </c>
-      <c r="G74" s="433" t="s">
+      <c r="G74" s="459" t="s">
         <v>265</v>
       </c>
-      <c r="H74" s="434" t="s">
+      <c r="H74" s="460" t="s">
         <v>244</v>
       </c>
-      <c r="I74" s="435" t="s">
+      <c r="I74" s="461" t="s">
         <v>244</v>
       </c>
-      <c r="J74" s="436" t="s">
+      <c r="J74" s="462" t="s">
         <v>1316</v>
       </c>
-      <c r="K74" s="437" t="s">
+      <c r="K74" s="463" t="s">
         <v>1213</v>
       </c>
-      <c r="L74" s="437">
+      <c r="L74" s="463">
         <v>43393</v>
       </c>
-      <c r="M74" s="437" t="s">
+      <c r="M74" s="463" t="s">
         <v>1223</v>
       </c>
-      <c r="N74" s="438" t="s">
+      <c r="N74" s="464" t="s">
         <v>1213</v>
       </c>
-      <c r="O74" s="433" t="s">
+      <c r="O74" s="459" t="s">
         <v>1209</v>
       </c>
-      <c r="P74" s="434" t="s">
+      <c r="P74" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="Q74" s="434" t="s">
+      <c r="Q74" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="R74" s="434" t="s">
+      <c r="R74" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="S74" s="434" t="s">
+      <c r="S74" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="T74" s="435" t="s">
+      <c r="T74" s="461" t="s">
         <v>1209</v>
       </c>
-      <c r="U74" s="436">
+      <c r="U74" s="462">
         <v>44696</v>
       </c>
-      <c r="V74" s="437" t="s">
+      <c r="V74" s="463" t="s">
         <v>1223</v>
       </c>
-      <c r="W74" s="437" t="s">
+      <c r="W74" s="463" t="s">
         <v>1213</v>
       </c>
-      <c r="X74" s="438">
+      <c r="X74" s="464">
         <v>43393</v>
       </c>
     </row>
@@ -36886,59 +36835,59 @@
       <c r="X78" s="8"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A79" s="439" t="str">
+      <c r="A79" s="450" t="str">
         <f>IF([1]Calibración!E10="2",[1]Calibración!BJ6,[1]Calibración!BJ7)</f>
         <v>La indicación de la presión de referencia y del equipo corresponden al promedio de 4 mediciones en 2 ciclos ascendentes y descendentes.</v>
       </c>
-      <c r="B79" s="439"/>
-      <c r="C79" s="439"/>
-      <c r="D79" s="439"/>
-      <c r="E79" s="439"/>
-      <c r="F79" s="439"/>
-      <c r="G79" s="439"/>
-      <c r="H79" s="439"/>
-      <c r="I79" s="439"/>
-      <c r="J79" s="439"/>
-      <c r="K79" s="439"/>
-      <c r="L79" s="439"/>
-      <c r="M79" s="439"/>
-      <c r="N79" s="439"/>
-      <c r="O79" s="439"/>
-      <c r="P79" s="439"/>
-      <c r="Q79" s="439"/>
-      <c r="R79" s="439"/>
-      <c r="S79" s="439"/>
-      <c r="T79" s="439"/>
-      <c r="U79" s="439"/>
-      <c r="V79" s="439"/>
-      <c r="W79" s="439"/>
-      <c r="X79" s="439"/>
+      <c r="B79" s="450"/>
+      <c r="C79" s="450"/>
+      <c r="D79" s="450"/>
+      <c r="E79" s="450"/>
+      <c r="F79" s="450"/>
+      <c r="G79" s="450"/>
+      <c r="H79" s="450"/>
+      <c r="I79" s="450"/>
+      <c r="J79" s="450"/>
+      <c r="K79" s="450"/>
+      <c r="L79" s="450"/>
+      <c r="M79" s="450"/>
+      <c r="N79" s="450"/>
+      <c r="O79" s="450"/>
+      <c r="P79" s="450"/>
+      <c r="Q79" s="450"/>
+      <c r="R79" s="450"/>
+      <c r="S79" s="450"/>
+      <c r="T79" s="450"/>
+      <c r="U79" s="450"/>
+      <c r="V79" s="450"/>
+      <c r="W79" s="450"/>
+      <c r="X79" s="450"/>
     </row>
     <row r="80" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="439"/>
-      <c r="B80" s="439"/>
-      <c r="C80" s="439"/>
-      <c r="D80" s="439"/>
-      <c r="E80" s="439"/>
-      <c r="F80" s="439"/>
-      <c r="G80" s="439"/>
-      <c r="H80" s="439"/>
-      <c r="I80" s="439"/>
-      <c r="J80" s="439"/>
-      <c r="K80" s="439"/>
-      <c r="L80" s="439"/>
-      <c r="M80" s="439"/>
-      <c r="N80" s="439"/>
-      <c r="O80" s="439"/>
-      <c r="P80" s="439"/>
-      <c r="Q80" s="439"/>
-      <c r="R80" s="439"/>
-      <c r="S80" s="439"/>
-      <c r="T80" s="439"/>
-      <c r="U80" s="439"/>
-      <c r="V80" s="439"/>
-      <c r="W80" s="439"/>
-      <c r="X80" s="439"/>
+      <c r="A80" s="450"/>
+      <c r="B80" s="450"/>
+      <c r="C80" s="450"/>
+      <c r="D80" s="450"/>
+      <c r="E80" s="450"/>
+      <c r="F80" s="450"/>
+      <c r="G80" s="450"/>
+      <c r="H80" s="450"/>
+      <c r="I80" s="450"/>
+      <c r="J80" s="450"/>
+      <c r="K80" s="450"/>
+      <c r="L80" s="450"/>
+      <c r="M80" s="450"/>
+      <c r="N80" s="450"/>
+      <c r="O80" s="450"/>
+      <c r="P80" s="450"/>
+      <c r="Q80" s="450"/>
+      <c r="R80" s="450"/>
+      <c r="S80" s="450"/>
+      <c r="T80" s="450"/>
+      <c r="U80" s="450"/>
+      <c r="V80" s="450"/>
+      <c r="W80" s="450"/>
+      <c r="X80" s="450"/>
     </row>
     <row r="81" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="327" t="s">
@@ -37217,106 +37166,88 @@
       <c r="Y91" s="8"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I92" s="429" t="s">
+      <c r="I92" s="465" t="s">
         <v>28</v>
       </c>
-      <c r="J92" s="429"/>
-      <c r="K92" s="429"/>
-      <c r="L92" s="429"/>
-      <c r="M92" s="429"/>
-      <c r="N92" s="429"/>
-      <c r="O92" s="429"/>
-      <c r="P92" s="429"/>
+      <c r="J92" s="465"/>
+      <c r="K92" s="465"/>
+      <c r="L92" s="465"/>
+      <c r="M92" s="465"/>
+      <c r="N92" s="465"/>
+      <c r="O92" s="465"/>
+      <c r="P92" s="465"/>
       <c r="Y92" s="8"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I93" s="430" t="str">
+      <c r="I93" s="466" t="str">
         <f>IF(I92=[6]Generales!$F$1,[6]Generales!$F$6,[6]Generales!$F$5)</f>
         <v>Director Técnico</v>
       </c>
-      <c r="J93" s="430"/>
-      <c r="K93" s="430"/>
-      <c r="L93" s="430"/>
-      <c r="M93" s="430"/>
-      <c r="N93" s="430"/>
-      <c r="O93" s="430"/>
-      <c r="P93" s="430"/>
+      <c r="J93" s="466"/>
+      <c r="K93" s="466"/>
+      <c r="L93" s="466"/>
+      <c r="M93" s="466"/>
+      <c r="N93" s="466"/>
+      <c r="O93" s="466"/>
+      <c r="P93" s="466"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I94" s="431" t="s">
+      <c r="I94" s="467" t="s">
         <v>1308</v>
       </c>
-      <c r="J94" s="431"/>
-      <c r="K94" s="431"/>
-      <c r="L94" s="431"/>
-      <c r="M94" s="431"/>
-      <c r="N94" s="431"/>
-      <c r="O94" s="431"/>
-      <c r="P94" s="431"/>
+      <c r="J94" s="467"/>
+      <c r="K94" s="467"/>
+      <c r="L94" s="467"/>
+      <c r="M94" s="467"/>
+      <c r="N94" s="467"/>
+      <c r="O94" s="467"/>
+      <c r="P94" s="467"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I95" s="432" t="s">
+      <c r="I95" s="468" t="s">
         <v>1307</v>
       </c>
-      <c r="J95" s="432"/>
-      <c r="K95" s="432"/>
-      <c r="L95" s="432"/>
-      <c r="M95" s="432"/>
-      <c r="N95" s="432"/>
-      <c r="O95" s="432"/>
-      <c r="P95" s="432"/>
+      <c r="J95" s="468"/>
+      <c r="K95" s="468"/>
+      <c r="L95" s="468"/>
+      <c r="M95" s="468"/>
+      <c r="N95" s="468"/>
+      <c r="O95" s="468"/>
+      <c r="P95" s="468"/>
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:X18"/>
-    <mergeCell ref="N19:X19"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="N21:X22"/>
-    <mergeCell ref="D24:W24"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="N12:X12"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="F25:K26"/>
-    <mergeCell ref="L25:Q26"/>
-    <mergeCell ref="R25:W26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="D35:W35"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="F36:K37"/>
-    <mergeCell ref="L36:Q37"/>
-    <mergeCell ref="R36:W37"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="I92:P92"/>
+    <mergeCell ref="I93:P93"/>
+    <mergeCell ref="I94:P94"/>
+    <mergeCell ref="I95:P95"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="J74:N74"/>
+    <mergeCell ref="O74:T74"/>
+    <mergeCell ref="U74:X74"/>
+    <mergeCell ref="A79:X80"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="J72:N72"/>
+    <mergeCell ref="O72:T72"/>
+    <mergeCell ref="U72:X72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:N73"/>
+    <mergeCell ref="O73:T73"/>
+    <mergeCell ref="U73:X73"/>
+    <mergeCell ref="A62:X62"/>
+    <mergeCell ref="A65:X69"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="J71:N71"/>
+    <mergeCell ref="O71:T71"/>
+    <mergeCell ref="U71:X71"/>
+    <mergeCell ref="N58:W58"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="T46:U46"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:K42"/>
     <mergeCell ref="L42:Q42"/>
@@ -37341,37 +37272,55 @@
     <mergeCell ref="F41:K41"/>
     <mergeCell ref="L41:Q41"/>
     <mergeCell ref="R41:W41"/>
-    <mergeCell ref="A62:X62"/>
-    <mergeCell ref="A65:X69"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="J71:N71"/>
-    <mergeCell ref="O71:T71"/>
-    <mergeCell ref="U71:X71"/>
-    <mergeCell ref="N58:W58"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="J72:N72"/>
-    <mergeCell ref="O72:T72"/>
-    <mergeCell ref="U72:X72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:N73"/>
-    <mergeCell ref="O73:T73"/>
-    <mergeCell ref="U73:X73"/>
-    <mergeCell ref="I92:P92"/>
-    <mergeCell ref="I93:P93"/>
-    <mergeCell ref="I94:P94"/>
-    <mergeCell ref="I95:P95"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="J74:N74"/>
-    <mergeCell ref="O74:T74"/>
-    <mergeCell ref="U74:X74"/>
-    <mergeCell ref="A79:X80"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="D35:W35"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="F36:K37"/>
+    <mergeCell ref="L36:Q37"/>
+    <mergeCell ref="R36:W37"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="F25:K26"/>
+    <mergeCell ref="L25:Q26"/>
+    <mergeCell ref="R25:W26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="N21:X22"/>
+    <mergeCell ref="D24:W24"/>
+    <mergeCell ref="P17:S17"/>
   </mergeCells>
   <conditionalFormatting sqref="A83">
     <cfRule type="cellIs" priority="1" operator="equal">
@@ -37512,741 +37461,741 @@
       <c r="V7" s="8"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="440" t="s">
+      <c r="A8" s="451" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="441"/>
-      <c r="C8" s="441"/>
-      <c r="D8" s="441"/>
-      <c r="E8" s="441"/>
-      <c r="F8" s="442"/>
-      <c r="G8" s="440" t="s">
+      <c r="B8" s="452"/>
+      <c r="C8" s="452"/>
+      <c r="D8" s="452"/>
+      <c r="E8" s="452"/>
+      <c r="F8" s="453"/>
+      <c r="G8" s="451" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="441"/>
-      <c r="I8" s="442"/>
-      <c r="J8" s="443" t="s">
+      <c r="H8" s="452"/>
+      <c r="I8" s="453"/>
+      <c r="J8" s="454" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="444"/>
-      <c r="L8" s="444"/>
-      <c r="M8" s="444"/>
-      <c r="N8" s="445"/>
-      <c r="O8" s="440" t="s">
+      <c r="K8" s="455"/>
+      <c r="L8" s="455"/>
+      <c r="M8" s="455"/>
+      <c r="N8" s="456"/>
+      <c r="O8" s="451" t="s">
         <v>1231</v>
       </c>
-      <c r="P8" s="441"/>
-      <c r="Q8" s="441"/>
-      <c r="R8" s="441"/>
-      <c r="S8" s="441"/>
-      <c r="T8" s="442"/>
-      <c r="U8" s="443" t="s">
+      <c r="P8" s="452"/>
+      <c r="Q8" s="452"/>
+      <c r="R8" s="452"/>
+      <c r="S8" s="452"/>
+      <c r="T8" s="453"/>
+      <c r="U8" s="454" t="s">
         <v>1230</v>
       </c>
-      <c r="V8" s="444"/>
-      <c r="W8" s="444"/>
-      <c r="X8" s="445"/>
+      <c r="V8" s="455"/>
+      <c r="W8" s="455"/>
+      <c r="X8" s="456"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="433" t="s">
+      <c r="A9" s="459" t="s">
         <v>1216</v>
       </c>
-      <c r="B9" s="434" t="s">
+      <c r="B9" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="C9" s="434" t="s">
+      <c r="C9" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="D9" s="434" t="s">
+      <c r="D9" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="E9" s="434" t="s">
+      <c r="E9" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="F9" s="435" t="s">
+      <c r="F9" s="461" t="s">
         <v>1216</v>
       </c>
-      <c r="G9" s="433" t="s">
+      <c r="G9" s="459" t="s">
         <v>236</v>
       </c>
-      <c r="H9" s="434" t="s">
+      <c r="H9" s="460" t="s">
         <v>236</v>
       </c>
-      <c r="I9" s="435" t="s">
+      <c r="I9" s="461" t="s">
         <v>236</v>
       </c>
-      <c r="J9" s="436" t="str">
+      <c r="J9" s="462" t="str">
         <f>'BD Patron'!W15</f>
         <v>SCM-00039462</v>
       </c>
-      <c r="K9" s="437" t="s">
+      <c r="K9" s="463" t="s">
         <v>1209</v>
       </c>
-      <c r="L9" s="437">
+      <c r="L9" s="463">
         <v>43368</v>
       </c>
-      <c r="M9" s="437" t="s">
+      <c r="M9" s="463" t="s">
         <v>1229</v>
       </c>
-      <c r="N9" s="438" t="s">
+      <c r="N9" s="464" t="s">
         <v>1209</v>
       </c>
-      <c r="O9" s="433" t="s">
+      <c r="O9" s="459" t="s">
         <v>1209</v>
       </c>
-      <c r="P9" s="434" t="s">
+      <c r="P9" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="Q9" s="434" t="s">
+      <c r="Q9" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="R9" s="434" t="s">
+      <c r="R9" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="S9" s="434" t="s">
+      <c r="S9" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="T9" s="435" t="s">
+      <c r="T9" s="461" t="s">
         <v>1209</v>
       </c>
-      <c r="U9" s="436">
+      <c r="U9" s="462">
         <f>'BD Patron'!U15+1096</f>
         <v>45926</v>
       </c>
-      <c r="V9" s="437" t="s">
+      <c r="V9" s="463" t="s">
         <v>1229</v>
       </c>
-      <c r="W9" s="437" t="s">
+      <c r="W9" s="463" t="s">
         <v>1209</v>
       </c>
-      <c r="X9" s="438">
+      <c r="X9" s="464">
         <v>43368</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="433" t="s">
+      <c r="A10" s="459" t="s">
         <v>1216</v>
       </c>
-      <c r="B10" s="434" t="s">
+      <c r="B10" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="C10" s="434" t="s">
+      <c r="C10" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="D10" s="434" t="s">
+      <c r="D10" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="E10" s="434" t="s">
+      <c r="E10" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="F10" s="435" t="s">
+      <c r="F10" s="461" t="s">
         <v>1216</v>
       </c>
-      <c r="G10" s="433" t="s">
+      <c r="G10" s="459" t="s">
         <v>243</v>
       </c>
-      <c r="H10" s="434" t="s">
+      <c r="H10" s="460" t="s">
         <v>243</v>
       </c>
-      <c r="I10" s="435" t="s">
+      <c r="I10" s="461" t="s">
         <v>243</v>
       </c>
-      <c r="J10" s="436" t="str">
+      <c r="J10" s="462" t="str">
         <f>'BD Patron'!W16</f>
         <v>SCM-00039463</v>
       </c>
-      <c r="K10" s="437" t="s">
+      <c r="K10" s="463" t="s">
         <v>1209</v>
       </c>
-      <c r="L10" s="437">
+      <c r="L10" s="463">
         <v>43369</v>
       </c>
-      <c r="M10" s="437" t="s">
+      <c r="M10" s="463" t="s">
         <v>1228</v>
       </c>
-      <c r="N10" s="438" t="s">
+      <c r="N10" s="464" t="s">
         <v>1209</v>
       </c>
-      <c r="O10" s="433" t="s">
+      <c r="O10" s="459" t="s">
         <v>1209</v>
       </c>
-      <c r="P10" s="434" t="s">
+      <c r="P10" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="Q10" s="434" t="s">
+      <c r="Q10" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="R10" s="434" t="s">
+      <c r="R10" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="S10" s="434" t="s">
+      <c r="S10" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="T10" s="435" t="s">
+      <c r="T10" s="461" t="s">
         <v>1209</v>
       </c>
-      <c r="U10" s="436">
+      <c r="U10" s="462">
         <f>'BD Patron'!U16+365</f>
         <v>45195</v>
       </c>
-      <c r="V10" s="437" t="s">
+      <c r="V10" s="463" t="s">
         <v>1228</v>
       </c>
-      <c r="W10" s="437" t="s">
+      <c r="W10" s="463" t="s">
         <v>1209</v>
       </c>
-      <c r="X10" s="438">
+      <c r="X10" s="464">
         <v>43369</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="433" t="s">
+      <c r="A11" s="459" t="s">
         <v>253</v>
       </c>
-      <c r="B11" s="434" t="s">
+      <c r="B11" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="C11" s="434" t="s">
+      <c r="C11" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="D11" s="434" t="s">
+      <c r="D11" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="E11" s="434" t="s">
+      <c r="E11" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="F11" s="435" t="s">
+      <c r="F11" s="461" t="s">
         <v>1216</v>
       </c>
-      <c r="G11" s="433" t="s">
+      <c r="G11" s="459" t="s">
         <v>244</v>
       </c>
-      <c r="H11" s="434" t="s">
+      <c r="H11" s="460" t="s">
         <v>244</v>
       </c>
-      <c r="I11" s="435" t="s">
+      <c r="I11" s="461" t="s">
         <v>244</v>
       </c>
-      <c r="J11" s="436" t="s">
+      <c r="J11" s="462" t="s">
         <v>358</v>
       </c>
-      <c r="K11" s="437" t="s">
+      <c r="K11" s="463" t="s">
         <v>1213</v>
       </c>
-      <c r="L11" s="437">
+      <c r="L11" s="463">
         <v>43392</v>
       </c>
-      <c r="M11" s="437" t="s">
+      <c r="M11" s="463" t="s">
         <v>1227</v>
       </c>
-      <c r="N11" s="438" t="s">
+      <c r="N11" s="464" t="s">
         <v>1213</v>
       </c>
-      <c r="O11" s="433" t="s">
+      <c r="O11" s="459" t="s">
         <v>1213</v>
       </c>
-      <c r="P11" s="434" t="s">
+      <c r="P11" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="Q11" s="434" t="s">
+      <c r="Q11" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="R11" s="434" t="s">
+      <c r="R11" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="S11" s="434" t="s">
+      <c r="S11" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="T11" s="435" t="s">
+      <c r="T11" s="461" t="s">
         <v>1213</v>
       </c>
-      <c r="U11" s="436">
+      <c r="U11" s="462">
         <v>44083</v>
       </c>
-      <c r="V11" s="437" t="s">
+      <c r="V11" s="463" t="s">
         <v>1227</v>
       </c>
-      <c r="W11" s="437" t="s">
+      <c r="W11" s="463" t="s">
         <v>1213</v>
       </c>
-      <c r="X11" s="438">
+      <c r="X11" s="464">
         <v>43392</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="433" t="s">
+      <c r="A12" s="459" t="s">
         <v>1226</v>
       </c>
-      <c r="B12" s="434" t="s">
+      <c r="B12" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="C12" s="434" t="s">
+      <c r="C12" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="D12" s="434" t="s">
+      <c r="D12" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="E12" s="434" t="s">
+      <c r="E12" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="F12" s="435" t="s">
+      <c r="F12" s="461" t="s">
         <v>1216</v>
       </c>
-      <c r="G12" s="433" t="s">
+      <c r="G12" s="459" t="s">
         <v>1225</v>
       </c>
-      <c r="H12" s="434" t="s">
+      <c r="H12" s="460" t="s">
         <v>244</v>
       </c>
-      <c r="I12" s="435" t="s">
+      <c r="I12" s="461" t="s">
         <v>244</v>
       </c>
-      <c r="J12" s="436" t="s">
+      <c r="J12" s="462" t="s">
         <v>1224</v>
       </c>
-      <c r="K12" s="437" t="s">
+      <c r="K12" s="463" t="s">
         <v>1213</v>
       </c>
-      <c r="L12" s="437">
+      <c r="L12" s="463">
         <v>43393</v>
       </c>
-      <c r="M12" s="437" t="s">
+      <c r="M12" s="463" t="s">
         <v>1223</v>
       </c>
-      <c r="N12" s="438" t="s">
+      <c r="N12" s="464" t="s">
         <v>1213</v>
       </c>
-      <c r="O12" s="433" t="s">
+      <c r="O12" s="459" t="s">
         <v>1213</v>
       </c>
-      <c r="P12" s="434" t="s">
+      <c r="P12" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="Q12" s="434" t="s">
+      <c r="Q12" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="R12" s="434" t="s">
+      <c r="R12" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="S12" s="434" t="s">
+      <c r="S12" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="T12" s="435" t="s">
+      <c r="T12" s="461" t="s">
         <v>1213</v>
       </c>
-      <c r="U12" s="436">
+      <c r="U12" s="462">
         <v>44542</v>
       </c>
-      <c r="V12" s="437" t="s">
+      <c r="V12" s="463" t="s">
         <v>1223</v>
       </c>
-      <c r="W12" s="437" t="s">
+      <c r="W12" s="463" t="s">
         <v>1213</v>
       </c>
-      <c r="X12" s="438">
+      <c r="X12" s="464">
         <v>43393</v>
       </c>
     </row>
     <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="433" t="s">
+      <c r="A13" s="459" t="s">
         <v>1219</v>
       </c>
-      <c r="B13" s="434"/>
-      <c r="C13" s="434"/>
-      <c r="D13" s="434"/>
-      <c r="E13" s="434"/>
-      <c r="F13" s="435"/>
-      <c r="G13" s="433" t="s">
+      <c r="B13" s="460"/>
+      <c r="C13" s="460"/>
+      <c r="D13" s="460"/>
+      <c r="E13" s="460"/>
+      <c r="F13" s="461"/>
+      <c r="G13" s="459" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="434" t="s">
+      <c r="H13" s="460" t="s">
         <v>244</v>
       </c>
-      <c r="I13" s="435" t="s">
+      <c r="I13" s="461" t="s">
         <v>244</v>
       </c>
-      <c r="J13" s="436" t="s">
+      <c r="J13" s="462" t="s">
         <v>1222</v>
       </c>
-      <c r="K13" s="437" t="s">
+      <c r="K13" s="463" t="s">
         <v>1213</v>
       </c>
-      <c r="L13" s="437">
+      <c r="L13" s="463">
         <v>43394</v>
       </c>
-      <c r="M13" s="437" t="s">
+      <c r="M13" s="463" t="s">
         <v>1214</v>
       </c>
-      <c r="N13" s="438" t="s">
+      <c r="N13" s="464" t="s">
         <v>1213</v>
       </c>
-      <c r="O13" s="433" t="s">
+      <c r="O13" s="459" t="s">
         <v>1213</v>
       </c>
-      <c r="P13" s="434" t="s">
+      <c r="P13" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="Q13" s="434" t="s">
+      <c r="Q13" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="R13" s="434" t="s">
+      <c r="R13" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="S13" s="434" t="s">
+      <c r="S13" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="T13" s="435" t="s">
+      <c r="T13" s="461" t="s">
         <v>1213</v>
       </c>
-      <c r="U13" s="436">
+      <c r="U13" s="462">
         <v>44158</v>
       </c>
-      <c r="V13" s="437" t="s">
+      <c r="V13" s="463" t="s">
         <v>1214</v>
       </c>
-      <c r="W13" s="437" t="s">
+      <c r="W13" s="463" t="s">
         <v>1213</v>
       </c>
-      <c r="X13" s="438">
+      <c r="X13" s="464">
         <v>43394</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="433" t="s">
+      <c r="A14" s="459" t="s">
         <v>1219</v>
       </c>
-      <c r="B14" s="434"/>
-      <c r="C14" s="434"/>
-      <c r="D14" s="434"/>
-      <c r="E14" s="434"/>
-      <c r="F14" s="435"/>
-      <c r="G14" s="433" t="s">
+      <c r="B14" s="460"/>
+      <c r="C14" s="460"/>
+      <c r="D14" s="460"/>
+      <c r="E14" s="460"/>
+      <c r="F14" s="461"/>
+      <c r="G14" s="459" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="434" t="s">
+      <c r="H14" s="460" t="s">
         <v>244</v>
       </c>
-      <c r="I14" s="435" t="s">
+      <c r="I14" s="461" t="s">
         <v>244</v>
       </c>
-      <c r="J14" s="436" t="s">
+      <c r="J14" s="462" t="s">
         <v>1221</v>
       </c>
-      <c r="K14" s="437" t="s">
+      <c r="K14" s="463" t="s">
         <v>1213</v>
       </c>
-      <c r="L14" s="437">
+      <c r="L14" s="463">
         <v>43394</v>
       </c>
-      <c r="M14" s="437" t="s">
+      <c r="M14" s="463" t="s">
         <v>1214</v>
       </c>
-      <c r="N14" s="438" t="s">
+      <c r="N14" s="464" t="s">
         <v>1213</v>
       </c>
-      <c r="O14" s="433" t="s">
+      <c r="O14" s="459" t="s">
         <v>1213</v>
       </c>
-      <c r="P14" s="434" t="s">
+      <c r="P14" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="Q14" s="434" t="s">
+      <c r="Q14" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="R14" s="434" t="s">
+      <c r="R14" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="S14" s="434" t="s">
+      <c r="S14" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="T14" s="435" t="s">
+      <c r="T14" s="461" t="s">
         <v>1213</v>
       </c>
-      <c r="U14" s="436">
+      <c r="U14" s="462">
         <f>'BD Patron'!L7+365</f>
         <v>45204</v>
       </c>
-      <c r="V14" s="437" t="s">
+      <c r="V14" s="463" t="s">
         <v>1214</v>
       </c>
-      <c r="W14" s="437" t="s">
+      <c r="W14" s="463" t="s">
         <v>1213</v>
       </c>
-      <c r="X14" s="438">
+      <c r="X14" s="464">
         <v>43394</v>
       </c>
     </row>
     <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="433" t="s">
+      <c r="A15" s="459" t="s">
         <v>1219</v>
       </c>
-      <c r="B15" s="434"/>
-      <c r="C15" s="434"/>
-      <c r="D15" s="434"/>
-      <c r="E15" s="434"/>
-      <c r="F15" s="435"/>
-      <c r="G15" s="433" t="s">
+      <c r="B15" s="460"/>
+      <c r="C15" s="460"/>
+      <c r="D15" s="460"/>
+      <c r="E15" s="460"/>
+      <c r="F15" s="461"/>
+      <c r="G15" s="459" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="434" t="s">
+      <c r="H15" s="460" t="s">
         <v>244</v>
       </c>
-      <c r="I15" s="435" t="s">
+      <c r="I15" s="461" t="s">
         <v>244</v>
       </c>
-      <c r="J15" s="436" t="s">
+      <c r="J15" s="462" t="s">
         <v>1220</v>
       </c>
-      <c r="K15" s="437" t="s">
+      <c r="K15" s="463" t="s">
         <v>1213</v>
       </c>
-      <c r="L15" s="437">
+      <c r="L15" s="463">
         <v>43394</v>
       </c>
-      <c r="M15" s="437" t="s">
+      <c r="M15" s="463" t="s">
         <v>1214</v>
       </c>
-      <c r="N15" s="438" t="s">
+      <c r="N15" s="464" t="s">
         <v>1213</v>
       </c>
-      <c r="O15" s="433" t="s">
+      <c r="O15" s="459" t="s">
         <v>1213</v>
       </c>
-      <c r="P15" s="434" t="s">
+      <c r="P15" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="Q15" s="434" t="s">
+      <c r="Q15" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="R15" s="434" t="s">
+      <c r="R15" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="S15" s="434" t="s">
+      <c r="S15" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="T15" s="435" t="s">
+      <c r="T15" s="461" t="s">
         <v>1213</v>
       </c>
-      <c r="U15" s="436">
+      <c r="U15" s="462">
         <v>44331</v>
       </c>
-      <c r="V15" s="437" t="s">
+      <c r="V15" s="463" t="s">
         <v>1214</v>
       </c>
-      <c r="W15" s="437" t="s">
+      <c r="W15" s="463" t="s">
         <v>1213</v>
       </c>
-      <c r="X15" s="438">
+      <c r="X15" s="464">
         <v>43394</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="433" t="s">
+      <c r="A16" s="459" t="s">
         <v>1219</v>
       </c>
-      <c r="B16" s="434"/>
-      <c r="C16" s="434"/>
-      <c r="D16" s="434"/>
-      <c r="E16" s="434"/>
-      <c r="F16" s="435"/>
-      <c r="G16" s="433" t="s">
+      <c r="B16" s="460"/>
+      <c r="C16" s="460"/>
+      <c r="D16" s="460"/>
+      <c r="E16" s="460"/>
+      <c r="F16" s="461"/>
+      <c r="G16" s="459" t="s">
         <v>265</v>
       </c>
-      <c r="H16" s="434" t="s">
+      <c r="H16" s="460" t="s">
         <v>244</v>
       </c>
-      <c r="I16" s="435" t="s">
+      <c r="I16" s="461" t="s">
         <v>244</v>
       </c>
-      <c r="J16" s="436" t="s">
+      <c r="J16" s="462" t="s">
         <v>1218</v>
       </c>
-      <c r="K16" s="437" t="s">
+      <c r="K16" s="463" t="s">
         <v>1213</v>
       </c>
-      <c r="L16" s="437">
+      <c r="L16" s="463">
         <v>43394</v>
       </c>
-      <c r="M16" s="437" t="s">
+      <c r="M16" s="463" t="s">
         <v>1214</v>
       </c>
-      <c r="N16" s="438" t="s">
+      <c r="N16" s="464" t="s">
         <v>1213</v>
       </c>
-      <c r="O16" s="433" t="s">
+      <c r="O16" s="459" t="s">
         <v>1213</v>
       </c>
-      <c r="P16" s="434" t="s">
+      <c r="P16" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="Q16" s="434" t="s">
+      <c r="Q16" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="R16" s="434" t="s">
+      <c r="R16" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="S16" s="434" t="s">
+      <c r="S16" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="T16" s="435" t="s">
+      <c r="T16" s="461" t="s">
         <v>1213</v>
       </c>
-      <c r="U16" s="436">
+      <c r="U16" s="462">
         <f>'BD Patron'!L9+365</f>
         <v>45204</v>
       </c>
-      <c r="V16" s="437" t="s">
+      <c r="V16" s="463" t="s">
         <v>1214</v>
       </c>
-      <c r="W16" s="437" t="s">
+      <c r="W16" s="463" t="s">
         <v>1213</v>
       </c>
-      <c r="X16" s="438">
+      <c r="X16" s="464">
         <v>43394</v>
       </c>
     </row>
     <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="433" t="s">
+      <c r="A17" s="459" t="s">
         <v>1217</v>
       </c>
-      <c r="B17" s="434" t="s">
+      <c r="B17" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="C17" s="434" t="s">
+      <c r="C17" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="D17" s="434" t="s">
+      <c r="D17" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="E17" s="434" t="s">
+      <c r="E17" s="460" t="s">
         <v>1216</v>
       </c>
-      <c r="F17" s="435" t="s">
+      <c r="F17" s="461" t="s">
         <v>1216</v>
       </c>
-      <c r="G17" s="433" t="s">
+      <c r="G17" s="459" t="s">
         <v>347</v>
       </c>
-      <c r="H17" s="434" t="s">
+      <c r="H17" s="460" t="s">
         <v>244</v>
       </c>
-      <c r="I17" s="435" t="s">
+      <c r="I17" s="461" t="s">
         <v>244</v>
       </c>
-      <c r="J17" s="436" t="s">
+      <c r="J17" s="462" t="s">
         <v>1215</v>
       </c>
-      <c r="K17" s="437" t="s">
+      <c r="K17" s="463" t="s">
         <v>1213</v>
       </c>
-      <c r="L17" s="437">
+      <c r="L17" s="463">
         <v>43394</v>
       </c>
-      <c r="M17" s="437" t="s">
+      <c r="M17" s="463" t="s">
         <v>1214</v>
       </c>
-      <c r="N17" s="438" t="s">
+      <c r="N17" s="464" t="s">
         <v>1213</v>
       </c>
-      <c r="O17" s="433" t="s">
+      <c r="O17" s="459" t="s">
         <v>1213</v>
       </c>
-      <c r="P17" s="434" t="s">
+      <c r="P17" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="Q17" s="434" t="s">
+      <c r="Q17" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="R17" s="434" t="s">
+      <c r="R17" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="S17" s="434" t="s">
+      <c r="S17" s="460" t="s">
         <v>1213</v>
       </c>
-      <c r="T17" s="435" t="s">
+      <c r="T17" s="461" t="s">
         <v>1213</v>
       </c>
-      <c r="U17" s="436">
+      <c r="U17" s="462">
         <v>44879</v>
       </c>
-      <c r="V17" s="437" t="s">
+      <c r="V17" s="463" t="s">
         <v>1214</v>
       </c>
-      <c r="W17" s="437" t="s">
+      <c r="W17" s="463" t="s">
         <v>1213</v>
       </c>
-      <c r="X17" s="438">
+      <c r="X17" s="464">
         <v>43394</v>
       </c>
     </row>
     <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="433" t="s">
+      <c r="A18" s="459" t="s">
         <v>1212</v>
       </c>
-      <c r="B18" s="434"/>
-      <c r="C18" s="434"/>
-      <c r="D18" s="434"/>
-      <c r="E18" s="434"/>
-      <c r="F18" s="435"/>
-      <c r="G18" s="433" t="s">
+      <c r="B18" s="460"/>
+      <c r="C18" s="460"/>
+      <c r="D18" s="460"/>
+      <c r="E18" s="460"/>
+      <c r="F18" s="461"/>
+      <c r="G18" s="459" t="s">
         <v>1211</v>
       </c>
-      <c r="H18" s="434"/>
-      <c r="I18" s="435"/>
-      <c r="J18" s="436" t="s">
+      <c r="H18" s="460"/>
+      <c r="I18" s="461"/>
+      <c r="J18" s="462" t="s">
         <v>1210</v>
       </c>
-      <c r="K18" s="437"/>
-      <c r="L18" s="437"/>
-      <c r="M18" s="437"/>
-      <c r="N18" s="438"/>
-      <c r="O18" s="433" t="s">
+      <c r="K18" s="463"/>
+      <c r="L18" s="463"/>
+      <c r="M18" s="463"/>
+      <c r="N18" s="464"/>
+      <c r="O18" s="459" t="s">
         <v>1209</v>
       </c>
-      <c r="P18" s="434" t="s">
+      <c r="P18" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="Q18" s="434" t="s">
+      <c r="Q18" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="R18" s="434" t="s">
+      <c r="R18" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="S18" s="434" t="s">
+      <c r="S18" s="460" t="s">
         <v>1209</v>
       </c>
-      <c r="T18" s="435" t="s">
+      <c r="T18" s="461" t="s">
         <v>1209</v>
       </c>
-      <c r="U18" s="436">
+      <c r="U18" s="462">
         <v>44738</v>
       </c>
-      <c r="V18" s="437"/>
-      <c r="W18" s="437"/>
-      <c r="X18" s="438"/>
+      <c r="V18" s="463"/>
+      <c r="W18" s="463"/>
+      <c r="X18" s="464"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="O17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="O14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="O15:T15"/>
-    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:T12"/>
+    <mergeCell ref="U12:X12"/>
     <mergeCell ref="A5:X5"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="G10:I10"/>
@@ -38263,26 +38212,26 @@
     <mergeCell ref="J9:N9"/>
     <mergeCell ref="O9:T9"/>
     <mergeCell ref="U9:X9"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:T13"/>
-    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="O15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:T16"/>
+    <mergeCell ref="U16:X16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51" right="0.51" top="0.51" bottom="0.51" header="0" footer="0.31"/>

--- a/src/modules/mail/templates/excels/ni_mcit_p_01.xlsx
+++ b/src/modules/mail/templates/excels/ni_mcit_p_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GF63\Desktop\REGXI\Metrocal-admin-backend\src\modules\mail\templates\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ED4073-DF68-422C-AD5E-3475DEEE57BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19EECC5-A09A-43D1-B4E0-BB5D4DC63CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="887" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="887" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NI-R01-MCIT-P-01" sheetId="19" r:id="rId1"/>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="1349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="1367">
   <si>
     <t>Hoja de cálculo</t>
   </si>
@@ -6479,6 +6479,125 @@
   </si>
   <si>
     <t>Código de servicio:</t>
+  </si>
+  <si>
+    <t>in situ</t>
+  </si>
+  <si>
+    <t>Una oficina o un laboratorio cerrados con ventanas</t>
+  </si>
+  <si>
+    <t>Lugares sin ventanas en el centro de un edificio</t>
+  </si>
+  <si>
+    <t>Talleres abiertos, salas de fábricas</t>
+  </si>
+  <si>
+    <t>No Aplica (N/A)</t>
+  </si>
+  <si>
+    <t>No aplica</t>
+  </si>
+  <si>
+    <t>El factor de conversión al SI corresponde a 1 kgf/cm² = 98,0665 kPa</t>
+  </si>
+  <si>
+    <r>
+      <t>mmH₂O (4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>°C)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>El factor de conversión al SI corresponde a 1 inH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>₂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O = 0,249 089 kPa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cmH₂O (4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>°C)</t>
+    </r>
+  </si>
+  <si>
+    <t>El factor de conversión al SI corresponde a 1 ftH₂O = 2,989 07 kPa</t>
+  </si>
+  <si>
+    <r>
+      <t>inH₂O (4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>°C)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mH₂O (4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>°C)</t>
+    </r>
+  </si>
+  <si>
+    <t>El factor de conversión al SI corresponde a 1 cmHg = 1,33322 kPa</t>
+  </si>
+  <si>
+    <t>El factor de conversión al SI corresponde a 1 mPa = 0,000001 kPa</t>
+  </si>
+  <si>
+    <t>El factor de conversión al SI corresponde a 1 mmH₂O = 0,0098 kPa</t>
+  </si>
+  <si>
+    <t>El factor de conversión al SI corresponde a 1 cmH₂O = 0,098 kPa</t>
+  </si>
+  <si>
+    <t>El factor de conversión al SI corresponde a 1 mH₂O = 9,8 kPa</t>
   </si>
 </sst>
 </file>
@@ -7127,7 +7246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -7556,12 +7675,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="472">
+  <cellXfs count="480">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -8508,6 +8658,10 @@
     <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="53" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8619,6 +8773,42 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8693,24 +8883,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12403,142 +12575,6 @@
             <v>10</v>
           </cell>
         </row>
-        <row r="121">
-          <cell r="Y121" t="str">
-            <v>No Aplica (N/A)</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="W124" t="str">
-            <v>bar</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="W125" t="str">
-            <v>psi</v>
-          </cell>
-          <cell r="Y125" t="str">
-            <v>El factor de conversión al SI corresponde a 1 kgf/cm² = 98,0665 kPa</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="W126" t="str">
-            <v>Pa</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="W127" t="str">
-            <v>kPa</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="W128" t="str">
-            <v>hPa</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="W129" t="str">
-            <v>MPa</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="W130" t="str">
-            <v>kgf/cm²</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="W131" t="str">
-            <v>inHg (0°C)</v>
-          </cell>
-          <cell r="Y131" t="str">
-            <v>El factor de conversión al SI corresponde a 1 bar = 100 kPa</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="W132" t="str">
-            <v>mmHg (0°C)</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="W133" t="str">
-            <v>cmHg (0°C)</v>
-          </cell>
-          <cell r="Y133" t="str">
-            <v>El factor de conversión al SI corresponde a 1 psi = 6,894 757 kPa</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="W134" t="str">
-            <v>mmH₂O (4°C)</v>
-          </cell>
-          <cell r="Y134" t="str">
-            <v>El factor de conversión al SI corresponde a 1 inH₂O = 0,249 089 kPa</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="W135" t="str">
-            <v>cmH₂O (4°C)</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="W136" t="str">
-            <v>inH₂O (4°C)</v>
-          </cell>
-          <cell r="Y136" t="str">
-            <v>El factor de conversión al SI corresponde a 1 inHg = 3,386 39 kPa</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="W137" t="str">
-            <v>atm</v>
-          </cell>
-          <cell r="Y137" t="str">
-            <v>El factor de conversión al SI corresponde a 1 mmHg = 0,133322 kPa</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="W138" t="str">
-            <v>mH₂O (4°C)</v>
-          </cell>
-          <cell r="Y138" t="str">
-            <v>El factor de conversión al SI corresponde a 1 cmHg = 1,33322 kPa</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="Y139" t="str">
-            <v>El factor de conversión al SI corresponde a 1 MPa = 1000 kPa</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="Y140" t="str">
-            <v>El factor de conversión al SI corresponde a 1 Pa = 0,001 kPa</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="Y141" t="str">
-            <v>El factor de conversión al SI corresponde a 1 hPa = 0,01 kPa</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="Y145" t="str">
-            <v>El factor de conversión al SI corresponde a 1 atm = 101,325 kPa</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="Y147" t="str">
-            <v>El factor de conversión al SI corresponde a 1 mmH₂O = 0,0098 kPa</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="Y148" t="str">
-            <v>El factor de conversión al SI corresponde a 1 cmH₂O = 0,098 kPa</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="Y149" t="str">
-            <v>El factor de conversión al SI corresponde a 1 mH₂O = 9,8 kPa</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="4">
@@ -12557,16 +12593,6 @@
             <v>Agua</v>
           </cell>
         </row>
-        <row r="6">
-          <cell r="BJ6" t="str">
-            <v>La indicación de la presión de referencia y del equipo corresponden al promedio de 4 mediciones en 2 ciclos ascendentes y descendentes.</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="BJ7" t="str">
-            <v>La indicación de la presión de referencia y del equipo corresponden al promedio de 6 mediciones en 3 ciclos ascendentes y descendentes.</v>
-          </cell>
-        </row>
         <row r="8">
           <cell r="D8">
             <v>1</v>
@@ -12578,11 +12604,6 @@
         <row r="9">
           <cell r="E9">
             <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10" t="str">
-            <v>2</v>
           </cell>
         </row>
         <row r="52">
@@ -13268,7 +13289,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A3:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -13280,59 +13301,59 @@
     <row r="3" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="7.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="362" t="s">
+      <c r="A5" s="364" t="s">
         <v>1237</v>
       </c>
-      <c r="B5" s="362"/>
-      <c r="C5" s="362"/>
-      <c r="D5" s="362"/>
-      <c r="E5" s="362"/>
-      <c r="F5" s="362"/>
-      <c r="G5" s="362"/>
-      <c r="H5" s="362"/>
-      <c r="I5" s="362"/>
+      <c r="B5" s="364"/>
+      <c r="C5" s="364"/>
+      <c r="D5" s="364"/>
+      <c r="E5" s="364"/>
+      <c r="F5" s="364"/>
+      <c r="G5" s="364"/>
+      <c r="H5" s="364"/>
+      <c r="I5" s="364"/>
     </row>
     <row r="6" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="296" t="s">
         <v>1093</v>
       </c>
-      <c r="B6" s="356" t="s">
+      <c r="B6" s="358" t="s">
         <v>433</v>
       </c>
-      <c r="C6" s="356"/>
-      <c r="D6" s="356"/>
-      <c r="E6" s="356"/>
-      <c r="F6" s="356"/>
-      <c r="G6" s="356"/>
-      <c r="H6" s="356"/>
+      <c r="C6" s="358"/>
+      <c r="D6" s="358"/>
+      <c r="E6" s="358"/>
+      <c r="F6" s="358"/>
+      <c r="G6" s="358"/>
+      <c r="H6" s="358"/>
       <c r="I6" s="297" t="s">
         <v>1094</v>
       </c>
-      <c r="J6" s="346">
+      <c r="J6" s="348">
         <v>44965</v>
       </c>
-      <c r="K6" s="346"/>
+      <c r="K6" s="348"/>
     </row>
     <row r="7" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="363" t="s">
+      <c r="A7" s="365" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="363"/>
-      <c r="C7" s="356" t="s">
+      <c r="B7" s="365"/>
+      <c r="C7" s="358" t="s">
         <v>349</v>
       </c>
-      <c r="D7" s="356"/>
-      <c r="E7" s="356"/>
-      <c r="F7" s="356"/>
-      <c r="G7" s="356"/>
-      <c r="H7" s="356"/>
+      <c r="D7" s="358"/>
+      <c r="E7" s="358"/>
+      <c r="F7" s="358"/>
+      <c r="G7" s="358"/>
+      <c r="H7" s="358"/>
       <c r="I7" s="297" t="s">
         <v>1095</v>
       </c>
-      <c r="J7" s="347" t="s">
+      <c r="J7" s="349" t="s">
         <v>1190</v>
       </c>
-      <c r="K7" s="347"/>
+      <c r="K7" s="349"/>
     </row>
     <row r="8" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="298"/>
@@ -13348,138 +13369,138 @@
       <c r="K8" s="299"/>
     </row>
     <row r="9" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="362" t="s">
+      <c r="A9" s="364" t="s">
         <v>1238</v>
       </c>
-      <c r="B9" s="362"/>
-      <c r="C9" s="362"/>
-      <c r="D9" s="362"/>
-      <c r="E9" s="362"/>
-      <c r="F9" s="362"/>
-      <c r="G9" s="362"/>
-      <c r="H9" s="362"/>
-      <c r="I9" s="362"/>
+      <c r="B9" s="364"/>
+      <c r="C9" s="364"/>
+      <c r="D9" s="364"/>
+      <c r="E9" s="364"/>
+      <c r="F9" s="364"/>
+      <c r="G9" s="364"/>
+      <c r="H9" s="364"/>
+      <c r="I9" s="364"/>
       <c r="J9" s="299"/>
       <c r="K9" s="299"/>
     </row>
     <row r="10" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="356" t="s">
+      <c r="A10" s="358" t="s">
         <v>1096</v>
       </c>
-      <c r="B10" s="356"/>
-      <c r="C10" s="356"/>
-      <c r="D10" s="358" t="s">
+      <c r="B10" s="358"/>
+      <c r="C10" s="358"/>
+      <c r="D10" s="360" t="s">
         <v>232</v>
       </c>
-      <c r="E10" s="359"/>
-      <c r="F10" s="359"/>
-      <c r="G10" s="347" t="s">
+      <c r="E10" s="361"/>
+      <c r="F10" s="361"/>
+      <c r="G10" s="349" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="347"/>
-      <c r="I10" s="358" t="s">
+      <c r="H10" s="349"/>
+      <c r="I10" s="360" t="s">
         <v>228</v>
       </c>
-      <c r="J10" s="359"/>
-      <c r="K10" s="360"/>
+      <c r="J10" s="361"/>
+      <c r="K10" s="362"/>
     </row>
     <row r="11" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="356" t="s">
+      <c r="A11" s="358" t="s">
         <v>1097</v>
       </c>
-      <c r="B11" s="356"/>
-      <c r="C11" s="356"/>
-      <c r="D11" s="361" t="s">
+      <c r="B11" s="358"/>
+      <c r="C11" s="358"/>
+      <c r="D11" s="363" t="s">
         <v>1192</v>
       </c>
-      <c r="E11" s="361"/>
-      <c r="F11" s="361"/>
-      <c r="G11" s="347" t="s">
+      <c r="E11" s="363"/>
+      <c r="F11" s="363"/>
+      <c r="G11" s="349" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="347"/>
-      <c r="I11" s="357" t="s">
+      <c r="H11" s="349"/>
+      <c r="I11" s="359" t="s">
         <v>1193</v>
       </c>
-      <c r="J11" s="357"/>
-      <c r="K11" s="357"/>
+      <c r="J11" s="359"/>
+      <c r="K11" s="359"/>
     </row>
     <row r="12" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="356" t="s">
+      <c r="A12" s="358" t="s">
         <v>1098</v>
       </c>
-      <c r="B12" s="356"/>
-      <c r="C12" s="356"/>
-      <c r="D12" s="361" t="s">
+      <c r="B12" s="358"/>
+      <c r="C12" s="358"/>
+      <c r="D12" s="363" t="s">
         <v>1194</v>
       </c>
-      <c r="E12" s="361"/>
-      <c r="F12" s="361"/>
-      <c r="G12" s="347" t="s">
+      <c r="E12" s="363"/>
+      <c r="F12" s="363"/>
+      <c r="G12" s="349" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="347"/>
-      <c r="I12" s="357" t="s">
+      <c r="H12" s="349"/>
+      <c r="I12" s="359" t="s">
         <v>1191</v>
       </c>
-      <c r="J12" s="357"/>
-      <c r="K12" s="357"/>
+      <c r="J12" s="359"/>
+      <c r="K12" s="359"/>
     </row>
     <row r="13" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="356" t="s">
+      <c r="A13" s="358" t="s">
         <v>1099</v>
       </c>
-      <c r="B13" s="356"/>
-      <c r="C13" s="356"/>
-      <c r="D13" s="361" t="s">
+      <c r="B13" s="358"/>
+      <c r="C13" s="358"/>
+      <c r="D13" s="363" t="s">
         <v>408</v>
       </c>
-      <c r="E13" s="361"/>
-      <c r="F13" s="361"/>
-      <c r="G13" s="347" t="s">
+      <c r="E13" s="363"/>
+      <c r="F13" s="363"/>
+      <c r="G13" s="349" t="s">
         <v>1100</v>
       </c>
-      <c r="H13" s="347"/>
-      <c r="I13" s="357">
+      <c r="H13" s="349"/>
+      <c r="I13" s="359">
         <v>1</v>
       </c>
-      <c r="J13" s="357"/>
-      <c r="K13" s="357"/>
+      <c r="J13" s="359"/>
+      <c r="K13" s="359"/>
     </row>
     <row r="14" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="356" t="s">
+      <c r="A14" s="358" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="356"/>
-      <c r="C14" s="356"/>
-      <c r="D14" s="361">
+      <c r="B14" s="358"/>
+      <c r="C14" s="358"/>
+      <c r="D14" s="363">
         <v>0.5</v>
       </c>
-      <c r="E14" s="361"/>
-      <c r="F14" s="361"/>
-      <c r="G14" s="347" t="s">
+      <c r="E14" s="363"/>
+      <c r="F14" s="363"/>
+      <c r="G14" s="349" t="s">
         <v>1195</v>
       </c>
-      <c r="H14" s="347"/>
-      <c r="I14" s="357">
-        <v>0</v>
-      </c>
-      <c r="J14" s="357"/>
-      <c r="K14" s="357"/>
+      <c r="H14" s="349"/>
+      <c r="I14" s="359">
+        <v>0</v>
+      </c>
+      <c r="J14" s="359"/>
+      <c r="K14" s="359"/>
     </row>
     <row r="15" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="356" t="s">
+      <c r="A15" s="358" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="356"/>
-      <c r="C15" s="356"/>
-      <c r="D15" s="361"/>
-      <c r="E15" s="361"/>
-      <c r="F15" s="361"/>
-      <c r="G15" s="347" t="s">
+      <c r="B15" s="358"/>
+      <c r="C15" s="358"/>
+      <c r="D15" s="363"/>
+      <c r="E15" s="363"/>
+      <c r="F15" s="363"/>
+      <c r="G15" s="349" t="s">
         <v>226</v>
       </c>
-      <c r="H15" s="347"/>
+      <c r="H15" s="349"/>
       <c r="I15" s="301"/>
       <c r="J15" s="297" t="s">
         <v>227</v>
@@ -13487,11 +13508,11 @@
       <c r="K15" s="301"/>
     </row>
     <row r="16" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="356" t="s">
+      <c r="A16" s="358" t="s">
         <v>1196</v>
       </c>
-      <c r="B16" s="356"/>
-      <c r="C16" s="356"/>
+      <c r="B16" s="358"/>
+      <c r="C16" s="358"/>
       <c r="D16" s="300" t="s">
         <v>1197</v>
       </c>
@@ -13499,13 +13520,13 @@
       <c r="F16" s="300" t="s">
         <v>1198</v>
       </c>
-      <c r="G16" s="347" t="s">
+      <c r="G16" s="349" t="s">
         <v>1199</v>
       </c>
-      <c r="H16" s="347"/>
-      <c r="I16" s="380"/>
-      <c r="J16" s="381"/>
-      <c r="K16" s="382"/>
+      <c r="H16" s="349"/>
+      <c r="I16" s="382"/>
+      <c r="J16" s="383"/>
+      <c r="K16" s="384"/>
     </row>
     <row r="17" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="302"/>
@@ -13521,17 +13542,17 @@
       <c r="K17" s="299"/>
     </row>
     <row r="18" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="362" t="s">
+      <c r="A18" s="364" t="s">
         <v>1239</v>
       </c>
-      <c r="B18" s="362"/>
-      <c r="C18" s="362"/>
-      <c r="D18" s="362"/>
-      <c r="E18" s="362"/>
-      <c r="F18" s="362"/>
-      <c r="G18" s="362"/>
-      <c r="H18" s="362"/>
-      <c r="I18" s="362"/>
+      <c r="B18" s="364"/>
+      <c r="C18" s="364"/>
+      <c r="D18" s="364"/>
+      <c r="E18" s="364"/>
+      <c r="F18" s="364"/>
+      <c r="G18" s="364"/>
+      <c r="H18" s="364"/>
+      <c r="I18" s="364"/>
       <c r="J18" s="299"/>
       <c r="K18" s="299"/>
     </row>
@@ -13556,7 +13577,7 @@
       <c r="L19" s="299"/>
     </row>
     <row r="20" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="376" t="s">
+      <c r="A20" s="378" t="s">
         <v>270</v>
       </c>
       <c r="B20" s="294" t="s">
@@ -13568,11 +13589,11 @@
       <c r="D20" s="295">
         <v>60</v>
       </c>
-      <c r="E20" s="354" t="s">
+      <c r="E20" s="356" t="s">
         <v>1104</v>
       </c>
-      <c r="F20" s="355"/>
-      <c r="G20" s="376" t="s">
+      <c r="F20" s="357"/>
+      <c r="G20" s="378" t="s">
         <v>270</v>
       </c>
       <c r="H20" s="294" t="s">
@@ -13581,14 +13602,14 @@
       <c r="I20" s="295">
         <v>1000</v>
       </c>
-      <c r="J20" s="354" t="s">
+      <c r="J20" s="356" t="s">
         <v>1104</v>
       </c>
-      <c r="K20" s="355"/>
+      <c r="K20" s="357"/>
       <c r="L20" s="299"/>
     </row>
     <row r="21" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="376"/>
+      <c r="A21" s="378"/>
       <c r="B21" s="294" t="s">
         <v>352</v>
       </c>
@@ -13598,25 +13619,25 @@
       <c r="D21" s="295">
         <v>70</v>
       </c>
-      <c r="E21" s="348" t="s">
+      <c r="E21" s="350" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="349"/>
-      <c r="G21" s="376"/>
+      <c r="F21" s="351"/>
+      <c r="G21" s="378"/>
       <c r="H21" s="294" t="s">
         <v>352</v>
       </c>
       <c r="I21" s="295">
         <v>1010</v>
       </c>
-      <c r="J21" s="348" t="s">
+      <c r="J21" s="350" t="s">
         <v>347</v>
       </c>
-      <c r="K21" s="349"/>
+      <c r="K21" s="351"/>
       <c r="L21" s="299"/>
     </row>
     <row r="22" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="376" t="s">
+      <c r="A22" s="378" t="s">
         <v>269</v>
       </c>
       <c r="B22" s="294" t="s">
@@ -13628,9 +13649,9 @@
       <c r="D22" s="295">
         <v>65</v>
       </c>
-      <c r="E22" s="350"/>
-      <c r="F22" s="351"/>
-      <c r="G22" s="376" t="s">
+      <c r="E22" s="352"/>
+      <c r="F22" s="353"/>
+      <c r="G22" s="378" t="s">
         <v>269</v>
       </c>
       <c r="H22" s="294" t="s">
@@ -13639,12 +13660,12 @@
       <c r="I22" s="295">
         <v>990</v>
       </c>
-      <c r="J22" s="350"/>
-      <c r="K22" s="351"/>
+      <c r="J22" s="352"/>
+      <c r="K22" s="353"/>
       <c r="L22" s="299"/>
     </row>
     <row r="23" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="376"/>
+      <c r="A23" s="378"/>
       <c r="B23" s="294" t="s">
         <v>352</v>
       </c>
@@ -13654,21 +13675,21 @@
       <c r="D23" s="295">
         <v>75</v>
       </c>
-      <c r="E23" s="350"/>
-      <c r="F23" s="351"/>
-      <c r="G23" s="376"/>
+      <c r="E23" s="352"/>
+      <c r="F23" s="353"/>
+      <c r="G23" s="378"/>
       <c r="H23" s="294" t="s">
         <v>352</v>
       </c>
       <c r="I23" s="295">
         <v>1005</v>
       </c>
-      <c r="J23" s="350"/>
-      <c r="K23" s="351"/>
+      <c r="J23" s="352"/>
+      <c r="K23" s="353"/>
       <c r="L23" s="299"/>
     </row>
     <row r="24" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="376" t="s">
+      <c r="A24" s="378" t="s">
         <v>271</v>
       </c>
       <c r="B24" s="294" t="s">
@@ -13680,9 +13701,9 @@
       <c r="D24" s="295">
         <v>55</v>
       </c>
-      <c r="E24" s="350"/>
-      <c r="F24" s="351"/>
-      <c r="G24" s="376" t="s">
+      <c r="E24" s="352"/>
+      <c r="F24" s="353"/>
+      <c r="G24" s="378" t="s">
         <v>271</v>
       </c>
       <c r="H24" s="294" t="s">
@@ -13691,12 +13712,12 @@
       <c r="I24" s="295">
         <v>1015</v>
       </c>
-      <c r="J24" s="350"/>
-      <c r="K24" s="351"/>
+      <c r="J24" s="352"/>
+      <c r="K24" s="353"/>
       <c r="L24" s="299"/>
     </row>
     <row r="25" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="376"/>
+      <c r="A25" s="378"/>
       <c r="B25" s="294" t="s">
         <v>352</v>
       </c>
@@ -13706,145 +13727,145 @@
       <c r="D25" s="295">
         <v>60</v>
       </c>
-      <c r="E25" s="352"/>
-      <c r="F25" s="353"/>
-      <c r="G25" s="376"/>
+      <c r="E25" s="354"/>
+      <c r="F25" s="355"/>
+      <c r="G25" s="378"/>
       <c r="H25" s="294" t="s">
         <v>352</v>
       </c>
       <c r="I25" s="295">
         <v>1025</v>
       </c>
-      <c r="J25" s="352"/>
-      <c r="K25" s="353"/>
+      <c r="J25" s="354"/>
+      <c r="K25" s="355"/>
       <c r="L25" s="299"/>
     </row>
     <row r="26" spans="1:12" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="283"/>
     </row>
     <row r="27" spans="1:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="377" t="s">
+      <c r="A27" s="379" t="s">
         <v>1240</v>
       </c>
-      <c r="B27" s="377"/>
-      <c r="C27" s="377"/>
-      <c r="D27" s="377"/>
-      <c r="E27" s="377"/>
-      <c r="F27" s="377"/>
-      <c r="G27" s="377"/>
-      <c r="H27" s="377"/>
-      <c r="I27" s="377"/>
+      <c r="B27" s="379"/>
+      <c r="C27" s="379"/>
+      <c r="D27" s="379"/>
+      <c r="E27" s="379"/>
+      <c r="F27" s="379"/>
+      <c r="G27" s="379"/>
+      <c r="H27" s="379"/>
+      <c r="I27" s="379"/>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="378" t="s">
+      <c r="A28" s="380" t="s">
         <v>1200</v>
       </c>
-      <c r="B28" s="378"/>
-      <c r="C28" s="378"/>
-      <c r="D28" s="379" t="s">
+      <c r="B28" s="380"/>
+      <c r="C28" s="380"/>
+      <c r="D28" s="381" t="s">
         <v>1203</v>
       </c>
-      <c r="E28" s="379"/>
-      <c r="F28" s="379"/>
-      <c r="G28" s="379"/>
-      <c r="H28" s="379" t="s">
+      <c r="E28" s="381"/>
+      <c r="F28" s="381"/>
+      <c r="G28" s="381"/>
+      <c r="H28" s="381" t="s">
         <v>345</v>
       </c>
-      <c r="I28" s="379"/>
-      <c r="J28" s="379"/>
-      <c r="K28" s="379"/>
+      <c r="I28" s="381"/>
+      <c r="J28" s="381"/>
+      <c r="K28" s="381"/>
     </row>
     <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="378" t="s">
+      <c r="A29" s="380" t="s">
         <v>1201</v>
       </c>
-      <c r="B29" s="378"/>
-      <c r="C29" s="378"/>
-      <c r="D29" s="379"/>
-      <c r="E29" s="379"/>
-      <c r="F29" s="379"/>
-      <c r="G29" s="379"/>
-      <c r="H29" s="379"/>
-      <c r="I29" s="379"/>
-      <c r="J29" s="379"/>
-      <c r="K29" s="379"/>
+      <c r="B29" s="380"/>
+      <c r="C29" s="380"/>
+      <c r="D29" s="381"/>
+      <c r="E29" s="381"/>
+      <c r="F29" s="381"/>
+      <c r="G29" s="381"/>
+      <c r="H29" s="381"/>
+      <c r="I29" s="381"/>
+      <c r="J29" s="381"/>
+      <c r="K29" s="381"/>
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="378" t="s">
+      <c r="A30" s="380" t="s">
         <v>1202</v>
       </c>
-      <c r="B30" s="378"/>
-      <c r="C30" s="378"/>
-      <c r="D30" s="379"/>
-      <c r="E30" s="379"/>
-      <c r="F30" s="379"/>
-      <c r="G30" s="379"/>
-      <c r="H30" s="379"/>
-      <c r="I30" s="379"/>
-      <c r="J30" s="379"/>
-      <c r="K30" s="379"/>
+      <c r="B30" s="380"/>
+      <c r="C30" s="380"/>
+      <c r="D30" s="381"/>
+      <c r="E30" s="381"/>
+      <c r="F30" s="381"/>
+      <c r="G30" s="381"/>
+      <c r="H30" s="381"/>
+      <c r="I30" s="381"/>
+      <c r="J30" s="381"/>
+      <c r="K30" s="381"/>
     </row>
     <row r="31" spans="1:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="283"/>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="377" t="s">
+      <c r="A32" s="379" t="s">
         <v>1241</v>
       </c>
-      <c r="B32" s="377"/>
-      <c r="C32" s="377"/>
-      <c r="D32" s="377"/>
-      <c r="E32" s="377"/>
-      <c r="F32" s="377"/>
-      <c r="G32" s="377"/>
-      <c r="H32" s="377"/>
-      <c r="I32" s="377"/>
+      <c r="B32" s="379"/>
+      <c r="C32" s="379"/>
+      <c r="D32" s="379"/>
+      <c r="E32" s="379"/>
+      <c r="F32" s="379"/>
+      <c r="G32" s="379"/>
+      <c r="H32" s="379"/>
+      <c r="I32" s="379"/>
     </row>
     <row r="33" spans="1:12" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="367" t="s">
+      <c r="A33" s="369" t="s">
         <v>1105</v>
       </c>
-      <c r="B33" s="368"/>
-      <c r="C33" s="368"/>
-      <c r="D33" s="369"/>
-      <c r="E33" s="367" t="s">
+      <c r="B33" s="370"/>
+      <c r="C33" s="370"/>
+      <c r="D33" s="371"/>
+      <c r="E33" s="369" t="s">
         <v>1106</v>
       </c>
-      <c r="F33" s="368"/>
-      <c r="G33" s="368"/>
-      <c r="H33" s="369"/>
-      <c r="I33" s="367" t="s">
+      <c r="F33" s="370"/>
+      <c r="G33" s="370"/>
+      <c r="H33" s="371"/>
+      <c r="I33" s="369" t="s">
         <v>1107</v>
       </c>
-      <c r="J33" s="368"/>
-      <c r="K33" s="368"/>
-      <c r="L33" s="369"/>
+      <c r="J33" s="370"/>
+      <c r="K33" s="370"/>
+      <c r="L33" s="371"/>
     </row>
     <row r="34" spans="1:12" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="367" t="s">
+      <c r="A34" s="369" t="s">
         <v>1108</v>
       </c>
-      <c r="B34" s="369"/>
-      <c r="C34" s="367" t="s">
+      <c r="B34" s="371"/>
+      <c r="C34" s="369" t="s">
         <v>1109</v>
       </c>
-      <c r="D34" s="369"/>
-      <c r="E34" s="367" t="s">
+      <c r="D34" s="371"/>
+      <c r="E34" s="369" t="s">
         <v>1108</v>
       </c>
-      <c r="F34" s="369"/>
-      <c r="G34" s="367" t="s">
+      <c r="F34" s="371"/>
+      <c r="G34" s="369" t="s">
         <v>1109</v>
       </c>
-      <c r="H34" s="369"/>
-      <c r="I34" s="367" t="s">
+      <c r="H34" s="371"/>
+      <c r="I34" s="369" t="s">
         <v>1108</v>
       </c>
-      <c r="J34" s="369"/>
-      <c r="K34" s="367" t="s">
+      <c r="J34" s="371"/>
+      <c r="K34" s="369" t="s">
         <v>1109</v>
       </c>
-      <c r="L34" s="369"/>
+      <c r="L34" s="371"/>
     </row>
     <row r="35" spans="1:12" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="304" t="s">
@@ -14268,63 +14289,63 @@
       <c r="A46" s="283"/>
     </row>
     <row r="47" spans="1:12" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="362" t="s">
+      <c r="A47" s="364" t="s">
         <v>1242</v>
       </c>
-      <c r="B47" s="362"/>
-      <c r="C47" s="362"/>
-      <c r="D47" s="362"/>
-      <c r="E47" s="362"/>
+      <c r="B47" s="364"/>
+      <c r="C47" s="364"/>
+      <c r="D47" s="364"/>
+      <c r="E47" s="364"/>
       <c r="F47" s="308"/>
-      <c r="G47" s="363" t="s">
+      <c r="G47" s="365" t="s">
         <v>1204</v>
       </c>
-      <c r="H47" s="363"/>
+      <c r="H47" s="365"/>
       <c r="I47" s="296"/>
       <c r="J47" s="299"/>
       <c r="K47" s="299"/>
       <c r="L47" s="299"/>
     </row>
     <row r="48" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="370"/>
-      <c r="B48" s="370"/>
-      <c r="C48" s="370"/>
-      <c r="D48" s="370"/>
-      <c r="E48" s="370"/>
-      <c r="F48" s="370"/>
-      <c r="G48" s="370"/>
-      <c r="H48" s="370"/>
-      <c r="I48" s="370"/>
-      <c r="J48" s="370"/>
-      <c r="K48" s="370"/>
+      <c r="A48" s="372"/>
+      <c r="B48" s="372"/>
+      <c r="C48" s="372"/>
+      <c r="D48" s="372"/>
+      <c r="E48" s="372"/>
+      <c r="F48" s="372"/>
+      <c r="G48" s="372"/>
+      <c r="H48" s="372"/>
+      <c r="I48" s="372"/>
+      <c r="J48" s="372"/>
+      <c r="K48" s="372"/>
       <c r="L48" s="299"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="362" t="s">
+      <c r="A49" s="364" t="s">
         <v>1243</v>
       </c>
-      <c r="B49" s="362"/>
-      <c r="C49" s="362"/>
-      <c r="D49" s="362"/>
-      <c r="E49" s="362"/>
-      <c r="F49" s="362"/>
-      <c r="G49" s="362"/>
-      <c r="H49" s="362"/>
-      <c r="I49" s="362"/>
+      <c r="B49" s="364"/>
+      <c r="C49" s="364"/>
+      <c r="D49" s="364"/>
+      <c r="E49" s="364"/>
+      <c r="F49" s="364"/>
+      <c r="G49" s="364"/>
+      <c r="H49" s="364"/>
+      <c r="I49" s="364"/>
       <c r="J49" s="299"/>
       <c r="K49" s="299"/>
       <c r="L49" s="299"/>
     </row>
     <row r="50" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="375" t="s">
+      <c r="A50" s="377" t="s">
         <v>1110</v>
       </c>
-      <c r="B50" s="375"/>
+      <c r="B50" s="377"/>
       <c r="C50" s="299"/>
-      <c r="D50" s="375" t="s">
+      <c r="D50" s="377" t="s">
         <v>1110</v>
       </c>
-      <c r="E50" s="375"/>
+      <c r="E50" s="377"/>
       <c r="F50" s="299"/>
       <c r="G50" s="309" t="s">
         <v>318</v>
@@ -14338,65 +14359,65 @@
       <c r="L50" s="299"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="362" t="s">
+      <c r="A51" s="364" t="s">
         <v>1244</v>
       </c>
-      <c r="B51" s="362"/>
-      <c r="C51" s="362"/>
-      <c r="D51" s="362"/>
-      <c r="E51" s="362"/>
-      <c r="F51" s="362"/>
-      <c r="G51" s="362"/>
-      <c r="H51" s="362"/>
-      <c r="I51" s="362"/>
+      <c r="B51" s="364"/>
+      <c r="C51" s="364"/>
+      <c r="D51" s="364"/>
+      <c r="E51" s="364"/>
+      <c r="F51" s="364"/>
+      <c r="G51" s="364"/>
+      <c r="H51" s="364"/>
+      <c r="I51" s="364"/>
       <c r="J51" s="299"/>
       <c r="K51" s="299"/>
       <c r="L51" s="299"/>
     </row>
     <row r="52" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="374"/>
-      <c r="B52" s="374"/>
-      <c r="C52" s="374"/>
-      <c r="D52" s="374"/>
-      <c r="E52" s="374"/>
-      <c r="F52" s="374"/>
-      <c r="G52" s="374"/>
-      <c r="H52" s="374"/>
-      <c r="I52" s="374"/>
-      <c r="J52" s="374"/>
-      <c r="K52" s="374"/>
-      <c r="L52" s="374"/>
+      <c r="A52" s="376"/>
+      <c r="B52" s="376"/>
+      <c r="C52" s="376"/>
+      <c r="D52" s="376"/>
+      <c r="E52" s="376"/>
+      <c r="F52" s="376"/>
+      <c r="G52" s="376"/>
+      <c r="H52" s="376"/>
+      <c r="I52" s="376"/>
+      <c r="J52" s="376"/>
+      <c r="K52" s="376"/>
+      <c r="L52" s="376"/>
     </row>
     <row r="53" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="374"/>
-      <c r="B53" s="374"/>
-      <c r="C53" s="374"/>
-      <c r="D53" s="374"/>
-      <c r="E53" s="374"/>
-      <c r="F53" s="374"/>
-      <c r="G53" s="374"/>
-      <c r="H53" s="374"/>
-      <c r="I53" s="374"/>
-      <c r="J53" s="374"/>
-      <c r="K53" s="374"/>
-      <c r="L53" s="374"/>
+      <c r="A53" s="376"/>
+      <c r="B53" s="376"/>
+      <c r="C53" s="376"/>
+      <c r="D53" s="376"/>
+      <c r="E53" s="376"/>
+      <c r="F53" s="376"/>
+      <c r="G53" s="376"/>
+      <c r="H53" s="376"/>
+      <c r="I53" s="376"/>
+      <c r="J53" s="376"/>
+      <c r="K53" s="376"/>
+      <c r="L53" s="376"/>
     </row>
     <row r="54" spans="1:12" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="284"/>
     </row>
     <row r="55" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="364" t="s">
+      <c r="A55" s="366" t="s">
         <v>1245</v>
       </c>
-      <c r="B55" s="364"/>
-      <c r="C55" s="364"/>
-      <c r="D55" s="364"/>
+      <c r="B55" s="366"/>
+      <c r="C55" s="366"/>
+      <c r="D55" s="366"/>
       <c r="E55" s="299"/>
-      <c r="F55" s="365" t="s">
+      <c r="F55" s="367" t="s">
         <v>1111</v>
       </c>
-      <c r="G55" s="365"/>
-      <c r="H55" s="365"/>
+      <c r="G55" s="367"/>
+      <c r="H55" s="367"/>
       <c r="I55" s="299"/>
       <c r="J55" s="299"/>
       <c r="K55" s="299"/>
@@ -14406,18 +14427,18 @@
       <c r="A56" s="297" t="s">
         <v>1246</v>
       </c>
-      <c r="B56" s="371"/>
-      <c r="C56" s="371"/>
-      <c r="D56" s="371"/>
-      <c r="E56" s="371"/>
+      <c r="B56" s="373"/>
+      <c r="C56" s="373"/>
+      <c r="D56" s="373"/>
+      <c r="E56" s="373"/>
       <c r="F56" s="297" t="s">
         <v>1246</v>
       </c>
-      <c r="G56" s="371"/>
-      <c r="H56" s="371"/>
-      <c r="I56" s="371"/>
-      <c r="J56" s="371"/>
-      <c r="K56" s="371"/>
+      <c r="G56" s="373"/>
+      <c r="H56" s="373"/>
+      <c r="I56" s="373"/>
+      <c r="J56" s="373"/>
+      <c r="K56" s="373"/>
       <c r="L56" s="299"/>
     </row>
     <row r="57" spans="1:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -14435,41 +14456,41 @@
       <c r="L57" s="299"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="366" t="s">
+      <c r="A58" s="368" t="s">
         <v>1247</v>
       </c>
-      <c r="B58" s="366"/>
-      <c r="C58" s="366"/>
-      <c r="D58" s="366"/>
-      <c r="E58" s="366" t="s">
+      <c r="B58" s="368"/>
+      <c r="C58" s="368"/>
+      <c r="D58" s="368"/>
+      <c r="E58" s="368" t="s">
         <v>1112</v>
       </c>
-      <c r="F58" s="366"/>
+      <c r="F58" s="368"/>
       <c r="G58" s="299"/>
       <c r="H58" s="299"/>
-      <c r="I58" s="366" t="s">
+      <c r="I58" s="368" t="s">
         <v>1113</v>
       </c>
-      <c r="J58" s="366"/>
+      <c r="J58" s="368"/>
       <c r="K58" s="299"/>
       <c r="L58" s="299"/>
     </row>
     <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A59" s="372" t="s">
+      <c r="A59" s="374" t="s">
         <v>1205</v>
       </c>
-      <c r="B59" s="372"/>
-      <c r="C59" s="372"/>
-      <c r="D59" s="372"/>
+      <c r="B59" s="374"/>
+      <c r="C59" s="374"/>
+      <c r="D59" s="374"/>
       <c r="E59" s="285" t="s">
         <v>1248</v>
       </c>
-      <c r="F59" s="373"/>
-      <c r="G59" s="373"/>
-      <c r="H59" s="373"/>
-      <c r="I59" s="373"/>
-      <c r="J59" s="373"/>
-      <c r="K59" s="373"/>
+      <c r="F59" s="375"/>
+      <c r="G59" s="375"/>
+      <c r="H59" s="375"/>
+      <c r="I59" s="375"/>
+      <c r="J59" s="375"/>
+      <c r="K59" s="375"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="282"/>
@@ -14671,10 +14692,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B1:W187"/>
+  <dimension ref="B1:AB187"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView topLeftCell="L45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W118" sqref="W118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14766,7 +14787,7 @@
         <f>'NI-R01-MCIT-P-01'!B6</f>
         <v>Agencia Aduanera GRH S,A.</v>
       </c>
-      <c r="N3" s="385" t="s">
+      <c r="N3" s="399" t="s">
         <v>270</v>
       </c>
       <c r="O3" s="232" t="s">
@@ -14811,7 +14832,7 @@
         <f>IFERROR(VLOOKUP(L3,'BD Clientes'!B6:C522,2,FALSE),"")</f>
         <v>De Los Semáforos de Sabana Grande 1 500 m Este.</v>
       </c>
-      <c r="N4" s="386"/>
+      <c r="N4" s="400"/>
       <c r="O4" s="230" t="s">
         <v>352</v>
       </c>
@@ -14853,7 +14874,7 @@
       <c r="L5" s="126" t="s">
         <v>348</v>
       </c>
-      <c r="N5" s="386" t="s">
+      <c r="N5" s="400" t="s">
         <v>269</v>
       </c>
       <c r="O5" s="230" t="s">
@@ -14897,7 +14918,7 @@
       <c r="L6" s="126" t="s">
         <v>349</v>
       </c>
-      <c r="N6" s="386"/>
+      <c r="N6" s="400"/>
       <c r="O6" s="230" t="s">
         <v>352</v>
       </c>
@@ -14935,7 +14956,7 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="N7" s="386" t="s">
+      <c r="N7" s="400" t="s">
         <v>271</v>
       </c>
       <c r="O7" s="230" t="s">
@@ -14974,7 +14995,7 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="N8" s="383"/>
+      <c r="N8" s="397"/>
       <c r="O8" s="233" t="s">
         <v>352</v>
       </c>
@@ -15037,10 +15058,10 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="N10" s="385" t="s">
+      <c r="N10" s="399" t="s">
         <v>351</v>
       </c>
-      <c r="O10" s="387"/>
+      <c r="O10" s="401"/>
       <c r="P10" s="239">
         <f>IFERROR(AVERAGE(P3,P5,P7),"")</f>
         <v>25</v>
@@ -15071,10 +15092,10 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="N11" s="383" t="s">
+      <c r="N11" s="397" t="s">
         <v>352</v>
       </c>
-      <c r="O11" s="384"/>
+      <c r="O11" s="398"/>
       <c r="P11" s="241">
         <f>IFERROR(AVERAGE(P4,P6,P8),"")</f>
         <v>29</v>
@@ -15413,148 +15434,341 @@
     <row r="112" spans="23:23" x14ac:dyDescent="0.3">
       <c r="W112"/>
     </row>
-    <row r="113" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W113"/>
-    </row>
-    <row r="114" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W114"/>
-    </row>
-    <row r="115" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W115"/>
-    </row>
-    <row r="116" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W116"/>
-    </row>
-    <row r="117" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W117"/>
-    </row>
-    <row r="118" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W118"/>
-    </row>
-    <row r="119" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W119"/>
-    </row>
-    <row r="120" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W120"/>
-    </row>
-    <row r="121" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W121"/>
-    </row>
-    <row r="122" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W122"/>
-    </row>
-    <row r="123" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W123"/>
-    </row>
-    <row r="124" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W124"/>
-    </row>
-    <row r="125" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W125"/>
-    </row>
-    <row r="126" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W126"/>
-    </row>
-    <row r="127" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W127"/>
-    </row>
-    <row r="128" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W128"/>
-    </row>
-    <row r="129" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W129"/>
-    </row>
-    <row r="130" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W130"/>
-    </row>
-    <row r="131" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W131"/>
-    </row>
-    <row r="132" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W132"/>
-    </row>
-    <row r="133" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W133"/>
-    </row>
-    <row r="134" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W134"/>
-    </row>
-    <row r="135" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W135"/>
-    </row>
-    <row r="136" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W136"/>
-    </row>
-    <row r="137" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W137"/>
-    </row>
-    <row r="138" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W138"/>
-    </row>
-    <row r="139" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W139"/>
-    </row>
-    <row r="140" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W140"/>
-    </row>
-    <row r="141" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W141"/>
-    </row>
-    <row r="142" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W142"/>
-    </row>
-    <row r="143" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W143"/>
-    </row>
-    <row r="144" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W144"/>
-    </row>
-    <row r="145" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W145"/>
-    </row>
-    <row r="146" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W146"/>
-    </row>
-    <row r="147" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W147"/>
-    </row>
-    <row r="148" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W148"/>
-    </row>
-    <row r="149" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W149"/>
-    </row>
-    <row r="150" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W113" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W114" s="7" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="116" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W116" s="346" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="117" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W117" s="346" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="118" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W118" s="346" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="120" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W120" s="346" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W121" s="346" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="122" spans="23:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W122" s="346" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="123" spans="23:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y123" s="391" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z123" s="392"/>
+      <c r="AA123" s="392"/>
+      <c r="AB123" s="393"/>
+    </row>
+    <row r="124" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W124" s="347" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y124" s="394" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z124" s="395"/>
+      <c r="AA124" s="395"/>
+      <c r="AB124" s="396"/>
+    </row>
+    <row r="125" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W125" s="347" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y125" s="385" t="s">
+        <v>1355</v>
+      </c>
+      <c r="Z125" s="386"/>
+      <c r="AA125" s="386"/>
+      <c r="AB125" s="387"/>
+    </row>
+    <row r="126" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W126" s="347" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y126" s="385" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z126" s="386"/>
+      <c r="AA126" s="386"/>
+      <c r="AB126" s="387"/>
+    </row>
+    <row r="127" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W127" s="347" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y127" s="385" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z127" s="386"/>
+      <c r="AA127" s="386"/>
+      <c r="AB127" s="387"/>
+    </row>
+    <row r="128" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W128" s="347" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y128" s="385" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z128" s="386"/>
+      <c r="AA128" s="386"/>
+      <c r="AB128" s="387"/>
+    </row>
+    <row r="129" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W129" s="347" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y129" s="385" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z129" s="386"/>
+      <c r="AA129" s="386"/>
+      <c r="AB129" s="387"/>
+    </row>
+    <row r="130" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W130" s="347" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Y130" s="385" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z130" s="386"/>
+      <c r="AA130" s="386"/>
+      <c r="AB130" s="387"/>
+    </row>
+    <row r="131" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W131" s="347" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y131" s="385" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z131" s="386"/>
+      <c r="AA131" s="386"/>
+      <c r="AB131" s="387"/>
+    </row>
+    <row r="132" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W132" s="347" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y132" s="385" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z132" s="386"/>
+      <c r="AA132" s="386"/>
+      <c r="AB132" s="387"/>
+    </row>
+    <row r="133" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W133" s="347" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y133" s="385" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z133" s="386"/>
+      <c r="AA133" s="386"/>
+      <c r="AB133" s="387"/>
+    </row>
+    <row r="134" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W134" s="347" t="s">
+        <v>1356</v>
+      </c>
+      <c r="Y134" s="385" t="s">
+        <v>1357</v>
+      </c>
+      <c r="Z134" s="386"/>
+      <c r="AA134" s="386"/>
+      <c r="AB134" s="387"/>
+    </row>
+    <row r="135" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W135" s="347" t="s">
+        <v>1358</v>
+      </c>
+      <c r="Y135" s="385" t="s">
+        <v>1359</v>
+      </c>
+      <c r="Z135" s="386"/>
+      <c r="AA135" s="386"/>
+      <c r="AB135" s="387"/>
+    </row>
+    <row r="136" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W136" s="347" t="s">
+        <v>1360</v>
+      </c>
+      <c r="Y136" s="385" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z136" s="386"/>
+      <c r="AA136" s="386"/>
+      <c r="AB136" s="387"/>
+    </row>
+    <row r="137" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W137" s="347" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y137" s="385" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z137" s="386"/>
+      <c r="AA137" s="386"/>
+      <c r="AB137" s="387"/>
+    </row>
+    <row r="138" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W138" s="347" t="s">
+        <v>1361</v>
+      </c>
+      <c r="Y138" s="385" t="s">
+        <v>1362</v>
+      </c>
+      <c r="Z138" s="386"/>
+      <c r="AA138" s="386"/>
+      <c r="AB138" s="387"/>
+    </row>
+    <row r="139" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="Y139" s="385" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z139" s="386"/>
+      <c r="AA139" s="386"/>
+      <c r="AB139" s="387"/>
+    </row>
+    <row r="140" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="Y140" s="385" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z140" s="386"/>
+      <c r="AA140" s="386"/>
+      <c r="AB140" s="387"/>
+    </row>
+    <row r="141" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="Y141" s="385" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z141" s="386"/>
+      <c r="AA141" s="386"/>
+      <c r="AB141" s="387"/>
+    </row>
+    <row r="142" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="Y142" s="385" t="s">
+        <v>1363</v>
+      </c>
+      <c r="Z142" s="386"/>
+      <c r="AA142" s="386"/>
+      <c r="AB142" s="387"/>
+    </row>
+    <row r="143" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="Y143" s="385" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z143" s="386"/>
+      <c r="AA143" s="386"/>
+      <c r="AB143" s="387"/>
+    </row>
+    <row r="144" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="Y144" s="385" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z144" s="386"/>
+      <c r="AA144" s="386"/>
+      <c r="AB144" s="387"/>
+    </row>
+    <row r="145" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="Y145" s="385" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z145" s="386"/>
+      <c r="AA145" s="386"/>
+      <c r="AB145" s="387"/>
+    </row>
+    <row r="146" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="Y146" s="385" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z146" s="386"/>
+      <c r="AA146" s="386"/>
+      <c r="AB146" s="387"/>
+    </row>
+    <row r="147" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="Y147" s="385" t="s">
+        <v>1364</v>
+      </c>
+      <c r="Z147" s="386"/>
+      <c r="AA147" s="386"/>
+      <c r="AB147" s="387"/>
+    </row>
+    <row r="148" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="Y148" s="385" t="s">
+        <v>1365</v>
+      </c>
+      <c r="Z148" s="386"/>
+      <c r="AA148" s="386"/>
+      <c r="AB148" s="387"/>
+    </row>
+    <row r="149" spans="23:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y149" s="388" t="s">
+        <v>1366</v>
+      </c>
+      <c r="Z149" s="389"/>
+      <c r="AA149" s="389"/>
+      <c r="AB149" s="390"/>
+    </row>
+    <row r="150" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W150"/>
     </row>
-    <row r="151" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="151" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W151"/>
     </row>
-    <row r="152" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="152" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W152"/>
     </row>
-    <row r="153" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="153" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W153"/>
     </row>
-    <row r="154" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="154" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W154"/>
     </row>
-    <row r="155" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="155" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W155"/>
     </row>
-    <row r="156" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="156" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W156"/>
     </row>
-    <row r="157" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="157" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W157"/>
     </row>
-    <row r="158" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="158" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W158"/>
     </row>
-    <row r="159" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="159" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W159"/>
     </row>
-    <row r="160" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="160" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W160"/>
     </row>
     <row r="161" spans="23:23" x14ac:dyDescent="0.3">
@@ -15639,12 +15853,39 @@
       <c r="W187"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="32">
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Y123:AB123"/>
+    <mergeCell ref="Y124:AB124"/>
+    <mergeCell ref="Y125:AB125"/>
+    <mergeCell ref="Y126:AB126"/>
+    <mergeCell ref="Y127:AB127"/>
+    <mergeCell ref="Y128:AB128"/>
+    <mergeCell ref="Y129:AB129"/>
+    <mergeCell ref="Y130:AB130"/>
+    <mergeCell ref="Y131:AB131"/>
+    <mergeCell ref="Y132:AB132"/>
+    <mergeCell ref="Y133:AB133"/>
+    <mergeCell ref="Y134:AB134"/>
+    <mergeCell ref="Y135:AB135"/>
+    <mergeCell ref="Y136:AB136"/>
+    <mergeCell ref="Y137:AB137"/>
+    <mergeCell ref="Y138:AB138"/>
+    <mergeCell ref="Y139:AB139"/>
+    <mergeCell ref="Y140:AB140"/>
+    <mergeCell ref="Y141:AB141"/>
+    <mergeCell ref="Y142:AB142"/>
+    <mergeCell ref="Y148:AB148"/>
+    <mergeCell ref="Y149:AB149"/>
+    <mergeCell ref="Y143:AB143"/>
+    <mergeCell ref="Y144:AB144"/>
+    <mergeCell ref="Y145:AB145"/>
+    <mergeCell ref="Y146:AB146"/>
+    <mergeCell ref="Y147:AB147"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8" xr:uid="{00000000-0002-0000-0000-000002000000}">
@@ -15672,7 +15913,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:BJ129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -16498,24 +16739,24 @@
       <c r="AV11" s="23"/>
     </row>
     <row r="12" spans="2:62" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C12" s="390" t="s">
+      <c r="C12" s="404" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="390"/>
-      <c r="E12" s="390"/>
-      <c r="F12" s="390"/>
-      <c r="G12" s="390" t="s">
+      <c r="D12" s="404"/>
+      <c r="E12" s="404"/>
+      <c r="F12" s="404"/>
+      <c r="G12" s="404" t="s">
         <v>269</v>
       </c>
-      <c r="H12" s="390"/>
-      <c r="I12" s="390"/>
-      <c r="J12" s="390"/>
-      <c r="K12" s="390" t="s">
+      <c r="H12" s="404"/>
+      <c r="I12" s="404"/>
+      <c r="J12" s="404"/>
+      <c r="K12" s="404" t="s">
         <v>271</v>
       </c>
-      <c r="L12" s="390"/>
-      <c r="M12" s="390"/>
-      <c r="N12" s="390"/>
+      <c r="L12" s="404"/>
+      <c r="M12" s="404"/>
+      <c r="N12" s="404"/>
       <c r="AE12" s="26"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
@@ -16539,30 +16780,30 @@
       <c r="B13" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="389" t="s">
+      <c r="C13" s="403" t="s">
         <v>272</v>
       </c>
-      <c r="D13" s="389"/>
-      <c r="E13" s="389" t="s">
+      <c r="D13" s="403"/>
+      <c r="E13" s="403" t="s">
         <v>273</v>
       </c>
-      <c r="F13" s="389"/>
-      <c r="G13" s="389" t="s">
+      <c r="F13" s="403"/>
+      <c r="G13" s="403" t="s">
         <v>274</v>
       </c>
-      <c r="H13" s="389"/>
-      <c r="I13" s="389" t="s">
+      <c r="H13" s="403"/>
+      <c r="I13" s="403" t="s">
         <v>275</v>
       </c>
-      <c r="J13" s="389"/>
-      <c r="K13" s="389" t="s">
+      <c r="J13" s="403"/>
+      <c r="K13" s="403" t="s">
         <v>276</v>
       </c>
-      <c r="L13" s="389"/>
-      <c r="M13" s="389" t="s">
+      <c r="L13" s="403"/>
+      <c r="M13" s="403" t="s">
         <v>277</v>
       </c>
-      <c r="N13" s="389"/>
+      <c r="N13" s="403"/>
       <c r="S13" s="13" t="str">
         <f>CONCATENATE("Todo en [",unidad,"]")</f>
         <v>Todo en [psi]</v>
@@ -20817,10 +21058,10 @@
       <c r="AJ58" s="13"/>
     </row>
     <row r="59" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="M59" s="388"/>
-      <c r="N59" s="388"/>
-      <c r="O59" s="388"/>
-      <c r="P59" s="388"/>
+      <c r="M59" s="402"/>
+      <c r="N59" s="402"/>
+      <c r="O59" s="402"/>
+      <c r="P59" s="402"/>
     </row>
     <row r="60" spans="2:41" x14ac:dyDescent="0.3">
       <c r="AE60" s="46" t="s">
@@ -21264,17 +21505,17 @@
         <v>129</v>
       </c>
       <c r="C2" s="13"/>
-      <c r="U2" s="394" t="s">
+      <c r="U2" s="408" t="s">
         <v>312</v>
       </c>
-      <c r="V2" s="394"/>
-      <c r="W2" s="394"/>
-      <c r="X2" s="394"/>
-      <c r="Y2" s="394"/>
-      <c r="Z2" s="394"/>
-      <c r="AA2" s="394"/>
-      <c r="AB2" s="394"/>
-      <c r="AC2" s="394"/>
+      <c r="V2" s="408"/>
+      <c r="W2" s="408"/>
+      <c r="X2" s="408"/>
+      <c r="Y2" s="408"/>
+      <c r="Z2" s="408"/>
+      <c r="AA2" s="408"/>
+      <c r="AB2" s="408"/>
+      <c r="AC2" s="408"/>
       <c r="AD2" s="260" t="s">
         <v>230</v>
       </c>
@@ -21389,21 +21630,21 @@
       <c r="E5" s="74">
         <v>30</v>
       </c>
-      <c r="U5" s="394" t="s">
+      <c r="U5" s="408" t="s">
         <v>312</v>
       </c>
-      <c r="V5" s="394"/>
-      <c r="W5" s="394"/>
-      <c r="X5" s="394"/>
-      <c r="Y5" s="394"/>
-      <c r="Z5" s="394"/>
-      <c r="AA5" s="394"/>
-      <c r="AB5" s="394"/>
-      <c r="AC5" s="395" t="str">
+      <c r="V5" s="408"/>
+      <c r="W5" s="408"/>
+      <c r="X5" s="408"/>
+      <c r="Y5" s="408"/>
+      <c r="Z5" s="408"/>
+      <c r="AA5" s="408"/>
+      <c r="AB5" s="408"/>
+      <c r="AC5" s="409" t="str">
         <f>CONCATENATE("Todo en [",unidad,"]")</f>
         <v>Todo en [psi]</v>
       </c>
-      <c r="AD5" s="395"/>
+      <c r="AD5" s="409"/>
       <c r="AG5" s="264" t="s">
         <v>230</v>
       </c>
@@ -23541,30 +23782,30 @@
       </c>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C68" s="391" t="s">
+      <c r="C68" s="405" t="s">
         <v>414</v>
       </c>
-      <c r="D68" s="392"/>
-      <c r="E68" s="392"/>
-      <c r="F68" s="392"/>
-      <c r="G68" s="392"/>
-      <c r="H68" s="392"/>
-      <c r="I68" s="392"/>
-      <c r="J68" s="392"/>
-      <c r="K68" s="392"/>
-      <c r="L68" s="392"/>
-      <c r="M68" s="392"/>
-      <c r="N68" s="392"/>
-      <c r="O68" s="392"/>
-      <c r="P68" s="392"/>
-      <c r="Q68" s="392"/>
-      <c r="R68" s="392"/>
-      <c r="S68" s="392"/>
-      <c r="T68" s="392"/>
-      <c r="U68" s="392"/>
-      <c r="V68" s="392"/>
-      <c r="W68" s="392"/>
-      <c r="X68" s="393"/>
+      <c r="D68" s="406"/>
+      <c r="E68" s="406"/>
+      <c r="F68" s="406"/>
+      <c r="G68" s="406"/>
+      <c r="H68" s="406"/>
+      <c r="I68" s="406"/>
+      <c r="J68" s="406"/>
+      <c r="K68" s="406"/>
+      <c r="L68" s="406"/>
+      <c r="M68" s="406"/>
+      <c r="N68" s="406"/>
+      <c r="O68" s="406"/>
+      <c r="P68" s="406"/>
+      <c r="Q68" s="406"/>
+      <c r="R68" s="406"/>
+      <c r="S68" s="406"/>
+      <c r="T68" s="406"/>
+      <c r="U68" s="406"/>
+      <c r="V68" s="406"/>
+      <c r="W68" s="406"/>
+      <c r="X68" s="407"/>
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C69" s="258" t="s">
@@ -23790,14 +24031,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B2" s="403" t="s">
+      <c r="B2" s="417" t="s">
         <v>400</v>
       </c>
-      <c r="C2" s="403"/>
-      <c r="D2" s="403"/>
-      <c r="E2" s="403"/>
-      <c r="F2" s="403"/>
-      <c r="G2" s="403"/>
+      <c r="C2" s="417"/>
+      <c r="D2" s="417"/>
+      <c r="E2" s="417"/>
+      <c r="F2" s="417"/>
+      <c r="G2" s="417"/>
       <c r="I2" s="246"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
@@ -23809,36 +24050,36 @@
       <c r="G3" s="247"/>
     </row>
     <row r="4" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="398" t="s">
+      <c r="B4" s="412" t="s">
         <v>404</v>
       </c>
-      <c r="C4" s="398"/>
+      <c r="C4" s="412"/>
       <c r="D4" s="247"/>
       <c r="E4" s="247"/>
       <c r="F4" s="247"/>
       <c r="G4" s="247"/>
-      <c r="I4" s="404" t="s">
+      <c r="I4" s="418" t="s">
         <v>384</v>
       </c>
-      <c r="J4" s="404"/>
-      <c r="K4" s="404" t="s">
+      <c r="J4" s="418"/>
+      <c r="K4" s="418" t="s">
         <v>385</v>
       </c>
-      <c r="L4" s="404"/>
+      <c r="L4" s="418"/>
       <c r="N4" s="13" t="s">
         <v>405</v>
       </c>
       <c r="O4" s="13"/>
-      <c r="W4" s="407" t="s">
+      <c r="W4" s="421" t="s">
         <v>572</v>
       </c>
-      <c r="X4" s="407"/>
-      <c r="Y4" s="407"/>
-      <c r="Z4" s="407"/>
-      <c r="AA4" s="407"/>
-      <c r="AB4" s="407"/>
-      <c r="AC4" s="407"/>
-      <c r="AD4" s="407"/>
+      <c r="X4" s="421"/>
+      <c r="Y4" s="421"/>
+      <c r="Z4" s="421"/>
+      <c r="AA4" s="421"/>
+      <c r="AB4" s="421"/>
+      <c r="AC4" s="421"/>
+      <c r="AD4" s="421"/>
     </row>
     <row r="5" spans="2:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="248" t="s">
@@ -23847,12 +24088,12 @@
       <c r="C5" s="249" t="s">
         <v>402</v>
       </c>
-      <c r="D5" s="396" t="s">
+      <c r="D5" s="410" t="s">
         <v>403</v>
       </c>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
-      <c r="G5" s="397"/>
+      <c r="E5" s="413"/>
+      <c r="F5" s="413"/>
+      <c r="G5" s="411"/>
       <c r="I5" s="250" t="s">
         <v>125</v>
       </c>
@@ -23894,20 +24135,20 @@
       <c r="AD5" s="267"/>
     </row>
     <row r="6" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="400">
+      <c r="B6" s="414">
         <v>-82.74</v>
       </c>
-      <c r="C6" s="400">
+      <c r="C6" s="414">
         <v>-0.06</v>
       </c>
-      <c r="D6" s="402" t="s">
+      <c r="D6" s="416" t="s">
         <v>570</v>
       </c>
-      <c r="E6" s="397"/>
-      <c r="F6" s="396" t="s">
+      <c r="E6" s="411"/>
+      <c r="F6" s="410" t="s">
         <v>559</v>
       </c>
-      <c r="G6" s="397"/>
+      <c r="G6" s="411"/>
       <c r="I6" s="25">
         <v>-82.74</v>
       </c>
@@ -23943,16 +24184,16 @@
       <c r="AD6" s="267"/>
     </row>
     <row r="7" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="401"/>
-      <c r="C7" s="401"/>
-      <c r="D7" s="396" t="s">
+      <c r="B7" s="415"/>
+      <c r="C7" s="415"/>
+      <c r="D7" s="410" t="s">
         <v>386</v>
       </c>
-      <c r="E7" s="397"/>
-      <c r="F7" s="396" t="s">
+      <c r="E7" s="411"/>
+      <c r="F7" s="410" t="s">
         <v>387</v>
       </c>
-      <c r="G7" s="397"/>
+      <c r="G7" s="411"/>
       <c r="I7" s="25">
         <v>0.01</v>
       </c>
@@ -24029,10 +24270,10 @@
       <c r="AD8" s="267"/>
     </row>
     <row r="9" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="398" t="s">
+      <c r="B9" s="412" t="s">
         <v>404</v>
       </c>
-      <c r="C9" s="398"/>
+      <c r="C9" s="412"/>
       <c r="D9" s="247"/>
       <c r="E9" s="247"/>
       <c r="F9" s="247"/>
@@ -24066,40 +24307,40 @@
       <c r="C10" s="249" t="s">
         <v>402</v>
       </c>
-      <c r="D10" s="396" t="s">
+      <c r="D10" s="410" t="s">
         <v>403</v>
       </c>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
-      <c r="G10" s="397"/>
+      <c r="E10" s="413"/>
+      <c r="F10" s="413"/>
+      <c r="G10" s="411"/>
     </row>
     <row r="11" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="400">
+      <c r="B11" s="414">
         <v>0.01</v>
       </c>
-      <c r="C11" s="400">
+      <c r="C11" s="414">
         <v>699.75</v>
       </c>
-      <c r="D11" s="402" t="s">
+      <c r="D11" s="416" t="s">
         <v>571</v>
       </c>
-      <c r="E11" s="397"/>
-      <c r="F11" s="396" t="s">
+      <c r="E11" s="411"/>
+      <c r="F11" s="410" t="s">
         <v>560</v>
       </c>
-      <c r="G11" s="397"/>
+      <c r="G11" s="411"/>
     </row>
     <row r="12" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="401"/>
-      <c r="C12" s="401"/>
-      <c r="D12" s="396" t="s">
+      <c r="B12" s="415"/>
+      <c r="C12" s="415"/>
+      <c r="D12" s="410" t="s">
         <v>386</v>
       </c>
-      <c r="E12" s="397"/>
-      <c r="F12" s="396" t="s">
+      <c r="E12" s="411"/>
+      <c r="F12" s="410" t="s">
         <v>387</v>
       </c>
-      <c r="G12" s="397"/>
+      <c r="G12" s="411"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B13" s="247"/>
@@ -24110,10 +24351,10 @@
       <c r="G13" s="247"/>
     </row>
     <row r="14" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="398" t="s">
+      <c r="B14" s="412" t="s">
         <v>404</v>
       </c>
-      <c r="C14" s="398"/>
+      <c r="C14" s="412"/>
       <c r="D14" s="247"/>
       <c r="E14" s="247"/>
       <c r="F14" s="247"/>
@@ -24122,38 +24363,38 @@
         <v>405</v>
       </c>
       <c r="J14" s="13"/>
-      <c r="K14" s="405" t="s">
+      <c r="K14" s="419" t="s">
         <v>568</v>
       </c>
-      <c r="L14" s="405"/>
-      <c r="M14" s="405"/>
+      <c r="L14" s="419"/>
+      <c r="M14" s="419"/>
       <c r="P14" s="13" t="s">
         <v>405</v>
       </c>
       <c r="Q14" s="13"/>
-      <c r="R14" s="405" t="s">
+      <c r="R14" s="419" t="s">
         <v>567</v>
       </c>
-      <c r="S14" s="405"/>
-      <c r="T14" s="405"/>
+      <c r="S14" s="419"/>
+      <c r="T14" s="419"/>
       <c r="W14" s="13" t="s">
         <v>405</v>
       </c>
       <c r="X14" s="13"/>
-      <c r="Y14" s="406" t="s">
+      <c r="Y14" s="420" t="s">
         <v>569</v>
       </c>
-      <c r="Z14" s="406"/>
-      <c r="AA14" s="406"/>
+      <c r="Z14" s="420"/>
+      <c r="AA14" s="420"/>
       <c r="AD14" s="13" t="s">
         <v>405</v>
       </c>
       <c r="AE14" s="13"/>
-      <c r="AF14" s="406" t="s">
+      <c r="AF14" s="420" t="s">
         <v>562</v>
       </c>
-      <c r="AG14" s="406"/>
-      <c r="AH14" s="406"/>
+      <c r="AG14" s="420"/>
+      <c r="AH14" s="420"/>
     </row>
     <row r="15" spans="2:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="248" t="s">
@@ -24162,12 +24403,12 @@
       <c r="C15" s="249" t="s">
         <v>402</v>
       </c>
-      <c r="D15" s="396" t="s">
+      <c r="D15" s="410" t="s">
         <v>403</v>
       </c>
-      <c r="E15" s="399"/>
-      <c r="F15" s="399"/>
-      <c r="G15" s="397"/>
+      <c r="E15" s="413"/>
+      <c r="F15" s="413"/>
+      <c r="G15" s="411"/>
       <c r="I15" s="252" t="s">
         <v>388</v>
       </c>
@@ -24230,20 +24471,20 @@
       </c>
     </row>
     <row r="16" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="400">
+      <c r="B16" s="414">
         <v>700</v>
       </c>
-      <c r="C16" s="400">
+      <c r="C16" s="414">
         <v>7000</v>
       </c>
-      <c r="D16" s="396" t="s">
+      <c r="D16" s="410" t="s">
         <v>406</v>
       </c>
-      <c r="E16" s="397"/>
-      <c r="F16" s="396" t="s">
+      <c r="E16" s="411"/>
+      <c r="F16" s="410" t="s">
         <v>561</v>
       </c>
-      <c r="G16" s="397"/>
+      <c r="G16" s="411"/>
       <c r="I16" s="18" t="s">
         <v>390</v>
       </c>
@@ -24322,16 +24563,16 @@
       </c>
     </row>
     <row r="17" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="401"/>
-      <c r="C17" s="401"/>
-      <c r="D17" s="396" t="s">
+      <c r="B17" s="415"/>
+      <c r="C17" s="415"/>
+      <c r="D17" s="410" t="s">
         <v>386</v>
       </c>
-      <c r="E17" s="397"/>
-      <c r="F17" s="396" t="s">
+      <c r="E17" s="411"/>
+      <c r="F17" s="410" t="s">
         <v>387</v>
       </c>
-      <c r="G17" s="397"/>
+      <c r="G17" s="411"/>
       <c r="I17" s="18" t="s">
         <v>391</v>
       </c>
@@ -24489,10 +24730,10 @@
       </c>
     </row>
     <row r="19" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="398" t="s">
+      <c r="B19" s="412" t="s">
         <v>404</v>
       </c>
-      <c r="C19" s="398"/>
+      <c r="C19" s="412"/>
       <c r="D19" s="247"/>
       <c r="E19" s="247"/>
       <c r="F19" s="247"/>
@@ -24581,12 +24822,12 @@
       <c r="C20" s="249" t="s">
         <v>402</v>
       </c>
-      <c r="D20" s="396" t="s">
+      <c r="D20" s="410" t="s">
         <v>403</v>
       </c>
-      <c r="E20" s="399"/>
-      <c r="F20" s="399"/>
-      <c r="G20" s="397"/>
+      <c r="E20" s="413"/>
+      <c r="F20" s="413"/>
+      <c r="G20" s="411"/>
       <c r="I20" s="18" t="s">
         <v>394</v>
       </c>
@@ -24665,20 +24906,20 @@
       </c>
     </row>
     <row r="21" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="400">
+      <c r="B21" s="414">
         <v>7001</v>
       </c>
-      <c r="C21" s="400">
+      <c r="C21" s="414">
         <v>34500</v>
       </c>
-      <c r="D21" s="396" t="s">
+      <c r="D21" s="410" t="s">
         <v>407</v>
       </c>
-      <c r="E21" s="397"/>
-      <c r="F21" s="396" t="s">
+      <c r="E21" s="411"/>
+      <c r="F21" s="410" t="s">
         <v>562</v>
       </c>
-      <c r="G21" s="397"/>
+      <c r="G21" s="411"/>
       <c r="I21" s="18" t="s">
         <v>395</v>
       </c>
@@ -24757,16 +24998,16 @@
       </c>
     </row>
     <row r="22" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="401"/>
-      <c r="C22" s="401"/>
-      <c r="D22" s="396" t="s">
+      <c r="B22" s="415"/>
+      <c r="C22" s="415"/>
+      <c r="D22" s="410" t="s">
         <v>386</v>
       </c>
-      <c r="E22" s="397"/>
-      <c r="F22" s="396" t="s">
+      <c r="E22" s="411"/>
+      <c r="F22" s="410" t="s">
         <v>387</v>
       </c>
-      <c r="G22" s="397"/>
+      <c r="G22" s="411"/>
       <c r="I22" s="18" t="s">
         <v>396</v>
       </c>
@@ -25079,22 +25320,22 @@
       </c>
     </row>
     <row r="26" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I26" s="398" t="s">
+      <c r="I26" s="412" t="s">
         <v>404</v>
       </c>
-      <c r="J26" s="398"/>
-      <c r="P26" s="398" t="s">
+      <c r="J26" s="412"/>
+      <c r="P26" s="412" t="s">
         <v>404</v>
       </c>
-      <c r="Q26" s="398"/>
-      <c r="W26" s="398" t="s">
+      <c r="Q26" s="412"/>
+      <c r="W26" s="412" t="s">
         <v>404</v>
       </c>
-      <c r="X26" s="398"/>
-      <c r="AD26" s="398" t="s">
+      <c r="X26" s="412"/>
+      <c r="AD26" s="412" t="s">
         <v>404</v>
       </c>
-      <c r="AE26" s="398"/>
+      <c r="AE26" s="412"/>
     </row>
     <row r="27" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I27" s="248" t="s">
@@ -25123,40 +25364,40 @@
       </c>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="I28" s="400">
+      <c r="I28" s="414">
         <v>-82.74</v>
       </c>
-      <c r="J28" s="400">
+      <c r="J28" s="414">
         <v>-0.06</v>
       </c>
-      <c r="P28" s="400">
+      <c r="P28" s="414">
         <v>0.01</v>
       </c>
-      <c r="Q28" s="400">
+      <c r="Q28" s="414">
         <v>699.75</v>
       </c>
-      <c r="W28" s="400">
+      <c r="W28" s="414">
         <v>700</v>
       </c>
-      <c r="X28" s="400">
+      <c r="X28" s="414">
         <v>7000</v>
       </c>
-      <c r="AD28" s="400">
+      <c r="AD28" s="414">
         <v>7001</v>
       </c>
-      <c r="AE28" s="400">
+      <c r="AE28" s="414">
         <v>34500</v>
       </c>
     </row>
     <row r="29" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I29" s="401"/>
-      <c r="J29" s="401"/>
-      <c r="P29" s="401"/>
-      <c r="Q29" s="401"/>
-      <c r="W29" s="401"/>
-      <c r="X29" s="401"/>
-      <c r="AD29" s="401"/>
-      <c r="AE29" s="401"/>
+      <c r="I29" s="415"/>
+      <c r="J29" s="415"/>
+      <c r="P29" s="415"/>
+      <c r="Q29" s="415"/>
+      <c r="W29" s="415"/>
+      <c r="X29" s="415"/>
+      <c r="AD29" s="415"/>
+      <c r="AE29" s="415"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -25301,23 +25542,23 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" s="419" t="s">
+      <c r="H4" s="427" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="420"/>
-      <c r="J4" s="419" t="s">
+      <c r="I4" s="428"/>
+      <c r="J4" s="427" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="420"/>
-      <c r="L4" s="421" t="s">
+      <c r="K4" s="428"/>
+      <c r="L4" s="429" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="423" t="s">
+      <c r="M4" s="431" t="s">
         <v>110</v>
       </c>
-      <c r="N4" s="424"/>
-      <c r="O4" s="424"/>
-      <c r="P4" s="425"/>
+      <c r="N4" s="432"/>
+      <c r="O4" s="432"/>
+      <c r="P4" s="433"/>
     </row>
     <row r="5" spans="2:23" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B5" s="46" t="s">
@@ -25350,11 +25591,11 @@
       <c r="K5" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="422"/>
-      <c r="M5" s="426"/>
-      <c r="N5" s="427"/>
-      <c r="O5" s="427"/>
-      <c r="P5" s="428"/>
+      <c r="L5" s="430"/>
+      <c r="M5" s="434"/>
+      <c r="N5" s="435"/>
+      <c r="O5" s="435"/>
+      <c r="P5" s="436"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
@@ -25598,26 +25839,26 @@
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
-      <c r="H13" s="417" t="s">
+      <c r="H13" s="425" t="s">
         <v>109</v>
       </c>
-      <c r="I13" s="418"/>
-      <c r="J13" s="417" t="s">
+      <c r="I13" s="426"/>
+      <c r="J13" s="425" t="s">
         <v>242</v>
       </c>
-      <c r="K13" s="418"/>
-      <c r="L13" s="417" t="s">
+      <c r="K13" s="426"/>
+      <c r="L13" s="425" t="s">
         <v>127</v>
       </c>
-      <c r="M13" s="418"/>
-      <c r="N13" s="417" t="s">
+      <c r="M13" s="426"/>
+      <c r="N13" s="425" t="s">
         <v>38</v>
       </c>
-      <c r="O13" s="418"/>
-      <c r="P13" s="417" t="s">
+      <c r="O13" s="426"/>
+      <c r="P13" s="425" t="s">
         <v>1303</v>
       </c>
-      <c r="Q13" s="418"/>
+      <c r="Q13" s="426"/>
       <c r="T13" s="180" t="s">
         <v>281</v>
       </c>
@@ -28017,202 +28258,202 @@
       <c r="L89"/>
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D90" s="414" t="s">
+      <c r="D90" s="422" t="s">
         <v>359</v>
       </c>
-      <c r="E90" s="415"/>
-      <c r="F90" s="415"/>
-      <c r="G90" s="416"/>
+      <c r="E90" s="423"/>
+      <c r="F90" s="423"/>
+      <c r="G90" s="424"/>
       <c r="L90"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D91" s="408" t="s">
+      <c r="D91" s="385" t="s">
         <v>360</v>
       </c>
-      <c r="E91" s="409"/>
-      <c r="F91" s="409"/>
-      <c r="G91" s="410"/>
+      <c r="E91" s="386"/>
+      <c r="F91" s="386"/>
+      <c r="G91" s="387"/>
       <c r="L91"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D92" s="408" t="s">
+      <c r="D92" s="385" t="s">
         <v>361</v>
       </c>
-      <c r="E92" s="409"/>
-      <c r="F92" s="409"/>
-      <c r="G92" s="410"/>
+      <c r="E92" s="386"/>
+      <c r="F92" s="386"/>
+      <c r="G92" s="387"/>
       <c r="L92"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D93" s="408" t="s">
+      <c r="D93" s="385" t="s">
         <v>362</v>
       </c>
-      <c r="E93" s="409"/>
-      <c r="F93" s="409"/>
-      <c r="G93" s="410"/>
+      <c r="E93" s="386"/>
+      <c r="F93" s="386"/>
+      <c r="G93" s="387"/>
       <c r="L93"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D94" s="408" t="s">
+      <c r="D94" s="385" t="s">
         <v>363</v>
       </c>
-      <c r="E94" s="409"/>
-      <c r="F94" s="409"/>
-      <c r="G94" s="410"/>
+      <c r="E94" s="386"/>
+      <c r="F94" s="386"/>
+      <c r="G94" s="387"/>
       <c r="L94"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D95" s="408" t="s">
+      <c r="D95" s="385" t="s">
         <v>364</v>
       </c>
-      <c r="E95" s="409"/>
-      <c r="F95" s="409"/>
-      <c r="G95" s="410"/>
+      <c r="E95" s="386"/>
+      <c r="F95" s="386"/>
+      <c r="G95" s="387"/>
       <c r="L95"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D96" s="408" t="s">
+      <c r="D96" s="385" t="s">
         <v>365</v>
       </c>
-      <c r="E96" s="409"/>
-      <c r="F96" s="409"/>
-      <c r="G96" s="410"/>
+      <c r="E96" s="386"/>
+      <c r="F96" s="386"/>
+      <c r="G96" s="387"/>
     </row>
     <row r="97" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D97" s="408" t="s">
+      <c r="D97" s="385" t="s">
         <v>366</v>
       </c>
-      <c r="E97" s="409"/>
-      <c r="F97" s="409"/>
-      <c r="G97" s="410"/>
+      <c r="E97" s="386"/>
+      <c r="F97" s="386"/>
+      <c r="G97" s="387"/>
     </row>
     <row r="98" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D98" s="408" t="s">
+      <c r="D98" s="385" t="s">
         <v>350</v>
       </c>
-      <c r="E98" s="409"/>
-      <c r="F98" s="409"/>
-      <c r="G98" s="410"/>
+      <c r="E98" s="386"/>
+      <c r="F98" s="386"/>
+      <c r="G98" s="387"/>
     </row>
     <row r="99" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D99" s="408" t="s">
+      <c r="D99" s="385" t="s">
         <v>367</v>
       </c>
-      <c r="E99" s="409"/>
-      <c r="F99" s="409"/>
-      <c r="G99" s="410"/>
+      <c r="E99" s="386"/>
+      <c r="F99" s="386"/>
+      <c r="G99" s="387"/>
     </row>
     <row r="100" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D100" s="408" t="s">
+      <c r="D100" s="385" t="s">
         <v>368</v>
       </c>
-      <c r="E100" s="409"/>
-      <c r="F100" s="409"/>
-      <c r="G100" s="410"/>
+      <c r="E100" s="386"/>
+      <c r="F100" s="386"/>
+      <c r="G100" s="387"/>
     </row>
     <row r="101" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D101" s="408" t="s">
+      <c r="D101" s="385" t="s">
         <v>369</v>
       </c>
-      <c r="E101" s="409"/>
-      <c r="F101" s="409"/>
-      <c r="G101" s="410"/>
+      <c r="E101" s="386"/>
+      <c r="F101" s="386"/>
+      <c r="G101" s="387"/>
     </row>
     <row r="102" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D102" s="408" t="s">
+      <c r="D102" s="385" t="s">
         <v>370</v>
       </c>
-      <c r="E102" s="409"/>
-      <c r="F102" s="409"/>
-      <c r="G102" s="410"/>
+      <c r="E102" s="386"/>
+      <c r="F102" s="386"/>
+      <c r="G102" s="387"/>
     </row>
     <row r="103" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D103" s="408" t="s">
+      <c r="D103" s="385" t="s">
         <v>371</v>
       </c>
-      <c r="E103" s="409"/>
-      <c r="F103" s="409"/>
-      <c r="G103" s="410"/>
+      <c r="E103" s="386"/>
+      <c r="F103" s="386"/>
+      <c r="G103" s="387"/>
     </row>
     <row r="104" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D104" s="408" t="s">
+      <c r="D104" s="385" t="s">
         <v>372</v>
       </c>
-      <c r="E104" s="409"/>
-      <c r="F104" s="409"/>
-      <c r="G104" s="410"/>
+      <c r="E104" s="386"/>
+      <c r="F104" s="386"/>
+      <c r="G104" s="387"/>
     </row>
     <row r="105" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D105" s="408" t="s">
+      <c r="D105" s="385" t="s">
         <v>373</v>
       </c>
-      <c r="E105" s="409"/>
-      <c r="F105" s="409"/>
-      <c r="G105" s="410"/>
+      <c r="E105" s="386"/>
+      <c r="F105" s="386"/>
+      <c r="G105" s="387"/>
     </row>
     <row r="106" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D106" s="408" t="s">
+      <c r="D106" s="385" t="s">
         <v>374</v>
       </c>
-      <c r="E106" s="409"/>
-      <c r="F106" s="409"/>
-      <c r="G106" s="410"/>
+      <c r="E106" s="386"/>
+      <c r="F106" s="386"/>
+      <c r="G106" s="387"/>
     </row>
     <row r="107" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D107" s="408" t="s">
+      <c r="D107" s="385" t="s">
         <v>375</v>
       </c>
-      <c r="E107" s="409"/>
-      <c r="F107" s="409"/>
-      <c r="G107" s="410"/>
+      <c r="E107" s="386"/>
+      <c r="F107" s="386"/>
+      <c r="G107" s="387"/>
     </row>
     <row r="108" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D108" s="408" t="s">
+      <c r="D108" s="385" t="s">
         <v>376</v>
       </c>
-      <c r="E108" s="409"/>
-      <c r="F108" s="409"/>
-      <c r="G108" s="410"/>
+      <c r="E108" s="386"/>
+      <c r="F108" s="386"/>
+      <c r="G108" s="387"/>
     </row>
     <row r="109" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D109" s="408" t="s">
+      <c r="D109" s="385" t="s">
         <v>377</v>
       </c>
-      <c r="E109" s="409"/>
-      <c r="F109" s="409"/>
-      <c r="G109" s="410"/>
+      <c r="E109" s="386"/>
+      <c r="F109" s="386"/>
+      <c r="G109" s="387"/>
     </row>
     <row r="110" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D110" s="408" t="s">
+      <c r="D110" s="385" t="s">
         <v>378</v>
       </c>
-      <c r="E110" s="409"/>
-      <c r="F110" s="409"/>
-      <c r="G110" s="410"/>
+      <c r="E110" s="386"/>
+      <c r="F110" s="386"/>
+      <c r="G110" s="387"/>
     </row>
     <row r="111" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D111" s="408" t="s">
+      <c r="D111" s="385" t="s">
         <v>379</v>
       </c>
-      <c r="E111" s="409"/>
-      <c r="F111" s="409"/>
-      <c r="G111" s="410"/>
+      <c r="E111" s="386"/>
+      <c r="F111" s="386"/>
+      <c r="G111" s="387"/>
     </row>
     <row r="112" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D112" s="408" t="s">
+      <c r="D112" s="385" t="s">
         <v>380</v>
       </c>
-      <c r="E112" s="409"/>
-      <c r="F112" s="409"/>
-      <c r="G112" s="410"/>
+      <c r="E112" s="386"/>
+      <c r="F112" s="386"/>
+      <c r="G112" s="387"/>
     </row>
     <row r="113" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D113" s="411" t="s">
+      <c r="D113" s="388" t="s">
         <v>381</v>
       </c>
-      <c r="E113" s="412"/>
-      <c r="F113" s="412"/>
-      <c r="G113" s="413"/>
+      <c r="E113" s="389"/>
+      <c r="F113" s="389"/>
+      <c r="G113" s="390"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -28276,18 +28517,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="429" t="s">
+      <c r="A2" s="437" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="429"/>
-      <c r="C2" s="429"/>
+      <c r="B2" s="437"/>
+      <c r="C2" s="437"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="430" t="s">
+      <c r="B3" s="438" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="430"/>
+      <c r="C3" s="438"/>
     </row>
     <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
@@ -34642,8 +34883,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A5:Y129"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A60" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A104" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:X114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34689,20 +34930,20 @@
       <c r="K8" s="339"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="467" t="str">
+      <c r="N8" s="475" t="str">
         <f>[1]General!F3</f>
         <v>NI-MC-P-XXXX-2024</v>
       </c>
-      <c r="O8" s="448"/>
-      <c r="P8" s="448"/>
-      <c r="Q8" s="448"/>
-      <c r="R8" s="448"/>
-      <c r="S8" s="448"/>
-      <c r="T8" s="448"/>
-      <c r="U8" s="448"/>
-      <c r="V8" s="448"/>
-      <c r="W8" s="448"/>
-      <c r="X8" s="448"/>
+      <c r="O8" s="456"/>
+      <c r="P8" s="456"/>
+      <c r="Q8" s="456"/>
+      <c r="R8" s="456"/>
+      <c r="S8" s="456"/>
+      <c r="T8" s="456"/>
+      <c r="U8" s="456"/>
+      <c r="V8" s="456"/>
+      <c r="W8" s="456"/>
+      <c r="X8" s="456"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="320" t="s">
@@ -34719,20 +34960,20 @@
       <c r="K9" s="339"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="468" t="str">
+      <c r="N9" s="476" t="str">
         <f>[1]General!F4</f>
         <v>NI-CS-0062-23</v>
       </c>
-      <c r="O9" s="450"/>
-      <c r="P9" s="450"/>
-      <c r="Q9" s="450"/>
-      <c r="R9" s="450"/>
-      <c r="S9" s="450"/>
-      <c r="T9" s="450"/>
-      <c r="U9" s="450"/>
-      <c r="V9" s="450"/>
-      <c r="W9" s="450"/>
-      <c r="X9" s="450"/>
+      <c r="O9" s="458"/>
+      <c r="P9" s="458"/>
+      <c r="Q9" s="458"/>
+      <c r="R9" s="458"/>
+      <c r="S9" s="458"/>
+      <c r="T9" s="458"/>
+      <c r="U9" s="458"/>
+      <c r="V9" s="458"/>
+      <c r="W9" s="458"/>
+      <c r="X9" s="458"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="320" t="s">
@@ -34749,20 +34990,20 @@
       <c r="K10" s="339"/>
       <c r="L10" s="343"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="469">
+      <c r="N10" s="477">
         <f>[1]General!F5</f>
         <v>44965</v>
       </c>
-      <c r="O10" s="469"/>
-      <c r="P10" s="469"/>
-      <c r="Q10" s="469"/>
-      <c r="R10" s="469"/>
-      <c r="S10" s="469"/>
-      <c r="T10" s="469"/>
-      <c r="U10" s="469"/>
-      <c r="V10" s="469"/>
-      <c r="W10" s="469"/>
-      <c r="X10" s="469"/>
+      <c r="O10" s="477"/>
+      <c r="P10" s="477"/>
+      <c r="Q10" s="477"/>
+      <c r="R10" s="477"/>
+      <c r="S10" s="477"/>
+      <c r="T10" s="477"/>
+      <c r="U10" s="477"/>
+      <c r="V10" s="477"/>
+      <c r="W10" s="477"/>
+      <c r="X10" s="477"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="320" t="s">
@@ -34779,13 +35020,13 @@
       <c r="K11" s="339"/>
       <c r="L11" s="343"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="469">
+      <c r="N11" s="477">
         <f ca="1">NOW()</f>
-        <v>45392.434036921295</v>
-      </c>
-      <c r="O11" s="469"/>
-      <c r="P11" s="469"/>
-      <c r="Q11" s="469"/>
+        <v>45398.730541203702</v>
+      </c>
+      <c r="O11" s="477"/>
+      <c r="P11" s="477"/>
+      <c r="Q11" s="477"/>
       <c r="R11" s="342"/>
       <c r="S11" s="342"/>
       <c r="T11" s="342"/>
@@ -34809,20 +35050,20 @@
       <c r="K12" s="339"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="468" t="str">
+      <c r="N12" s="476" t="str">
         <f>[1]General!F7</f>
         <v xml:space="preserve">Manómetro </v>
       </c>
-      <c r="O12" s="450"/>
-      <c r="P12" s="450"/>
-      <c r="Q12" s="450"/>
-      <c r="R12" s="450"/>
-      <c r="S12" s="450"/>
-      <c r="T12" s="450"/>
-      <c r="U12" s="450"/>
-      <c r="V12" s="450"/>
-      <c r="W12" s="450"/>
-      <c r="X12" s="450"/>
+      <c r="O12" s="458"/>
+      <c r="P12" s="458"/>
+      <c r="Q12" s="458"/>
+      <c r="R12" s="458"/>
+      <c r="S12" s="458"/>
+      <c r="T12" s="458"/>
+      <c r="U12" s="458"/>
+      <c r="V12" s="458"/>
+      <c r="W12" s="458"/>
+      <c r="X12" s="458"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="320" t="s">
@@ -34839,20 +35080,20 @@
       <c r="K13" s="339"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="468" t="str">
+      <c r="N13" s="476" t="str">
         <f>[1]General!F10</f>
         <v>Ashcroft</v>
       </c>
-      <c r="O13" s="450"/>
-      <c r="P13" s="450"/>
-      <c r="Q13" s="450"/>
-      <c r="R13" s="450"/>
-      <c r="S13" s="450"/>
-      <c r="T13" s="450"/>
-      <c r="U13" s="450"/>
-      <c r="V13" s="450"/>
-      <c r="W13" s="450"/>
-      <c r="X13" s="450"/>
+      <c r="O13" s="458"/>
+      <c r="P13" s="458"/>
+      <c r="Q13" s="458"/>
+      <c r="R13" s="458"/>
+      <c r="S13" s="458"/>
+      <c r="T13" s="458"/>
+      <c r="U13" s="458"/>
+      <c r="V13" s="458"/>
+      <c r="W13" s="458"/>
+      <c r="X13" s="458"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="320" t="s">
@@ -34869,20 +35110,20 @@
       <c r="K14" s="339"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="468" t="str">
+      <c r="N14" s="476" t="str">
         <f>[1]General!F12</f>
         <v>asdfart547657</v>
       </c>
-      <c r="O14" s="450"/>
-      <c r="P14" s="450"/>
-      <c r="Q14" s="450"/>
-      <c r="R14" s="450"/>
-      <c r="S14" s="450"/>
-      <c r="T14" s="450"/>
-      <c r="U14" s="450"/>
-      <c r="V14" s="450"/>
-      <c r="W14" s="450"/>
-      <c r="X14" s="450"/>
+      <c r="O14" s="458"/>
+      <c r="P14" s="458"/>
+      <c r="Q14" s="458"/>
+      <c r="R14" s="458"/>
+      <c r="S14" s="458"/>
+      <c r="T14" s="458"/>
+      <c r="U14" s="458"/>
+      <c r="V14" s="458"/>
+      <c r="W14" s="458"/>
+      <c r="X14" s="458"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="320" t="s">
@@ -34899,20 +35140,20 @@
       <c r="K15" s="339"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="468" t="str">
+      <c r="N15" s="476" t="str">
         <f>[1]General!F11</f>
         <v>asdfadfdfdssd</v>
       </c>
-      <c r="O15" s="450"/>
-      <c r="P15" s="450"/>
-      <c r="Q15" s="450"/>
-      <c r="R15" s="450"/>
-      <c r="S15" s="450"/>
-      <c r="T15" s="450"/>
-      <c r="U15" s="450"/>
-      <c r="V15" s="450"/>
-      <c r="W15" s="450"/>
-      <c r="X15" s="450"/>
+      <c r="O15" s="458"/>
+      <c r="P15" s="458"/>
+      <c r="Q15" s="458"/>
+      <c r="R15" s="458"/>
+      <c r="S15" s="458"/>
+      <c r="T15" s="458"/>
+      <c r="U15" s="458"/>
+      <c r="V15" s="458"/>
+      <c r="W15" s="458"/>
+      <c r="X15" s="458"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="320" t="s">
@@ -34929,20 +35170,20 @@
       <c r="K16" s="339"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="468" t="str">
+      <c r="N16" s="476" t="str">
         <f>[1]General!F18</f>
         <v>0 psi a 100 psi</v>
       </c>
-      <c r="O16" s="450"/>
-      <c r="P16" s="450"/>
-      <c r="Q16" s="450"/>
-      <c r="R16" s="450"/>
-      <c r="S16" s="450"/>
-      <c r="T16" s="450"/>
-      <c r="U16" s="450"/>
-      <c r="V16" s="450"/>
-      <c r="W16" s="450"/>
-      <c r="X16" s="450"/>
+      <c r="O16" s="458"/>
+      <c r="P16" s="458"/>
+      <c r="Q16" s="458"/>
+      <c r="R16" s="458"/>
+      <c r="S16" s="458"/>
+      <c r="T16" s="458"/>
+      <c r="U16" s="458"/>
+      <c r="V16" s="458"/>
+      <c r="W16" s="458"/>
+      <c r="X16" s="458"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="320" t="s">
@@ -34959,18 +35200,18 @@
       <c r="K17" s="339"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="468">
+      <c r="N17" s="476">
         <f>[1]General!F15</f>
         <v>0.5</v>
       </c>
-      <c r="O17" s="450"/>
-      <c r="P17" s="468" t="str">
+      <c r="O17" s="458"/>
+      <c r="P17" s="476" t="str">
         <f>[1]General!F16</f>
         <v>psi</v>
       </c>
-      <c r="Q17" s="468"/>
-      <c r="R17" s="468"/>
-      <c r="S17" s="468"/>
+      <c r="Q17" s="476"/>
+      <c r="R17" s="476"/>
+      <c r="S17" s="476"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
@@ -34992,20 +35233,20 @@
       <c r="K18" s="339"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="468" t="str">
+      <c r="N18" s="476" t="str">
         <f>[1]General!F6</f>
         <v>SAJHJLF54564+SD</v>
       </c>
-      <c r="O18" s="450"/>
-      <c r="P18" s="450"/>
-      <c r="Q18" s="450"/>
-      <c r="R18" s="450"/>
-      <c r="S18" s="450"/>
-      <c r="T18" s="450"/>
-      <c r="U18" s="450"/>
-      <c r="V18" s="450"/>
-      <c r="W18" s="450"/>
-      <c r="X18" s="450"/>
+      <c r="O18" s="458"/>
+      <c r="P18" s="458"/>
+      <c r="Q18" s="458"/>
+      <c r="R18" s="458"/>
+      <c r="S18" s="458"/>
+      <c r="T18" s="458"/>
+      <c r="U18" s="458"/>
+      <c r="V18" s="458"/>
+      <c r="W18" s="458"/>
+      <c r="X18" s="458"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="320" t="s">
@@ -35022,20 +35263,20 @@
       <c r="K19" s="339"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="468" t="str">
+      <c r="N19" s="476" t="str">
         <f>[1]General!L3</f>
         <v>Agencia Aduanera GRH S,A.</v>
       </c>
-      <c r="O19" s="450"/>
-      <c r="P19" s="450"/>
-      <c r="Q19" s="450"/>
-      <c r="R19" s="450"/>
-      <c r="S19" s="450"/>
-      <c r="T19" s="450"/>
-      <c r="U19" s="450"/>
-      <c r="V19" s="450"/>
-      <c r="W19" s="450"/>
-      <c r="X19" s="450"/>
+      <c r="O19" s="458"/>
+      <c r="P19" s="458"/>
+      <c r="Q19" s="458"/>
+      <c r="R19" s="458"/>
+      <c r="S19" s="458"/>
+      <c r="T19" s="458"/>
+      <c r="U19" s="458"/>
+      <c r="V19" s="458"/>
+      <c r="W19" s="458"/>
+      <c r="X19" s="458"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="341" t="s">
@@ -35052,20 +35293,20 @@
       <c r="K20" s="339"/>
       <c r="L20" s="340"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="450" t="str">
+      <c r="N20" s="458" t="str">
         <f>[1]General!L4</f>
         <v>De Los Semáforos de Sabana Grande 1 500 m Este.</v>
       </c>
-      <c r="O20" s="450"/>
-      <c r="P20" s="450"/>
-      <c r="Q20" s="450"/>
-      <c r="R20" s="450"/>
-      <c r="S20" s="450"/>
-      <c r="T20" s="450"/>
-      <c r="U20" s="450"/>
-      <c r="V20" s="450"/>
-      <c r="W20" s="450"/>
-      <c r="X20" s="450"/>
+      <c r="O20" s="458"/>
+      <c r="P20" s="458"/>
+      <c r="Q20" s="458"/>
+      <c r="R20" s="458"/>
+      <c r="S20" s="458"/>
+      <c r="T20" s="458"/>
+      <c r="U20" s="458"/>
+      <c r="V20" s="458"/>
+      <c r="W20" s="458"/>
+      <c r="X20" s="458"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="320" t="s">
@@ -35082,34 +35323,34 @@
       <c r="K21" s="339"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="470" t="str">
+      <c r="N21" s="478" t="str">
         <f>[1]General!L6</f>
         <v>Laboratorio #2, Metrocal</v>
       </c>
-      <c r="O21" s="470"/>
-      <c r="P21" s="470"/>
-      <c r="Q21" s="470"/>
-      <c r="R21" s="470"/>
-      <c r="S21" s="470"/>
-      <c r="T21" s="470"/>
-      <c r="U21" s="470"/>
-      <c r="V21" s="470"/>
-      <c r="W21" s="470"/>
-      <c r="X21" s="470"/>
+      <c r="O21" s="478"/>
+      <c r="P21" s="478"/>
+      <c r="Q21" s="478"/>
+      <c r="R21" s="478"/>
+      <c r="S21" s="478"/>
+      <c r="T21" s="478"/>
+      <c r="U21" s="478"/>
+      <c r="V21" s="478"/>
+      <c r="W21" s="478"/>
+      <c r="X21" s="478"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="320"/>
-      <c r="N22" s="470"/>
-      <c r="O22" s="470"/>
-      <c r="P22" s="470"/>
-      <c r="Q22" s="470"/>
-      <c r="R22" s="470"/>
-      <c r="S22" s="470"/>
-      <c r="T22" s="470"/>
-      <c r="U22" s="470"/>
-      <c r="V22" s="470"/>
-      <c r="W22" s="470"/>
-      <c r="X22" s="470"/>
+      <c r="N22" s="478"/>
+      <c r="O22" s="478"/>
+      <c r="P22" s="478"/>
+      <c r="Q22" s="478"/>
+      <c r="R22" s="478"/>
+      <c r="S22" s="478"/>
+      <c r="T22" s="478"/>
+      <c r="U22" s="478"/>
+      <c r="V22" s="478"/>
+      <c r="W22" s="478"/>
+      <c r="X22" s="478"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="320" t="s">
@@ -35124,493 +35365,493 @@
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="464" t="s">
+      <c r="D24" s="472" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="464"/>
-      <c r="F24" s="464"/>
-      <c r="G24" s="464"/>
-      <c r="H24" s="464"/>
-      <c r="I24" s="464"/>
-      <c r="J24" s="464"/>
-      <c r="K24" s="464"/>
-      <c r="L24" s="464"/>
-      <c r="M24" s="464"/>
-      <c r="N24" s="464"/>
-      <c r="O24" s="464"/>
-      <c r="P24" s="464"/>
-      <c r="Q24" s="464"/>
-      <c r="R24" s="464"/>
-      <c r="S24" s="464"/>
-      <c r="T24" s="464"/>
-      <c r="U24" s="464"/>
-      <c r="V24" s="464"/>
-      <c r="W24" s="464"/>
+      <c r="E24" s="472"/>
+      <c r="F24" s="472"/>
+      <c r="G24" s="472"/>
+      <c r="H24" s="472"/>
+      <c r="I24" s="472"/>
+      <c r="J24" s="472"/>
+      <c r="K24" s="472"/>
+      <c r="L24" s="472"/>
+      <c r="M24" s="472"/>
+      <c r="N24" s="472"/>
+      <c r="O24" s="472"/>
+      <c r="P24" s="472"/>
+      <c r="Q24" s="472"/>
+      <c r="R24" s="472"/>
+      <c r="S24" s="472"/>
+      <c r="T24" s="472"/>
+      <c r="U24" s="472"/>
+      <c r="V24" s="472"/>
+      <c r="W24" s="472"/>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="465" t="s">
+      <c r="D25" s="473" t="s">
         <v>309</v>
       </c>
-      <c r="E25" s="465"/>
-      <c r="F25" s="466" t="s">
+      <c r="E25" s="473"/>
+      <c r="F25" s="474" t="s">
         <v>1333</v>
       </c>
-      <c r="G25" s="466"/>
-      <c r="H25" s="466"/>
-      <c r="I25" s="466"/>
-      <c r="J25" s="466"/>
-      <c r="K25" s="466"/>
-      <c r="L25" s="466" t="s">
+      <c r="G25" s="474"/>
+      <c r="H25" s="474"/>
+      <c r="I25" s="474"/>
+      <c r="J25" s="474"/>
+      <c r="K25" s="474"/>
+      <c r="L25" s="474" t="s">
         <v>90</v>
       </c>
-      <c r="M25" s="466"/>
-      <c r="N25" s="466"/>
-      <c r="O25" s="466"/>
-      <c r="P25" s="466"/>
-      <c r="Q25" s="466"/>
-      <c r="R25" s="465" t="s">
+      <c r="M25" s="474"/>
+      <c r="N25" s="474"/>
+      <c r="O25" s="474"/>
+      <c r="P25" s="474"/>
+      <c r="Q25" s="474"/>
+      <c r="R25" s="473" t="s">
         <v>1332</v>
       </c>
-      <c r="S25" s="465"/>
-      <c r="T25" s="465"/>
-      <c r="U25" s="465"/>
-      <c r="V25" s="465"/>
-      <c r="W25" s="465"/>
+      <c r="S25" s="473"/>
+      <c r="T25" s="473"/>
+      <c r="U25" s="473"/>
+      <c r="V25" s="473"/>
+      <c r="W25" s="473"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="465"/>
-      <c r="E26" s="465"/>
-      <c r="F26" s="466"/>
-      <c r="G26" s="466"/>
-      <c r="H26" s="466"/>
-      <c r="I26" s="466"/>
-      <c r="J26" s="466"/>
-      <c r="K26" s="466"/>
-      <c r="L26" s="466"/>
-      <c r="M26" s="466"/>
-      <c r="N26" s="466"/>
-      <c r="O26" s="466"/>
-      <c r="P26" s="466"/>
-      <c r="Q26" s="466"/>
-      <c r="R26" s="465"/>
-      <c r="S26" s="465"/>
-      <c r="T26" s="465"/>
-      <c r="U26" s="465"/>
-      <c r="V26" s="465"/>
-      <c r="W26" s="465"/>
+      <c r="D26" s="473"/>
+      <c r="E26" s="473"/>
+      <c r="F26" s="474"/>
+      <c r="G26" s="474"/>
+      <c r="H26" s="474"/>
+      <c r="I26" s="474"/>
+      <c r="J26" s="474"/>
+      <c r="K26" s="474"/>
+      <c r="L26" s="474"/>
+      <c r="M26" s="474"/>
+      <c r="N26" s="474"/>
+      <c r="O26" s="474"/>
+      <c r="P26" s="474"/>
+      <c r="Q26" s="474"/>
+      <c r="R26" s="473"/>
+      <c r="S26" s="473"/>
+      <c r="T26" s="473"/>
+      <c r="U26" s="473"/>
+      <c r="V26" s="473"/>
+      <c r="W26" s="473"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="456" t="str">
+      <c r="D27" s="464" t="str">
         <f>Calibración!C37</f>
         <v>psi</v>
       </c>
-      <c r="E27" s="456"/>
-      <c r="F27" s="457" t="str">
+      <c r="E27" s="464"/>
+      <c r="F27" s="465" t="str">
         <f>Calibración!D37</f>
         <v>psi</v>
       </c>
-      <c r="G27" s="458"/>
-      <c r="H27" s="458"/>
-      <c r="I27" s="458"/>
-      <c r="J27" s="458"/>
-      <c r="K27" s="459"/>
-      <c r="L27" s="457" t="str">
+      <c r="G27" s="466"/>
+      <c r="H27" s="466"/>
+      <c r="I27" s="466"/>
+      <c r="J27" s="466"/>
+      <c r="K27" s="467"/>
+      <c r="L27" s="465" t="str">
         <f>Calibración!E37</f>
         <v>psi</v>
       </c>
-      <c r="M27" s="458"/>
-      <c r="N27" s="458"/>
-      <c r="O27" s="458"/>
-      <c r="P27" s="458"/>
-      <c r="Q27" s="459"/>
-      <c r="R27" s="457" t="str">
+      <c r="M27" s="466"/>
+      <c r="N27" s="466"/>
+      <c r="O27" s="466"/>
+      <c r="P27" s="466"/>
+      <c r="Q27" s="467"/>
+      <c r="R27" s="465" t="str">
         <f>Calibración!F37</f>
         <v>psi</v>
       </c>
-      <c r="S27" s="458"/>
-      <c r="T27" s="458"/>
-      <c r="U27" s="458"/>
-      <c r="V27" s="458"/>
-      <c r="W27" s="459"/>
+      <c r="S27" s="466"/>
+      <c r="T27" s="466"/>
+      <c r="U27" s="466"/>
+      <c r="V27" s="466"/>
+      <c r="W27" s="467"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="460" t="str">
+      <c r="D28" s="468" t="str">
         <f ca="1">Calibración!C38</f>
         <v/>
       </c>
-      <c r="E28" s="460"/>
-      <c r="F28" s="461" t="str">
+      <c r="E28" s="468"/>
+      <c r="F28" s="469" t="str">
         <f ca="1">Calibración!D38</f>
         <v/>
       </c>
-      <c r="G28" s="462"/>
-      <c r="H28" s="462"/>
-      <c r="I28" s="462"/>
-      <c r="J28" s="462"/>
-      <c r="K28" s="463"/>
-      <c r="L28" s="461" t="str">
+      <c r="G28" s="470"/>
+      <c r="H28" s="470"/>
+      <c r="I28" s="470"/>
+      <c r="J28" s="470"/>
+      <c r="K28" s="471"/>
+      <c r="L28" s="469" t="str">
         <f ca="1">Calibración!E38</f>
         <v/>
       </c>
-      <c r="M28" s="462"/>
-      <c r="N28" s="462"/>
-      <c r="O28" s="462"/>
-      <c r="P28" s="462"/>
-      <c r="Q28" s="463"/>
-      <c r="R28" s="461" t="str">
+      <c r="M28" s="470"/>
+      <c r="N28" s="470"/>
+      <c r="O28" s="470"/>
+      <c r="P28" s="470"/>
+      <c r="Q28" s="471"/>
+      <c r="R28" s="469" t="str">
         <f ca="1">Calibración!F38</f>
         <v/>
       </c>
-      <c r="S28" s="462"/>
-      <c r="T28" s="462"/>
-      <c r="U28" s="462"/>
-      <c r="V28" s="462"/>
-      <c r="W28" s="463"/>
+      <c r="S28" s="470"/>
+      <c r="T28" s="470"/>
+      <c r="U28" s="470"/>
+      <c r="V28" s="470"/>
+      <c r="W28" s="471"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="460" t="str">
+      <c r="D29" s="468" t="str">
         <f ca="1">Calibración!C39</f>
         <v/>
       </c>
-      <c r="E29" s="460"/>
-      <c r="F29" s="461" t="str">
+      <c r="E29" s="468"/>
+      <c r="F29" s="469" t="str">
         <f ca="1">Calibración!D39</f>
         <v/>
       </c>
-      <c r="G29" s="462"/>
-      <c r="H29" s="462"/>
-      <c r="I29" s="462"/>
-      <c r="J29" s="462"/>
-      <c r="K29" s="463"/>
-      <c r="L29" s="461" t="str">
+      <c r="G29" s="470"/>
+      <c r="H29" s="470"/>
+      <c r="I29" s="470"/>
+      <c r="J29" s="470"/>
+      <c r="K29" s="471"/>
+      <c r="L29" s="469" t="str">
         <f ca="1">Calibración!E39</f>
         <v/>
       </c>
-      <c r="M29" s="462"/>
-      <c r="N29" s="462"/>
-      <c r="O29" s="462"/>
-      <c r="P29" s="462"/>
-      <c r="Q29" s="463"/>
-      <c r="R29" s="461" t="str">
+      <c r="M29" s="470"/>
+      <c r="N29" s="470"/>
+      <c r="O29" s="470"/>
+      <c r="P29" s="470"/>
+      <c r="Q29" s="471"/>
+      <c r="R29" s="469" t="str">
         <f ca="1">Calibración!F39</f>
         <v/>
       </c>
-      <c r="S29" s="462"/>
-      <c r="T29" s="462"/>
-      <c r="U29" s="462"/>
-      <c r="V29" s="462"/>
-      <c r="W29" s="463"/>
+      <c r="S29" s="470"/>
+      <c r="T29" s="470"/>
+      <c r="U29" s="470"/>
+      <c r="V29" s="470"/>
+      <c r="W29" s="471"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="460" t="str">
+      <c r="D30" s="468" t="str">
         <f ca="1">Calibración!C40</f>
         <v/>
       </c>
-      <c r="E30" s="460"/>
-      <c r="F30" s="461" t="str">
+      <c r="E30" s="468"/>
+      <c r="F30" s="469" t="str">
         <f ca="1">Calibración!D40</f>
         <v/>
       </c>
-      <c r="G30" s="462"/>
-      <c r="H30" s="462"/>
-      <c r="I30" s="462"/>
-      <c r="J30" s="462"/>
-      <c r="K30" s="463"/>
-      <c r="L30" s="461" t="str">
+      <c r="G30" s="470"/>
+      <c r="H30" s="470"/>
+      <c r="I30" s="470"/>
+      <c r="J30" s="470"/>
+      <c r="K30" s="471"/>
+      <c r="L30" s="469" t="str">
         <f ca="1">Calibración!E40</f>
         <v/>
       </c>
-      <c r="M30" s="462"/>
-      <c r="N30" s="462"/>
-      <c r="O30" s="462"/>
-      <c r="P30" s="462"/>
-      <c r="Q30" s="463"/>
-      <c r="R30" s="461" t="str">
+      <c r="M30" s="470"/>
+      <c r="N30" s="470"/>
+      <c r="O30" s="470"/>
+      <c r="P30" s="470"/>
+      <c r="Q30" s="471"/>
+      <c r="R30" s="469" t="str">
         <f ca="1">Calibración!F40</f>
         <v/>
       </c>
-      <c r="S30" s="462"/>
-      <c r="T30" s="462"/>
-      <c r="U30" s="462"/>
-      <c r="V30" s="462"/>
-      <c r="W30" s="463"/>
+      <c r="S30" s="470"/>
+      <c r="T30" s="470"/>
+      <c r="U30" s="470"/>
+      <c r="V30" s="470"/>
+      <c r="W30" s="471"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="460" t="str">
+      <c r="D31" s="468" t="str">
         <f ca="1">Calibración!C41</f>
         <v/>
       </c>
-      <c r="E31" s="460"/>
-      <c r="F31" s="461" t="str">
+      <c r="E31" s="468"/>
+      <c r="F31" s="469" t="str">
         <f ca="1">Calibración!D41</f>
         <v/>
       </c>
-      <c r="G31" s="462"/>
-      <c r="H31" s="462"/>
-      <c r="I31" s="462"/>
-      <c r="J31" s="462"/>
-      <c r="K31" s="463"/>
-      <c r="L31" s="461" t="str">
+      <c r="G31" s="470"/>
+      <c r="H31" s="470"/>
+      <c r="I31" s="470"/>
+      <c r="J31" s="470"/>
+      <c r="K31" s="471"/>
+      <c r="L31" s="469" t="str">
         <f ca="1">Calibración!E41</f>
         <v/>
       </c>
-      <c r="M31" s="462"/>
-      <c r="N31" s="462"/>
-      <c r="O31" s="462"/>
-      <c r="P31" s="462"/>
-      <c r="Q31" s="463"/>
-      <c r="R31" s="461" t="str">
+      <c r="M31" s="470"/>
+      <c r="N31" s="470"/>
+      <c r="O31" s="470"/>
+      <c r="P31" s="470"/>
+      <c r="Q31" s="471"/>
+      <c r="R31" s="469" t="str">
         <f ca="1">Calibración!F41</f>
         <v/>
       </c>
-      <c r="S31" s="462"/>
-      <c r="T31" s="462"/>
-      <c r="U31" s="462"/>
-      <c r="V31" s="462"/>
-      <c r="W31" s="463"/>
+      <c r="S31" s="470"/>
+      <c r="T31" s="470"/>
+      <c r="U31" s="470"/>
+      <c r="V31" s="470"/>
+      <c r="W31" s="471"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="460" t="str">
+      <c r="D32" s="468" t="str">
         <f ca="1">Calibración!C42</f>
         <v/>
       </c>
-      <c r="E32" s="460"/>
-      <c r="F32" s="461" t="str">
+      <c r="E32" s="468"/>
+      <c r="F32" s="469" t="str">
         <f ca="1">Calibración!D42</f>
         <v/>
       </c>
-      <c r="G32" s="462"/>
-      <c r="H32" s="462"/>
-      <c r="I32" s="462"/>
-      <c r="J32" s="462"/>
-      <c r="K32" s="463"/>
-      <c r="L32" s="461" t="str">
+      <c r="G32" s="470"/>
+      <c r="H32" s="470"/>
+      <c r="I32" s="470"/>
+      <c r="J32" s="470"/>
+      <c r="K32" s="471"/>
+      <c r="L32" s="469" t="str">
         <f ca="1">Calibración!E42</f>
         <v/>
       </c>
-      <c r="M32" s="462"/>
-      <c r="N32" s="462"/>
-      <c r="O32" s="462"/>
-      <c r="P32" s="462"/>
-      <c r="Q32" s="463"/>
-      <c r="R32" s="461" t="str">
+      <c r="M32" s="470"/>
+      <c r="N32" s="470"/>
+      <c r="O32" s="470"/>
+      <c r="P32" s="470"/>
+      <c r="Q32" s="471"/>
+      <c r="R32" s="469" t="str">
         <f ca="1">Calibración!F42</f>
         <v/>
       </c>
-      <c r="S32" s="462"/>
-      <c r="T32" s="462"/>
-      <c r="U32" s="462"/>
-      <c r="V32" s="462"/>
-      <c r="W32" s="463"/>
+      <c r="S32" s="470"/>
+      <c r="T32" s="470"/>
+      <c r="U32" s="470"/>
+      <c r="V32" s="470"/>
+      <c r="W32" s="471"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="460" t="str">
+      <c r="D33" s="468" t="str">
         <f ca="1">Calibración!C43</f>
         <v/>
       </c>
-      <c r="E33" s="460"/>
-      <c r="F33" s="461" t="str">
+      <c r="E33" s="468"/>
+      <c r="F33" s="469" t="str">
         <f ca="1">Calibración!D43</f>
         <v/>
       </c>
-      <c r="G33" s="462"/>
-      <c r="H33" s="462"/>
-      <c r="I33" s="462"/>
-      <c r="J33" s="462"/>
-      <c r="K33" s="463"/>
-      <c r="L33" s="461" t="str">
+      <c r="G33" s="470"/>
+      <c r="H33" s="470"/>
+      <c r="I33" s="470"/>
+      <c r="J33" s="470"/>
+      <c r="K33" s="471"/>
+      <c r="L33" s="469" t="str">
         <f ca="1">Calibración!E43</f>
         <v/>
       </c>
-      <c r="M33" s="462"/>
-      <c r="N33" s="462"/>
-      <c r="O33" s="462"/>
-      <c r="P33" s="462"/>
-      <c r="Q33" s="463"/>
-      <c r="R33" s="461" t="str">
+      <c r="M33" s="470"/>
+      <c r="N33" s="470"/>
+      <c r="O33" s="470"/>
+      <c r="P33" s="470"/>
+      <c r="Q33" s="471"/>
+      <c r="R33" s="469" t="str">
         <f ca="1">Calibración!F43</f>
         <v/>
       </c>
-      <c r="S33" s="462"/>
-      <c r="T33" s="462"/>
-      <c r="U33" s="462"/>
-      <c r="V33" s="462"/>
-      <c r="W33" s="463"/>
+      <c r="S33" s="470"/>
+      <c r="T33" s="470"/>
+      <c r="U33" s="470"/>
+      <c r="V33" s="470"/>
+      <c r="W33" s="471"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="460" t="str">
+      <c r="D34" s="468" t="str">
         <f ca="1">Calibración!C44</f>
         <v/>
       </c>
-      <c r="E34" s="460"/>
-      <c r="F34" s="461" t="str">
+      <c r="E34" s="468"/>
+      <c r="F34" s="469" t="str">
         <f ca="1">Calibración!D44</f>
         <v/>
       </c>
-      <c r="G34" s="462"/>
-      <c r="H34" s="462"/>
-      <c r="I34" s="462"/>
-      <c r="J34" s="462"/>
-      <c r="K34" s="463"/>
-      <c r="L34" s="461" t="str">
+      <c r="G34" s="470"/>
+      <c r="H34" s="470"/>
+      <c r="I34" s="470"/>
+      <c r="J34" s="470"/>
+      <c r="K34" s="471"/>
+      <c r="L34" s="469" t="str">
         <f ca="1">Calibración!E44</f>
         <v/>
       </c>
-      <c r="M34" s="462"/>
-      <c r="N34" s="462"/>
-      <c r="O34" s="462"/>
-      <c r="P34" s="462"/>
-      <c r="Q34" s="463"/>
-      <c r="R34" s="461" t="str">
+      <c r="M34" s="470"/>
+      <c r="N34" s="470"/>
+      <c r="O34" s="470"/>
+      <c r="P34" s="470"/>
+      <c r="Q34" s="471"/>
+      <c r="R34" s="469" t="str">
         <f ca="1">Calibración!F44</f>
         <v/>
       </c>
-      <c r="S34" s="462"/>
-      <c r="T34" s="462"/>
-      <c r="U34" s="462"/>
-      <c r="V34" s="462"/>
-      <c r="W34" s="463"/>
+      <c r="S34" s="470"/>
+      <c r="T34" s="470"/>
+      <c r="U34" s="470"/>
+      <c r="V34" s="470"/>
+      <c r="W34" s="471"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="460" t="str">
+      <c r="D35" s="468" t="str">
         <f ca="1">Calibración!C45</f>
         <v/>
       </c>
-      <c r="E35" s="460"/>
-      <c r="F35" s="461" t="str">
+      <c r="E35" s="468"/>
+      <c r="F35" s="469" t="str">
         <f ca="1">Calibración!D45</f>
         <v/>
       </c>
-      <c r="G35" s="462"/>
-      <c r="H35" s="462"/>
-      <c r="I35" s="462"/>
-      <c r="J35" s="462"/>
-      <c r="K35" s="463"/>
-      <c r="L35" s="461" t="str">
+      <c r="G35" s="470"/>
+      <c r="H35" s="470"/>
+      <c r="I35" s="470"/>
+      <c r="J35" s="470"/>
+      <c r="K35" s="471"/>
+      <c r="L35" s="469" t="str">
         <f ca="1">Calibración!E45</f>
         <v/>
       </c>
-      <c r="M35" s="462"/>
-      <c r="N35" s="462"/>
-      <c r="O35" s="462"/>
-      <c r="P35" s="462"/>
-      <c r="Q35" s="463"/>
-      <c r="R35" s="461" t="str">
+      <c r="M35" s="470"/>
+      <c r="N35" s="470"/>
+      <c r="O35" s="470"/>
+      <c r="P35" s="470"/>
+      <c r="Q35" s="471"/>
+      <c r="R35" s="469" t="str">
         <f ca="1">Calibración!F45</f>
         <v/>
       </c>
-      <c r="S35" s="462"/>
-      <c r="T35" s="462"/>
-      <c r="U35" s="462"/>
-      <c r="V35" s="462"/>
-      <c r="W35" s="463"/>
+      <c r="S35" s="470"/>
+      <c r="T35" s="470"/>
+      <c r="U35" s="470"/>
+      <c r="V35" s="470"/>
+      <c r="W35" s="471"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="460" t="str">
+      <c r="D36" s="468" t="str">
         <f ca="1">Calibración!C46</f>
         <v/>
       </c>
-      <c r="E36" s="460"/>
-      <c r="F36" s="461" t="str">
+      <c r="E36" s="468"/>
+      <c r="F36" s="469" t="str">
         <f ca="1">Calibración!D46</f>
         <v/>
       </c>
-      <c r="G36" s="462"/>
-      <c r="H36" s="462"/>
-      <c r="I36" s="462"/>
-      <c r="J36" s="462"/>
-      <c r="K36" s="463"/>
-      <c r="L36" s="461" t="str">
+      <c r="G36" s="470"/>
+      <c r="H36" s="470"/>
+      <c r="I36" s="470"/>
+      <c r="J36" s="470"/>
+      <c r="K36" s="471"/>
+      <c r="L36" s="469" t="str">
         <f ca="1">Calibración!E46</f>
         <v/>
       </c>
-      <c r="M36" s="462"/>
-      <c r="N36" s="462"/>
-      <c r="O36" s="462"/>
-      <c r="P36" s="462"/>
-      <c r="Q36" s="463"/>
-      <c r="R36" s="461" t="str">
+      <c r="M36" s="470"/>
+      <c r="N36" s="470"/>
+      <c r="O36" s="470"/>
+      <c r="P36" s="470"/>
+      <c r="Q36" s="471"/>
+      <c r="R36" s="469" t="str">
         <f ca="1">Calibración!F46</f>
         <v/>
       </c>
-      <c r="S36" s="462"/>
-      <c r="T36" s="462"/>
-      <c r="U36" s="462"/>
-      <c r="V36" s="462"/>
-      <c r="W36" s="463"/>
+      <c r="S36" s="470"/>
+      <c r="T36" s="470"/>
+      <c r="U36" s="470"/>
+      <c r="V36" s="470"/>
+      <c r="W36" s="471"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="460" t="str">
+      <c r="D37" s="468" t="str">
         <f ca="1">Calibración!C47</f>
         <v/>
       </c>
-      <c r="E37" s="460"/>
-      <c r="F37" s="461" t="str">
+      <c r="E37" s="468"/>
+      <c r="F37" s="469" t="str">
         <f ca="1">Calibración!D47</f>
         <v/>
       </c>
-      <c r="G37" s="462"/>
-      <c r="H37" s="462"/>
-      <c r="I37" s="462"/>
-      <c r="J37" s="462"/>
-      <c r="K37" s="463"/>
-      <c r="L37" s="461" t="str">
+      <c r="G37" s="470"/>
+      <c r="H37" s="470"/>
+      <c r="I37" s="470"/>
+      <c r="J37" s="470"/>
+      <c r="K37" s="471"/>
+      <c r="L37" s="469" t="str">
         <f ca="1">Calibración!E47</f>
         <v/>
       </c>
-      <c r="M37" s="462"/>
-      <c r="N37" s="462"/>
-      <c r="O37" s="462"/>
-      <c r="P37" s="462"/>
-      <c r="Q37" s="463"/>
-      <c r="R37" s="461" t="str">
+      <c r="M37" s="470"/>
+      <c r="N37" s="470"/>
+      <c r="O37" s="470"/>
+      <c r="P37" s="470"/>
+      <c r="Q37" s="471"/>
+      <c r="R37" s="469" t="str">
         <f ca="1">Calibración!F47</f>
         <v/>
       </c>
-      <c r="S37" s="462"/>
-      <c r="T37" s="462"/>
-      <c r="U37" s="462"/>
-      <c r="V37" s="462"/>
-      <c r="W37" s="463"/>
+      <c r="S37" s="470"/>
+      <c r="T37" s="470"/>
+      <c r="U37" s="470"/>
+      <c r="V37" s="470"/>
+      <c r="W37" s="471"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
@@ -36168,493 +36409,493 @@
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="464" t="s">
+      <c r="D61" s="472" t="s">
         <v>89</v>
       </c>
-      <c r="E61" s="464"/>
-      <c r="F61" s="464"/>
-      <c r="G61" s="464"/>
-      <c r="H61" s="464"/>
-      <c r="I61" s="464"/>
-      <c r="J61" s="464"/>
-      <c r="K61" s="464"/>
-      <c r="L61" s="464"/>
-      <c r="M61" s="464"/>
-      <c r="N61" s="464"/>
-      <c r="O61" s="464"/>
-      <c r="P61" s="464"/>
-      <c r="Q61" s="464"/>
-      <c r="R61" s="464"/>
-      <c r="S61" s="464"/>
-      <c r="T61" s="464"/>
-      <c r="U61" s="464"/>
-      <c r="V61" s="464"/>
-      <c r="W61" s="464"/>
+      <c r="E61" s="472"/>
+      <c r="F61" s="472"/>
+      <c r="G61" s="472"/>
+      <c r="H61" s="472"/>
+      <c r="I61" s="472"/>
+      <c r="J61" s="472"/>
+      <c r="K61" s="472"/>
+      <c r="L61" s="472"/>
+      <c r="M61" s="472"/>
+      <c r="N61" s="472"/>
+      <c r="O61" s="472"/>
+      <c r="P61" s="472"/>
+      <c r="Q61" s="472"/>
+      <c r="R61" s="472"/>
+      <c r="S61" s="472"/>
+      <c r="T61" s="472"/>
+      <c r="U61" s="472"/>
+      <c r="V61" s="472"/>
+      <c r="W61" s="472"/>
     </row>
     <row r="62" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="465" t="s">
+      <c r="D62" s="473" t="s">
         <v>309</v>
       </c>
-      <c r="E62" s="465"/>
-      <c r="F62" s="466" t="s">
+      <c r="E62" s="473"/>
+      <c r="F62" s="474" t="s">
         <v>1333</v>
       </c>
-      <c r="G62" s="466"/>
-      <c r="H62" s="466"/>
-      <c r="I62" s="466"/>
-      <c r="J62" s="466"/>
-      <c r="K62" s="466"/>
-      <c r="L62" s="466" t="s">
+      <c r="G62" s="474"/>
+      <c r="H62" s="474"/>
+      <c r="I62" s="474"/>
+      <c r="J62" s="474"/>
+      <c r="K62" s="474"/>
+      <c r="L62" s="474" t="s">
         <v>90</v>
       </c>
-      <c r="M62" s="466"/>
-      <c r="N62" s="466"/>
-      <c r="O62" s="466"/>
-      <c r="P62" s="466"/>
-      <c r="Q62" s="466"/>
-      <c r="R62" s="465" t="s">
+      <c r="M62" s="474"/>
+      <c r="N62" s="474"/>
+      <c r="O62" s="474"/>
+      <c r="P62" s="474"/>
+      <c r="Q62" s="474"/>
+      <c r="R62" s="473" t="s">
         <v>1332</v>
       </c>
-      <c r="S62" s="465"/>
-      <c r="T62" s="465"/>
-      <c r="U62" s="465"/>
-      <c r="V62" s="465"/>
-      <c r="W62" s="465"/>
+      <c r="S62" s="473"/>
+      <c r="T62" s="473"/>
+      <c r="U62" s="473"/>
+      <c r="V62" s="473"/>
+      <c r="W62" s="473"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="465"/>
-      <c r="E63" s="465"/>
-      <c r="F63" s="466"/>
-      <c r="G63" s="466"/>
-      <c r="H63" s="466"/>
-      <c r="I63" s="466"/>
-      <c r="J63" s="466"/>
-      <c r="K63" s="466"/>
-      <c r="L63" s="466"/>
-      <c r="M63" s="466"/>
-      <c r="N63" s="466"/>
-      <c r="O63" s="466"/>
-      <c r="P63" s="466"/>
-      <c r="Q63" s="466"/>
-      <c r="R63" s="465"/>
-      <c r="S63" s="465"/>
-      <c r="T63" s="465"/>
-      <c r="U63" s="465"/>
-      <c r="V63" s="465"/>
-      <c r="W63" s="465"/>
+      <c r="D63" s="473"/>
+      <c r="E63" s="473"/>
+      <c r="F63" s="474"/>
+      <c r="G63" s="474"/>
+      <c r="H63" s="474"/>
+      <c r="I63" s="474"/>
+      <c r="J63" s="474"/>
+      <c r="K63" s="474"/>
+      <c r="L63" s="474"/>
+      <c r="M63" s="474"/>
+      <c r="N63" s="474"/>
+      <c r="O63" s="474"/>
+      <c r="P63" s="474"/>
+      <c r="Q63" s="474"/>
+      <c r="R63" s="473"/>
+      <c r="S63" s="473"/>
+      <c r="T63" s="473"/>
+      <c r="U63" s="473"/>
+      <c r="V63" s="473"/>
+      <c r="W63" s="473"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="456" t="str">
+      <c r="D64" s="464" t="str">
         <f>Calibración!G37</f>
         <v>kPa</v>
       </c>
-      <c r="E64" s="456"/>
-      <c r="F64" s="457" t="str">
+      <c r="E64" s="464"/>
+      <c r="F64" s="465" t="str">
         <f>Calibración!H37</f>
         <v>kPa</v>
       </c>
-      <c r="G64" s="458"/>
-      <c r="H64" s="458"/>
-      <c r="I64" s="458"/>
-      <c r="J64" s="458"/>
-      <c r="K64" s="459"/>
-      <c r="L64" s="456" t="str">
+      <c r="G64" s="466"/>
+      <c r="H64" s="466"/>
+      <c r="I64" s="466"/>
+      <c r="J64" s="466"/>
+      <c r="K64" s="467"/>
+      <c r="L64" s="464" t="str">
         <f>Calibración!I37</f>
         <v>kPa</v>
       </c>
-      <c r="M64" s="456"/>
-      <c r="N64" s="456"/>
-      <c r="O64" s="456"/>
-      <c r="P64" s="456"/>
-      <c r="Q64" s="456"/>
-      <c r="R64" s="456" t="str">
+      <c r="M64" s="464"/>
+      <c r="N64" s="464"/>
+      <c r="O64" s="464"/>
+      <c r="P64" s="464"/>
+      <c r="Q64" s="464"/>
+      <c r="R64" s="464" t="str">
         <f>Calibración!J37</f>
         <v>kPa</v>
       </c>
-      <c r="S64" s="456"/>
-      <c r="T64" s="456"/>
-      <c r="U64" s="456"/>
-      <c r="V64" s="456"/>
-      <c r="W64" s="456"/>
+      <c r="S64" s="464"/>
+      <c r="T64" s="464"/>
+      <c r="U64" s="464"/>
+      <c r="V64" s="464"/>
+      <c r="W64" s="464"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="452" t="str">
+      <c r="D65" s="460" t="str">
         <f ca="1">Calibración!G38</f>
         <v/>
       </c>
-      <c r="E65" s="453"/>
-      <c r="F65" s="452" t="str">
+      <c r="E65" s="461"/>
+      <c r="F65" s="460" t="str">
         <f ca="1">Calibración!H38</f>
         <v/>
       </c>
-      <c r="G65" s="454"/>
-      <c r="H65" s="454"/>
-      <c r="I65" s="454"/>
-      <c r="J65" s="454"/>
-      <c r="K65" s="453"/>
-      <c r="L65" s="455" t="str">
+      <c r="G65" s="462"/>
+      <c r="H65" s="462"/>
+      <c r="I65" s="462"/>
+      <c r="J65" s="462"/>
+      <c r="K65" s="461"/>
+      <c r="L65" s="463" t="str">
         <f ca="1">Calibración!I38</f>
         <v/>
       </c>
-      <c r="M65" s="455"/>
-      <c r="N65" s="455"/>
-      <c r="O65" s="455"/>
-      <c r="P65" s="455"/>
-      <c r="Q65" s="455"/>
-      <c r="R65" s="455" t="str">
+      <c r="M65" s="463"/>
+      <c r="N65" s="463"/>
+      <c r="O65" s="463"/>
+      <c r="P65" s="463"/>
+      <c r="Q65" s="463"/>
+      <c r="R65" s="463" t="str">
         <f ca="1">Calibración!J38</f>
         <v/>
       </c>
-      <c r="S65" s="455"/>
-      <c r="T65" s="455"/>
-      <c r="U65" s="455"/>
-      <c r="V65" s="455"/>
-      <c r="W65" s="455"/>
+      <c r="S65" s="463"/>
+      <c r="T65" s="463"/>
+      <c r="U65" s="463"/>
+      <c r="V65" s="463"/>
+      <c r="W65" s="463"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="452" t="str">
+      <c r="D66" s="460" t="str">
         <f ca="1">Calibración!G39</f>
         <v/>
       </c>
-      <c r="E66" s="453"/>
-      <c r="F66" s="452" t="str">
+      <c r="E66" s="461"/>
+      <c r="F66" s="460" t="str">
         <f ca="1">Calibración!H39</f>
         <v/>
       </c>
-      <c r="G66" s="454"/>
-      <c r="H66" s="454"/>
-      <c r="I66" s="454"/>
-      <c r="J66" s="454"/>
-      <c r="K66" s="453"/>
-      <c r="L66" s="455" t="str">
+      <c r="G66" s="462"/>
+      <c r="H66" s="462"/>
+      <c r="I66" s="462"/>
+      <c r="J66" s="462"/>
+      <c r="K66" s="461"/>
+      <c r="L66" s="463" t="str">
         <f ca="1">Calibración!I39</f>
         <v/>
       </c>
-      <c r="M66" s="455"/>
-      <c r="N66" s="455"/>
-      <c r="O66" s="455"/>
-      <c r="P66" s="455"/>
-      <c r="Q66" s="455"/>
-      <c r="R66" s="455" t="str">
+      <c r="M66" s="463"/>
+      <c r="N66" s="463"/>
+      <c r="O66" s="463"/>
+      <c r="P66" s="463"/>
+      <c r="Q66" s="463"/>
+      <c r="R66" s="463" t="str">
         <f ca="1">Calibración!J39</f>
         <v/>
       </c>
-      <c r="S66" s="455"/>
-      <c r="T66" s="455"/>
-      <c r="U66" s="455"/>
-      <c r="V66" s="455"/>
-      <c r="W66" s="455"/>
+      <c r="S66" s="463"/>
+      <c r="T66" s="463"/>
+      <c r="U66" s="463"/>
+      <c r="V66" s="463"/>
+      <c r="W66" s="463"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="452" t="str">
+      <c r="D67" s="460" t="str">
         <f ca="1">Calibración!G40</f>
         <v/>
       </c>
-      <c r="E67" s="453"/>
-      <c r="F67" s="452" t="str">
+      <c r="E67" s="461"/>
+      <c r="F67" s="460" t="str">
         <f ca="1">Calibración!H40</f>
         <v/>
       </c>
-      <c r="G67" s="454"/>
-      <c r="H67" s="454"/>
-      <c r="I67" s="454"/>
-      <c r="J67" s="454"/>
-      <c r="K67" s="453"/>
-      <c r="L67" s="455" t="str">
+      <c r="G67" s="462"/>
+      <c r="H67" s="462"/>
+      <c r="I67" s="462"/>
+      <c r="J67" s="462"/>
+      <c r="K67" s="461"/>
+      <c r="L67" s="463" t="str">
         <f ca="1">Calibración!I40</f>
         <v/>
       </c>
-      <c r="M67" s="455"/>
-      <c r="N67" s="455"/>
-      <c r="O67" s="455"/>
-      <c r="P67" s="455"/>
-      <c r="Q67" s="455"/>
-      <c r="R67" s="455" t="str">
+      <c r="M67" s="463"/>
+      <c r="N67" s="463"/>
+      <c r="O67" s="463"/>
+      <c r="P67" s="463"/>
+      <c r="Q67" s="463"/>
+      <c r="R67" s="463" t="str">
         <f ca="1">Calibración!J40</f>
         <v/>
       </c>
-      <c r="S67" s="455"/>
-      <c r="T67" s="455"/>
-      <c r="U67" s="455"/>
-      <c r="V67" s="455"/>
-      <c r="W67" s="455"/>
+      <c r="S67" s="463"/>
+      <c r="T67" s="463"/>
+      <c r="U67" s="463"/>
+      <c r="V67" s="463"/>
+      <c r="W67" s="463"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="452" t="str">
+      <c r="D68" s="460" t="str">
         <f ca="1">Calibración!G41</f>
         <v/>
       </c>
-      <c r="E68" s="453"/>
-      <c r="F68" s="452" t="str">
+      <c r="E68" s="461"/>
+      <c r="F68" s="460" t="str">
         <f ca="1">Calibración!H41</f>
         <v/>
       </c>
-      <c r="G68" s="454"/>
-      <c r="H68" s="454"/>
-      <c r="I68" s="454"/>
-      <c r="J68" s="454"/>
-      <c r="K68" s="453"/>
-      <c r="L68" s="455" t="str">
+      <c r="G68" s="462"/>
+      <c r="H68" s="462"/>
+      <c r="I68" s="462"/>
+      <c r="J68" s="462"/>
+      <c r="K68" s="461"/>
+      <c r="L68" s="463" t="str">
         <f ca="1">Calibración!I41</f>
         <v/>
       </c>
-      <c r="M68" s="455"/>
-      <c r="N68" s="455"/>
-      <c r="O68" s="455"/>
-      <c r="P68" s="455"/>
-      <c r="Q68" s="455"/>
-      <c r="R68" s="455" t="str">
+      <c r="M68" s="463"/>
+      <c r="N68" s="463"/>
+      <c r="O68" s="463"/>
+      <c r="P68" s="463"/>
+      <c r="Q68" s="463"/>
+      <c r="R68" s="463" t="str">
         <f ca="1">Calibración!J41</f>
         <v/>
       </c>
-      <c r="S68" s="455"/>
-      <c r="T68" s="455"/>
-      <c r="U68" s="455"/>
-      <c r="V68" s="455"/>
-      <c r="W68" s="455"/>
+      <c r="S68" s="463"/>
+      <c r="T68" s="463"/>
+      <c r="U68" s="463"/>
+      <c r="V68" s="463"/>
+      <c r="W68" s="463"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="452" t="str">
+      <c r="D69" s="460" t="str">
         <f ca="1">Calibración!G42</f>
         <v/>
       </c>
-      <c r="E69" s="453"/>
-      <c r="F69" s="452" t="str">
+      <c r="E69" s="461"/>
+      <c r="F69" s="460" t="str">
         <f ca="1">Calibración!H42</f>
         <v/>
       </c>
-      <c r="G69" s="454"/>
-      <c r="H69" s="454"/>
-      <c r="I69" s="454"/>
-      <c r="J69" s="454"/>
-      <c r="K69" s="453"/>
-      <c r="L69" s="455" t="str">
+      <c r="G69" s="462"/>
+      <c r="H69" s="462"/>
+      <c r="I69" s="462"/>
+      <c r="J69" s="462"/>
+      <c r="K69" s="461"/>
+      <c r="L69" s="463" t="str">
         <f ca="1">Calibración!I42</f>
         <v/>
       </c>
-      <c r="M69" s="455"/>
-      <c r="N69" s="455"/>
-      <c r="O69" s="455"/>
-      <c r="P69" s="455"/>
-      <c r="Q69" s="455"/>
-      <c r="R69" s="455" t="str">
+      <c r="M69" s="463"/>
+      <c r="N69" s="463"/>
+      <c r="O69" s="463"/>
+      <c r="P69" s="463"/>
+      <c r="Q69" s="463"/>
+      <c r="R69" s="463" t="str">
         <f ca="1">Calibración!J42</f>
         <v/>
       </c>
-      <c r="S69" s="455"/>
-      <c r="T69" s="455"/>
-      <c r="U69" s="455"/>
-      <c r="V69" s="455"/>
-      <c r="W69" s="455"/>
+      <c r="S69" s="463"/>
+      <c r="T69" s="463"/>
+      <c r="U69" s="463"/>
+      <c r="V69" s="463"/>
+      <c r="W69" s="463"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="452" t="str">
+      <c r="D70" s="460" t="str">
         <f ca="1">Calibración!G43</f>
         <v/>
       </c>
-      <c r="E70" s="453"/>
-      <c r="F70" s="452" t="str">
+      <c r="E70" s="461"/>
+      <c r="F70" s="460" t="str">
         <f ca="1">Calibración!H43</f>
         <v/>
       </c>
-      <c r="G70" s="454"/>
-      <c r="H70" s="454"/>
-      <c r="I70" s="454"/>
-      <c r="J70" s="454"/>
-      <c r="K70" s="453"/>
-      <c r="L70" s="455" t="str">
+      <c r="G70" s="462"/>
+      <c r="H70" s="462"/>
+      <c r="I70" s="462"/>
+      <c r="J70" s="462"/>
+      <c r="K70" s="461"/>
+      <c r="L70" s="463" t="str">
         <f ca="1">Calibración!I43</f>
         <v/>
       </c>
-      <c r="M70" s="455"/>
-      <c r="N70" s="455"/>
-      <c r="O70" s="455"/>
-      <c r="P70" s="455"/>
-      <c r="Q70" s="455"/>
-      <c r="R70" s="455" t="str">
+      <c r="M70" s="463"/>
+      <c r="N70" s="463"/>
+      <c r="O70" s="463"/>
+      <c r="P70" s="463"/>
+      <c r="Q70" s="463"/>
+      <c r="R70" s="463" t="str">
         <f ca="1">Calibración!J43</f>
         <v/>
       </c>
-      <c r="S70" s="455"/>
-      <c r="T70" s="455"/>
-      <c r="U70" s="455"/>
-      <c r="V70" s="455"/>
-      <c r="W70" s="455"/>
+      <c r="S70" s="463"/>
+      <c r="T70" s="463"/>
+      <c r="U70" s="463"/>
+      <c r="V70" s="463"/>
+      <c r="W70" s="463"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
-      <c r="D71" s="452" t="str">
+      <c r="D71" s="460" t="str">
         <f ca="1">Calibración!G44</f>
         <v/>
       </c>
-      <c r="E71" s="453"/>
-      <c r="F71" s="452" t="str">
+      <c r="E71" s="461"/>
+      <c r="F71" s="460" t="str">
         <f ca="1">Calibración!H44</f>
         <v/>
       </c>
-      <c r="G71" s="454"/>
-      <c r="H71" s="454"/>
-      <c r="I71" s="454"/>
-      <c r="J71" s="454"/>
-      <c r="K71" s="453"/>
-      <c r="L71" s="455" t="str">
+      <c r="G71" s="462"/>
+      <c r="H71" s="462"/>
+      <c r="I71" s="462"/>
+      <c r="J71" s="462"/>
+      <c r="K71" s="461"/>
+      <c r="L71" s="463" t="str">
         <f ca="1">Calibración!I44</f>
         <v/>
       </c>
-      <c r="M71" s="455"/>
-      <c r="N71" s="455"/>
-      <c r="O71" s="455"/>
-      <c r="P71" s="455"/>
-      <c r="Q71" s="455"/>
-      <c r="R71" s="455" t="str">
+      <c r="M71" s="463"/>
+      <c r="N71" s="463"/>
+      <c r="O71" s="463"/>
+      <c r="P71" s="463"/>
+      <c r="Q71" s="463"/>
+      <c r="R71" s="463" t="str">
         <f ca="1">Calibración!J44</f>
         <v/>
       </c>
-      <c r="S71" s="455"/>
-      <c r="T71" s="455"/>
-      <c r="U71" s="455"/>
-      <c r="V71" s="455"/>
-      <c r="W71" s="455"/>
+      <c r="S71" s="463"/>
+      <c r="T71" s="463"/>
+      <c r="U71" s="463"/>
+      <c r="V71" s="463"/>
+      <c r="W71" s="463"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="452" t="str">
+      <c r="D72" s="460" t="str">
         <f ca="1">Calibración!G45</f>
         <v/>
       </c>
-      <c r="E72" s="453"/>
-      <c r="F72" s="452" t="str">
+      <c r="E72" s="461"/>
+      <c r="F72" s="460" t="str">
         <f ca="1">Calibración!H45</f>
         <v/>
       </c>
-      <c r="G72" s="454"/>
-      <c r="H72" s="454"/>
-      <c r="I72" s="454"/>
-      <c r="J72" s="454"/>
-      <c r="K72" s="453"/>
-      <c r="L72" s="455" t="str">
+      <c r="G72" s="462"/>
+      <c r="H72" s="462"/>
+      <c r="I72" s="462"/>
+      <c r="J72" s="462"/>
+      <c r="K72" s="461"/>
+      <c r="L72" s="463" t="str">
         <f ca="1">Calibración!I45</f>
         <v/>
       </c>
-      <c r="M72" s="455"/>
-      <c r="N72" s="455"/>
-      <c r="O72" s="455"/>
-      <c r="P72" s="455"/>
-      <c r="Q72" s="455"/>
-      <c r="R72" s="455" t="str">
+      <c r="M72" s="463"/>
+      <c r="N72" s="463"/>
+      <c r="O72" s="463"/>
+      <c r="P72" s="463"/>
+      <c r="Q72" s="463"/>
+      <c r="R72" s="463" t="str">
         <f ca="1">Calibración!J45</f>
         <v/>
       </c>
-      <c r="S72" s="455"/>
-      <c r="T72" s="455"/>
-      <c r="U72" s="455"/>
-      <c r="V72" s="455"/>
-      <c r="W72" s="455"/>
+      <c r="S72" s="463"/>
+      <c r="T72" s="463"/>
+      <c r="U72" s="463"/>
+      <c r="V72" s="463"/>
+      <c r="W72" s="463"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="452" t="str">
+      <c r="D73" s="460" t="str">
         <f ca="1">Calibración!G46</f>
         <v/>
       </c>
-      <c r="E73" s="453"/>
-      <c r="F73" s="452" t="str">
+      <c r="E73" s="461"/>
+      <c r="F73" s="460" t="str">
         <f ca="1">Calibración!H46</f>
         <v/>
       </c>
-      <c r="G73" s="454"/>
-      <c r="H73" s="454"/>
-      <c r="I73" s="454"/>
-      <c r="J73" s="454"/>
-      <c r="K73" s="453"/>
-      <c r="L73" s="455" t="str">
+      <c r="G73" s="462"/>
+      <c r="H73" s="462"/>
+      <c r="I73" s="462"/>
+      <c r="J73" s="462"/>
+      <c r="K73" s="461"/>
+      <c r="L73" s="463" t="str">
         <f ca="1">Calibración!I46</f>
         <v/>
       </c>
-      <c r="M73" s="455"/>
-      <c r="N73" s="455"/>
-      <c r="O73" s="455"/>
-      <c r="P73" s="455"/>
-      <c r="Q73" s="455"/>
-      <c r="R73" s="455" t="str">
+      <c r="M73" s="463"/>
+      <c r="N73" s="463"/>
+      <c r="O73" s="463"/>
+      <c r="P73" s="463"/>
+      <c r="Q73" s="463"/>
+      <c r="R73" s="463" t="str">
         <f ca="1">Calibración!J46</f>
         <v/>
       </c>
-      <c r="S73" s="455"/>
-      <c r="T73" s="455"/>
-      <c r="U73" s="455"/>
-      <c r="V73" s="455"/>
-      <c r="W73" s="455"/>
+      <c r="S73" s="463"/>
+      <c r="T73" s="463"/>
+      <c r="U73" s="463"/>
+      <c r="V73" s="463"/>
+      <c r="W73" s="463"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="452" t="str">
+      <c r="D74" s="460" t="str">
         <f ca="1">Calibración!G47</f>
         <v/>
       </c>
-      <c r="E74" s="453"/>
-      <c r="F74" s="452" t="str">
+      <c r="E74" s="461"/>
+      <c r="F74" s="460" t="str">
         <f ca="1">Calibración!H47</f>
         <v/>
       </c>
-      <c r="G74" s="454"/>
-      <c r="H74" s="454"/>
-      <c r="I74" s="454"/>
-      <c r="J74" s="454"/>
-      <c r="K74" s="453"/>
-      <c r="L74" s="455" t="str">
+      <c r="G74" s="462"/>
+      <c r="H74" s="462"/>
+      <c r="I74" s="462"/>
+      <c r="J74" s="462"/>
+      <c r="K74" s="461"/>
+      <c r="L74" s="463" t="str">
         <f ca="1">Calibración!I47</f>
         <v/>
       </c>
-      <c r="M74" s="455"/>
-      <c r="N74" s="455"/>
-      <c r="O74" s="455"/>
-      <c r="P74" s="455"/>
-      <c r="Q74" s="455"/>
-      <c r="R74" s="455" t="str">
+      <c r="M74" s="463"/>
+      <c r="N74" s="463"/>
+      <c r="O74" s="463"/>
+      <c r="P74" s="463"/>
+      <c r="Q74" s="463"/>
+      <c r="R74" s="463" t="str">
         <f ca="1">Calibración!J47</f>
         <v/>
       </c>
-      <c r="S74" s="455"/>
-      <c r="T74" s="455"/>
-      <c r="U74" s="455"/>
-      <c r="V74" s="455"/>
-      <c r="W74" s="455"/>
+      <c r="S74" s="463"/>
+      <c r="T74" s="463"/>
+      <c r="U74" s="463"/>
+      <c r="V74" s="463"/>
+      <c r="W74" s="463"/>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
@@ -36764,11 +37005,11 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80" s="335"/>
-      <c r="B80" s="449" t="s">
+      <c r="B80" s="457" t="s">
         <v>1329</v>
       </c>
-      <c r="C80" s="449"/>
-      <c r="D80" s="449"/>
+      <c r="C80" s="457"/>
+      <c r="D80" s="457"/>
       <c r="E80" s="334">
         <f>CertTempC</f>
         <v>22.25</v>
@@ -36785,8 +37026,8 @@
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
-      <c r="K80" s="450"/>
-      <c r="L80" s="450"/>
+      <c r="K80" s="458"/>
+      <c r="L80" s="458"/>
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
@@ -36796,11 +37037,11 @@
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
       <c r="S80" s="8"/>
-      <c r="T80" s="451">
+      <c r="T80" s="459">
         <f>General!I18</f>
         <v>1001</v>
       </c>
-      <c r="U80" s="451"/>
+      <c r="U80" s="459"/>
       <c r="V80" s="332" t="s">
         <v>1326</v>
       </c>
@@ -37124,19 +37365,19 @@
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
-      <c r="N92" s="448" t="str">
+      <c r="N92" s="456" t="str">
         <f>N8</f>
         <v>NI-MC-P-XXXX-2024</v>
       </c>
-      <c r="O92" s="448"/>
-      <c r="P92" s="448"/>
-      <c r="Q92" s="448"/>
-      <c r="R92" s="448"/>
-      <c r="S92" s="448"/>
-      <c r="T92" s="448"/>
-      <c r="U92" s="448"/>
-      <c r="V92" s="448"/>
-      <c r="W92" s="448"/>
+      <c r="O92" s="456"/>
+      <c r="P92" s="456"/>
+      <c r="Q92" s="456"/>
+      <c r="R92" s="456"/>
+      <c r="S92" s="456"/>
+      <c r="T92" s="456"/>
+      <c r="U92" s="456"/>
+      <c r="V92" s="456"/>
+      <c r="W92" s="456"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93" s="320"/>
@@ -37216,32 +37457,32 @@
       <c r="W95" s="8"/>
     </row>
     <row r="96" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="441" t="s">
+      <c r="A96" s="449" t="s">
         <v>1320</v>
       </c>
-      <c r="B96" s="441"/>
-      <c r="C96" s="441"/>
-      <c r="D96" s="441"/>
-      <c r="E96" s="441"/>
-      <c r="F96" s="441"/>
-      <c r="G96" s="441"/>
-      <c r="H96" s="441"/>
-      <c r="I96" s="441"/>
-      <c r="J96" s="441"/>
-      <c r="K96" s="441"/>
-      <c r="L96" s="441"/>
-      <c r="M96" s="441"/>
-      <c r="N96" s="441"/>
-      <c r="O96" s="441"/>
-      <c r="P96" s="441"/>
-      <c r="Q96" s="441"/>
-      <c r="R96" s="441"/>
-      <c r="S96" s="441"/>
-      <c r="T96" s="441"/>
-      <c r="U96" s="441"/>
-      <c r="V96" s="441"/>
-      <c r="W96" s="441"/>
-      <c r="X96" s="441"/>
+      <c r="B96" s="449"/>
+      <c r="C96" s="449"/>
+      <c r="D96" s="449"/>
+      <c r="E96" s="449"/>
+      <c r="F96" s="449"/>
+      <c r="G96" s="449"/>
+      <c r="H96" s="449"/>
+      <c r="I96" s="449"/>
+      <c r="J96" s="449"/>
+      <c r="K96" s="449"/>
+      <c r="L96" s="449"/>
+      <c r="M96" s="449"/>
+      <c r="N96" s="449"/>
+      <c r="O96" s="449"/>
+      <c r="P96" s="449"/>
+      <c r="Q96" s="449"/>
+      <c r="R96" s="449"/>
+      <c r="S96" s="449"/>
+      <c r="T96" s="449"/>
+      <c r="U96" s="449"/>
+      <c r="V96" s="449"/>
+      <c r="W96" s="449"/>
+      <c r="X96" s="449"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B97" s="12"/>
@@ -37296,136 +37537,136 @@
       <c r="X98" s="12"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A99" s="441" t="s">
+      <c r="A99" s="449" t="s">
         <v>1318</v>
       </c>
-      <c r="B99" s="441"/>
-      <c r="C99" s="441"/>
-      <c r="D99" s="441"/>
-      <c r="E99" s="441"/>
-      <c r="F99" s="441"/>
-      <c r="G99" s="441"/>
-      <c r="H99" s="441"/>
-      <c r="I99" s="441"/>
-      <c r="J99" s="441"/>
-      <c r="K99" s="441"/>
-      <c r="L99" s="441"/>
-      <c r="M99" s="441"/>
-      <c r="N99" s="441"/>
-      <c r="O99" s="441"/>
-      <c r="P99" s="441"/>
-      <c r="Q99" s="441"/>
-      <c r="R99" s="441"/>
-      <c r="S99" s="441"/>
-      <c r="T99" s="441"/>
-      <c r="U99" s="441"/>
-      <c r="V99" s="441"/>
-      <c r="W99" s="441"/>
-      <c r="X99" s="441"/>
+      <c r="B99" s="449"/>
+      <c r="C99" s="449"/>
+      <c r="D99" s="449"/>
+      <c r="E99" s="449"/>
+      <c r="F99" s="449"/>
+      <c r="G99" s="449"/>
+      <c r="H99" s="449"/>
+      <c r="I99" s="449"/>
+      <c r="J99" s="449"/>
+      <c r="K99" s="449"/>
+      <c r="L99" s="449"/>
+      <c r="M99" s="449"/>
+      <c r="N99" s="449"/>
+      <c r="O99" s="449"/>
+      <c r="P99" s="449"/>
+      <c r="Q99" s="449"/>
+      <c r="R99" s="449"/>
+      <c r="S99" s="449"/>
+      <c r="T99" s="449"/>
+      <c r="U99" s="449"/>
+      <c r="V99" s="449"/>
+      <c r="W99" s="449"/>
+      <c r="X99" s="449"/>
     </row>
     <row r="100" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="441"/>
-      <c r="B100" s="441"/>
-      <c r="C100" s="441"/>
-      <c r="D100" s="441"/>
-      <c r="E100" s="441"/>
-      <c r="F100" s="441"/>
-      <c r="G100" s="441"/>
-      <c r="H100" s="441"/>
-      <c r="I100" s="441"/>
-      <c r="J100" s="441"/>
-      <c r="K100" s="441"/>
-      <c r="L100" s="441"/>
-      <c r="M100" s="441"/>
-      <c r="N100" s="441"/>
-      <c r="O100" s="441"/>
-      <c r="P100" s="441"/>
-      <c r="Q100" s="441"/>
-      <c r="R100" s="441"/>
-      <c r="S100" s="441"/>
-      <c r="T100" s="441"/>
-      <c r="U100" s="441"/>
-      <c r="V100" s="441"/>
-      <c r="W100" s="441"/>
-      <c r="X100" s="441"/>
+      <c r="A100" s="449"/>
+      <c r="B100" s="449"/>
+      <c r="C100" s="449"/>
+      <c r="D100" s="449"/>
+      <c r="E100" s="449"/>
+      <c r="F100" s="449"/>
+      <c r="G100" s="449"/>
+      <c r="H100" s="449"/>
+      <c r="I100" s="449"/>
+      <c r="J100" s="449"/>
+      <c r="K100" s="449"/>
+      <c r="L100" s="449"/>
+      <c r="M100" s="449"/>
+      <c r="N100" s="449"/>
+      <c r="O100" s="449"/>
+      <c r="P100" s="449"/>
+      <c r="Q100" s="449"/>
+      <c r="R100" s="449"/>
+      <c r="S100" s="449"/>
+      <c r="T100" s="449"/>
+      <c r="U100" s="449"/>
+      <c r="V100" s="449"/>
+      <c r="W100" s="449"/>
+      <c r="X100" s="449"/>
     </row>
     <row r="101" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="441"/>
-      <c r="B101" s="441"/>
-      <c r="C101" s="441"/>
-      <c r="D101" s="441"/>
-      <c r="E101" s="441"/>
-      <c r="F101" s="441"/>
-      <c r="G101" s="441"/>
-      <c r="H101" s="441"/>
-      <c r="I101" s="441"/>
-      <c r="J101" s="441"/>
-      <c r="K101" s="441"/>
-      <c r="L101" s="441"/>
-      <c r="M101" s="441"/>
-      <c r="N101" s="441"/>
-      <c r="O101" s="441"/>
-      <c r="P101" s="441"/>
-      <c r="Q101" s="441"/>
-      <c r="R101" s="441"/>
-      <c r="S101" s="441"/>
-      <c r="T101" s="441"/>
-      <c r="U101" s="441"/>
-      <c r="V101" s="441"/>
-      <c r="W101" s="441"/>
-      <c r="X101" s="441"/>
+      <c r="A101" s="449"/>
+      <c r="B101" s="449"/>
+      <c r="C101" s="449"/>
+      <c r="D101" s="449"/>
+      <c r="E101" s="449"/>
+      <c r="F101" s="449"/>
+      <c r="G101" s="449"/>
+      <c r="H101" s="449"/>
+      <c r="I101" s="449"/>
+      <c r="J101" s="449"/>
+      <c r="K101" s="449"/>
+      <c r="L101" s="449"/>
+      <c r="M101" s="449"/>
+      <c r="N101" s="449"/>
+      <c r="O101" s="449"/>
+      <c r="P101" s="449"/>
+      <c r="Q101" s="449"/>
+      <c r="R101" s="449"/>
+      <c r="S101" s="449"/>
+      <c r="T101" s="449"/>
+      <c r="U101" s="449"/>
+      <c r="V101" s="449"/>
+      <c r="W101" s="449"/>
+      <c r="X101" s="449"/>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A102" s="441"/>
-      <c r="B102" s="441"/>
-      <c r="C102" s="441"/>
-      <c r="D102" s="441"/>
-      <c r="E102" s="441"/>
-      <c r="F102" s="441"/>
-      <c r="G102" s="441"/>
-      <c r="H102" s="441"/>
-      <c r="I102" s="441"/>
-      <c r="J102" s="441"/>
-      <c r="K102" s="441"/>
-      <c r="L102" s="441"/>
-      <c r="M102" s="441"/>
-      <c r="N102" s="441"/>
-      <c r="O102" s="441"/>
-      <c r="P102" s="441"/>
-      <c r="Q102" s="441"/>
-      <c r="R102" s="441"/>
-      <c r="S102" s="441"/>
-      <c r="T102" s="441"/>
-      <c r="U102" s="441"/>
-      <c r="V102" s="441"/>
-      <c r="W102" s="441"/>
-      <c r="X102" s="441"/>
+      <c r="A102" s="449"/>
+      <c r="B102" s="449"/>
+      <c r="C102" s="449"/>
+      <c r="D102" s="449"/>
+      <c r="E102" s="449"/>
+      <c r="F102" s="449"/>
+      <c r="G102" s="449"/>
+      <c r="H102" s="449"/>
+      <c r="I102" s="449"/>
+      <c r="J102" s="449"/>
+      <c r="K102" s="449"/>
+      <c r="L102" s="449"/>
+      <c r="M102" s="449"/>
+      <c r="N102" s="449"/>
+      <c r="O102" s="449"/>
+      <c r="P102" s="449"/>
+      <c r="Q102" s="449"/>
+      <c r="R102" s="449"/>
+      <c r="S102" s="449"/>
+      <c r="T102" s="449"/>
+      <c r="U102" s="449"/>
+      <c r="V102" s="449"/>
+      <c r="W102" s="449"/>
+      <c r="X102" s="449"/>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A103" s="441"/>
-      <c r="B103" s="441"/>
-      <c r="C103" s="441"/>
-      <c r="D103" s="441"/>
-      <c r="E103" s="441"/>
-      <c r="F103" s="441"/>
-      <c r="G103" s="441"/>
-      <c r="H103" s="441"/>
-      <c r="I103" s="441"/>
-      <c r="J103" s="441"/>
-      <c r="K103" s="441"/>
-      <c r="L103" s="441"/>
-      <c r="M103" s="441"/>
-      <c r="N103" s="441"/>
-      <c r="O103" s="441"/>
-      <c r="P103" s="441"/>
-      <c r="Q103" s="441"/>
-      <c r="R103" s="441"/>
-      <c r="S103" s="441"/>
-      <c r="T103" s="441"/>
-      <c r="U103" s="441"/>
-      <c r="V103" s="441"/>
-      <c r="W103" s="441"/>
-      <c r="X103" s="441"/>
+      <c r="A103" s="449"/>
+      <c r="B103" s="449"/>
+      <c r="C103" s="449"/>
+      <c r="D103" s="449"/>
+      <c r="E103" s="449"/>
+      <c r="F103" s="449"/>
+      <c r="G103" s="449"/>
+      <c r="H103" s="449"/>
+      <c r="I103" s="449"/>
+      <c r="J103" s="449"/>
+      <c r="K103" s="449"/>
+      <c r="L103" s="449"/>
+      <c r="M103" s="449"/>
+      <c r="N103" s="449"/>
+      <c r="O103" s="449"/>
+      <c r="P103" s="449"/>
+      <c r="Q103" s="449"/>
+      <c r="R103" s="449"/>
+      <c r="S103" s="449"/>
+      <c r="T103" s="449"/>
+      <c r="U103" s="449"/>
+      <c r="V103" s="449"/>
+      <c r="W103" s="449"/>
+      <c r="X103" s="449"/>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A104" s="320" t="s">
@@ -37454,232 +37695,232 @@
       <c r="V104" s="8"/>
     </row>
     <row r="105" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="442" t="s">
+      <c r="A105" s="450" t="s">
         <v>92</v>
       </c>
-      <c r="B105" s="443"/>
-      <c r="C105" s="443"/>
-      <c r="D105" s="443"/>
-      <c r="E105" s="443"/>
-      <c r="F105" s="444"/>
-      <c r="G105" s="442" t="s">
+      <c r="B105" s="451"/>
+      <c r="C105" s="451"/>
+      <c r="D105" s="451"/>
+      <c r="E105" s="451"/>
+      <c r="F105" s="452"/>
+      <c r="G105" s="450" t="s">
         <v>4</v>
       </c>
-      <c r="H105" s="443"/>
-      <c r="I105" s="444"/>
-      <c r="J105" s="445" t="s">
+      <c r="H105" s="451"/>
+      <c r="I105" s="452"/>
+      <c r="J105" s="453" t="s">
         <v>95</v>
       </c>
-      <c r="K105" s="446"/>
-      <c r="L105" s="446"/>
-      <c r="M105" s="446"/>
-      <c r="N105" s="447"/>
-      <c r="O105" s="442" t="s">
+      <c r="K105" s="454"/>
+      <c r="L105" s="454"/>
+      <c r="M105" s="454"/>
+      <c r="N105" s="455"/>
+      <c r="O105" s="450" t="s">
         <v>1231</v>
       </c>
-      <c r="P105" s="443"/>
-      <c r="Q105" s="443"/>
-      <c r="R105" s="443"/>
-      <c r="S105" s="443"/>
-      <c r="T105" s="444"/>
-      <c r="U105" s="445" t="s">
+      <c r="P105" s="451"/>
+      <c r="Q105" s="451"/>
+      <c r="R105" s="451"/>
+      <c r="S105" s="451"/>
+      <c r="T105" s="452"/>
+      <c r="U105" s="453" t="s">
         <v>1230</v>
       </c>
-      <c r="V105" s="446"/>
-      <c r="W105" s="446"/>
-      <c r="X105" s="447"/>
+      <c r="V105" s="454"/>
+      <c r="W105" s="454"/>
+      <c r="X105" s="455"/>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A106" s="435" t="s">
+      <c r="A106" s="443" t="s">
         <v>1216</v>
       </c>
-      <c r="B106" s="436" t="s">
+      <c r="B106" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="C106" s="436" t="s">
+      <c r="C106" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="D106" s="436" t="s">
+      <c r="D106" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="E106" s="436" t="s">
+      <c r="E106" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="F106" s="437" t="s">
+      <c r="F106" s="445" t="s">
         <v>1216</v>
       </c>
-      <c r="G106" s="435" t="s">
+      <c r="G106" s="443" t="s">
         <v>236</v>
       </c>
-      <c r="H106" s="436" t="s">
+      <c r="H106" s="444" t="s">
         <v>236</v>
       </c>
-      <c r="I106" s="437" t="s">
+      <c r="I106" s="445" t="s">
         <v>236</v>
       </c>
-      <c r="J106" s="438" t="s">
+      <c r="J106" s="446" t="s">
         <v>1317</v>
       </c>
-      <c r="K106" s="439" t="s">
+      <c r="K106" s="447" t="s">
         <v>1209</v>
       </c>
-      <c r="L106" s="439">
+      <c r="L106" s="447">
         <v>43368</v>
       </c>
-      <c r="M106" s="439" t="s">
+      <c r="M106" s="447" t="s">
         <v>1229</v>
       </c>
-      <c r="N106" s="440" t="s">
+      <c r="N106" s="448" t="s">
         <v>1209</v>
       </c>
-      <c r="O106" s="435" t="s">
+      <c r="O106" s="443" t="s">
         <v>1209</v>
       </c>
-      <c r="P106" s="436" t="s">
+      <c r="P106" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="Q106" s="436" t="s">
+      <c r="Q106" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="R106" s="436" t="s">
+      <c r="R106" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="S106" s="436" t="s">
+      <c r="S106" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="T106" s="437" t="s">
+      <c r="T106" s="445" t="s">
         <v>1209</v>
       </c>
-      <c r="U106" s="438">
+      <c r="U106" s="446">
         <v>44795</v>
       </c>
-      <c r="V106" s="439" t="s">
+      <c r="V106" s="447" t="s">
         <v>1229</v>
       </c>
-      <c r="W106" s="439" t="s">
+      <c r="W106" s="447" t="s">
         <v>1209</v>
       </c>
-      <c r="X106" s="440">
+      <c r="X106" s="448">
         <v>43368</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="435" t="s">
+      <c r="A107" s="443" t="s">
         <v>1212</v>
       </c>
-      <c r="B107" s="436"/>
-      <c r="C107" s="436"/>
-      <c r="D107" s="436"/>
-      <c r="E107" s="436"/>
-      <c r="F107" s="437"/>
-      <c r="G107" s="435" t="s">
+      <c r="B107" s="444"/>
+      <c r="C107" s="444"/>
+      <c r="D107" s="444"/>
+      <c r="E107" s="444"/>
+      <c r="F107" s="445"/>
+      <c r="G107" s="443" t="s">
         <v>1211</v>
       </c>
-      <c r="H107" s="436"/>
-      <c r="I107" s="437"/>
-      <c r="J107" s="438" t="s">
+      <c r="H107" s="444"/>
+      <c r="I107" s="445"/>
+      <c r="J107" s="446" t="s">
         <v>1210</v>
       </c>
-      <c r="K107" s="439"/>
-      <c r="L107" s="439"/>
-      <c r="M107" s="439"/>
-      <c r="N107" s="440"/>
-      <c r="O107" s="435" t="s">
+      <c r="K107" s="447"/>
+      <c r="L107" s="447"/>
+      <c r="M107" s="447"/>
+      <c r="N107" s="448"/>
+      <c r="O107" s="443" t="s">
         <v>1209</v>
       </c>
-      <c r="P107" s="436" t="s">
+      <c r="P107" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="Q107" s="436" t="s">
+      <c r="Q107" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="R107" s="436" t="s">
+      <c r="R107" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="S107" s="436" t="s">
+      <c r="S107" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="T107" s="437" t="s">
+      <c r="T107" s="445" t="s">
         <v>1209</v>
       </c>
-      <c r="U107" s="438">
+      <c r="U107" s="446">
         <v>44738</v>
       </c>
-      <c r="V107" s="439"/>
-      <c r="W107" s="439"/>
-      <c r="X107" s="440"/>
+      <c r="V107" s="447"/>
+      <c r="W107" s="447"/>
+      <c r="X107" s="448"/>
     </row>
     <row r="108" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="435" t="s">
+      <c r="A108" s="443" t="s">
         <v>93</v>
       </c>
-      <c r="B108" s="436" t="s">
+      <c r="B108" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="C108" s="436" t="s">
+      <c r="C108" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="D108" s="436" t="s">
+      <c r="D108" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="E108" s="436" t="s">
+      <c r="E108" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="F108" s="437" t="s">
+      <c r="F108" s="445" t="s">
         <v>1216</v>
       </c>
-      <c r="G108" s="435" t="s">
+      <c r="G108" s="443" t="s">
         <v>265</v>
       </c>
-      <c r="H108" s="436" t="s">
+      <c r="H108" s="444" t="s">
         <v>244</v>
       </c>
-      <c r="I108" s="437" t="s">
+      <c r="I108" s="445" t="s">
         <v>244</v>
       </c>
-      <c r="J108" s="438" t="s">
+      <c r="J108" s="446" t="s">
         <v>1316</v>
       </c>
-      <c r="K108" s="439" t="s">
+      <c r="K108" s="447" t="s">
         <v>1213</v>
       </c>
-      <c r="L108" s="439">
+      <c r="L108" s="447">
         <v>43393</v>
       </c>
-      <c r="M108" s="439" t="s">
+      <c r="M108" s="447" t="s">
         <v>1223</v>
       </c>
-      <c r="N108" s="440" t="s">
+      <c r="N108" s="448" t="s">
         <v>1213</v>
       </c>
-      <c r="O108" s="435" t="s">
+      <c r="O108" s="443" t="s">
         <v>1209</v>
       </c>
-      <c r="P108" s="436" t="s">
+      <c r="P108" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="Q108" s="436" t="s">
+      <c r="Q108" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="R108" s="436" t="s">
+      <c r="R108" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="S108" s="436" t="s">
+      <c r="S108" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="T108" s="437" t="s">
+      <c r="T108" s="445" t="s">
         <v>1209</v>
       </c>
-      <c r="U108" s="438">
+      <c r="U108" s="446">
         <v>44696</v>
       </c>
-      <c r="V108" s="439" t="s">
+      <c r="V108" s="447" t="s">
         <v>1223</v>
       </c>
-      <c r="W108" s="439" t="s">
+      <c r="W108" s="447" t="s">
         <v>1213</v>
       </c>
-      <c r="X108" s="440">
+      <c r="X108" s="448">
         <v>43393</v>
       </c>
     </row>
@@ -37793,59 +38034,59 @@
       <c r="X112" s="8"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A113" s="441" t="str">
-        <f>IF([1]Calibración!E10="2",[1]Calibración!BJ6,[1]Calibración!BJ7)</f>
-        <v>La indicación de la presión de referencia y del equipo corresponden al promedio de 4 mediciones en 2 ciclos ascendentes y descendentes.</v>
-      </c>
-      <c r="B113" s="441"/>
-      <c r="C113" s="441"/>
-      <c r="D113" s="441"/>
-      <c r="E113" s="441"/>
-      <c r="F113" s="441"/>
-      <c r="G113" s="441"/>
-      <c r="H113" s="441"/>
-      <c r="I113" s="441"/>
-      <c r="J113" s="441"/>
-      <c r="K113" s="441"/>
-      <c r="L113" s="441"/>
-      <c r="M113" s="441"/>
-      <c r="N113" s="441"/>
-      <c r="O113" s="441"/>
-      <c r="P113" s="441"/>
-      <c r="Q113" s="441"/>
-      <c r="R113" s="441"/>
-      <c r="S113" s="441"/>
-      <c r="T113" s="441"/>
-      <c r="U113" s="441"/>
-      <c r="V113" s="441"/>
-      <c r="W113" s="441"/>
-      <c r="X113" s="441"/>
+      <c r="A113" s="449" t="str">
+        <f>IF(Calibración!E10="2",Calibración!BJ6,Calibración!BJ7)</f>
+        <v>La indicación de la presión de referencia y del equipo corresponden al promedio de 6 mediciones en 3 ciclos ascendentes y descendentes.</v>
+      </c>
+      <c r="B113" s="449"/>
+      <c r="C113" s="449"/>
+      <c r="D113" s="449"/>
+      <c r="E113" s="449"/>
+      <c r="F113" s="449"/>
+      <c r="G113" s="449"/>
+      <c r="H113" s="449"/>
+      <c r="I113" s="449"/>
+      <c r="J113" s="449"/>
+      <c r="K113" s="449"/>
+      <c r="L113" s="449"/>
+      <c r="M113" s="449"/>
+      <c r="N113" s="449"/>
+      <c r="O113" s="449"/>
+      <c r="P113" s="449"/>
+      <c r="Q113" s="449"/>
+      <c r="R113" s="449"/>
+      <c r="S113" s="449"/>
+      <c r="T113" s="449"/>
+      <c r="U113" s="449"/>
+      <c r="V113" s="449"/>
+      <c r="W113" s="449"/>
+      <c r="X113" s="449"/>
     </row>
     <row r="114" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="441"/>
-      <c r="B114" s="441"/>
-      <c r="C114" s="441"/>
-      <c r="D114" s="441"/>
-      <c r="E114" s="441"/>
-      <c r="F114" s="441"/>
-      <c r="G114" s="441"/>
-      <c r="H114" s="441"/>
-      <c r="I114" s="441"/>
-      <c r="J114" s="441"/>
-      <c r="K114" s="441"/>
-      <c r="L114" s="441"/>
-      <c r="M114" s="441"/>
-      <c r="N114" s="441"/>
-      <c r="O114" s="441"/>
-      <c r="P114" s="441"/>
-      <c r="Q114" s="441"/>
-      <c r="R114" s="441"/>
-      <c r="S114" s="441"/>
-      <c r="T114" s="441"/>
-      <c r="U114" s="441"/>
-      <c r="V114" s="441"/>
-      <c r="W114" s="441"/>
-      <c r="X114" s="441"/>
+      <c r="A114" s="449"/>
+      <c r="B114" s="449"/>
+      <c r="C114" s="449"/>
+      <c r="D114" s="449"/>
+      <c r="E114" s="449"/>
+      <c r="F114" s="449"/>
+      <c r="G114" s="449"/>
+      <c r="H114" s="449"/>
+      <c r="I114" s="449"/>
+      <c r="J114" s="449"/>
+      <c r="K114" s="449"/>
+      <c r="L114" s="449"/>
+      <c r="M114" s="449"/>
+      <c r="N114" s="449"/>
+      <c r="O114" s="449"/>
+      <c r="P114" s="449"/>
+      <c r="Q114" s="449"/>
+      <c r="R114" s="449"/>
+      <c r="S114" s="449"/>
+      <c r="T114" s="449"/>
+      <c r="U114" s="449"/>
+      <c r="V114" s="449"/>
+      <c r="W114" s="449"/>
+      <c r="X114" s="449"/>
     </row>
     <row r="115" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="327" t="s">
@@ -37961,7 +38202,7 @@
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="str">
-        <f>IF([1]General!F16=[1]General!W124,[1]General!Y131,IF([1]General!F16=[1]General!W125,[1]General!Y133,IF([1]General!F16=[1]General!W126,[1]General!Y140,IF([1]General!F16=[1]General!W127,[1]General!Y121,IF([1]General!F16=[1]General!W128,[1]General!Y141,IF([1]General!F16=[1]General!W129,[1]General!Y139,IF([1]General!F16=[1]General!W130,[1]General!Y125,IF([1]General!F16=[1]General!W131,[1]General!Y136,IF([1]General!F16=[1]General!W132,[1]General!Y137,IF([1]General!F16=[1]General!W133,[1]General!Y138,IF([1]General!F16=[1]General!W134,[1]General!Y147,IF([1]General!F16=[1]General!W135,[1]General!Y148,IF([1]General!F16=[1]General!W136,[1]General!Y134,IF([1]General!F16=[1]General!W137,[1]General!Y145,IF([1]General!F16=[1]General!W138,[1]General!Y149)))))))))))))))</f>
+        <f>IF(General!F16=General!W124,General!Y131,IF(General!F16=General!W125,General!Y133,IF(General!F16=General!W126,General!Y140,IF(General!F16=General!W127,General!Y121,IF(General!F16=General!W128,General!Y141,IF(General!F16=General!W129,General!Y139,IF(General!F16=General!W130,General!Y125,IF(General!F16=General!W131,General!Y136,IF(General!F16=General!W132,General!Y137,IF(General!F16=General!W133,General!Y138,IF(General!F16=General!W134,General!Y147,IF(General!F16=General!W135,General!Y148,IF(General!F16=General!W136,General!Y134,IF(General!F16=General!W137,General!Y145,IF(General!F16=General!W138,General!Y149,"")))))))))))))))</f>
         <v>El factor de conversión al SI corresponde a 1 psi = 6,894 757 kPa</v>
       </c>
       <c r="B119" s="8"/>
@@ -38124,54 +38365,54 @@
       <c r="Y125" s="8"/>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I126" s="431" t="s">
+      <c r="I126" s="439" t="s">
         <v>28</v>
       </c>
-      <c r="J126" s="431"/>
-      <c r="K126" s="431"/>
-      <c r="L126" s="431"/>
-      <c r="M126" s="431"/>
-      <c r="N126" s="431"/>
-      <c r="O126" s="431"/>
-      <c r="P126" s="431"/>
+      <c r="J126" s="439"/>
+      <c r="K126" s="439"/>
+      <c r="L126" s="439"/>
+      <c r="M126" s="439"/>
+      <c r="N126" s="439"/>
+      <c r="O126" s="439"/>
+      <c r="P126" s="439"/>
       <c r="Y126" s="8"/>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I127" s="432" t="str">
+      <c r="I127" s="440" t="str">
         <f>IF(I126=[6]Generales!$F$1,[6]Generales!$F$6,[6]Generales!$F$5)</f>
         <v>Director Técnico</v>
       </c>
-      <c r="J127" s="432"/>
-      <c r="K127" s="432"/>
-      <c r="L127" s="432"/>
-      <c r="M127" s="432"/>
-      <c r="N127" s="432"/>
-      <c r="O127" s="432"/>
-      <c r="P127" s="432"/>
+      <c r="J127" s="440"/>
+      <c r="K127" s="440"/>
+      <c r="L127" s="440"/>
+      <c r="M127" s="440"/>
+      <c r="N127" s="440"/>
+      <c r="O127" s="440"/>
+      <c r="P127" s="440"/>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I128" s="433" t="s">
+      <c r="I128" s="441" t="s">
         <v>1308</v>
       </c>
-      <c r="J128" s="433"/>
-      <c r="K128" s="433"/>
-      <c r="L128" s="433"/>
-      <c r="M128" s="433"/>
-      <c r="N128" s="433"/>
-      <c r="O128" s="433"/>
-      <c r="P128" s="433"/>
+      <c r="J128" s="441"/>
+      <c r="K128" s="441"/>
+      <c r="L128" s="441"/>
+      <c r="M128" s="441"/>
+      <c r="N128" s="441"/>
+      <c r="O128" s="441"/>
+      <c r="P128" s="441"/>
     </row>
     <row r="129" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I129" s="434" t="s">
+      <c r="I129" s="442" t="s">
         <v>1307</v>
       </c>
-      <c r="J129" s="434"/>
-      <c r="K129" s="434"/>
-      <c r="L129" s="434"/>
-      <c r="M129" s="434"/>
-      <c r="N129" s="434"/>
-      <c r="O129" s="434"/>
-      <c r="P129" s="434"/>
+      <c r="J129" s="442"/>
+      <c r="K129" s="442"/>
+      <c r="L129" s="442"/>
+      <c r="M129" s="442"/>
+      <c r="N129" s="442"/>
+      <c r="O129" s="442"/>
+      <c r="P129" s="442"/>
     </row>
   </sheetData>
   <mergeCells count="144">
@@ -38380,32 +38621,32 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="471" t="s">
+      <c r="A5" s="479" t="s">
         <v>1233</v>
       </c>
-      <c r="B5" s="471"/>
-      <c r="C5" s="471"/>
-      <c r="D5" s="471"/>
-      <c r="E5" s="471"/>
-      <c r="F5" s="471"/>
-      <c r="G5" s="471"/>
-      <c r="H5" s="471"/>
-      <c r="I5" s="471"/>
-      <c r="J5" s="471"/>
-      <c r="K5" s="471"/>
-      <c r="L5" s="471"/>
-      <c r="M5" s="471"/>
-      <c r="N5" s="471"/>
-      <c r="O5" s="471"/>
-      <c r="P5" s="471"/>
-      <c r="Q5" s="471"/>
-      <c r="R5" s="471"/>
-      <c r="S5" s="471"/>
-      <c r="T5" s="471"/>
-      <c r="U5" s="471"/>
-      <c r="V5" s="471"/>
-      <c r="W5" s="471"/>
-      <c r="X5" s="471"/>
+      <c r="B5" s="479"/>
+      <c r="C5" s="479"/>
+      <c r="D5" s="479"/>
+      <c r="E5" s="479"/>
+      <c r="F5" s="479"/>
+      <c r="G5" s="479"/>
+      <c r="H5" s="479"/>
+      <c r="I5" s="479"/>
+      <c r="J5" s="479"/>
+      <c r="K5" s="479"/>
+      <c r="L5" s="479"/>
+      <c r="M5" s="479"/>
+      <c r="N5" s="479"/>
+      <c r="O5" s="479"/>
+      <c r="P5" s="479"/>
+      <c r="Q5" s="479"/>
+      <c r="R5" s="479"/>
+      <c r="S5" s="479"/>
+      <c r="T5" s="479"/>
+      <c r="U5" s="479"/>
+      <c r="V5" s="479"/>
+      <c r="W5" s="479"/>
+      <c r="X5" s="479"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
@@ -38459,718 +38700,718 @@
       <c r="V7" s="8"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="442" t="s">
+      <c r="A8" s="450" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="443"/>
-      <c r="C8" s="443"/>
-      <c r="D8" s="443"/>
-      <c r="E8" s="443"/>
-      <c r="F8" s="444"/>
-      <c r="G8" s="442" t="s">
+      <c r="B8" s="451"/>
+      <c r="C8" s="451"/>
+      <c r="D8" s="451"/>
+      <c r="E8" s="451"/>
+      <c r="F8" s="452"/>
+      <c r="G8" s="450" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="443"/>
-      <c r="I8" s="444"/>
-      <c r="J8" s="445" t="s">
+      <c r="H8" s="451"/>
+      <c r="I8" s="452"/>
+      <c r="J8" s="453" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="446"/>
-      <c r="L8" s="446"/>
-      <c r="M8" s="446"/>
-      <c r="N8" s="447"/>
-      <c r="O8" s="442" t="s">
+      <c r="K8" s="454"/>
+      <c r="L8" s="454"/>
+      <c r="M8" s="454"/>
+      <c r="N8" s="455"/>
+      <c r="O8" s="450" t="s">
         <v>1231</v>
       </c>
-      <c r="P8" s="443"/>
-      <c r="Q8" s="443"/>
-      <c r="R8" s="443"/>
-      <c r="S8" s="443"/>
-      <c r="T8" s="444"/>
-      <c r="U8" s="445" t="s">
+      <c r="P8" s="451"/>
+      <c r="Q8" s="451"/>
+      <c r="R8" s="451"/>
+      <c r="S8" s="451"/>
+      <c r="T8" s="452"/>
+      <c r="U8" s="453" t="s">
         <v>1230</v>
       </c>
-      <c r="V8" s="446"/>
-      <c r="W8" s="446"/>
-      <c r="X8" s="447"/>
+      <c r="V8" s="454"/>
+      <c r="W8" s="454"/>
+      <c r="X8" s="455"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="435" t="s">
+      <c r="A9" s="443" t="s">
         <v>1216</v>
       </c>
-      <c r="B9" s="436" t="s">
+      <c r="B9" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="C9" s="436" t="s">
+      <c r="C9" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="D9" s="436" t="s">
+      <c r="D9" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="E9" s="436" t="s">
+      <c r="E9" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="F9" s="437" t="s">
+      <c r="F9" s="445" t="s">
         <v>1216</v>
       </c>
-      <c r="G9" s="435" t="s">
+      <c r="G9" s="443" t="s">
         <v>236</v>
       </c>
-      <c r="H9" s="436" t="s">
+      <c r="H9" s="444" t="s">
         <v>236</v>
       </c>
-      <c r="I9" s="437" t="s">
+      <c r="I9" s="445" t="s">
         <v>236</v>
       </c>
-      <c r="J9" s="438" t="str">
+      <c r="J9" s="446" t="str">
         <f>'BD Patron'!W15</f>
         <v>SCM-00039462</v>
       </c>
-      <c r="K9" s="439" t="s">
+      <c r="K9" s="447" t="s">
         <v>1209</v>
       </c>
-      <c r="L9" s="439">
+      <c r="L9" s="447">
         <v>43368</v>
       </c>
-      <c r="M9" s="439" t="s">
+      <c r="M9" s="447" t="s">
         <v>1229</v>
       </c>
-      <c r="N9" s="440" t="s">
+      <c r="N9" s="448" t="s">
         <v>1209</v>
       </c>
-      <c r="O9" s="435" t="s">
+      <c r="O9" s="443" t="s">
         <v>1209</v>
       </c>
-      <c r="P9" s="436" t="s">
+      <c r="P9" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="Q9" s="436" t="s">
+      <c r="Q9" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="R9" s="436" t="s">
+      <c r="R9" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="S9" s="436" t="s">
+      <c r="S9" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="T9" s="437" t="s">
+      <c r="T9" s="445" t="s">
         <v>1209</v>
       </c>
-      <c r="U9" s="438">
+      <c r="U9" s="446">
         <f>'BD Patron'!U15+1096</f>
         <v>45926</v>
       </c>
-      <c r="V9" s="439" t="s">
+      <c r="V9" s="447" t="s">
         <v>1229</v>
       </c>
-      <c r="W9" s="439" t="s">
+      <c r="W9" s="447" t="s">
         <v>1209</v>
       </c>
-      <c r="X9" s="440">
+      <c r="X9" s="448">
         <v>43368</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="435" t="s">
+      <c r="A10" s="443" t="s">
         <v>1216</v>
       </c>
-      <c r="B10" s="436" t="s">
+      <c r="B10" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="C10" s="436" t="s">
+      <c r="C10" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="D10" s="436" t="s">
+      <c r="D10" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="E10" s="436" t="s">
+      <c r="E10" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="F10" s="437" t="s">
+      <c r="F10" s="445" t="s">
         <v>1216</v>
       </c>
-      <c r="G10" s="435" t="s">
+      <c r="G10" s="443" t="s">
         <v>243</v>
       </c>
-      <c r="H10" s="436" t="s">
+      <c r="H10" s="444" t="s">
         <v>243</v>
       </c>
-      <c r="I10" s="437" t="s">
+      <c r="I10" s="445" t="s">
         <v>243</v>
       </c>
-      <c r="J10" s="438" t="str">
+      <c r="J10" s="446" t="str">
         <f>'BD Patron'!W16</f>
         <v>SCM-00039463</v>
       </c>
-      <c r="K10" s="439" t="s">
+      <c r="K10" s="447" t="s">
         <v>1209</v>
       </c>
-      <c r="L10" s="439">
+      <c r="L10" s="447">
         <v>43369</v>
       </c>
-      <c r="M10" s="439" t="s">
+      <c r="M10" s="447" t="s">
         <v>1228</v>
       </c>
-      <c r="N10" s="440" t="s">
+      <c r="N10" s="448" t="s">
         <v>1209</v>
       </c>
-      <c r="O10" s="435" t="s">
+      <c r="O10" s="443" t="s">
         <v>1209</v>
       </c>
-      <c r="P10" s="436" t="s">
+      <c r="P10" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="Q10" s="436" t="s">
+      <c r="Q10" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="R10" s="436" t="s">
+      <c r="R10" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="S10" s="436" t="s">
+      <c r="S10" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="T10" s="437" t="s">
+      <c r="T10" s="445" t="s">
         <v>1209</v>
       </c>
-      <c r="U10" s="438">
+      <c r="U10" s="446">
         <f>'BD Patron'!U16+365</f>
         <v>45195</v>
       </c>
-      <c r="V10" s="439" t="s">
+      <c r="V10" s="447" t="s">
         <v>1228</v>
       </c>
-      <c r="W10" s="439" t="s">
+      <c r="W10" s="447" t="s">
         <v>1209</v>
       </c>
-      <c r="X10" s="440">
+      <c r="X10" s="448">
         <v>43369</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="435" t="s">
+      <c r="A11" s="443" t="s">
         <v>253</v>
       </c>
-      <c r="B11" s="436" t="s">
+      <c r="B11" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="C11" s="436" t="s">
+      <c r="C11" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="D11" s="436" t="s">
+      <c r="D11" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="E11" s="436" t="s">
+      <c r="E11" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="F11" s="437" t="s">
+      <c r="F11" s="445" t="s">
         <v>1216</v>
       </c>
-      <c r="G11" s="435" t="s">
+      <c r="G11" s="443" t="s">
         <v>244</v>
       </c>
-      <c r="H11" s="436" t="s">
+      <c r="H11" s="444" t="s">
         <v>244</v>
       </c>
-      <c r="I11" s="437" t="s">
+      <c r="I11" s="445" t="s">
         <v>244</v>
       </c>
-      <c r="J11" s="438" t="s">
+      <c r="J11" s="446" t="s">
         <v>358</v>
       </c>
-      <c r="K11" s="439" t="s">
+      <c r="K11" s="447" t="s">
         <v>1213</v>
       </c>
-      <c r="L11" s="439">
+      <c r="L11" s="447">
         <v>43392</v>
       </c>
-      <c r="M11" s="439" t="s">
+      <c r="M11" s="447" t="s">
         <v>1227</v>
       </c>
-      <c r="N11" s="440" t="s">
+      <c r="N11" s="448" t="s">
         <v>1213</v>
       </c>
-      <c r="O11" s="435" t="s">
+      <c r="O11" s="443" t="s">
         <v>1213</v>
       </c>
-      <c r="P11" s="436" t="s">
+      <c r="P11" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="Q11" s="436" t="s">
+      <c r="Q11" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="R11" s="436" t="s">
+      <c r="R11" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="S11" s="436" t="s">
+      <c r="S11" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="T11" s="437" t="s">
+      <c r="T11" s="445" t="s">
         <v>1213</v>
       </c>
-      <c r="U11" s="438">
+      <c r="U11" s="446">
         <v>44083</v>
       </c>
-      <c r="V11" s="439" t="s">
+      <c r="V11" s="447" t="s">
         <v>1227</v>
       </c>
-      <c r="W11" s="439" t="s">
+      <c r="W11" s="447" t="s">
         <v>1213</v>
       </c>
-      <c r="X11" s="440">
+      <c r="X11" s="448">
         <v>43392</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="435" t="s">
+      <c r="A12" s="443" t="s">
         <v>1226</v>
       </c>
-      <c r="B12" s="436" t="s">
+      <c r="B12" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="C12" s="436" t="s">
+      <c r="C12" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="D12" s="436" t="s">
+      <c r="D12" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="E12" s="436" t="s">
+      <c r="E12" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="F12" s="437" t="s">
+      <c r="F12" s="445" t="s">
         <v>1216</v>
       </c>
-      <c r="G12" s="435" t="s">
+      <c r="G12" s="443" t="s">
         <v>1225</v>
       </c>
-      <c r="H12" s="436" t="s">
+      <c r="H12" s="444" t="s">
         <v>244</v>
       </c>
-      <c r="I12" s="437" t="s">
+      <c r="I12" s="445" t="s">
         <v>244</v>
       </c>
-      <c r="J12" s="438" t="s">
+      <c r="J12" s="446" t="s">
         <v>1224</v>
       </c>
-      <c r="K12" s="439" t="s">
+      <c r="K12" s="447" t="s">
         <v>1213</v>
       </c>
-      <c r="L12" s="439">
+      <c r="L12" s="447">
         <v>43393</v>
       </c>
-      <c r="M12" s="439" t="s">
+      <c r="M12" s="447" t="s">
         <v>1223</v>
       </c>
-      <c r="N12" s="440" t="s">
+      <c r="N12" s="448" t="s">
         <v>1213</v>
       </c>
-      <c r="O12" s="435" t="s">
+      <c r="O12" s="443" t="s">
         <v>1213</v>
       </c>
-      <c r="P12" s="436" t="s">
+      <c r="P12" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="Q12" s="436" t="s">
+      <c r="Q12" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="R12" s="436" t="s">
+      <c r="R12" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="S12" s="436" t="s">
+      <c r="S12" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="T12" s="437" t="s">
+      <c r="T12" s="445" t="s">
         <v>1213</v>
       </c>
-      <c r="U12" s="438">
+      <c r="U12" s="446">
         <v>44542</v>
       </c>
-      <c r="V12" s="439" t="s">
+      <c r="V12" s="447" t="s">
         <v>1223</v>
       </c>
-      <c r="W12" s="439" t="s">
+      <c r="W12" s="447" t="s">
         <v>1213</v>
       </c>
-      <c r="X12" s="440">
+      <c r="X12" s="448">
         <v>43393</v>
       </c>
     </row>
     <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="435" t="s">
+      <c r="A13" s="443" t="s">
         <v>1219</v>
       </c>
-      <c r="B13" s="436"/>
-      <c r="C13" s="436"/>
-      <c r="D13" s="436"/>
-      <c r="E13" s="436"/>
-      <c r="F13" s="437"/>
-      <c r="G13" s="435" t="s">
+      <c r="B13" s="444"/>
+      <c r="C13" s="444"/>
+      <c r="D13" s="444"/>
+      <c r="E13" s="444"/>
+      <c r="F13" s="445"/>
+      <c r="G13" s="443" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="436" t="s">
+      <c r="H13" s="444" t="s">
         <v>244</v>
       </c>
-      <c r="I13" s="437" t="s">
+      <c r="I13" s="445" t="s">
         <v>244</v>
       </c>
-      <c r="J13" s="438" t="s">
+      <c r="J13" s="446" t="s">
         <v>1222</v>
       </c>
-      <c r="K13" s="439" t="s">
+      <c r="K13" s="447" t="s">
         <v>1213</v>
       </c>
-      <c r="L13" s="439">
+      <c r="L13" s="447">
         <v>43394</v>
       </c>
-      <c r="M13" s="439" t="s">
+      <c r="M13" s="447" t="s">
         <v>1214</v>
       </c>
-      <c r="N13" s="440" t="s">
+      <c r="N13" s="448" t="s">
         <v>1213</v>
       </c>
-      <c r="O13" s="435" t="s">
+      <c r="O13" s="443" t="s">
         <v>1213</v>
       </c>
-      <c r="P13" s="436" t="s">
+      <c r="P13" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="Q13" s="436" t="s">
+      <c r="Q13" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="R13" s="436" t="s">
+      <c r="R13" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="S13" s="436" t="s">
+      <c r="S13" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="T13" s="437" t="s">
+      <c r="T13" s="445" t="s">
         <v>1213</v>
       </c>
-      <c r="U13" s="438">
+      <c r="U13" s="446">
         <v>44158</v>
       </c>
-      <c r="V13" s="439" t="s">
+      <c r="V13" s="447" t="s">
         <v>1214</v>
       </c>
-      <c r="W13" s="439" t="s">
+      <c r="W13" s="447" t="s">
         <v>1213</v>
       </c>
-      <c r="X13" s="440">
+      <c r="X13" s="448">
         <v>43394</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="435" t="s">
+      <c r="A14" s="443" t="s">
         <v>1219</v>
       </c>
-      <c r="B14" s="436"/>
-      <c r="C14" s="436"/>
-      <c r="D14" s="436"/>
-      <c r="E14" s="436"/>
-      <c r="F14" s="437"/>
-      <c r="G14" s="435" t="s">
+      <c r="B14" s="444"/>
+      <c r="C14" s="444"/>
+      <c r="D14" s="444"/>
+      <c r="E14" s="444"/>
+      <c r="F14" s="445"/>
+      <c r="G14" s="443" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="436" t="s">
+      <c r="H14" s="444" t="s">
         <v>244</v>
       </c>
-      <c r="I14" s="437" t="s">
+      <c r="I14" s="445" t="s">
         <v>244</v>
       </c>
-      <c r="J14" s="438" t="s">
+      <c r="J14" s="446" t="s">
         <v>1221</v>
       </c>
-      <c r="K14" s="439" t="s">
+      <c r="K14" s="447" t="s">
         <v>1213</v>
       </c>
-      <c r="L14" s="439">
+      <c r="L14" s="447">
         <v>43394</v>
       </c>
-      <c r="M14" s="439" t="s">
+      <c r="M14" s="447" t="s">
         <v>1214</v>
       </c>
-      <c r="N14" s="440" t="s">
+      <c r="N14" s="448" t="s">
         <v>1213</v>
       </c>
-      <c r="O14" s="435" t="s">
+      <c r="O14" s="443" t="s">
         <v>1213</v>
       </c>
-      <c r="P14" s="436" t="s">
+      <c r="P14" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="Q14" s="436" t="s">
+      <c r="Q14" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="R14" s="436" t="s">
+      <c r="R14" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="S14" s="436" t="s">
+      <c r="S14" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="T14" s="437" t="s">
+      <c r="T14" s="445" t="s">
         <v>1213</v>
       </c>
-      <c r="U14" s="438">
+      <c r="U14" s="446">
         <f>'BD Patron'!L7+365</f>
         <v>45204</v>
       </c>
-      <c r="V14" s="439" t="s">
+      <c r="V14" s="447" t="s">
         <v>1214</v>
       </c>
-      <c r="W14" s="439" t="s">
+      <c r="W14" s="447" t="s">
         <v>1213</v>
       </c>
-      <c r="X14" s="440">
+      <c r="X14" s="448">
         <v>43394</v>
       </c>
     </row>
     <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="435" t="s">
+      <c r="A15" s="443" t="s">
         <v>1219</v>
       </c>
-      <c r="B15" s="436"/>
-      <c r="C15" s="436"/>
-      <c r="D15" s="436"/>
-      <c r="E15" s="436"/>
-      <c r="F15" s="437"/>
-      <c r="G15" s="435" t="s">
+      <c r="B15" s="444"/>
+      <c r="C15" s="444"/>
+      <c r="D15" s="444"/>
+      <c r="E15" s="444"/>
+      <c r="F15" s="445"/>
+      <c r="G15" s="443" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="436" t="s">
+      <c r="H15" s="444" t="s">
         <v>244</v>
       </c>
-      <c r="I15" s="437" t="s">
+      <c r="I15" s="445" t="s">
         <v>244</v>
       </c>
-      <c r="J15" s="438" t="s">
+      <c r="J15" s="446" t="s">
         <v>1220</v>
       </c>
-      <c r="K15" s="439" t="s">
+      <c r="K15" s="447" t="s">
         <v>1213</v>
       </c>
-      <c r="L15" s="439">
+      <c r="L15" s="447">
         <v>43394</v>
       </c>
-      <c r="M15" s="439" t="s">
+      <c r="M15" s="447" t="s">
         <v>1214</v>
       </c>
-      <c r="N15" s="440" t="s">
+      <c r="N15" s="448" t="s">
         <v>1213</v>
       </c>
-      <c r="O15" s="435" t="s">
+      <c r="O15" s="443" t="s">
         <v>1213</v>
       </c>
-      <c r="P15" s="436" t="s">
+      <c r="P15" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="Q15" s="436" t="s">
+      <c r="Q15" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="R15" s="436" t="s">
+      <c r="R15" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="S15" s="436" t="s">
+      <c r="S15" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="T15" s="437" t="s">
+      <c r="T15" s="445" t="s">
         <v>1213</v>
       </c>
-      <c r="U15" s="438">
+      <c r="U15" s="446">
         <v>44331</v>
       </c>
-      <c r="V15" s="439" t="s">
+      <c r="V15" s="447" t="s">
         <v>1214</v>
       </c>
-      <c r="W15" s="439" t="s">
+      <c r="W15" s="447" t="s">
         <v>1213</v>
       </c>
-      <c r="X15" s="440">
+      <c r="X15" s="448">
         <v>43394</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="435" t="s">
+      <c r="A16" s="443" t="s">
         <v>1219</v>
       </c>
-      <c r="B16" s="436"/>
-      <c r="C16" s="436"/>
-      <c r="D16" s="436"/>
-      <c r="E16" s="436"/>
-      <c r="F16" s="437"/>
-      <c r="G16" s="435" t="s">
+      <c r="B16" s="444"/>
+      <c r="C16" s="444"/>
+      <c r="D16" s="444"/>
+      <c r="E16" s="444"/>
+      <c r="F16" s="445"/>
+      <c r="G16" s="443" t="s">
         <v>265</v>
       </c>
-      <c r="H16" s="436" t="s">
+      <c r="H16" s="444" t="s">
         <v>244</v>
       </c>
-      <c r="I16" s="437" t="s">
+      <c r="I16" s="445" t="s">
         <v>244</v>
       </c>
-      <c r="J16" s="438" t="s">
+      <c r="J16" s="446" t="s">
         <v>1218</v>
       </c>
-      <c r="K16" s="439" t="s">
+      <c r="K16" s="447" t="s">
         <v>1213</v>
       </c>
-      <c r="L16" s="439">
+      <c r="L16" s="447">
         <v>43394</v>
       </c>
-      <c r="M16" s="439" t="s">
+      <c r="M16" s="447" t="s">
         <v>1214</v>
       </c>
-      <c r="N16" s="440" t="s">
+      <c r="N16" s="448" t="s">
         <v>1213</v>
       </c>
-      <c r="O16" s="435" t="s">
+      <c r="O16" s="443" t="s">
         <v>1213</v>
       </c>
-      <c r="P16" s="436" t="s">
+      <c r="P16" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="Q16" s="436" t="s">
+      <c r="Q16" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="R16" s="436" t="s">
+      <c r="R16" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="S16" s="436" t="s">
+      <c r="S16" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="T16" s="437" t="s">
+      <c r="T16" s="445" t="s">
         <v>1213</v>
       </c>
-      <c r="U16" s="438">
+      <c r="U16" s="446">
         <f>'BD Patron'!L9+365</f>
         <v>45204</v>
       </c>
-      <c r="V16" s="439" t="s">
+      <c r="V16" s="447" t="s">
         <v>1214</v>
       </c>
-      <c r="W16" s="439" t="s">
+      <c r="W16" s="447" t="s">
         <v>1213</v>
       </c>
-      <c r="X16" s="440">
+      <c r="X16" s="448">
         <v>43394</v>
       </c>
     </row>
     <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="435" t="s">
+      <c r="A17" s="443" t="s">
         <v>1217</v>
       </c>
-      <c r="B17" s="436" t="s">
+      <c r="B17" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="C17" s="436" t="s">
+      <c r="C17" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="D17" s="436" t="s">
+      <c r="D17" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="E17" s="436" t="s">
+      <c r="E17" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="F17" s="437" t="s">
+      <c r="F17" s="445" t="s">
         <v>1216</v>
       </c>
-      <c r="G17" s="435" t="s">
+      <c r="G17" s="443" t="s">
         <v>347</v>
       </c>
-      <c r="H17" s="436" t="s">
+      <c r="H17" s="444" t="s">
         <v>244</v>
       </c>
-      <c r="I17" s="437" t="s">
+      <c r="I17" s="445" t="s">
         <v>244</v>
       </c>
-      <c r="J17" s="438" t="s">
+      <c r="J17" s="446" t="s">
         <v>1215</v>
       </c>
-      <c r="K17" s="439" t="s">
+      <c r="K17" s="447" t="s">
         <v>1213</v>
       </c>
-      <c r="L17" s="439">
+      <c r="L17" s="447">
         <v>43394</v>
       </c>
-      <c r="M17" s="439" t="s">
+      <c r="M17" s="447" t="s">
         <v>1214</v>
       </c>
-      <c r="N17" s="440" t="s">
+      <c r="N17" s="448" t="s">
         <v>1213</v>
       </c>
-      <c r="O17" s="435" t="s">
+      <c r="O17" s="443" t="s">
         <v>1213</v>
       </c>
-      <c r="P17" s="436" t="s">
+      <c r="P17" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="Q17" s="436" t="s">
+      <c r="Q17" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="R17" s="436" t="s">
+      <c r="R17" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="S17" s="436" t="s">
+      <c r="S17" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="T17" s="437" t="s">
+      <c r="T17" s="445" t="s">
         <v>1213</v>
       </c>
-      <c r="U17" s="438">
+      <c r="U17" s="446">
         <v>44879</v>
       </c>
-      <c r="V17" s="439" t="s">
+      <c r="V17" s="447" t="s">
         <v>1214</v>
       </c>
-      <c r="W17" s="439" t="s">
+      <c r="W17" s="447" t="s">
         <v>1213</v>
       </c>
-      <c r="X17" s="440">
+      <c r="X17" s="448">
         <v>43394</v>
       </c>
     </row>
     <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="435" t="s">
+      <c r="A18" s="443" t="s">
         <v>1212</v>
       </c>
-      <c r="B18" s="436"/>
-      <c r="C18" s="436"/>
-      <c r="D18" s="436"/>
-      <c r="E18" s="436"/>
-      <c r="F18" s="437"/>
-      <c r="G18" s="435" t="s">
+      <c r="B18" s="444"/>
+      <c r="C18" s="444"/>
+      <c r="D18" s="444"/>
+      <c r="E18" s="444"/>
+      <c r="F18" s="445"/>
+      <c r="G18" s="443" t="s">
         <v>1211</v>
       </c>
-      <c r="H18" s="436"/>
-      <c r="I18" s="437"/>
-      <c r="J18" s="438" t="s">
+      <c r="H18" s="444"/>
+      <c r="I18" s="445"/>
+      <c r="J18" s="446" t="s">
         <v>1210</v>
       </c>
-      <c r="K18" s="439"/>
-      <c r="L18" s="439"/>
-      <c r="M18" s="439"/>
-      <c r="N18" s="440"/>
-      <c r="O18" s="435" t="s">
+      <c r="K18" s="447"/>
+      <c r="L18" s="447"/>
+      <c r="M18" s="447"/>
+      <c r="N18" s="448"/>
+      <c r="O18" s="443" t="s">
         <v>1209</v>
       </c>
-      <c r="P18" s="436" t="s">
+      <c r="P18" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="Q18" s="436" t="s">
+      <c r="Q18" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="R18" s="436" t="s">
+      <c r="R18" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="S18" s="436" t="s">
+      <c r="S18" s="444" t="s">
         <v>1209</v>
       </c>
-      <c r="T18" s="437" t="s">
+      <c r="T18" s="445" t="s">
         <v>1209</v>
       </c>
-      <c r="U18" s="438">
+      <c r="U18" s="446">
         <v>44738</v>
       </c>
-      <c r="V18" s="439"/>
-      <c r="W18" s="439"/>
-      <c r="X18" s="440"/>
+      <c r="V18" s="447"/>
+      <c r="W18" s="447"/>
+      <c r="X18" s="448"/>
     </row>
   </sheetData>
   <mergeCells count="56">

--- a/src/modules/mail/templates/excels/ni_mcit_p_01.xlsx
+++ b/src/modules/mail/templates/excels/ni_mcit_p_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MamaGuevooooo\Desktop\Regxi\Metrocal-admin-backend\src\modules\mail\templates\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E9396A-4BF2-4704-A107-AE517F8DD813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8300FA6E-6404-428E-A8B4-824C74B05C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="887" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="887" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="2" r:id="rId1"/>
@@ -8691,6 +8691,28 @@
     <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -8980,28 +9002,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -22920,10 +22920,10 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="N10" s="326" t="s">
+      <c r="N10" s="334" t="s">
         <v>742</v>
       </c>
-      <c r="O10" s="327"/>
+      <c r="O10" s="335"/>
       <c r="P10" s="271" t="str">
         <f>IFERROR(AVERAGE(P3,P5,P7),"")</f>
         <v/>
@@ -22953,10 +22953,10 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="N11" s="328" t="s">
+      <c r="N11" s="336" t="s">
         <v>743</v>
       </c>
-      <c r="O11" s="329"/>
+      <c r="O11" s="337"/>
       <c r="P11" s="273" t="str">
         <f>IFERROR(AVERAGE(P4,P6,P8),"")</f>
         <v/>
@@ -23181,265 +23181,265 @@
       </c>
     </row>
     <row r="123" spans="23:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Y123" s="330" t="s">
+      <c r="Y123" s="338" t="s">
         <v>744</v>
       </c>
-      <c r="Z123" s="331"/>
-      <c r="AA123" s="331"/>
-      <c r="AB123" s="332"/>
+      <c r="Z123" s="339"/>
+      <c r="AA123" s="339"/>
+      <c r="AB123" s="340"/>
     </row>
     <row r="124" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W124" s="202" t="s">
         <v>544</v>
       </c>
-      <c r="Y124" s="333" t="s">
+      <c r="Y124" s="341" t="s">
         <v>745</v>
       </c>
-      <c r="Z124" s="334"/>
-      <c r="AA124" s="334"/>
-      <c r="AB124" s="335"/>
+      <c r="Z124" s="342"/>
+      <c r="AA124" s="342"/>
+      <c r="AB124" s="343"/>
     </row>
     <row r="125" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W125" s="202" t="s">
         <v>543</v>
       </c>
-      <c r="Y125" s="320" t="s">
+      <c r="Y125" s="328" t="s">
         <v>782</v>
       </c>
-      <c r="Z125" s="321"/>
-      <c r="AA125" s="321"/>
-      <c r="AB125" s="322"/>
+      <c r="Z125" s="329"/>
+      <c r="AA125" s="329"/>
+      <c r="AB125" s="330"/>
     </row>
     <row r="126" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W126" s="202" t="s">
         <v>545</v>
       </c>
-      <c r="Y126" s="320" t="s">
+      <c r="Y126" s="328" t="s">
         <v>747</v>
       </c>
-      <c r="Z126" s="321"/>
-      <c r="AA126" s="321"/>
-      <c r="AB126" s="322"/>
+      <c r="Z126" s="329"/>
+      <c r="AA126" s="329"/>
+      <c r="AB126" s="330"/>
     </row>
     <row r="127" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W127" s="202" t="s">
         <v>609</v>
       </c>
-      <c r="Y127" s="320" t="s">
+      <c r="Y127" s="328" t="s">
         <v>748</v>
       </c>
-      <c r="Z127" s="321"/>
-      <c r="AA127" s="321"/>
-      <c r="AB127" s="322"/>
+      <c r="Z127" s="329"/>
+      <c r="AA127" s="329"/>
+      <c r="AB127" s="330"/>
     </row>
     <row r="128" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W128" s="202" t="s">
         <v>546</v>
       </c>
-      <c r="Y128" s="320" t="s">
+      <c r="Y128" s="328" t="s">
         <v>749</v>
       </c>
-      <c r="Z128" s="321"/>
-      <c r="AA128" s="321"/>
-      <c r="AB128" s="322"/>
+      <c r="Z128" s="329"/>
+      <c r="AA128" s="329"/>
+      <c r="AB128" s="330"/>
     </row>
     <row r="129" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W129" s="202" t="s">
         <v>769</v>
       </c>
-      <c r="Y129" s="320" t="s">
+      <c r="Y129" s="328" t="s">
         <v>750</v>
       </c>
-      <c r="Z129" s="321"/>
-      <c r="AA129" s="321"/>
-      <c r="AB129" s="322"/>
+      <c r="Z129" s="329"/>
+      <c r="AA129" s="329"/>
+      <c r="AB129" s="330"/>
     </row>
     <row r="130" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W130" s="202" t="s">
         <v>773</v>
       </c>
-      <c r="Y130" s="320" t="s">
+      <c r="Y130" s="328" t="s">
         <v>751</v>
       </c>
-      <c r="Z130" s="321"/>
-      <c r="AA130" s="321"/>
-      <c r="AB130" s="322"/>
+      <c r="Z130" s="329"/>
+      <c r="AA130" s="329"/>
+      <c r="AB130" s="330"/>
     </row>
     <row r="131" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W131" s="202" t="s">
         <v>623</v>
       </c>
-      <c r="Y131" s="320" t="s">
+      <c r="Y131" s="328" t="s">
         <v>752</v>
       </c>
-      <c r="Z131" s="321"/>
-      <c r="AA131" s="321"/>
-      <c r="AB131" s="322"/>
+      <c r="Z131" s="329"/>
+      <c r="AA131" s="329"/>
+      <c r="AB131" s="330"/>
     </row>
     <row r="132" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W132" s="202" t="s">
         <v>624</v>
       </c>
-      <c r="Y132" s="320" t="s">
+      <c r="Y132" s="328" t="s">
         <v>753</v>
       </c>
-      <c r="Z132" s="321"/>
-      <c r="AA132" s="321"/>
-      <c r="AB132" s="322"/>
+      <c r="Z132" s="329"/>
+      <c r="AA132" s="329"/>
+      <c r="AB132" s="330"/>
     </row>
     <row r="133" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W133" s="202" t="s">
         <v>625</v>
       </c>
-      <c r="Y133" s="320" t="s">
+      <c r="Y133" s="328" t="s">
         <v>754</v>
       </c>
-      <c r="Z133" s="321"/>
-      <c r="AA133" s="321"/>
-      <c r="AB133" s="322"/>
+      <c r="Z133" s="329"/>
+      <c r="AA133" s="329"/>
+      <c r="AB133" s="330"/>
     </row>
     <row r="134" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W134" s="202" t="s">
         <v>774</v>
       </c>
-      <c r="Y134" s="320" t="s">
+      <c r="Y134" s="328" t="s">
         <v>777</v>
       </c>
-      <c r="Z134" s="321"/>
-      <c r="AA134" s="321"/>
-      <c r="AB134" s="322"/>
+      <c r="Z134" s="329"/>
+      <c r="AA134" s="329"/>
+      <c r="AB134" s="330"/>
     </row>
     <row r="135" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W135" s="202" t="s">
         <v>775</v>
       </c>
-      <c r="Y135" s="320" t="s">
+      <c r="Y135" s="328" t="s">
         <v>778</v>
       </c>
-      <c r="Z135" s="321"/>
-      <c r="AA135" s="321"/>
-      <c r="AB135" s="322"/>
+      <c r="Z135" s="329"/>
+      <c r="AA135" s="329"/>
+      <c r="AB135" s="330"/>
     </row>
     <row r="136" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W136" s="202" t="s">
         <v>776</v>
       </c>
-      <c r="Y136" s="320" t="s">
+      <c r="Y136" s="328" t="s">
         <v>757</v>
       </c>
-      <c r="Z136" s="321"/>
-      <c r="AA136" s="321"/>
-      <c r="AB136" s="322"/>
+      <c r="Z136" s="329"/>
+      <c r="AA136" s="329"/>
+      <c r="AB136" s="330"/>
     </row>
     <row r="137" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W137" s="202" t="s">
         <v>622</v>
       </c>
-      <c r="Y137" s="320" t="s">
+      <c r="Y137" s="328" t="s">
         <v>758</v>
       </c>
-      <c r="Z137" s="321"/>
-      <c r="AA137" s="321"/>
-      <c r="AB137" s="322"/>
+      <c r="Z137" s="329"/>
+      <c r="AA137" s="329"/>
+      <c r="AB137" s="330"/>
     </row>
     <row r="138" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W138" s="202" t="s">
         <v>783</v>
       </c>
-      <c r="Y138" s="320" t="s">
+      <c r="Y138" s="328" t="s">
         <v>784</v>
       </c>
-      <c r="Z138" s="321"/>
-      <c r="AA138" s="321"/>
-      <c r="AB138" s="322"/>
+      <c r="Z138" s="329"/>
+      <c r="AA138" s="329"/>
+      <c r="AB138" s="330"/>
     </row>
     <row r="139" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y139" s="320" t="s">
+      <c r="Y139" s="328" t="s">
         <v>760</v>
       </c>
-      <c r="Z139" s="321"/>
-      <c r="AA139" s="321"/>
-      <c r="AB139" s="322"/>
+      <c r="Z139" s="329"/>
+      <c r="AA139" s="329"/>
+      <c r="AB139" s="330"/>
     </row>
     <row r="140" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y140" s="320" t="s">
+      <c r="Y140" s="328" t="s">
         <v>761</v>
       </c>
-      <c r="Z140" s="321"/>
-      <c r="AA140" s="321"/>
-      <c r="AB140" s="322"/>
+      <c r="Z140" s="329"/>
+      <c r="AA140" s="329"/>
+      <c r="AB140" s="330"/>
     </row>
     <row r="141" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y141" s="320" t="s">
+      <c r="Y141" s="328" t="s">
         <v>762</v>
       </c>
-      <c r="Z141" s="321"/>
-      <c r="AA141" s="321"/>
-      <c r="AB141" s="322"/>
+      <c r="Z141" s="329"/>
+      <c r="AA141" s="329"/>
+      <c r="AB141" s="330"/>
     </row>
     <row r="142" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y142" s="320" t="s">
+      <c r="Y142" s="328" t="s">
         <v>779</v>
       </c>
-      <c r="Z142" s="321"/>
-      <c r="AA142" s="321"/>
-      <c r="AB142" s="322"/>
+      <c r="Z142" s="329"/>
+      <c r="AA142" s="329"/>
+      <c r="AB142" s="330"/>
     </row>
     <row r="143" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y143" s="320" t="s">
+      <c r="Y143" s="328" t="s">
         <v>764</v>
       </c>
-      <c r="Z143" s="321"/>
-      <c r="AA143" s="321"/>
-      <c r="AB143" s="322"/>
+      <c r="Z143" s="329"/>
+      <c r="AA143" s="329"/>
+      <c r="AB143" s="330"/>
     </row>
     <row r="144" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y144" s="320" t="s">
+      <c r="Y144" s="328" t="s">
         <v>765</v>
       </c>
-      <c r="Z144" s="321"/>
-      <c r="AA144" s="321"/>
-      <c r="AB144" s="322"/>
+      <c r="Z144" s="329"/>
+      <c r="AA144" s="329"/>
+      <c r="AB144" s="330"/>
     </row>
     <row r="145" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y145" s="320" t="s">
+      <c r="Y145" s="328" t="s">
         <v>766</v>
       </c>
-      <c r="Z145" s="321"/>
-      <c r="AA145" s="321"/>
-      <c r="AB145" s="322"/>
+      <c r="Z145" s="329"/>
+      <c r="AA145" s="329"/>
+      <c r="AB145" s="330"/>
     </row>
     <row r="146" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y146" s="320" t="s">
+      <c r="Y146" s="328" t="s">
         <v>767</v>
       </c>
-      <c r="Z146" s="321"/>
-      <c r="AA146" s="321"/>
-      <c r="AB146" s="322"/>
+      <c r="Z146" s="329"/>
+      <c r="AA146" s="329"/>
+      <c r="AB146" s="330"/>
     </row>
     <row r="147" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y147" s="320" t="s">
+      <c r="Y147" s="328" t="s">
         <v>780</v>
       </c>
-      <c r="Z147" s="321"/>
-      <c r="AA147" s="321"/>
-      <c r="AB147" s="322"/>
+      <c r="Z147" s="329"/>
+      <c r="AA147" s="329"/>
+      <c r="AB147" s="330"/>
     </row>
     <row r="148" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y148" s="320" t="s">
+      <c r="Y148" s="328" t="s">
         <v>781</v>
       </c>
-      <c r="Z148" s="321"/>
-      <c r="AA148" s="321"/>
-      <c r="AB148" s="322"/>
+      <c r="Z148" s="329"/>
+      <c r="AA148" s="329"/>
+      <c r="AB148" s="330"/>
     </row>
     <row r="149" spans="25:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Y149" s="323" t="s">
+      <c r="Y149" s="331" t="s">
         <v>785</v>
       </c>
-      <c r="Z149" s="324"/>
-      <c r="AA149" s="324"/>
-      <c r="AB149" s="325"/>
+      <c r="Z149" s="332"/>
+      <c r="AA149" s="332"/>
+      <c r="AB149" s="333"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -23530,18 +23530,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="414" t="s">
+      <c r="A2" s="422" t="s">
         <v>362</v>
       </c>
-      <c r="B2" s="414"/>
-      <c r="C2" s="414"/>
+      <c r="B2" s="422"/>
+      <c r="C2" s="422"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="415" t="s">
+      <c r="B3" s="423" t="s">
         <v>361</v>
       </c>
-      <c r="C3" s="415"/>
+      <c r="C3" s="423"/>
     </row>
     <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
@@ -28684,7 +28684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:BJ129"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -29511,24 +29511,24 @@
       <c r="AV11" s="27"/>
     </row>
     <row r="12" spans="2:62" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C12" s="337" t="s">
+      <c r="C12" s="345" t="s">
         <v>587</v>
       </c>
-      <c r="D12" s="337"/>
-      <c r="E12" s="337"/>
-      <c r="F12" s="337"/>
-      <c r="G12" s="337" t="s">
+      <c r="D12" s="345"/>
+      <c r="E12" s="345"/>
+      <c r="F12" s="345"/>
+      <c r="G12" s="345" t="s">
         <v>586</v>
       </c>
-      <c r="H12" s="337"/>
-      <c r="I12" s="337"/>
-      <c r="J12" s="337"/>
-      <c r="K12" s="337" t="s">
+      <c r="H12" s="345"/>
+      <c r="I12" s="345"/>
+      <c r="J12" s="345"/>
+      <c r="K12" s="345" t="s">
         <v>588</v>
       </c>
-      <c r="L12" s="337"/>
-      <c r="M12" s="337"/>
-      <c r="N12" s="337"/>
+      <c r="L12" s="345"/>
+      <c r="M12" s="345"/>
+      <c r="N12" s="345"/>
       <c r="AE12" s="30"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
@@ -29552,30 +29552,30 @@
       <c r="B13" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="336" t="s">
+      <c r="C13" s="344" t="s">
         <v>589</v>
       </c>
-      <c r="D13" s="336"/>
-      <c r="E13" s="336" t="s">
+      <c r="D13" s="344"/>
+      <c r="E13" s="344" t="s">
         <v>590</v>
       </c>
-      <c r="F13" s="336"/>
-      <c r="G13" s="336" t="s">
+      <c r="F13" s="344"/>
+      <c r="G13" s="344" t="s">
         <v>591</v>
       </c>
-      <c r="H13" s="336"/>
-      <c r="I13" s="336" t="s">
+      <c r="H13" s="344"/>
+      <c r="I13" s="344" t="s">
         <v>592</v>
       </c>
-      <c r="J13" s="336"/>
-      <c r="K13" s="336" t="s">
+      <c r="J13" s="344"/>
+      <c r="K13" s="344" t="s">
         <v>593</v>
       </c>
-      <c r="L13" s="336"/>
-      <c r="M13" s="336" t="s">
+      <c r="L13" s="344"/>
+      <c r="M13" s="344" t="s">
         <v>594</v>
       </c>
-      <c r="N13" s="336"/>
+      <c r="N13" s="344"/>
       <c r="S13" s="17" t="str">
         <f>CONCATENATE("Todo en [",unidad,"]")</f>
         <v>Todo en [atm]</v>
@@ -34055,7 +34055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -34089,17 +34089,17 @@
       <c r="N2" s="92"/>
       <c r="O2" s="92"/>
       <c r="P2" s="92"/>
-      <c r="U2" s="341" t="s">
+      <c r="U2" s="349" t="s">
         <v>635</v>
       </c>
-      <c r="V2" s="341"/>
-      <c r="W2" s="341"/>
-      <c r="X2" s="341"/>
-      <c r="Y2" s="341"/>
-      <c r="Z2" s="341"/>
-      <c r="AA2" s="341"/>
-      <c r="AB2" s="341"/>
-      <c r="AC2" s="341"/>
+      <c r="V2" s="349"/>
+      <c r="W2" s="349"/>
+      <c r="X2" s="349"/>
+      <c r="Y2" s="349"/>
+      <c r="Z2" s="349"/>
+      <c r="AA2" s="349"/>
+      <c r="AB2" s="349"/>
+      <c r="AC2" s="349"/>
       <c r="AD2" s="297" t="s">
         <v>545</v>
       </c>
@@ -34238,21 +34238,21 @@
       <c r="E5" s="75">
         <v>30</v>
       </c>
-      <c r="U5" s="341" t="s">
+      <c r="U5" s="349" t="s">
         <v>635</v>
       </c>
-      <c r="V5" s="341"/>
-      <c r="W5" s="341"/>
-      <c r="X5" s="341"/>
-      <c r="Y5" s="341"/>
-      <c r="Z5" s="341"/>
-      <c r="AA5" s="341"/>
-      <c r="AB5" s="341"/>
-      <c r="AC5" s="342" t="str">
+      <c r="V5" s="349"/>
+      <c r="W5" s="349"/>
+      <c r="X5" s="349"/>
+      <c r="Y5" s="349"/>
+      <c r="Z5" s="349"/>
+      <c r="AA5" s="349"/>
+      <c r="AB5" s="349"/>
+      <c r="AC5" s="350" t="str">
         <f>CONCATENATE("Todo en [",unidad,"]")</f>
         <v>Todo en [atm]</v>
       </c>
-      <c r="AD5" s="342"/>
+      <c r="AD5" s="350"/>
       <c r="AG5" s="301" t="s">
         <v>545</v>
       </c>
@@ -34391,34 +34391,34 @@
       <c r="F8" s="49" t="s">
         <v>451</v>
       </c>
-      <c r="G8" s="419" t="s">
+      <c r="G8" s="323" t="s">
         <v>456</v>
       </c>
-      <c r="H8" s="419" t="s">
+      <c r="H8" s="323" t="s">
         <v>457</v>
       </c>
-      <c r="I8" s="419" t="s">
+      <c r="I8" s="323" t="s">
         <v>458</v>
       </c>
-      <c r="J8" s="419" t="s">
+      <c r="J8" s="323" t="s">
         <v>459</v>
       </c>
-      <c r="K8" s="419" t="s">
+      <c r="K8" s="323" t="s">
         <v>460</v>
       </c>
-      <c r="L8" s="419" t="s">
+      <c r="L8" s="323" t="s">
         <v>461</v>
       </c>
-      <c r="M8" s="419" t="s">
+      <c r="M8" s="323" t="s">
         <v>462</v>
       </c>
-      <c r="N8" s="419" t="s">
+      <c r="N8" s="323" t="s">
         <v>463</v>
       </c>
-      <c r="O8" s="419" t="s">
+      <c r="O8" s="323" t="s">
         <v>464</v>
       </c>
-      <c r="P8" s="419" t="s">
+      <c r="P8" s="323" t="s">
         <v>465</v>
       </c>
       <c r="AG8" s="301" t="s">
@@ -34433,7 +34433,7 @@
       </c>
     </row>
     <row r="9" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B9" s="416" t="s">
+      <c r="B9" s="320" t="s">
         <v>427</v>
       </c>
       <c r="C9" s="55" t="s">
@@ -34501,7 +34501,7 @@
       </c>
     </row>
     <row r="10" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B10" s="416" t="s">
+      <c r="B10" s="320" t="s">
         <v>443</v>
       </c>
       <c r="C10" s="55" t="s">
@@ -34568,7 +34568,7 @@
       </c>
     </row>
     <row r="11" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B11" s="416" t="s">
+      <c r="B11" s="320" t="s">
         <v>452</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -34636,7 +34636,7 @@
       </c>
     </row>
     <row r="12" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B12" s="416" t="s">
+      <c r="B12" s="320" t="s">
         <v>428</v>
       </c>
       <c r="C12" s="55" t="s">
@@ -34704,7 +34704,7 @@
       </c>
     </row>
     <row r="13" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B13" s="416" t="s">
+      <c r="B13" s="320" t="s">
         <v>634</v>
       </c>
       <c r="C13" s="55" t="s">
@@ -34772,7 +34772,7 @@
       </c>
     </row>
     <row r="14" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B14" s="417" t="s">
+      <c r="B14" s="321" t="s">
         <v>635</v>
       </c>
       <c r="C14" s="203" t="s">
@@ -34839,7 +34839,7 @@
       </c>
     </row>
     <row r="15" spans="2:35" ht="15" x14ac:dyDescent="0.3">
-      <c r="B15" s="416" t="s">
+      <c r="B15" s="320" t="s">
         <v>426</v>
       </c>
       <c r="C15" s="55" t="s">
@@ -34907,7 +34907,7 @@
       </c>
     </row>
     <row r="16" spans="2:35" ht="15" x14ac:dyDescent="0.3">
-      <c r="B16" s="416" t="s">
+      <c r="B16" s="320" t="s">
         <v>425</v>
       </c>
       <c r="C16" s="55" t="s">
@@ -34975,7 +34975,7 @@
       </c>
     </row>
     <row r="17" spans="2:35" ht="15" x14ac:dyDescent="0.3">
-      <c r="B17" s="418" t="s">
+      <c r="B17" s="322" t="s">
         <v>655</v>
       </c>
       <c r="C17" s="55" t="s">
@@ -35043,7 +35043,7 @@
       </c>
     </row>
     <row r="18" spans="2:35" ht="15" x14ac:dyDescent="0.3">
-      <c r="B18" s="417" t="s">
+      <c r="B18" s="321" t="s">
         <v>657</v>
       </c>
       <c r="C18" s="55" t="s">
@@ -35101,20 +35101,20 @@
       </c>
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B19" s="416" t="s">
+      <c r="B19" s="320" t="s">
         <v>466</v>
       </c>
-      <c r="C19" s="420" t="s">
+      <c r="C19" s="324" t="s">
         <v>513</v>
       </c>
-      <c r="D19" s="421" t="s">
+      <c r="D19" s="325" t="s">
         <v>514</v>
       </c>
-      <c r="E19" s="422" t="str">
+      <c r="E19" s="326" t="str">
         <f>CONCATENATE("Todo en [psi]")</f>
         <v>Todo en [psi]</v>
       </c>
-      <c r="F19" s="423"/>
+      <c r="F19" s="327"/>
       <c r="G19" s="102">
         <f t="shared" ref="G19:P19" ca="1" si="2">SQRT(SUMSQ(G9:G18))</f>
         <v>0</v>
@@ -36385,30 +36385,30 @@
       </c>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C68" s="338" t="s">
+      <c r="C68" s="346" t="s">
         <v>1115</v>
       </c>
-      <c r="D68" s="339"/>
-      <c r="E68" s="339"/>
-      <c r="F68" s="339"/>
-      <c r="G68" s="339"/>
-      <c r="H68" s="339"/>
-      <c r="I68" s="339"/>
-      <c r="J68" s="339"/>
-      <c r="K68" s="339"/>
-      <c r="L68" s="339"/>
-      <c r="M68" s="339"/>
-      <c r="N68" s="339"/>
-      <c r="O68" s="339"/>
-      <c r="P68" s="339"/>
-      <c r="Q68" s="339"/>
-      <c r="R68" s="339"/>
-      <c r="S68" s="339"/>
-      <c r="T68" s="339"/>
-      <c r="U68" s="339"/>
-      <c r="V68" s="339"/>
-      <c r="W68" s="339"/>
-      <c r="X68" s="340"/>
+      <c r="D68" s="347"/>
+      <c r="E68" s="347"/>
+      <c r="F68" s="347"/>
+      <c r="G68" s="347"/>
+      <c r="H68" s="347"/>
+      <c r="I68" s="347"/>
+      <c r="J68" s="347"/>
+      <c r="K68" s="347"/>
+      <c r="L68" s="347"/>
+      <c r="M68" s="347"/>
+      <c r="N68" s="347"/>
+      <c r="O68" s="347"/>
+      <c r="P68" s="347"/>
+      <c r="Q68" s="347"/>
+      <c r="R68" s="347"/>
+      <c r="S68" s="347"/>
+      <c r="T68" s="347"/>
+      <c r="U68" s="347"/>
+      <c r="V68" s="347"/>
+      <c r="W68" s="347"/>
+      <c r="X68" s="348"/>
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C69" s="296" t="s">
@@ -36664,8 +36664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A6:Y129"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="B21" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28:Q28"/>
+    <sheetView view="pageLayout" topLeftCell="A5" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R84" sqref="R84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36711,20 +36711,20 @@
       <c r="K8" s="227"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="351" t="str">
+      <c r="N8" s="359" t="str">
         <f>General!F3</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O8" s="352"/>
-      <c r="P8" s="352"/>
-      <c r="Q8" s="352"/>
-      <c r="R8" s="352"/>
-      <c r="S8" s="352"/>
-      <c r="T8" s="352"/>
-      <c r="U8" s="352"/>
-      <c r="V8" s="352"/>
-      <c r="W8" s="352"/>
-      <c r="X8" s="352"/>
+      <c r="O8" s="360"/>
+      <c r="P8" s="360"/>
+      <c r="Q8" s="360"/>
+      <c r="R8" s="360"/>
+      <c r="S8" s="360"/>
+      <c r="T8" s="360"/>
+      <c r="U8" s="360"/>
+      <c r="V8" s="360"/>
+      <c r="W8" s="360"/>
+      <c r="X8" s="360"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="224" t="s">
@@ -36741,20 +36741,20 @@
       <c r="K9" s="227"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="353" t="str">
+      <c r="N9" s="361" t="str">
         <f>General!F4</f>
         <v>NI-CS-XXXX-XX</v>
       </c>
-      <c r="O9" s="354"/>
-      <c r="P9" s="354"/>
-      <c r="Q9" s="354"/>
-      <c r="R9" s="354"/>
-      <c r="S9" s="354"/>
-      <c r="T9" s="354"/>
-      <c r="U9" s="354"/>
-      <c r="V9" s="354"/>
-      <c r="W9" s="354"/>
-      <c r="X9" s="354"/>
+      <c r="O9" s="362"/>
+      <c r="P9" s="362"/>
+      <c r="Q9" s="362"/>
+      <c r="R9" s="362"/>
+      <c r="S9" s="362"/>
+      <c r="T9" s="362"/>
+      <c r="U9" s="362"/>
+      <c r="V9" s="362"/>
+      <c r="W9" s="362"/>
+      <c r="X9" s="362"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="224" t="s">
@@ -36771,20 +36771,20 @@
       <c r="K10" s="227"/>
       <c r="L10" s="228"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="355" t="str">
+      <c r="N10" s="363" t="str">
         <f>General!F5</f>
         <v>2019-03-06</v>
       </c>
-      <c r="O10" s="355"/>
-      <c r="P10" s="355"/>
-      <c r="Q10" s="355"/>
-      <c r="R10" s="355"/>
-      <c r="S10" s="355"/>
-      <c r="T10" s="355"/>
-      <c r="U10" s="355"/>
-      <c r="V10" s="355"/>
-      <c r="W10" s="355"/>
-      <c r="X10" s="355"/>
+      <c r="O10" s="363"/>
+      <c r="P10" s="363"/>
+      <c r="Q10" s="363"/>
+      <c r="R10" s="363"/>
+      <c r="S10" s="363"/>
+      <c r="T10" s="363"/>
+      <c r="U10" s="363"/>
+      <c r="V10" s="363"/>
+      <c r="W10" s="363"/>
+      <c r="X10" s="363"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="224" t="s">
@@ -36801,13 +36801,13 @@
       <c r="K11" s="227"/>
       <c r="L11" s="228"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="355">
+      <c r="N11" s="363">
         <f ca="1">NOW()</f>
-        <v>45483.455977546299</v>
-      </c>
-      <c r="O11" s="355"/>
-      <c r="P11" s="355"/>
-      <c r="Q11" s="355"/>
+        <v>45489.709634606479</v>
+      </c>
+      <c r="O11" s="363"/>
+      <c r="P11" s="363"/>
+      <c r="Q11" s="363"/>
       <c r="R11" s="295"/>
       <c r="S11" s="295"/>
       <c r="T11" s="295"/>
@@ -36831,20 +36831,20 @@
       <c r="K12" s="227"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="353" t="str">
+      <c r="N12" s="361" t="str">
         <f>General!F7</f>
         <v xml:space="preserve">Manómetro </v>
       </c>
-      <c r="O12" s="354"/>
-      <c r="P12" s="354"/>
-      <c r="Q12" s="354"/>
-      <c r="R12" s="354"/>
-      <c r="S12" s="354"/>
-      <c r="T12" s="354"/>
-      <c r="U12" s="354"/>
-      <c r="V12" s="354"/>
-      <c r="W12" s="354"/>
-      <c r="X12" s="354"/>
+      <c r="O12" s="362"/>
+      <c r="P12" s="362"/>
+      <c r="Q12" s="362"/>
+      <c r="R12" s="362"/>
+      <c r="S12" s="362"/>
+      <c r="T12" s="362"/>
+      <c r="U12" s="362"/>
+      <c r="V12" s="362"/>
+      <c r="W12" s="362"/>
+      <c r="X12" s="362"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="224" t="s">
@@ -36861,20 +36861,20 @@
       <c r="K13" s="227"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="353" t="str">
+      <c r="N13" s="361" t="str">
         <f>General!F10</f>
         <v>Wika</v>
       </c>
-      <c r="O13" s="354"/>
-      <c r="P13" s="354"/>
-      <c r="Q13" s="354"/>
-      <c r="R13" s="354"/>
-      <c r="S13" s="354"/>
-      <c r="T13" s="354"/>
-      <c r="U13" s="354"/>
-      <c r="V13" s="354"/>
-      <c r="W13" s="354"/>
-      <c r="X13" s="354"/>
+      <c r="O13" s="362"/>
+      <c r="P13" s="362"/>
+      <c r="Q13" s="362"/>
+      <c r="R13" s="362"/>
+      <c r="S13" s="362"/>
+      <c r="T13" s="362"/>
+      <c r="U13" s="362"/>
+      <c r="V13" s="362"/>
+      <c r="W13" s="362"/>
+      <c r="X13" s="362"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="224" t="s">
@@ -36891,20 +36891,20 @@
       <c r="K14" s="227"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="353" t="str">
+      <c r="N14" s="361" t="str">
         <f>General!F12</f>
         <v>90271482-1-19</v>
       </c>
-      <c r="O14" s="354"/>
-      <c r="P14" s="354"/>
-      <c r="Q14" s="354"/>
-      <c r="R14" s="354"/>
-      <c r="S14" s="354"/>
-      <c r="T14" s="354"/>
-      <c r="U14" s="354"/>
-      <c r="V14" s="354"/>
-      <c r="W14" s="354"/>
-      <c r="X14" s="354"/>
+      <c r="O14" s="362"/>
+      <c r="P14" s="362"/>
+      <c r="Q14" s="362"/>
+      <c r="R14" s="362"/>
+      <c r="S14" s="362"/>
+      <c r="T14" s="362"/>
+      <c r="U14" s="362"/>
+      <c r="V14" s="362"/>
+      <c r="W14" s="362"/>
+      <c r="X14" s="362"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="224" t="s">
@@ -36921,20 +36921,20 @@
       <c r="K15" s="227"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="353" t="str">
+      <c r="N15" s="361" t="str">
         <f>General!F11</f>
         <v>No Aplica (N/A)</v>
       </c>
-      <c r="O15" s="354"/>
-      <c r="P15" s="354"/>
-      <c r="Q15" s="354"/>
-      <c r="R15" s="354"/>
-      <c r="S15" s="354"/>
-      <c r="T15" s="354"/>
-      <c r="U15" s="354"/>
-      <c r="V15" s="354"/>
-      <c r="W15" s="354"/>
-      <c r="X15" s="354"/>
+      <c r="O15" s="362"/>
+      <c r="P15" s="362"/>
+      <c r="Q15" s="362"/>
+      <c r="R15" s="362"/>
+      <c r="S15" s="362"/>
+      <c r="T15" s="362"/>
+      <c r="U15" s="362"/>
+      <c r="V15" s="362"/>
+      <c r="W15" s="362"/>
+      <c r="X15" s="362"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="224" t="s">
@@ -36951,20 +36951,20 @@
       <c r="K16" s="227"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="353" t="str">
+      <c r="N16" s="361" t="str">
         <f>General!F18</f>
         <v>0 kgf/cm² a 16 kgf/cm²</v>
       </c>
-      <c r="O16" s="354"/>
-      <c r="P16" s="354"/>
-      <c r="Q16" s="354"/>
-      <c r="R16" s="354"/>
-      <c r="S16" s="354"/>
-      <c r="T16" s="354"/>
-      <c r="U16" s="354"/>
-      <c r="V16" s="354"/>
-      <c r="W16" s="354"/>
-      <c r="X16" s="354"/>
+      <c r="O16" s="362"/>
+      <c r="P16" s="362"/>
+      <c r="Q16" s="362"/>
+      <c r="R16" s="362"/>
+      <c r="S16" s="362"/>
+      <c r="T16" s="362"/>
+      <c r="U16" s="362"/>
+      <c r="V16" s="362"/>
+      <c r="W16" s="362"/>
+      <c r="X16" s="362"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="224" t="s">
@@ -36981,16 +36981,16 @@
       <c r="K17" s="227"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="353" t="str">
+      <c r="N17" s="361" t="str">
         <f>General!F15</f>
         <v>0,5</v>
       </c>
-      <c r="O17" s="354"/>
-      <c r="P17" s="353" t="str">
+      <c r="O17" s="362"/>
+      <c r="P17" s="361" t="str">
         <f>General!F16</f>
         <v>atm</v>
       </c>
-      <c r="Q17" s="354"/>
+      <c r="Q17" s="362"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -37014,20 +37014,20 @@
       <c r="K18" s="227"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="353" t="str">
+      <c r="N18" s="361" t="str">
         <f>General!F6</f>
         <v>MAN-A04</v>
       </c>
-      <c r="O18" s="354"/>
-      <c r="P18" s="354"/>
-      <c r="Q18" s="354"/>
-      <c r="R18" s="354"/>
-      <c r="S18" s="354"/>
-      <c r="T18" s="354"/>
-      <c r="U18" s="354"/>
-      <c r="V18" s="354"/>
-      <c r="W18" s="354"/>
-      <c r="X18" s="354"/>
+      <c r="O18" s="362"/>
+      <c r="P18" s="362"/>
+      <c r="Q18" s="362"/>
+      <c r="R18" s="362"/>
+      <c r="S18" s="362"/>
+      <c r="T18" s="362"/>
+      <c r="U18" s="362"/>
+      <c r="V18" s="362"/>
+      <c r="W18" s="362"/>
+      <c r="X18" s="362"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="224" t="s">
@@ -37044,20 +37044,20 @@
       <c r="K19" s="227"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="353" t="str">
+      <c r="N19" s="361" t="str">
         <f>General!L3</f>
         <v>Mechnikov, S.A.</v>
       </c>
-      <c r="O19" s="354"/>
-      <c r="P19" s="354"/>
-      <c r="Q19" s="354"/>
-      <c r="R19" s="354"/>
-      <c r="S19" s="354"/>
-      <c r="T19" s="354"/>
-      <c r="U19" s="354"/>
-      <c r="V19" s="354"/>
-      <c r="W19" s="354"/>
-      <c r="X19" s="354"/>
+      <c r="O19" s="362"/>
+      <c r="P19" s="362"/>
+      <c r="Q19" s="362"/>
+      <c r="R19" s="362"/>
+      <c r="S19" s="362"/>
+      <c r="T19" s="362"/>
+      <c r="U19" s="362"/>
+      <c r="V19" s="362"/>
+      <c r="W19" s="362"/>
+      <c r="X19" s="362"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
@@ -37074,20 +37074,20 @@
       <c r="K20" s="227"/>
       <c r="L20" s="11"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="354" t="str">
+      <c r="N20" s="362" t="str">
         <f>General!L4</f>
         <v/>
       </c>
-      <c r="O20" s="354"/>
-      <c r="P20" s="354"/>
-      <c r="Q20" s="354"/>
-      <c r="R20" s="354"/>
-      <c r="S20" s="354"/>
-      <c r="T20" s="354"/>
-      <c r="U20" s="354"/>
-      <c r="V20" s="354"/>
-      <c r="W20" s="354"/>
-      <c r="X20" s="354"/>
+      <c r="O20" s="362"/>
+      <c r="P20" s="362"/>
+      <c r="Q20" s="362"/>
+      <c r="R20" s="362"/>
+      <c r="S20" s="362"/>
+      <c r="T20" s="362"/>
+      <c r="U20" s="362"/>
+      <c r="V20" s="362"/>
+      <c r="W20" s="362"/>
+      <c r="X20" s="362"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="224" t="s">
@@ -37104,34 +37104,34 @@
       <c r="K21" s="227"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="356" t="str">
+      <c r="N21" s="364" t="str">
         <f>General!L6</f>
         <v>Laboratorio #2, Metrocal</v>
       </c>
-      <c r="O21" s="356"/>
-      <c r="P21" s="356"/>
-      <c r="Q21" s="356"/>
-      <c r="R21" s="356"/>
-      <c r="S21" s="356"/>
-      <c r="T21" s="356"/>
-      <c r="U21" s="356"/>
-      <c r="V21" s="356"/>
-      <c r="W21" s="356"/>
-      <c r="X21" s="356"/>
+      <c r="O21" s="364"/>
+      <c r="P21" s="364"/>
+      <c r="Q21" s="364"/>
+      <c r="R21" s="364"/>
+      <c r="S21" s="364"/>
+      <c r="T21" s="364"/>
+      <c r="U21" s="364"/>
+      <c r="V21" s="364"/>
+      <c r="W21" s="364"/>
+      <c r="X21" s="364"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="224"/>
-      <c r="N22" s="356"/>
-      <c r="O22" s="356"/>
-      <c r="P22" s="356"/>
-      <c r="Q22" s="356"/>
-      <c r="R22" s="356"/>
-      <c r="S22" s="356"/>
-      <c r="T22" s="356"/>
-      <c r="U22" s="356"/>
-      <c r="V22" s="356"/>
-      <c r="W22" s="356"/>
-      <c r="X22" s="356"/>
+      <c r="N22" s="364"/>
+      <c r="O22" s="364"/>
+      <c r="P22" s="364"/>
+      <c r="Q22" s="364"/>
+      <c r="R22" s="364"/>
+      <c r="S22" s="364"/>
+      <c r="T22" s="364"/>
+      <c r="U22" s="364"/>
+      <c r="V22" s="364"/>
+      <c r="W22" s="364"/>
+      <c r="X22" s="364"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="224" t="s">
@@ -37146,493 +37146,493 @@
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="357" t="s">
+      <c r="D24" s="365" t="s">
         <v>363</v>
       </c>
-      <c r="E24" s="357"/>
-      <c r="F24" s="357"/>
-      <c r="G24" s="357"/>
-      <c r="H24" s="357"/>
-      <c r="I24" s="357"/>
-      <c r="J24" s="357"/>
-      <c r="K24" s="357"/>
-      <c r="L24" s="357"/>
-      <c r="M24" s="357"/>
-      <c r="N24" s="357"/>
-      <c r="O24" s="357"/>
-      <c r="P24" s="357"/>
-      <c r="Q24" s="357"/>
-      <c r="R24" s="357"/>
-      <c r="S24" s="357"/>
-      <c r="T24" s="357"/>
-      <c r="U24" s="357"/>
-      <c r="V24" s="357"/>
-      <c r="W24" s="357"/>
+      <c r="E24" s="365"/>
+      <c r="F24" s="365"/>
+      <c r="G24" s="365"/>
+      <c r="H24" s="365"/>
+      <c r="I24" s="365"/>
+      <c r="J24" s="365"/>
+      <c r="K24" s="365"/>
+      <c r="L24" s="365"/>
+      <c r="M24" s="365"/>
+      <c r="N24" s="365"/>
+      <c r="O24" s="365"/>
+      <c r="P24" s="365"/>
+      <c r="Q24" s="365"/>
+      <c r="R24" s="365"/>
+      <c r="S24" s="365"/>
+      <c r="T24" s="365"/>
+      <c r="U24" s="365"/>
+      <c r="V24" s="365"/>
+      <c r="W24" s="365"/>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="358" t="s">
+      <c r="D25" s="366" t="s">
         <v>631</v>
       </c>
-      <c r="E25" s="358"/>
-      <c r="F25" s="359" t="s">
+      <c r="E25" s="366"/>
+      <c r="F25" s="367" t="s">
         <v>696</v>
       </c>
-      <c r="G25" s="359"/>
-      <c r="H25" s="359"/>
-      <c r="I25" s="359"/>
-      <c r="J25" s="359"/>
-      <c r="K25" s="359"/>
-      <c r="L25" s="359" t="s">
+      <c r="G25" s="367"/>
+      <c r="H25" s="367"/>
+      <c r="I25" s="367"/>
+      <c r="J25" s="367"/>
+      <c r="K25" s="367"/>
+      <c r="L25" s="367" t="s">
         <v>364</v>
       </c>
-      <c r="M25" s="359"/>
-      <c r="N25" s="359"/>
-      <c r="O25" s="359"/>
-      <c r="P25" s="359"/>
-      <c r="Q25" s="359"/>
-      <c r="R25" s="358" t="s">
+      <c r="M25" s="367"/>
+      <c r="N25" s="367"/>
+      <c r="O25" s="367"/>
+      <c r="P25" s="367"/>
+      <c r="Q25" s="367"/>
+      <c r="R25" s="366" t="s">
         <v>697</v>
       </c>
-      <c r="S25" s="358"/>
-      <c r="T25" s="358"/>
-      <c r="U25" s="358"/>
-      <c r="V25" s="358"/>
-      <c r="W25" s="358"/>
+      <c r="S25" s="366"/>
+      <c r="T25" s="366"/>
+      <c r="U25" s="366"/>
+      <c r="V25" s="366"/>
+      <c r="W25" s="366"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="358"/>
-      <c r="E26" s="358"/>
-      <c r="F26" s="359"/>
-      <c r="G26" s="359"/>
-      <c r="H26" s="359"/>
-      <c r="I26" s="359"/>
-      <c r="J26" s="359"/>
-      <c r="K26" s="359"/>
-      <c r="L26" s="359"/>
-      <c r="M26" s="359"/>
-      <c r="N26" s="359"/>
-      <c r="O26" s="359"/>
-      <c r="P26" s="359"/>
-      <c r="Q26" s="359"/>
-      <c r="R26" s="358"/>
-      <c r="S26" s="358"/>
-      <c r="T26" s="358"/>
-      <c r="U26" s="358"/>
-      <c r="V26" s="358"/>
-      <c r="W26" s="358"/>
+      <c r="D26" s="366"/>
+      <c r="E26" s="366"/>
+      <c r="F26" s="367"/>
+      <c r="G26" s="367"/>
+      <c r="H26" s="367"/>
+      <c r="I26" s="367"/>
+      <c r="J26" s="367"/>
+      <c r="K26" s="367"/>
+      <c r="L26" s="367"/>
+      <c r="M26" s="367"/>
+      <c r="N26" s="367"/>
+      <c r="O26" s="367"/>
+      <c r="P26" s="367"/>
+      <c r="Q26" s="367"/>
+      <c r="R26" s="366"/>
+      <c r="S26" s="366"/>
+      <c r="T26" s="366"/>
+      <c r="U26" s="366"/>
+      <c r="V26" s="366"/>
+      <c r="W26" s="366"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="360" t="str">
+      <c r="D27" s="368" t="str">
         <f>Calibración!C37</f>
         <v>atm</v>
       </c>
-      <c r="E27" s="360"/>
-      <c r="F27" s="361" t="str">
+      <c r="E27" s="368"/>
+      <c r="F27" s="369" t="str">
         <f>Calibración!D37</f>
         <v>atm</v>
       </c>
-      <c r="G27" s="362"/>
-      <c r="H27" s="362"/>
-      <c r="I27" s="362"/>
-      <c r="J27" s="362"/>
-      <c r="K27" s="363"/>
-      <c r="L27" s="361" t="str">
+      <c r="G27" s="370"/>
+      <c r="H27" s="370"/>
+      <c r="I27" s="370"/>
+      <c r="J27" s="370"/>
+      <c r="K27" s="371"/>
+      <c r="L27" s="369" t="str">
         <f>Calibración!E37</f>
         <v>atm</v>
       </c>
-      <c r="M27" s="362"/>
-      <c r="N27" s="362"/>
-      <c r="O27" s="362"/>
-      <c r="P27" s="362"/>
-      <c r="Q27" s="363"/>
-      <c r="R27" s="361" t="str">
+      <c r="M27" s="370"/>
+      <c r="N27" s="370"/>
+      <c r="O27" s="370"/>
+      <c r="P27" s="370"/>
+      <c r="Q27" s="371"/>
+      <c r="R27" s="369" t="str">
         <f>Calibración!F37</f>
         <v>atm</v>
       </c>
-      <c r="S27" s="362"/>
-      <c r="T27" s="362"/>
-      <c r="U27" s="362"/>
-      <c r="V27" s="362"/>
-      <c r="W27" s="363"/>
+      <c r="S27" s="370"/>
+      <c r="T27" s="370"/>
+      <c r="U27" s="370"/>
+      <c r="V27" s="370"/>
+      <c r="W27" s="371"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="346" t="str">
+      <c r="D28" s="354" t="str">
         <f ca="1">Calibración!C38</f>
         <v/>
       </c>
-      <c r="E28" s="346"/>
-      <c r="F28" s="343" t="str">
+      <c r="E28" s="354"/>
+      <c r="F28" s="351" t="str">
         <f ca="1">Calibración!D38</f>
         <v/>
       </c>
-      <c r="G28" s="344"/>
-      <c r="H28" s="344"/>
-      <c r="I28" s="344"/>
-      <c r="J28" s="344"/>
-      <c r="K28" s="345"/>
-      <c r="L28" s="343" t="str">
+      <c r="G28" s="352"/>
+      <c r="H28" s="352"/>
+      <c r="I28" s="352"/>
+      <c r="J28" s="352"/>
+      <c r="K28" s="353"/>
+      <c r="L28" s="351" t="str">
         <f ca="1">Calibración!E38</f>
         <v/>
       </c>
-      <c r="M28" s="344"/>
-      <c r="N28" s="344"/>
-      <c r="O28" s="344"/>
-      <c r="P28" s="344"/>
-      <c r="Q28" s="345"/>
-      <c r="R28" s="343" t="str">
+      <c r="M28" s="352"/>
+      <c r="N28" s="352"/>
+      <c r="O28" s="352"/>
+      <c r="P28" s="352"/>
+      <c r="Q28" s="353"/>
+      <c r="R28" s="351" t="str">
         <f ca="1">Calibración!F38</f>
         <v/>
       </c>
-      <c r="S28" s="344"/>
-      <c r="T28" s="344"/>
-      <c r="U28" s="344"/>
-      <c r="V28" s="344"/>
-      <c r="W28" s="345"/>
+      <c r="S28" s="352"/>
+      <c r="T28" s="352"/>
+      <c r="U28" s="352"/>
+      <c r="V28" s="352"/>
+      <c r="W28" s="353"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="346" t="str">
+      <c r="D29" s="354" t="str">
         <f ca="1">Calibración!C39</f>
         <v/>
       </c>
-      <c r="E29" s="346"/>
-      <c r="F29" s="343" t="str">
+      <c r="E29" s="354"/>
+      <c r="F29" s="351" t="str">
         <f ca="1">Calibración!D39</f>
         <v/>
       </c>
-      <c r="G29" s="344"/>
-      <c r="H29" s="344"/>
-      <c r="I29" s="344"/>
-      <c r="J29" s="344"/>
-      <c r="K29" s="345"/>
-      <c r="L29" s="343" t="str">
+      <c r="G29" s="352"/>
+      <c r="H29" s="352"/>
+      <c r="I29" s="352"/>
+      <c r="J29" s="352"/>
+      <c r="K29" s="353"/>
+      <c r="L29" s="351" t="str">
         <f ca="1">Calibración!E39</f>
         <v/>
       </c>
-      <c r="M29" s="344"/>
-      <c r="N29" s="344"/>
-      <c r="O29" s="344"/>
-      <c r="P29" s="344"/>
-      <c r="Q29" s="345"/>
-      <c r="R29" s="343" t="str">
+      <c r="M29" s="352"/>
+      <c r="N29" s="352"/>
+      <c r="O29" s="352"/>
+      <c r="P29" s="352"/>
+      <c r="Q29" s="353"/>
+      <c r="R29" s="351" t="str">
         <f ca="1">Calibración!F39</f>
         <v/>
       </c>
-      <c r="S29" s="344"/>
-      <c r="T29" s="344"/>
-      <c r="U29" s="344"/>
-      <c r="V29" s="344"/>
-      <c r="W29" s="345"/>
+      <c r="S29" s="352"/>
+      <c r="T29" s="352"/>
+      <c r="U29" s="352"/>
+      <c r="V29" s="352"/>
+      <c r="W29" s="353"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="346" t="str">
+      <c r="D30" s="354" t="str">
         <f ca="1">Calibración!C40</f>
         <v/>
       </c>
-      <c r="E30" s="346"/>
-      <c r="F30" s="343" t="str">
+      <c r="E30" s="354"/>
+      <c r="F30" s="351" t="str">
         <f ca="1">Calibración!D40</f>
         <v/>
       </c>
-      <c r="G30" s="344"/>
-      <c r="H30" s="344"/>
-      <c r="I30" s="344"/>
-      <c r="J30" s="344"/>
-      <c r="K30" s="345"/>
-      <c r="L30" s="343" t="str">
+      <c r="G30" s="352"/>
+      <c r="H30" s="352"/>
+      <c r="I30" s="352"/>
+      <c r="J30" s="352"/>
+      <c r="K30" s="353"/>
+      <c r="L30" s="351" t="str">
         <f ca="1">Calibración!E40</f>
         <v/>
       </c>
-      <c r="M30" s="344"/>
-      <c r="N30" s="344"/>
-      <c r="O30" s="344"/>
-      <c r="P30" s="344"/>
-      <c r="Q30" s="345"/>
-      <c r="R30" s="343" t="str">
+      <c r="M30" s="352"/>
+      <c r="N30" s="352"/>
+      <c r="O30" s="352"/>
+      <c r="P30" s="352"/>
+      <c r="Q30" s="353"/>
+      <c r="R30" s="351" t="str">
         <f ca="1">Calibración!F40</f>
         <v/>
       </c>
-      <c r="S30" s="344"/>
-      <c r="T30" s="344"/>
-      <c r="U30" s="344"/>
-      <c r="V30" s="344"/>
-      <c r="W30" s="345"/>
+      <c r="S30" s="352"/>
+      <c r="T30" s="352"/>
+      <c r="U30" s="352"/>
+      <c r="V30" s="352"/>
+      <c r="W30" s="353"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="346" t="str">
+      <c r="D31" s="354" t="str">
         <f ca="1">Calibración!C41</f>
         <v/>
       </c>
-      <c r="E31" s="346"/>
-      <c r="F31" s="343" t="str">
+      <c r="E31" s="354"/>
+      <c r="F31" s="351" t="str">
         <f ca="1">Calibración!D41</f>
         <v/>
       </c>
-      <c r="G31" s="344"/>
-      <c r="H31" s="344"/>
-      <c r="I31" s="344"/>
-      <c r="J31" s="344"/>
-      <c r="K31" s="345"/>
-      <c r="L31" s="343" t="str">
+      <c r="G31" s="352"/>
+      <c r="H31" s="352"/>
+      <c r="I31" s="352"/>
+      <c r="J31" s="352"/>
+      <c r="K31" s="353"/>
+      <c r="L31" s="351" t="str">
         <f ca="1">Calibración!E41</f>
         <v/>
       </c>
-      <c r="M31" s="344"/>
-      <c r="N31" s="344"/>
-      <c r="O31" s="344"/>
-      <c r="P31" s="344"/>
-      <c r="Q31" s="345"/>
-      <c r="R31" s="343" t="str">
+      <c r="M31" s="352"/>
+      <c r="N31" s="352"/>
+      <c r="O31" s="352"/>
+      <c r="P31" s="352"/>
+      <c r="Q31" s="353"/>
+      <c r="R31" s="351" t="str">
         <f ca="1">Calibración!F41</f>
         <v/>
       </c>
-      <c r="S31" s="344"/>
-      <c r="T31" s="344"/>
-      <c r="U31" s="344"/>
-      <c r="V31" s="344"/>
-      <c r="W31" s="345"/>
+      <c r="S31" s="352"/>
+      <c r="T31" s="352"/>
+      <c r="U31" s="352"/>
+      <c r="V31" s="352"/>
+      <c r="W31" s="353"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="346" t="str">
+      <c r="D32" s="354" t="str">
         <f ca="1">Calibración!C42</f>
         <v/>
       </c>
-      <c r="E32" s="346"/>
-      <c r="F32" s="343" t="str">
+      <c r="E32" s="354"/>
+      <c r="F32" s="351" t="str">
         <f ca="1">Calibración!D42</f>
         <v/>
       </c>
-      <c r="G32" s="344"/>
-      <c r="H32" s="344"/>
-      <c r="I32" s="344"/>
-      <c r="J32" s="344"/>
-      <c r="K32" s="345"/>
-      <c r="L32" s="343" t="str">
+      <c r="G32" s="352"/>
+      <c r="H32" s="352"/>
+      <c r="I32" s="352"/>
+      <c r="J32" s="352"/>
+      <c r="K32" s="353"/>
+      <c r="L32" s="351" t="str">
         <f ca="1">Calibración!E42</f>
         <v/>
       </c>
-      <c r="M32" s="344"/>
-      <c r="N32" s="344"/>
-      <c r="O32" s="344"/>
-      <c r="P32" s="344"/>
-      <c r="Q32" s="345"/>
-      <c r="R32" s="343" t="str">
+      <c r="M32" s="352"/>
+      <c r="N32" s="352"/>
+      <c r="O32" s="352"/>
+      <c r="P32" s="352"/>
+      <c r="Q32" s="353"/>
+      <c r="R32" s="351" t="str">
         <f ca="1">Calibración!F42</f>
         <v/>
       </c>
-      <c r="S32" s="344"/>
-      <c r="T32" s="344"/>
-      <c r="U32" s="344"/>
-      <c r="V32" s="344"/>
-      <c r="W32" s="345"/>
+      <c r="S32" s="352"/>
+      <c r="T32" s="352"/>
+      <c r="U32" s="352"/>
+      <c r="V32" s="352"/>
+      <c r="W32" s="353"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="346" t="str">
+      <c r="D33" s="354" t="str">
         <f ca="1">Calibración!C43</f>
         <v/>
       </c>
-      <c r="E33" s="346"/>
-      <c r="F33" s="343" t="str">
+      <c r="E33" s="354"/>
+      <c r="F33" s="351" t="str">
         <f ca="1">Calibración!D43</f>
         <v/>
       </c>
-      <c r="G33" s="344"/>
-      <c r="H33" s="344"/>
-      <c r="I33" s="344"/>
-      <c r="J33" s="344"/>
-      <c r="K33" s="345"/>
-      <c r="L33" s="343" t="str">
+      <c r="G33" s="352"/>
+      <c r="H33" s="352"/>
+      <c r="I33" s="352"/>
+      <c r="J33" s="352"/>
+      <c r="K33" s="353"/>
+      <c r="L33" s="351" t="str">
         <f ca="1">Calibración!E43</f>
         <v/>
       </c>
-      <c r="M33" s="344"/>
-      <c r="N33" s="344"/>
-      <c r="O33" s="344"/>
-      <c r="P33" s="344"/>
-      <c r="Q33" s="345"/>
-      <c r="R33" s="343" t="str">
+      <c r="M33" s="352"/>
+      <c r="N33" s="352"/>
+      <c r="O33" s="352"/>
+      <c r="P33" s="352"/>
+      <c r="Q33" s="353"/>
+      <c r="R33" s="351" t="str">
         <f ca="1">Calibración!F43</f>
         <v/>
       </c>
-      <c r="S33" s="344"/>
-      <c r="T33" s="344"/>
-      <c r="U33" s="344"/>
-      <c r="V33" s="344"/>
-      <c r="W33" s="345"/>
+      <c r="S33" s="352"/>
+      <c r="T33" s="352"/>
+      <c r="U33" s="352"/>
+      <c r="V33" s="352"/>
+      <c r="W33" s="353"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="346" t="str">
+      <c r="D34" s="354" t="str">
         <f ca="1">Calibración!C44</f>
         <v/>
       </c>
-      <c r="E34" s="346"/>
-      <c r="F34" s="343" t="str">
+      <c r="E34" s="354"/>
+      <c r="F34" s="351" t="str">
         <f ca="1">Calibración!D44</f>
         <v/>
       </c>
-      <c r="G34" s="344"/>
-      <c r="H34" s="344"/>
-      <c r="I34" s="344"/>
-      <c r="J34" s="344"/>
-      <c r="K34" s="345"/>
-      <c r="L34" s="343" t="str">
+      <c r="G34" s="352"/>
+      <c r="H34" s="352"/>
+      <c r="I34" s="352"/>
+      <c r="J34" s="352"/>
+      <c r="K34" s="353"/>
+      <c r="L34" s="351" t="str">
         <f ca="1">Calibración!E44</f>
         <v/>
       </c>
-      <c r="M34" s="344"/>
-      <c r="N34" s="344"/>
-      <c r="O34" s="344"/>
-      <c r="P34" s="344"/>
-      <c r="Q34" s="345"/>
-      <c r="R34" s="343" t="str">
+      <c r="M34" s="352"/>
+      <c r="N34" s="352"/>
+      <c r="O34" s="352"/>
+      <c r="P34" s="352"/>
+      <c r="Q34" s="353"/>
+      <c r="R34" s="351" t="str">
         <f ca="1">Calibración!F44</f>
         <v/>
       </c>
-      <c r="S34" s="344"/>
-      <c r="T34" s="344"/>
-      <c r="U34" s="344"/>
-      <c r="V34" s="344"/>
-      <c r="W34" s="345"/>
+      <c r="S34" s="352"/>
+      <c r="T34" s="352"/>
+      <c r="U34" s="352"/>
+      <c r="V34" s="352"/>
+      <c r="W34" s="353"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="346" t="str">
+      <c r="D35" s="354" t="str">
         <f ca="1">Calibración!C45</f>
         <v/>
       </c>
-      <c r="E35" s="346"/>
-      <c r="F35" s="343" t="str">
+      <c r="E35" s="354"/>
+      <c r="F35" s="351" t="str">
         <f ca="1">Calibración!D45</f>
         <v/>
       </c>
-      <c r="G35" s="344"/>
-      <c r="H35" s="344"/>
-      <c r="I35" s="344"/>
-      <c r="J35" s="344"/>
-      <c r="K35" s="345"/>
-      <c r="L35" s="343" t="str">
+      <c r="G35" s="352"/>
+      <c r="H35" s="352"/>
+      <c r="I35" s="352"/>
+      <c r="J35" s="352"/>
+      <c r="K35" s="353"/>
+      <c r="L35" s="351" t="str">
         <f ca="1">Calibración!E45</f>
         <v/>
       </c>
-      <c r="M35" s="344"/>
-      <c r="N35" s="344"/>
-      <c r="O35" s="344"/>
-      <c r="P35" s="344"/>
-      <c r="Q35" s="345"/>
-      <c r="R35" s="343" t="str">
+      <c r="M35" s="352"/>
+      <c r="N35" s="352"/>
+      <c r="O35" s="352"/>
+      <c r="P35" s="352"/>
+      <c r="Q35" s="353"/>
+      <c r="R35" s="351" t="str">
         <f ca="1">Calibración!F45</f>
         <v/>
       </c>
-      <c r="S35" s="344"/>
-      <c r="T35" s="344"/>
-      <c r="U35" s="344"/>
-      <c r="V35" s="344"/>
-      <c r="W35" s="345"/>
+      <c r="S35" s="352"/>
+      <c r="T35" s="352"/>
+      <c r="U35" s="352"/>
+      <c r="V35" s="352"/>
+      <c r="W35" s="353"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="346" t="str">
+      <c r="D36" s="354" t="str">
         <f ca="1">Calibración!C46</f>
         <v/>
       </c>
-      <c r="E36" s="346"/>
-      <c r="F36" s="343" t="str">
+      <c r="E36" s="354"/>
+      <c r="F36" s="351" t="str">
         <f ca="1">Calibración!D46</f>
         <v/>
       </c>
-      <c r="G36" s="344"/>
-      <c r="H36" s="344"/>
-      <c r="I36" s="344"/>
-      <c r="J36" s="344"/>
-      <c r="K36" s="345"/>
-      <c r="L36" s="343" t="str">
+      <c r="G36" s="352"/>
+      <c r="H36" s="352"/>
+      <c r="I36" s="352"/>
+      <c r="J36" s="352"/>
+      <c r="K36" s="353"/>
+      <c r="L36" s="351" t="str">
         <f ca="1">Calibración!E46</f>
         <v/>
       </c>
-      <c r="M36" s="344"/>
-      <c r="N36" s="344"/>
-      <c r="O36" s="344"/>
-      <c r="P36" s="344"/>
-      <c r="Q36" s="345"/>
-      <c r="R36" s="343" t="str">
+      <c r="M36" s="352"/>
+      <c r="N36" s="352"/>
+      <c r="O36" s="352"/>
+      <c r="P36" s="352"/>
+      <c r="Q36" s="353"/>
+      <c r="R36" s="351" t="str">
         <f ca="1">Calibración!F46</f>
         <v/>
       </c>
-      <c r="S36" s="344"/>
-      <c r="T36" s="344"/>
-      <c r="U36" s="344"/>
-      <c r="V36" s="344"/>
-      <c r="W36" s="345"/>
+      <c r="S36" s="352"/>
+      <c r="T36" s="352"/>
+      <c r="U36" s="352"/>
+      <c r="V36" s="352"/>
+      <c r="W36" s="353"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="346" t="str">
+      <c r="D37" s="354" t="str">
         <f ca="1">Calibración!C47</f>
         <v/>
       </c>
-      <c r="E37" s="346"/>
-      <c r="F37" s="343" t="str">
+      <c r="E37" s="354"/>
+      <c r="F37" s="351" t="str">
         <f ca="1">Calibración!D47</f>
         <v/>
       </c>
-      <c r="G37" s="344"/>
-      <c r="H37" s="344"/>
-      <c r="I37" s="344"/>
-      <c r="J37" s="344"/>
-      <c r="K37" s="345"/>
-      <c r="L37" s="343" t="str">
+      <c r="G37" s="352"/>
+      <c r="H37" s="352"/>
+      <c r="I37" s="352"/>
+      <c r="J37" s="352"/>
+      <c r="K37" s="353"/>
+      <c r="L37" s="351" t="str">
         <f ca="1">Calibración!E47</f>
         <v/>
       </c>
-      <c r="M37" s="344"/>
-      <c r="N37" s="344"/>
-      <c r="O37" s="344"/>
-      <c r="P37" s="344"/>
-      <c r="Q37" s="345"/>
-      <c r="R37" s="343" t="str">
+      <c r="M37" s="352"/>
+      <c r="N37" s="352"/>
+      <c r="O37" s="352"/>
+      <c r="P37" s="352"/>
+      <c r="Q37" s="353"/>
+      <c r="R37" s="351" t="str">
         <f ca="1">Calibración!F47</f>
         <v/>
       </c>
-      <c r="S37" s="344"/>
-      <c r="T37" s="344"/>
-      <c r="U37" s="344"/>
-      <c r="V37" s="344"/>
-      <c r="W37" s="345"/>
+      <c r="S37" s="352"/>
+      <c r="T37" s="352"/>
+      <c r="U37" s="352"/>
+      <c r="V37" s="352"/>
+      <c r="W37" s="353"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
@@ -38160,546 +38160,546 @@
       <c r="W58" s="318"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="318"/>
-      <c r="E59" s="318"/>
-      <c r="F59" s="318"/>
-      <c r="G59" s="318"/>
-      <c r="H59" s="318"/>
-      <c r="I59" s="318"/>
-      <c r="J59" s="318"/>
-      <c r="K59" s="318"/>
-      <c r="L59" s="318"/>
-      <c r="M59" s="318"/>
-      <c r="N59" s="318"/>
-      <c r="O59" s="318"/>
-      <c r="P59" s="318"/>
-      <c r="Q59" s="318"/>
-      <c r="R59" s="318"/>
-      <c r="S59" s="318"/>
-      <c r="T59" s="318"/>
-      <c r="U59" s="318"/>
-      <c r="V59" s="318"/>
-      <c r="W59" s="318"/>
+      <c r="A59" s="224" t="s">
+        <v>698</v>
+      </c>
+      <c r="D59" s="230"/>
+      <c r="E59" s="230"/>
+      <c r="F59" s="231"/>
+      <c r="G59" s="231"/>
+      <c r="H59" s="231"/>
+      <c r="I59" s="231"/>
+      <c r="J59" s="231"/>
+      <c r="K59" s="231"/>
+      <c r="L59" s="230"/>
+      <c r="M59" s="230"/>
+      <c r="N59" s="230"/>
+      <c r="O59" s="230"/>
+      <c r="P59" s="230"/>
+      <c r="Q59" s="230"/>
+      <c r="R59" s="230"/>
+      <c r="S59" s="230"/>
+      <c r="T59" s="230"/>
+      <c r="U59" s="230"/>
+      <c r="V59" s="230"/>
+      <c r="W59" s="230"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A60" s="224" t="s">
-        <v>698</v>
-      </c>
-      <c r="D60" s="230"/>
-      <c r="E60" s="230"/>
-      <c r="F60" s="231"/>
-      <c r="G60" s="231"/>
-      <c r="H60" s="231"/>
-      <c r="I60" s="231"/>
-      <c r="J60" s="231"/>
-      <c r="K60" s="231"/>
-      <c r="L60" s="230"/>
-      <c r="M60" s="230"/>
-      <c r="N60" s="230"/>
-      <c r="O60" s="230"/>
-      <c r="P60" s="230"/>
-      <c r="Q60" s="230"/>
-      <c r="R60" s="230"/>
-      <c r="S60" s="230"/>
-      <c r="T60" s="230"/>
-      <c r="U60" s="230"/>
-      <c r="V60" s="230"/>
-      <c r="W60" s="230"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="365" t="s">
+        <v>363</v>
+      </c>
+      <c r="E60" s="365"/>
+      <c r="F60" s="365"/>
+      <c r="G60" s="365"/>
+      <c r="H60" s="365"/>
+      <c r="I60" s="365"/>
+      <c r="J60" s="365"/>
+      <c r="K60" s="365"/>
+      <c r="L60" s="365"/>
+      <c r="M60" s="365"/>
+      <c r="N60" s="365"/>
+      <c r="O60" s="365"/>
+      <c r="P60" s="365"/>
+      <c r="Q60" s="365"/>
+      <c r="R60" s="365"/>
+      <c r="S60" s="365"/>
+      <c r="T60" s="365"/>
+      <c r="U60" s="365"/>
+      <c r="V60" s="365"/>
+      <c r="W60" s="365"/>
+    </row>
+    <row r="61" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="357" t="s">
-        <v>363</v>
-      </c>
-      <c r="E61" s="357"/>
-      <c r="F61" s="357"/>
-      <c r="G61" s="357"/>
-      <c r="H61" s="357"/>
-      <c r="I61" s="357"/>
-      <c r="J61" s="357"/>
-      <c r="K61" s="357"/>
-      <c r="L61" s="357"/>
-      <c r="M61" s="357"/>
-      <c r="N61" s="357"/>
-      <c r="O61" s="357"/>
-      <c r="P61" s="357"/>
-      <c r="Q61" s="357"/>
-      <c r="R61" s="357"/>
-      <c r="S61" s="357"/>
-      <c r="T61" s="357"/>
-      <c r="U61" s="357"/>
-      <c r="V61" s="357"/>
-      <c r="W61" s="357"/>
-    </row>
-    <row r="62" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="366" t="s">
+        <v>631</v>
+      </c>
+      <c r="E61" s="366"/>
+      <c r="F61" s="367" t="s">
+        <v>696</v>
+      </c>
+      <c r="G61" s="367"/>
+      <c r="H61" s="367"/>
+      <c r="I61" s="367"/>
+      <c r="J61" s="367"/>
+      <c r="K61" s="367"/>
+      <c r="L61" s="367" t="s">
+        <v>364</v>
+      </c>
+      <c r="M61" s="367"/>
+      <c r="N61" s="367"/>
+      <c r="O61" s="367"/>
+      <c r="P61" s="367"/>
+      <c r="Q61" s="367"/>
+      <c r="R61" s="366" t="s">
+        <v>697</v>
+      </c>
+      <c r="S61" s="366"/>
+      <c r="T61" s="366"/>
+      <c r="U61" s="366"/>
+      <c r="V61" s="366"/>
+      <c r="W61" s="366"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="358" t="s">
-        <v>631</v>
-      </c>
-      <c r="E62" s="358"/>
-      <c r="F62" s="359" t="s">
-        <v>696</v>
-      </c>
-      <c r="G62" s="359"/>
-      <c r="H62" s="359"/>
-      <c r="I62" s="359"/>
-      <c r="J62" s="359"/>
-      <c r="K62" s="359"/>
-      <c r="L62" s="359" t="s">
-        <v>364</v>
-      </c>
-      <c r="M62" s="359"/>
-      <c r="N62" s="359"/>
-      <c r="O62" s="359"/>
-      <c r="P62" s="359"/>
-      <c r="Q62" s="359"/>
-      <c r="R62" s="358" t="s">
-        <v>697</v>
-      </c>
-      <c r="S62" s="358"/>
-      <c r="T62" s="358"/>
-      <c r="U62" s="358"/>
-      <c r="V62" s="358"/>
-      <c r="W62" s="358"/>
+      <c r="D62" s="366"/>
+      <c r="E62" s="366"/>
+      <c r="F62" s="367"/>
+      <c r="G62" s="367"/>
+      <c r="H62" s="367"/>
+      <c r="I62" s="367"/>
+      <c r="J62" s="367"/>
+      <c r="K62" s="367"/>
+      <c r="L62" s="367"/>
+      <c r="M62" s="367"/>
+      <c r="N62" s="367"/>
+      <c r="O62" s="367"/>
+      <c r="P62" s="367"/>
+      <c r="Q62" s="367"/>
+      <c r="R62" s="366"/>
+      <c r="S62" s="366"/>
+      <c r="T62" s="366"/>
+      <c r="U62" s="366"/>
+      <c r="V62" s="366"/>
+      <c r="W62" s="366"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="358"/>
-      <c r="E63" s="358"/>
-      <c r="F63" s="359"/>
-      <c r="G63" s="359"/>
-      <c r="H63" s="359"/>
-      <c r="I63" s="359"/>
-      <c r="J63" s="359"/>
-      <c r="K63" s="359"/>
-      <c r="L63" s="359"/>
-      <c r="M63" s="359"/>
-      <c r="N63" s="359"/>
-      <c r="O63" s="359"/>
-      <c r="P63" s="359"/>
-      <c r="Q63" s="359"/>
-      <c r="R63" s="358"/>
-      <c r="S63" s="358"/>
-      <c r="T63" s="358"/>
-      <c r="U63" s="358"/>
-      <c r="V63" s="358"/>
-      <c r="W63" s="358"/>
+      <c r="D63" s="368" t="str">
+        <f>Calibración!G37</f>
+        <v>kPa</v>
+      </c>
+      <c r="E63" s="368"/>
+      <c r="F63" s="369" t="str">
+        <f>Calibración!H37</f>
+        <v>kPa</v>
+      </c>
+      <c r="G63" s="370"/>
+      <c r="H63" s="370"/>
+      <c r="I63" s="370"/>
+      <c r="J63" s="370"/>
+      <c r="K63" s="371"/>
+      <c r="L63" s="368" t="str">
+        <f>Calibración!I37</f>
+        <v>kPa</v>
+      </c>
+      <c r="M63" s="368"/>
+      <c r="N63" s="368"/>
+      <c r="O63" s="368"/>
+      <c r="P63" s="368"/>
+      <c r="Q63" s="368"/>
+      <c r="R63" s="368" t="str">
+        <f>Calibración!J37</f>
+        <v>kPa</v>
+      </c>
+      <c r="S63" s="368"/>
+      <c r="T63" s="368"/>
+      <c r="U63" s="368"/>
+      <c r="V63" s="368"/>
+      <c r="W63" s="368"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="360" t="str">
-        <f>Calibración!G37</f>
-        <v>kPa</v>
-      </c>
-      <c r="E64" s="360"/>
-      <c r="F64" s="361" t="str">
-        <f>Calibración!H37</f>
-        <v>kPa</v>
-      </c>
-      <c r="G64" s="362"/>
-      <c r="H64" s="362"/>
-      <c r="I64" s="362"/>
-      <c r="J64" s="362"/>
-      <c r="K64" s="363"/>
-      <c r="L64" s="360" t="str">
-        <f>Calibración!I37</f>
-        <v>kPa</v>
-      </c>
-      <c r="M64" s="360"/>
-      <c r="N64" s="360"/>
-      <c r="O64" s="360"/>
-      <c r="P64" s="360"/>
-      <c r="Q64" s="360"/>
-      <c r="R64" s="360" t="str">
-        <f>Calibración!J37</f>
-        <v>kPa</v>
-      </c>
-      <c r="S64" s="360"/>
-      <c r="T64" s="360"/>
-      <c r="U64" s="360"/>
-      <c r="V64" s="360"/>
-      <c r="W64" s="360"/>
+      <c r="D64" s="358" t="str">
+        <f ca="1">Calibración!G38</f>
+        <v/>
+      </c>
+      <c r="E64" s="358"/>
+      <c r="F64" s="355" t="str">
+        <f ca="1">Calibración!H38</f>
+        <v/>
+      </c>
+      <c r="G64" s="356"/>
+      <c r="H64" s="356"/>
+      <c r="I64" s="356"/>
+      <c r="J64" s="356"/>
+      <c r="K64" s="357"/>
+      <c r="L64" s="358" t="str">
+        <f ca="1">Calibración!I38</f>
+        <v/>
+      </c>
+      <c r="M64" s="358"/>
+      <c r="N64" s="358"/>
+      <c r="O64" s="358"/>
+      <c r="P64" s="358"/>
+      <c r="Q64" s="358"/>
+      <c r="R64" s="358" t="str">
+        <f ca="1">Calibración!J38</f>
+        <v/>
+      </c>
+      <c r="S64" s="358"/>
+      <c r="T64" s="358"/>
+      <c r="U64" s="358"/>
+      <c r="V64" s="358"/>
+      <c r="W64" s="358"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="350" t="str">
-        <f ca="1">Calibración!G38</f>
-        <v/>
-      </c>
-      <c r="E65" s="350"/>
-      <c r="F65" s="347" t="str">
-        <f ca="1">Calibración!H38</f>
-        <v/>
-      </c>
-      <c r="G65" s="348"/>
-      <c r="H65" s="348"/>
-      <c r="I65" s="348"/>
-      <c r="J65" s="348"/>
-      <c r="K65" s="349"/>
-      <c r="L65" s="350" t="str">
-        <f ca="1">Calibración!I38</f>
-        <v/>
-      </c>
-      <c r="M65" s="350"/>
-      <c r="N65" s="350"/>
-      <c r="O65" s="350"/>
-      <c r="P65" s="350"/>
-      <c r="Q65" s="350"/>
-      <c r="R65" s="350" t="str">
-        <f ca="1">Calibración!J38</f>
-        <v/>
-      </c>
-      <c r="S65" s="350"/>
-      <c r="T65" s="350"/>
-      <c r="U65" s="350"/>
-      <c r="V65" s="350"/>
-      <c r="W65" s="350"/>
+      <c r="D65" s="358" t="str">
+        <f ca="1">Calibración!G39</f>
+        <v/>
+      </c>
+      <c r="E65" s="358"/>
+      <c r="F65" s="355" t="str">
+        <f ca="1">Calibración!H39</f>
+        <v/>
+      </c>
+      <c r="G65" s="356"/>
+      <c r="H65" s="356"/>
+      <c r="I65" s="356"/>
+      <c r="J65" s="356"/>
+      <c r="K65" s="357"/>
+      <c r="L65" s="358" t="str">
+        <f ca="1">Calibración!I39</f>
+        <v/>
+      </c>
+      <c r="M65" s="358"/>
+      <c r="N65" s="358"/>
+      <c r="O65" s="358"/>
+      <c r="P65" s="358"/>
+      <c r="Q65" s="358"/>
+      <c r="R65" s="358" t="str">
+        <f ca="1">Calibración!J39</f>
+        <v/>
+      </c>
+      <c r="S65" s="358"/>
+      <c r="T65" s="358"/>
+      <c r="U65" s="358"/>
+      <c r="V65" s="358"/>
+      <c r="W65" s="358"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="350" t="str">
-        <f ca="1">Calibración!G39</f>
-        <v/>
-      </c>
-      <c r="E66" s="350"/>
-      <c r="F66" s="347" t="str">
-        <f ca="1">Calibración!H39</f>
-        <v/>
-      </c>
-      <c r="G66" s="348"/>
-      <c r="H66" s="348"/>
-      <c r="I66" s="348"/>
-      <c r="J66" s="348"/>
-      <c r="K66" s="349"/>
-      <c r="L66" s="350" t="str">
-        <f ca="1">Calibración!I39</f>
-        <v/>
-      </c>
-      <c r="M66" s="350"/>
-      <c r="N66" s="350"/>
-      <c r="O66" s="350"/>
-      <c r="P66" s="350"/>
-      <c r="Q66" s="350"/>
-      <c r="R66" s="350" t="str">
-        <f ca="1">Calibración!J39</f>
-        <v/>
-      </c>
-      <c r="S66" s="350"/>
-      <c r="T66" s="350"/>
-      <c r="U66" s="350"/>
-      <c r="V66" s="350"/>
-      <c r="W66" s="350"/>
+      <c r="D66" s="358" t="str">
+        <f ca="1">Calibración!G40</f>
+        <v/>
+      </c>
+      <c r="E66" s="358"/>
+      <c r="F66" s="355" t="str">
+        <f ca="1">Calibración!H40</f>
+        <v/>
+      </c>
+      <c r="G66" s="356"/>
+      <c r="H66" s="356"/>
+      <c r="I66" s="356"/>
+      <c r="J66" s="356"/>
+      <c r="K66" s="357"/>
+      <c r="L66" s="358" t="str">
+        <f ca="1">Calibración!I40</f>
+        <v/>
+      </c>
+      <c r="M66" s="358"/>
+      <c r="N66" s="358"/>
+      <c r="O66" s="358"/>
+      <c r="P66" s="358"/>
+      <c r="Q66" s="358"/>
+      <c r="R66" s="358" t="str">
+        <f ca="1">Calibración!J40</f>
+        <v/>
+      </c>
+      <c r="S66" s="358"/>
+      <c r="T66" s="358"/>
+      <c r="U66" s="358"/>
+      <c r="V66" s="358"/>
+      <c r="W66" s="358"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="350" t="str">
-        <f ca="1">Calibración!G40</f>
-        <v/>
-      </c>
-      <c r="E67" s="350"/>
-      <c r="F67" s="347" t="str">
-        <f ca="1">Calibración!H40</f>
-        <v/>
-      </c>
-      <c r="G67" s="348"/>
-      <c r="H67" s="348"/>
-      <c r="I67" s="348"/>
-      <c r="J67" s="348"/>
-      <c r="K67" s="349"/>
-      <c r="L67" s="350" t="str">
-        <f ca="1">Calibración!I40</f>
-        <v/>
-      </c>
-      <c r="M67" s="350"/>
-      <c r="N67" s="350"/>
-      <c r="O67" s="350"/>
-      <c r="P67" s="350"/>
-      <c r="Q67" s="350"/>
-      <c r="R67" s="350" t="str">
-        <f ca="1">Calibración!J40</f>
-        <v/>
-      </c>
-      <c r="S67" s="350"/>
-      <c r="T67" s="350"/>
-      <c r="U67" s="350"/>
-      <c r="V67" s="350"/>
-      <c r="W67" s="350"/>
+      <c r="D67" s="358" t="str">
+        <f ca="1">Calibración!G41</f>
+        <v/>
+      </c>
+      <c r="E67" s="358"/>
+      <c r="F67" s="355" t="str">
+        <f ca="1">Calibración!H41</f>
+        <v/>
+      </c>
+      <c r="G67" s="356"/>
+      <c r="H67" s="356"/>
+      <c r="I67" s="356"/>
+      <c r="J67" s="356"/>
+      <c r="K67" s="357"/>
+      <c r="L67" s="358" t="str">
+        <f ca="1">Calibración!I41</f>
+        <v/>
+      </c>
+      <c r="M67" s="358"/>
+      <c r="N67" s="358"/>
+      <c r="O67" s="358"/>
+      <c r="P67" s="358"/>
+      <c r="Q67" s="358"/>
+      <c r="R67" s="358" t="str">
+        <f ca="1">Calibración!J41</f>
+        <v/>
+      </c>
+      <c r="S67" s="358"/>
+      <c r="T67" s="358"/>
+      <c r="U67" s="358"/>
+      <c r="V67" s="358"/>
+      <c r="W67" s="358"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="350" t="str">
-        <f ca="1">Calibración!G41</f>
-        <v/>
-      </c>
-      <c r="E68" s="350"/>
-      <c r="F68" s="347" t="str">
-        <f ca="1">Calibración!H41</f>
-        <v/>
-      </c>
-      <c r="G68" s="348"/>
-      <c r="H68" s="348"/>
-      <c r="I68" s="348"/>
-      <c r="J68" s="348"/>
-      <c r="K68" s="349"/>
-      <c r="L68" s="350" t="str">
-        <f ca="1">Calibración!I41</f>
-        <v/>
-      </c>
-      <c r="M68" s="350"/>
-      <c r="N68" s="350"/>
-      <c r="O68" s="350"/>
-      <c r="P68" s="350"/>
-      <c r="Q68" s="350"/>
-      <c r="R68" s="350" t="str">
-        <f ca="1">Calibración!J41</f>
-        <v/>
-      </c>
-      <c r="S68" s="350"/>
-      <c r="T68" s="350"/>
-      <c r="U68" s="350"/>
-      <c r="V68" s="350"/>
-      <c r="W68" s="350"/>
+      <c r="D68" s="358" t="str">
+        <f ca="1">Calibración!G42</f>
+        <v/>
+      </c>
+      <c r="E68" s="358"/>
+      <c r="F68" s="355" t="str">
+        <f ca="1">Calibración!H42</f>
+        <v/>
+      </c>
+      <c r="G68" s="356"/>
+      <c r="H68" s="356"/>
+      <c r="I68" s="356"/>
+      <c r="J68" s="356"/>
+      <c r="K68" s="357"/>
+      <c r="L68" s="358" t="str">
+        <f ca="1">Calibración!I42</f>
+        <v/>
+      </c>
+      <c r="M68" s="358"/>
+      <c r="N68" s="358"/>
+      <c r="O68" s="358"/>
+      <c r="P68" s="358"/>
+      <c r="Q68" s="358"/>
+      <c r="R68" s="358" t="str">
+        <f ca="1">Calibración!J42</f>
+        <v/>
+      </c>
+      <c r="S68" s="358"/>
+      <c r="T68" s="358"/>
+      <c r="U68" s="358"/>
+      <c r="V68" s="358"/>
+      <c r="W68" s="358"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="350" t="str">
-        <f ca="1">Calibración!G42</f>
-        <v/>
-      </c>
-      <c r="E69" s="350"/>
-      <c r="F69" s="347" t="str">
-        <f ca="1">Calibración!H42</f>
-        <v/>
-      </c>
-      <c r="G69" s="348"/>
-      <c r="H69" s="348"/>
-      <c r="I69" s="348"/>
-      <c r="J69" s="348"/>
-      <c r="K69" s="349"/>
-      <c r="L69" s="350" t="str">
-        <f ca="1">Calibración!I42</f>
-        <v/>
-      </c>
-      <c r="M69" s="350"/>
-      <c r="N69" s="350"/>
-      <c r="O69" s="350"/>
-      <c r="P69" s="350"/>
-      <c r="Q69" s="350"/>
-      <c r="R69" s="350" t="str">
-        <f ca="1">Calibración!J42</f>
-        <v/>
-      </c>
-      <c r="S69" s="350"/>
-      <c r="T69" s="350"/>
-      <c r="U69" s="350"/>
-      <c r="V69" s="350"/>
-      <c r="W69" s="350"/>
+      <c r="D69" s="358" t="str">
+        <f ca="1">Calibración!G43</f>
+        <v/>
+      </c>
+      <c r="E69" s="358"/>
+      <c r="F69" s="355" t="str">
+        <f ca="1">Calibración!H43</f>
+        <v/>
+      </c>
+      <c r="G69" s="356"/>
+      <c r="H69" s="356"/>
+      <c r="I69" s="356"/>
+      <c r="J69" s="356"/>
+      <c r="K69" s="357"/>
+      <c r="L69" s="358" t="str">
+        <f ca="1">Calibración!I43</f>
+        <v/>
+      </c>
+      <c r="M69" s="358"/>
+      <c r="N69" s="358"/>
+      <c r="O69" s="358"/>
+      <c r="P69" s="358"/>
+      <c r="Q69" s="358"/>
+      <c r="R69" s="358" t="str">
+        <f ca="1">Calibración!J43</f>
+        <v/>
+      </c>
+      <c r="S69" s="358"/>
+      <c r="T69" s="358"/>
+      <c r="U69" s="358"/>
+      <c r="V69" s="358"/>
+      <c r="W69" s="358"/>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="350" t="str">
-        <f ca="1">Calibración!G43</f>
-        <v/>
-      </c>
-      <c r="E70" s="350"/>
-      <c r="F70" s="347" t="str">
-        <f ca="1">Calibración!H43</f>
-        <v/>
-      </c>
-      <c r="G70" s="348"/>
-      <c r="H70" s="348"/>
-      <c r="I70" s="348"/>
-      <c r="J70" s="348"/>
-      <c r="K70" s="349"/>
-      <c r="L70" s="350" t="str">
-        <f ca="1">Calibración!I43</f>
-        <v/>
-      </c>
-      <c r="M70" s="350"/>
-      <c r="N70" s="350"/>
-      <c r="O70" s="350"/>
-      <c r="P70" s="350"/>
-      <c r="Q70" s="350"/>
-      <c r="R70" s="350" t="str">
-        <f ca="1">Calibración!J43</f>
-        <v/>
-      </c>
-      <c r="S70" s="350"/>
-      <c r="T70" s="350"/>
-      <c r="U70" s="350"/>
-      <c r="V70" s="350"/>
-      <c r="W70" s="350"/>
+      <c r="D70" s="358" t="str">
+        <f ca="1">Calibración!G44</f>
+        <v/>
+      </c>
+      <c r="E70" s="358"/>
+      <c r="F70" s="355" t="str">
+        <f ca="1">Calibración!H44</f>
+        <v/>
+      </c>
+      <c r="G70" s="356"/>
+      <c r="H70" s="356"/>
+      <c r="I70" s="356"/>
+      <c r="J70" s="356"/>
+      <c r="K70" s="357"/>
+      <c r="L70" s="358" t="str">
+        <f ca="1">Calibración!I44</f>
+        <v/>
+      </c>
+      <c r="M70" s="358"/>
+      <c r="N70" s="358"/>
+      <c r="O70" s="358"/>
+      <c r="P70" s="358"/>
+      <c r="Q70" s="358"/>
+      <c r="R70" s="358" t="str">
+        <f ca="1">Calibración!J44</f>
+        <v/>
+      </c>
+      <c r="S70" s="358"/>
+      <c r="T70" s="358"/>
+      <c r="U70" s="358"/>
+      <c r="V70" s="358"/>
+      <c r="W70" s="358"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
-      <c r="D71" s="350" t="str">
-        <f ca="1">Calibración!G44</f>
-        <v/>
-      </c>
-      <c r="E71" s="350"/>
-      <c r="F71" s="347" t="str">
-        <f ca="1">Calibración!H44</f>
-        <v/>
-      </c>
-      <c r="G71" s="348"/>
-      <c r="H71" s="348"/>
-      <c r="I71" s="348"/>
-      <c r="J71" s="348"/>
-      <c r="K71" s="349"/>
-      <c r="L71" s="350" t="str">
-        <f ca="1">Calibración!I44</f>
-        <v/>
-      </c>
-      <c r="M71" s="350"/>
-      <c r="N71" s="350"/>
-      <c r="O71" s="350"/>
-      <c r="P71" s="350"/>
-      <c r="Q71" s="350"/>
-      <c r="R71" s="350" t="str">
-        <f ca="1">Calibración!J44</f>
-        <v/>
-      </c>
-      <c r="S71" s="350"/>
-      <c r="T71" s="350"/>
-      <c r="U71" s="350"/>
-      <c r="V71" s="350"/>
-      <c r="W71" s="350"/>
+      <c r="D71" s="358" t="str">
+        <f ca="1">Calibración!G45</f>
+        <v/>
+      </c>
+      <c r="E71" s="358"/>
+      <c r="F71" s="355" t="str">
+        <f ca="1">Calibración!H45</f>
+        <v/>
+      </c>
+      <c r="G71" s="356"/>
+      <c r="H71" s="356"/>
+      <c r="I71" s="356"/>
+      <c r="J71" s="356"/>
+      <c r="K71" s="357"/>
+      <c r="L71" s="358" t="str">
+        <f ca="1">Calibración!I45</f>
+        <v/>
+      </c>
+      <c r="M71" s="358"/>
+      <c r="N71" s="358"/>
+      <c r="O71" s="358"/>
+      <c r="P71" s="358"/>
+      <c r="Q71" s="358"/>
+      <c r="R71" s="358" t="str">
+        <f ca="1">Calibración!J45</f>
+        <v/>
+      </c>
+      <c r="S71" s="358"/>
+      <c r="T71" s="358"/>
+      <c r="U71" s="358"/>
+      <c r="V71" s="358"/>
+      <c r="W71" s="358"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
-      <c r="D72" s="350" t="str">
-        <f ca="1">Calibración!G45</f>
-        <v/>
-      </c>
-      <c r="E72" s="350"/>
-      <c r="F72" s="347" t="str">
-        <f ca="1">Calibración!H45</f>
-        <v/>
-      </c>
-      <c r="G72" s="348"/>
-      <c r="H72" s="348"/>
-      <c r="I72" s="348"/>
-      <c r="J72" s="348"/>
-      <c r="K72" s="349"/>
-      <c r="L72" s="350" t="str">
-        <f ca="1">Calibración!I45</f>
-        <v/>
-      </c>
-      <c r="M72" s="350"/>
-      <c r="N72" s="350"/>
-      <c r="O72" s="350"/>
-      <c r="P72" s="350"/>
-      <c r="Q72" s="350"/>
-      <c r="R72" s="350" t="str">
-        <f ca="1">Calibración!J45</f>
-        <v/>
-      </c>
-      <c r="S72" s="350"/>
-      <c r="T72" s="350"/>
-      <c r="U72" s="350"/>
-      <c r="V72" s="350"/>
-      <c r="W72" s="350"/>
+      <c r="D72" s="358" t="str">
+        <f ca="1">Calibración!G46</f>
+        <v/>
+      </c>
+      <c r="E72" s="358"/>
+      <c r="F72" s="355" t="str">
+        <f ca="1">Calibración!H46</f>
+        <v/>
+      </c>
+      <c r="G72" s="356"/>
+      <c r="H72" s="356"/>
+      <c r="I72" s="356"/>
+      <c r="J72" s="356"/>
+      <c r="K72" s="357"/>
+      <c r="L72" s="358" t="str">
+        <f ca="1">Calibración!I46</f>
+        <v/>
+      </c>
+      <c r="M72" s="358"/>
+      <c r="N72" s="358"/>
+      <c r="O72" s="358"/>
+      <c r="P72" s="358"/>
+      <c r="Q72" s="358"/>
+      <c r="R72" s="358" t="str">
+        <f ca="1">Calibración!J46</f>
+        <v/>
+      </c>
+      <c r="S72" s="358"/>
+      <c r="T72" s="358"/>
+      <c r="U72" s="358"/>
+      <c r="V72" s="358"/>
+      <c r="W72" s="358"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
-      <c r="D73" s="350" t="str">
-        <f ca="1">Calibración!G46</f>
-        <v/>
-      </c>
-      <c r="E73" s="350"/>
-      <c r="F73" s="347" t="str">
-        <f ca="1">Calibración!H46</f>
-        <v/>
-      </c>
-      <c r="G73" s="348"/>
-      <c r="H73" s="348"/>
-      <c r="I73" s="348"/>
-      <c r="J73" s="348"/>
-      <c r="K73" s="349"/>
-      <c r="L73" s="350" t="str">
-        <f ca="1">Calibración!I46</f>
-        <v/>
-      </c>
-      <c r="M73" s="350"/>
-      <c r="N73" s="350"/>
-      <c r="O73" s="350"/>
-      <c r="P73" s="350"/>
-      <c r="Q73" s="350"/>
-      <c r="R73" s="350" t="str">
-        <f ca="1">Calibración!J46</f>
-        <v/>
-      </c>
-      <c r="S73" s="350"/>
-      <c r="T73" s="350"/>
-      <c r="U73" s="350"/>
-      <c r="V73" s="350"/>
-      <c r="W73" s="350"/>
+      <c r="D73" s="358" t="str">
+        <f ca="1">Calibración!G47</f>
+        <v/>
+      </c>
+      <c r="E73" s="358"/>
+      <c r="F73" s="355" t="str">
+        <f ca="1">Calibración!H47</f>
+        <v/>
+      </c>
+      <c r="G73" s="356"/>
+      <c r="H73" s="356"/>
+      <c r="I73" s="356"/>
+      <c r="J73" s="356"/>
+      <c r="K73" s="357"/>
+      <c r="L73" s="358" t="str">
+        <f ca="1">Calibración!I47</f>
+        <v/>
+      </c>
+      <c r="M73" s="358"/>
+      <c r="N73" s="358"/>
+      <c r="O73" s="358"/>
+      <c r="P73" s="358"/>
+      <c r="Q73" s="358"/>
+      <c r="R73" s="358" t="str">
+        <f ca="1">Calibración!J47</f>
+        <v/>
+      </c>
+      <c r="S73" s="358"/>
+      <c r="T73" s="358"/>
+      <c r="U73" s="358"/>
+      <c r="V73" s="358"/>
+      <c r="W73" s="358"/>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
-      <c r="D74" s="350" t="str">
-        <f ca="1">Calibración!G47</f>
-        <v/>
-      </c>
-      <c r="E74" s="350"/>
-      <c r="F74" s="347" t="str">
-        <f ca="1">Calibración!H47</f>
-        <v/>
-      </c>
-      <c r="G74" s="348"/>
-      <c r="H74" s="348"/>
-      <c r="I74" s="348"/>
-      <c r="J74" s="348"/>
-      <c r="K74" s="349"/>
-      <c r="L74" s="350" t="str">
-        <f ca="1">Calibración!I47</f>
-        <v/>
-      </c>
-      <c r="M74" s="350"/>
-      <c r="N74" s="350"/>
-      <c r="O74" s="350"/>
-      <c r="P74" s="350"/>
-      <c r="Q74" s="350"/>
-      <c r="R74" s="350" t="str">
-        <f ca="1">Calibración!J47</f>
-        <v/>
-      </c>
-      <c r="S74" s="350"/>
-      <c r="T74" s="350"/>
-      <c r="U74" s="350"/>
-      <c r="V74" s="350"/>
-      <c r="W74" s="350"/>
+      <c r="D74" s="319"/>
+      <c r="E74" s="319"/>
+      <c r="F74" s="319"/>
+      <c r="G74" s="319"/>
+      <c r="H74" s="319"/>
+      <c r="I74" s="319"/>
+      <c r="J74" s="319"/>
+      <c r="K74" s="319"/>
+      <c r="L74" s="319"/>
+      <c r="M74" s="319"/>
+      <c r="N74" s="319"/>
+      <c r="O74" s="319"/>
+      <c r="P74" s="319"/>
+      <c r="Q74" s="319"/>
+      <c r="R74" s="319"/>
+      <c r="S74" s="319"/>
+      <c r="T74" s="319"/>
+      <c r="U74" s="319"/>
+      <c r="V74" s="319"/>
+      <c r="W74" s="319"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
@@ -38811,11 +38811,11 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="234"/>
-      <c r="B80" s="371" t="s">
+      <c r="B80" s="379" t="s">
         <v>701</v>
       </c>
-      <c r="C80" s="371"/>
-      <c r="D80" s="371"/>
+      <c r="C80" s="379"/>
+      <c r="D80" s="379"/>
       <c r="E80" s="235" t="str">
         <f>CertTempC</f>
         <v/>
@@ -38832,8 +38832,8 @@
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
-      <c r="K80" s="354"/>
-      <c r="L80" s="354"/>
+      <c r="K80" s="362"/>
+      <c r="L80" s="362"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
@@ -38843,11 +38843,11 @@
       <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
-      <c r="T80" s="372" t="str">
+      <c r="T80" s="380" t="str">
         <f>General!I18</f>
         <v/>
       </c>
-      <c r="U80" s="372"/>
+      <c r="U80" s="380"/>
       <c r="V80" s="236" t="s">
         <v>703</v>
       </c>
@@ -38939,20 +38939,20 @@
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
-      <c r="N92" s="352" t="str">
+      <c r="N92" s="360" t="str">
         <f>N8</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O92" s="352"/>
-      <c r="P92" s="352"/>
-      <c r="Q92" s="352"/>
-      <c r="R92" s="352"/>
-      <c r="S92" s="352"/>
-      <c r="T92" s="352"/>
-      <c r="U92" s="352"/>
-      <c r="V92" s="352"/>
-      <c r="W92" s="352"/>
-      <c r="X92" s="352"/>
+      <c r="O92" s="360"/>
+      <c r="P92" s="360"/>
+      <c r="Q92" s="360"/>
+      <c r="R92" s="360"/>
+      <c r="S92" s="360"/>
+      <c r="T92" s="360"/>
+      <c r="U92" s="360"/>
+      <c r="V92" s="360"/>
+      <c r="W92" s="360"/>
+      <c r="X92" s="360"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O93" s="232"/>
@@ -38989,32 +38989,32 @@
       <c r="W95" s="9"/>
     </row>
     <row r="96" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="364" t="s">
+      <c r="A96" s="372" t="s">
         <v>1127</v>
       </c>
-      <c r="B96" s="364"/>
-      <c r="C96" s="364"/>
-      <c r="D96" s="364"/>
-      <c r="E96" s="364"/>
-      <c r="F96" s="364"/>
-      <c r="G96" s="364"/>
-      <c r="H96" s="364"/>
-      <c r="I96" s="364"/>
-      <c r="J96" s="364"/>
-      <c r="K96" s="364"/>
-      <c r="L96" s="364"/>
-      <c r="M96" s="364"/>
-      <c r="N96" s="364"/>
-      <c r="O96" s="364"/>
-      <c r="P96" s="364"/>
-      <c r="Q96" s="364"/>
-      <c r="R96" s="364"/>
-      <c r="S96" s="364"/>
-      <c r="T96" s="364"/>
-      <c r="U96" s="364"/>
-      <c r="V96" s="364"/>
-      <c r="W96" s="364"/>
-      <c r="X96" s="364"/>
+      <c r="B96" s="372"/>
+      <c r="C96" s="372"/>
+      <c r="D96" s="372"/>
+      <c r="E96" s="372"/>
+      <c r="F96" s="372"/>
+      <c r="G96" s="372"/>
+      <c r="H96" s="372"/>
+      <c r="I96" s="372"/>
+      <c r="J96" s="372"/>
+      <c r="K96" s="372"/>
+      <c r="L96" s="372"/>
+      <c r="M96" s="372"/>
+      <c r="N96" s="372"/>
+      <c r="O96" s="372"/>
+      <c r="P96" s="372"/>
+      <c r="Q96" s="372"/>
+      <c r="R96" s="372"/>
+      <c r="S96" s="372"/>
+      <c r="T96" s="372"/>
+      <c r="U96" s="372"/>
+      <c r="V96" s="372"/>
+      <c r="W96" s="372"/>
+      <c r="X96" s="372"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B97" s="16"/>
@@ -39069,136 +39069,136 @@
       <c r="X98" s="16"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A99" s="364" t="s">
+      <c r="A99" s="372" t="s">
         <v>709</v>
       </c>
-      <c r="B99" s="364"/>
-      <c r="C99" s="364"/>
-      <c r="D99" s="364"/>
-      <c r="E99" s="364"/>
-      <c r="F99" s="364"/>
-      <c r="G99" s="364"/>
-      <c r="H99" s="364"/>
-      <c r="I99" s="364"/>
-      <c r="J99" s="364"/>
-      <c r="K99" s="364"/>
-      <c r="L99" s="364"/>
-      <c r="M99" s="364"/>
-      <c r="N99" s="364"/>
-      <c r="O99" s="364"/>
-      <c r="P99" s="364"/>
-      <c r="Q99" s="364"/>
-      <c r="R99" s="364"/>
-      <c r="S99" s="364"/>
-      <c r="T99" s="364"/>
-      <c r="U99" s="364"/>
-      <c r="V99" s="364"/>
-      <c r="W99" s="364"/>
-      <c r="X99" s="364"/>
+      <c r="B99" s="372"/>
+      <c r="C99" s="372"/>
+      <c r="D99" s="372"/>
+      <c r="E99" s="372"/>
+      <c r="F99" s="372"/>
+      <c r="G99" s="372"/>
+      <c r="H99" s="372"/>
+      <c r="I99" s="372"/>
+      <c r="J99" s="372"/>
+      <c r="K99" s="372"/>
+      <c r="L99" s="372"/>
+      <c r="M99" s="372"/>
+      <c r="N99" s="372"/>
+      <c r="O99" s="372"/>
+      <c r="P99" s="372"/>
+      <c r="Q99" s="372"/>
+      <c r="R99" s="372"/>
+      <c r="S99" s="372"/>
+      <c r="T99" s="372"/>
+      <c r="U99" s="372"/>
+      <c r="V99" s="372"/>
+      <c r="W99" s="372"/>
+      <c r="X99" s="372"/>
     </row>
     <row r="100" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="364"/>
-      <c r="B100" s="364"/>
-      <c r="C100" s="364"/>
-      <c r="D100" s="364"/>
-      <c r="E100" s="364"/>
-      <c r="F100" s="364"/>
-      <c r="G100" s="364"/>
-      <c r="H100" s="364"/>
-      <c r="I100" s="364"/>
-      <c r="J100" s="364"/>
-      <c r="K100" s="364"/>
-      <c r="L100" s="364"/>
-      <c r="M100" s="364"/>
-      <c r="N100" s="364"/>
-      <c r="O100" s="364"/>
-      <c r="P100" s="364"/>
-      <c r="Q100" s="364"/>
-      <c r="R100" s="364"/>
-      <c r="S100" s="364"/>
-      <c r="T100" s="364"/>
-      <c r="U100" s="364"/>
-      <c r="V100" s="364"/>
-      <c r="W100" s="364"/>
-      <c r="X100" s="364"/>
+      <c r="A100" s="372"/>
+      <c r="B100" s="372"/>
+      <c r="C100" s="372"/>
+      <c r="D100" s="372"/>
+      <c r="E100" s="372"/>
+      <c r="F100" s="372"/>
+      <c r="G100" s="372"/>
+      <c r="H100" s="372"/>
+      <c r="I100" s="372"/>
+      <c r="J100" s="372"/>
+      <c r="K100" s="372"/>
+      <c r="L100" s="372"/>
+      <c r="M100" s="372"/>
+      <c r="N100" s="372"/>
+      <c r="O100" s="372"/>
+      <c r="P100" s="372"/>
+      <c r="Q100" s="372"/>
+      <c r="R100" s="372"/>
+      <c r="S100" s="372"/>
+      <c r="T100" s="372"/>
+      <c r="U100" s="372"/>
+      <c r="V100" s="372"/>
+      <c r="W100" s="372"/>
+      <c r="X100" s="372"/>
     </row>
     <row r="101" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="364"/>
-      <c r="B101" s="364"/>
-      <c r="C101" s="364"/>
-      <c r="D101" s="364"/>
-      <c r="E101" s="364"/>
-      <c r="F101" s="364"/>
-      <c r="G101" s="364"/>
-      <c r="H101" s="364"/>
-      <c r="I101" s="364"/>
-      <c r="J101" s="364"/>
-      <c r="K101" s="364"/>
-      <c r="L101" s="364"/>
-      <c r="M101" s="364"/>
-      <c r="N101" s="364"/>
-      <c r="O101" s="364"/>
-      <c r="P101" s="364"/>
-      <c r="Q101" s="364"/>
-      <c r="R101" s="364"/>
-      <c r="S101" s="364"/>
-      <c r="T101" s="364"/>
-      <c r="U101" s="364"/>
-      <c r="V101" s="364"/>
-      <c r="W101" s="364"/>
-      <c r="X101" s="364"/>
+      <c r="A101" s="372"/>
+      <c r="B101" s="372"/>
+      <c r="C101" s="372"/>
+      <c r="D101" s="372"/>
+      <c r="E101" s="372"/>
+      <c r="F101" s="372"/>
+      <c r="G101" s="372"/>
+      <c r="H101" s="372"/>
+      <c r="I101" s="372"/>
+      <c r="J101" s="372"/>
+      <c r="K101" s="372"/>
+      <c r="L101" s="372"/>
+      <c r="M101" s="372"/>
+      <c r="N101" s="372"/>
+      <c r="O101" s="372"/>
+      <c r="P101" s="372"/>
+      <c r="Q101" s="372"/>
+      <c r="R101" s="372"/>
+      <c r="S101" s="372"/>
+      <c r="T101" s="372"/>
+      <c r="U101" s="372"/>
+      <c r="V101" s="372"/>
+      <c r="W101" s="372"/>
+      <c r="X101" s="372"/>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A102" s="364"/>
-      <c r="B102" s="364"/>
-      <c r="C102" s="364"/>
-      <c r="D102" s="364"/>
-      <c r="E102" s="364"/>
-      <c r="F102" s="364"/>
-      <c r="G102" s="364"/>
-      <c r="H102" s="364"/>
-      <c r="I102" s="364"/>
-      <c r="J102" s="364"/>
-      <c r="K102" s="364"/>
-      <c r="L102" s="364"/>
-      <c r="M102" s="364"/>
-      <c r="N102" s="364"/>
-      <c r="O102" s="364"/>
-      <c r="P102" s="364"/>
-      <c r="Q102" s="364"/>
-      <c r="R102" s="364"/>
-      <c r="S102" s="364"/>
-      <c r="T102" s="364"/>
-      <c r="U102" s="364"/>
-      <c r="V102" s="364"/>
-      <c r="W102" s="364"/>
-      <c r="X102" s="364"/>
+      <c r="A102" s="372"/>
+      <c r="B102" s="372"/>
+      <c r="C102" s="372"/>
+      <c r="D102" s="372"/>
+      <c r="E102" s="372"/>
+      <c r="F102" s="372"/>
+      <c r="G102" s="372"/>
+      <c r="H102" s="372"/>
+      <c r="I102" s="372"/>
+      <c r="J102" s="372"/>
+      <c r="K102" s="372"/>
+      <c r="L102" s="372"/>
+      <c r="M102" s="372"/>
+      <c r="N102" s="372"/>
+      <c r="O102" s="372"/>
+      <c r="P102" s="372"/>
+      <c r="Q102" s="372"/>
+      <c r="R102" s="372"/>
+      <c r="S102" s="372"/>
+      <c r="T102" s="372"/>
+      <c r="U102" s="372"/>
+      <c r="V102" s="372"/>
+      <c r="W102" s="372"/>
+      <c r="X102" s="372"/>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A103" s="364"/>
-      <c r="B103" s="364"/>
-      <c r="C103" s="364"/>
-      <c r="D103" s="364"/>
-      <c r="E103" s="364"/>
-      <c r="F103" s="364"/>
-      <c r="G103" s="364"/>
-      <c r="H103" s="364"/>
-      <c r="I103" s="364"/>
-      <c r="J103" s="364"/>
-      <c r="K103" s="364"/>
-      <c r="L103" s="364"/>
-      <c r="M103" s="364"/>
-      <c r="N103" s="364"/>
-      <c r="O103" s="364"/>
-      <c r="P103" s="364"/>
-      <c r="Q103" s="364"/>
-      <c r="R103" s="364"/>
-      <c r="S103" s="364"/>
-      <c r="T103" s="364"/>
-      <c r="U103" s="364"/>
-      <c r="V103" s="364"/>
-      <c r="W103" s="364"/>
-      <c r="X103" s="364"/>
+      <c r="A103" s="372"/>
+      <c r="B103" s="372"/>
+      <c r="C103" s="372"/>
+      <c r="D103" s="372"/>
+      <c r="E103" s="372"/>
+      <c r="F103" s="372"/>
+      <c r="G103" s="372"/>
+      <c r="H103" s="372"/>
+      <c r="I103" s="372"/>
+      <c r="J103" s="372"/>
+      <c r="K103" s="372"/>
+      <c r="L103" s="372"/>
+      <c r="M103" s="372"/>
+      <c r="N103" s="372"/>
+      <c r="O103" s="372"/>
+      <c r="P103" s="372"/>
+      <c r="Q103" s="372"/>
+      <c r="R103" s="372"/>
+      <c r="S103" s="372"/>
+      <c r="T103" s="372"/>
+      <c r="U103" s="372"/>
+      <c r="V103" s="372"/>
+      <c r="W103" s="372"/>
+      <c r="X103" s="372"/>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
@@ -39252,118 +39252,118 @@
       <c r="V105" s="9"/>
     </row>
     <row r="106" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="365" t="s">
+      <c r="A106" s="373" t="s">
         <v>366</v>
       </c>
-      <c r="B106" s="366"/>
-      <c r="C106" s="366"/>
-      <c r="D106" s="366"/>
-      <c r="E106" s="366"/>
-      <c r="F106" s="367"/>
-      <c r="G106" s="365" t="s">
+      <c r="B106" s="374"/>
+      <c r="C106" s="374"/>
+      <c r="D106" s="374"/>
+      <c r="E106" s="374"/>
+      <c r="F106" s="375"/>
+      <c r="G106" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="H106" s="366"/>
-      <c r="I106" s="367"/>
-      <c r="J106" s="368" t="s">
+      <c r="H106" s="374"/>
+      <c r="I106" s="375"/>
+      <c r="J106" s="376" t="s">
         <v>369</v>
       </c>
-      <c r="K106" s="369"/>
-      <c r="L106" s="369"/>
-      <c r="M106" s="369"/>
-      <c r="N106" s="370"/>
-      <c r="O106" s="365" t="s">
+      <c r="K106" s="377"/>
+      <c r="L106" s="377"/>
+      <c r="M106" s="377"/>
+      <c r="N106" s="378"/>
+      <c r="O106" s="373" t="s">
         <v>711</v>
       </c>
-      <c r="P106" s="366"/>
-      <c r="Q106" s="366"/>
-      <c r="R106" s="366"/>
-      <c r="S106" s="366"/>
-      <c r="T106" s="367"/>
-      <c r="U106" s="368" t="s">
+      <c r="P106" s="374"/>
+      <c r="Q106" s="374"/>
+      <c r="R106" s="374"/>
+      <c r="S106" s="374"/>
+      <c r="T106" s="375"/>
+      <c r="U106" s="376" t="s">
         <v>712</v>
       </c>
-      <c r="V106" s="369"/>
-      <c r="W106" s="369"/>
-      <c r="X106" s="370"/>
+      <c r="V106" s="377"/>
+      <c r="W106" s="377"/>
+      <c r="X106" s="378"/>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A107" s="373"/>
-      <c r="B107" s="374"/>
-      <c r="C107" s="374"/>
-      <c r="D107" s="374"/>
-      <c r="E107" s="374"/>
-      <c r="F107" s="375"/>
-      <c r="G107" s="373"/>
-      <c r="H107" s="374"/>
-      <c r="I107" s="375"/>
-      <c r="J107" s="376"/>
-      <c r="K107" s="377"/>
-      <c r="L107" s="377"/>
-      <c r="M107" s="377"/>
-      <c r="N107" s="378"/>
-      <c r="O107" s="379"/>
-      <c r="P107" s="380"/>
-      <c r="Q107" s="380"/>
-      <c r="R107" s="380"/>
-      <c r="S107" s="380"/>
-      <c r="T107" s="381"/>
-      <c r="U107" s="376"/>
-      <c r="V107" s="377"/>
-      <c r="W107" s="377"/>
-      <c r="X107" s="378"/>
+      <c r="A107" s="381"/>
+      <c r="B107" s="382"/>
+      <c r="C107" s="382"/>
+      <c r="D107" s="382"/>
+      <c r="E107" s="382"/>
+      <c r="F107" s="383"/>
+      <c r="G107" s="381"/>
+      <c r="H107" s="382"/>
+      <c r="I107" s="383"/>
+      <c r="J107" s="384"/>
+      <c r="K107" s="385"/>
+      <c r="L107" s="385"/>
+      <c r="M107" s="385"/>
+      <c r="N107" s="386"/>
+      <c r="O107" s="387"/>
+      <c r="P107" s="388"/>
+      <c r="Q107" s="388"/>
+      <c r="R107" s="388"/>
+      <c r="S107" s="388"/>
+      <c r="T107" s="389"/>
+      <c r="U107" s="384"/>
+      <c r="V107" s="385"/>
+      <c r="W107" s="385"/>
+      <c r="X107" s="386"/>
     </row>
     <row r="108" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="373"/>
-      <c r="B108" s="374"/>
-      <c r="C108" s="374"/>
-      <c r="D108" s="374"/>
-      <c r="E108" s="374"/>
-      <c r="F108" s="375"/>
-      <c r="G108" s="373"/>
-      <c r="H108" s="374"/>
-      <c r="I108" s="375"/>
-      <c r="J108" s="376"/>
-      <c r="K108" s="377"/>
-      <c r="L108" s="377"/>
-      <c r="M108" s="377"/>
-      <c r="N108" s="378"/>
-      <c r="O108" s="373"/>
-      <c r="P108" s="374"/>
-      <c r="Q108" s="374"/>
-      <c r="R108" s="374"/>
-      <c r="S108" s="374"/>
-      <c r="T108" s="375"/>
-      <c r="U108" s="376"/>
-      <c r="V108" s="377"/>
-      <c r="W108" s="377"/>
-      <c r="X108" s="378"/>
+      <c r="A108" s="381"/>
+      <c r="B108" s="382"/>
+      <c r="C108" s="382"/>
+      <c r="D108" s="382"/>
+      <c r="E108" s="382"/>
+      <c r="F108" s="383"/>
+      <c r="G108" s="381"/>
+      <c r="H108" s="382"/>
+      <c r="I108" s="383"/>
+      <c r="J108" s="384"/>
+      <c r="K108" s="385"/>
+      <c r="L108" s="385"/>
+      <c r="M108" s="385"/>
+      <c r="N108" s="386"/>
+      <c r="O108" s="381"/>
+      <c r="P108" s="382"/>
+      <c r="Q108" s="382"/>
+      <c r="R108" s="382"/>
+      <c r="S108" s="382"/>
+      <c r="T108" s="383"/>
+      <c r="U108" s="384"/>
+      <c r="V108" s="385"/>
+      <c r="W108" s="385"/>
+      <c r="X108" s="386"/>
     </row>
     <row r="109" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="373"/>
-      <c r="B109" s="374"/>
-      <c r="C109" s="374"/>
-      <c r="D109" s="374"/>
-      <c r="E109" s="374"/>
-      <c r="F109" s="375"/>
-      <c r="G109" s="373"/>
-      <c r="H109" s="374"/>
-      <c r="I109" s="375"/>
-      <c r="J109" s="376"/>
-      <c r="K109" s="377"/>
-      <c r="L109" s="377"/>
-      <c r="M109" s="377"/>
-      <c r="N109" s="378"/>
-      <c r="O109" s="373"/>
-      <c r="P109" s="374"/>
-      <c r="Q109" s="374"/>
-      <c r="R109" s="374"/>
-      <c r="S109" s="374"/>
-      <c r="T109" s="375"/>
-      <c r="U109" s="376"/>
-      <c r="V109" s="377"/>
-      <c r="W109" s="377"/>
-      <c r="X109" s="378"/>
+      <c r="A109" s="381"/>
+      <c r="B109" s="382"/>
+      <c r="C109" s="382"/>
+      <c r="D109" s="382"/>
+      <c r="E109" s="382"/>
+      <c r="F109" s="383"/>
+      <c r="G109" s="381"/>
+      <c r="H109" s="382"/>
+      <c r="I109" s="383"/>
+      <c r="J109" s="384"/>
+      <c r="K109" s="385"/>
+      <c r="L109" s="385"/>
+      <c r="M109" s="385"/>
+      <c r="N109" s="386"/>
+      <c r="O109" s="381"/>
+      <c r="P109" s="382"/>
+      <c r="Q109" s="382"/>
+      <c r="R109" s="382"/>
+      <c r="S109" s="382"/>
+      <c r="T109" s="383"/>
+      <c r="U109" s="384"/>
+      <c r="V109" s="385"/>
+      <c r="W109" s="385"/>
+      <c r="X109" s="386"/>
     </row>
     <row r="110" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="238"/>
@@ -39475,59 +39475,59 @@
       <c r="X113" s="9"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A114" s="364" t="str">
+      <c r="A114" s="372" t="str">
         <f>IF(Calibración!E10="2",Calibración!BJ6,Calibración!BJ7)</f>
         <v>La indicación de la presión de referencia y del equipo corresponden al promedio de 4 mediciones en 2 ciclos ascendentes y descendentes.</v>
       </c>
-      <c r="B114" s="364"/>
-      <c r="C114" s="364"/>
-      <c r="D114" s="364"/>
-      <c r="E114" s="364"/>
-      <c r="F114" s="364"/>
-      <c r="G114" s="364"/>
-      <c r="H114" s="364"/>
-      <c r="I114" s="364"/>
-      <c r="J114" s="364"/>
-      <c r="K114" s="364"/>
-      <c r="L114" s="364"/>
-      <c r="M114" s="364"/>
-      <c r="N114" s="364"/>
-      <c r="O114" s="364"/>
-      <c r="P114" s="364"/>
-      <c r="Q114" s="364"/>
-      <c r="R114" s="364"/>
-      <c r="S114" s="364"/>
-      <c r="T114" s="364"/>
-      <c r="U114" s="364"/>
-      <c r="V114" s="364"/>
-      <c r="W114" s="364"/>
-      <c r="X114" s="364"/>
+      <c r="B114" s="372"/>
+      <c r="C114" s="372"/>
+      <c r="D114" s="372"/>
+      <c r="E114" s="372"/>
+      <c r="F114" s="372"/>
+      <c r="G114" s="372"/>
+      <c r="H114" s="372"/>
+      <c r="I114" s="372"/>
+      <c r="J114" s="372"/>
+      <c r="K114" s="372"/>
+      <c r="L114" s="372"/>
+      <c r="M114" s="372"/>
+      <c r="N114" s="372"/>
+      <c r="O114" s="372"/>
+      <c r="P114" s="372"/>
+      <c r="Q114" s="372"/>
+      <c r="R114" s="372"/>
+      <c r="S114" s="372"/>
+      <c r="T114" s="372"/>
+      <c r="U114" s="372"/>
+      <c r="V114" s="372"/>
+      <c r="W114" s="372"/>
+      <c r="X114" s="372"/>
     </row>
     <row r="115" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="364"/>
-      <c r="B115" s="364"/>
-      <c r="C115" s="364"/>
-      <c r="D115" s="364"/>
-      <c r="E115" s="364"/>
-      <c r="F115" s="364"/>
-      <c r="G115" s="364"/>
-      <c r="H115" s="364"/>
-      <c r="I115" s="364"/>
-      <c r="J115" s="364"/>
-      <c r="K115" s="364"/>
-      <c r="L115" s="364"/>
-      <c r="M115" s="364"/>
-      <c r="N115" s="364"/>
-      <c r="O115" s="364"/>
-      <c r="P115" s="364"/>
-      <c r="Q115" s="364"/>
-      <c r="R115" s="364"/>
-      <c r="S115" s="364"/>
-      <c r="T115" s="364"/>
-      <c r="U115" s="364"/>
-      <c r="V115" s="364"/>
-      <c r="W115" s="364"/>
-      <c r="X115" s="364"/>
+      <c r="A115" s="372"/>
+      <c r="B115" s="372"/>
+      <c r="C115" s="372"/>
+      <c r="D115" s="372"/>
+      <c r="E115" s="372"/>
+      <c r="F115" s="372"/>
+      <c r="G115" s="372"/>
+      <c r="H115" s="372"/>
+      <c r="I115" s="372"/>
+      <c r="J115" s="372"/>
+      <c r="K115" s="372"/>
+      <c r="L115" s="372"/>
+      <c r="M115" s="372"/>
+      <c r="N115" s="372"/>
+      <c r="O115" s="372"/>
+      <c r="P115" s="372"/>
+      <c r="Q115" s="372"/>
+      <c r="R115" s="372"/>
+      <c r="S115" s="372"/>
+      <c r="T115" s="372"/>
+      <c r="U115" s="372"/>
+      <c r="V115" s="372"/>
+      <c r="W115" s="372"/>
+      <c r="X115" s="372"/>
     </row>
     <row r="116" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="239" t="s">
@@ -39751,54 +39751,54 @@
       <c r="X123" s="9"/>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I126" s="382" t="s">
+      <c r="I126" s="390" t="s">
         <v>31</v>
       </c>
-      <c r="J126" s="382"/>
-      <c r="K126" s="382"/>
-      <c r="L126" s="382"/>
-      <c r="M126" s="382"/>
-      <c r="N126" s="382"/>
-      <c r="O126" s="382"/>
-      <c r="P126" s="382"/>
+      <c r="J126" s="390"/>
+      <c r="K126" s="390"/>
+      <c r="L126" s="390"/>
+      <c r="M126" s="390"/>
+      <c r="N126" s="390"/>
+      <c r="O126" s="390"/>
+      <c r="P126" s="390"/>
       <c r="Y126" s="9"/>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I127" s="383" t="str">
+      <c r="I127" s="391" t="str">
         <f>IF(I126=[5]Generales!$F$1,[5]Generales!$F$6,[5]Generales!$F$5)</f>
         <v>Director Técnico</v>
       </c>
-      <c r="J127" s="383"/>
-      <c r="K127" s="383"/>
-      <c r="L127" s="383"/>
-      <c r="M127" s="383"/>
-      <c r="N127" s="383"/>
-      <c r="O127" s="383"/>
-      <c r="P127" s="383"/>
+      <c r="J127" s="391"/>
+      <c r="K127" s="391"/>
+      <c r="L127" s="391"/>
+      <c r="M127" s="391"/>
+      <c r="N127" s="391"/>
+      <c r="O127" s="391"/>
+      <c r="P127" s="391"/>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I128" s="384" t="s">
+      <c r="I128" s="392" t="s">
         <v>717</v>
       </c>
-      <c r="J128" s="384"/>
-      <c r="K128" s="384"/>
-      <c r="L128" s="384"/>
-      <c r="M128" s="384"/>
-      <c r="N128" s="384"/>
-      <c r="O128" s="384"/>
-      <c r="P128" s="384"/>
+      <c r="J128" s="392"/>
+      <c r="K128" s="392"/>
+      <c r="L128" s="392"/>
+      <c r="M128" s="392"/>
+      <c r="N128" s="392"/>
+      <c r="O128" s="392"/>
+      <c r="P128" s="392"/>
     </row>
     <row r="129" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I129" s="385" t="s">
+      <c r="I129" s="393" t="s">
         <v>718</v>
       </c>
-      <c r="J129" s="385"/>
-      <c r="K129" s="385"/>
-      <c r="L129" s="385"/>
-      <c r="M129" s="385"/>
-      <c r="N129" s="385"/>
-      <c r="O129" s="385"/>
-      <c r="P129" s="385"/>
+      <c r="J129" s="393"/>
+      <c r="K129" s="393"/>
+      <c r="L129" s="393"/>
+      <c r="M129" s="393"/>
+      <c r="N129" s="393"/>
+      <c r="O129" s="393"/>
+      <c r="P129" s="393"/>
     </row>
   </sheetData>
   <mergeCells count="144">
@@ -39833,27 +39833,27 @@
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="K80:L80"/>
     <mergeCell ref="T80:U80"/>
-    <mergeCell ref="L69:Q69"/>
-    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="L68:Q68"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:K66"/>
+    <mergeCell ref="L66:Q66"/>
+    <mergeCell ref="R66:W66"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="F67:K67"/>
     <mergeCell ref="L67:Q67"/>
     <mergeCell ref="R67:W67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:K68"/>
-    <mergeCell ref="L68:Q68"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="L66:Q66"/>
-    <mergeCell ref="R66:W66"/>
-    <mergeCell ref="D61:W61"/>
-    <mergeCell ref="D62:E63"/>
-    <mergeCell ref="F62:K63"/>
-    <mergeCell ref="L62:Q63"/>
-    <mergeCell ref="R62:W63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:K64"/>
-    <mergeCell ref="L64:Q64"/>
-    <mergeCell ref="R64:W64"/>
+    <mergeCell ref="L65:Q65"/>
+    <mergeCell ref="R65:W65"/>
+    <mergeCell ref="D60:W60"/>
+    <mergeCell ref="D61:E62"/>
+    <mergeCell ref="F61:K62"/>
+    <mergeCell ref="L61:Q62"/>
+    <mergeCell ref="R61:W62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="L63:Q63"/>
+    <mergeCell ref="R63:W63"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:K31"/>
     <mergeCell ref="L31:Q31"/>
@@ -39862,10 +39862,10 @@
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="L32:Q32"/>
     <mergeCell ref="R32:W32"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:K65"/>
-    <mergeCell ref="L65:Q65"/>
-    <mergeCell ref="R65:W65"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:K64"/>
+    <mergeCell ref="L64:Q64"/>
+    <mergeCell ref="R64:W64"/>
     <mergeCell ref="R33:W33"/>
     <mergeCell ref="R34:W34"/>
     <mergeCell ref="R35:W35"/>
@@ -39914,25 +39914,25 @@
     <mergeCell ref="N21:X22"/>
     <mergeCell ref="D24:W24"/>
     <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="R69:W69"/>
     <mergeCell ref="R70:W70"/>
     <mergeCell ref="R71:W71"/>
     <mergeCell ref="R72:W72"/>
     <mergeCell ref="R73:W73"/>
-    <mergeCell ref="R74:W74"/>
+    <mergeCell ref="L69:Q69"/>
     <mergeCell ref="L70:Q70"/>
     <mergeCell ref="L71:Q71"/>
     <mergeCell ref="L72:Q72"/>
     <mergeCell ref="L73:Q73"/>
-    <mergeCell ref="L74:Q74"/>
+    <mergeCell ref="F70:K70"/>
     <mergeCell ref="F71:K71"/>
     <mergeCell ref="F72:K72"/>
     <mergeCell ref="F73:K73"/>
-    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="D69:E69"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="D72:E72"/>
     <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
     <mergeCell ref="F35:K35"/>
     <mergeCell ref="F36:K36"/>
     <mergeCell ref="F37:K37"/>
@@ -39941,11 +39941,11 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F70:K70"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:K66"/>
-    <mergeCell ref="D69:E69"/>
     <mergeCell ref="F69:K69"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:K65"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:K68"/>
   </mergeCells>
   <conditionalFormatting sqref="A118">
     <cfRule type="cellIs" priority="1" operator="equal">
@@ -40032,20 +40032,20 @@
       <c r="K8" s="227"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="351" t="str">
+      <c r="N8" s="359" t="str">
         <f>General!F3</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O8" s="352"/>
-      <c r="P8" s="352"/>
-      <c r="Q8" s="352"/>
-      <c r="R8" s="352"/>
-      <c r="S8" s="352"/>
-      <c r="T8" s="352"/>
-      <c r="U8" s="352"/>
-      <c r="V8" s="352"/>
-      <c r="W8" s="352"/>
-      <c r="X8" s="352"/>
+      <c r="O8" s="360"/>
+      <c r="P8" s="360"/>
+      <c r="Q8" s="360"/>
+      <c r="R8" s="360"/>
+      <c r="S8" s="360"/>
+      <c r="T8" s="360"/>
+      <c r="U8" s="360"/>
+      <c r="V8" s="360"/>
+      <c r="W8" s="360"/>
+      <c r="X8" s="360"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="224" t="s">
@@ -40062,20 +40062,20 @@
       <c r="K9" s="227"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="353" t="str">
+      <c r="N9" s="361" t="str">
         <f>General!F4</f>
         <v>NI-CS-XXXX-XX</v>
       </c>
-      <c r="O9" s="354"/>
-      <c r="P9" s="354"/>
-      <c r="Q9" s="354"/>
-      <c r="R9" s="354"/>
-      <c r="S9" s="354"/>
-      <c r="T9" s="354"/>
-      <c r="U9" s="354"/>
-      <c r="V9" s="354"/>
-      <c r="W9" s="354"/>
-      <c r="X9" s="354"/>
+      <c r="O9" s="362"/>
+      <c r="P9" s="362"/>
+      <c r="Q9" s="362"/>
+      <c r="R9" s="362"/>
+      <c r="S9" s="362"/>
+      <c r="T9" s="362"/>
+      <c r="U9" s="362"/>
+      <c r="V9" s="362"/>
+      <c r="W9" s="362"/>
+      <c r="X9" s="362"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="224" t="s">
@@ -40092,20 +40092,20 @@
       <c r="K10" s="227"/>
       <c r="L10" s="228"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="355" t="str">
+      <c r="N10" s="363" t="str">
         <f>General!F5</f>
         <v>2019-03-06</v>
       </c>
-      <c r="O10" s="355"/>
-      <c r="P10" s="355"/>
-      <c r="Q10" s="355"/>
-      <c r="R10" s="355"/>
-      <c r="S10" s="355"/>
-      <c r="T10" s="355"/>
-      <c r="U10" s="355"/>
-      <c r="V10" s="355"/>
-      <c r="W10" s="355"/>
-      <c r="X10" s="355"/>
+      <c r="O10" s="363"/>
+      <c r="P10" s="363"/>
+      <c r="Q10" s="363"/>
+      <c r="R10" s="363"/>
+      <c r="S10" s="363"/>
+      <c r="T10" s="363"/>
+      <c r="U10" s="363"/>
+      <c r="V10" s="363"/>
+      <c r="W10" s="363"/>
+      <c r="X10" s="363"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="224" t="s">
@@ -40122,13 +40122,13 @@
       <c r="K11" s="227"/>
       <c r="L11" s="228"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="355">
+      <c r="N11" s="363">
         <f ca="1">NOW()</f>
-        <v>45483.455977546299</v>
-      </c>
-      <c r="O11" s="355"/>
-      <c r="P11" s="355"/>
-      <c r="Q11" s="355"/>
+        <v>45489.709634606479</v>
+      </c>
+      <c r="O11" s="363"/>
+      <c r="P11" s="363"/>
+      <c r="Q11" s="363"/>
       <c r="R11" s="295"/>
       <c r="S11" s="295"/>
       <c r="T11" s="295"/>
@@ -40152,20 +40152,20 @@
       <c r="K12" s="227"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="353" t="str">
+      <c r="N12" s="361" t="str">
         <f>General!F7</f>
         <v xml:space="preserve">Manómetro </v>
       </c>
-      <c r="O12" s="354"/>
-      <c r="P12" s="354"/>
-      <c r="Q12" s="354"/>
-      <c r="R12" s="354"/>
-      <c r="S12" s="354"/>
-      <c r="T12" s="354"/>
-      <c r="U12" s="354"/>
-      <c r="V12" s="354"/>
-      <c r="W12" s="354"/>
-      <c r="X12" s="354"/>
+      <c r="O12" s="362"/>
+      <c r="P12" s="362"/>
+      <c r="Q12" s="362"/>
+      <c r="R12" s="362"/>
+      <c r="S12" s="362"/>
+      <c r="T12" s="362"/>
+      <c r="U12" s="362"/>
+      <c r="V12" s="362"/>
+      <c r="W12" s="362"/>
+      <c r="X12" s="362"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="224" t="s">
@@ -40182,20 +40182,20 @@
       <c r="K13" s="227"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="353" t="str">
+      <c r="N13" s="361" t="str">
         <f>General!F10</f>
         <v>Wika</v>
       </c>
-      <c r="O13" s="354"/>
-      <c r="P13" s="354"/>
-      <c r="Q13" s="354"/>
-      <c r="R13" s="354"/>
-      <c r="S13" s="354"/>
-      <c r="T13" s="354"/>
-      <c r="U13" s="354"/>
-      <c r="V13" s="354"/>
-      <c r="W13" s="354"/>
-      <c r="X13" s="354"/>
+      <c r="O13" s="362"/>
+      <c r="P13" s="362"/>
+      <c r="Q13" s="362"/>
+      <c r="R13" s="362"/>
+      <c r="S13" s="362"/>
+      <c r="T13" s="362"/>
+      <c r="U13" s="362"/>
+      <c r="V13" s="362"/>
+      <c r="W13" s="362"/>
+      <c r="X13" s="362"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="224" t="s">
@@ -40212,20 +40212,20 @@
       <c r="K14" s="227"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="353" t="str">
+      <c r="N14" s="361" t="str">
         <f>General!F12</f>
         <v>90271482-1-19</v>
       </c>
-      <c r="O14" s="354"/>
-      <c r="P14" s="354"/>
-      <c r="Q14" s="354"/>
-      <c r="R14" s="354"/>
-      <c r="S14" s="354"/>
-      <c r="T14" s="354"/>
-      <c r="U14" s="354"/>
-      <c r="V14" s="354"/>
-      <c r="W14" s="354"/>
-      <c r="X14" s="354"/>
+      <c r="O14" s="362"/>
+      <c r="P14" s="362"/>
+      <c r="Q14" s="362"/>
+      <c r="R14" s="362"/>
+      <c r="S14" s="362"/>
+      <c r="T14" s="362"/>
+      <c r="U14" s="362"/>
+      <c r="V14" s="362"/>
+      <c r="W14" s="362"/>
+      <c r="X14" s="362"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="224" t="s">
@@ -40242,20 +40242,20 @@
       <c r="K15" s="227"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="353" t="str">
+      <c r="N15" s="361" t="str">
         <f>General!F11</f>
         <v>No Aplica (N/A)</v>
       </c>
-      <c r="O15" s="354"/>
-      <c r="P15" s="354"/>
-      <c r="Q15" s="354"/>
-      <c r="R15" s="354"/>
-      <c r="S15" s="354"/>
-      <c r="T15" s="354"/>
-      <c r="U15" s="354"/>
-      <c r="V15" s="354"/>
-      <c r="W15" s="354"/>
-      <c r="X15" s="354"/>
+      <c r="O15" s="362"/>
+      <c r="P15" s="362"/>
+      <c r="Q15" s="362"/>
+      <c r="R15" s="362"/>
+      <c r="S15" s="362"/>
+      <c r="T15" s="362"/>
+      <c r="U15" s="362"/>
+      <c r="V15" s="362"/>
+      <c r="W15" s="362"/>
+      <c r="X15" s="362"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="224" t="s">
@@ -40272,20 +40272,20 @@
       <c r="K16" s="227"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="353" t="str">
+      <c r="N16" s="361" t="str">
         <f>General!F18</f>
         <v>0 kgf/cm² a 16 kgf/cm²</v>
       </c>
-      <c r="O16" s="354"/>
-      <c r="P16" s="354"/>
-      <c r="Q16" s="354"/>
-      <c r="R16" s="354"/>
-      <c r="S16" s="354"/>
-      <c r="T16" s="354"/>
-      <c r="U16" s="354"/>
-      <c r="V16" s="354"/>
-      <c r="W16" s="354"/>
-      <c r="X16" s="354"/>
+      <c r="O16" s="362"/>
+      <c r="P16" s="362"/>
+      <c r="Q16" s="362"/>
+      <c r="R16" s="362"/>
+      <c r="S16" s="362"/>
+      <c r="T16" s="362"/>
+      <c r="U16" s="362"/>
+      <c r="V16" s="362"/>
+      <c r="W16" s="362"/>
+      <c r="X16" s="362"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="224" t="s">
@@ -40302,16 +40302,16 @@
       <c r="K17" s="227"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="353" t="str">
+      <c r="N17" s="361" t="str">
         <f>General!F15</f>
         <v>0,5</v>
       </c>
-      <c r="O17" s="354"/>
-      <c r="P17" s="353" t="str">
+      <c r="O17" s="362"/>
+      <c r="P17" s="361" t="str">
         <f>General!F16</f>
         <v>atm</v>
       </c>
-      <c r="Q17" s="354"/>
+      <c r="Q17" s="362"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -40335,20 +40335,20 @@
       <c r="K18" s="227"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="353" t="str">
+      <c r="N18" s="361" t="str">
         <f>General!F6</f>
         <v>MAN-A04</v>
       </c>
-      <c r="O18" s="354"/>
-      <c r="P18" s="354"/>
-      <c r="Q18" s="354"/>
-      <c r="R18" s="354"/>
-      <c r="S18" s="354"/>
-      <c r="T18" s="354"/>
-      <c r="U18" s="354"/>
-      <c r="V18" s="354"/>
-      <c r="W18" s="354"/>
-      <c r="X18" s="354"/>
+      <c r="O18" s="362"/>
+      <c r="P18" s="362"/>
+      <c r="Q18" s="362"/>
+      <c r="R18" s="362"/>
+      <c r="S18" s="362"/>
+      <c r="T18" s="362"/>
+      <c r="U18" s="362"/>
+      <c r="V18" s="362"/>
+      <c r="W18" s="362"/>
+      <c r="X18" s="362"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="224" t="s">
@@ -40365,20 +40365,20 @@
       <c r="K19" s="227"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="353" t="str">
+      <c r="N19" s="361" t="str">
         <f>General!L3</f>
         <v>Mechnikov, S.A.</v>
       </c>
-      <c r="O19" s="354"/>
-      <c r="P19" s="354"/>
-      <c r="Q19" s="354"/>
-      <c r="R19" s="354"/>
-      <c r="S19" s="354"/>
-      <c r="T19" s="354"/>
-      <c r="U19" s="354"/>
-      <c r="V19" s="354"/>
-      <c r="W19" s="354"/>
-      <c r="X19" s="354"/>
+      <c r="O19" s="362"/>
+      <c r="P19" s="362"/>
+      <c r="Q19" s="362"/>
+      <c r="R19" s="362"/>
+      <c r="S19" s="362"/>
+      <c r="T19" s="362"/>
+      <c r="U19" s="362"/>
+      <c r="V19" s="362"/>
+      <c r="W19" s="362"/>
+      <c r="X19" s="362"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
@@ -40395,20 +40395,20 @@
       <c r="K20" s="227"/>
       <c r="L20" s="11"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="354" t="str">
+      <c r="N20" s="362" t="str">
         <f>General!L4</f>
         <v/>
       </c>
-      <c r="O20" s="354"/>
-      <c r="P20" s="354"/>
-      <c r="Q20" s="354"/>
-      <c r="R20" s="354"/>
-      <c r="S20" s="354"/>
-      <c r="T20" s="354"/>
-      <c r="U20" s="354"/>
-      <c r="V20" s="354"/>
-      <c r="W20" s="354"/>
-      <c r="X20" s="354"/>
+      <c r="O20" s="362"/>
+      <c r="P20" s="362"/>
+      <c r="Q20" s="362"/>
+      <c r="R20" s="362"/>
+      <c r="S20" s="362"/>
+      <c r="T20" s="362"/>
+      <c r="U20" s="362"/>
+      <c r="V20" s="362"/>
+      <c r="W20" s="362"/>
+      <c r="X20" s="362"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="224" t="s">
@@ -40425,34 +40425,34 @@
       <c r="K21" s="227"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="356" t="str">
+      <c r="N21" s="364" t="str">
         <f>General!L6</f>
         <v>Laboratorio #2, Metrocal</v>
       </c>
-      <c r="O21" s="356"/>
-      <c r="P21" s="356"/>
-      <c r="Q21" s="356"/>
-      <c r="R21" s="356"/>
-      <c r="S21" s="356"/>
-      <c r="T21" s="356"/>
-      <c r="U21" s="356"/>
-      <c r="V21" s="356"/>
-      <c r="W21" s="356"/>
-      <c r="X21" s="356"/>
+      <c r="O21" s="364"/>
+      <c r="P21" s="364"/>
+      <c r="Q21" s="364"/>
+      <c r="R21" s="364"/>
+      <c r="S21" s="364"/>
+      <c r="T21" s="364"/>
+      <c r="U21" s="364"/>
+      <c r="V21" s="364"/>
+      <c r="W21" s="364"/>
+      <c r="X21" s="364"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="224"/>
-      <c r="N22" s="356"/>
-      <c r="O22" s="356"/>
-      <c r="P22" s="356"/>
-      <c r="Q22" s="356"/>
-      <c r="R22" s="356"/>
-      <c r="S22" s="356"/>
-      <c r="T22" s="356"/>
-      <c r="U22" s="356"/>
-      <c r="V22" s="356"/>
-      <c r="W22" s="356"/>
-      <c r="X22" s="356"/>
+      <c r="N22" s="364"/>
+      <c r="O22" s="364"/>
+      <c r="P22" s="364"/>
+      <c r="Q22" s="364"/>
+      <c r="R22" s="364"/>
+      <c r="S22" s="364"/>
+      <c r="T22" s="364"/>
+      <c r="U22" s="364"/>
+      <c r="V22" s="364"/>
+      <c r="W22" s="364"/>
+      <c r="X22" s="364"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="224" t="s">
@@ -40467,308 +40467,308 @@
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="357" t="s">
+      <c r="D24" s="365" t="s">
         <v>363</v>
       </c>
-      <c r="E24" s="357"/>
-      <c r="F24" s="357"/>
-      <c r="G24" s="357"/>
-      <c r="H24" s="357"/>
-      <c r="I24" s="357"/>
-      <c r="J24" s="357"/>
-      <c r="K24" s="357"/>
-      <c r="L24" s="357"/>
-      <c r="M24" s="357"/>
-      <c r="N24" s="357"/>
-      <c r="O24" s="357"/>
-      <c r="P24" s="357"/>
-      <c r="Q24" s="357"/>
-      <c r="R24" s="357"/>
-      <c r="S24" s="357"/>
-      <c r="T24" s="357"/>
-      <c r="U24" s="357"/>
-      <c r="V24" s="357"/>
-      <c r="W24" s="357"/>
+      <c r="E24" s="365"/>
+      <c r="F24" s="365"/>
+      <c r="G24" s="365"/>
+      <c r="H24" s="365"/>
+      <c r="I24" s="365"/>
+      <c r="J24" s="365"/>
+      <c r="K24" s="365"/>
+      <c r="L24" s="365"/>
+      <c r="M24" s="365"/>
+      <c r="N24" s="365"/>
+      <c r="O24" s="365"/>
+      <c r="P24" s="365"/>
+      <c r="Q24" s="365"/>
+      <c r="R24" s="365"/>
+      <c r="S24" s="365"/>
+      <c r="T24" s="365"/>
+      <c r="U24" s="365"/>
+      <c r="V24" s="365"/>
+      <c r="W24" s="365"/>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="358" t="s">
+      <c r="D25" s="366" t="s">
         <v>631</v>
       </c>
-      <c r="E25" s="358"/>
-      <c r="F25" s="359" t="s">
+      <c r="E25" s="366"/>
+      <c r="F25" s="367" t="s">
         <v>696</v>
       </c>
-      <c r="G25" s="359"/>
-      <c r="H25" s="359"/>
-      <c r="I25" s="359"/>
-      <c r="J25" s="359"/>
-      <c r="K25" s="359"/>
-      <c r="L25" s="359" t="s">
+      <c r="G25" s="367"/>
+      <c r="H25" s="367"/>
+      <c r="I25" s="367"/>
+      <c r="J25" s="367"/>
+      <c r="K25" s="367"/>
+      <c r="L25" s="367" t="s">
         <v>364</v>
       </c>
-      <c r="M25" s="359"/>
-      <c r="N25" s="359"/>
-      <c r="O25" s="359"/>
-      <c r="P25" s="359"/>
-      <c r="Q25" s="359"/>
-      <c r="R25" s="358" t="s">
+      <c r="M25" s="367"/>
+      <c r="N25" s="367"/>
+      <c r="O25" s="367"/>
+      <c r="P25" s="367"/>
+      <c r="Q25" s="367"/>
+      <c r="R25" s="366" t="s">
         <v>697</v>
       </c>
-      <c r="S25" s="358"/>
-      <c r="T25" s="358"/>
-      <c r="U25" s="358"/>
-      <c r="V25" s="358"/>
-      <c r="W25" s="358"/>
+      <c r="S25" s="366"/>
+      <c r="T25" s="366"/>
+      <c r="U25" s="366"/>
+      <c r="V25" s="366"/>
+      <c r="W25" s="366"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="358"/>
-      <c r="E26" s="358"/>
-      <c r="F26" s="359"/>
-      <c r="G26" s="359"/>
-      <c r="H26" s="359"/>
-      <c r="I26" s="359"/>
-      <c r="J26" s="359"/>
-      <c r="K26" s="359"/>
-      <c r="L26" s="359"/>
-      <c r="M26" s="359"/>
-      <c r="N26" s="359"/>
-      <c r="O26" s="359"/>
-      <c r="P26" s="359"/>
-      <c r="Q26" s="359"/>
-      <c r="R26" s="358"/>
-      <c r="S26" s="358"/>
-      <c r="T26" s="358"/>
-      <c r="U26" s="358"/>
-      <c r="V26" s="358"/>
-      <c r="W26" s="358"/>
+      <c r="D26" s="366"/>
+      <c r="E26" s="366"/>
+      <c r="F26" s="367"/>
+      <c r="G26" s="367"/>
+      <c r="H26" s="367"/>
+      <c r="I26" s="367"/>
+      <c r="J26" s="367"/>
+      <c r="K26" s="367"/>
+      <c r="L26" s="367"/>
+      <c r="M26" s="367"/>
+      <c r="N26" s="367"/>
+      <c r="O26" s="367"/>
+      <c r="P26" s="367"/>
+      <c r="Q26" s="367"/>
+      <c r="R26" s="366"/>
+      <c r="S26" s="366"/>
+      <c r="T26" s="366"/>
+      <c r="U26" s="366"/>
+      <c r="V26" s="366"/>
+      <c r="W26" s="366"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="360" t="str">
+      <c r="D27" s="368" t="str">
         <f>Calibración!C37</f>
         <v>atm</v>
       </c>
-      <c r="E27" s="360"/>
-      <c r="F27" s="361" t="str">
+      <c r="E27" s="368"/>
+      <c r="F27" s="369" t="str">
         <f>Calibración!D37</f>
         <v>atm</v>
       </c>
-      <c r="G27" s="362"/>
-      <c r="H27" s="362"/>
-      <c r="I27" s="362"/>
-      <c r="J27" s="362"/>
-      <c r="K27" s="363"/>
-      <c r="L27" s="361" t="str">
+      <c r="G27" s="370"/>
+      <c r="H27" s="370"/>
+      <c r="I27" s="370"/>
+      <c r="J27" s="370"/>
+      <c r="K27" s="371"/>
+      <c r="L27" s="369" t="str">
         <f>Calibración!E37</f>
         <v>atm</v>
       </c>
-      <c r="M27" s="362"/>
-      <c r="N27" s="362"/>
-      <c r="O27" s="362"/>
-      <c r="P27" s="362"/>
-      <c r="Q27" s="363"/>
-      <c r="R27" s="361" t="str">
+      <c r="M27" s="370"/>
+      <c r="N27" s="370"/>
+      <c r="O27" s="370"/>
+      <c r="P27" s="370"/>
+      <c r="Q27" s="371"/>
+      <c r="R27" s="369" t="str">
         <f>Calibración!F37</f>
         <v>atm</v>
       </c>
-      <c r="S27" s="362"/>
-      <c r="T27" s="362"/>
-      <c r="U27" s="362"/>
-      <c r="V27" s="362"/>
-      <c r="W27" s="363"/>
+      <c r="S27" s="370"/>
+      <c r="T27" s="370"/>
+      <c r="U27" s="370"/>
+      <c r="V27" s="370"/>
+      <c r="W27" s="371"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="346" t="str">
+      <c r="D28" s="354" t="str">
         <f ca="1">Calibración!C38</f>
         <v/>
       </c>
-      <c r="E28" s="346"/>
-      <c r="F28" s="343" t="str">
+      <c r="E28" s="354"/>
+      <c r="F28" s="351" t="str">
         <f ca="1">Calibración!D38</f>
         <v/>
       </c>
-      <c r="G28" s="344"/>
-      <c r="H28" s="344"/>
-      <c r="I28" s="344"/>
-      <c r="J28" s="344"/>
-      <c r="K28" s="345"/>
-      <c r="L28" s="343" t="str">
+      <c r="G28" s="352"/>
+      <c r="H28" s="352"/>
+      <c r="I28" s="352"/>
+      <c r="J28" s="352"/>
+      <c r="K28" s="353"/>
+      <c r="L28" s="351" t="str">
         <f ca="1">Calibración!E38</f>
         <v/>
       </c>
-      <c r="M28" s="344"/>
-      <c r="N28" s="344"/>
-      <c r="O28" s="344"/>
-      <c r="P28" s="344"/>
-      <c r="Q28" s="345"/>
-      <c r="R28" s="343" t="str">
+      <c r="M28" s="352"/>
+      <c r="N28" s="352"/>
+      <c r="O28" s="352"/>
+      <c r="P28" s="352"/>
+      <c r="Q28" s="353"/>
+      <c r="R28" s="351" t="str">
         <f ca="1">Calibración!F38</f>
         <v/>
       </c>
-      <c r="S28" s="344"/>
-      <c r="T28" s="344"/>
-      <c r="U28" s="344"/>
-      <c r="V28" s="344"/>
-      <c r="W28" s="345"/>
+      <c r="S28" s="352"/>
+      <c r="T28" s="352"/>
+      <c r="U28" s="352"/>
+      <c r="V28" s="352"/>
+      <c r="W28" s="353"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="346" t="str">
+      <c r="D29" s="354" t="str">
         <f ca="1">Calibración!C39</f>
         <v/>
       </c>
-      <c r="E29" s="346"/>
-      <c r="F29" s="343" t="str">
+      <c r="E29" s="354"/>
+      <c r="F29" s="351" t="str">
         <f ca="1">Calibración!D39</f>
         <v/>
       </c>
-      <c r="G29" s="344"/>
-      <c r="H29" s="344"/>
-      <c r="I29" s="344"/>
-      <c r="J29" s="344"/>
-      <c r="K29" s="345"/>
-      <c r="L29" s="343" t="str">
+      <c r="G29" s="352"/>
+      <c r="H29" s="352"/>
+      <c r="I29" s="352"/>
+      <c r="J29" s="352"/>
+      <c r="K29" s="353"/>
+      <c r="L29" s="351" t="str">
         <f ca="1">Calibración!E39</f>
         <v/>
       </c>
-      <c r="M29" s="344"/>
-      <c r="N29" s="344"/>
-      <c r="O29" s="344"/>
-      <c r="P29" s="344"/>
-      <c r="Q29" s="345"/>
-      <c r="R29" s="343" t="str">
+      <c r="M29" s="352"/>
+      <c r="N29" s="352"/>
+      <c r="O29" s="352"/>
+      <c r="P29" s="352"/>
+      <c r="Q29" s="353"/>
+      <c r="R29" s="351" t="str">
         <f ca="1">Calibración!F39</f>
         <v/>
       </c>
-      <c r="S29" s="344"/>
-      <c r="T29" s="344"/>
-      <c r="U29" s="344"/>
-      <c r="V29" s="344"/>
-      <c r="W29" s="345"/>
+      <c r="S29" s="352"/>
+      <c r="T29" s="352"/>
+      <c r="U29" s="352"/>
+      <c r="V29" s="352"/>
+      <c r="W29" s="353"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="346" t="str">
+      <c r="D30" s="354" t="str">
         <f ca="1">Calibración!C40</f>
         <v/>
       </c>
-      <c r="E30" s="346"/>
-      <c r="F30" s="343" t="str">
+      <c r="E30" s="354"/>
+      <c r="F30" s="351" t="str">
         <f ca="1">Calibración!D40</f>
         <v/>
       </c>
-      <c r="G30" s="344"/>
-      <c r="H30" s="344"/>
-      <c r="I30" s="344"/>
-      <c r="J30" s="344"/>
-      <c r="K30" s="345"/>
-      <c r="L30" s="343" t="str">
+      <c r="G30" s="352"/>
+      <c r="H30" s="352"/>
+      <c r="I30" s="352"/>
+      <c r="J30" s="352"/>
+      <c r="K30" s="353"/>
+      <c r="L30" s="351" t="str">
         <f ca="1">Calibración!E40</f>
         <v/>
       </c>
-      <c r="M30" s="344"/>
-      <c r="N30" s="344"/>
-      <c r="O30" s="344"/>
-      <c r="P30" s="344"/>
-      <c r="Q30" s="345"/>
-      <c r="R30" s="343" t="str">
+      <c r="M30" s="352"/>
+      <c r="N30" s="352"/>
+      <c r="O30" s="352"/>
+      <c r="P30" s="352"/>
+      <c r="Q30" s="353"/>
+      <c r="R30" s="351" t="str">
         <f ca="1">Calibración!F40</f>
         <v/>
       </c>
-      <c r="S30" s="344"/>
-      <c r="T30" s="344"/>
-      <c r="U30" s="344"/>
-      <c r="V30" s="344"/>
-      <c r="W30" s="345"/>
+      <c r="S30" s="352"/>
+      <c r="T30" s="352"/>
+      <c r="U30" s="352"/>
+      <c r="V30" s="352"/>
+      <c r="W30" s="353"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="346" t="str">
+      <c r="D31" s="354" t="str">
         <f ca="1">Calibración!C41</f>
         <v/>
       </c>
-      <c r="E31" s="346"/>
-      <c r="F31" s="343" t="str">
+      <c r="E31" s="354"/>
+      <c r="F31" s="351" t="str">
         <f ca="1">Calibración!D41</f>
         <v/>
       </c>
-      <c r="G31" s="344"/>
-      <c r="H31" s="344"/>
-      <c r="I31" s="344"/>
-      <c r="J31" s="344"/>
-      <c r="K31" s="345"/>
-      <c r="L31" s="343" t="str">
+      <c r="G31" s="352"/>
+      <c r="H31" s="352"/>
+      <c r="I31" s="352"/>
+      <c r="J31" s="352"/>
+      <c r="K31" s="353"/>
+      <c r="L31" s="351" t="str">
         <f ca="1">Calibración!E41</f>
         <v/>
       </c>
-      <c r="M31" s="344"/>
-      <c r="N31" s="344"/>
-      <c r="O31" s="344"/>
-      <c r="P31" s="344"/>
-      <c r="Q31" s="345"/>
-      <c r="R31" s="343" t="str">
+      <c r="M31" s="352"/>
+      <c r="N31" s="352"/>
+      <c r="O31" s="352"/>
+      <c r="P31" s="352"/>
+      <c r="Q31" s="353"/>
+      <c r="R31" s="351" t="str">
         <f ca="1">Calibración!F41</f>
         <v/>
       </c>
-      <c r="S31" s="344"/>
-      <c r="T31" s="344"/>
-      <c r="U31" s="344"/>
-      <c r="V31" s="344"/>
-      <c r="W31" s="345"/>
+      <c r="S31" s="352"/>
+      <c r="T31" s="352"/>
+      <c r="U31" s="352"/>
+      <c r="V31" s="352"/>
+      <c r="W31" s="353"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="346" t="str">
+      <c r="D32" s="354" t="str">
         <f ca="1">Calibración!C42</f>
         <v/>
       </c>
-      <c r="E32" s="346"/>
-      <c r="F32" s="343" t="str">
+      <c r="E32" s="354"/>
+      <c r="F32" s="351" t="str">
         <f ca="1">Calibración!D42</f>
         <v/>
       </c>
-      <c r="G32" s="344"/>
-      <c r="H32" s="344"/>
-      <c r="I32" s="344"/>
-      <c r="J32" s="344"/>
-      <c r="K32" s="345"/>
-      <c r="L32" s="343" t="str">
+      <c r="G32" s="352"/>
+      <c r="H32" s="352"/>
+      <c r="I32" s="352"/>
+      <c r="J32" s="352"/>
+      <c r="K32" s="353"/>
+      <c r="L32" s="351" t="str">
         <f ca="1">Calibración!E42</f>
         <v/>
       </c>
-      <c r="M32" s="344"/>
-      <c r="N32" s="344"/>
-      <c r="O32" s="344"/>
-      <c r="P32" s="344"/>
-      <c r="Q32" s="345"/>
-      <c r="R32" s="343" t="str">
+      <c r="M32" s="352"/>
+      <c r="N32" s="352"/>
+      <c r="O32" s="352"/>
+      <c r="P32" s="352"/>
+      <c r="Q32" s="353"/>
+      <c r="R32" s="351" t="str">
         <f ca="1">Calibración!F42</f>
         <v/>
       </c>
-      <c r="S32" s="344"/>
-      <c r="T32" s="344"/>
-      <c r="U32" s="344"/>
-      <c r="V32" s="344"/>
-      <c r="W32" s="345"/>
+      <c r="S32" s="352"/>
+      <c r="T32" s="352"/>
+      <c r="U32" s="352"/>
+      <c r="V32" s="352"/>
+      <c r="W32" s="353"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D33" s="230"/>
@@ -40821,308 +40821,308 @@
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="357" t="s">
+      <c r="D35" s="365" t="s">
         <v>363</v>
       </c>
-      <c r="E35" s="357"/>
-      <c r="F35" s="357"/>
-      <c r="G35" s="357"/>
-      <c r="H35" s="357"/>
-      <c r="I35" s="357"/>
-      <c r="J35" s="357"/>
-      <c r="K35" s="357"/>
-      <c r="L35" s="357"/>
-      <c r="M35" s="357"/>
-      <c r="N35" s="357"/>
-      <c r="O35" s="357"/>
-      <c r="P35" s="357"/>
-      <c r="Q35" s="357"/>
-      <c r="R35" s="357"/>
-      <c r="S35" s="357"/>
-      <c r="T35" s="357"/>
-      <c r="U35" s="357"/>
-      <c r="V35" s="357"/>
-      <c r="W35" s="357"/>
+      <c r="E35" s="365"/>
+      <c r="F35" s="365"/>
+      <c r="G35" s="365"/>
+      <c r="H35" s="365"/>
+      <c r="I35" s="365"/>
+      <c r="J35" s="365"/>
+      <c r="K35" s="365"/>
+      <c r="L35" s="365"/>
+      <c r="M35" s="365"/>
+      <c r="N35" s="365"/>
+      <c r="O35" s="365"/>
+      <c r="P35" s="365"/>
+      <c r="Q35" s="365"/>
+      <c r="R35" s="365"/>
+      <c r="S35" s="365"/>
+      <c r="T35" s="365"/>
+      <c r="U35" s="365"/>
+      <c r="V35" s="365"/>
+      <c r="W35" s="365"/>
     </row>
     <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="358" t="s">
+      <c r="D36" s="366" t="s">
         <v>631</v>
       </c>
-      <c r="E36" s="358"/>
-      <c r="F36" s="359" t="s">
+      <c r="E36" s="366"/>
+      <c r="F36" s="367" t="s">
         <v>696</v>
       </c>
-      <c r="G36" s="359"/>
-      <c r="H36" s="359"/>
-      <c r="I36" s="359"/>
-      <c r="J36" s="359"/>
-      <c r="K36" s="359"/>
-      <c r="L36" s="359" t="s">
+      <c r="G36" s="367"/>
+      <c r="H36" s="367"/>
+      <c r="I36" s="367"/>
+      <c r="J36" s="367"/>
+      <c r="K36" s="367"/>
+      <c r="L36" s="367" t="s">
         <v>364</v>
       </c>
-      <c r="M36" s="359"/>
-      <c r="N36" s="359"/>
-      <c r="O36" s="359"/>
-      <c r="P36" s="359"/>
-      <c r="Q36" s="359"/>
-      <c r="R36" s="358" t="s">
+      <c r="M36" s="367"/>
+      <c r="N36" s="367"/>
+      <c r="O36" s="367"/>
+      <c r="P36" s="367"/>
+      <c r="Q36" s="367"/>
+      <c r="R36" s="366" t="s">
         <v>697</v>
       </c>
-      <c r="S36" s="358"/>
-      <c r="T36" s="358"/>
-      <c r="U36" s="358"/>
-      <c r="V36" s="358"/>
-      <c r="W36" s="358"/>
+      <c r="S36" s="366"/>
+      <c r="T36" s="366"/>
+      <c r="U36" s="366"/>
+      <c r="V36" s="366"/>
+      <c r="W36" s="366"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="358"/>
-      <c r="E37" s="358"/>
-      <c r="F37" s="359"/>
-      <c r="G37" s="359"/>
-      <c r="H37" s="359"/>
-      <c r="I37" s="359"/>
-      <c r="J37" s="359"/>
-      <c r="K37" s="359"/>
-      <c r="L37" s="359"/>
-      <c r="M37" s="359"/>
-      <c r="N37" s="359"/>
-      <c r="O37" s="359"/>
-      <c r="P37" s="359"/>
-      <c r="Q37" s="359"/>
-      <c r="R37" s="358"/>
-      <c r="S37" s="358"/>
-      <c r="T37" s="358"/>
-      <c r="U37" s="358"/>
-      <c r="V37" s="358"/>
-      <c r="W37" s="358"/>
+      <c r="D37" s="366"/>
+      <c r="E37" s="366"/>
+      <c r="F37" s="367"/>
+      <c r="G37" s="367"/>
+      <c r="H37" s="367"/>
+      <c r="I37" s="367"/>
+      <c r="J37" s="367"/>
+      <c r="K37" s="367"/>
+      <c r="L37" s="367"/>
+      <c r="M37" s="367"/>
+      <c r="N37" s="367"/>
+      <c r="O37" s="367"/>
+      <c r="P37" s="367"/>
+      <c r="Q37" s="367"/>
+      <c r="R37" s="366"/>
+      <c r="S37" s="366"/>
+      <c r="T37" s="366"/>
+      <c r="U37" s="366"/>
+      <c r="V37" s="366"/>
+      <c r="W37" s="366"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="360" t="str">
+      <c r="D38" s="368" t="str">
         <f>Calibración!G37</f>
         <v>kPa</v>
       </c>
-      <c r="E38" s="360"/>
-      <c r="F38" s="361" t="str">
+      <c r="E38" s="368"/>
+      <c r="F38" s="369" t="str">
         <f>Calibración!H37</f>
         <v>kPa</v>
       </c>
-      <c r="G38" s="362"/>
-      <c r="H38" s="362"/>
-      <c r="I38" s="362"/>
-      <c r="J38" s="362"/>
-      <c r="K38" s="363"/>
-      <c r="L38" s="360" t="str">
+      <c r="G38" s="370"/>
+      <c r="H38" s="370"/>
+      <c r="I38" s="370"/>
+      <c r="J38" s="370"/>
+      <c r="K38" s="371"/>
+      <c r="L38" s="368" t="str">
         <f>Calibración!I37</f>
         <v>kPa</v>
       </c>
-      <c r="M38" s="360"/>
-      <c r="N38" s="360"/>
-      <c r="O38" s="360"/>
-      <c r="P38" s="360"/>
-      <c r="Q38" s="360"/>
-      <c r="R38" s="360" t="str">
+      <c r="M38" s="368"/>
+      <c r="N38" s="368"/>
+      <c r="O38" s="368"/>
+      <c r="P38" s="368"/>
+      <c r="Q38" s="368"/>
+      <c r="R38" s="368" t="str">
         <f>Calibración!J37</f>
         <v>kPa</v>
       </c>
-      <c r="S38" s="360"/>
-      <c r="T38" s="360"/>
-      <c r="U38" s="360"/>
-      <c r="V38" s="360"/>
-      <c r="W38" s="360"/>
+      <c r="S38" s="368"/>
+      <c r="T38" s="368"/>
+      <c r="U38" s="368"/>
+      <c r="V38" s="368"/>
+      <c r="W38" s="368"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="350" t="str">
+      <c r="D39" s="358" t="str">
         <f ca="1">Calibración!G38</f>
         <v/>
       </c>
-      <c r="E39" s="350"/>
-      <c r="F39" s="347" t="str">
+      <c r="E39" s="358"/>
+      <c r="F39" s="355" t="str">
         <f ca="1">Calibración!H38</f>
         <v/>
       </c>
-      <c r="G39" s="348"/>
-      <c r="H39" s="348"/>
-      <c r="I39" s="348"/>
-      <c r="J39" s="348"/>
-      <c r="K39" s="349"/>
-      <c r="L39" s="350" t="str">
+      <c r="G39" s="356"/>
+      <c r="H39" s="356"/>
+      <c r="I39" s="356"/>
+      <c r="J39" s="356"/>
+      <c r="K39" s="357"/>
+      <c r="L39" s="358" t="str">
         <f ca="1">Calibración!I38</f>
         <v/>
       </c>
-      <c r="M39" s="350"/>
-      <c r="N39" s="350"/>
-      <c r="O39" s="350"/>
-      <c r="P39" s="350"/>
-      <c r="Q39" s="350"/>
-      <c r="R39" s="350" t="str">
+      <c r="M39" s="358"/>
+      <c r="N39" s="358"/>
+      <c r="O39" s="358"/>
+      <c r="P39" s="358"/>
+      <c r="Q39" s="358"/>
+      <c r="R39" s="358" t="str">
         <f ca="1">Calibración!J38</f>
         <v/>
       </c>
-      <c r="S39" s="350"/>
-      <c r="T39" s="350"/>
-      <c r="U39" s="350"/>
-      <c r="V39" s="350"/>
-      <c r="W39" s="350"/>
+      <c r="S39" s="358"/>
+      <c r="T39" s="358"/>
+      <c r="U39" s="358"/>
+      <c r="V39" s="358"/>
+      <c r="W39" s="358"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="350" t="str">
+      <c r="D40" s="358" t="str">
         <f ca="1">Calibración!G39</f>
         <v/>
       </c>
-      <c r="E40" s="350"/>
-      <c r="F40" s="347" t="str">
+      <c r="E40" s="358"/>
+      <c r="F40" s="355" t="str">
         <f ca="1">Calibración!H39</f>
         <v/>
       </c>
-      <c r="G40" s="348"/>
-      <c r="H40" s="348"/>
-      <c r="I40" s="348"/>
-      <c r="J40" s="348"/>
-      <c r="K40" s="349"/>
-      <c r="L40" s="350" t="str">
+      <c r="G40" s="356"/>
+      <c r="H40" s="356"/>
+      <c r="I40" s="356"/>
+      <c r="J40" s="356"/>
+      <c r="K40" s="357"/>
+      <c r="L40" s="358" t="str">
         <f ca="1">Calibración!I39</f>
         <v/>
       </c>
-      <c r="M40" s="350"/>
-      <c r="N40" s="350"/>
-      <c r="O40" s="350"/>
-      <c r="P40" s="350"/>
-      <c r="Q40" s="350"/>
-      <c r="R40" s="350" t="str">
+      <c r="M40" s="358"/>
+      <c r="N40" s="358"/>
+      <c r="O40" s="358"/>
+      <c r="P40" s="358"/>
+      <c r="Q40" s="358"/>
+      <c r="R40" s="358" t="str">
         <f ca="1">Calibración!J39</f>
         <v/>
       </c>
-      <c r="S40" s="350"/>
-      <c r="T40" s="350"/>
-      <c r="U40" s="350"/>
-      <c r="V40" s="350"/>
-      <c r="W40" s="350"/>
+      <c r="S40" s="358"/>
+      <c r="T40" s="358"/>
+      <c r="U40" s="358"/>
+      <c r="V40" s="358"/>
+      <c r="W40" s="358"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="350" t="str">
+      <c r="D41" s="358" t="str">
         <f ca="1">Calibración!G40</f>
         <v/>
       </c>
-      <c r="E41" s="350"/>
-      <c r="F41" s="347" t="str">
+      <c r="E41" s="358"/>
+      <c r="F41" s="355" t="str">
         <f ca="1">Calibración!H40</f>
         <v/>
       </c>
-      <c r="G41" s="348"/>
-      <c r="H41" s="348"/>
-      <c r="I41" s="348"/>
-      <c r="J41" s="348"/>
-      <c r="K41" s="349"/>
-      <c r="L41" s="350" t="str">
+      <c r="G41" s="356"/>
+      <c r="H41" s="356"/>
+      <c r="I41" s="356"/>
+      <c r="J41" s="356"/>
+      <c r="K41" s="357"/>
+      <c r="L41" s="358" t="str">
         <f ca="1">Calibración!I40</f>
         <v/>
       </c>
-      <c r="M41" s="350"/>
-      <c r="N41" s="350"/>
-      <c r="O41" s="350"/>
-      <c r="P41" s="350"/>
-      <c r="Q41" s="350"/>
-      <c r="R41" s="350" t="str">
+      <c r="M41" s="358"/>
+      <c r="N41" s="358"/>
+      <c r="O41" s="358"/>
+      <c r="P41" s="358"/>
+      <c r="Q41" s="358"/>
+      <c r="R41" s="358" t="str">
         <f ca="1">Calibración!J40</f>
         <v/>
       </c>
-      <c r="S41" s="350"/>
-      <c r="T41" s="350"/>
-      <c r="U41" s="350"/>
-      <c r="V41" s="350"/>
-      <c r="W41" s="350"/>
+      <c r="S41" s="358"/>
+      <c r="T41" s="358"/>
+      <c r="U41" s="358"/>
+      <c r="V41" s="358"/>
+      <c r="W41" s="358"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="350" t="str">
+      <c r="D42" s="358" t="str">
         <f ca="1">Calibración!G41</f>
         <v/>
       </c>
-      <c r="E42" s="350"/>
-      <c r="F42" s="347" t="str">
+      <c r="E42" s="358"/>
+      <c r="F42" s="355" t="str">
         <f ca="1">Calibración!H41</f>
         <v/>
       </c>
-      <c r="G42" s="348"/>
-      <c r="H42" s="348"/>
-      <c r="I42" s="348"/>
-      <c r="J42" s="348"/>
-      <c r="K42" s="349"/>
-      <c r="L42" s="350" t="str">
+      <c r="G42" s="356"/>
+      <c r="H42" s="356"/>
+      <c r="I42" s="356"/>
+      <c r="J42" s="356"/>
+      <c r="K42" s="357"/>
+      <c r="L42" s="358" t="str">
         <f ca="1">Calibración!I41</f>
         <v/>
       </c>
-      <c r="M42" s="350"/>
-      <c r="N42" s="350"/>
-      <c r="O42" s="350"/>
-      <c r="P42" s="350"/>
-      <c r="Q42" s="350"/>
-      <c r="R42" s="350" t="str">
+      <c r="M42" s="358"/>
+      <c r="N42" s="358"/>
+      <c r="O42" s="358"/>
+      <c r="P42" s="358"/>
+      <c r="Q42" s="358"/>
+      <c r="R42" s="358" t="str">
         <f ca="1">Calibración!J41</f>
         <v/>
       </c>
-      <c r="S42" s="350"/>
-      <c r="T42" s="350"/>
-      <c r="U42" s="350"/>
-      <c r="V42" s="350"/>
-      <c r="W42" s="350"/>
+      <c r="S42" s="358"/>
+      <c r="T42" s="358"/>
+      <c r="U42" s="358"/>
+      <c r="V42" s="358"/>
+      <c r="W42" s="358"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="350" t="str">
+      <c r="D43" s="358" t="str">
         <f ca="1">Calibración!G42</f>
         <v/>
       </c>
-      <c r="E43" s="350"/>
-      <c r="F43" s="347" t="str">
+      <c r="E43" s="358"/>
+      <c r="F43" s="355" t="str">
         <f ca="1">Calibración!H42</f>
         <v/>
       </c>
-      <c r="G43" s="348"/>
-      <c r="H43" s="348"/>
-      <c r="I43" s="348"/>
-      <c r="J43" s="348"/>
-      <c r="K43" s="349"/>
-      <c r="L43" s="350" t="str">
+      <c r="G43" s="356"/>
+      <c r="H43" s="356"/>
+      <c r="I43" s="356"/>
+      <c r="J43" s="356"/>
+      <c r="K43" s="357"/>
+      <c r="L43" s="358" t="str">
         <f ca="1">Calibración!I42</f>
         <v/>
       </c>
-      <c r="M43" s="350"/>
-      <c r="N43" s="350"/>
-      <c r="O43" s="350"/>
-      <c r="P43" s="350"/>
-      <c r="Q43" s="350"/>
-      <c r="R43" s="350" t="str">
+      <c r="M43" s="358"/>
+      <c r="N43" s="358"/>
+      <c r="O43" s="358"/>
+      <c r="P43" s="358"/>
+      <c r="Q43" s="358"/>
+      <c r="R43" s="358" t="str">
         <f ca="1">Calibración!J42</f>
         <v/>
       </c>
-      <c r="S43" s="350"/>
-      <c r="T43" s="350"/>
-      <c r="U43" s="350"/>
-      <c r="V43" s="350"/>
-      <c r="W43" s="350"/>
+      <c r="S43" s="358"/>
+      <c r="T43" s="358"/>
+      <c r="U43" s="358"/>
+      <c r="V43" s="358"/>
+      <c r="W43" s="358"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="O44" s="232"/>
@@ -41159,11 +41159,11 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="234"/>
-      <c r="B46" s="371" t="s">
+      <c r="B46" s="379" t="s">
         <v>701</v>
       </c>
-      <c r="C46" s="371"/>
-      <c r="D46" s="371"/>
+      <c r="C46" s="379"/>
+      <c r="D46" s="379"/>
       <c r="E46" s="235" t="str">
         <f>CertTempC</f>
         <v/>
@@ -41180,8 +41180,8 @@
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="354"/>
-      <c r="L46" s="354"/>
+      <c r="K46" s="362"/>
+      <c r="L46" s="362"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
@@ -41191,11 +41191,11 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
-      <c r="T46" s="372" t="str">
+      <c r="T46" s="380" t="str">
         <f>General!I18</f>
         <v/>
       </c>
-      <c r="U46" s="372"/>
+      <c r="U46" s="380"/>
       <c r="V46" s="236" t="s">
         <v>703</v>
       </c>
@@ -41281,20 +41281,20 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
-      <c r="N56" s="352" t="str">
+      <c r="N56" s="360" t="str">
         <f>N8</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O56" s="352"/>
-      <c r="P56" s="352"/>
-      <c r="Q56" s="352"/>
-      <c r="R56" s="352"/>
-      <c r="S56" s="352"/>
-      <c r="T56" s="352"/>
-      <c r="U56" s="352"/>
-      <c r="V56" s="352"/>
-      <c r="W56" s="352"/>
-      <c r="X56" s="352"/>
+      <c r="O56" s="360"/>
+      <c r="P56" s="360"/>
+      <c r="Q56" s="360"/>
+      <c r="R56" s="360"/>
+      <c r="S56" s="360"/>
+      <c r="T56" s="360"/>
+      <c r="U56" s="360"/>
+      <c r="V56" s="360"/>
+      <c r="W56" s="360"/>
+      <c r="X56" s="360"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O57" s="232"/>
@@ -41331,32 +41331,32 @@
       <c r="W59" s="9"/>
     </row>
     <row r="60" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="364" t="s">
+      <c r="A60" s="372" t="s">
         <v>1127</v>
       </c>
-      <c r="B60" s="364"/>
-      <c r="C60" s="364"/>
-      <c r="D60" s="364"/>
-      <c r="E60" s="364"/>
-      <c r="F60" s="364"/>
-      <c r="G60" s="364"/>
-      <c r="H60" s="364"/>
-      <c r="I60" s="364"/>
-      <c r="J60" s="364"/>
-      <c r="K60" s="364"/>
-      <c r="L60" s="364"/>
-      <c r="M60" s="364"/>
-      <c r="N60" s="364"/>
-      <c r="O60" s="364"/>
-      <c r="P60" s="364"/>
-      <c r="Q60" s="364"/>
-      <c r="R60" s="364"/>
-      <c r="S60" s="364"/>
-      <c r="T60" s="364"/>
-      <c r="U60" s="364"/>
-      <c r="V60" s="364"/>
-      <c r="W60" s="364"/>
-      <c r="X60" s="364"/>
+      <c r="B60" s="372"/>
+      <c r="C60" s="372"/>
+      <c r="D60" s="372"/>
+      <c r="E60" s="372"/>
+      <c r="F60" s="372"/>
+      <c r="G60" s="372"/>
+      <c r="H60" s="372"/>
+      <c r="I60" s="372"/>
+      <c r="J60" s="372"/>
+      <c r="K60" s="372"/>
+      <c r="L60" s="372"/>
+      <c r="M60" s="372"/>
+      <c r="N60" s="372"/>
+      <c r="O60" s="372"/>
+      <c r="P60" s="372"/>
+      <c r="Q60" s="372"/>
+      <c r="R60" s="372"/>
+      <c r="S60" s="372"/>
+      <c r="T60" s="372"/>
+      <c r="U60" s="372"/>
+      <c r="V60" s="372"/>
+      <c r="W60" s="372"/>
+      <c r="X60" s="372"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B61" s="16"/>
@@ -41411,136 +41411,136 @@
       <c r="X62" s="16"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A63" s="364" t="s">
+      <c r="A63" s="372" t="s">
         <v>709</v>
       </c>
-      <c r="B63" s="364"/>
-      <c r="C63" s="364"/>
-      <c r="D63" s="364"/>
-      <c r="E63" s="364"/>
-      <c r="F63" s="364"/>
-      <c r="G63" s="364"/>
-      <c r="H63" s="364"/>
-      <c r="I63" s="364"/>
-      <c r="J63" s="364"/>
-      <c r="K63" s="364"/>
-      <c r="L63" s="364"/>
-      <c r="M63" s="364"/>
-      <c r="N63" s="364"/>
-      <c r="O63" s="364"/>
-      <c r="P63" s="364"/>
-      <c r="Q63" s="364"/>
-      <c r="R63" s="364"/>
-      <c r="S63" s="364"/>
-      <c r="T63" s="364"/>
-      <c r="U63" s="364"/>
-      <c r="V63" s="364"/>
-      <c r="W63" s="364"/>
-      <c r="X63" s="364"/>
+      <c r="B63" s="372"/>
+      <c r="C63" s="372"/>
+      <c r="D63" s="372"/>
+      <c r="E63" s="372"/>
+      <c r="F63" s="372"/>
+      <c r="G63" s="372"/>
+      <c r="H63" s="372"/>
+      <c r="I63" s="372"/>
+      <c r="J63" s="372"/>
+      <c r="K63" s="372"/>
+      <c r="L63" s="372"/>
+      <c r="M63" s="372"/>
+      <c r="N63" s="372"/>
+      <c r="O63" s="372"/>
+      <c r="P63" s="372"/>
+      <c r="Q63" s="372"/>
+      <c r="R63" s="372"/>
+      <c r="S63" s="372"/>
+      <c r="T63" s="372"/>
+      <c r="U63" s="372"/>
+      <c r="V63" s="372"/>
+      <c r="W63" s="372"/>
+      <c r="X63" s="372"/>
     </row>
     <row r="64" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="364"/>
-      <c r="B64" s="364"/>
-      <c r="C64" s="364"/>
-      <c r="D64" s="364"/>
-      <c r="E64" s="364"/>
-      <c r="F64" s="364"/>
-      <c r="G64" s="364"/>
-      <c r="H64" s="364"/>
-      <c r="I64" s="364"/>
-      <c r="J64" s="364"/>
-      <c r="K64" s="364"/>
-      <c r="L64" s="364"/>
-      <c r="M64" s="364"/>
-      <c r="N64" s="364"/>
-      <c r="O64" s="364"/>
-      <c r="P64" s="364"/>
-      <c r="Q64" s="364"/>
-      <c r="R64" s="364"/>
-      <c r="S64" s="364"/>
-      <c r="T64" s="364"/>
-      <c r="U64" s="364"/>
-      <c r="V64" s="364"/>
-      <c r="W64" s="364"/>
-      <c r="X64" s="364"/>
+      <c r="A64" s="372"/>
+      <c r="B64" s="372"/>
+      <c r="C64" s="372"/>
+      <c r="D64" s="372"/>
+      <c r="E64" s="372"/>
+      <c r="F64" s="372"/>
+      <c r="G64" s="372"/>
+      <c r="H64" s="372"/>
+      <c r="I64" s="372"/>
+      <c r="J64" s="372"/>
+      <c r="K64" s="372"/>
+      <c r="L64" s="372"/>
+      <c r="M64" s="372"/>
+      <c r="N64" s="372"/>
+      <c r="O64" s="372"/>
+      <c r="P64" s="372"/>
+      <c r="Q64" s="372"/>
+      <c r="R64" s="372"/>
+      <c r="S64" s="372"/>
+      <c r="T64" s="372"/>
+      <c r="U64" s="372"/>
+      <c r="V64" s="372"/>
+      <c r="W64" s="372"/>
+      <c r="X64" s="372"/>
     </row>
     <row r="65" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="364"/>
-      <c r="B65" s="364"/>
-      <c r="C65" s="364"/>
-      <c r="D65" s="364"/>
-      <c r="E65" s="364"/>
-      <c r="F65" s="364"/>
-      <c r="G65" s="364"/>
-      <c r="H65" s="364"/>
-      <c r="I65" s="364"/>
-      <c r="J65" s="364"/>
-      <c r="K65" s="364"/>
-      <c r="L65" s="364"/>
-      <c r="M65" s="364"/>
-      <c r="N65" s="364"/>
-      <c r="O65" s="364"/>
-      <c r="P65" s="364"/>
-      <c r="Q65" s="364"/>
-      <c r="R65" s="364"/>
-      <c r="S65" s="364"/>
-      <c r="T65" s="364"/>
-      <c r="U65" s="364"/>
-      <c r="V65" s="364"/>
-      <c r="W65" s="364"/>
-      <c r="X65" s="364"/>
+      <c r="A65" s="372"/>
+      <c r="B65" s="372"/>
+      <c r="C65" s="372"/>
+      <c r="D65" s="372"/>
+      <c r="E65" s="372"/>
+      <c r="F65" s="372"/>
+      <c r="G65" s="372"/>
+      <c r="H65" s="372"/>
+      <c r="I65" s="372"/>
+      <c r="J65" s="372"/>
+      <c r="K65" s="372"/>
+      <c r="L65" s="372"/>
+      <c r="M65" s="372"/>
+      <c r="N65" s="372"/>
+      <c r="O65" s="372"/>
+      <c r="P65" s="372"/>
+      <c r="Q65" s="372"/>
+      <c r="R65" s="372"/>
+      <c r="S65" s="372"/>
+      <c r="T65" s="372"/>
+      <c r="U65" s="372"/>
+      <c r="V65" s="372"/>
+      <c r="W65" s="372"/>
+      <c r="X65" s="372"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A66" s="364"/>
-      <c r="B66" s="364"/>
-      <c r="C66" s="364"/>
-      <c r="D66" s="364"/>
-      <c r="E66" s="364"/>
-      <c r="F66" s="364"/>
-      <c r="G66" s="364"/>
-      <c r="H66" s="364"/>
-      <c r="I66" s="364"/>
-      <c r="J66" s="364"/>
-      <c r="K66" s="364"/>
-      <c r="L66" s="364"/>
-      <c r="M66" s="364"/>
-      <c r="N66" s="364"/>
-      <c r="O66" s="364"/>
-      <c r="P66" s="364"/>
-      <c r="Q66" s="364"/>
-      <c r="R66" s="364"/>
-      <c r="S66" s="364"/>
-      <c r="T66" s="364"/>
-      <c r="U66" s="364"/>
-      <c r="V66" s="364"/>
-      <c r="W66" s="364"/>
-      <c r="X66" s="364"/>
+      <c r="A66" s="372"/>
+      <c r="B66" s="372"/>
+      <c r="C66" s="372"/>
+      <c r="D66" s="372"/>
+      <c r="E66" s="372"/>
+      <c r="F66" s="372"/>
+      <c r="G66" s="372"/>
+      <c r="H66" s="372"/>
+      <c r="I66" s="372"/>
+      <c r="J66" s="372"/>
+      <c r="K66" s="372"/>
+      <c r="L66" s="372"/>
+      <c r="M66" s="372"/>
+      <c r="N66" s="372"/>
+      <c r="O66" s="372"/>
+      <c r="P66" s="372"/>
+      <c r="Q66" s="372"/>
+      <c r="R66" s="372"/>
+      <c r="S66" s="372"/>
+      <c r="T66" s="372"/>
+      <c r="U66" s="372"/>
+      <c r="V66" s="372"/>
+      <c r="W66" s="372"/>
+      <c r="X66" s="372"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A67" s="364"/>
-      <c r="B67" s="364"/>
-      <c r="C67" s="364"/>
-      <c r="D67" s="364"/>
-      <c r="E67" s="364"/>
-      <c r="F67" s="364"/>
-      <c r="G67" s="364"/>
-      <c r="H67" s="364"/>
-      <c r="I67" s="364"/>
-      <c r="J67" s="364"/>
-      <c r="K67" s="364"/>
-      <c r="L67" s="364"/>
-      <c r="M67" s="364"/>
-      <c r="N67" s="364"/>
-      <c r="O67" s="364"/>
-      <c r="P67" s="364"/>
-      <c r="Q67" s="364"/>
-      <c r="R67" s="364"/>
-      <c r="S67" s="364"/>
-      <c r="T67" s="364"/>
-      <c r="U67" s="364"/>
-      <c r="V67" s="364"/>
-      <c r="W67" s="364"/>
-      <c r="X67" s="364"/>
+      <c r="A67" s="372"/>
+      <c r="B67" s="372"/>
+      <c r="C67" s="372"/>
+      <c r="D67" s="372"/>
+      <c r="E67" s="372"/>
+      <c r="F67" s="372"/>
+      <c r="G67" s="372"/>
+      <c r="H67" s="372"/>
+      <c r="I67" s="372"/>
+      <c r="J67" s="372"/>
+      <c r="K67" s="372"/>
+      <c r="L67" s="372"/>
+      <c r="M67" s="372"/>
+      <c r="N67" s="372"/>
+      <c r="O67" s="372"/>
+      <c r="P67" s="372"/>
+      <c r="Q67" s="372"/>
+      <c r="R67" s="372"/>
+      <c r="S67" s="372"/>
+      <c r="T67" s="372"/>
+      <c r="U67" s="372"/>
+      <c r="V67" s="372"/>
+      <c r="W67" s="372"/>
+      <c r="X67" s="372"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
@@ -41594,118 +41594,118 @@
       <c r="V69" s="9"/>
     </row>
     <row r="70" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="365" t="s">
+      <c r="A70" s="373" t="s">
         <v>366</v>
       </c>
-      <c r="B70" s="366"/>
-      <c r="C70" s="366"/>
-      <c r="D70" s="366"/>
-      <c r="E70" s="366"/>
-      <c r="F70" s="367"/>
-      <c r="G70" s="365" t="s">
+      <c r="B70" s="374"/>
+      <c r="C70" s="374"/>
+      <c r="D70" s="374"/>
+      <c r="E70" s="374"/>
+      <c r="F70" s="375"/>
+      <c r="G70" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="H70" s="366"/>
-      <c r="I70" s="367"/>
-      <c r="J70" s="368" t="s">
+      <c r="H70" s="374"/>
+      <c r="I70" s="375"/>
+      <c r="J70" s="376" t="s">
         <v>369</v>
       </c>
-      <c r="K70" s="369"/>
-      <c r="L70" s="369"/>
-      <c r="M70" s="369"/>
-      <c r="N70" s="370"/>
-      <c r="O70" s="365" t="s">
+      <c r="K70" s="377"/>
+      <c r="L70" s="377"/>
+      <c r="M70" s="377"/>
+      <c r="N70" s="378"/>
+      <c r="O70" s="373" t="s">
         <v>711</v>
       </c>
-      <c r="P70" s="366"/>
-      <c r="Q70" s="366"/>
-      <c r="R70" s="366"/>
-      <c r="S70" s="366"/>
-      <c r="T70" s="367"/>
-      <c r="U70" s="368" t="s">
+      <c r="P70" s="374"/>
+      <c r="Q70" s="374"/>
+      <c r="R70" s="374"/>
+      <c r="S70" s="374"/>
+      <c r="T70" s="375"/>
+      <c r="U70" s="376" t="s">
         <v>712</v>
       </c>
-      <c r="V70" s="369"/>
-      <c r="W70" s="369"/>
-      <c r="X70" s="370"/>
+      <c r="V70" s="377"/>
+      <c r="W70" s="377"/>
+      <c r="X70" s="378"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A71" s="373"/>
-      <c r="B71" s="374"/>
-      <c r="C71" s="374"/>
-      <c r="D71" s="374"/>
-      <c r="E71" s="374"/>
-      <c r="F71" s="375"/>
-      <c r="G71" s="373"/>
-      <c r="H71" s="374"/>
-      <c r="I71" s="375"/>
-      <c r="J71" s="376"/>
-      <c r="K71" s="377"/>
-      <c r="L71" s="377"/>
-      <c r="M71" s="377"/>
-      <c r="N71" s="378"/>
-      <c r="O71" s="379"/>
-      <c r="P71" s="380"/>
-      <c r="Q71" s="380"/>
-      <c r="R71" s="380"/>
-      <c r="S71" s="380"/>
-      <c r="T71" s="381"/>
-      <c r="U71" s="376"/>
-      <c r="V71" s="377"/>
-      <c r="W71" s="377"/>
-      <c r="X71" s="378"/>
+      <c r="A71" s="381"/>
+      <c r="B71" s="382"/>
+      <c r="C71" s="382"/>
+      <c r="D71" s="382"/>
+      <c r="E71" s="382"/>
+      <c r="F71" s="383"/>
+      <c r="G71" s="381"/>
+      <c r="H71" s="382"/>
+      <c r="I71" s="383"/>
+      <c r="J71" s="384"/>
+      <c r="K71" s="385"/>
+      <c r="L71" s="385"/>
+      <c r="M71" s="385"/>
+      <c r="N71" s="386"/>
+      <c r="O71" s="387"/>
+      <c r="P71" s="388"/>
+      <c r="Q71" s="388"/>
+      <c r="R71" s="388"/>
+      <c r="S71" s="388"/>
+      <c r="T71" s="389"/>
+      <c r="U71" s="384"/>
+      <c r="V71" s="385"/>
+      <c r="W71" s="385"/>
+      <c r="X71" s="386"/>
     </row>
     <row r="72" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="373"/>
-      <c r="B72" s="374"/>
-      <c r="C72" s="374"/>
-      <c r="D72" s="374"/>
-      <c r="E72" s="374"/>
-      <c r="F72" s="375"/>
-      <c r="G72" s="373"/>
-      <c r="H72" s="374"/>
-      <c r="I72" s="375"/>
-      <c r="J72" s="376"/>
-      <c r="K72" s="377"/>
-      <c r="L72" s="377"/>
-      <c r="M72" s="377"/>
-      <c r="N72" s="378"/>
-      <c r="O72" s="373"/>
-      <c r="P72" s="374"/>
-      <c r="Q72" s="374"/>
-      <c r="R72" s="374"/>
-      <c r="S72" s="374"/>
-      <c r="T72" s="375"/>
-      <c r="U72" s="376"/>
-      <c r="V72" s="377"/>
-      <c r="W72" s="377"/>
-      <c r="X72" s="378"/>
+      <c r="A72" s="381"/>
+      <c r="B72" s="382"/>
+      <c r="C72" s="382"/>
+      <c r="D72" s="382"/>
+      <c r="E72" s="382"/>
+      <c r="F72" s="383"/>
+      <c r="G72" s="381"/>
+      <c r="H72" s="382"/>
+      <c r="I72" s="383"/>
+      <c r="J72" s="384"/>
+      <c r="K72" s="385"/>
+      <c r="L72" s="385"/>
+      <c r="M72" s="385"/>
+      <c r="N72" s="386"/>
+      <c r="O72" s="381"/>
+      <c r="P72" s="382"/>
+      <c r="Q72" s="382"/>
+      <c r="R72" s="382"/>
+      <c r="S72" s="382"/>
+      <c r="T72" s="383"/>
+      <c r="U72" s="384"/>
+      <c r="V72" s="385"/>
+      <c r="W72" s="385"/>
+      <c r="X72" s="386"/>
     </row>
     <row r="73" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="373"/>
-      <c r="B73" s="374"/>
-      <c r="C73" s="374"/>
-      <c r="D73" s="374"/>
-      <c r="E73" s="374"/>
-      <c r="F73" s="375"/>
-      <c r="G73" s="373"/>
-      <c r="H73" s="374"/>
-      <c r="I73" s="375"/>
-      <c r="J73" s="376"/>
-      <c r="K73" s="377"/>
-      <c r="L73" s="377"/>
-      <c r="M73" s="377"/>
-      <c r="N73" s="378"/>
-      <c r="O73" s="373"/>
-      <c r="P73" s="374"/>
-      <c r="Q73" s="374"/>
-      <c r="R73" s="374"/>
-      <c r="S73" s="374"/>
-      <c r="T73" s="375"/>
-      <c r="U73" s="376"/>
-      <c r="V73" s="377"/>
-      <c r="W73" s="377"/>
-      <c r="X73" s="378"/>
+      <c r="A73" s="381"/>
+      <c r="B73" s="382"/>
+      <c r="C73" s="382"/>
+      <c r="D73" s="382"/>
+      <c r="E73" s="382"/>
+      <c r="F73" s="383"/>
+      <c r="G73" s="381"/>
+      <c r="H73" s="382"/>
+      <c r="I73" s="383"/>
+      <c r="J73" s="384"/>
+      <c r="K73" s="385"/>
+      <c r="L73" s="385"/>
+      <c r="M73" s="385"/>
+      <c r="N73" s="386"/>
+      <c r="O73" s="381"/>
+      <c r="P73" s="382"/>
+      <c r="Q73" s="382"/>
+      <c r="R73" s="382"/>
+      <c r="S73" s="382"/>
+      <c r="T73" s="383"/>
+      <c r="U73" s="384"/>
+      <c r="V73" s="385"/>
+      <c r="W73" s="385"/>
+      <c r="X73" s="386"/>
     </row>
     <row r="74" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="238"/>
@@ -41817,59 +41817,59 @@
       <c r="X77" s="9"/>
     </row>
     <row r="78" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="364" t="str">
+      <c r="A78" s="372" t="str">
         <f>IF(Calibración!E10="2",Calibración!BJ6,Calibración!BJ7)</f>
         <v>La indicación de la presión de referencia y del equipo corresponden al promedio de 4 mediciones en 2 ciclos ascendentes y descendentes.</v>
       </c>
-      <c r="B78" s="364"/>
-      <c r="C78" s="364"/>
-      <c r="D78" s="364"/>
-      <c r="E78" s="364"/>
-      <c r="F78" s="364"/>
-      <c r="G78" s="364"/>
-      <c r="H78" s="364"/>
-      <c r="I78" s="364"/>
-      <c r="J78" s="364"/>
-      <c r="K78" s="364"/>
-      <c r="L78" s="364"/>
-      <c r="M78" s="364"/>
-      <c r="N78" s="364"/>
-      <c r="O78" s="364"/>
-      <c r="P78" s="364"/>
-      <c r="Q78" s="364"/>
-      <c r="R78" s="364"/>
-      <c r="S78" s="364"/>
-      <c r="T78" s="364"/>
-      <c r="U78" s="364"/>
-      <c r="V78" s="364"/>
-      <c r="W78" s="364"/>
-      <c r="X78" s="364"/>
+      <c r="B78" s="372"/>
+      <c r="C78" s="372"/>
+      <c r="D78" s="372"/>
+      <c r="E78" s="372"/>
+      <c r="F78" s="372"/>
+      <c r="G78" s="372"/>
+      <c r="H78" s="372"/>
+      <c r="I78" s="372"/>
+      <c r="J78" s="372"/>
+      <c r="K78" s="372"/>
+      <c r="L78" s="372"/>
+      <c r="M78" s="372"/>
+      <c r="N78" s="372"/>
+      <c r="O78" s="372"/>
+      <c r="P78" s="372"/>
+      <c r="Q78" s="372"/>
+      <c r="R78" s="372"/>
+      <c r="S78" s="372"/>
+      <c r="T78" s="372"/>
+      <c r="U78" s="372"/>
+      <c r="V78" s="372"/>
+      <c r="W78" s="372"/>
+      <c r="X78" s="372"/>
     </row>
     <row r="79" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="364"/>
-      <c r="B79" s="364"/>
-      <c r="C79" s="364"/>
-      <c r="D79" s="364"/>
-      <c r="E79" s="364"/>
-      <c r="F79" s="364"/>
-      <c r="G79" s="364"/>
-      <c r="H79" s="364"/>
-      <c r="I79" s="364"/>
-      <c r="J79" s="364"/>
-      <c r="K79" s="364"/>
-      <c r="L79" s="364"/>
-      <c r="M79" s="364"/>
-      <c r="N79" s="364"/>
-      <c r="O79" s="364"/>
-      <c r="P79" s="364"/>
-      <c r="Q79" s="364"/>
-      <c r="R79" s="364"/>
-      <c r="S79" s="364"/>
-      <c r="T79" s="364"/>
-      <c r="U79" s="364"/>
-      <c r="V79" s="364"/>
-      <c r="W79" s="364"/>
-      <c r="X79" s="364"/>
+      <c r="A79" s="372"/>
+      <c r="B79" s="372"/>
+      <c r="C79" s="372"/>
+      <c r="D79" s="372"/>
+      <c r="E79" s="372"/>
+      <c r="F79" s="372"/>
+      <c r="G79" s="372"/>
+      <c r="H79" s="372"/>
+      <c r="I79" s="372"/>
+      <c r="J79" s="372"/>
+      <c r="K79" s="372"/>
+      <c r="L79" s="372"/>
+      <c r="M79" s="372"/>
+      <c r="N79" s="372"/>
+      <c r="O79" s="372"/>
+      <c r="P79" s="372"/>
+      <c r="Q79" s="372"/>
+      <c r="R79" s="372"/>
+      <c r="S79" s="372"/>
+      <c r="T79" s="372"/>
+      <c r="U79" s="372"/>
+      <c r="V79" s="372"/>
+      <c r="W79" s="372"/>
+      <c r="X79" s="372"/>
     </row>
     <row r="80" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="239" t="s">
@@ -42044,54 +42044,54 @@
       <c r="Y88" s="9"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I89" s="382" t="s">
+      <c r="I89" s="390" t="s">
         <v>31</v>
       </c>
-      <c r="J89" s="382"/>
-      <c r="K89" s="382"/>
-      <c r="L89" s="382"/>
-      <c r="M89" s="382"/>
-      <c r="N89" s="382"/>
-      <c r="O89" s="382"/>
-      <c r="P89" s="382"/>
+      <c r="J89" s="390"/>
+      <c r="K89" s="390"/>
+      <c r="L89" s="390"/>
+      <c r="M89" s="390"/>
+      <c r="N89" s="390"/>
+      <c r="O89" s="390"/>
+      <c r="P89" s="390"/>
       <c r="Y89" s="9"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I90" s="383" t="str">
+      <c r="I90" s="391" t="str">
         <f>IF(I89=[5]Generales!$F$1,[5]Generales!$F$6,[5]Generales!$F$5)</f>
         <v>Director Técnico</v>
       </c>
-      <c r="J90" s="383"/>
-      <c r="K90" s="383"/>
-      <c r="L90" s="383"/>
-      <c r="M90" s="383"/>
-      <c r="N90" s="383"/>
-      <c r="O90" s="383"/>
-      <c r="P90" s="383"/>
+      <c r="J90" s="391"/>
+      <c r="K90" s="391"/>
+      <c r="L90" s="391"/>
+      <c r="M90" s="391"/>
+      <c r="N90" s="391"/>
+      <c r="O90" s="391"/>
+      <c r="P90" s="391"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I91" s="384" t="s">
+      <c r="I91" s="392" t="s">
         <v>717</v>
       </c>
-      <c r="J91" s="384"/>
-      <c r="K91" s="384"/>
-      <c r="L91" s="384"/>
-      <c r="M91" s="384"/>
-      <c r="N91" s="384"/>
-      <c r="O91" s="384"/>
-      <c r="P91" s="384"/>
+      <c r="J91" s="392"/>
+      <c r="K91" s="392"/>
+      <c r="L91" s="392"/>
+      <c r="M91" s="392"/>
+      <c r="N91" s="392"/>
+      <c r="O91" s="392"/>
+      <c r="P91" s="392"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I92" s="385" t="s">
+      <c r="I92" s="393" t="s">
         <v>718</v>
       </c>
-      <c r="J92" s="385"/>
-      <c r="K92" s="385"/>
-      <c r="L92" s="385"/>
-      <c r="M92" s="385"/>
-      <c r="N92" s="385"/>
-      <c r="O92" s="385"/>
-      <c r="P92" s="385"/>
+      <c r="J92" s="393"/>
+      <c r="K92" s="393"/>
+      <c r="L92" s="393"/>
+      <c r="M92" s="393"/>
+      <c r="N92" s="393"/>
+      <c r="O92" s="393"/>
+      <c r="P92" s="393"/>
     </row>
   </sheetData>
   <mergeCells count="104">
@@ -42250,14 +42250,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B2" s="387" t="s">
+      <c r="B2" s="395" t="s">
         <v>791</v>
       </c>
-      <c r="C2" s="387"/>
-      <c r="D2" s="387"/>
-      <c r="E2" s="387"/>
-      <c r="F2" s="387"/>
-      <c r="G2" s="387"/>
+      <c r="C2" s="395"/>
+      <c r="D2" s="395"/>
+      <c r="E2" s="395"/>
+      <c r="F2" s="395"/>
+      <c r="G2" s="395"/>
       <c r="I2" s="276"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
@@ -42269,22 +42269,22 @@
       <c r="G3" s="277"/>
     </row>
     <row r="4" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="388" t="s">
+      <c r="B4" s="396" t="s">
         <v>792</v>
       </c>
-      <c r="C4" s="388"/>
+      <c r="C4" s="396"/>
       <c r="D4" s="277"/>
       <c r="E4" s="277"/>
       <c r="F4" s="277"/>
       <c r="G4" s="277"/>
-      <c r="I4" s="389" t="s">
+      <c r="I4" s="397" t="s">
         <v>793</v>
       </c>
-      <c r="J4" s="389"/>
-      <c r="K4" s="389" t="s">
+      <c r="J4" s="397"/>
+      <c r="K4" s="397" t="s">
         <v>794</v>
       </c>
-      <c r="L4" s="389"/>
+      <c r="L4" s="397"/>
       <c r="N4" s="17" t="s">
         <v>795</v>
       </c>
@@ -42297,12 +42297,12 @@
       <c r="C5" s="279" t="s">
         <v>797</v>
       </c>
-      <c r="D5" s="390" t="s">
+      <c r="D5" s="398" t="s">
         <v>798</v>
       </c>
-      <c r="E5" s="391"/>
-      <c r="F5" s="391"/>
-      <c r="G5" s="392"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
+      <c r="G5" s="400"/>
       <c r="I5" s="280" t="s">
         <v>403</v>
       </c>
@@ -42330,32 +42330,32 @@
       <c r="Q5" s="280" t="s">
         <v>803</v>
       </c>
-      <c r="W5" s="386" t="s">
+      <c r="W5" s="394" t="s">
         <v>1514</v>
       </c>
-      <c r="X5" s="386"/>
-      <c r="Y5" s="386"/>
-      <c r="Z5" s="386"/>
-      <c r="AA5" s="386"/>
-      <c r="AB5" s="386"/>
-      <c r="AC5" s="386"/>
-      <c r="AD5" s="386"/>
+      <c r="X5" s="394"/>
+      <c r="Y5" s="394"/>
+      <c r="Z5" s="394"/>
+      <c r="AA5" s="394"/>
+      <c r="AB5" s="394"/>
+      <c r="AC5" s="394"/>
+      <c r="AD5" s="394"/>
     </row>
     <row r="6" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="393">
+      <c r="B6" s="401">
         <v>-82.74</v>
       </c>
-      <c r="C6" s="393">
+      <c r="C6" s="401">
         <v>-0.06</v>
       </c>
-      <c r="D6" s="395" t="s">
+      <c r="D6" s="403" t="s">
         <v>1505</v>
       </c>
-      <c r="E6" s="392"/>
-      <c r="F6" s="390" t="s">
+      <c r="E6" s="400"/>
+      <c r="F6" s="398" t="s">
         <v>1506</v>
       </c>
-      <c r="G6" s="392"/>
+      <c r="G6" s="400"/>
       <c r="I6" s="29">
         <v>-82.74</v>
       </c>
@@ -42391,16 +42391,16 @@
       <c r="AD6" s="304"/>
     </row>
     <row r="7" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="394"/>
-      <c r="C7" s="394"/>
-      <c r="D7" s="390" t="s">
+      <c r="B7" s="402"/>
+      <c r="C7" s="402"/>
+      <c r="D7" s="398" t="s">
         <v>804</v>
       </c>
-      <c r="E7" s="392"/>
-      <c r="F7" s="390" t="s">
+      <c r="E7" s="400"/>
+      <c r="F7" s="398" t="s">
         <v>805</v>
       </c>
-      <c r="G7" s="392"/>
+      <c r="G7" s="400"/>
       <c r="I7" s="29">
         <v>0.01</v>
       </c>
@@ -42477,10 +42477,10 @@
       <c r="AD8" s="304"/>
     </row>
     <row r="9" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="388" t="s">
+      <c r="B9" s="396" t="s">
         <v>792</v>
       </c>
-      <c r="C9" s="388"/>
+      <c r="C9" s="396"/>
       <c r="D9" s="277"/>
       <c r="E9" s="277"/>
       <c r="F9" s="277"/>
@@ -42526,40 +42526,40 @@
       <c r="C10" s="279" t="s">
         <v>797</v>
       </c>
-      <c r="D10" s="390" t="s">
+      <c r="D10" s="398" t="s">
         <v>798</v>
       </c>
-      <c r="E10" s="391"/>
-      <c r="F10" s="391"/>
-      <c r="G10" s="392"/>
+      <c r="E10" s="399"/>
+      <c r="F10" s="399"/>
+      <c r="G10" s="400"/>
     </row>
     <row r="11" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="393">
+      <c r="B11" s="401">
         <v>0.01</v>
       </c>
-      <c r="C11" s="393">
+      <c r="C11" s="401">
         <v>699.75</v>
       </c>
-      <c r="D11" s="395" t="s">
+      <c r="D11" s="403" t="s">
         <v>1507</v>
       </c>
-      <c r="E11" s="392"/>
-      <c r="F11" s="390" t="s">
+      <c r="E11" s="400"/>
+      <c r="F11" s="398" t="s">
         <v>1508</v>
       </c>
-      <c r="G11" s="392"/>
+      <c r="G11" s="400"/>
     </row>
     <row r="12" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="394"/>
-      <c r="C12" s="394"/>
-      <c r="D12" s="390" t="s">
+      <c r="B12" s="402"/>
+      <c r="C12" s="402"/>
+      <c r="D12" s="398" t="s">
         <v>804</v>
       </c>
-      <c r="E12" s="392"/>
-      <c r="F12" s="390" t="s">
+      <c r="E12" s="400"/>
+      <c r="F12" s="398" t="s">
         <v>805</v>
       </c>
-      <c r="G12" s="392"/>
+      <c r="G12" s="400"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B13" s="277"/>
@@ -42570,10 +42570,10 @@
       <c r="G13" s="277"/>
     </row>
     <row r="14" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="388" t="s">
+      <c r="B14" s="396" t="s">
         <v>792</v>
       </c>
-      <c r="C14" s="388"/>
+      <c r="C14" s="396"/>
       <c r="D14" s="277"/>
       <c r="E14" s="277"/>
       <c r="F14" s="277"/>
@@ -42582,38 +42582,38 @@
         <v>795</v>
       </c>
       <c r="J14" s="17"/>
-      <c r="K14" s="396" t="s">
+      <c r="K14" s="404" t="s">
         <v>1511</v>
       </c>
-      <c r="L14" s="396"/>
-      <c r="M14" s="396"/>
+      <c r="L14" s="404"/>
+      <c r="M14" s="404"/>
       <c r="P14" s="17" t="s">
         <v>795</v>
       </c>
       <c r="Q14" s="17"/>
-      <c r="R14" s="396" t="s">
+      <c r="R14" s="404" t="s">
         <v>1512</v>
       </c>
-      <c r="S14" s="396"/>
-      <c r="T14" s="396"/>
+      <c r="S14" s="404"/>
+      <c r="T14" s="404"/>
       <c r="W14" s="17" t="s">
         <v>795</v>
       </c>
       <c r="X14" s="17"/>
-      <c r="Y14" s="397" t="s">
+      <c r="Y14" s="405" t="s">
         <v>1513</v>
       </c>
-      <c r="Z14" s="397"/>
-      <c r="AA14" s="397"/>
+      <c r="Z14" s="405"/>
+      <c r="AA14" s="405"/>
       <c r="AD14" s="17" t="s">
         <v>795</v>
       </c>
       <c r="AE14" s="17"/>
-      <c r="AF14" s="397" t="s">
+      <c r="AF14" s="405" t="s">
         <v>1510</v>
       </c>
-      <c r="AG14" s="397"/>
-      <c r="AH14" s="397"/>
+      <c r="AG14" s="405"/>
+      <c r="AH14" s="405"/>
     </row>
     <row r="15" spans="2:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="278" t="s">
@@ -42622,12 +42622,12 @@
       <c r="C15" s="279" t="s">
         <v>797</v>
       </c>
-      <c r="D15" s="390" t="s">
+      <c r="D15" s="398" t="s">
         <v>798</v>
       </c>
-      <c r="E15" s="391"/>
-      <c r="F15" s="391"/>
-      <c r="G15" s="392"/>
+      <c r="E15" s="399"/>
+      <c r="F15" s="399"/>
+      <c r="G15" s="400"/>
       <c r="I15" s="282" t="s">
         <v>806</v>
       </c>
@@ -42690,20 +42690,20 @@
       </c>
     </row>
     <row r="16" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="393">
+      <c r="B16" s="401">
         <v>700</v>
       </c>
-      <c r="C16" s="393">
+      <c r="C16" s="401">
         <v>7000</v>
       </c>
-      <c r="D16" s="390" t="s">
+      <c r="D16" s="398" t="s">
         <v>810</v>
       </c>
-      <c r="E16" s="392"/>
-      <c r="F16" s="390" t="s">
+      <c r="E16" s="400"/>
+      <c r="F16" s="398" t="s">
         <v>1509</v>
       </c>
-      <c r="G16" s="392"/>
+      <c r="G16" s="400"/>
       <c r="I16" s="22" t="s">
         <v>811</v>
       </c>
@@ -42782,16 +42782,16 @@
       </c>
     </row>
     <row r="17" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="394"/>
-      <c r="C17" s="394"/>
-      <c r="D17" s="390" t="s">
+      <c r="B17" s="402"/>
+      <c r="C17" s="402"/>
+      <c r="D17" s="398" t="s">
         <v>804</v>
       </c>
-      <c r="E17" s="392"/>
-      <c r="F17" s="390" t="s">
+      <c r="E17" s="400"/>
+      <c r="F17" s="398" t="s">
         <v>805</v>
       </c>
-      <c r="G17" s="392"/>
+      <c r="G17" s="400"/>
       <c r="I17" s="22" t="s">
         <v>812</v>
       </c>
@@ -42949,10 +42949,10 @@
       </c>
     </row>
     <row r="19" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="388" t="s">
+      <c r="B19" s="396" t="s">
         <v>792</v>
       </c>
-      <c r="C19" s="388"/>
+      <c r="C19" s="396"/>
       <c r="D19" s="277"/>
       <c r="E19" s="277"/>
       <c r="F19" s="277"/>
@@ -43041,12 +43041,12 @@
       <c r="C20" s="279" t="s">
         <v>797</v>
       </c>
-      <c r="D20" s="390" t="s">
+      <c r="D20" s="398" t="s">
         <v>798</v>
       </c>
-      <c r="E20" s="391"/>
-      <c r="F20" s="391"/>
-      <c r="G20" s="392"/>
+      <c r="E20" s="399"/>
+      <c r="F20" s="399"/>
+      <c r="G20" s="400"/>
       <c r="I20" s="22" t="s">
         <v>815</v>
       </c>
@@ -43125,20 +43125,20 @@
       </c>
     </row>
     <row r="21" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="393">
+      <c r="B21" s="401">
         <v>7001</v>
       </c>
-      <c r="C21" s="393">
+      <c r="C21" s="401">
         <v>34500</v>
       </c>
-      <c r="D21" s="390" t="s">
+      <c r="D21" s="398" t="s">
         <v>816</v>
       </c>
-      <c r="E21" s="392"/>
-      <c r="F21" s="390" t="s">
+      <c r="E21" s="400"/>
+      <c r="F21" s="398" t="s">
         <v>1510</v>
       </c>
-      <c r="G21" s="392"/>
+      <c r="G21" s="400"/>
       <c r="I21" s="22" t="s">
         <v>817</v>
       </c>
@@ -43217,16 +43217,16 @@
       </c>
     </row>
     <row r="22" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="394"/>
-      <c r="C22" s="394"/>
-      <c r="D22" s="390" t="s">
+      <c r="B22" s="402"/>
+      <c r="C22" s="402"/>
+      <c r="D22" s="398" t="s">
         <v>804</v>
       </c>
-      <c r="E22" s="392"/>
-      <c r="F22" s="390" t="s">
+      <c r="E22" s="400"/>
+      <c r="F22" s="398" t="s">
         <v>805</v>
       </c>
-      <c r="G22" s="392"/>
+      <c r="G22" s="400"/>
       <c r="I22" s="22" t="s">
         <v>818</v>
       </c>
@@ -43539,22 +43539,22 @@
       </c>
     </row>
     <row r="26" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I26" s="388" t="s">
+      <c r="I26" s="396" t="s">
         <v>792</v>
       </c>
-      <c r="J26" s="388"/>
-      <c r="P26" s="388" t="s">
+      <c r="J26" s="396"/>
+      <c r="P26" s="396" t="s">
         <v>792</v>
       </c>
-      <c r="Q26" s="388"/>
-      <c r="W26" s="388" t="s">
+      <c r="Q26" s="396"/>
+      <c r="W26" s="396" t="s">
         <v>792</v>
       </c>
-      <c r="X26" s="388"/>
-      <c r="AD26" s="388" t="s">
+      <c r="X26" s="396"/>
+      <c r="AD26" s="396" t="s">
         <v>792</v>
       </c>
-      <c r="AE26" s="388"/>
+      <c r="AE26" s="396"/>
     </row>
     <row r="27" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I27" s="278" t="s">
@@ -43583,40 +43583,40 @@
       </c>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="I28" s="393">
+      <c r="I28" s="401">
         <v>-82.74</v>
       </c>
-      <c r="J28" s="393">
+      <c r="J28" s="401">
         <v>-0.06</v>
       </c>
-      <c r="P28" s="393">
+      <c r="P28" s="401">
         <v>0.01</v>
       </c>
-      <c r="Q28" s="393">
+      <c r="Q28" s="401">
         <v>699.75</v>
       </c>
-      <c r="W28" s="393">
+      <c r="W28" s="401">
         <v>700</v>
       </c>
-      <c r="X28" s="393">
+      <c r="X28" s="401">
         <v>7000</v>
       </c>
-      <c r="AD28" s="393">
+      <c r="AD28" s="401">
         <v>7001</v>
       </c>
-      <c r="AE28" s="393">
+      <c r="AE28" s="401">
         <v>34500</v>
       </c>
     </row>
     <row r="29" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I29" s="394"/>
-      <c r="J29" s="394"/>
-      <c r="P29" s="394"/>
-      <c r="Q29" s="394"/>
-      <c r="W29" s="394"/>
-      <c r="X29" s="394"/>
-      <c r="AD29" s="394"/>
-      <c r="AE29" s="394"/>
+      <c r="I29" s="402"/>
+      <c r="J29" s="402"/>
+      <c r="P29" s="402"/>
+      <c r="Q29" s="402"/>
+      <c r="W29" s="402"/>
+      <c r="X29" s="402"/>
+      <c r="AD29" s="402"/>
+      <c r="AE29" s="402"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -43714,32 +43714,32 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="398" t="s">
+      <c r="A5" s="406" t="s">
         <v>725</v>
       </c>
-      <c r="B5" s="398"/>
-      <c r="C5" s="398"/>
-      <c r="D5" s="398"/>
-      <c r="E5" s="398"/>
-      <c r="F5" s="398"/>
-      <c r="G5" s="398"/>
-      <c r="H5" s="398"/>
-      <c r="I5" s="398"/>
-      <c r="J5" s="398"/>
-      <c r="K5" s="398"/>
-      <c r="L5" s="398"/>
-      <c r="M5" s="398"/>
-      <c r="N5" s="398"/>
-      <c r="O5" s="398"/>
-      <c r="P5" s="398"/>
-      <c r="Q5" s="398"/>
-      <c r="R5" s="398"/>
-      <c r="S5" s="398"/>
-      <c r="T5" s="398"/>
-      <c r="U5" s="398"/>
-      <c r="V5" s="398"/>
-      <c r="W5" s="398"/>
-      <c r="X5" s="398"/>
+      <c r="B5" s="406"/>
+      <c r="C5" s="406"/>
+      <c r="D5" s="406"/>
+      <c r="E5" s="406"/>
+      <c r="F5" s="406"/>
+      <c r="G5" s="406"/>
+      <c r="H5" s="406"/>
+      <c r="I5" s="406"/>
+      <c r="J5" s="406"/>
+      <c r="K5" s="406"/>
+      <c r="L5" s="406"/>
+      <c r="M5" s="406"/>
+      <c r="N5" s="406"/>
+      <c r="O5" s="406"/>
+      <c r="P5" s="406"/>
+      <c r="Q5" s="406"/>
+      <c r="R5" s="406"/>
+      <c r="S5" s="406"/>
+      <c r="T5" s="406"/>
+      <c r="U5" s="406"/>
+      <c r="V5" s="406"/>
+      <c r="W5" s="406"/>
+      <c r="X5" s="406"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
@@ -43793,664 +43793,664 @@
       <c r="V7" s="9"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="365" t="s">
+      <c r="A8" s="373" t="s">
         <v>366</v>
       </c>
-      <c r="B8" s="366"/>
-      <c r="C8" s="366"/>
-      <c r="D8" s="366"/>
-      <c r="E8" s="366"/>
-      <c r="F8" s="367"/>
-      <c r="G8" s="365" t="s">
+      <c r="B8" s="374"/>
+      <c r="C8" s="374"/>
+      <c r="D8" s="374"/>
+      <c r="E8" s="374"/>
+      <c r="F8" s="375"/>
+      <c r="G8" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="366"/>
-      <c r="I8" s="367"/>
-      <c r="J8" s="368" t="s">
+      <c r="H8" s="374"/>
+      <c r="I8" s="375"/>
+      <c r="J8" s="376" t="s">
         <v>369</v>
       </c>
-      <c r="K8" s="369"/>
-      <c r="L8" s="369"/>
-      <c r="M8" s="369"/>
-      <c r="N8" s="370"/>
-      <c r="O8" s="365" t="s">
+      <c r="K8" s="377"/>
+      <c r="L8" s="377"/>
+      <c r="M8" s="377"/>
+      <c r="N8" s="378"/>
+      <c r="O8" s="373" t="s">
         <v>711</v>
       </c>
-      <c r="P8" s="366"/>
-      <c r="Q8" s="366"/>
-      <c r="R8" s="366"/>
-      <c r="S8" s="366"/>
-      <c r="T8" s="367"/>
-      <c r="U8" s="368" t="s">
+      <c r="P8" s="374"/>
+      <c r="Q8" s="374"/>
+      <c r="R8" s="374"/>
+      <c r="S8" s="374"/>
+      <c r="T8" s="375"/>
+      <c r="U8" s="376" t="s">
         <v>712</v>
       </c>
-      <c r="V8" s="369"/>
-      <c r="W8" s="369"/>
-      <c r="X8" s="370"/>
+      <c r="V8" s="377"/>
+      <c r="W8" s="377"/>
+      <c r="X8" s="378"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="373" t="s">
+      <c r="A9" s="381" t="s">
         <v>720</v>
       </c>
-      <c r="B9" s="374" t="s">
+      <c r="B9" s="382" t="s">
         <v>720</v>
       </c>
-      <c r="C9" s="374" t="s">
+      <c r="C9" s="382" t="s">
         <v>720</v>
       </c>
-      <c r="D9" s="374" t="s">
+      <c r="D9" s="382" t="s">
         <v>720</v>
       </c>
-      <c r="E9" s="374" t="s">
+      <c r="E9" s="382" t="s">
         <v>720</v>
       </c>
-      <c r="F9" s="375" t="s">
+      <c r="F9" s="383" t="s">
         <v>720</v>
       </c>
-      <c r="G9" s="373" t="s">
+      <c r="G9" s="381" t="s">
         <v>553</v>
       </c>
-      <c r="H9" s="374" t="s">
+      <c r="H9" s="382" t="s">
         <v>553</v>
       </c>
-      <c r="I9" s="375" t="s">
+      <c r="I9" s="383" t="s">
         <v>553</v>
       </c>
-      <c r="J9" s="376" t="s">
+      <c r="J9" s="384" t="s">
         <v>1119</v>
       </c>
-      <c r="K9" s="377" t="s">
+      <c r="K9" s="385" t="s">
         <v>722</v>
       </c>
-      <c r="L9" s="377">
+      <c r="L9" s="385">
         <v>43368</v>
       </c>
-      <c r="M9" s="377" t="s">
+      <c r="M9" s="385" t="s">
         <v>721</v>
       </c>
-      <c r="N9" s="378" t="s">
+      <c r="N9" s="386" t="s">
         <v>722</v>
       </c>
-      <c r="O9" s="373" t="s">
+      <c r="O9" s="381" t="s">
         <v>722</v>
       </c>
-      <c r="P9" s="374" t="s">
+      <c r="P9" s="382" t="s">
         <v>722</v>
       </c>
-      <c r="Q9" s="374" t="s">
+      <c r="Q9" s="382" t="s">
         <v>722</v>
       </c>
-      <c r="R9" s="374" t="s">
+      <c r="R9" s="382" t="s">
         <v>722</v>
       </c>
-      <c r="S9" s="374" t="s">
+      <c r="S9" s="382" t="s">
         <v>722</v>
       </c>
-      <c r="T9" s="375" t="s">
+      <c r="T9" s="383" t="s">
         <v>722</v>
       </c>
-      <c r="U9" s="376">
+      <c r="U9" s="384">
         <v>44096</v>
       </c>
-      <c r="V9" s="377" t="s">
+      <c r="V9" s="385" t="s">
         <v>721</v>
       </c>
-      <c r="W9" s="377" t="s">
+      <c r="W9" s="385" t="s">
         <v>722</v>
       </c>
-      <c r="X9" s="378">
+      <c r="X9" s="386">
         <v>43368</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="373" t="s">
+      <c r="A10" s="381" t="s">
         <v>720</v>
       </c>
-      <c r="B10" s="374" t="s">
+      <c r="B10" s="382" t="s">
         <v>720</v>
       </c>
-      <c r="C10" s="374" t="s">
+      <c r="C10" s="382" t="s">
         <v>720</v>
       </c>
-      <c r="D10" s="374" t="s">
+      <c r="D10" s="382" t="s">
         <v>720</v>
       </c>
-      <c r="E10" s="374" t="s">
+      <c r="E10" s="382" t="s">
         <v>720</v>
       </c>
-      <c r="F10" s="375" t="s">
+      <c r="F10" s="383" t="s">
         <v>720</v>
       </c>
-      <c r="G10" s="373" t="s">
+      <c r="G10" s="381" t="s">
         <v>561</v>
       </c>
-      <c r="H10" s="374" t="s">
+      <c r="H10" s="382" t="s">
         <v>561</v>
       </c>
-      <c r="I10" s="375" t="s">
+      <c r="I10" s="383" t="s">
         <v>561</v>
       </c>
-      <c r="J10" s="376" t="s">
+      <c r="J10" s="384" t="s">
         <v>1120</v>
       </c>
-      <c r="K10" s="377" t="s">
+      <c r="K10" s="385" t="s">
         <v>722</v>
       </c>
-      <c r="L10" s="377">
+      <c r="L10" s="385">
         <v>43369</v>
       </c>
-      <c r="M10" s="377" t="s">
+      <c r="M10" s="385" t="s">
         <v>1121</v>
       </c>
-      <c r="N10" s="378" t="s">
+      <c r="N10" s="386" t="s">
         <v>722</v>
       </c>
-      <c r="O10" s="373" t="s">
+      <c r="O10" s="381" t="s">
         <v>722</v>
       </c>
-      <c r="P10" s="374" t="s">
+      <c r="P10" s="382" t="s">
         <v>722</v>
       </c>
-      <c r="Q10" s="374" t="s">
+      <c r="Q10" s="382" t="s">
         <v>722</v>
       </c>
-      <c r="R10" s="374" t="s">
+      <c r="R10" s="382" t="s">
         <v>722</v>
       </c>
-      <c r="S10" s="374" t="s">
+      <c r="S10" s="382" t="s">
         <v>722</v>
       </c>
-      <c r="T10" s="375" t="s">
+      <c r="T10" s="383" t="s">
         <v>722</v>
       </c>
-      <c r="U10" s="376">
+      <c r="U10" s="384">
         <v>44431</v>
       </c>
-      <c r="V10" s="377" t="s">
+      <c r="V10" s="385" t="s">
         <v>1121</v>
       </c>
-      <c r="W10" s="377" t="s">
+      <c r="W10" s="385" t="s">
         <v>722</v>
       </c>
-      <c r="X10" s="378">
+      <c r="X10" s="386">
         <v>43369</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="373" t="s">
+      <c r="A11" s="381" t="s">
         <v>572</v>
       </c>
-      <c r="B11" s="374" t="s">
+      <c r="B11" s="382" t="s">
         <v>720</v>
       </c>
-      <c r="C11" s="374" t="s">
+      <c r="C11" s="382" t="s">
         <v>720</v>
       </c>
-      <c r="D11" s="374" t="s">
+      <c r="D11" s="382" t="s">
         <v>720</v>
       </c>
-      <c r="E11" s="374" t="s">
+      <c r="E11" s="382" t="s">
         <v>720</v>
       </c>
-      <c r="F11" s="375" t="s">
+      <c r="F11" s="383" t="s">
         <v>720</v>
       </c>
-      <c r="G11" s="373" t="s">
+      <c r="G11" s="381" t="s">
         <v>562</v>
       </c>
-      <c r="H11" s="374" t="s">
+      <c r="H11" s="382" t="s">
         <v>562</v>
       </c>
-      <c r="I11" s="375" t="s">
+      <c r="I11" s="383" t="s">
         <v>562</v>
       </c>
-      <c r="J11" s="376" t="s">
+      <c r="J11" s="384" t="s">
         <v>768</v>
       </c>
-      <c r="K11" s="377" t="s">
+      <c r="K11" s="385" t="s">
         <v>724</v>
       </c>
-      <c r="L11" s="377">
+      <c r="L11" s="385">
         <v>43392</v>
       </c>
-      <c r="M11" s="377" t="s">
+      <c r="M11" s="385" t="s">
         <v>723</v>
       </c>
-      <c r="N11" s="378" t="s">
+      <c r="N11" s="386" t="s">
         <v>724</v>
       </c>
-      <c r="O11" s="373" t="s">
+      <c r="O11" s="381" t="s">
         <v>724</v>
       </c>
-      <c r="P11" s="374" t="s">
+      <c r="P11" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="Q11" s="374" t="s">
+      <c r="Q11" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="R11" s="374" t="s">
+      <c r="R11" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="S11" s="374" t="s">
+      <c r="S11" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="T11" s="375" t="s">
+      <c r="T11" s="383" t="s">
         <v>724</v>
       </c>
-      <c r="U11" s="376">
+      <c r="U11" s="384">
         <v>44243</v>
       </c>
-      <c r="V11" s="377" t="s">
+      <c r="V11" s="385" t="s">
         <v>723</v>
       </c>
-      <c r="W11" s="377" t="s">
+      <c r="W11" s="385" t="s">
         <v>724</v>
       </c>
-      <c r="X11" s="378">
+      <c r="X11" s="386">
         <v>43392</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="373" t="s">
+      <c r="A12" s="381" t="s">
         <v>732</v>
       </c>
-      <c r="B12" s="374" t="s">
+      <c r="B12" s="382" t="s">
         <v>720</v>
       </c>
-      <c r="C12" s="374" t="s">
+      <c r="C12" s="382" t="s">
         <v>720</v>
       </c>
-      <c r="D12" s="374" t="s">
+      <c r="D12" s="382" t="s">
         <v>720</v>
       </c>
-      <c r="E12" s="374" t="s">
+      <c r="E12" s="382" t="s">
         <v>720</v>
       </c>
-      <c r="F12" s="375" t="s">
+      <c r="F12" s="383" t="s">
         <v>720</v>
       </c>
-      <c r="G12" s="373" t="s">
+      <c r="G12" s="381" t="s">
         <v>730</v>
       </c>
-      <c r="H12" s="374" t="s">
+      <c r="H12" s="382" t="s">
         <v>562</v>
       </c>
-      <c r="I12" s="375" t="s">
+      <c r="I12" s="383" t="s">
         <v>562</v>
       </c>
-      <c r="J12" s="376" t="s">
+      <c r="J12" s="384" t="s">
         <v>1129</v>
       </c>
-      <c r="K12" s="377" t="s">
+      <c r="K12" s="385" t="s">
         <v>724</v>
       </c>
-      <c r="L12" s="377">
+      <c r="L12" s="385">
         <v>43393</v>
       </c>
-      <c r="M12" s="377" t="s">
+      <c r="M12" s="385" t="s">
         <v>733</v>
       </c>
-      <c r="N12" s="378" t="s">
+      <c r="N12" s="386" t="s">
         <v>724</v>
       </c>
-      <c r="O12" s="373" t="s">
+      <c r="O12" s="381" t="s">
         <v>724</v>
       </c>
-      <c r="P12" s="374" t="s">
+      <c r="P12" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="Q12" s="374" t="s">
+      <c r="Q12" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="R12" s="374" t="s">
+      <c r="R12" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="S12" s="374" t="s">
+      <c r="S12" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="T12" s="375" t="s">
+      <c r="T12" s="383" t="s">
         <v>724</v>
       </c>
-      <c r="U12" s="376">
+      <c r="U12" s="384">
         <v>44542</v>
       </c>
-      <c r="V12" s="377" t="s">
+      <c r="V12" s="385" t="s">
         <v>733</v>
       </c>
-      <c r="W12" s="377" t="s">
+      <c r="W12" s="385" t="s">
         <v>724</v>
       </c>
-      <c r="X12" s="378">
+      <c r="X12" s="386">
         <v>43393</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="373" t="s">
+      <c r="A13" s="381" t="s">
         <v>1122</v>
       </c>
-      <c r="B13" s="374"/>
-      <c r="C13" s="374"/>
-      <c r="D13" s="374"/>
-      <c r="E13" s="374"/>
-      <c r="F13" s="375"/>
-      <c r="G13" s="373" t="s">
+      <c r="B13" s="382"/>
+      <c r="C13" s="382"/>
+      <c r="D13" s="382"/>
+      <c r="E13" s="382"/>
+      <c r="F13" s="383"/>
+      <c r="G13" s="381" t="s">
         <v>375</v>
       </c>
-      <c r="H13" s="374" t="s">
+      <c r="H13" s="382" t="s">
         <v>562</v>
       </c>
-      <c r="I13" s="375" t="s">
+      <c r="I13" s="383" t="s">
         <v>562</v>
       </c>
-      <c r="J13" s="376" t="s">
+      <c r="J13" s="384" t="s">
         <v>1123</v>
       </c>
-      <c r="K13" s="377" t="s">
+      <c r="K13" s="385" t="s">
         <v>724</v>
       </c>
-      <c r="L13" s="377">
+      <c r="L13" s="385">
         <v>43394</v>
       </c>
-      <c r="M13" s="377" t="s">
+      <c r="M13" s="385" t="s">
         <v>738</v>
       </c>
-      <c r="N13" s="378" t="s">
+      <c r="N13" s="386" t="s">
         <v>724</v>
       </c>
-      <c r="O13" s="373" t="s">
+      <c r="O13" s="381" t="s">
         <v>724</v>
       </c>
-      <c r="P13" s="374" t="s">
+      <c r="P13" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="Q13" s="374" t="s">
+      <c r="Q13" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="R13" s="374" t="s">
+      <c r="R13" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="S13" s="374" t="s">
+      <c r="S13" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="T13" s="375" t="s">
+      <c r="T13" s="383" t="s">
         <v>724</v>
       </c>
-      <c r="U13" s="376">
+      <c r="U13" s="384">
         <v>44158</v>
       </c>
-      <c r="V13" s="377" t="s">
+      <c r="V13" s="385" t="s">
         <v>738</v>
       </c>
-      <c r="W13" s="377" t="s">
+      <c r="W13" s="385" t="s">
         <v>724</v>
       </c>
-      <c r="X13" s="378">
+      <c r="X13" s="386">
         <v>43394</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="373" t="s">
+      <c r="A14" s="381" t="s">
         <v>1122</v>
       </c>
-      <c r="B14" s="374"/>
-      <c r="C14" s="374"/>
-      <c r="D14" s="374"/>
-      <c r="E14" s="374"/>
-      <c r="F14" s="375"/>
-      <c r="G14" s="373" t="s">
+      <c r="B14" s="382"/>
+      <c r="C14" s="382"/>
+      <c r="D14" s="382"/>
+      <c r="E14" s="382"/>
+      <c r="F14" s="383"/>
+      <c r="G14" s="381" t="s">
         <v>377</v>
       </c>
-      <c r="H14" s="374" t="s">
+      <c r="H14" s="382" t="s">
         <v>562</v>
       </c>
-      <c r="I14" s="375" t="s">
+      <c r="I14" s="383" t="s">
         <v>562</v>
       </c>
-      <c r="J14" s="376" t="s">
+      <c r="J14" s="384" t="s">
         <v>1124</v>
       </c>
-      <c r="K14" s="377" t="s">
+      <c r="K14" s="385" t="s">
         <v>724</v>
       </c>
-      <c r="L14" s="377">
+      <c r="L14" s="385">
         <v>43394</v>
       </c>
-      <c r="M14" s="377" t="s">
+      <c r="M14" s="385" t="s">
         <v>738</v>
       </c>
-      <c r="N14" s="378" t="s">
+      <c r="N14" s="386" t="s">
         <v>724</v>
       </c>
-      <c r="O14" s="373" t="s">
+      <c r="O14" s="381" t="s">
         <v>724</v>
       </c>
-      <c r="P14" s="374" t="s">
+      <c r="P14" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="Q14" s="374" t="s">
+      <c r="Q14" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="R14" s="374" t="s">
+      <c r="R14" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="S14" s="374" t="s">
+      <c r="S14" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="T14" s="375" t="s">
+      <c r="T14" s="383" t="s">
         <v>724</v>
       </c>
-      <c r="U14" s="376">
+      <c r="U14" s="384">
         <v>44331</v>
       </c>
-      <c r="V14" s="377" t="s">
+      <c r="V14" s="385" t="s">
         <v>738</v>
       </c>
-      <c r="W14" s="377" t="s">
+      <c r="W14" s="385" t="s">
         <v>724</v>
       </c>
-      <c r="X14" s="378">
+      <c r="X14" s="386">
         <v>43394</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="373" t="s">
+      <c r="A15" s="381" t="s">
         <v>1122</v>
       </c>
-      <c r="B15" s="374"/>
-      <c r="C15" s="374"/>
-      <c r="D15" s="374"/>
-      <c r="E15" s="374"/>
-      <c r="F15" s="375"/>
-      <c r="G15" s="373" t="s">
+      <c r="B15" s="382"/>
+      <c r="C15" s="382"/>
+      <c r="D15" s="382"/>
+      <c r="E15" s="382"/>
+      <c r="F15" s="383"/>
+      <c r="G15" s="381" t="s">
         <v>379</v>
       </c>
-      <c r="H15" s="374" t="s">
+      <c r="H15" s="382" t="s">
         <v>562</v>
       </c>
-      <c r="I15" s="375" t="s">
+      <c r="I15" s="383" t="s">
         <v>562</v>
       </c>
-      <c r="J15" s="376" t="s">
+      <c r="J15" s="384" t="s">
         <v>1125</v>
       </c>
-      <c r="K15" s="377" t="s">
+      <c r="K15" s="385" t="s">
         <v>724</v>
       </c>
-      <c r="L15" s="377">
+      <c r="L15" s="385">
         <v>43394</v>
       </c>
-      <c r="M15" s="377" t="s">
+      <c r="M15" s="385" t="s">
         <v>738</v>
       </c>
-      <c r="N15" s="378" t="s">
+      <c r="N15" s="386" t="s">
         <v>724</v>
       </c>
-      <c r="O15" s="373" t="s">
+      <c r="O15" s="381" t="s">
         <v>724</v>
       </c>
-      <c r="P15" s="374" t="s">
+      <c r="P15" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="Q15" s="374" t="s">
+      <c r="Q15" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="R15" s="374" t="s">
+      <c r="R15" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="S15" s="374" t="s">
+      <c r="S15" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="T15" s="375" t="s">
+      <c r="T15" s="383" t="s">
         <v>724</v>
       </c>
-      <c r="U15" s="376">
+      <c r="U15" s="384">
         <v>44331</v>
       </c>
-      <c r="V15" s="377" t="s">
+      <c r="V15" s="385" t="s">
         <v>738</v>
       </c>
-      <c r="W15" s="377" t="s">
+      <c r="W15" s="385" t="s">
         <v>724</v>
       </c>
-      <c r="X15" s="378">
+      <c r="X15" s="386">
         <v>43394</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="373" t="s">
+      <c r="A16" s="381" t="s">
         <v>1122</v>
       </c>
-      <c r="B16" s="374"/>
-      <c r="C16" s="374"/>
-      <c r="D16" s="374"/>
-      <c r="E16" s="374"/>
-      <c r="F16" s="375"/>
-      <c r="G16" s="373" t="s">
+      <c r="B16" s="382"/>
+      <c r="C16" s="382"/>
+      <c r="D16" s="382"/>
+      <c r="E16" s="382"/>
+      <c r="F16" s="383"/>
+      <c r="G16" s="381" t="s">
         <v>582</v>
       </c>
-      <c r="H16" s="374" t="s">
+      <c r="H16" s="382" t="s">
         <v>562</v>
       </c>
-      <c r="I16" s="375" t="s">
+      <c r="I16" s="383" t="s">
         <v>562</v>
       </c>
-      <c r="J16" s="376" t="s">
+      <c r="J16" s="384" t="s">
         <v>1126</v>
       </c>
-      <c r="K16" s="377" t="s">
+      <c r="K16" s="385" t="s">
         <v>724</v>
       </c>
-      <c r="L16" s="377">
+      <c r="L16" s="385">
         <v>43394</v>
       </c>
-      <c r="M16" s="377" t="s">
+      <c r="M16" s="385" t="s">
         <v>738</v>
       </c>
-      <c r="N16" s="378" t="s">
+      <c r="N16" s="386" t="s">
         <v>724</v>
       </c>
-      <c r="O16" s="373" t="s">
+      <c r="O16" s="381" t="s">
         <v>724</v>
       </c>
-      <c r="P16" s="374" t="s">
+      <c r="P16" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="Q16" s="374" t="s">
+      <c r="Q16" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="R16" s="374" t="s">
+      <c r="R16" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="S16" s="374" t="s">
+      <c r="S16" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="T16" s="375" t="s">
+      <c r="T16" s="383" t="s">
         <v>724</v>
       </c>
-      <c r="U16" s="376">
+      <c r="U16" s="384">
         <v>44331</v>
       </c>
-      <c r="V16" s="377" t="s">
+      <c r="V16" s="385" t="s">
         <v>738</v>
       </c>
-      <c r="W16" s="377" t="s">
+      <c r="W16" s="385" t="s">
         <v>724</v>
       </c>
-      <c r="X16" s="378">
+      <c r="X16" s="386">
         <v>43394</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="373" t="s">
+      <c r="A17" s="381" t="s">
         <v>737</v>
       </c>
-      <c r="B17" s="374" t="s">
+      <c r="B17" s="382" t="s">
         <v>720</v>
       </c>
-      <c r="C17" s="374" t="s">
+      <c r="C17" s="382" t="s">
         <v>720</v>
       </c>
-      <c r="D17" s="374" t="s">
+      <c r="D17" s="382" t="s">
         <v>720</v>
       </c>
-      <c r="E17" s="374" t="s">
+      <c r="E17" s="382" t="s">
         <v>720</v>
       </c>
-      <c r="F17" s="375" t="s">
+      <c r="F17" s="383" t="s">
         <v>720</v>
       </c>
-      <c r="G17" s="373" t="s">
+      <c r="G17" s="381" t="s">
         <v>734</v>
       </c>
-      <c r="H17" s="374" t="s">
+      <c r="H17" s="382" t="s">
         <v>562</v>
       </c>
-      <c r="I17" s="375" t="s">
+      <c r="I17" s="383" t="s">
         <v>562</v>
       </c>
-      <c r="J17" s="376" t="s">
+      <c r="J17" s="384" t="s">
         <v>1113</v>
       </c>
-      <c r="K17" s="377" t="s">
+      <c r="K17" s="385" t="s">
         <v>724</v>
       </c>
-      <c r="L17" s="377">
+      <c r="L17" s="385">
         <v>43394</v>
       </c>
-      <c r="M17" s="377" t="s">
+      <c r="M17" s="385" t="s">
         <v>738</v>
       </c>
-      <c r="N17" s="378" t="s">
+      <c r="N17" s="386" t="s">
         <v>724</v>
       </c>
-      <c r="O17" s="373" t="s">
+      <c r="O17" s="381" t="s">
         <v>724</v>
       </c>
-      <c r="P17" s="374" t="s">
+      <c r="P17" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="Q17" s="374" t="s">
+      <c r="Q17" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="R17" s="374" t="s">
+      <c r="R17" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="S17" s="374" t="s">
+      <c r="S17" s="382" t="s">
         <v>724</v>
       </c>
-      <c r="T17" s="375" t="s">
+      <c r="T17" s="383" t="s">
         <v>724</v>
       </c>
-      <c r="U17" s="376">
+      <c r="U17" s="384">
         <v>44331</v>
       </c>
-      <c r="V17" s="377" t="s">
+      <c r="V17" s="385" t="s">
         <v>738</v>
       </c>
-      <c r="W17" s="377" t="s">
+      <c r="W17" s="385" t="s">
         <v>724</v>
       </c>
-      <c r="X17" s="378">
+      <c r="X17" s="386">
         <v>43394</v>
       </c>
     </row>
@@ -44601,23 +44601,23 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" s="404" t="s">
+      <c r="H4" s="412" t="s">
         <v>368</v>
       </c>
-      <c r="I4" s="405"/>
-      <c r="J4" s="404" t="s">
+      <c r="I4" s="413"/>
+      <c r="J4" s="412" t="s">
         <v>369</v>
       </c>
-      <c r="K4" s="405"/>
-      <c r="L4" s="406" t="s">
+      <c r="K4" s="413"/>
+      <c r="L4" s="414" t="s">
         <v>526</v>
       </c>
-      <c r="M4" s="408" t="s">
+      <c r="M4" s="416" t="s">
         <v>384</v>
       </c>
-      <c r="N4" s="409"/>
-      <c r="O4" s="409"/>
-      <c r="P4" s="410"/>
+      <c r="N4" s="417"/>
+      <c r="O4" s="417"/>
+      <c r="P4" s="418"/>
     </row>
     <row r="5" spans="2:23" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B5" s="47" t="s">
@@ -44650,11 +44650,11 @@
       <c r="K5" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="L5" s="407"/>
-      <c r="M5" s="411"/>
-      <c r="N5" s="412"/>
-      <c r="O5" s="412"/>
-      <c r="P5" s="413"/>
+      <c r="L5" s="415"/>
+      <c r="M5" s="419"/>
+      <c r="N5" s="420"/>
+      <c r="O5" s="420"/>
+      <c r="P5" s="421"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="18">
@@ -44898,26 +44898,26 @@
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
-      <c r="H13" s="402" t="s">
+      <c r="H13" s="410" t="s">
         <v>383</v>
       </c>
-      <c r="I13" s="403"/>
-      <c r="J13" s="402" t="s">
+      <c r="I13" s="411"/>
+      <c r="J13" s="410" t="s">
         <v>560</v>
       </c>
-      <c r="K13" s="403"/>
-      <c r="L13" s="402" t="s">
+      <c r="K13" s="411"/>
+      <c r="L13" s="410" t="s">
         <v>405</v>
       </c>
-      <c r="M13" s="403"/>
-      <c r="N13" s="402" t="s">
+      <c r="M13" s="411"/>
+      <c r="N13" s="410" t="s">
         <v>46</v>
       </c>
-      <c r="O13" s="403"/>
-      <c r="P13" s="402" t="s">
+      <c r="O13" s="411"/>
+      <c r="P13" s="410" t="s">
         <v>570</v>
       </c>
-      <c r="Q13" s="403"/>
+      <c r="Q13" s="411"/>
       <c r="T13" s="185" t="s">
         <v>601</v>
       </c>
@@ -47278,202 +47278,202 @@
       <c r="L89"/>
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D90" s="399" t="s">
+      <c r="D90" s="407" t="s">
         <v>744</v>
       </c>
-      <c r="E90" s="400"/>
-      <c r="F90" s="400"/>
-      <c r="G90" s="401"/>
+      <c r="E90" s="408"/>
+      <c r="F90" s="408"/>
+      <c r="G90" s="409"/>
       <c r="L90"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D91" s="320" t="s">
+      <c r="D91" s="328" t="s">
         <v>745</v>
       </c>
-      <c r="E91" s="321"/>
-      <c r="F91" s="321"/>
-      <c r="G91" s="322"/>
+      <c r="E91" s="329"/>
+      <c r="F91" s="329"/>
+      <c r="G91" s="330"/>
       <c r="L91"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D92" s="320" t="s">
+      <c r="D92" s="328" t="s">
         <v>746</v>
       </c>
-      <c r="E92" s="321"/>
-      <c r="F92" s="321"/>
-      <c r="G92" s="322"/>
+      <c r="E92" s="329"/>
+      <c r="F92" s="329"/>
+      <c r="G92" s="330"/>
       <c r="L92"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D93" s="320" t="s">
+      <c r="D93" s="328" t="s">
         <v>747</v>
       </c>
-      <c r="E93" s="321"/>
-      <c r="F93" s="321"/>
-      <c r="G93" s="322"/>
+      <c r="E93" s="329"/>
+      <c r="F93" s="329"/>
+      <c r="G93" s="330"/>
       <c r="L93"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D94" s="320" t="s">
+      <c r="D94" s="328" t="s">
         <v>748</v>
       </c>
-      <c r="E94" s="321"/>
-      <c r="F94" s="321"/>
-      <c r="G94" s="322"/>
+      <c r="E94" s="329"/>
+      <c r="F94" s="329"/>
+      <c r="G94" s="330"/>
       <c r="L94"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D95" s="320" t="s">
+      <c r="D95" s="328" t="s">
         <v>749</v>
       </c>
-      <c r="E95" s="321"/>
-      <c r="F95" s="321"/>
-      <c r="G95" s="322"/>
+      <c r="E95" s="329"/>
+      <c r="F95" s="329"/>
+      <c r="G95" s="330"/>
       <c r="L95"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D96" s="320" t="s">
+      <c r="D96" s="328" t="s">
         <v>750</v>
       </c>
-      <c r="E96" s="321"/>
-      <c r="F96" s="321"/>
-      <c r="G96" s="322"/>
+      <c r="E96" s="329"/>
+      <c r="F96" s="329"/>
+      <c r="G96" s="330"/>
     </row>
     <row r="97" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D97" s="320" t="s">
+      <c r="D97" s="328" t="s">
         <v>751</v>
       </c>
-      <c r="E97" s="321"/>
-      <c r="F97" s="321"/>
-      <c r="G97" s="322"/>
+      <c r="E97" s="329"/>
+      <c r="F97" s="329"/>
+      <c r="G97" s="330"/>
     </row>
     <row r="98" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D98" s="320" t="s">
+      <c r="D98" s="328" t="s">
         <v>752</v>
       </c>
-      <c r="E98" s="321"/>
-      <c r="F98" s="321"/>
-      <c r="G98" s="322"/>
+      <c r="E98" s="329"/>
+      <c r="F98" s="329"/>
+      <c r="G98" s="330"/>
     </row>
     <row r="99" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D99" s="320" t="s">
+      <c r="D99" s="328" t="s">
         <v>753</v>
       </c>
-      <c r="E99" s="321"/>
-      <c r="F99" s="321"/>
-      <c r="G99" s="322"/>
+      <c r="E99" s="329"/>
+      <c r="F99" s="329"/>
+      <c r="G99" s="330"/>
     </row>
     <row r="100" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D100" s="320" t="s">
+      <c r="D100" s="328" t="s">
         <v>754</v>
       </c>
-      <c r="E100" s="321"/>
-      <c r="F100" s="321"/>
-      <c r="G100" s="322"/>
+      <c r="E100" s="329"/>
+      <c r="F100" s="329"/>
+      <c r="G100" s="330"/>
     </row>
     <row r="101" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D101" s="320" t="s">
+      <c r="D101" s="328" t="s">
         <v>755</v>
       </c>
-      <c r="E101" s="321"/>
-      <c r="F101" s="321"/>
-      <c r="G101" s="322"/>
+      <c r="E101" s="329"/>
+      <c r="F101" s="329"/>
+      <c r="G101" s="330"/>
     </row>
     <row r="102" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D102" s="320" t="s">
+      <c r="D102" s="328" t="s">
         <v>756</v>
       </c>
-      <c r="E102" s="321"/>
-      <c r="F102" s="321"/>
-      <c r="G102" s="322"/>
+      <c r="E102" s="329"/>
+      <c r="F102" s="329"/>
+      <c r="G102" s="330"/>
     </row>
     <row r="103" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D103" s="320" t="s">
+      <c r="D103" s="328" t="s">
         <v>757</v>
       </c>
-      <c r="E103" s="321"/>
-      <c r="F103" s="321"/>
-      <c r="G103" s="322"/>
+      <c r="E103" s="329"/>
+      <c r="F103" s="329"/>
+      <c r="G103" s="330"/>
     </row>
     <row r="104" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D104" s="320" t="s">
+      <c r="D104" s="328" t="s">
         <v>758</v>
       </c>
-      <c r="E104" s="321"/>
-      <c r="F104" s="321"/>
-      <c r="G104" s="322"/>
+      <c r="E104" s="329"/>
+      <c r="F104" s="329"/>
+      <c r="G104" s="330"/>
     </row>
     <row r="105" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D105" s="320" t="s">
+      <c r="D105" s="328" t="s">
         <v>759</v>
       </c>
-      <c r="E105" s="321"/>
-      <c r="F105" s="321"/>
-      <c r="G105" s="322"/>
+      <c r="E105" s="329"/>
+      <c r="F105" s="329"/>
+      <c r="G105" s="330"/>
     </row>
     <row r="106" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D106" s="320" t="s">
+      <c r="D106" s="328" t="s">
         <v>760</v>
       </c>
-      <c r="E106" s="321"/>
-      <c r="F106" s="321"/>
-      <c r="G106" s="322"/>
+      <c r="E106" s="329"/>
+      <c r="F106" s="329"/>
+      <c r="G106" s="330"/>
     </row>
     <row r="107" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D107" s="320" t="s">
+      <c r="D107" s="328" t="s">
         <v>761</v>
       </c>
-      <c r="E107" s="321"/>
-      <c r="F107" s="321"/>
-      <c r="G107" s="322"/>
+      <c r="E107" s="329"/>
+      <c r="F107" s="329"/>
+      <c r="G107" s="330"/>
     </row>
     <row r="108" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D108" s="320" t="s">
+      <c r="D108" s="328" t="s">
         <v>762</v>
       </c>
-      <c r="E108" s="321"/>
-      <c r="F108" s="321"/>
-      <c r="G108" s="322"/>
+      <c r="E108" s="329"/>
+      <c r="F108" s="329"/>
+      <c r="G108" s="330"/>
     </row>
     <row r="109" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D109" s="320" t="s">
+      <c r="D109" s="328" t="s">
         <v>763</v>
       </c>
-      <c r="E109" s="321"/>
-      <c r="F109" s="321"/>
-      <c r="G109" s="322"/>
+      <c r="E109" s="329"/>
+      <c r="F109" s="329"/>
+      <c r="G109" s="330"/>
     </row>
     <row r="110" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D110" s="320" t="s">
+      <c r="D110" s="328" t="s">
         <v>764</v>
       </c>
-      <c r="E110" s="321"/>
-      <c r="F110" s="321"/>
-      <c r="G110" s="322"/>
+      <c r="E110" s="329"/>
+      <c r="F110" s="329"/>
+      <c r="G110" s="330"/>
     </row>
     <row r="111" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D111" s="320" t="s">
+      <c r="D111" s="328" t="s">
         <v>765</v>
       </c>
-      <c r="E111" s="321"/>
-      <c r="F111" s="321"/>
-      <c r="G111" s="322"/>
+      <c r="E111" s="329"/>
+      <c r="F111" s="329"/>
+      <c r="G111" s="330"/>
     </row>
     <row r="112" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D112" s="320" t="s">
+      <c r="D112" s="328" t="s">
         <v>766</v>
       </c>
-      <c r="E112" s="321"/>
-      <c r="F112" s="321"/>
-      <c r="G112" s="322"/>
+      <c r="E112" s="329"/>
+      <c r="F112" s="329"/>
+      <c r="G112" s="330"/>
     </row>
     <row r="113" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D113" s="323" t="s">
+      <c r="D113" s="331" t="s">
         <v>767</v>
       </c>
-      <c r="E113" s="324"/>
-      <c r="F113" s="324"/>
-      <c r="G113" s="325"/>
+      <c r="E113" s="332"/>
+      <c r="F113" s="332"/>
+      <c r="G113" s="333"/>
     </row>
   </sheetData>
   <mergeCells count="33">

--- a/src/modules/mail/templates/excels/ni_mcit_p_01.xlsx
+++ b/src/modules/mail/templates/excels/ni_mcit_p_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr showInkAnnotation="0" updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MamaGuevooooo\Desktop\Regxi\Metrocal-admin-backend\src\modules\mail\templates\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8300FA6E-6404-428E-A8B4-824C74B05C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEDB747-8837-4759-A077-1B3ADDF5AAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="887" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="887" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="2" r:id="rId1"/>
@@ -8713,24 +8713,6 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8761,6 +8743,24 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8782,16 +8782,79 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="172" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8802,27 +8865,6 @@
     </xf>
     <xf numFmtId="172" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8845,83 +8887,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="21" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8932,32 +8929,26 @@
     <xf numFmtId="0" fontId="52" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8994,6 +8985,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -14178,7 +14178,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-NI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14853,7 +14853,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-NI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -15492,7 +15492,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-NI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -22920,10 +22920,10 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="N10" s="334" t="s">
+      <c r="N10" s="328" t="s">
         <v>742</v>
       </c>
-      <c r="O10" s="335"/>
+      <c r="O10" s="329"/>
       <c r="P10" s="271" t="str">
         <f>IFERROR(AVERAGE(P3,P5,P7),"")</f>
         <v/>
@@ -22953,10 +22953,10 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="N11" s="336" t="s">
+      <c r="N11" s="330" t="s">
         <v>743</v>
       </c>
-      <c r="O11" s="337"/>
+      <c r="O11" s="331"/>
       <c r="P11" s="273" t="str">
         <f>IFERROR(AVERAGE(P4,P6,P8),"")</f>
         <v/>
@@ -23181,289 +23181,269 @@
       </c>
     </row>
     <row r="123" spans="23:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Y123" s="338" t="s">
+      <c r="Y123" s="332" t="s">
         <v>744</v>
       </c>
-      <c r="Z123" s="339"/>
-      <c r="AA123" s="339"/>
-      <c r="AB123" s="340"/>
+      <c r="Z123" s="333"/>
+      <c r="AA123" s="333"/>
+      <c r="AB123" s="334"/>
     </row>
     <row r="124" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W124" s="202" t="s">
         <v>544</v>
       </c>
-      <c r="Y124" s="341" t="s">
+      <c r="Y124" s="335" t="s">
         <v>745</v>
       </c>
-      <c r="Z124" s="342"/>
-      <c r="AA124" s="342"/>
-      <c r="AB124" s="343"/>
+      <c r="Z124" s="336"/>
+      <c r="AA124" s="336"/>
+      <c r="AB124" s="337"/>
     </row>
     <row r="125" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W125" s="202" t="s">
         <v>543</v>
       </c>
-      <c r="Y125" s="328" t="s">
+      <c r="Y125" s="338" t="s">
         <v>782</v>
       </c>
-      <c r="Z125" s="329"/>
-      <c r="AA125" s="329"/>
-      <c r="AB125" s="330"/>
+      <c r="Z125" s="339"/>
+      <c r="AA125" s="339"/>
+      <c r="AB125" s="340"/>
     </row>
     <row r="126" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W126" s="202" t="s">
         <v>545</v>
       </c>
-      <c r="Y126" s="328" t="s">
+      <c r="Y126" s="338" t="s">
         <v>747</v>
       </c>
-      <c r="Z126" s="329"/>
-      <c r="AA126" s="329"/>
-      <c r="AB126" s="330"/>
+      <c r="Z126" s="339"/>
+      <c r="AA126" s="339"/>
+      <c r="AB126" s="340"/>
     </row>
     <row r="127" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W127" s="202" t="s">
         <v>609</v>
       </c>
-      <c r="Y127" s="328" t="s">
+      <c r="Y127" s="338" t="s">
         <v>748</v>
       </c>
-      <c r="Z127" s="329"/>
-      <c r="AA127" s="329"/>
-      <c r="AB127" s="330"/>
+      <c r="Z127" s="339"/>
+      <c r="AA127" s="339"/>
+      <c r="AB127" s="340"/>
     </row>
     <row r="128" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W128" s="202" t="s">
         <v>546</v>
       </c>
-      <c r="Y128" s="328" t="s">
+      <c r="Y128" s="338" t="s">
         <v>749</v>
       </c>
-      <c r="Z128" s="329"/>
-      <c r="AA128" s="329"/>
-      <c r="AB128" s="330"/>
+      <c r="Z128" s="339"/>
+      <c r="AA128" s="339"/>
+      <c r="AB128" s="340"/>
     </row>
     <row r="129" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W129" s="202" t="s">
         <v>769</v>
       </c>
-      <c r="Y129" s="328" t="s">
+      <c r="Y129" s="338" t="s">
         <v>750</v>
       </c>
-      <c r="Z129" s="329"/>
-      <c r="AA129" s="329"/>
-      <c r="AB129" s="330"/>
+      <c r="Z129" s="339"/>
+      <c r="AA129" s="339"/>
+      <c r="AB129" s="340"/>
     </row>
     <row r="130" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W130" s="202" t="s">
         <v>773</v>
       </c>
-      <c r="Y130" s="328" t="s">
+      <c r="Y130" s="338" t="s">
         <v>751</v>
       </c>
-      <c r="Z130" s="329"/>
-      <c r="AA130" s="329"/>
-      <c r="AB130" s="330"/>
+      <c r="Z130" s="339"/>
+      <c r="AA130" s="339"/>
+      <c r="AB130" s="340"/>
     </row>
     <row r="131" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W131" s="202" t="s">
         <v>623</v>
       </c>
-      <c r="Y131" s="328" t="s">
+      <c r="Y131" s="338" t="s">
         <v>752</v>
       </c>
-      <c r="Z131" s="329"/>
-      <c r="AA131" s="329"/>
-      <c r="AB131" s="330"/>
+      <c r="Z131" s="339"/>
+      <c r="AA131" s="339"/>
+      <c r="AB131" s="340"/>
     </row>
     <row r="132" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W132" s="202" t="s">
         <v>624</v>
       </c>
-      <c r="Y132" s="328" t="s">
+      <c r="Y132" s="338" t="s">
         <v>753</v>
       </c>
-      <c r="Z132" s="329"/>
-      <c r="AA132" s="329"/>
-      <c r="AB132" s="330"/>
+      <c r="Z132" s="339"/>
+      <c r="AA132" s="339"/>
+      <c r="AB132" s="340"/>
     </row>
     <row r="133" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W133" s="202" t="s">
         <v>625</v>
       </c>
-      <c r="Y133" s="328" t="s">
+      <c r="Y133" s="338" t="s">
         <v>754</v>
       </c>
-      <c r="Z133" s="329"/>
-      <c r="AA133" s="329"/>
-      <c r="AB133" s="330"/>
+      <c r="Z133" s="339"/>
+      <c r="AA133" s="339"/>
+      <c r="AB133" s="340"/>
     </row>
     <row r="134" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W134" s="202" t="s">
         <v>774</v>
       </c>
-      <c r="Y134" s="328" t="s">
+      <c r="Y134" s="338" t="s">
         <v>777</v>
       </c>
-      <c r="Z134" s="329"/>
-      <c r="AA134" s="329"/>
-      <c r="AB134" s="330"/>
+      <c r="Z134" s="339"/>
+      <c r="AA134" s="339"/>
+      <c r="AB134" s="340"/>
     </row>
     <row r="135" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W135" s="202" t="s">
         <v>775</v>
       </c>
-      <c r="Y135" s="328" t="s">
+      <c r="Y135" s="338" t="s">
         <v>778</v>
       </c>
-      <c r="Z135" s="329"/>
-      <c r="AA135" s="329"/>
-      <c r="AB135" s="330"/>
+      <c r="Z135" s="339"/>
+      <c r="AA135" s="339"/>
+      <c r="AB135" s="340"/>
     </row>
     <row r="136" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W136" s="202" t="s">
         <v>776</v>
       </c>
-      <c r="Y136" s="328" t="s">
+      <c r="Y136" s="338" t="s">
         <v>757</v>
       </c>
-      <c r="Z136" s="329"/>
-      <c r="AA136" s="329"/>
-      <c r="AB136" s="330"/>
+      <c r="Z136" s="339"/>
+      <c r="AA136" s="339"/>
+      <c r="AB136" s="340"/>
     </row>
     <row r="137" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W137" s="202" t="s">
         <v>622</v>
       </c>
-      <c r="Y137" s="328" t="s">
+      <c r="Y137" s="338" t="s">
         <v>758</v>
       </c>
-      <c r="Z137" s="329"/>
-      <c r="AA137" s="329"/>
-      <c r="AB137" s="330"/>
+      <c r="Z137" s="339"/>
+      <c r="AA137" s="339"/>
+      <c r="AB137" s="340"/>
     </row>
     <row r="138" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W138" s="202" t="s">
         <v>783</v>
       </c>
-      <c r="Y138" s="328" t="s">
+      <c r="Y138" s="338" t="s">
         <v>784</v>
       </c>
-      <c r="Z138" s="329"/>
-      <c r="AA138" s="329"/>
-      <c r="AB138" s="330"/>
+      <c r="Z138" s="339"/>
+      <c r="AA138" s="339"/>
+      <c r="AB138" s="340"/>
     </row>
     <row r="139" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y139" s="328" t="s">
+      <c r="Y139" s="338" t="s">
         <v>760</v>
       </c>
-      <c r="Z139" s="329"/>
-      <c r="AA139" s="329"/>
-      <c r="AB139" s="330"/>
+      <c r="Z139" s="339"/>
+      <c r="AA139" s="339"/>
+      <c r="AB139" s="340"/>
     </row>
     <row r="140" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y140" s="328" t="s">
+      <c r="Y140" s="338" t="s">
         <v>761</v>
       </c>
-      <c r="Z140" s="329"/>
-      <c r="AA140" s="329"/>
-      <c r="AB140" s="330"/>
+      <c r="Z140" s="339"/>
+      <c r="AA140" s="339"/>
+      <c r="AB140" s="340"/>
     </row>
     <row r="141" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y141" s="328" t="s">
+      <c r="Y141" s="338" t="s">
         <v>762</v>
       </c>
-      <c r="Z141" s="329"/>
-      <c r="AA141" s="329"/>
-      <c r="AB141" s="330"/>
+      <c r="Z141" s="339"/>
+      <c r="AA141" s="339"/>
+      <c r="AB141" s="340"/>
     </row>
     <row r="142" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y142" s="328" t="s">
+      <c r="Y142" s="338" t="s">
         <v>779</v>
       </c>
-      <c r="Z142" s="329"/>
-      <c r="AA142" s="329"/>
-      <c r="AB142" s="330"/>
+      <c r="Z142" s="339"/>
+      <c r="AA142" s="339"/>
+      <c r="AB142" s="340"/>
     </row>
     <row r="143" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y143" s="328" t="s">
+      <c r="Y143" s="338" t="s">
         <v>764</v>
       </c>
-      <c r="Z143" s="329"/>
-      <c r="AA143" s="329"/>
-      <c r="AB143" s="330"/>
+      <c r="Z143" s="339"/>
+      <c r="AA143" s="339"/>
+      <c r="AB143" s="340"/>
     </row>
     <row r="144" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y144" s="328" t="s">
+      <c r="Y144" s="338" t="s">
         <v>765</v>
       </c>
-      <c r="Z144" s="329"/>
-      <c r="AA144" s="329"/>
-      <c r="AB144" s="330"/>
+      <c r="Z144" s="339"/>
+      <c r="AA144" s="339"/>
+      <c r="AB144" s="340"/>
     </row>
     <row r="145" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y145" s="328" t="s">
+      <c r="Y145" s="338" t="s">
         <v>766</v>
       </c>
-      <c r="Z145" s="329"/>
-      <c r="AA145" s="329"/>
-      <c r="AB145" s="330"/>
+      <c r="Z145" s="339"/>
+      <c r="AA145" s="339"/>
+      <c r="AB145" s="340"/>
     </row>
     <row r="146" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y146" s="328" t="s">
+      <c r="Y146" s="338" t="s">
         <v>767</v>
       </c>
-      <c r="Z146" s="329"/>
-      <c r="AA146" s="329"/>
-      <c r="AB146" s="330"/>
+      <c r="Z146" s="339"/>
+      <c r="AA146" s="339"/>
+      <c r="AB146" s="340"/>
     </row>
     <row r="147" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y147" s="328" t="s">
+      <c r="Y147" s="338" t="s">
         <v>780</v>
       </c>
-      <c r="Z147" s="329"/>
-      <c r="AA147" s="329"/>
-      <c r="AB147" s="330"/>
+      <c r="Z147" s="339"/>
+      <c r="AA147" s="339"/>
+      <c r="AB147" s="340"/>
     </row>
     <row r="148" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y148" s="328" t="s">
+      <c r="Y148" s="338" t="s">
         <v>781</v>
       </c>
-      <c r="Z148" s="329"/>
-      <c r="AA148" s="329"/>
-      <c r="AB148" s="330"/>
+      <c r="Z148" s="339"/>
+      <c r="AA148" s="339"/>
+      <c r="AB148" s="340"/>
     </row>
     <row r="149" spans="25:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Y149" s="331" t="s">
+      <c r="Y149" s="341" t="s">
         <v>785</v>
       </c>
-      <c r="Z149" s="332"/>
-      <c r="AA149" s="332"/>
-      <c r="AB149" s="333"/>
+      <c r="Z149" s="342"/>
+      <c r="AA149" s="342"/>
+      <c r="AB149" s="343"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="29">
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Y123:AB123"/>
-    <mergeCell ref="Y124:AB124"/>
-    <mergeCell ref="Y125:AB125"/>
-    <mergeCell ref="Y126:AB126"/>
-    <mergeCell ref="Y127:AB127"/>
-    <mergeCell ref="Y128:AB128"/>
-    <mergeCell ref="Y129:AB129"/>
-    <mergeCell ref="Y130:AB130"/>
-    <mergeCell ref="Y131:AB131"/>
-    <mergeCell ref="Y132:AB132"/>
-    <mergeCell ref="Y133:AB133"/>
-    <mergeCell ref="Y134:AB134"/>
-    <mergeCell ref="Y135:AB135"/>
-    <mergeCell ref="Y136:AB136"/>
-    <mergeCell ref="Y137:AB137"/>
-    <mergeCell ref="Y138:AB138"/>
-    <mergeCell ref="Y139:AB139"/>
-    <mergeCell ref="Y140:AB140"/>
     <mergeCell ref="Y146:AB146"/>
     <mergeCell ref="Y147:AB147"/>
     <mergeCell ref="Y148:AB148"/>
@@ -23473,6 +23453,26 @@
     <mergeCell ref="Y143:AB143"/>
     <mergeCell ref="Y144:AB144"/>
     <mergeCell ref="Y145:AB145"/>
+    <mergeCell ref="Y136:AB136"/>
+    <mergeCell ref="Y137:AB137"/>
+    <mergeCell ref="Y138:AB138"/>
+    <mergeCell ref="Y139:AB139"/>
+    <mergeCell ref="Y140:AB140"/>
+    <mergeCell ref="Y131:AB131"/>
+    <mergeCell ref="Y132:AB132"/>
+    <mergeCell ref="Y133:AB133"/>
+    <mergeCell ref="Y134:AB134"/>
+    <mergeCell ref="Y135:AB135"/>
+    <mergeCell ref="Y126:AB126"/>
+    <mergeCell ref="Y127:AB127"/>
+    <mergeCell ref="Y128:AB128"/>
+    <mergeCell ref="Y129:AB129"/>
+    <mergeCell ref="Y130:AB130"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Y123:AB123"/>
+    <mergeCell ref="Y124:AB124"/>
+    <mergeCell ref="Y125:AB125"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -28684,7 +28684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:BJ129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -36662,10 +36662,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A6:Y129"/>
+  <dimension ref="A6:Y128"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A5" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R84" sqref="R84"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A96" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P117" sqref="O117:P117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36711,20 +36711,20 @@
       <c r="K8" s="227"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="359" t="str">
+      <c r="N8" s="391" t="str">
         <f>General!F3</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O8" s="360"/>
-      <c r="P8" s="360"/>
-      <c r="Q8" s="360"/>
-      <c r="R8" s="360"/>
-      <c r="S8" s="360"/>
-      <c r="T8" s="360"/>
-      <c r="U8" s="360"/>
-      <c r="V8" s="360"/>
-      <c r="W8" s="360"/>
-      <c r="X8" s="360"/>
+      <c r="O8" s="371"/>
+      <c r="P8" s="371"/>
+      <c r="Q8" s="371"/>
+      <c r="R8" s="371"/>
+      <c r="S8" s="371"/>
+      <c r="T8" s="371"/>
+      <c r="U8" s="371"/>
+      <c r="V8" s="371"/>
+      <c r="W8" s="371"/>
+      <c r="X8" s="371"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="224" t="s">
@@ -36741,20 +36741,20 @@
       <c r="K9" s="227"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="361" t="str">
+      <c r="N9" s="390" t="str">
         <f>General!F4</f>
         <v>NI-CS-XXXX-XX</v>
       </c>
-      <c r="O9" s="362"/>
-      <c r="P9" s="362"/>
-      <c r="Q9" s="362"/>
-      <c r="R9" s="362"/>
-      <c r="S9" s="362"/>
-      <c r="T9" s="362"/>
-      <c r="U9" s="362"/>
-      <c r="V9" s="362"/>
-      <c r="W9" s="362"/>
-      <c r="X9" s="362"/>
+      <c r="O9" s="373"/>
+      <c r="P9" s="373"/>
+      <c r="Q9" s="373"/>
+      <c r="R9" s="373"/>
+      <c r="S9" s="373"/>
+      <c r="T9" s="373"/>
+      <c r="U9" s="373"/>
+      <c r="V9" s="373"/>
+      <c r="W9" s="373"/>
+      <c r="X9" s="373"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="224" t="s">
@@ -36771,20 +36771,20 @@
       <c r="K10" s="227"/>
       <c r="L10" s="228"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="363" t="str">
+      <c r="N10" s="392" t="str">
         <f>General!F5</f>
         <v>2019-03-06</v>
       </c>
-      <c r="O10" s="363"/>
-      <c r="P10" s="363"/>
-      <c r="Q10" s="363"/>
-      <c r="R10" s="363"/>
-      <c r="S10" s="363"/>
-      <c r="T10" s="363"/>
-      <c r="U10" s="363"/>
-      <c r="V10" s="363"/>
-      <c r="W10" s="363"/>
-      <c r="X10" s="363"/>
+      <c r="O10" s="392"/>
+      <c r="P10" s="392"/>
+      <c r="Q10" s="392"/>
+      <c r="R10" s="392"/>
+      <c r="S10" s="392"/>
+      <c r="T10" s="392"/>
+      <c r="U10" s="392"/>
+      <c r="V10" s="392"/>
+      <c r="W10" s="392"/>
+      <c r="X10" s="392"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="224" t="s">
@@ -36801,13 +36801,13 @@
       <c r="K11" s="227"/>
       <c r="L11" s="228"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="363">
+      <c r="N11" s="392">
         <f ca="1">NOW()</f>
-        <v>45489.709634606479</v>
-      </c>
-      <c r="O11" s="363"/>
-      <c r="P11" s="363"/>
-      <c r="Q11" s="363"/>
+        <v>45735.949592129633</v>
+      </c>
+      <c r="O11" s="392"/>
+      <c r="P11" s="392"/>
+      <c r="Q11" s="392"/>
       <c r="R11" s="295"/>
       <c r="S11" s="295"/>
       <c r="T11" s="295"/>
@@ -36831,20 +36831,20 @@
       <c r="K12" s="227"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="361" t="str">
+      <c r="N12" s="390" t="str">
         <f>General!F7</f>
         <v xml:space="preserve">Manómetro </v>
       </c>
-      <c r="O12" s="362"/>
-      <c r="P12" s="362"/>
-      <c r="Q12" s="362"/>
-      <c r="R12" s="362"/>
-      <c r="S12" s="362"/>
-      <c r="T12" s="362"/>
-      <c r="U12" s="362"/>
-      <c r="V12" s="362"/>
-      <c r="W12" s="362"/>
-      <c r="X12" s="362"/>
+      <c r="O12" s="373"/>
+      <c r="P12" s="373"/>
+      <c r="Q12" s="373"/>
+      <c r="R12" s="373"/>
+      <c r="S12" s="373"/>
+      <c r="T12" s="373"/>
+      <c r="U12" s="373"/>
+      <c r="V12" s="373"/>
+      <c r="W12" s="373"/>
+      <c r="X12" s="373"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="224" t="s">
@@ -36861,20 +36861,20 @@
       <c r="K13" s="227"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="361" t="str">
+      <c r="N13" s="390" t="str">
         <f>General!F10</f>
         <v>Wika</v>
       </c>
-      <c r="O13" s="362"/>
-      <c r="P13" s="362"/>
-      <c r="Q13" s="362"/>
-      <c r="R13" s="362"/>
-      <c r="S13" s="362"/>
-      <c r="T13" s="362"/>
-      <c r="U13" s="362"/>
-      <c r="V13" s="362"/>
-      <c r="W13" s="362"/>
-      <c r="X13" s="362"/>
+      <c r="O13" s="373"/>
+      <c r="P13" s="373"/>
+      <c r="Q13" s="373"/>
+      <c r="R13" s="373"/>
+      <c r="S13" s="373"/>
+      <c r="T13" s="373"/>
+      <c r="U13" s="373"/>
+      <c r="V13" s="373"/>
+      <c r="W13" s="373"/>
+      <c r="X13" s="373"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="224" t="s">
@@ -36891,20 +36891,20 @@
       <c r="K14" s="227"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="361" t="str">
+      <c r="N14" s="390" t="str">
         <f>General!F12</f>
         <v>90271482-1-19</v>
       </c>
-      <c r="O14" s="362"/>
-      <c r="P14" s="362"/>
-      <c r="Q14" s="362"/>
-      <c r="R14" s="362"/>
-      <c r="S14" s="362"/>
-      <c r="T14" s="362"/>
-      <c r="U14" s="362"/>
-      <c r="V14" s="362"/>
-      <c r="W14" s="362"/>
-      <c r="X14" s="362"/>
+      <c r="O14" s="373"/>
+      <c r="P14" s="373"/>
+      <c r="Q14" s="373"/>
+      <c r="R14" s="373"/>
+      <c r="S14" s="373"/>
+      <c r="T14" s="373"/>
+      <c r="U14" s="373"/>
+      <c r="V14" s="373"/>
+      <c r="W14" s="373"/>
+      <c r="X14" s="373"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="224" t="s">
@@ -36921,20 +36921,20 @@
       <c r="K15" s="227"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="361" t="str">
+      <c r="N15" s="390" t="str">
         <f>General!F11</f>
         <v>No Aplica (N/A)</v>
       </c>
-      <c r="O15" s="362"/>
-      <c r="P15" s="362"/>
-      <c r="Q15" s="362"/>
-      <c r="R15" s="362"/>
-      <c r="S15" s="362"/>
-      <c r="T15" s="362"/>
-      <c r="U15" s="362"/>
-      <c r="V15" s="362"/>
-      <c r="W15" s="362"/>
-      <c r="X15" s="362"/>
+      <c r="O15" s="373"/>
+      <c r="P15" s="373"/>
+      <c r="Q15" s="373"/>
+      <c r="R15" s="373"/>
+      <c r="S15" s="373"/>
+      <c r="T15" s="373"/>
+      <c r="U15" s="373"/>
+      <c r="V15" s="373"/>
+      <c r="W15" s="373"/>
+      <c r="X15" s="373"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="224" t="s">
@@ -36951,20 +36951,20 @@
       <c r="K16" s="227"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="361" t="str">
+      <c r="N16" s="390" t="str">
         <f>General!F18</f>
         <v>0 kgf/cm² a 16 kgf/cm²</v>
       </c>
-      <c r="O16" s="362"/>
-      <c r="P16" s="362"/>
-      <c r="Q16" s="362"/>
-      <c r="R16" s="362"/>
-      <c r="S16" s="362"/>
-      <c r="T16" s="362"/>
-      <c r="U16" s="362"/>
-      <c r="V16" s="362"/>
-      <c r="W16" s="362"/>
-      <c r="X16" s="362"/>
+      <c r="O16" s="373"/>
+      <c r="P16" s="373"/>
+      <c r="Q16" s="373"/>
+      <c r="R16" s="373"/>
+      <c r="S16" s="373"/>
+      <c r="T16" s="373"/>
+      <c r="U16" s="373"/>
+      <c r="V16" s="373"/>
+      <c r="W16" s="373"/>
+      <c r="X16" s="373"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="224" t="s">
@@ -36981,16 +36981,16 @@
       <c r="K17" s="227"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="361" t="str">
+      <c r="N17" s="390" t="str">
         <f>General!F15</f>
         <v>0,5</v>
       </c>
-      <c r="O17" s="362"/>
-      <c r="P17" s="361" t="str">
+      <c r="O17" s="373"/>
+      <c r="P17" s="390" t="str">
         <f>General!F16</f>
         <v>atm</v>
       </c>
-      <c r="Q17" s="362"/>
+      <c r="Q17" s="373"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -37014,20 +37014,20 @@
       <c r="K18" s="227"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="361" t="str">
+      <c r="N18" s="390" t="str">
         <f>General!F6</f>
         <v>MAN-A04</v>
       </c>
-      <c r="O18" s="362"/>
-      <c r="P18" s="362"/>
-      <c r="Q18" s="362"/>
-      <c r="R18" s="362"/>
-      <c r="S18" s="362"/>
-      <c r="T18" s="362"/>
-      <c r="U18" s="362"/>
-      <c r="V18" s="362"/>
-      <c r="W18" s="362"/>
-      <c r="X18" s="362"/>
+      <c r="O18" s="373"/>
+      <c r="P18" s="373"/>
+      <c r="Q18" s="373"/>
+      <c r="R18" s="373"/>
+      <c r="S18" s="373"/>
+      <c r="T18" s="373"/>
+      <c r="U18" s="373"/>
+      <c r="V18" s="373"/>
+      <c r="W18" s="373"/>
+      <c r="X18" s="373"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="224" t="s">
@@ -37044,20 +37044,20 @@
       <c r="K19" s="227"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="361" t="str">
+      <c r="N19" s="390" t="str">
         <f>General!L3</f>
         <v>Mechnikov, S.A.</v>
       </c>
-      <c r="O19" s="362"/>
-      <c r="P19" s="362"/>
-      <c r="Q19" s="362"/>
-      <c r="R19" s="362"/>
-      <c r="S19" s="362"/>
-      <c r="T19" s="362"/>
-      <c r="U19" s="362"/>
-      <c r="V19" s="362"/>
-      <c r="W19" s="362"/>
-      <c r="X19" s="362"/>
+      <c r="O19" s="373"/>
+      <c r="P19" s="373"/>
+      <c r="Q19" s="373"/>
+      <c r="R19" s="373"/>
+      <c r="S19" s="373"/>
+      <c r="T19" s="373"/>
+      <c r="U19" s="373"/>
+      <c r="V19" s="373"/>
+      <c r="W19" s="373"/>
+      <c r="X19" s="373"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
@@ -37074,20 +37074,20 @@
       <c r="K20" s="227"/>
       <c r="L20" s="11"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="362" t="str">
+      <c r="N20" s="373" t="str">
         <f>General!L4</f>
         <v/>
       </c>
-      <c r="O20" s="362"/>
-      <c r="P20" s="362"/>
-      <c r="Q20" s="362"/>
-      <c r="R20" s="362"/>
-      <c r="S20" s="362"/>
-      <c r="T20" s="362"/>
-      <c r="U20" s="362"/>
-      <c r="V20" s="362"/>
-      <c r="W20" s="362"/>
-      <c r="X20" s="362"/>
+      <c r="O20" s="373"/>
+      <c r="P20" s="373"/>
+      <c r="Q20" s="373"/>
+      <c r="R20" s="373"/>
+      <c r="S20" s="373"/>
+      <c r="T20" s="373"/>
+      <c r="U20" s="373"/>
+      <c r="V20" s="373"/>
+      <c r="W20" s="373"/>
+      <c r="X20" s="373"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="224" t="s">
@@ -37104,34 +37104,34 @@
       <c r="K21" s="227"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="364" t="str">
+      <c r="N21" s="393" t="str">
         <f>General!L6</f>
         <v>Laboratorio #2, Metrocal</v>
       </c>
-      <c r="O21" s="364"/>
-      <c r="P21" s="364"/>
-      <c r="Q21" s="364"/>
-      <c r="R21" s="364"/>
-      <c r="S21" s="364"/>
-      <c r="T21" s="364"/>
-      <c r="U21" s="364"/>
-      <c r="V21" s="364"/>
-      <c r="W21" s="364"/>
-      <c r="X21" s="364"/>
+      <c r="O21" s="393"/>
+      <c r="P21" s="393"/>
+      <c r="Q21" s="393"/>
+      <c r="R21" s="393"/>
+      <c r="S21" s="393"/>
+      <c r="T21" s="393"/>
+      <c r="U21" s="393"/>
+      <c r="V21" s="393"/>
+      <c r="W21" s="393"/>
+      <c r="X21" s="393"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="224"/>
-      <c r="N22" s="364"/>
-      <c r="O22" s="364"/>
-      <c r="P22" s="364"/>
-      <c r="Q22" s="364"/>
-      <c r="R22" s="364"/>
-      <c r="S22" s="364"/>
-      <c r="T22" s="364"/>
-      <c r="U22" s="364"/>
-      <c r="V22" s="364"/>
-      <c r="W22" s="364"/>
-      <c r="X22" s="364"/>
+      <c r="N22" s="393"/>
+      <c r="O22" s="393"/>
+      <c r="P22" s="393"/>
+      <c r="Q22" s="393"/>
+      <c r="R22" s="393"/>
+      <c r="S22" s="393"/>
+      <c r="T22" s="393"/>
+      <c r="U22" s="393"/>
+      <c r="V22" s="393"/>
+      <c r="W22" s="393"/>
+      <c r="X22" s="393"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="224" t="s">
@@ -37146,493 +37146,493 @@
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="365" t="s">
+      <c r="D24" s="379" t="s">
         <v>363</v>
       </c>
-      <c r="E24" s="365"/>
-      <c r="F24" s="365"/>
-      <c r="G24" s="365"/>
-      <c r="H24" s="365"/>
-      <c r="I24" s="365"/>
-      <c r="J24" s="365"/>
-      <c r="K24" s="365"/>
-      <c r="L24" s="365"/>
-      <c r="M24" s="365"/>
-      <c r="N24" s="365"/>
-      <c r="O24" s="365"/>
-      <c r="P24" s="365"/>
-      <c r="Q24" s="365"/>
-      <c r="R24" s="365"/>
-      <c r="S24" s="365"/>
-      <c r="T24" s="365"/>
-      <c r="U24" s="365"/>
-      <c r="V24" s="365"/>
-      <c r="W24" s="365"/>
+      <c r="E24" s="379"/>
+      <c r="F24" s="379"/>
+      <c r="G24" s="379"/>
+      <c r="H24" s="379"/>
+      <c r="I24" s="379"/>
+      <c r="J24" s="379"/>
+      <c r="K24" s="379"/>
+      <c r="L24" s="379"/>
+      <c r="M24" s="379"/>
+      <c r="N24" s="379"/>
+      <c r="O24" s="379"/>
+      <c r="P24" s="379"/>
+      <c r="Q24" s="379"/>
+      <c r="R24" s="379"/>
+      <c r="S24" s="379"/>
+      <c r="T24" s="379"/>
+      <c r="U24" s="379"/>
+      <c r="V24" s="379"/>
+      <c r="W24" s="379"/>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="366" t="s">
+      <c r="D25" s="380" t="s">
         <v>631</v>
       </c>
-      <c r="E25" s="366"/>
-      <c r="F25" s="367" t="s">
+      <c r="E25" s="380"/>
+      <c r="F25" s="381" t="s">
         <v>696</v>
       </c>
-      <c r="G25" s="367"/>
-      <c r="H25" s="367"/>
-      <c r="I25" s="367"/>
-      <c r="J25" s="367"/>
-      <c r="K25" s="367"/>
-      <c r="L25" s="367" t="s">
+      <c r="G25" s="381"/>
+      <c r="H25" s="381"/>
+      <c r="I25" s="381"/>
+      <c r="J25" s="381"/>
+      <c r="K25" s="381"/>
+      <c r="L25" s="381" t="s">
         <v>364</v>
       </c>
-      <c r="M25" s="367"/>
-      <c r="N25" s="367"/>
-      <c r="O25" s="367"/>
-      <c r="P25" s="367"/>
-      <c r="Q25" s="367"/>
-      <c r="R25" s="366" t="s">
+      <c r="M25" s="381"/>
+      <c r="N25" s="381"/>
+      <c r="O25" s="381"/>
+      <c r="P25" s="381"/>
+      <c r="Q25" s="381"/>
+      <c r="R25" s="380" t="s">
         <v>697</v>
       </c>
-      <c r="S25" s="366"/>
-      <c r="T25" s="366"/>
-      <c r="U25" s="366"/>
-      <c r="V25" s="366"/>
-      <c r="W25" s="366"/>
+      <c r="S25" s="380"/>
+      <c r="T25" s="380"/>
+      <c r="U25" s="380"/>
+      <c r="V25" s="380"/>
+      <c r="W25" s="380"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="366"/>
-      <c r="E26" s="366"/>
-      <c r="F26" s="367"/>
-      <c r="G26" s="367"/>
-      <c r="H26" s="367"/>
-      <c r="I26" s="367"/>
-      <c r="J26" s="367"/>
-      <c r="K26" s="367"/>
-      <c r="L26" s="367"/>
-      <c r="M26" s="367"/>
-      <c r="N26" s="367"/>
-      <c r="O26" s="367"/>
-      <c r="P26" s="367"/>
-      <c r="Q26" s="367"/>
-      <c r="R26" s="366"/>
-      <c r="S26" s="366"/>
-      <c r="T26" s="366"/>
-      <c r="U26" s="366"/>
-      <c r="V26" s="366"/>
-      <c r="W26" s="366"/>
+      <c r="D26" s="380"/>
+      <c r="E26" s="380"/>
+      <c r="F26" s="381"/>
+      <c r="G26" s="381"/>
+      <c r="H26" s="381"/>
+      <c r="I26" s="381"/>
+      <c r="J26" s="381"/>
+      <c r="K26" s="381"/>
+      <c r="L26" s="381"/>
+      <c r="M26" s="381"/>
+      <c r="N26" s="381"/>
+      <c r="O26" s="381"/>
+      <c r="P26" s="381"/>
+      <c r="Q26" s="381"/>
+      <c r="R26" s="380"/>
+      <c r="S26" s="380"/>
+      <c r="T26" s="380"/>
+      <c r="U26" s="380"/>
+      <c r="V26" s="380"/>
+      <c r="W26" s="380"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="368" t="str">
+      <c r="D27" s="382" t="str">
         <f>Calibración!C37</f>
         <v>atm</v>
       </c>
-      <c r="E27" s="368"/>
-      <c r="F27" s="369" t="str">
+      <c r="E27" s="382"/>
+      <c r="F27" s="383" t="str">
         <f>Calibración!D37</f>
         <v>atm</v>
       </c>
-      <c r="G27" s="370"/>
-      <c r="H27" s="370"/>
-      <c r="I27" s="370"/>
-      <c r="J27" s="370"/>
-      <c r="K27" s="371"/>
-      <c r="L27" s="369" t="str">
+      <c r="G27" s="384"/>
+      <c r="H27" s="384"/>
+      <c r="I27" s="384"/>
+      <c r="J27" s="384"/>
+      <c r="K27" s="385"/>
+      <c r="L27" s="383" t="str">
         <f>Calibración!E37</f>
         <v>atm</v>
       </c>
-      <c r="M27" s="370"/>
-      <c r="N27" s="370"/>
-      <c r="O27" s="370"/>
-      <c r="P27" s="370"/>
-      <c r="Q27" s="371"/>
-      <c r="R27" s="369" t="str">
+      <c r="M27" s="384"/>
+      <c r="N27" s="384"/>
+      <c r="O27" s="384"/>
+      <c r="P27" s="384"/>
+      <c r="Q27" s="385"/>
+      <c r="R27" s="383" t="str">
         <f>Calibración!F37</f>
         <v>atm</v>
       </c>
-      <c r="S27" s="370"/>
-      <c r="T27" s="370"/>
-      <c r="U27" s="370"/>
-      <c r="V27" s="370"/>
-      <c r="W27" s="371"/>
+      <c r="S27" s="384"/>
+      <c r="T27" s="384"/>
+      <c r="U27" s="384"/>
+      <c r="V27" s="384"/>
+      <c r="W27" s="385"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="354" t="str">
+      <c r="D28" s="386" t="str">
         <f ca="1">Calibración!C38</f>
         <v/>
       </c>
-      <c r="E28" s="354"/>
-      <c r="F28" s="351" t="str">
+      <c r="E28" s="386"/>
+      <c r="F28" s="387" t="str">
         <f ca="1">Calibración!D38</f>
         <v/>
       </c>
-      <c r="G28" s="352"/>
-      <c r="H28" s="352"/>
-      <c r="I28" s="352"/>
-      <c r="J28" s="352"/>
-      <c r="K28" s="353"/>
-      <c r="L28" s="351" t="str">
+      <c r="G28" s="388"/>
+      <c r="H28" s="388"/>
+      <c r="I28" s="388"/>
+      <c r="J28" s="388"/>
+      <c r="K28" s="389"/>
+      <c r="L28" s="387" t="str">
         <f ca="1">Calibración!E38</f>
         <v/>
       </c>
-      <c r="M28" s="352"/>
-      <c r="N28" s="352"/>
-      <c r="O28" s="352"/>
-      <c r="P28" s="352"/>
-      <c r="Q28" s="353"/>
-      <c r="R28" s="351" t="str">
+      <c r="M28" s="388"/>
+      <c r="N28" s="388"/>
+      <c r="O28" s="388"/>
+      <c r="P28" s="388"/>
+      <c r="Q28" s="389"/>
+      <c r="R28" s="387" t="str">
         <f ca="1">Calibración!F38</f>
         <v/>
       </c>
-      <c r="S28" s="352"/>
-      <c r="T28" s="352"/>
-      <c r="U28" s="352"/>
-      <c r="V28" s="352"/>
-      <c r="W28" s="353"/>
+      <c r="S28" s="388"/>
+      <c r="T28" s="388"/>
+      <c r="U28" s="388"/>
+      <c r="V28" s="388"/>
+      <c r="W28" s="389"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="354" t="str">
+      <c r="D29" s="386" t="str">
         <f ca="1">Calibración!C39</f>
         <v/>
       </c>
-      <c r="E29" s="354"/>
-      <c r="F29" s="351" t="str">
+      <c r="E29" s="386"/>
+      <c r="F29" s="387" t="str">
         <f ca="1">Calibración!D39</f>
         <v/>
       </c>
-      <c r="G29" s="352"/>
-      <c r="H29" s="352"/>
-      <c r="I29" s="352"/>
-      <c r="J29" s="352"/>
-      <c r="K29" s="353"/>
-      <c r="L29" s="351" t="str">
+      <c r="G29" s="388"/>
+      <c r="H29" s="388"/>
+      <c r="I29" s="388"/>
+      <c r="J29" s="388"/>
+      <c r="K29" s="389"/>
+      <c r="L29" s="387" t="str">
         <f ca="1">Calibración!E39</f>
         <v/>
       </c>
-      <c r="M29" s="352"/>
-      <c r="N29" s="352"/>
-      <c r="O29" s="352"/>
-      <c r="P29" s="352"/>
-      <c r="Q29" s="353"/>
-      <c r="R29" s="351" t="str">
+      <c r="M29" s="388"/>
+      <c r="N29" s="388"/>
+      <c r="O29" s="388"/>
+      <c r="P29" s="388"/>
+      <c r="Q29" s="389"/>
+      <c r="R29" s="387" t="str">
         <f ca="1">Calibración!F39</f>
         <v/>
       </c>
-      <c r="S29" s="352"/>
-      <c r="T29" s="352"/>
-      <c r="U29" s="352"/>
-      <c r="V29" s="352"/>
-      <c r="W29" s="353"/>
+      <c r="S29" s="388"/>
+      <c r="T29" s="388"/>
+      <c r="U29" s="388"/>
+      <c r="V29" s="388"/>
+      <c r="W29" s="389"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="354" t="str">
+      <c r="D30" s="386" t="str">
         <f ca="1">Calibración!C40</f>
         <v/>
       </c>
-      <c r="E30" s="354"/>
-      <c r="F30" s="351" t="str">
+      <c r="E30" s="386"/>
+      <c r="F30" s="387" t="str">
         <f ca="1">Calibración!D40</f>
         <v/>
       </c>
-      <c r="G30" s="352"/>
-      <c r="H30" s="352"/>
-      <c r="I30" s="352"/>
-      <c r="J30" s="352"/>
-      <c r="K30" s="353"/>
-      <c r="L30" s="351" t="str">
+      <c r="G30" s="388"/>
+      <c r="H30" s="388"/>
+      <c r="I30" s="388"/>
+      <c r="J30" s="388"/>
+      <c r="K30" s="389"/>
+      <c r="L30" s="387" t="str">
         <f ca="1">Calibración!E40</f>
         <v/>
       </c>
-      <c r="M30" s="352"/>
-      <c r="N30" s="352"/>
-      <c r="O30" s="352"/>
-      <c r="P30" s="352"/>
-      <c r="Q30" s="353"/>
-      <c r="R30" s="351" t="str">
+      <c r="M30" s="388"/>
+      <c r="N30" s="388"/>
+      <c r="O30" s="388"/>
+      <c r="P30" s="388"/>
+      <c r="Q30" s="389"/>
+      <c r="R30" s="387" t="str">
         <f ca="1">Calibración!F40</f>
         <v/>
       </c>
-      <c r="S30" s="352"/>
-      <c r="T30" s="352"/>
-      <c r="U30" s="352"/>
-      <c r="V30" s="352"/>
-      <c r="W30" s="353"/>
+      <c r="S30" s="388"/>
+      <c r="T30" s="388"/>
+      <c r="U30" s="388"/>
+      <c r="V30" s="388"/>
+      <c r="W30" s="389"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="354" t="str">
+      <c r="D31" s="386" t="str">
         <f ca="1">Calibración!C41</f>
         <v/>
       </c>
-      <c r="E31" s="354"/>
-      <c r="F31" s="351" t="str">
+      <c r="E31" s="386"/>
+      <c r="F31" s="387" t="str">
         <f ca="1">Calibración!D41</f>
         <v/>
       </c>
-      <c r="G31" s="352"/>
-      <c r="H31" s="352"/>
-      <c r="I31" s="352"/>
-      <c r="J31" s="352"/>
-      <c r="K31" s="353"/>
-      <c r="L31" s="351" t="str">
+      <c r="G31" s="388"/>
+      <c r="H31" s="388"/>
+      <c r="I31" s="388"/>
+      <c r="J31" s="388"/>
+      <c r="K31" s="389"/>
+      <c r="L31" s="387" t="str">
         <f ca="1">Calibración!E41</f>
         <v/>
       </c>
-      <c r="M31" s="352"/>
-      <c r="N31" s="352"/>
-      <c r="O31" s="352"/>
-      <c r="P31" s="352"/>
-      <c r="Q31" s="353"/>
-      <c r="R31" s="351" t="str">
+      <c r="M31" s="388"/>
+      <c r="N31" s="388"/>
+      <c r="O31" s="388"/>
+      <c r="P31" s="388"/>
+      <c r="Q31" s="389"/>
+      <c r="R31" s="387" t="str">
         <f ca="1">Calibración!F41</f>
         <v/>
       </c>
-      <c r="S31" s="352"/>
-      <c r="T31" s="352"/>
-      <c r="U31" s="352"/>
-      <c r="V31" s="352"/>
-      <c r="W31" s="353"/>
+      <c r="S31" s="388"/>
+      <c r="T31" s="388"/>
+      <c r="U31" s="388"/>
+      <c r="V31" s="388"/>
+      <c r="W31" s="389"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="354" t="str">
+      <c r="D32" s="386" t="str">
         <f ca="1">Calibración!C42</f>
         <v/>
       </c>
-      <c r="E32" s="354"/>
-      <c r="F32" s="351" t="str">
+      <c r="E32" s="386"/>
+      <c r="F32" s="387" t="str">
         <f ca="1">Calibración!D42</f>
         <v/>
       </c>
-      <c r="G32" s="352"/>
-      <c r="H32" s="352"/>
-      <c r="I32" s="352"/>
-      <c r="J32" s="352"/>
-      <c r="K32" s="353"/>
-      <c r="L32" s="351" t="str">
+      <c r="G32" s="388"/>
+      <c r="H32" s="388"/>
+      <c r="I32" s="388"/>
+      <c r="J32" s="388"/>
+      <c r="K32" s="389"/>
+      <c r="L32" s="387" t="str">
         <f ca="1">Calibración!E42</f>
         <v/>
       </c>
-      <c r="M32" s="352"/>
-      <c r="N32" s="352"/>
-      <c r="O32" s="352"/>
-      <c r="P32" s="352"/>
-      <c r="Q32" s="353"/>
-      <c r="R32" s="351" t="str">
+      <c r="M32" s="388"/>
+      <c r="N32" s="388"/>
+      <c r="O32" s="388"/>
+      <c r="P32" s="388"/>
+      <c r="Q32" s="389"/>
+      <c r="R32" s="387" t="str">
         <f ca="1">Calibración!F42</f>
         <v/>
       </c>
-      <c r="S32" s="352"/>
-      <c r="T32" s="352"/>
-      <c r="U32" s="352"/>
-      <c r="V32" s="352"/>
-      <c r="W32" s="353"/>
+      <c r="S32" s="388"/>
+      <c r="T32" s="388"/>
+      <c r="U32" s="388"/>
+      <c r="V32" s="388"/>
+      <c r="W32" s="389"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="354" t="str">
+      <c r="D33" s="386" t="str">
         <f ca="1">Calibración!C43</f>
         <v/>
       </c>
-      <c r="E33" s="354"/>
-      <c r="F33" s="351" t="str">
+      <c r="E33" s="386"/>
+      <c r="F33" s="387" t="str">
         <f ca="1">Calibración!D43</f>
         <v/>
       </c>
-      <c r="G33" s="352"/>
-      <c r="H33" s="352"/>
-      <c r="I33" s="352"/>
-      <c r="J33" s="352"/>
-      <c r="K33" s="353"/>
-      <c r="L33" s="351" t="str">
+      <c r="G33" s="388"/>
+      <c r="H33" s="388"/>
+      <c r="I33" s="388"/>
+      <c r="J33" s="388"/>
+      <c r="K33" s="389"/>
+      <c r="L33" s="387" t="str">
         <f ca="1">Calibración!E43</f>
         <v/>
       </c>
-      <c r="M33" s="352"/>
-      <c r="N33" s="352"/>
-      <c r="O33" s="352"/>
-      <c r="P33" s="352"/>
-      <c r="Q33" s="353"/>
-      <c r="R33" s="351" t="str">
+      <c r="M33" s="388"/>
+      <c r="N33" s="388"/>
+      <c r="O33" s="388"/>
+      <c r="P33" s="388"/>
+      <c r="Q33" s="389"/>
+      <c r="R33" s="387" t="str">
         <f ca="1">Calibración!F43</f>
         <v/>
       </c>
-      <c r="S33" s="352"/>
-      <c r="T33" s="352"/>
-      <c r="U33" s="352"/>
-      <c r="V33" s="352"/>
-      <c r="W33" s="353"/>
+      <c r="S33" s="388"/>
+      <c r="T33" s="388"/>
+      <c r="U33" s="388"/>
+      <c r="V33" s="388"/>
+      <c r="W33" s="389"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="354" t="str">
+      <c r="D34" s="386" t="str">
         <f ca="1">Calibración!C44</f>
         <v/>
       </c>
-      <c r="E34" s="354"/>
-      <c r="F34" s="351" t="str">
+      <c r="E34" s="386"/>
+      <c r="F34" s="387" t="str">
         <f ca="1">Calibración!D44</f>
         <v/>
       </c>
-      <c r="G34" s="352"/>
-      <c r="H34" s="352"/>
-      <c r="I34" s="352"/>
-      <c r="J34" s="352"/>
-      <c r="K34" s="353"/>
-      <c r="L34" s="351" t="str">
+      <c r="G34" s="388"/>
+      <c r="H34" s="388"/>
+      <c r="I34" s="388"/>
+      <c r="J34" s="388"/>
+      <c r="K34" s="389"/>
+      <c r="L34" s="387" t="str">
         <f ca="1">Calibración!E44</f>
         <v/>
       </c>
-      <c r="M34" s="352"/>
-      <c r="N34" s="352"/>
-      <c r="O34" s="352"/>
-      <c r="P34" s="352"/>
-      <c r="Q34" s="353"/>
-      <c r="R34" s="351" t="str">
+      <c r="M34" s="388"/>
+      <c r="N34" s="388"/>
+      <c r="O34" s="388"/>
+      <c r="P34" s="388"/>
+      <c r="Q34" s="389"/>
+      <c r="R34" s="387" t="str">
         <f ca="1">Calibración!F44</f>
         <v/>
       </c>
-      <c r="S34" s="352"/>
-      <c r="T34" s="352"/>
-      <c r="U34" s="352"/>
-      <c r="V34" s="352"/>
-      <c r="W34" s="353"/>
+      <c r="S34" s="388"/>
+      <c r="T34" s="388"/>
+      <c r="U34" s="388"/>
+      <c r="V34" s="388"/>
+      <c r="W34" s="389"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="354" t="str">
+      <c r="D35" s="386" t="str">
         <f ca="1">Calibración!C45</f>
         <v/>
       </c>
-      <c r="E35" s="354"/>
-      <c r="F35" s="351" t="str">
+      <c r="E35" s="386"/>
+      <c r="F35" s="387" t="str">
         <f ca="1">Calibración!D45</f>
         <v/>
       </c>
-      <c r="G35" s="352"/>
-      <c r="H35" s="352"/>
-      <c r="I35" s="352"/>
-      <c r="J35" s="352"/>
-      <c r="K35" s="353"/>
-      <c r="L35" s="351" t="str">
+      <c r="G35" s="388"/>
+      <c r="H35" s="388"/>
+      <c r="I35" s="388"/>
+      <c r="J35" s="388"/>
+      <c r="K35" s="389"/>
+      <c r="L35" s="387" t="str">
         <f ca="1">Calibración!E45</f>
         <v/>
       </c>
-      <c r="M35" s="352"/>
-      <c r="N35" s="352"/>
-      <c r="O35" s="352"/>
-      <c r="P35" s="352"/>
-      <c r="Q35" s="353"/>
-      <c r="R35" s="351" t="str">
+      <c r="M35" s="388"/>
+      <c r="N35" s="388"/>
+      <c r="O35" s="388"/>
+      <c r="P35" s="388"/>
+      <c r="Q35" s="389"/>
+      <c r="R35" s="387" t="str">
         <f ca="1">Calibración!F45</f>
         <v/>
       </c>
-      <c r="S35" s="352"/>
-      <c r="T35" s="352"/>
-      <c r="U35" s="352"/>
-      <c r="V35" s="352"/>
-      <c r="W35" s="353"/>
+      <c r="S35" s="388"/>
+      <c r="T35" s="388"/>
+      <c r="U35" s="388"/>
+      <c r="V35" s="388"/>
+      <c r="W35" s="389"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="354" t="str">
+      <c r="D36" s="386" t="str">
         <f ca="1">Calibración!C46</f>
         <v/>
       </c>
-      <c r="E36" s="354"/>
-      <c r="F36" s="351" t="str">
+      <c r="E36" s="386"/>
+      <c r="F36" s="387" t="str">
         <f ca="1">Calibración!D46</f>
         <v/>
       </c>
-      <c r="G36" s="352"/>
-      <c r="H36" s="352"/>
-      <c r="I36" s="352"/>
-      <c r="J36" s="352"/>
-      <c r="K36" s="353"/>
-      <c r="L36" s="351" t="str">
+      <c r="G36" s="388"/>
+      <c r="H36" s="388"/>
+      <c r="I36" s="388"/>
+      <c r="J36" s="388"/>
+      <c r="K36" s="389"/>
+      <c r="L36" s="387" t="str">
         <f ca="1">Calibración!E46</f>
         <v/>
       </c>
-      <c r="M36" s="352"/>
-      <c r="N36" s="352"/>
-      <c r="O36" s="352"/>
-      <c r="P36" s="352"/>
-      <c r="Q36" s="353"/>
-      <c r="R36" s="351" t="str">
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
+      <c r="P36" s="388"/>
+      <c r="Q36" s="389"/>
+      <c r="R36" s="387" t="str">
         <f ca="1">Calibración!F46</f>
         <v/>
       </c>
-      <c r="S36" s="352"/>
-      <c r="T36" s="352"/>
-      <c r="U36" s="352"/>
-      <c r="V36" s="352"/>
-      <c r="W36" s="353"/>
+      <c r="S36" s="388"/>
+      <c r="T36" s="388"/>
+      <c r="U36" s="388"/>
+      <c r="V36" s="388"/>
+      <c r="W36" s="389"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="354" t="str">
+      <c r="D37" s="386" t="str">
         <f ca="1">Calibración!C47</f>
         <v/>
       </c>
-      <c r="E37" s="354"/>
-      <c r="F37" s="351" t="str">
+      <c r="E37" s="386"/>
+      <c r="F37" s="387" t="str">
         <f ca="1">Calibración!D47</f>
         <v/>
       </c>
-      <c r="G37" s="352"/>
-      <c r="H37" s="352"/>
-      <c r="I37" s="352"/>
-      <c r="J37" s="352"/>
-      <c r="K37" s="353"/>
-      <c r="L37" s="351" t="str">
+      <c r="G37" s="388"/>
+      <c r="H37" s="388"/>
+      <c r="I37" s="388"/>
+      <c r="J37" s="388"/>
+      <c r="K37" s="389"/>
+      <c r="L37" s="387" t="str">
         <f ca="1">Calibración!E47</f>
         <v/>
       </c>
-      <c r="M37" s="352"/>
-      <c r="N37" s="352"/>
-      <c r="O37" s="352"/>
-      <c r="P37" s="352"/>
-      <c r="Q37" s="353"/>
-      <c r="R37" s="351" t="str">
+      <c r="M37" s="388"/>
+      <c r="N37" s="388"/>
+      <c r="O37" s="388"/>
+      <c r="P37" s="388"/>
+      <c r="Q37" s="389"/>
+      <c r="R37" s="387" t="str">
         <f ca="1">Calibración!F47</f>
         <v/>
       </c>
-      <c r="S37" s="352"/>
-      <c r="T37" s="352"/>
-      <c r="U37" s="352"/>
-      <c r="V37" s="352"/>
-      <c r="W37" s="353"/>
+      <c r="S37" s="388"/>
+      <c r="T37" s="388"/>
+      <c r="U37" s="388"/>
+      <c r="V37" s="388"/>
+      <c r="W37" s="389"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
@@ -38188,493 +38188,493 @@
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="365" t="s">
+      <c r="D60" s="379" t="s">
         <v>363</v>
       </c>
-      <c r="E60" s="365"/>
-      <c r="F60" s="365"/>
-      <c r="G60" s="365"/>
-      <c r="H60" s="365"/>
-      <c r="I60" s="365"/>
-      <c r="J60" s="365"/>
-      <c r="K60" s="365"/>
-      <c r="L60" s="365"/>
-      <c r="M60" s="365"/>
-      <c r="N60" s="365"/>
-      <c r="O60" s="365"/>
-      <c r="P60" s="365"/>
-      <c r="Q60" s="365"/>
-      <c r="R60" s="365"/>
-      <c r="S60" s="365"/>
-      <c r="T60" s="365"/>
-      <c r="U60" s="365"/>
-      <c r="V60" s="365"/>
-      <c r="W60" s="365"/>
+      <c r="E60" s="379"/>
+      <c r="F60" s="379"/>
+      <c r="G60" s="379"/>
+      <c r="H60" s="379"/>
+      <c r="I60" s="379"/>
+      <c r="J60" s="379"/>
+      <c r="K60" s="379"/>
+      <c r="L60" s="379"/>
+      <c r="M60" s="379"/>
+      <c r="N60" s="379"/>
+      <c r="O60" s="379"/>
+      <c r="P60" s="379"/>
+      <c r="Q60" s="379"/>
+      <c r="R60" s="379"/>
+      <c r="S60" s="379"/>
+      <c r="T60" s="379"/>
+      <c r="U60" s="379"/>
+      <c r="V60" s="379"/>
+      <c r="W60" s="379"/>
     </row>
     <row r="61" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="366" t="s">
+      <c r="D61" s="380" t="s">
         <v>631</v>
       </c>
-      <c r="E61" s="366"/>
-      <c r="F61" s="367" t="s">
+      <c r="E61" s="380"/>
+      <c r="F61" s="381" t="s">
         <v>696</v>
       </c>
-      <c r="G61" s="367"/>
-      <c r="H61" s="367"/>
-      <c r="I61" s="367"/>
-      <c r="J61" s="367"/>
-      <c r="K61" s="367"/>
-      <c r="L61" s="367" t="s">
+      <c r="G61" s="381"/>
+      <c r="H61" s="381"/>
+      <c r="I61" s="381"/>
+      <c r="J61" s="381"/>
+      <c r="K61" s="381"/>
+      <c r="L61" s="381" t="s">
         <v>364</v>
       </c>
-      <c r="M61" s="367"/>
-      <c r="N61" s="367"/>
-      <c r="O61" s="367"/>
-      <c r="P61" s="367"/>
-      <c r="Q61" s="367"/>
-      <c r="R61" s="366" t="s">
+      <c r="M61" s="381"/>
+      <c r="N61" s="381"/>
+      <c r="O61" s="381"/>
+      <c r="P61" s="381"/>
+      <c r="Q61" s="381"/>
+      <c r="R61" s="380" t="s">
         <v>697</v>
       </c>
-      <c r="S61" s="366"/>
-      <c r="T61" s="366"/>
-      <c r="U61" s="366"/>
-      <c r="V61" s="366"/>
-      <c r="W61" s="366"/>
+      <c r="S61" s="380"/>
+      <c r="T61" s="380"/>
+      <c r="U61" s="380"/>
+      <c r="V61" s="380"/>
+      <c r="W61" s="380"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="366"/>
-      <c r="E62" s="366"/>
-      <c r="F62" s="367"/>
-      <c r="G62" s="367"/>
-      <c r="H62" s="367"/>
-      <c r="I62" s="367"/>
-      <c r="J62" s="367"/>
-      <c r="K62" s="367"/>
-      <c r="L62" s="367"/>
-      <c r="M62" s="367"/>
-      <c r="N62" s="367"/>
-      <c r="O62" s="367"/>
-      <c r="P62" s="367"/>
-      <c r="Q62" s="367"/>
-      <c r="R62" s="366"/>
-      <c r="S62" s="366"/>
-      <c r="T62" s="366"/>
-      <c r="U62" s="366"/>
-      <c r="V62" s="366"/>
-      <c r="W62" s="366"/>
+      <c r="D62" s="380"/>
+      <c r="E62" s="380"/>
+      <c r="F62" s="381"/>
+      <c r="G62" s="381"/>
+      <c r="H62" s="381"/>
+      <c r="I62" s="381"/>
+      <c r="J62" s="381"/>
+      <c r="K62" s="381"/>
+      <c r="L62" s="381"/>
+      <c r="M62" s="381"/>
+      <c r="N62" s="381"/>
+      <c r="O62" s="381"/>
+      <c r="P62" s="381"/>
+      <c r="Q62" s="381"/>
+      <c r="R62" s="380"/>
+      <c r="S62" s="380"/>
+      <c r="T62" s="380"/>
+      <c r="U62" s="380"/>
+      <c r="V62" s="380"/>
+      <c r="W62" s="380"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="368" t="str">
+      <c r="D63" s="382" t="str">
         <f>Calibración!G37</f>
         <v>kPa</v>
       </c>
-      <c r="E63" s="368"/>
-      <c r="F63" s="369" t="str">
+      <c r="E63" s="382"/>
+      <c r="F63" s="383" t="str">
         <f>Calibración!H37</f>
         <v>kPa</v>
       </c>
-      <c r="G63" s="370"/>
-      <c r="H63" s="370"/>
-      <c r="I63" s="370"/>
-      <c r="J63" s="370"/>
-      <c r="K63" s="371"/>
-      <c r="L63" s="368" t="str">
+      <c r="G63" s="384"/>
+      <c r="H63" s="384"/>
+      <c r="I63" s="384"/>
+      <c r="J63" s="384"/>
+      <c r="K63" s="385"/>
+      <c r="L63" s="382" t="str">
         <f>Calibración!I37</f>
         <v>kPa</v>
       </c>
-      <c r="M63" s="368"/>
-      <c r="N63" s="368"/>
-      <c r="O63" s="368"/>
-      <c r="P63" s="368"/>
-      <c r="Q63" s="368"/>
-      <c r="R63" s="368" t="str">
+      <c r="M63" s="382"/>
+      <c r="N63" s="382"/>
+      <c r="O63" s="382"/>
+      <c r="P63" s="382"/>
+      <c r="Q63" s="382"/>
+      <c r="R63" s="382" t="str">
         <f>Calibración!J37</f>
         <v>kPa</v>
       </c>
-      <c r="S63" s="368"/>
-      <c r="T63" s="368"/>
-      <c r="U63" s="368"/>
-      <c r="V63" s="368"/>
-      <c r="W63" s="368"/>
+      <c r="S63" s="382"/>
+      <c r="T63" s="382"/>
+      <c r="U63" s="382"/>
+      <c r="V63" s="382"/>
+      <c r="W63" s="382"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="358" t="str">
+      <c r="D64" s="375" t="str">
         <f ca="1">Calibración!G38</f>
         <v/>
       </c>
-      <c r="E64" s="358"/>
-      <c r="F64" s="355" t="str">
+      <c r="E64" s="375"/>
+      <c r="F64" s="376" t="str">
         <f ca="1">Calibración!H38</f>
         <v/>
       </c>
-      <c r="G64" s="356"/>
-      <c r="H64" s="356"/>
-      <c r="I64" s="356"/>
-      <c r="J64" s="356"/>
-      <c r="K64" s="357"/>
-      <c r="L64" s="358" t="str">
+      <c r="G64" s="377"/>
+      <c r="H64" s="377"/>
+      <c r="I64" s="377"/>
+      <c r="J64" s="377"/>
+      <c r="K64" s="378"/>
+      <c r="L64" s="375" t="str">
         <f ca="1">Calibración!I38</f>
         <v/>
       </c>
-      <c r="M64" s="358"/>
-      <c r="N64" s="358"/>
-      <c r="O64" s="358"/>
-      <c r="P64" s="358"/>
-      <c r="Q64" s="358"/>
-      <c r="R64" s="358" t="str">
+      <c r="M64" s="375"/>
+      <c r="N64" s="375"/>
+      <c r="O64" s="375"/>
+      <c r="P64" s="375"/>
+      <c r="Q64" s="375"/>
+      <c r="R64" s="375" t="str">
         <f ca="1">Calibración!J38</f>
         <v/>
       </c>
-      <c r="S64" s="358"/>
-      <c r="T64" s="358"/>
-      <c r="U64" s="358"/>
-      <c r="V64" s="358"/>
-      <c r="W64" s="358"/>
+      <c r="S64" s="375"/>
+      <c r="T64" s="375"/>
+      <c r="U64" s="375"/>
+      <c r="V64" s="375"/>
+      <c r="W64" s="375"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="358" t="str">
+      <c r="D65" s="375" t="str">
         <f ca="1">Calibración!G39</f>
         <v/>
       </c>
-      <c r="E65" s="358"/>
-      <c r="F65" s="355" t="str">
+      <c r="E65" s="375"/>
+      <c r="F65" s="376" t="str">
         <f ca="1">Calibración!H39</f>
         <v/>
       </c>
-      <c r="G65" s="356"/>
-      <c r="H65" s="356"/>
-      <c r="I65" s="356"/>
-      <c r="J65" s="356"/>
-      <c r="K65" s="357"/>
-      <c r="L65" s="358" t="str">
+      <c r="G65" s="377"/>
+      <c r="H65" s="377"/>
+      <c r="I65" s="377"/>
+      <c r="J65" s="377"/>
+      <c r="K65" s="378"/>
+      <c r="L65" s="375" t="str">
         <f ca="1">Calibración!I39</f>
         <v/>
       </c>
-      <c r="M65" s="358"/>
-      <c r="N65" s="358"/>
-      <c r="O65" s="358"/>
-      <c r="P65" s="358"/>
-      <c r="Q65" s="358"/>
-      <c r="R65" s="358" t="str">
+      <c r="M65" s="375"/>
+      <c r="N65" s="375"/>
+      <c r="O65" s="375"/>
+      <c r="P65" s="375"/>
+      <c r="Q65" s="375"/>
+      <c r="R65" s="375" t="str">
         <f ca="1">Calibración!J39</f>
         <v/>
       </c>
-      <c r="S65" s="358"/>
-      <c r="T65" s="358"/>
-      <c r="U65" s="358"/>
-      <c r="V65" s="358"/>
-      <c r="W65" s="358"/>
+      <c r="S65" s="375"/>
+      <c r="T65" s="375"/>
+      <c r="U65" s="375"/>
+      <c r="V65" s="375"/>
+      <c r="W65" s="375"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="358" t="str">
+      <c r="D66" s="375" t="str">
         <f ca="1">Calibración!G40</f>
         <v/>
       </c>
-      <c r="E66" s="358"/>
-      <c r="F66" s="355" t="str">
+      <c r="E66" s="375"/>
+      <c r="F66" s="376" t="str">
         <f ca="1">Calibración!H40</f>
         <v/>
       </c>
-      <c r="G66" s="356"/>
-      <c r="H66" s="356"/>
-      <c r="I66" s="356"/>
-      <c r="J66" s="356"/>
-      <c r="K66" s="357"/>
-      <c r="L66" s="358" t="str">
+      <c r="G66" s="377"/>
+      <c r="H66" s="377"/>
+      <c r="I66" s="377"/>
+      <c r="J66" s="377"/>
+      <c r="K66" s="378"/>
+      <c r="L66" s="375" t="str">
         <f ca="1">Calibración!I40</f>
         <v/>
       </c>
-      <c r="M66" s="358"/>
-      <c r="N66" s="358"/>
-      <c r="O66" s="358"/>
-      <c r="P66" s="358"/>
-      <c r="Q66" s="358"/>
-      <c r="R66" s="358" t="str">
+      <c r="M66" s="375"/>
+      <c r="N66" s="375"/>
+      <c r="O66" s="375"/>
+      <c r="P66" s="375"/>
+      <c r="Q66" s="375"/>
+      <c r="R66" s="375" t="str">
         <f ca="1">Calibración!J40</f>
         <v/>
       </c>
-      <c r="S66" s="358"/>
-      <c r="T66" s="358"/>
-      <c r="U66" s="358"/>
-      <c r="V66" s="358"/>
-      <c r="W66" s="358"/>
+      <c r="S66" s="375"/>
+      <c r="T66" s="375"/>
+      <c r="U66" s="375"/>
+      <c r="V66" s="375"/>
+      <c r="W66" s="375"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="358" t="str">
+      <c r="D67" s="375" t="str">
         <f ca="1">Calibración!G41</f>
         <v/>
       </c>
-      <c r="E67" s="358"/>
-      <c r="F67" s="355" t="str">
+      <c r="E67" s="375"/>
+      <c r="F67" s="376" t="str">
         <f ca="1">Calibración!H41</f>
         <v/>
       </c>
-      <c r="G67" s="356"/>
-      <c r="H67" s="356"/>
-      <c r="I67" s="356"/>
-      <c r="J67" s="356"/>
-      <c r="K67" s="357"/>
-      <c r="L67" s="358" t="str">
+      <c r="G67" s="377"/>
+      <c r="H67" s="377"/>
+      <c r="I67" s="377"/>
+      <c r="J67" s="377"/>
+      <c r="K67" s="378"/>
+      <c r="L67" s="375" t="str">
         <f ca="1">Calibración!I41</f>
         <v/>
       </c>
-      <c r="M67" s="358"/>
-      <c r="N67" s="358"/>
-      <c r="O67" s="358"/>
-      <c r="P67" s="358"/>
-      <c r="Q67" s="358"/>
-      <c r="R67" s="358" t="str">
+      <c r="M67" s="375"/>
+      <c r="N67" s="375"/>
+      <c r="O67" s="375"/>
+      <c r="P67" s="375"/>
+      <c r="Q67" s="375"/>
+      <c r="R67" s="375" t="str">
         <f ca="1">Calibración!J41</f>
         <v/>
       </c>
-      <c r="S67" s="358"/>
-      <c r="T67" s="358"/>
-      <c r="U67" s="358"/>
-      <c r="V67" s="358"/>
-      <c r="W67" s="358"/>
+      <c r="S67" s="375"/>
+      <c r="T67" s="375"/>
+      <c r="U67" s="375"/>
+      <c r="V67" s="375"/>
+      <c r="W67" s="375"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="358" t="str">
+      <c r="D68" s="375" t="str">
         <f ca="1">Calibración!G42</f>
         <v/>
       </c>
-      <c r="E68" s="358"/>
-      <c r="F68" s="355" t="str">
+      <c r="E68" s="375"/>
+      <c r="F68" s="376" t="str">
         <f ca="1">Calibración!H42</f>
         <v/>
       </c>
-      <c r="G68" s="356"/>
-      <c r="H68" s="356"/>
-      <c r="I68" s="356"/>
-      <c r="J68" s="356"/>
-      <c r="K68" s="357"/>
-      <c r="L68" s="358" t="str">
+      <c r="G68" s="377"/>
+      <c r="H68" s="377"/>
+      <c r="I68" s="377"/>
+      <c r="J68" s="377"/>
+      <c r="K68" s="378"/>
+      <c r="L68" s="375" t="str">
         <f ca="1">Calibración!I42</f>
         <v/>
       </c>
-      <c r="M68" s="358"/>
-      <c r="N68" s="358"/>
-      <c r="O68" s="358"/>
-      <c r="P68" s="358"/>
-      <c r="Q68" s="358"/>
-      <c r="R68" s="358" t="str">
+      <c r="M68" s="375"/>
+      <c r="N68" s="375"/>
+      <c r="O68" s="375"/>
+      <c r="P68" s="375"/>
+      <c r="Q68" s="375"/>
+      <c r="R68" s="375" t="str">
         <f ca="1">Calibración!J42</f>
         <v/>
       </c>
-      <c r="S68" s="358"/>
-      <c r="T68" s="358"/>
-      <c r="U68" s="358"/>
-      <c r="V68" s="358"/>
-      <c r="W68" s="358"/>
+      <c r="S68" s="375"/>
+      <c r="T68" s="375"/>
+      <c r="U68" s="375"/>
+      <c r="V68" s="375"/>
+      <c r="W68" s="375"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="358" t="str">
+      <c r="D69" s="375" t="str">
         <f ca="1">Calibración!G43</f>
         <v/>
       </c>
-      <c r="E69" s="358"/>
-      <c r="F69" s="355" t="str">
+      <c r="E69" s="375"/>
+      <c r="F69" s="376" t="str">
         <f ca="1">Calibración!H43</f>
         <v/>
       </c>
-      <c r="G69" s="356"/>
-      <c r="H69" s="356"/>
-      <c r="I69" s="356"/>
-      <c r="J69" s="356"/>
-      <c r="K69" s="357"/>
-      <c r="L69" s="358" t="str">
+      <c r="G69" s="377"/>
+      <c r="H69" s="377"/>
+      <c r="I69" s="377"/>
+      <c r="J69" s="377"/>
+      <c r="K69" s="378"/>
+      <c r="L69" s="375" t="str">
         <f ca="1">Calibración!I43</f>
         <v/>
       </c>
-      <c r="M69" s="358"/>
-      <c r="N69" s="358"/>
-      <c r="O69" s="358"/>
-      <c r="P69" s="358"/>
-      <c r="Q69" s="358"/>
-      <c r="R69" s="358" t="str">
+      <c r="M69" s="375"/>
+      <c r="N69" s="375"/>
+      <c r="O69" s="375"/>
+      <c r="P69" s="375"/>
+      <c r="Q69" s="375"/>
+      <c r="R69" s="375" t="str">
         <f ca="1">Calibración!J43</f>
         <v/>
       </c>
-      <c r="S69" s="358"/>
-      <c r="T69" s="358"/>
-      <c r="U69" s="358"/>
-      <c r="V69" s="358"/>
-      <c r="W69" s="358"/>
+      <c r="S69" s="375"/>
+      <c r="T69" s="375"/>
+      <c r="U69" s="375"/>
+      <c r="V69" s="375"/>
+      <c r="W69" s="375"/>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="358" t="str">
+      <c r="D70" s="375" t="str">
         <f ca="1">Calibración!G44</f>
         <v/>
       </c>
-      <c r="E70" s="358"/>
-      <c r="F70" s="355" t="str">
+      <c r="E70" s="375"/>
+      <c r="F70" s="376" t="str">
         <f ca="1">Calibración!H44</f>
         <v/>
       </c>
-      <c r="G70" s="356"/>
-      <c r="H70" s="356"/>
-      <c r="I70" s="356"/>
-      <c r="J70" s="356"/>
-      <c r="K70" s="357"/>
-      <c r="L70" s="358" t="str">
+      <c r="G70" s="377"/>
+      <c r="H70" s="377"/>
+      <c r="I70" s="377"/>
+      <c r="J70" s="377"/>
+      <c r="K70" s="378"/>
+      <c r="L70" s="375" t="str">
         <f ca="1">Calibración!I44</f>
         <v/>
       </c>
-      <c r="M70" s="358"/>
-      <c r="N70" s="358"/>
-      <c r="O70" s="358"/>
-      <c r="P70" s="358"/>
-      <c r="Q70" s="358"/>
-      <c r="R70" s="358" t="str">
+      <c r="M70" s="375"/>
+      <c r="N70" s="375"/>
+      <c r="O70" s="375"/>
+      <c r="P70" s="375"/>
+      <c r="Q70" s="375"/>
+      <c r="R70" s="375" t="str">
         <f ca="1">Calibración!J44</f>
         <v/>
       </c>
-      <c r="S70" s="358"/>
-      <c r="T70" s="358"/>
-      <c r="U70" s="358"/>
-      <c r="V70" s="358"/>
-      <c r="W70" s="358"/>
+      <c r="S70" s="375"/>
+      <c r="T70" s="375"/>
+      <c r="U70" s="375"/>
+      <c r="V70" s="375"/>
+      <c r="W70" s="375"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
-      <c r="D71" s="358" t="str">
+      <c r="D71" s="375" t="str">
         <f ca="1">Calibración!G45</f>
         <v/>
       </c>
-      <c r="E71" s="358"/>
-      <c r="F71" s="355" t="str">
+      <c r="E71" s="375"/>
+      <c r="F71" s="376" t="str">
         <f ca="1">Calibración!H45</f>
         <v/>
       </c>
-      <c r="G71" s="356"/>
-      <c r="H71" s="356"/>
-      <c r="I71" s="356"/>
-      <c r="J71" s="356"/>
-      <c r="K71" s="357"/>
-      <c r="L71" s="358" t="str">
+      <c r="G71" s="377"/>
+      <c r="H71" s="377"/>
+      <c r="I71" s="377"/>
+      <c r="J71" s="377"/>
+      <c r="K71" s="378"/>
+      <c r="L71" s="375" t="str">
         <f ca="1">Calibración!I45</f>
         <v/>
       </c>
-      <c r="M71" s="358"/>
-      <c r="N71" s="358"/>
-      <c r="O71" s="358"/>
-      <c r="P71" s="358"/>
-      <c r="Q71" s="358"/>
-      <c r="R71" s="358" t="str">
+      <c r="M71" s="375"/>
+      <c r="N71" s="375"/>
+      <c r="O71" s="375"/>
+      <c r="P71" s="375"/>
+      <c r="Q71" s="375"/>
+      <c r="R71" s="375" t="str">
         <f ca="1">Calibración!J45</f>
         <v/>
       </c>
-      <c r="S71" s="358"/>
-      <c r="T71" s="358"/>
-      <c r="U71" s="358"/>
-      <c r="V71" s="358"/>
-      <c r="W71" s="358"/>
+      <c r="S71" s="375"/>
+      <c r="T71" s="375"/>
+      <c r="U71" s="375"/>
+      <c r="V71" s="375"/>
+      <c r="W71" s="375"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
-      <c r="D72" s="358" t="str">
+      <c r="D72" s="375" t="str">
         <f ca="1">Calibración!G46</f>
         <v/>
       </c>
-      <c r="E72" s="358"/>
-      <c r="F72" s="355" t="str">
+      <c r="E72" s="375"/>
+      <c r="F72" s="376" t="str">
         <f ca="1">Calibración!H46</f>
         <v/>
       </c>
-      <c r="G72" s="356"/>
-      <c r="H72" s="356"/>
-      <c r="I72" s="356"/>
-      <c r="J72" s="356"/>
-      <c r="K72" s="357"/>
-      <c r="L72" s="358" t="str">
+      <c r="G72" s="377"/>
+      <c r="H72" s="377"/>
+      <c r="I72" s="377"/>
+      <c r="J72" s="377"/>
+      <c r="K72" s="378"/>
+      <c r="L72" s="375" t="str">
         <f ca="1">Calibración!I46</f>
         <v/>
       </c>
-      <c r="M72" s="358"/>
-      <c r="N72" s="358"/>
-      <c r="O72" s="358"/>
-      <c r="P72" s="358"/>
-      <c r="Q72" s="358"/>
-      <c r="R72" s="358" t="str">
+      <c r="M72" s="375"/>
+      <c r="N72" s="375"/>
+      <c r="O72" s="375"/>
+      <c r="P72" s="375"/>
+      <c r="Q72" s="375"/>
+      <c r="R72" s="375" t="str">
         <f ca="1">Calibración!J46</f>
         <v/>
       </c>
-      <c r="S72" s="358"/>
-      <c r="T72" s="358"/>
-      <c r="U72" s="358"/>
-      <c r="V72" s="358"/>
-      <c r="W72" s="358"/>
+      <c r="S72" s="375"/>
+      <c r="T72" s="375"/>
+      <c r="U72" s="375"/>
+      <c r="V72" s="375"/>
+      <c r="W72" s="375"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
-      <c r="D73" s="358" t="str">
+      <c r="D73" s="375" t="str">
         <f ca="1">Calibración!G47</f>
         <v/>
       </c>
-      <c r="E73" s="358"/>
-      <c r="F73" s="355" t="str">
+      <c r="E73" s="375"/>
+      <c r="F73" s="376" t="str">
         <f ca="1">Calibración!H47</f>
         <v/>
       </c>
-      <c r="G73" s="356"/>
-      <c r="H73" s="356"/>
-      <c r="I73" s="356"/>
-      <c r="J73" s="356"/>
-      <c r="K73" s="357"/>
-      <c r="L73" s="358" t="str">
+      <c r="G73" s="377"/>
+      <c r="H73" s="377"/>
+      <c r="I73" s="377"/>
+      <c r="J73" s="377"/>
+      <c r="K73" s="378"/>
+      <c r="L73" s="375" t="str">
         <f ca="1">Calibración!I47</f>
         <v/>
       </c>
-      <c r="M73" s="358"/>
-      <c r="N73" s="358"/>
-      <c r="O73" s="358"/>
-      <c r="P73" s="358"/>
-      <c r="Q73" s="358"/>
-      <c r="R73" s="358" t="str">
+      <c r="M73" s="375"/>
+      <c r="N73" s="375"/>
+      <c r="O73" s="375"/>
+      <c r="P73" s="375"/>
+      <c r="Q73" s="375"/>
+      <c r="R73" s="375" t="str">
         <f ca="1">Calibración!J47</f>
         <v/>
       </c>
-      <c r="S73" s="358"/>
-      <c r="T73" s="358"/>
-      <c r="U73" s="358"/>
-      <c r="V73" s="358"/>
-      <c r="W73" s="358"/>
+      <c r="S73" s="375"/>
+      <c r="T73" s="375"/>
+      <c r="U73" s="375"/>
+      <c r="V73" s="375"/>
+      <c r="W73" s="375"/>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
@@ -38811,11 +38811,11 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="234"/>
-      <c r="B80" s="379" t="s">
+      <c r="B80" s="372" t="s">
         <v>701</v>
       </c>
-      <c r="C80" s="379"/>
-      <c r="D80" s="379"/>
+      <c r="C80" s="372"/>
+      <c r="D80" s="372"/>
       <c r="E80" s="235" t="str">
         <f>CertTempC</f>
         <v/>
@@ -38832,8 +38832,8 @@
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
-      <c r="K80" s="362"/>
-      <c r="L80" s="362"/>
+      <c r="K80" s="373"/>
+      <c r="L80" s="373"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
@@ -38843,11 +38843,11 @@
       <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
-      <c r="T80" s="380" t="str">
+      <c r="T80" s="374" t="str">
         <f>General!I18</f>
         <v/>
       </c>
-      <c r="U80" s="380"/>
+      <c r="U80" s="374"/>
       <c r="V80" s="236" t="s">
         <v>703</v>
       </c>
@@ -38939,20 +38939,20 @@
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
-      <c r="N92" s="360" t="str">
+      <c r="N92" s="371" t="str">
         <f>N8</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O92" s="360"/>
-      <c r="P92" s="360"/>
-      <c r="Q92" s="360"/>
-      <c r="R92" s="360"/>
-      <c r="S92" s="360"/>
-      <c r="T92" s="360"/>
-      <c r="U92" s="360"/>
-      <c r="V92" s="360"/>
-      <c r="W92" s="360"/>
-      <c r="X92" s="360"/>
+      <c r="O92" s="371"/>
+      <c r="P92" s="371"/>
+      <c r="Q92" s="371"/>
+      <c r="R92" s="371"/>
+      <c r="S92" s="371"/>
+      <c r="T92" s="371"/>
+      <c r="U92" s="371"/>
+      <c r="V92" s="371"/>
+      <c r="W92" s="371"/>
+      <c r="X92" s="371"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O93" s="232"/>
@@ -38989,32 +38989,32 @@
       <c r="W95" s="9"/>
     </row>
     <row r="96" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="372" t="s">
+      <c r="A96" s="361" t="s">
         <v>1127</v>
       </c>
-      <c r="B96" s="372"/>
-      <c r="C96" s="372"/>
-      <c r="D96" s="372"/>
-      <c r="E96" s="372"/>
-      <c r="F96" s="372"/>
-      <c r="G96" s="372"/>
-      <c r="H96" s="372"/>
-      <c r="I96" s="372"/>
-      <c r="J96" s="372"/>
-      <c r="K96" s="372"/>
-      <c r="L96" s="372"/>
-      <c r="M96" s="372"/>
-      <c r="N96" s="372"/>
-      <c r="O96" s="372"/>
-      <c r="P96" s="372"/>
-      <c r="Q96" s="372"/>
-      <c r="R96" s="372"/>
-      <c r="S96" s="372"/>
-      <c r="T96" s="372"/>
-      <c r="U96" s="372"/>
-      <c r="V96" s="372"/>
-      <c r="W96" s="372"/>
-      <c r="X96" s="372"/>
+      <c r="B96" s="361"/>
+      <c r="C96" s="361"/>
+      <c r="D96" s="361"/>
+      <c r="E96" s="361"/>
+      <c r="F96" s="361"/>
+      <c r="G96" s="361"/>
+      <c r="H96" s="361"/>
+      <c r="I96" s="361"/>
+      <c r="J96" s="361"/>
+      <c r="K96" s="361"/>
+      <c r="L96" s="361"/>
+      <c r="M96" s="361"/>
+      <c r="N96" s="361"/>
+      <c r="O96" s="361"/>
+      <c r="P96" s="361"/>
+      <c r="Q96" s="361"/>
+      <c r="R96" s="361"/>
+      <c r="S96" s="361"/>
+      <c r="T96" s="361"/>
+      <c r="U96" s="361"/>
+      <c r="V96" s="361"/>
+      <c r="W96" s="361"/>
+      <c r="X96" s="361"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B97" s="16"/>
@@ -39069,136 +39069,136 @@
       <c r="X98" s="16"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A99" s="372" t="s">
+      <c r="A99" s="361" t="s">
         <v>709</v>
       </c>
-      <c r="B99" s="372"/>
-      <c r="C99" s="372"/>
-      <c r="D99" s="372"/>
-      <c r="E99" s="372"/>
-      <c r="F99" s="372"/>
-      <c r="G99" s="372"/>
-      <c r="H99" s="372"/>
-      <c r="I99" s="372"/>
-      <c r="J99" s="372"/>
-      <c r="K99" s="372"/>
-      <c r="L99" s="372"/>
-      <c r="M99" s="372"/>
-      <c r="N99" s="372"/>
-      <c r="O99" s="372"/>
-      <c r="P99" s="372"/>
-      <c r="Q99" s="372"/>
-      <c r="R99" s="372"/>
-      <c r="S99" s="372"/>
-      <c r="T99" s="372"/>
-      <c r="U99" s="372"/>
-      <c r="V99" s="372"/>
-      <c r="W99" s="372"/>
-      <c r="X99" s="372"/>
+      <c r="B99" s="361"/>
+      <c r="C99" s="361"/>
+      <c r="D99" s="361"/>
+      <c r="E99" s="361"/>
+      <c r="F99" s="361"/>
+      <c r="G99" s="361"/>
+      <c r="H99" s="361"/>
+      <c r="I99" s="361"/>
+      <c r="J99" s="361"/>
+      <c r="K99" s="361"/>
+      <c r="L99" s="361"/>
+      <c r="M99" s="361"/>
+      <c r="N99" s="361"/>
+      <c r="O99" s="361"/>
+      <c r="P99" s="361"/>
+      <c r="Q99" s="361"/>
+      <c r="R99" s="361"/>
+      <c r="S99" s="361"/>
+      <c r="T99" s="361"/>
+      <c r="U99" s="361"/>
+      <c r="V99" s="361"/>
+      <c r="W99" s="361"/>
+      <c r="X99" s="361"/>
     </row>
     <row r="100" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="372"/>
-      <c r="B100" s="372"/>
-      <c r="C100" s="372"/>
-      <c r="D100" s="372"/>
-      <c r="E100" s="372"/>
-      <c r="F100" s="372"/>
-      <c r="G100" s="372"/>
-      <c r="H100" s="372"/>
-      <c r="I100" s="372"/>
-      <c r="J100" s="372"/>
-      <c r="K100" s="372"/>
-      <c r="L100" s="372"/>
-      <c r="M100" s="372"/>
-      <c r="N100" s="372"/>
-      <c r="O100" s="372"/>
-      <c r="P100" s="372"/>
-      <c r="Q100" s="372"/>
-      <c r="R100" s="372"/>
-      <c r="S100" s="372"/>
-      <c r="T100" s="372"/>
-      <c r="U100" s="372"/>
-      <c r="V100" s="372"/>
-      <c r="W100" s="372"/>
-      <c r="X100" s="372"/>
+      <c r="A100" s="361"/>
+      <c r="B100" s="361"/>
+      <c r="C100" s="361"/>
+      <c r="D100" s="361"/>
+      <c r="E100" s="361"/>
+      <c r="F100" s="361"/>
+      <c r="G100" s="361"/>
+      <c r="H100" s="361"/>
+      <c r="I100" s="361"/>
+      <c r="J100" s="361"/>
+      <c r="K100" s="361"/>
+      <c r="L100" s="361"/>
+      <c r="M100" s="361"/>
+      <c r="N100" s="361"/>
+      <c r="O100" s="361"/>
+      <c r="P100" s="361"/>
+      <c r="Q100" s="361"/>
+      <c r="R100" s="361"/>
+      <c r="S100" s="361"/>
+      <c r="T100" s="361"/>
+      <c r="U100" s="361"/>
+      <c r="V100" s="361"/>
+      <c r="W100" s="361"/>
+      <c r="X100" s="361"/>
     </row>
     <row r="101" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="372"/>
-      <c r="B101" s="372"/>
-      <c r="C101" s="372"/>
-      <c r="D101" s="372"/>
-      <c r="E101" s="372"/>
-      <c r="F101" s="372"/>
-      <c r="G101" s="372"/>
-      <c r="H101" s="372"/>
-      <c r="I101" s="372"/>
-      <c r="J101" s="372"/>
-      <c r="K101" s="372"/>
-      <c r="L101" s="372"/>
-      <c r="M101" s="372"/>
-      <c r="N101" s="372"/>
-      <c r="O101" s="372"/>
-      <c r="P101" s="372"/>
-      <c r="Q101" s="372"/>
-      <c r="R101" s="372"/>
-      <c r="S101" s="372"/>
-      <c r="T101" s="372"/>
-      <c r="U101" s="372"/>
-      <c r="V101" s="372"/>
-      <c r="W101" s="372"/>
-      <c r="X101" s="372"/>
+      <c r="A101" s="361"/>
+      <c r="B101" s="361"/>
+      <c r="C101" s="361"/>
+      <c r="D101" s="361"/>
+      <c r="E101" s="361"/>
+      <c r="F101" s="361"/>
+      <c r="G101" s="361"/>
+      <c r="H101" s="361"/>
+      <c r="I101" s="361"/>
+      <c r="J101" s="361"/>
+      <c r="K101" s="361"/>
+      <c r="L101" s="361"/>
+      <c r="M101" s="361"/>
+      <c r="N101" s="361"/>
+      <c r="O101" s="361"/>
+      <c r="P101" s="361"/>
+      <c r="Q101" s="361"/>
+      <c r="R101" s="361"/>
+      <c r="S101" s="361"/>
+      <c r="T101" s="361"/>
+      <c r="U101" s="361"/>
+      <c r="V101" s="361"/>
+      <c r="W101" s="361"/>
+      <c r="X101" s="361"/>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A102" s="372"/>
-      <c r="B102" s="372"/>
-      <c r="C102" s="372"/>
-      <c r="D102" s="372"/>
-      <c r="E102" s="372"/>
-      <c r="F102" s="372"/>
-      <c r="G102" s="372"/>
-      <c r="H102" s="372"/>
-      <c r="I102" s="372"/>
-      <c r="J102" s="372"/>
-      <c r="K102" s="372"/>
-      <c r="L102" s="372"/>
-      <c r="M102" s="372"/>
-      <c r="N102" s="372"/>
-      <c r="O102" s="372"/>
-      <c r="P102" s="372"/>
-      <c r="Q102" s="372"/>
-      <c r="R102" s="372"/>
-      <c r="S102" s="372"/>
-      <c r="T102" s="372"/>
-      <c r="U102" s="372"/>
-      <c r="V102" s="372"/>
-      <c r="W102" s="372"/>
-      <c r="X102" s="372"/>
+      <c r="A102" s="361"/>
+      <c r="B102" s="361"/>
+      <c r="C102" s="361"/>
+      <c r="D102" s="361"/>
+      <c r="E102" s="361"/>
+      <c r="F102" s="361"/>
+      <c r="G102" s="361"/>
+      <c r="H102" s="361"/>
+      <c r="I102" s="361"/>
+      <c r="J102" s="361"/>
+      <c r="K102" s="361"/>
+      <c r="L102" s="361"/>
+      <c r="M102" s="361"/>
+      <c r="N102" s="361"/>
+      <c r="O102" s="361"/>
+      <c r="P102" s="361"/>
+      <c r="Q102" s="361"/>
+      <c r="R102" s="361"/>
+      <c r="S102" s="361"/>
+      <c r="T102" s="361"/>
+      <c r="U102" s="361"/>
+      <c r="V102" s="361"/>
+      <c r="W102" s="361"/>
+      <c r="X102" s="361"/>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A103" s="372"/>
-      <c r="B103" s="372"/>
-      <c r="C103" s="372"/>
-      <c r="D103" s="372"/>
-      <c r="E103" s="372"/>
-      <c r="F103" s="372"/>
-      <c r="G103" s="372"/>
-      <c r="H103" s="372"/>
-      <c r="I103" s="372"/>
-      <c r="J103" s="372"/>
-      <c r="K103" s="372"/>
-      <c r="L103" s="372"/>
-      <c r="M103" s="372"/>
-      <c r="N103" s="372"/>
-      <c r="O103" s="372"/>
-      <c r="P103" s="372"/>
-      <c r="Q103" s="372"/>
-      <c r="R103" s="372"/>
-      <c r="S103" s="372"/>
-      <c r="T103" s="372"/>
-      <c r="U103" s="372"/>
-      <c r="V103" s="372"/>
-      <c r="W103" s="372"/>
-      <c r="X103" s="372"/>
+      <c r="A103" s="361"/>
+      <c r="B103" s="361"/>
+      <c r="C103" s="361"/>
+      <c r="D103" s="361"/>
+      <c r="E103" s="361"/>
+      <c r="F103" s="361"/>
+      <c r="G103" s="361"/>
+      <c r="H103" s="361"/>
+      <c r="I103" s="361"/>
+      <c r="J103" s="361"/>
+      <c r="K103" s="361"/>
+      <c r="L103" s="361"/>
+      <c r="M103" s="361"/>
+      <c r="N103" s="361"/>
+      <c r="O103" s="361"/>
+      <c r="P103" s="361"/>
+      <c r="Q103" s="361"/>
+      <c r="R103" s="361"/>
+      <c r="S103" s="361"/>
+      <c r="T103" s="361"/>
+      <c r="U103" s="361"/>
+      <c r="V103" s="361"/>
+      <c r="W103" s="361"/>
+      <c r="X103" s="361"/>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
@@ -39252,175 +39252,177 @@
       <c r="V105" s="9"/>
     </row>
     <row r="106" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="373" t="s">
+      <c r="A106" s="365" t="s">
         <v>366</v>
       </c>
-      <c r="B106" s="374"/>
-      <c r="C106" s="374"/>
-      <c r="D106" s="374"/>
-      <c r="E106" s="374"/>
-      <c r="F106" s="375"/>
-      <c r="G106" s="373" t="s">
+      <c r="B106" s="366"/>
+      <c r="C106" s="366"/>
+      <c r="D106" s="366"/>
+      <c r="E106" s="366"/>
+      <c r="F106" s="367"/>
+      <c r="G106" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="H106" s="374"/>
-      <c r="I106" s="375"/>
-      <c r="J106" s="376" t="s">
+      <c r="H106" s="366"/>
+      <c r="I106" s="367"/>
+      <c r="J106" s="368" t="s">
         <v>369</v>
       </c>
-      <c r="K106" s="377"/>
-      <c r="L106" s="377"/>
-      <c r="M106" s="377"/>
-      <c r="N106" s="378"/>
-      <c r="O106" s="373" t="s">
+      <c r="K106" s="369"/>
+      <c r="L106" s="369"/>
+      <c r="M106" s="369"/>
+      <c r="N106" s="370"/>
+      <c r="O106" s="365" t="s">
         <v>711</v>
       </c>
-      <c r="P106" s="374"/>
-      <c r="Q106" s="374"/>
-      <c r="R106" s="374"/>
-      <c r="S106" s="374"/>
-      <c r="T106" s="375"/>
-      <c r="U106" s="376" t="s">
+      <c r="P106" s="366"/>
+      <c r="Q106" s="366"/>
+      <c r="R106" s="366"/>
+      <c r="S106" s="366"/>
+      <c r="T106" s="367"/>
+      <c r="U106" s="368" t="s">
         <v>712</v>
       </c>
-      <c r="V106" s="377"/>
-      <c r="W106" s="377"/>
-      <c r="X106" s="378"/>
+      <c r="V106" s="369"/>
+      <c r="W106" s="369"/>
+      <c r="X106" s="370"/>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A107" s="381"/>
-      <c r="B107" s="382"/>
-      <c r="C107" s="382"/>
-      <c r="D107" s="382"/>
-      <c r="E107" s="382"/>
-      <c r="F107" s="383"/>
-      <c r="G107" s="381"/>
-      <c r="H107" s="382"/>
-      <c r="I107" s="383"/>
-      <c r="J107" s="384"/>
-      <c r="K107" s="385"/>
-      <c r="L107" s="385"/>
-      <c r="M107" s="385"/>
-      <c r="N107" s="386"/>
-      <c r="O107" s="387"/>
-      <c r="P107" s="388"/>
-      <c r="Q107" s="388"/>
-      <c r="R107" s="388"/>
-      <c r="S107" s="388"/>
-      <c r="T107" s="389"/>
-      <c r="U107" s="384"/>
-      <c r="V107" s="385"/>
-      <c r="W107" s="385"/>
-      <c r="X107" s="386"/>
+      <c r="A107" s="355"/>
+      <c r="B107" s="356"/>
+      <c r="C107" s="356"/>
+      <c r="D107" s="356"/>
+      <c r="E107" s="356"/>
+      <c r="F107" s="357"/>
+      <c r="G107" s="355"/>
+      <c r="H107" s="356"/>
+      <c r="I107" s="357"/>
+      <c r="J107" s="358"/>
+      <c r="K107" s="359"/>
+      <c r="L107" s="359"/>
+      <c r="M107" s="359"/>
+      <c r="N107" s="360"/>
+      <c r="O107" s="362"/>
+      <c r="P107" s="363"/>
+      <c r="Q107" s="363"/>
+      <c r="R107" s="363"/>
+      <c r="S107" s="363"/>
+      <c r="T107" s="364"/>
+      <c r="U107" s="358"/>
+      <c r="V107" s="359"/>
+      <c r="W107" s="359"/>
+      <c r="X107" s="360"/>
     </row>
     <row r="108" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="381"/>
-      <c r="B108" s="382"/>
-      <c r="C108" s="382"/>
-      <c r="D108" s="382"/>
-      <c r="E108" s="382"/>
-      <c r="F108" s="383"/>
-      <c r="G108" s="381"/>
-      <c r="H108" s="382"/>
-      <c r="I108" s="383"/>
-      <c r="J108" s="384"/>
-      <c r="K108" s="385"/>
-      <c r="L108" s="385"/>
-      <c r="M108" s="385"/>
-      <c r="N108" s="386"/>
-      <c r="O108" s="381"/>
-      <c r="P108" s="382"/>
-      <c r="Q108" s="382"/>
-      <c r="R108" s="382"/>
-      <c r="S108" s="382"/>
-      <c r="T108" s="383"/>
-      <c r="U108" s="384"/>
-      <c r="V108" s="385"/>
-      <c r="W108" s="385"/>
-      <c r="X108" s="386"/>
+      <c r="A108" s="355"/>
+      <c r="B108" s="356"/>
+      <c r="C108" s="356"/>
+      <c r="D108" s="356"/>
+      <c r="E108" s="356"/>
+      <c r="F108" s="357"/>
+      <c r="G108" s="355"/>
+      <c r="H108" s="356"/>
+      <c r="I108" s="357"/>
+      <c r="J108" s="358"/>
+      <c r="K108" s="359"/>
+      <c r="L108" s="359"/>
+      <c r="M108" s="359"/>
+      <c r="N108" s="360"/>
+      <c r="O108" s="355"/>
+      <c r="P108" s="356"/>
+      <c r="Q108" s="356"/>
+      <c r="R108" s="356"/>
+      <c r="S108" s="356"/>
+      <c r="T108" s="357"/>
+      <c r="U108" s="358"/>
+      <c r="V108" s="359"/>
+      <c r="W108" s="359"/>
+      <c r="X108" s="360"/>
     </row>
     <row r="109" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="381"/>
-      <c r="B109" s="382"/>
-      <c r="C109" s="382"/>
-      <c r="D109" s="382"/>
-      <c r="E109" s="382"/>
-      <c r="F109" s="383"/>
-      <c r="G109" s="381"/>
-      <c r="H109" s="382"/>
-      <c r="I109" s="383"/>
-      <c r="J109" s="384"/>
-      <c r="K109" s="385"/>
-      <c r="L109" s="385"/>
-      <c r="M109" s="385"/>
-      <c r="N109" s="386"/>
-      <c r="O109" s="381"/>
-      <c r="P109" s="382"/>
-      <c r="Q109" s="382"/>
-      <c r="R109" s="382"/>
-      <c r="S109" s="382"/>
-      <c r="T109" s="383"/>
-      <c r="U109" s="384"/>
-      <c r="V109" s="385"/>
-      <c r="W109" s="385"/>
-      <c r="X109" s="386"/>
-    </row>
-    <row r="110" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="238"/>
-      <c r="B110" s="238"/>
-      <c r="C110" s="238"/>
-      <c r="D110" s="238"/>
-      <c r="E110" s="238"/>
-      <c r="F110" s="238"/>
-      <c r="G110" s="238"/>
-      <c r="H110" s="238"/>
-      <c r="I110" s="238"/>
-      <c r="J110" s="238"/>
-      <c r="K110" s="238"/>
-      <c r="L110" s="238"/>
-      <c r="M110" s="238"/>
-      <c r="N110" s="238"/>
-      <c r="O110" s="238"/>
-      <c r="P110" s="238"/>
-      <c r="Q110" s="238"/>
-      <c r="R110" s="238"/>
-      <c r="S110" s="238"/>
-      <c r="T110" s="238"/>
-      <c r="U110" s="238"/>
-      <c r="V110" s="238"/>
-      <c r="W110" s="238"/>
-      <c r="X110" s="238"/>
+      <c r="A109" s="238"/>
+      <c r="B109" s="238"/>
+      <c r="C109" s="238"/>
+      <c r="D109" s="238"/>
+      <c r="E109" s="238"/>
+      <c r="F109" s="238"/>
+      <c r="G109" s="238"/>
+      <c r="H109" s="238"/>
+      <c r="I109" s="238"/>
+      <c r="J109" s="238"/>
+      <c r="K109" s="238"/>
+      <c r="L109" s="238"/>
+      <c r="M109" s="238"/>
+      <c r="N109" s="238"/>
+      <c r="O109" s="238"/>
+      <c r="P109" s="238"/>
+      <c r="Q109" s="238"/>
+      <c r="R109" s="238"/>
+      <c r="S109" s="238"/>
+      <c r="T109" s="238"/>
+      <c r="U109" s="238"/>
+      <c r="V109" s="238"/>
+      <c r="W109" s="238"/>
+      <c r="X109" s="238"/>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A110" s="224" t="s">
+        <v>713</v>
+      </c>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="9"/>
+      <c r="S110" s="9"/>
+      <c r="T110" s="9"/>
+      <c r="U110" s="9"/>
+      <c r="V110" s="9"/>
+      <c r="W110" s="9"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A111" s="224" t="s">
-        <v>713</v>
+      <c r="A111" s="239" t="s">
+        <v>714</v>
       </c>
       <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9"/>
-      <c r="M111" s="9"/>
-      <c r="N111" s="9"/>
-      <c r="O111" s="9"/>
-      <c r="P111" s="9"/>
-      <c r="Q111" s="9"/>
-      <c r="R111" s="9"/>
-      <c r="S111" s="9"/>
-      <c r="T111" s="9"/>
-      <c r="U111" s="9"/>
-      <c r="V111" s="9"/>
-      <c r="W111" s="9"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="16"/>
+      <c r="N111" s="16"/>
+      <c r="O111" s="16"/>
+      <c r="P111" s="16"/>
+      <c r="Q111" s="16"/>
+      <c r="R111" s="16"/>
+      <c r="S111" s="16"/>
+      <c r="T111" s="16"/>
+      <c r="U111" s="16"/>
+      <c r="V111" s="16"/>
+      <c r="W111" s="16"/>
+      <c r="X111" s="9"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A112" s="239" t="s">
-        <v>714</v>
+      <c r="A112" s="240" t="s">
+        <v>770</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="16"/>
@@ -39447,93 +39449,93 @@
       <c r="X112" s="9"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A113" s="240" t="s">
-        <v>770</v>
-      </c>
-      <c r="B113" s="9"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="16"/>
-      <c r="L113" s="16"/>
-      <c r="M113" s="16"/>
-      <c r="N113" s="16"/>
-      <c r="O113" s="16"/>
-      <c r="P113" s="16"/>
-      <c r="Q113" s="16"/>
-      <c r="R113" s="16"/>
-      <c r="S113" s="16"/>
-      <c r="T113" s="16"/>
-      <c r="U113" s="16"/>
-      <c r="V113" s="16"/>
-      <c r="W113" s="16"/>
-      <c r="X113" s="9"/>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A114" s="372" t="str">
+      <c r="A113" s="361" t="str">
         <f>IF(Calibración!E10="2",Calibración!BJ6,Calibración!BJ7)</f>
         <v>La indicación de la presión de referencia y del equipo corresponden al promedio de 4 mediciones en 2 ciclos ascendentes y descendentes.</v>
       </c>
-      <c r="B114" s="372"/>
-      <c r="C114" s="372"/>
-      <c r="D114" s="372"/>
-      <c r="E114" s="372"/>
-      <c r="F114" s="372"/>
-      <c r="G114" s="372"/>
-      <c r="H114" s="372"/>
-      <c r="I114" s="372"/>
-      <c r="J114" s="372"/>
-      <c r="K114" s="372"/>
-      <c r="L114" s="372"/>
-      <c r="M114" s="372"/>
-      <c r="N114" s="372"/>
-      <c r="O114" s="372"/>
-      <c r="P114" s="372"/>
-      <c r="Q114" s="372"/>
-      <c r="R114" s="372"/>
-      <c r="S114" s="372"/>
-      <c r="T114" s="372"/>
-      <c r="U114" s="372"/>
-      <c r="V114" s="372"/>
-      <c r="W114" s="372"/>
-      <c r="X114" s="372"/>
+      <c r="B113" s="361"/>
+      <c r="C113" s="361"/>
+      <c r="D113" s="361"/>
+      <c r="E113" s="361"/>
+      <c r="F113" s="361"/>
+      <c r="G113" s="361"/>
+      <c r="H113" s="361"/>
+      <c r="I113" s="361"/>
+      <c r="J113" s="361"/>
+      <c r="K113" s="361"/>
+      <c r="L113" s="361"/>
+      <c r="M113" s="361"/>
+      <c r="N113" s="361"/>
+      <c r="O113" s="361"/>
+      <c r="P113" s="361"/>
+      <c r="Q113" s="361"/>
+      <c r="R113" s="361"/>
+      <c r="S113" s="361"/>
+      <c r="T113" s="361"/>
+      <c r="U113" s="361"/>
+      <c r="V113" s="361"/>
+      <c r="W113" s="361"/>
+      <c r="X113" s="361"/>
+    </row>
+    <row r="114" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="361"/>
+      <c r="B114" s="361"/>
+      <c r="C114" s="361"/>
+      <c r="D114" s="361"/>
+      <c r="E114" s="361"/>
+      <c r="F114" s="361"/>
+      <c r="G114" s="361"/>
+      <c r="H114" s="361"/>
+      <c r="I114" s="361"/>
+      <c r="J114" s="361"/>
+      <c r="K114" s="361"/>
+      <c r="L114" s="361"/>
+      <c r="M114" s="361"/>
+      <c r="N114" s="361"/>
+      <c r="O114" s="361"/>
+      <c r="P114" s="361"/>
+      <c r="Q114" s="361"/>
+      <c r="R114" s="361"/>
+      <c r="S114" s="361"/>
+      <c r="T114" s="361"/>
+      <c r="U114" s="361"/>
+      <c r="V114" s="361"/>
+      <c r="W114" s="361"/>
+      <c r="X114" s="361"/>
     </row>
     <row r="115" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="372"/>
-      <c r="B115" s="372"/>
-      <c r="C115" s="372"/>
-      <c r="D115" s="372"/>
-      <c r="E115" s="372"/>
-      <c r="F115" s="372"/>
-      <c r="G115" s="372"/>
-      <c r="H115" s="372"/>
-      <c r="I115" s="372"/>
-      <c r="J115" s="372"/>
-      <c r="K115" s="372"/>
-      <c r="L115" s="372"/>
-      <c r="M115" s="372"/>
-      <c r="N115" s="372"/>
-      <c r="O115" s="372"/>
-      <c r="P115" s="372"/>
-      <c r="Q115" s="372"/>
-      <c r="R115" s="372"/>
-      <c r="S115" s="372"/>
-      <c r="T115" s="372"/>
-      <c r="U115" s="372"/>
-      <c r="V115" s="372"/>
-      <c r="W115" s="372"/>
-      <c r="X115" s="372"/>
+      <c r="A115" s="239" t="s">
+        <v>715</v>
+      </c>
+      <c r="B115" s="9"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="16"/>
+      <c r="L115" s="16"/>
+      <c r="M115" s="16"/>
+      <c r="N115" s="16"/>
+      <c r="O115" s="16"/>
+      <c r="P115" s="16"/>
+      <c r="Q115" s="16"/>
+      <c r="R115" s="16"/>
+      <c r="S115" s="16"/>
+      <c r="T115" s="16"/>
+      <c r="U115" s="16"/>
+      <c r="V115" s="16"/>
+      <c r="W115" s="16"/>
+      <c r="X115" s="9"/>
     </row>
     <row r="116" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="239" t="s">
-        <v>715</v>
-      </c>
-      <c r="B116" s="9"/>
+        <v>716</v>
+      </c>
+      <c r="B116" s="16"/>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
@@ -39557,37 +39559,37 @@
       <c r="W116" s="16"/>
       <c r="X116" s="9"/>
     </row>
-    <row r="117" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="239" t="s">
-        <v>716</v>
-      </c>
-      <c r="B117" s="16"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="16"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="16"/>
-      <c r="L117" s="16"/>
-      <c r="M117" s="16"/>
-      <c r="N117" s="16"/>
-      <c r="O117" s="16"/>
-      <c r="P117" s="16"/>
-      <c r="Q117" s="16"/>
-      <c r="R117" s="16"/>
-      <c r="S117" s="16"/>
-      <c r="T117" s="16"/>
-      <c r="U117" s="16"/>
-      <c r="V117" s="16"/>
-      <c r="W117" s="16"/>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A117" s="9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="9"/>
+      <c r="S117" s="9"/>
+      <c r="T117" s="9"/>
+      <c r="U117" s="9"/>
+      <c r="V117" s="9"/>
+      <c r="W117" s="9"/>
       <c r="X117" s="9"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -39614,8 +39616,9 @@
       <c r="X118" s="9"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A119" s="9" t="s">
-        <v>1111</v>
+      <c r="A119" s="9" t="str">
+        <f>IF(General!F16=General!W124,General!Y131,IF(General!F16=General!W125,General!Y133,IF(General!F16=General!W126,General!Y140,IF(General!F16=General!W127,General!Y121,IF(General!F16=General!W128,General!Y141,IF(General!F16=General!W129,General!Y139,IF(General!F16=General!W130,General!Y125,IF(General!F16=General!W131,General!Y136,IF(General!F16=General!W132,General!Y137,IF(General!F16=General!W133,General!Y138,IF(General!F16=General!W134,General!Y147,IF(General!F16=General!W135,General!Y148,IF(General!F16=General!W136,General!Y134,IF(General!F16=General!W137,General!Y145,IF(General!F16=General!W138,General!Y149)))))))))))))))</f>
+        <v>El factor de conversión al SI corresponde a 1 atm = 101,325 kPa</v>
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -39633,8 +39636,8 @@
       <c r="O119" s="9"/>
       <c r="P119" s="9"/>
       <c r="Q119" s="9"/>
-      <c r="R119" s="9"/>
-      <c r="S119" s="9"/>
+      <c r="R119" s="16"/>
+      <c r="S119" s="16"/>
       <c r="T119" s="9"/>
       <c r="U119" s="9"/>
       <c r="V119" s="9"/>
@@ -39642,9 +39645,8 @@
       <c r="X119" s="9"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A120" s="9" t="str">
-        <f>IF(General!F16=General!W124,General!Y131,IF(General!F16=General!W125,General!Y133,IF(General!F16=General!W126,General!Y140,IF(General!F16=General!W127,General!Y121,IF(General!F16=General!W128,General!Y141,IF(General!F16=General!W129,General!Y139,IF(General!F16=General!W130,General!Y125,IF(General!F16=General!W131,General!Y136,IF(General!F16=General!W132,General!Y137,IF(General!F16=General!W133,General!Y138,IF(General!F16=General!W134,General!Y147,IF(General!F16=General!W135,General!Y148,IF(General!F16=General!W136,General!Y134,IF(General!F16=General!W137,General!Y145,IF(General!F16=General!W138,General!Y149)))))))))))))))</f>
-        <v>El factor de conversión al SI corresponde a 1 atm = 101,325 kPa</v>
+      <c r="A120" s="240" t="s">
+        <v>772</v>
       </c>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -39664,16 +39666,14 @@
       <c r="Q120" s="9"/>
       <c r="R120" s="16"/>
       <c r="S120" s="16"/>
-      <c r="T120" s="9"/>
-      <c r="U120" s="9"/>
-      <c r="V120" s="9"/>
+      <c r="T120" s="16"/>
+      <c r="U120" s="16"/>
+      <c r="V120" s="16"/>
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A121" s="240" t="s">
-        <v>772</v>
-      </c>
+      <c r="A121" s="240"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -39724,136 +39724,126 @@
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A123" s="240"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
-      <c r="K123" s="9"/>
-      <c r="L123" s="9"/>
-      <c r="M123" s="9"/>
-      <c r="N123" s="9"/>
-      <c r="O123" s="9"/>
-      <c r="P123" s="9"/>
-      <c r="Q123" s="9"/>
-      <c r="R123" s="16"/>
-      <c r="S123" s="16"/>
-      <c r="T123" s="16"/>
-      <c r="U123" s="16"/>
-      <c r="V123" s="16"/>
-      <c r="W123" s="9"/>
-      <c r="X123" s="9"/>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I125" s="351" t="s">
+        <v>31</v>
+      </c>
+      <c r="J125" s="351"/>
+      <c r="K125" s="351"/>
+      <c r="L125" s="351"/>
+      <c r="M125" s="351"/>
+      <c r="N125" s="351"/>
+      <c r="O125" s="351"/>
+      <c r="P125" s="351"/>
+      <c r="Y125" s="9"/>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I126" s="390" t="s">
-        <v>31</v>
-      </c>
-      <c r="J126" s="390"/>
-      <c r="K126" s="390"/>
-      <c r="L126" s="390"/>
-      <c r="M126" s="390"/>
-      <c r="N126" s="390"/>
-      <c r="O126" s="390"/>
-      <c r="P126" s="390"/>
-      <c r="Y126" s="9"/>
+      <c r="I126" s="352" t="str">
+        <f>IF(I125=[5]Generales!$F$1,[5]Generales!$F$6,[5]Generales!$F$5)</f>
+        <v>Director Técnico</v>
+      </c>
+      <c r="J126" s="352"/>
+      <c r="K126" s="352"/>
+      <c r="L126" s="352"/>
+      <c r="M126" s="352"/>
+      <c r="N126" s="352"/>
+      <c r="O126" s="352"/>
+      <c r="P126" s="352"/>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I127" s="391" t="str">
-        <f>IF(I126=[5]Generales!$F$1,[5]Generales!$F$6,[5]Generales!$F$5)</f>
-        <v>Director Técnico</v>
-      </c>
-      <c r="J127" s="391"/>
-      <c r="K127" s="391"/>
-      <c r="L127" s="391"/>
-      <c r="M127" s="391"/>
-      <c r="N127" s="391"/>
-      <c r="O127" s="391"/>
-      <c r="P127" s="391"/>
+      <c r="I127" s="353" t="s">
+        <v>717</v>
+      </c>
+      <c r="J127" s="353"/>
+      <c r="K127" s="353"/>
+      <c r="L127" s="353"/>
+      <c r="M127" s="353"/>
+      <c r="N127" s="353"/>
+      <c r="O127" s="353"/>
+      <c r="P127" s="353"/>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I128" s="392" t="s">
-        <v>717</v>
-      </c>
-      <c r="J128" s="392"/>
-      <c r="K128" s="392"/>
-      <c r="L128" s="392"/>
-      <c r="M128" s="392"/>
-      <c r="N128" s="392"/>
-      <c r="O128" s="392"/>
-      <c r="P128" s="392"/>
-    </row>
-    <row r="129" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I129" s="393" t="s">
+      <c r="I128" s="354" t="s">
         <v>718</v>
       </c>
-      <c r="J129" s="393"/>
-      <c r="K129" s="393"/>
-      <c r="L129" s="393"/>
-      <c r="M129" s="393"/>
-      <c r="N129" s="393"/>
-      <c r="O129" s="393"/>
-      <c r="P129" s="393"/>
+      <c r="J128" s="354"/>
+      <c r="K128" s="354"/>
+      <c r="L128" s="354"/>
+      <c r="M128" s="354"/>
+      <c r="N128" s="354"/>
+      <c r="O128" s="354"/>
+      <c r="P128" s="354"/>
     </row>
   </sheetData>
-  <mergeCells count="144">
-    <mergeCell ref="I126:P126"/>
-    <mergeCell ref="I127:P127"/>
-    <mergeCell ref="I128:P128"/>
-    <mergeCell ref="I129:P129"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="J109:N109"/>
-    <mergeCell ref="O109:T109"/>
-    <mergeCell ref="U109:X109"/>
-    <mergeCell ref="A114:X115"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="J107:N107"/>
-    <mergeCell ref="O107:T107"/>
-    <mergeCell ref="U107:X107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="J108:N108"/>
-    <mergeCell ref="O108:T108"/>
-    <mergeCell ref="U108:X108"/>
-    <mergeCell ref="A96:X96"/>
-    <mergeCell ref="A99:X103"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="J106:N106"/>
-    <mergeCell ref="O106:T106"/>
-    <mergeCell ref="U106:X106"/>
-    <mergeCell ref="N92:X92"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="L68:Q68"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:K66"/>
-    <mergeCell ref="L66:Q66"/>
-    <mergeCell ref="R66:W66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:K67"/>
-    <mergeCell ref="L67:Q67"/>
-    <mergeCell ref="R67:W67"/>
-    <mergeCell ref="L65:Q65"/>
-    <mergeCell ref="R65:W65"/>
-    <mergeCell ref="D60:W60"/>
-    <mergeCell ref="D61:E62"/>
-    <mergeCell ref="F61:K62"/>
-    <mergeCell ref="L61:Q62"/>
-    <mergeCell ref="R61:W62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:K63"/>
-    <mergeCell ref="L63:Q63"/>
-    <mergeCell ref="R63:W63"/>
+  <mergeCells count="139">
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F69:K69"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:K65"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:K68"/>
+    <mergeCell ref="F70:K70"/>
+    <mergeCell ref="F71:K71"/>
+    <mergeCell ref="F72:K72"/>
+    <mergeCell ref="F73:K73"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="R73:W73"/>
+    <mergeCell ref="L69:Q69"/>
+    <mergeCell ref="L70:Q70"/>
+    <mergeCell ref="L71:Q71"/>
+    <mergeCell ref="L72:Q72"/>
+    <mergeCell ref="L73:Q73"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="N21:X22"/>
+    <mergeCell ref="D24:W24"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="F25:K26"/>
+    <mergeCell ref="L25:Q26"/>
+    <mergeCell ref="R25:W26"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="R28:W28"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:K31"/>
     <mergeCell ref="L31:Q31"/>
@@ -39878,81 +39868,60 @@
     <mergeCell ref="L37:Q37"/>
     <mergeCell ref="F33:K33"/>
     <mergeCell ref="F34:K34"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="F25:K26"/>
-    <mergeCell ref="L25:Q26"/>
-    <mergeCell ref="R25:W26"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N18:X18"/>
-    <mergeCell ref="N19:X19"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="N12:X12"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="N21:X22"/>
-    <mergeCell ref="D24:W24"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="R72:W72"/>
-    <mergeCell ref="R73:W73"/>
-    <mergeCell ref="L69:Q69"/>
-    <mergeCell ref="L70:Q70"/>
-    <mergeCell ref="L71:Q71"/>
-    <mergeCell ref="L72:Q72"/>
-    <mergeCell ref="L73:Q73"/>
-    <mergeCell ref="F70:K70"/>
-    <mergeCell ref="F71:K71"/>
-    <mergeCell ref="F72:K72"/>
-    <mergeCell ref="F73:K73"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="F37:K37"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F69:K69"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:K65"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:K68"/>
+    <mergeCell ref="L65:Q65"/>
+    <mergeCell ref="R65:W65"/>
+    <mergeCell ref="D60:W60"/>
+    <mergeCell ref="D61:E62"/>
+    <mergeCell ref="F61:K62"/>
+    <mergeCell ref="L61:Q62"/>
+    <mergeCell ref="R61:W62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="L63:Q63"/>
+    <mergeCell ref="R63:W63"/>
+    <mergeCell ref="L68:Q68"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:K66"/>
+    <mergeCell ref="L66:Q66"/>
+    <mergeCell ref="R66:W66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:K67"/>
+    <mergeCell ref="L67:Q67"/>
+    <mergeCell ref="R67:W67"/>
+    <mergeCell ref="A96:X96"/>
+    <mergeCell ref="A99:X103"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="J106:N106"/>
+    <mergeCell ref="O106:T106"/>
+    <mergeCell ref="U106:X106"/>
+    <mergeCell ref="N92:X92"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="J107:N107"/>
+    <mergeCell ref="O107:T107"/>
+    <mergeCell ref="U107:X107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="J108:N108"/>
+    <mergeCell ref="O108:T108"/>
+    <mergeCell ref="U108:X108"/>
+    <mergeCell ref="I125:P125"/>
+    <mergeCell ref="I126:P126"/>
+    <mergeCell ref="I127:P127"/>
+    <mergeCell ref="I128:P128"/>
+    <mergeCell ref="A113:X114"/>
   </mergeCells>
-  <conditionalFormatting sqref="A118">
+  <conditionalFormatting sqref="A117">
     <cfRule type="cellIs" priority="1" operator="equal">
       <formula>$D$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A119">
+  <conditionalFormatting sqref="A118">
     <cfRule type="cellIs" priority="2" operator="equal">
       <formula>$F$26</formula>
     </cfRule>
@@ -39974,7 +39943,7 @@
           <x14:formula1>
             <xm:f>'F:\SGC Vigente 2018-07-14\Clientes\Certificados\2018\Dentro de alcance\Presión\[NI-R02-MCIT-P-01 Hoja electrónica para procesamiento de datos manómetros y vacuómetros v2 2018-03-11.xlsx]Generales'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I126:P126</xm:sqref>
+          <xm:sqref>I125:P125</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -40032,20 +40001,20 @@
       <c r="K8" s="227"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="359" t="str">
+      <c r="N8" s="391" t="str">
         <f>General!F3</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O8" s="360"/>
-      <c r="P8" s="360"/>
-      <c r="Q8" s="360"/>
-      <c r="R8" s="360"/>
-      <c r="S8" s="360"/>
-      <c r="T8" s="360"/>
-      <c r="U8" s="360"/>
-      <c r="V8" s="360"/>
-      <c r="W8" s="360"/>
-      <c r="X8" s="360"/>
+      <c r="O8" s="371"/>
+      <c r="P8" s="371"/>
+      <c r="Q8" s="371"/>
+      <c r="R8" s="371"/>
+      <c r="S8" s="371"/>
+      <c r="T8" s="371"/>
+      <c r="U8" s="371"/>
+      <c r="V8" s="371"/>
+      <c r="W8" s="371"/>
+      <c r="X8" s="371"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="224" t="s">
@@ -40062,20 +40031,20 @@
       <c r="K9" s="227"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="361" t="str">
+      <c r="N9" s="390" t="str">
         <f>General!F4</f>
         <v>NI-CS-XXXX-XX</v>
       </c>
-      <c r="O9" s="362"/>
-      <c r="P9" s="362"/>
-      <c r="Q9" s="362"/>
-      <c r="R9" s="362"/>
-      <c r="S9" s="362"/>
-      <c r="T9" s="362"/>
-      <c r="U9" s="362"/>
-      <c r="V9" s="362"/>
-      <c r="W9" s="362"/>
-      <c r="X9" s="362"/>
+      <c r="O9" s="373"/>
+      <c r="P9" s="373"/>
+      <c r="Q9" s="373"/>
+      <c r="R9" s="373"/>
+      <c r="S9" s="373"/>
+      <c r="T9" s="373"/>
+      <c r="U9" s="373"/>
+      <c r="V9" s="373"/>
+      <c r="W9" s="373"/>
+      <c r="X9" s="373"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="224" t="s">
@@ -40092,20 +40061,20 @@
       <c r="K10" s="227"/>
       <c r="L10" s="228"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="363" t="str">
+      <c r="N10" s="392" t="str">
         <f>General!F5</f>
         <v>2019-03-06</v>
       </c>
-      <c r="O10" s="363"/>
-      <c r="P10" s="363"/>
-      <c r="Q10" s="363"/>
-      <c r="R10" s="363"/>
-      <c r="S10" s="363"/>
-      <c r="T10" s="363"/>
-      <c r="U10" s="363"/>
-      <c r="V10" s="363"/>
-      <c r="W10" s="363"/>
-      <c r="X10" s="363"/>
+      <c r="O10" s="392"/>
+      <c r="P10" s="392"/>
+      <c r="Q10" s="392"/>
+      <c r="R10" s="392"/>
+      <c r="S10" s="392"/>
+      <c r="T10" s="392"/>
+      <c r="U10" s="392"/>
+      <c r="V10" s="392"/>
+      <c r="W10" s="392"/>
+      <c r="X10" s="392"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="224" t="s">
@@ -40122,13 +40091,13 @@
       <c r="K11" s="227"/>
       <c r="L11" s="228"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="363">
+      <c r="N11" s="392">
         <f ca="1">NOW()</f>
-        <v>45489.709634606479</v>
-      </c>
-      <c r="O11" s="363"/>
-      <c r="P11" s="363"/>
-      <c r="Q11" s="363"/>
+        <v>45735.949592129633</v>
+      </c>
+      <c r="O11" s="392"/>
+      <c r="P11" s="392"/>
+      <c r="Q11" s="392"/>
       <c r="R11" s="295"/>
       <c r="S11" s="295"/>
       <c r="T11" s="295"/>
@@ -40152,20 +40121,20 @@
       <c r="K12" s="227"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="361" t="str">
+      <c r="N12" s="390" t="str">
         <f>General!F7</f>
         <v xml:space="preserve">Manómetro </v>
       </c>
-      <c r="O12" s="362"/>
-      <c r="P12" s="362"/>
-      <c r="Q12" s="362"/>
-      <c r="R12" s="362"/>
-      <c r="S12" s="362"/>
-      <c r="T12" s="362"/>
-      <c r="U12" s="362"/>
-      <c r="V12" s="362"/>
-      <c r="W12" s="362"/>
-      <c r="X12" s="362"/>
+      <c r="O12" s="373"/>
+      <c r="P12" s="373"/>
+      <c r="Q12" s="373"/>
+      <c r="R12" s="373"/>
+      <c r="S12" s="373"/>
+      <c r="T12" s="373"/>
+      <c r="U12" s="373"/>
+      <c r="V12" s="373"/>
+      <c r="W12" s="373"/>
+      <c r="X12" s="373"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="224" t="s">
@@ -40182,20 +40151,20 @@
       <c r="K13" s="227"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="361" t="str">
+      <c r="N13" s="390" t="str">
         <f>General!F10</f>
         <v>Wika</v>
       </c>
-      <c r="O13" s="362"/>
-      <c r="P13" s="362"/>
-      <c r="Q13" s="362"/>
-      <c r="R13" s="362"/>
-      <c r="S13" s="362"/>
-      <c r="T13" s="362"/>
-      <c r="U13" s="362"/>
-      <c r="V13" s="362"/>
-      <c r="W13" s="362"/>
-      <c r="X13" s="362"/>
+      <c r="O13" s="373"/>
+      <c r="P13" s="373"/>
+      <c r="Q13" s="373"/>
+      <c r="R13" s="373"/>
+      <c r="S13" s="373"/>
+      <c r="T13" s="373"/>
+      <c r="U13" s="373"/>
+      <c r="V13" s="373"/>
+      <c r="W13" s="373"/>
+      <c r="X13" s="373"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="224" t="s">
@@ -40212,20 +40181,20 @@
       <c r="K14" s="227"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="361" t="str">
+      <c r="N14" s="390" t="str">
         <f>General!F12</f>
         <v>90271482-1-19</v>
       </c>
-      <c r="O14" s="362"/>
-      <c r="P14" s="362"/>
-      <c r="Q14" s="362"/>
-      <c r="R14" s="362"/>
-      <c r="S14" s="362"/>
-      <c r="T14" s="362"/>
-      <c r="U14" s="362"/>
-      <c r="V14" s="362"/>
-      <c r="W14" s="362"/>
-      <c r="X14" s="362"/>
+      <c r="O14" s="373"/>
+      <c r="P14" s="373"/>
+      <c r="Q14" s="373"/>
+      <c r="R14" s="373"/>
+      <c r="S14" s="373"/>
+      <c r="T14" s="373"/>
+      <c r="U14" s="373"/>
+      <c r="V14" s="373"/>
+      <c r="W14" s="373"/>
+      <c r="X14" s="373"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="224" t="s">
@@ -40242,20 +40211,20 @@
       <c r="K15" s="227"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="361" t="str">
+      <c r="N15" s="390" t="str">
         <f>General!F11</f>
         <v>No Aplica (N/A)</v>
       </c>
-      <c r="O15" s="362"/>
-      <c r="P15" s="362"/>
-      <c r="Q15" s="362"/>
-      <c r="R15" s="362"/>
-      <c r="S15" s="362"/>
-      <c r="T15" s="362"/>
-      <c r="U15" s="362"/>
-      <c r="V15" s="362"/>
-      <c r="W15" s="362"/>
-      <c r="X15" s="362"/>
+      <c r="O15" s="373"/>
+      <c r="P15" s="373"/>
+      <c r="Q15" s="373"/>
+      <c r="R15" s="373"/>
+      <c r="S15" s="373"/>
+      <c r="T15" s="373"/>
+      <c r="U15" s="373"/>
+      <c r="V15" s="373"/>
+      <c r="W15" s="373"/>
+      <c r="X15" s="373"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="224" t="s">
@@ -40272,20 +40241,20 @@
       <c r="K16" s="227"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="361" t="str">
+      <c r="N16" s="390" t="str">
         <f>General!F18</f>
         <v>0 kgf/cm² a 16 kgf/cm²</v>
       </c>
-      <c r="O16" s="362"/>
-      <c r="P16" s="362"/>
-      <c r="Q16" s="362"/>
-      <c r="R16" s="362"/>
-      <c r="S16" s="362"/>
-      <c r="T16" s="362"/>
-      <c r="U16" s="362"/>
-      <c r="V16" s="362"/>
-      <c r="W16" s="362"/>
-      <c r="X16" s="362"/>
+      <c r="O16" s="373"/>
+      <c r="P16" s="373"/>
+      <c r="Q16" s="373"/>
+      <c r="R16" s="373"/>
+      <c r="S16" s="373"/>
+      <c r="T16" s="373"/>
+      <c r="U16" s="373"/>
+      <c r="V16" s="373"/>
+      <c r="W16" s="373"/>
+      <c r="X16" s="373"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="224" t="s">
@@ -40302,16 +40271,16 @@
       <c r="K17" s="227"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="361" t="str">
+      <c r="N17" s="390" t="str">
         <f>General!F15</f>
         <v>0,5</v>
       </c>
-      <c r="O17" s="362"/>
-      <c r="P17" s="361" t="str">
+      <c r="O17" s="373"/>
+      <c r="P17" s="390" t="str">
         <f>General!F16</f>
         <v>atm</v>
       </c>
-      <c r="Q17" s="362"/>
+      <c r="Q17" s="373"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -40335,20 +40304,20 @@
       <c r="K18" s="227"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="361" t="str">
+      <c r="N18" s="390" t="str">
         <f>General!F6</f>
         <v>MAN-A04</v>
       </c>
-      <c r="O18" s="362"/>
-      <c r="P18" s="362"/>
-      <c r="Q18" s="362"/>
-      <c r="R18" s="362"/>
-      <c r="S18" s="362"/>
-      <c r="T18" s="362"/>
-      <c r="U18" s="362"/>
-      <c r="V18" s="362"/>
-      <c r="W18" s="362"/>
-      <c r="X18" s="362"/>
+      <c r="O18" s="373"/>
+      <c r="P18" s="373"/>
+      <c r="Q18" s="373"/>
+      <c r="R18" s="373"/>
+      <c r="S18" s="373"/>
+      <c r="T18" s="373"/>
+      <c r="U18" s="373"/>
+      <c r="V18" s="373"/>
+      <c r="W18" s="373"/>
+      <c r="X18" s="373"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="224" t="s">
@@ -40365,20 +40334,20 @@
       <c r="K19" s="227"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="361" t="str">
+      <c r="N19" s="390" t="str">
         <f>General!L3</f>
         <v>Mechnikov, S.A.</v>
       </c>
-      <c r="O19" s="362"/>
-      <c r="P19" s="362"/>
-      <c r="Q19" s="362"/>
-      <c r="R19" s="362"/>
-      <c r="S19" s="362"/>
-      <c r="T19" s="362"/>
-      <c r="U19" s="362"/>
-      <c r="V19" s="362"/>
-      <c r="W19" s="362"/>
-      <c r="X19" s="362"/>
+      <c r="O19" s="373"/>
+      <c r="P19" s="373"/>
+      <c r="Q19" s="373"/>
+      <c r="R19" s="373"/>
+      <c r="S19" s="373"/>
+      <c r="T19" s="373"/>
+      <c r="U19" s="373"/>
+      <c r="V19" s="373"/>
+      <c r="W19" s="373"/>
+      <c r="X19" s="373"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
@@ -40395,20 +40364,20 @@
       <c r="K20" s="227"/>
       <c r="L20" s="11"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="362" t="str">
+      <c r="N20" s="373" t="str">
         <f>General!L4</f>
         <v/>
       </c>
-      <c r="O20" s="362"/>
-      <c r="P20" s="362"/>
-      <c r="Q20" s="362"/>
-      <c r="R20" s="362"/>
-      <c r="S20" s="362"/>
-      <c r="T20" s="362"/>
-      <c r="U20" s="362"/>
-      <c r="V20" s="362"/>
-      <c r="W20" s="362"/>
-      <c r="X20" s="362"/>
+      <c r="O20" s="373"/>
+      <c r="P20" s="373"/>
+      <c r="Q20" s="373"/>
+      <c r="R20" s="373"/>
+      <c r="S20" s="373"/>
+      <c r="T20" s="373"/>
+      <c r="U20" s="373"/>
+      <c r="V20" s="373"/>
+      <c r="W20" s="373"/>
+      <c r="X20" s="373"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="224" t="s">
@@ -40425,34 +40394,34 @@
       <c r="K21" s="227"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="364" t="str">
+      <c r="N21" s="393" t="str">
         <f>General!L6</f>
         <v>Laboratorio #2, Metrocal</v>
       </c>
-      <c r="O21" s="364"/>
-      <c r="P21" s="364"/>
-      <c r="Q21" s="364"/>
-      <c r="R21" s="364"/>
-      <c r="S21" s="364"/>
-      <c r="T21" s="364"/>
-      <c r="U21" s="364"/>
-      <c r="V21" s="364"/>
-      <c r="W21" s="364"/>
-      <c r="X21" s="364"/>
+      <c r="O21" s="393"/>
+      <c r="P21" s="393"/>
+      <c r="Q21" s="393"/>
+      <c r="R21" s="393"/>
+      <c r="S21" s="393"/>
+      <c r="T21" s="393"/>
+      <c r="U21" s="393"/>
+      <c r="V21" s="393"/>
+      <c r="W21" s="393"/>
+      <c r="X21" s="393"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="224"/>
-      <c r="N22" s="364"/>
-      <c r="O22" s="364"/>
-      <c r="P22" s="364"/>
-      <c r="Q22" s="364"/>
-      <c r="R22" s="364"/>
-      <c r="S22" s="364"/>
-      <c r="T22" s="364"/>
-      <c r="U22" s="364"/>
-      <c r="V22" s="364"/>
-      <c r="W22" s="364"/>
-      <c r="X22" s="364"/>
+      <c r="N22" s="393"/>
+      <c r="O22" s="393"/>
+      <c r="P22" s="393"/>
+      <c r="Q22" s="393"/>
+      <c r="R22" s="393"/>
+      <c r="S22" s="393"/>
+      <c r="T22" s="393"/>
+      <c r="U22" s="393"/>
+      <c r="V22" s="393"/>
+      <c r="W22" s="393"/>
+      <c r="X22" s="393"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="224" t="s">
@@ -40467,308 +40436,308 @@
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="365" t="s">
+      <c r="D24" s="379" t="s">
         <v>363</v>
       </c>
-      <c r="E24" s="365"/>
-      <c r="F24" s="365"/>
-      <c r="G24" s="365"/>
-      <c r="H24" s="365"/>
-      <c r="I24" s="365"/>
-      <c r="J24" s="365"/>
-      <c r="K24" s="365"/>
-      <c r="L24" s="365"/>
-      <c r="M24" s="365"/>
-      <c r="N24" s="365"/>
-      <c r="O24" s="365"/>
-      <c r="P24" s="365"/>
-      <c r="Q24" s="365"/>
-      <c r="R24" s="365"/>
-      <c r="S24" s="365"/>
-      <c r="T24" s="365"/>
-      <c r="U24" s="365"/>
-      <c r="V24" s="365"/>
-      <c r="W24" s="365"/>
+      <c r="E24" s="379"/>
+      <c r="F24" s="379"/>
+      <c r="G24" s="379"/>
+      <c r="H24" s="379"/>
+      <c r="I24" s="379"/>
+      <c r="J24" s="379"/>
+      <c r="K24" s="379"/>
+      <c r="L24" s="379"/>
+      <c r="M24" s="379"/>
+      <c r="N24" s="379"/>
+      <c r="O24" s="379"/>
+      <c r="P24" s="379"/>
+      <c r="Q24" s="379"/>
+      <c r="R24" s="379"/>
+      <c r="S24" s="379"/>
+      <c r="T24" s="379"/>
+      <c r="U24" s="379"/>
+      <c r="V24" s="379"/>
+      <c r="W24" s="379"/>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="366" t="s">
+      <c r="D25" s="380" t="s">
         <v>631</v>
       </c>
-      <c r="E25" s="366"/>
-      <c r="F25" s="367" t="s">
+      <c r="E25" s="380"/>
+      <c r="F25" s="381" t="s">
         <v>696</v>
       </c>
-      <c r="G25" s="367"/>
-      <c r="H25" s="367"/>
-      <c r="I25" s="367"/>
-      <c r="J25" s="367"/>
-      <c r="K25" s="367"/>
-      <c r="L25" s="367" t="s">
+      <c r="G25" s="381"/>
+      <c r="H25" s="381"/>
+      <c r="I25" s="381"/>
+      <c r="J25" s="381"/>
+      <c r="K25" s="381"/>
+      <c r="L25" s="381" t="s">
         <v>364</v>
       </c>
-      <c r="M25" s="367"/>
-      <c r="N25" s="367"/>
-      <c r="O25" s="367"/>
-      <c r="P25" s="367"/>
-      <c r="Q25" s="367"/>
-      <c r="R25" s="366" t="s">
+      <c r="M25" s="381"/>
+      <c r="N25" s="381"/>
+      <c r="O25" s="381"/>
+      <c r="P25" s="381"/>
+      <c r="Q25" s="381"/>
+      <c r="R25" s="380" t="s">
         <v>697</v>
       </c>
-      <c r="S25" s="366"/>
-      <c r="T25" s="366"/>
-      <c r="U25" s="366"/>
-      <c r="V25" s="366"/>
-      <c r="W25" s="366"/>
+      <c r="S25" s="380"/>
+      <c r="T25" s="380"/>
+      <c r="U25" s="380"/>
+      <c r="V25" s="380"/>
+      <c r="W25" s="380"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="366"/>
-      <c r="E26" s="366"/>
-      <c r="F26" s="367"/>
-      <c r="G26" s="367"/>
-      <c r="H26" s="367"/>
-      <c r="I26" s="367"/>
-      <c r="J26" s="367"/>
-      <c r="K26" s="367"/>
-      <c r="L26" s="367"/>
-      <c r="M26" s="367"/>
-      <c r="N26" s="367"/>
-      <c r="O26" s="367"/>
-      <c r="P26" s="367"/>
-      <c r="Q26" s="367"/>
-      <c r="R26" s="366"/>
-      <c r="S26" s="366"/>
-      <c r="T26" s="366"/>
-      <c r="U26" s="366"/>
-      <c r="V26" s="366"/>
-      <c r="W26" s="366"/>
+      <c r="D26" s="380"/>
+      <c r="E26" s="380"/>
+      <c r="F26" s="381"/>
+      <c r="G26" s="381"/>
+      <c r="H26" s="381"/>
+      <c r="I26" s="381"/>
+      <c r="J26" s="381"/>
+      <c r="K26" s="381"/>
+      <c r="L26" s="381"/>
+      <c r="M26" s="381"/>
+      <c r="N26" s="381"/>
+      <c r="O26" s="381"/>
+      <c r="P26" s="381"/>
+      <c r="Q26" s="381"/>
+      <c r="R26" s="380"/>
+      <c r="S26" s="380"/>
+      <c r="T26" s="380"/>
+      <c r="U26" s="380"/>
+      <c r="V26" s="380"/>
+      <c r="W26" s="380"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="368" t="str">
+      <c r="D27" s="382" t="str">
         <f>Calibración!C37</f>
         <v>atm</v>
       </c>
-      <c r="E27" s="368"/>
-      <c r="F27" s="369" t="str">
+      <c r="E27" s="382"/>
+      <c r="F27" s="383" t="str">
         <f>Calibración!D37</f>
         <v>atm</v>
       </c>
-      <c r="G27" s="370"/>
-      <c r="H27" s="370"/>
-      <c r="I27" s="370"/>
-      <c r="J27" s="370"/>
-      <c r="K27" s="371"/>
-      <c r="L27" s="369" t="str">
+      <c r="G27" s="384"/>
+      <c r="H27" s="384"/>
+      <c r="I27" s="384"/>
+      <c r="J27" s="384"/>
+      <c r="K27" s="385"/>
+      <c r="L27" s="383" t="str">
         <f>Calibración!E37</f>
         <v>atm</v>
       </c>
-      <c r="M27" s="370"/>
-      <c r="N27" s="370"/>
-      <c r="O27" s="370"/>
-      <c r="P27" s="370"/>
-      <c r="Q27" s="371"/>
-      <c r="R27" s="369" t="str">
+      <c r="M27" s="384"/>
+      <c r="N27" s="384"/>
+      <c r="O27" s="384"/>
+      <c r="P27" s="384"/>
+      <c r="Q27" s="385"/>
+      <c r="R27" s="383" t="str">
         <f>Calibración!F37</f>
         <v>atm</v>
       </c>
-      <c r="S27" s="370"/>
-      <c r="T27" s="370"/>
-      <c r="U27" s="370"/>
-      <c r="V27" s="370"/>
-      <c r="W27" s="371"/>
+      <c r="S27" s="384"/>
+      <c r="T27" s="384"/>
+      <c r="U27" s="384"/>
+      <c r="V27" s="384"/>
+      <c r="W27" s="385"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="354" t="str">
+      <c r="D28" s="386" t="str">
         <f ca="1">Calibración!C38</f>
         <v/>
       </c>
-      <c r="E28" s="354"/>
-      <c r="F28" s="351" t="str">
+      <c r="E28" s="386"/>
+      <c r="F28" s="387" t="str">
         <f ca="1">Calibración!D38</f>
         <v/>
       </c>
-      <c r="G28" s="352"/>
-      <c r="H28" s="352"/>
-      <c r="I28" s="352"/>
-      <c r="J28" s="352"/>
-      <c r="K28" s="353"/>
-      <c r="L28" s="351" t="str">
+      <c r="G28" s="388"/>
+      <c r="H28" s="388"/>
+      <c r="I28" s="388"/>
+      <c r="J28" s="388"/>
+      <c r="K28" s="389"/>
+      <c r="L28" s="387" t="str">
         <f ca="1">Calibración!E38</f>
         <v/>
       </c>
-      <c r="M28" s="352"/>
-      <c r="N28" s="352"/>
-      <c r="O28" s="352"/>
-      <c r="P28" s="352"/>
-      <c r="Q28" s="353"/>
-      <c r="R28" s="351" t="str">
+      <c r="M28" s="388"/>
+      <c r="N28" s="388"/>
+      <c r="O28" s="388"/>
+      <c r="P28" s="388"/>
+      <c r="Q28" s="389"/>
+      <c r="R28" s="387" t="str">
         <f ca="1">Calibración!F38</f>
         <v/>
       </c>
-      <c r="S28" s="352"/>
-      <c r="T28" s="352"/>
-      <c r="U28" s="352"/>
-      <c r="V28" s="352"/>
-      <c r="W28" s="353"/>
+      <c r="S28" s="388"/>
+      <c r="T28" s="388"/>
+      <c r="U28" s="388"/>
+      <c r="V28" s="388"/>
+      <c r="W28" s="389"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="354" t="str">
+      <c r="D29" s="386" t="str">
         <f ca="1">Calibración!C39</f>
         <v/>
       </c>
-      <c r="E29" s="354"/>
-      <c r="F29" s="351" t="str">
+      <c r="E29" s="386"/>
+      <c r="F29" s="387" t="str">
         <f ca="1">Calibración!D39</f>
         <v/>
       </c>
-      <c r="G29" s="352"/>
-      <c r="H29" s="352"/>
-      <c r="I29" s="352"/>
-      <c r="J29" s="352"/>
-      <c r="K29" s="353"/>
-      <c r="L29" s="351" t="str">
+      <c r="G29" s="388"/>
+      <c r="H29" s="388"/>
+      <c r="I29" s="388"/>
+      <c r="J29" s="388"/>
+      <c r="K29" s="389"/>
+      <c r="L29" s="387" t="str">
         <f ca="1">Calibración!E39</f>
         <v/>
       </c>
-      <c r="M29" s="352"/>
-      <c r="N29" s="352"/>
-      <c r="O29" s="352"/>
-      <c r="P29" s="352"/>
-      <c r="Q29" s="353"/>
-      <c r="R29" s="351" t="str">
+      <c r="M29" s="388"/>
+      <c r="N29" s="388"/>
+      <c r="O29" s="388"/>
+      <c r="P29" s="388"/>
+      <c r="Q29" s="389"/>
+      <c r="R29" s="387" t="str">
         <f ca="1">Calibración!F39</f>
         <v/>
       </c>
-      <c r="S29" s="352"/>
-      <c r="T29" s="352"/>
-      <c r="U29" s="352"/>
-      <c r="V29" s="352"/>
-      <c r="W29" s="353"/>
+      <c r="S29" s="388"/>
+      <c r="T29" s="388"/>
+      <c r="U29" s="388"/>
+      <c r="V29" s="388"/>
+      <c r="W29" s="389"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="354" t="str">
+      <c r="D30" s="386" t="str">
         <f ca="1">Calibración!C40</f>
         <v/>
       </c>
-      <c r="E30" s="354"/>
-      <c r="F30" s="351" t="str">
+      <c r="E30" s="386"/>
+      <c r="F30" s="387" t="str">
         <f ca="1">Calibración!D40</f>
         <v/>
       </c>
-      <c r="G30" s="352"/>
-      <c r="H30" s="352"/>
-      <c r="I30" s="352"/>
-      <c r="J30" s="352"/>
-      <c r="K30" s="353"/>
-      <c r="L30" s="351" t="str">
+      <c r="G30" s="388"/>
+      <c r="H30" s="388"/>
+      <c r="I30" s="388"/>
+      <c r="J30" s="388"/>
+      <c r="K30" s="389"/>
+      <c r="L30" s="387" t="str">
         <f ca="1">Calibración!E40</f>
         <v/>
       </c>
-      <c r="M30" s="352"/>
-      <c r="N30" s="352"/>
-      <c r="O30" s="352"/>
-      <c r="P30" s="352"/>
-      <c r="Q30" s="353"/>
-      <c r="R30" s="351" t="str">
+      <c r="M30" s="388"/>
+      <c r="N30" s="388"/>
+      <c r="O30" s="388"/>
+      <c r="P30" s="388"/>
+      <c r="Q30" s="389"/>
+      <c r="R30" s="387" t="str">
         <f ca="1">Calibración!F40</f>
         <v/>
       </c>
-      <c r="S30" s="352"/>
-      <c r="T30" s="352"/>
-      <c r="U30" s="352"/>
-      <c r="V30" s="352"/>
-      <c r="W30" s="353"/>
+      <c r="S30" s="388"/>
+      <c r="T30" s="388"/>
+      <c r="U30" s="388"/>
+      <c r="V30" s="388"/>
+      <c r="W30" s="389"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="354" t="str">
+      <c r="D31" s="386" t="str">
         <f ca="1">Calibración!C41</f>
         <v/>
       </c>
-      <c r="E31" s="354"/>
-      <c r="F31" s="351" t="str">
+      <c r="E31" s="386"/>
+      <c r="F31" s="387" t="str">
         <f ca="1">Calibración!D41</f>
         <v/>
       </c>
-      <c r="G31" s="352"/>
-      <c r="H31" s="352"/>
-      <c r="I31" s="352"/>
-      <c r="J31" s="352"/>
-      <c r="K31" s="353"/>
-      <c r="L31" s="351" t="str">
+      <c r="G31" s="388"/>
+      <c r="H31" s="388"/>
+      <c r="I31" s="388"/>
+      <c r="J31" s="388"/>
+      <c r="K31" s="389"/>
+      <c r="L31" s="387" t="str">
         <f ca="1">Calibración!E41</f>
         <v/>
       </c>
-      <c r="M31" s="352"/>
-      <c r="N31" s="352"/>
-      <c r="O31" s="352"/>
-      <c r="P31" s="352"/>
-      <c r="Q31" s="353"/>
-      <c r="R31" s="351" t="str">
+      <c r="M31" s="388"/>
+      <c r="N31" s="388"/>
+      <c r="O31" s="388"/>
+      <c r="P31" s="388"/>
+      <c r="Q31" s="389"/>
+      <c r="R31" s="387" t="str">
         <f ca="1">Calibración!F41</f>
         <v/>
       </c>
-      <c r="S31" s="352"/>
-      <c r="T31" s="352"/>
-      <c r="U31" s="352"/>
-      <c r="V31" s="352"/>
-      <c r="W31" s="353"/>
+      <c r="S31" s="388"/>
+      <c r="T31" s="388"/>
+      <c r="U31" s="388"/>
+      <c r="V31" s="388"/>
+      <c r="W31" s="389"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="354" t="str">
+      <c r="D32" s="386" t="str">
         <f ca="1">Calibración!C42</f>
         <v/>
       </c>
-      <c r="E32" s="354"/>
-      <c r="F32" s="351" t="str">
+      <c r="E32" s="386"/>
+      <c r="F32" s="387" t="str">
         <f ca="1">Calibración!D42</f>
         <v/>
       </c>
-      <c r="G32" s="352"/>
-      <c r="H32" s="352"/>
-      <c r="I32" s="352"/>
-      <c r="J32" s="352"/>
-      <c r="K32" s="353"/>
-      <c r="L32" s="351" t="str">
+      <c r="G32" s="388"/>
+      <c r="H32" s="388"/>
+      <c r="I32" s="388"/>
+      <c r="J32" s="388"/>
+      <c r="K32" s="389"/>
+      <c r="L32" s="387" t="str">
         <f ca="1">Calibración!E42</f>
         <v/>
       </c>
-      <c r="M32" s="352"/>
-      <c r="N32" s="352"/>
-      <c r="O32" s="352"/>
-      <c r="P32" s="352"/>
-      <c r="Q32" s="353"/>
-      <c r="R32" s="351" t="str">
+      <c r="M32" s="388"/>
+      <c r="N32" s="388"/>
+      <c r="O32" s="388"/>
+      <c r="P32" s="388"/>
+      <c r="Q32" s="389"/>
+      <c r="R32" s="387" t="str">
         <f ca="1">Calibración!F42</f>
         <v/>
       </c>
-      <c r="S32" s="352"/>
-      <c r="T32" s="352"/>
-      <c r="U32" s="352"/>
-      <c r="V32" s="352"/>
-      <c r="W32" s="353"/>
+      <c r="S32" s="388"/>
+      <c r="T32" s="388"/>
+      <c r="U32" s="388"/>
+      <c r="V32" s="388"/>
+      <c r="W32" s="389"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D33" s="230"/>
@@ -40821,308 +40790,308 @@
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="365" t="s">
+      <c r="D35" s="379" t="s">
         <v>363</v>
       </c>
-      <c r="E35" s="365"/>
-      <c r="F35" s="365"/>
-      <c r="G35" s="365"/>
-      <c r="H35" s="365"/>
-      <c r="I35" s="365"/>
-      <c r="J35" s="365"/>
-      <c r="K35" s="365"/>
-      <c r="L35" s="365"/>
-      <c r="M35" s="365"/>
-      <c r="N35" s="365"/>
-      <c r="O35" s="365"/>
-      <c r="P35" s="365"/>
-      <c r="Q35" s="365"/>
-      <c r="R35" s="365"/>
-      <c r="S35" s="365"/>
-      <c r="T35" s="365"/>
-      <c r="U35" s="365"/>
-      <c r="V35" s="365"/>
-      <c r="W35" s="365"/>
+      <c r="E35" s="379"/>
+      <c r="F35" s="379"/>
+      <c r="G35" s="379"/>
+      <c r="H35" s="379"/>
+      <c r="I35" s="379"/>
+      <c r="J35" s="379"/>
+      <c r="K35" s="379"/>
+      <c r="L35" s="379"/>
+      <c r="M35" s="379"/>
+      <c r="N35" s="379"/>
+      <c r="O35" s="379"/>
+      <c r="P35" s="379"/>
+      <c r="Q35" s="379"/>
+      <c r="R35" s="379"/>
+      <c r="S35" s="379"/>
+      <c r="T35" s="379"/>
+      <c r="U35" s="379"/>
+      <c r="V35" s="379"/>
+      <c r="W35" s="379"/>
     </row>
     <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="366" t="s">
+      <c r="D36" s="380" t="s">
         <v>631</v>
       </c>
-      <c r="E36" s="366"/>
-      <c r="F36" s="367" t="s">
+      <c r="E36" s="380"/>
+      <c r="F36" s="381" t="s">
         <v>696</v>
       </c>
-      <c r="G36" s="367"/>
-      <c r="H36" s="367"/>
-      <c r="I36" s="367"/>
-      <c r="J36" s="367"/>
-      <c r="K36" s="367"/>
-      <c r="L36" s="367" t="s">
+      <c r="G36" s="381"/>
+      <c r="H36" s="381"/>
+      <c r="I36" s="381"/>
+      <c r="J36" s="381"/>
+      <c r="K36" s="381"/>
+      <c r="L36" s="381" t="s">
         <v>364</v>
       </c>
-      <c r="M36" s="367"/>
-      <c r="N36" s="367"/>
-      <c r="O36" s="367"/>
-      <c r="P36" s="367"/>
-      <c r="Q36" s="367"/>
-      <c r="R36" s="366" t="s">
+      <c r="M36" s="381"/>
+      <c r="N36" s="381"/>
+      <c r="O36" s="381"/>
+      <c r="P36" s="381"/>
+      <c r="Q36" s="381"/>
+      <c r="R36" s="380" t="s">
         <v>697</v>
       </c>
-      <c r="S36" s="366"/>
-      <c r="T36" s="366"/>
-      <c r="U36" s="366"/>
-      <c r="V36" s="366"/>
-      <c r="W36" s="366"/>
+      <c r="S36" s="380"/>
+      <c r="T36" s="380"/>
+      <c r="U36" s="380"/>
+      <c r="V36" s="380"/>
+      <c r="W36" s="380"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="366"/>
-      <c r="E37" s="366"/>
-      <c r="F37" s="367"/>
-      <c r="G37" s="367"/>
-      <c r="H37" s="367"/>
-      <c r="I37" s="367"/>
-      <c r="J37" s="367"/>
-      <c r="K37" s="367"/>
-      <c r="L37" s="367"/>
-      <c r="M37" s="367"/>
-      <c r="N37" s="367"/>
-      <c r="O37" s="367"/>
-      <c r="P37" s="367"/>
-      <c r="Q37" s="367"/>
-      <c r="R37" s="366"/>
-      <c r="S37" s="366"/>
-      <c r="T37" s="366"/>
-      <c r="U37" s="366"/>
-      <c r="V37" s="366"/>
-      <c r="W37" s="366"/>
+      <c r="D37" s="380"/>
+      <c r="E37" s="380"/>
+      <c r="F37" s="381"/>
+      <c r="G37" s="381"/>
+      <c r="H37" s="381"/>
+      <c r="I37" s="381"/>
+      <c r="J37" s="381"/>
+      <c r="K37" s="381"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
+      <c r="P37" s="381"/>
+      <c r="Q37" s="381"/>
+      <c r="R37" s="380"/>
+      <c r="S37" s="380"/>
+      <c r="T37" s="380"/>
+      <c r="U37" s="380"/>
+      <c r="V37" s="380"/>
+      <c r="W37" s="380"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="368" t="str">
+      <c r="D38" s="382" t="str">
         <f>Calibración!G37</f>
         <v>kPa</v>
       </c>
-      <c r="E38" s="368"/>
-      <c r="F38" s="369" t="str">
+      <c r="E38" s="382"/>
+      <c r="F38" s="383" t="str">
         <f>Calibración!H37</f>
         <v>kPa</v>
       </c>
-      <c r="G38" s="370"/>
-      <c r="H38" s="370"/>
-      <c r="I38" s="370"/>
-      <c r="J38" s="370"/>
-      <c r="K38" s="371"/>
-      <c r="L38" s="368" t="str">
+      <c r="G38" s="384"/>
+      <c r="H38" s="384"/>
+      <c r="I38" s="384"/>
+      <c r="J38" s="384"/>
+      <c r="K38" s="385"/>
+      <c r="L38" s="382" t="str">
         <f>Calibración!I37</f>
         <v>kPa</v>
       </c>
-      <c r="M38" s="368"/>
-      <c r="N38" s="368"/>
-      <c r="O38" s="368"/>
-      <c r="P38" s="368"/>
-      <c r="Q38" s="368"/>
-      <c r="R38" s="368" t="str">
+      <c r="M38" s="382"/>
+      <c r="N38" s="382"/>
+      <c r="O38" s="382"/>
+      <c r="P38" s="382"/>
+      <c r="Q38" s="382"/>
+      <c r="R38" s="382" t="str">
         <f>Calibración!J37</f>
         <v>kPa</v>
       </c>
-      <c r="S38" s="368"/>
-      <c r="T38" s="368"/>
-      <c r="U38" s="368"/>
-      <c r="V38" s="368"/>
-      <c r="W38" s="368"/>
+      <c r="S38" s="382"/>
+      <c r="T38" s="382"/>
+      <c r="U38" s="382"/>
+      <c r="V38" s="382"/>
+      <c r="W38" s="382"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="358" t="str">
+      <c r="D39" s="375" t="str">
         <f ca="1">Calibración!G38</f>
         <v/>
       </c>
-      <c r="E39" s="358"/>
-      <c r="F39" s="355" t="str">
+      <c r="E39" s="375"/>
+      <c r="F39" s="376" t="str">
         <f ca="1">Calibración!H38</f>
         <v/>
       </c>
-      <c r="G39" s="356"/>
-      <c r="H39" s="356"/>
-      <c r="I39" s="356"/>
-      <c r="J39" s="356"/>
-      <c r="K39" s="357"/>
-      <c r="L39" s="358" t="str">
+      <c r="G39" s="377"/>
+      <c r="H39" s="377"/>
+      <c r="I39" s="377"/>
+      <c r="J39" s="377"/>
+      <c r="K39" s="378"/>
+      <c r="L39" s="375" t="str">
         <f ca="1">Calibración!I38</f>
         <v/>
       </c>
-      <c r="M39" s="358"/>
-      <c r="N39" s="358"/>
-      <c r="O39" s="358"/>
-      <c r="P39" s="358"/>
-      <c r="Q39" s="358"/>
-      <c r="R39" s="358" t="str">
+      <c r="M39" s="375"/>
+      <c r="N39" s="375"/>
+      <c r="O39" s="375"/>
+      <c r="P39" s="375"/>
+      <c r="Q39" s="375"/>
+      <c r="R39" s="375" t="str">
         <f ca="1">Calibración!J38</f>
         <v/>
       </c>
-      <c r="S39" s="358"/>
-      <c r="T39" s="358"/>
-      <c r="U39" s="358"/>
-      <c r="V39" s="358"/>
-      <c r="W39" s="358"/>
+      <c r="S39" s="375"/>
+      <c r="T39" s="375"/>
+      <c r="U39" s="375"/>
+      <c r="V39" s="375"/>
+      <c r="W39" s="375"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="358" t="str">
+      <c r="D40" s="375" t="str">
         <f ca="1">Calibración!G39</f>
         <v/>
       </c>
-      <c r="E40" s="358"/>
-      <c r="F40" s="355" t="str">
+      <c r="E40" s="375"/>
+      <c r="F40" s="376" t="str">
         <f ca="1">Calibración!H39</f>
         <v/>
       </c>
-      <c r="G40" s="356"/>
-      <c r="H40" s="356"/>
-      <c r="I40" s="356"/>
-      <c r="J40" s="356"/>
-      <c r="K40" s="357"/>
-      <c r="L40" s="358" t="str">
+      <c r="G40" s="377"/>
+      <c r="H40" s="377"/>
+      <c r="I40" s="377"/>
+      <c r="J40" s="377"/>
+      <c r="K40" s="378"/>
+      <c r="L40" s="375" t="str">
         <f ca="1">Calibración!I39</f>
         <v/>
       </c>
-      <c r="M40" s="358"/>
-      <c r="N40" s="358"/>
-      <c r="O40" s="358"/>
-      <c r="P40" s="358"/>
-      <c r="Q40" s="358"/>
-      <c r="R40" s="358" t="str">
+      <c r="M40" s="375"/>
+      <c r="N40" s="375"/>
+      <c r="O40" s="375"/>
+      <c r="P40" s="375"/>
+      <c r="Q40" s="375"/>
+      <c r="R40" s="375" t="str">
         <f ca="1">Calibración!J39</f>
         <v/>
       </c>
-      <c r="S40" s="358"/>
-      <c r="T40" s="358"/>
-      <c r="U40" s="358"/>
-      <c r="V40" s="358"/>
-      <c r="W40" s="358"/>
+      <c r="S40" s="375"/>
+      <c r="T40" s="375"/>
+      <c r="U40" s="375"/>
+      <c r="V40" s="375"/>
+      <c r="W40" s="375"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="358" t="str">
+      <c r="D41" s="375" t="str">
         <f ca="1">Calibración!G40</f>
         <v/>
       </c>
-      <c r="E41" s="358"/>
-      <c r="F41" s="355" t="str">
+      <c r="E41" s="375"/>
+      <c r="F41" s="376" t="str">
         <f ca="1">Calibración!H40</f>
         <v/>
       </c>
-      <c r="G41" s="356"/>
-      <c r="H41" s="356"/>
-      <c r="I41" s="356"/>
-      <c r="J41" s="356"/>
-      <c r="K41" s="357"/>
-      <c r="L41" s="358" t="str">
+      <c r="G41" s="377"/>
+      <c r="H41" s="377"/>
+      <c r="I41" s="377"/>
+      <c r="J41" s="377"/>
+      <c r="K41" s="378"/>
+      <c r="L41" s="375" t="str">
         <f ca="1">Calibración!I40</f>
         <v/>
       </c>
-      <c r="M41" s="358"/>
-      <c r="N41" s="358"/>
-      <c r="O41" s="358"/>
-      <c r="P41" s="358"/>
-      <c r="Q41" s="358"/>
-      <c r="R41" s="358" t="str">
+      <c r="M41" s="375"/>
+      <c r="N41" s="375"/>
+      <c r="O41" s="375"/>
+      <c r="P41" s="375"/>
+      <c r="Q41" s="375"/>
+      <c r="R41" s="375" t="str">
         <f ca="1">Calibración!J40</f>
         <v/>
       </c>
-      <c r="S41" s="358"/>
-      <c r="T41" s="358"/>
-      <c r="U41" s="358"/>
-      <c r="V41" s="358"/>
-      <c r="W41" s="358"/>
+      <c r="S41" s="375"/>
+      <c r="T41" s="375"/>
+      <c r="U41" s="375"/>
+      <c r="V41" s="375"/>
+      <c r="W41" s="375"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="358" t="str">
+      <c r="D42" s="375" t="str">
         <f ca="1">Calibración!G41</f>
         <v/>
       </c>
-      <c r="E42" s="358"/>
-      <c r="F42" s="355" t="str">
+      <c r="E42" s="375"/>
+      <c r="F42" s="376" t="str">
         <f ca="1">Calibración!H41</f>
         <v/>
       </c>
-      <c r="G42" s="356"/>
-      <c r="H42" s="356"/>
-      <c r="I42" s="356"/>
-      <c r="J42" s="356"/>
-      <c r="K42" s="357"/>
-      <c r="L42" s="358" t="str">
+      <c r="G42" s="377"/>
+      <c r="H42" s="377"/>
+      <c r="I42" s="377"/>
+      <c r="J42" s="377"/>
+      <c r="K42" s="378"/>
+      <c r="L42" s="375" t="str">
         <f ca="1">Calibración!I41</f>
         <v/>
       </c>
-      <c r="M42" s="358"/>
-      <c r="N42" s="358"/>
-      <c r="O42" s="358"/>
-      <c r="P42" s="358"/>
-      <c r="Q42" s="358"/>
-      <c r="R42" s="358" t="str">
+      <c r="M42" s="375"/>
+      <c r="N42" s="375"/>
+      <c r="O42" s="375"/>
+      <c r="P42" s="375"/>
+      <c r="Q42" s="375"/>
+      <c r="R42" s="375" t="str">
         <f ca="1">Calibración!J41</f>
         <v/>
       </c>
-      <c r="S42" s="358"/>
-      <c r="T42" s="358"/>
-      <c r="U42" s="358"/>
-      <c r="V42" s="358"/>
-      <c r="W42" s="358"/>
+      <c r="S42" s="375"/>
+      <c r="T42" s="375"/>
+      <c r="U42" s="375"/>
+      <c r="V42" s="375"/>
+      <c r="W42" s="375"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="358" t="str">
+      <c r="D43" s="375" t="str">
         <f ca="1">Calibración!G42</f>
         <v/>
       </c>
-      <c r="E43" s="358"/>
-      <c r="F43" s="355" t="str">
+      <c r="E43" s="375"/>
+      <c r="F43" s="376" t="str">
         <f ca="1">Calibración!H42</f>
         <v/>
       </c>
-      <c r="G43" s="356"/>
-      <c r="H43" s="356"/>
-      <c r="I43" s="356"/>
-      <c r="J43" s="356"/>
-      <c r="K43" s="357"/>
-      <c r="L43" s="358" t="str">
+      <c r="G43" s="377"/>
+      <c r="H43" s="377"/>
+      <c r="I43" s="377"/>
+      <c r="J43" s="377"/>
+      <c r="K43" s="378"/>
+      <c r="L43" s="375" t="str">
         <f ca="1">Calibración!I42</f>
         <v/>
       </c>
-      <c r="M43" s="358"/>
-      <c r="N43" s="358"/>
-      <c r="O43" s="358"/>
-      <c r="P43" s="358"/>
-      <c r="Q43" s="358"/>
-      <c r="R43" s="358" t="str">
+      <c r="M43" s="375"/>
+      <c r="N43" s="375"/>
+      <c r="O43" s="375"/>
+      <c r="P43" s="375"/>
+      <c r="Q43" s="375"/>
+      <c r="R43" s="375" t="str">
         <f ca="1">Calibración!J42</f>
         <v/>
       </c>
-      <c r="S43" s="358"/>
-      <c r="T43" s="358"/>
-      <c r="U43" s="358"/>
-      <c r="V43" s="358"/>
-      <c r="W43" s="358"/>
+      <c r="S43" s="375"/>
+      <c r="T43" s="375"/>
+      <c r="U43" s="375"/>
+      <c r="V43" s="375"/>
+      <c r="W43" s="375"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="O44" s="232"/>
@@ -41159,11 +41128,11 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="234"/>
-      <c r="B46" s="379" t="s">
+      <c r="B46" s="372" t="s">
         <v>701</v>
       </c>
-      <c r="C46" s="379"/>
-      <c r="D46" s="379"/>
+      <c r="C46" s="372"/>
+      <c r="D46" s="372"/>
       <c r="E46" s="235" t="str">
         <f>CertTempC</f>
         <v/>
@@ -41180,8 +41149,8 @@
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="362"/>
-      <c r="L46" s="362"/>
+      <c r="K46" s="373"/>
+      <c r="L46" s="373"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
@@ -41191,11 +41160,11 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
-      <c r="T46" s="380" t="str">
+      <c r="T46" s="374" t="str">
         <f>General!I18</f>
         <v/>
       </c>
-      <c r="U46" s="380"/>
+      <c r="U46" s="374"/>
       <c r="V46" s="236" t="s">
         <v>703</v>
       </c>
@@ -41281,20 +41250,20 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
-      <c r="N56" s="360" t="str">
+      <c r="N56" s="371" t="str">
         <f>N8</f>
         <v>NI-MC-P-XXX-ZZZZ</v>
       </c>
-      <c r="O56" s="360"/>
-      <c r="P56" s="360"/>
-      <c r="Q56" s="360"/>
-      <c r="R56" s="360"/>
-      <c r="S56" s="360"/>
-      <c r="T56" s="360"/>
-      <c r="U56" s="360"/>
-      <c r="V56" s="360"/>
-      <c r="W56" s="360"/>
-      <c r="X56" s="360"/>
+      <c r="O56" s="371"/>
+      <c r="P56" s="371"/>
+      <c r="Q56" s="371"/>
+      <c r="R56" s="371"/>
+      <c r="S56" s="371"/>
+      <c r="T56" s="371"/>
+      <c r="U56" s="371"/>
+      <c r="V56" s="371"/>
+      <c r="W56" s="371"/>
+      <c r="X56" s="371"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O57" s="232"/>
@@ -41331,32 +41300,32 @@
       <c r="W59" s="9"/>
     </row>
     <row r="60" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="372" t="s">
+      <c r="A60" s="361" t="s">
         <v>1127</v>
       </c>
-      <c r="B60" s="372"/>
-      <c r="C60" s="372"/>
-      <c r="D60" s="372"/>
-      <c r="E60" s="372"/>
-      <c r="F60" s="372"/>
-      <c r="G60" s="372"/>
-      <c r="H60" s="372"/>
-      <c r="I60" s="372"/>
-      <c r="J60" s="372"/>
-      <c r="K60" s="372"/>
-      <c r="L60" s="372"/>
-      <c r="M60" s="372"/>
-      <c r="N60" s="372"/>
-      <c r="O60" s="372"/>
-      <c r="P60" s="372"/>
-      <c r="Q60" s="372"/>
-      <c r="R60" s="372"/>
-      <c r="S60" s="372"/>
-      <c r="T60" s="372"/>
-      <c r="U60" s="372"/>
-      <c r="V60" s="372"/>
-      <c r="W60" s="372"/>
-      <c r="X60" s="372"/>
+      <c r="B60" s="361"/>
+      <c r="C60" s="361"/>
+      <c r="D60" s="361"/>
+      <c r="E60" s="361"/>
+      <c r="F60" s="361"/>
+      <c r="G60" s="361"/>
+      <c r="H60" s="361"/>
+      <c r="I60" s="361"/>
+      <c r="J60" s="361"/>
+      <c r="K60" s="361"/>
+      <c r="L60" s="361"/>
+      <c r="M60" s="361"/>
+      <c r="N60" s="361"/>
+      <c r="O60" s="361"/>
+      <c r="P60" s="361"/>
+      <c r="Q60" s="361"/>
+      <c r="R60" s="361"/>
+      <c r="S60" s="361"/>
+      <c r="T60" s="361"/>
+      <c r="U60" s="361"/>
+      <c r="V60" s="361"/>
+      <c r="W60" s="361"/>
+      <c r="X60" s="361"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B61" s="16"/>
@@ -41411,136 +41380,136 @@
       <c r="X62" s="16"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A63" s="372" t="s">
+      <c r="A63" s="361" t="s">
         <v>709</v>
       </c>
-      <c r="B63" s="372"/>
-      <c r="C63" s="372"/>
-      <c r="D63" s="372"/>
-      <c r="E63" s="372"/>
-      <c r="F63" s="372"/>
-      <c r="G63" s="372"/>
-      <c r="H63" s="372"/>
-      <c r="I63" s="372"/>
-      <c r="J63" s="372"/>
-      <c r="K63" s="372"/>
-      <c r="L63" s="372"/>
-      <c r="M63" s="372"/>
-      <c r="N63" s="372"/>
-      <c r="O63" s="372"/>
-      <c r="P63" s="372"/>
-      <c r="Q63" s="372"/>
-      <c r="R63" s="372"/>
-      <c r="S63" s="372"/>
-      <c r="T63" s="372"/>
-      <c r="U63" s="372"/>
-      <c r="V63" s="372"/>
-      <c r="W63" s="372"/>
-      <c r="X63" s="372"/>
+      <c r="B63" s="361"/>
+      <c r="C63" s="361"/>
+      <c r="D63" s="361"/>
+      <c r="E63" s="361"/>
+      <c r="F63" s="361"/>
+      <c r="G63" s="361"/>
+      <c r="H63" s="361"/>
+      <c r="I63" s="361"/>
+      <c r="J63" s="361"/>
+      <c r="K63" s="361"/>
+      <c r="L63" s="361"/>
+      <c r="M63" s="361"/>
+      <c r="N63" s="361"/>
+      <c r="O63" s="361"/>
+      <c r="P63" s="361"/>
+      <c r="Q63" s="361"/>
+      <c r="R63" s="361"/>
+      <c r="S63" s="361"/>
+      <c r="T63" s="361"/>
+      <c r="U63" s="361"/>
+      <c r="V63" s="361"/>
+      <c r="W63" s="361"/>
+      <c r="X63" s="361"/>
     </row>
     <row r="64" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="372"/>
-      <c r="B64" s="372"/>
-      <c r="C64" s="372"/>
-      <c r="D64" s="372"/>
-      <c r="E64" s="372"/>
-      <c r="F64" s="372"/>
-      <c r="G64" s="372"/>
-      <c r="H64" s="372"/>
-      <c r="I64" s="372"/>
-      <c r="J64" s="372"/>
-      <c r="K64" s="372"/>
-      <c r="L64" s="372"/>
-      <c r="M64" s="372"/>
-      <c r="N64" s="372"/>
-      <c r="O64" s="372"/>
-      <c r="P64" s="372"/>
-      <c r="Q64" s="372"/>
-      <c r="R64" s="372"/>
-      <c r="S64" s="372"/>
-      <c r="T64" s="372"/>
-      <c r="U64" s="372"/>
-      <c r="V64" s="372"/>
-      <c r="W64" s="372"/>
-      <c r="X64" s="372"/>
+      <c r="A64" s="361"/>
+      <c r="B64" s="361"/>
+      <c r="C64" s="361"/>
+      <c r="D64" s="361"/>
+      <c r="E64" s="361"/>
+      <c r="F64" s="361"/>
+      <c r="G64" s="361"/>
+      <c r="H64" s="361"/>
+      <c r="I64" s="361"/>
+      <c r="J64" s="361"/>
+      <c r="K64" s="361"/>
+      <c r="L64" s="361"/>
+      <c r="M64" s="361"/>
+      <c r="N64" s="361"/>
+      <c r="O64" s="361"/>
+      <c r="P64" s="361"/>
+      <c r="Q64" s="361"/>
+      <c r="R64" s="361"/>
+      <c r="S64" s="361"/>
+      <c r="T64" s="361"/>
+      <c r="U64" s="361"/>
+      <c r="V64" s="361"/>
+      <c r="W64" s="361"/>
+      <c r="X64" s="361"/>
     </row>
     <row r="65" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="372"/>
-      <c r="B65" s="372"/>
-      <c r="C65" s="372"/>
-      <c r="D65" s="372"/>
-      <c r="E65" s="372"/>
-      <c r="F65" s="372"/>
-      <c r="G65" s="372"/>
-      <c r="H65" s="372"/>
-      <c r="I65" s="372"/>
-      <c r="J65" s="372"/>
-      <c r="K65" s="372"/>
-      <c r="L65" s="372"/>
-      <c r="M65" s="372"/>
-      <c r="N65" s="372"/>
-      <c r="O65" s="372"/>
-      <c r="P65" s="372"/>
-      <c r="Q65" s="372"/>
-      <c r="R65" s="372"/>
-      <c r="S65" s="372"/>
-      <c r="T65" s="372"/>
-      <c r="U65" s="372"/>
-      <c r="V65" s="372"/>
-      <c r="W65" s="372"/>
-      <c r="X65" s="372"/>
+      <c r="A65" s="361"/>
+      <c r="B65" s="361"/>
+      <c r="C65" s="361"/>
+      <c r="D65" s="361"/>
+      <c r="E65" s="361"/>
+      <c r="F65" s="361"/>
+      <c r="G65" s="361"/>
+      <c r="H65" s="361"/>
+      <c r="I65" s="361"/>
+      <c r="J65" s="361"/>
+      <c r="K65" s="361"/>
+      <c r="L65" s="361"/>
+      <c r="M65" s="361"/>
+      <c r="N65" s="361"/>
+      <c r="O65" s="361"/>
+      <c r="P65" s="361"/>
+      <c r="Q65" s="361"/>
+      <c r="R65" s="361"/>
+      <c r="S65" s="361"/>
+      <c r="T65" s="361"/>
+      <c r="U65" s="361"/>
+      <c r="V65" s="361"/>
+      <c r="W65" s="361"/>
+      <c r="X65" s="361"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A66" s="372"/>
-      <c r="B66" s="372"/>
-      <c r="C66" s="372"/>
-      <c r="D66" s="372"/>
-      <c r="E66" s="372"/>
-      <c r="F66" s="372"/>
-      <c r="G66" s="372"/>
-      <c r="H66" s="372"/>
-      <c r="I66" s="372"/>
-      <c r="J66" s="372"/>
-      <c r="K66" s="372"/>
-      <c r="L66" s="372"/>
-      <c r="M66" s="372"/>
-      <c r="N66" s="372"/>
-      <c r="O66" s="372"/>
-      <c r="P66" s="372"/>
-      <c r="Q66" s="372"/>
-      <c r="R66" s="372"/>
-      <c r="S66" s="372"/>
-      <c r="T66" s="372"/>
-      <c r="U66" s="372"/>
-      <c r="V66" s="372"/>
-      <c r="W66" s="372"/>
-      <c r="X66" s="372"/>
+      <c r="A66" s="361"/>
+      <c r="B66" s="361"/>
+      <c r="C66" s="361"/>
+      <c r="D66" s="361"/>
+      <c r="E66" s="361"/>
+      <c r="F66" s="361"/>
+      <c r="G66" s="361"/>
+      <c r="H66" s="361"/>
+      <c r="I66" s="361"/>
+      <c r="J66" s="361"/>
+      <c r="K66" s="361"/>
+      <c r="L66" s="361"/>
+      <c r="M66" s="361"/>
+      <c r="N66" s="361"/>
+      <c r="O66" s="361"/>
+      <c r="P66" s="361"/>
+      <c r="Q66" s="361"/>
+      <c r="R66" s="361"/>
+      <c r="S66" s="361"/>
+      <c r="T66" s="361"/>
+      <c r="U66" s="361"/>
+      <c r="V66" s="361"/>
+      <c r="W66" s="361"/>
+      <c r="X66" s="361"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A67" s="372"/>
-      <c r="B67" s="372"/>
-      <c r="C67" s="372"/>
-      <c r="D67" s="372"/>
-      <c r="E67" s="372"/>
-      <c r="F67" s="372"/>
-      <c r="G67" s="372"/>
-      <c r="H67" s="372"/>
-      <c r="I67" s="372"/>
-      <c r="J67" s="372"/>
-      <c r="K67" s="372"/>
-      <c r="L67" s="372"/>
-      <c r="M67" s="372"/>
-      <c r="N67" s="372"/>
-      <c r="O67" s="372"/>
-      <c r="P67" s="372"/>
-      <c r="Q67" s="372"/>
-      <c r="R67" s="372"/>
-      <c r="S67" s="372"/>
-      <c r="T67" s="372"/>
-      <c r="U67" s="372"/>
-      <c r="V67" s="372"/>
-      <c r="W67" s="372"/>
-      <c r="X67" s="372"/>
+      <c r="A67" s="361"/>
+      <c r="B67" s="361"/>
+      <c r="C67" s="361"/>
+      <c r="D67" s="361"/>
+      <c r="E67" s="361"/>
+      <c r="F67" s="361"/>
+      <c r="G67" s="361"/>
+      <c r="H67" s="361"/>
+      <c r="I67" s="361"/>
+      <c r="J67" s="361"/>
+      <c r="K67" s="361"/>
+      <c r="L67" s="361"/>
+      <c r="M67" s="361"/>
+      <c r="N67" s="361"/>
+      <c r="O67" s="361"/>
+      <c r="P67" s="361"/>
+      <c r="Q67" s="361"/>
+      <c r="R67" s="361"/>
+      <c r="S67" s="361"/>
+      <c r="T67" s="361"/>
+      <c r="U67" s="361"/>
+      <c r="V67" s="361"/>
+      <c r="W67" s="361"/>
+      <c r="X67" s="361"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
@@ -41594,118 +41563,118 @@
       <c r="V69" s="9"/>
     </row>
     <row r="70" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="373" t="s">
+      <c r="A70" s="365" t="s">
         <v>366</v>
       </c>
-      <c r="B70" s="374"/>
-      <c r="C70" s="374"/>
-      <c r="D70" s="374"/>
-      <c r="E70" s="374"/>
-      <c r="F70" s="375"/>
-      <c r="G70" s="373" t="s">
+      <c r="B70" s="366"/>
+      <c r="C70" s="366"/>
+      <c r="D70" s="366"/>
+      <c r="E70" s="366"/>
+      <c r="F70" s="367"/>
+      <c r="G70" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="H70" s="374"/>
-      <c r="I70" s="375"/>
-      <c r="J70" s="376" t="s">
+      <c r="H70" s="366"/>
+      <c r="I70" s="367"/>
+      <c r="J70" s="368" t="s">
         <v>369</v>
       </c>
-      <c r="K70" s="377"/>
-      <c r="L70" s="377"/>
-      <c r="M70" s="377"/>
-      <c r="N70" s="378"/>
-      <c r="O70" s="373" t="s">
+      <c r="K70" s="369"/>
+      <c r="L70" s="369"/>
+      <c r="M70" s="369"/>
+      <c r="N70" s="370"/>
+      <c r="O70" s="365" t="s">
         <v>711</v>
       </c>
-      <c r="P70" s="374"/>
-      <c r="Q70" s="374"/>
-      <c r="R70" s="374"/>
-      <c r="S70" s="374"/>
-      <c r="T70" s="375"/>
-      <c r="U70" s="376" t="s">
+      <c r="P70" s="366"/>
+      <c r="Q70" s="366"/>
+      <c r="R70" s="366"/>
+      <c r="S70" s="366"/>
+      <c r="T70" s="367"/>
+      <c r="U70" s="368" t="s">
         <v>712</v>
       </c>
-      <c r="V70" s="377"/>
-      <c r="W70" s="377"/>
-      <c r="X70" s="378"/>
+      <c r="V70" s="369"/>
+      <c r="W70" s="369"/>
+      <c r="X70" s="370"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A71" s="381"/>
-      <c r="B71" s="382"/>
-      <c r="C71" s="382"/>
-      <c r="D71" s="382"/>
-      <c r="E71" s="382"/>
-      <c r="F71" s="383"/>
-      <c r="G71" s="381"/>
-      <c r="H71" s="382"/>
-      <c r="I71" s="383"/>
-      <c r="J71" s="384"/>
-      <c r="K71" s="385"/>
-      <c r="L71" s="385"/>
-      <c r="M71" s="385"/>
-      <c r="N71" s="386"/>
-      <c r="O71" s="387"/>
-      <c r="P71" s="388"/>
-      <c r="Q71" s="388"/>
-      <c r="R71" s="388"/>
-      <c r="S71" s="388"/>
-      <c r="T71" s="389"/>
-      <c r="U71" s="384"/>
-      <c r="V71" s="385"/>
-      <c r="W71" s="385"/>
-      <c r="X71" s="386"/>
+      <c r="A71" s="355"/>
+      <c r="B71" s="356"/>
+      <c r="C71" s="356"/>
+      <c r="D71" s="356"/>
+      <c r="E71" s="356"/>
+      <c r="F71" s="357"/>
+      <c r="G71" s="355"/>
+      <c r="H71" s="356"/>
+      <c r="I71" s="357"/>
+      <c r="J71" s="358"/>
+      <c r="K71" s="359"/>
+      <c r="L71" s="359"/>
+      <c r="M71" s="359"/>
+      <c r="N71" s="360"/>
+      <c r="O71" s="362"/>
+      <c r="P71" s="363"/>
+      <c r="Q71" s="363"/>
+      <c r="R71" s="363"/>
+      <c r="S71" s="363"/>
+      <c r="T71" s="364"/>
+      <c r="U71" s="358"/>
+      <c r="V71" s="359"/>
+      <c r="W71" s="359"/>
+      <c r="X71" s="360"/>
     </row>
     <row r="72" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="381"/>
-      <c r="B72" s="382"/>
-      <c r="C72" s="382"/>
-      <c r="D72" s="382"/>
-      <c r="E72" s="382"/>
-      <c r="F72" s="383"/>
-      <c r="G72" s="381"/>
-      <c r="H72" s="382"/>
-      <c r="I72" s="383"/>
-      <c r="J72" s="384"/>
-      <c r="K72" s="385"/>
-      <c r="L72" s="385"/>
-      <c r="M72" s="385"/>
-      <c r="N72" s="386"/>
-      <c r="O72" s="381"/>
-      <c r="P72" s="382"/>
-      <c r="Q72" s="382"/>
-      <c r="R72" s="382"/>
-      <c r="S72" s="382"/>
-      <c r="T72" s="383"/>
-      <c r="U72" s="384"/>
-      <c r="V72" s="385"/>
-      <c r="W72" s="385"/>
-      <c r="X72" s="386"/>
+      <c r="A72" s="355"/>
+      <c r="B72" s="356"/>
+      <c r="C72" s="356"/>
+      <c r="D72" s="356"/>
+      <c r="E72" s="356"/>
+      <c r="F72" s="357"/>
+      <c r="G72" s="355"/>
+      <c r="H72" s="356"/>
+      <c r="I72" s="357"/>
+      <c r="J72" s="358"/>
+      <c r="K72" s="359"/>
+      <c r="L72" s="359"/>
+      <c r="M72" s="359"/>
+      <c r="N72" s="360"/>
+      <c r="O72" s="355"/>
+      <c r="P72" s="356"/>
+      <c r="Q72" s="356"/>
+      <c r="R72" s="356"/>
+      <c r="S72" s="356"/>
+      <c r="T72" s="357"/>
+      <c r="U72" s="358"/>
+      <c r="V72" s="359"/>
+      <c r="W72" s="359"/>
+      <c r="X72" s="360"/>
     </row>
     <row r="73" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="381"/>
-      <c r="B73" s="382"/>
-      <c r="C73" s="382"/>
-      <c r="D73" s="382"/>
-      <c r="E73" s="382"/>
-      <c r="F73" s="383"/>
-      <c r="G73" s="381"/>
-      <c r="H73" s="382"/>
-      <c r="I73" s="383"/>
-      <c r="J73" s="384"/>
-      <c r="K73" s="385"/>
-      <c r="L73" s="385"/>
-      <c r="M73" s="385"/>
-      <c r="N73" s="386"/>
-      <c r="O73" s="381"/>
-      <c r="P73" s="382"/>
-      <c r="Q73" s="382"/>
-      <c r="R73" s="382"/>
-      <c r="S73" s="382"/>
-      <c r="T73" s="383"/>
-      <c r="U73" s="384"/>
-      <c r="V73" s="385"/>
-      <c r="W73" s="385"/>
-      <c r="X73" s="386"/>
+      <c r="A73" s="355"/>
+      <c r="B73" s="356"/>
+      <c r="C73" s="356"/>
+      <c r="D73" s="356"/>
+      <c r="E73" s="356"/>
+      <c r="F73" s="357"/>
+      <c r="G73" s="355"/>
+      <c r="H73" s="356"/>
+      <c r="I73" s="357"/>
+      <c r="J73" s="358"/>
+      <c r="K73" s="359"/>
+      <c r="L73" s="359"/>
+      <c r="M73" s="359"/>
+      <c r="N73" s="360"/>
+      <c r="O73" s="355"/>
+      <c r="P73" s="356"/>
+      <c r="Q73" s="356"/>
+      <c r="R73" s="356"/>
+      <c r="S73" s="356"/>
+      <c r="T73" s="357"/>
+      <c r="U73" s="358"/>
+      <c r="V73" s="359"/>
+      <c r="W73" s="359"/>
+      <c r="X73" s="360"/>
     </row>
     <row r="74" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="238"/>
@@ -41817,59 +41786,59 @@
       <c r="X77" s="9"/>
     </row>
     <row r="78" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="372" t="str">
+      <c r="A78" s="361" t="str">
         <f>IF(Calibración!E10="2",Calibración!BJ6,Calibración!BJ7)</f>
         <v>La indicación de la presión de referencia y del equipo corresponden al promedio de 4 mediciones en 2 ciclos ascendentes y descendentes.</v>
       </c>
-      <c r="B78" s="372"/>
-      <c r="C78" s="372"/>
-      <c r="D78" s="372"/>
-      <c r="E78" s="372"/>
-      <c r="F78" s="372"/>
-      <c r="G78" s="372"/>
-      <c r="H78" s="372"/>
-      <c r="I78" s="372"/>
-      <c r="J78" s="372"/>
-      <c r="K78" s="372"/>
-      <c r="L78" s="372"/>
-      <c r="M78" s="372"/>
-      <c r="N78" s="372"/>
-      <c r="O78" s="372"/>
-      <c r="P78" s="372"/>
-      <c r="Q78" s="372"/>
-      <c r="R78" s="372"/>
-      <c r="S78" s="372"/>
-      <c r="T78" s="372"/>
-      <c r="U78" s="372"/>
-      <c r="V78" s="372"/>
-      <c r="W78" s="372"/>
-      <c r="X78" s="372"/>
+      <c r="B78" s="361"/>
+      <c r="C78" s="361"/>
+      <c r="D78" s="361"/>
+      <c r="E78" s="361"/>
+      <c r="F78" s="361"/>
+      <c r="G78" s="361"/>
+      <c r="H78" s="361"/>
+      <c r="I78" s="361"/>
+      <c r="J78" s="361"/>
+      <c r="K78" s="361"/>
+      <c r="L78" s="361"/>
+      <c r="M78" s="361"/>
+      <c r="N78" s="361"/>
+      <c r="O78" s="361"/>
+      <c r="P78" s="361"/>
+      <c r="Q78" s="361"/>
+      <c r="R78" s="361"/>
+      <c r="S78" s="361"/>
+      <c r="T78" s="361"/>
+      <c r="U78" s="361"/>
+      <c r="V78" s="361"/>
+      <c r="W78" s="361"/>
+      <c r="X78" s="361"/>
     </row>
     <row r="79" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="372"/>
-      <c r="B79" s="372"/>
-      <c r="C79" s="372"/>
-      <c r="D79" s="372"/>
-      <c r="E79" s="372"/>
-      <c r="F79" s="372"/>
-      <c r="G79" s="372"/>
-      <c r="H79" s="372"/>
-      <c r="I79" s="372"/>
-      <c r="J79" s="372"/>
-      <c r="K79" s="372"/>
-      <c r="L79" s="372"/>
-      <c r="M79" s="372"/>
-      <c r="N79" s="372"/>
-      <c r="O79" s="372"/>
-      <c r="P79" s="372"/>
-      <c r="Q79" s="372"/>
-      <c r="R79" s="372"/>
-      <c r="S79" s="372"/>
-      <c r="T79" s="372"/>
-      <c r="U79" s="372"/>
-      <c r="V79" s="372"/>
-      <c r="W79" s="372"/>
-      <c r="X79" s="372"/>
+      <c r="A79" s="361"/>
+      <c r="B79" s="361"/>
+      <c r="C79" s="361"/>
+      <c r="D79" s="361"/>
+      <c r="E79" s="361"/>
+      <c r="F79" s="361"/>
+      <c r="G79" s="361"/>
+      <c r="H79" s="361"/>
+      <c r="I79" s="361"/>
+      <c r="J79" s="361"/>
+      <c r="K79" s="361"/>
+      <c r="L79" s="361"/>
+      <c r="M79" s="361"/>
+      <c r="N79" s="361"/>
+      <c r="O79" s="361"/>
+      <c r="P79" s="361"/>
+      <c r="Q79" s="361"/>
+      <c r="R79" s="361"/>
+      <c r="S79" s="361"/>
+      <c r="T79" s="361"/>
+      <c r="U79" s="361"/>
+      <c r="V79" s="361"/>
+      <c r="W79" s="361"/>
+      <c r="X79" s="361"/>
     </row>
     <row r="80" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="239" t="s">
@@ -42044,57 +42013,141 @@
       <c r="Y88" s="9"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I89" s="390" t="s">
+      <c r="I89" s="351" t="s">
         <v>31</v>
       </c>
-      <c r="J89" s="390"/>
-      <c r="K89" s="390"/>
-      <c r="L89" s="390"/>
-      <c r="M89" s="390"/>
-      <c r="N89" s="390"/>
-      <c r="O89" s="390"/>
-      <c r="P89" s="390"/>
+      <c r="J89" s="351"/>
+      <c r="K89" s="351"/>
+      <c r="L89" s="351"/>
+      <c r="M89" s="351"/>
+      <c r="N89" s="351"/>
+      <c r="O89" s="351"/>
+      <c r="P89" s="351"/>
       <c r="Y89" s="9"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I90" s="391" t="str">
+      <c r="I90" s="352" t="str">
         <f>IF(I89=[5]Generales!$F$1,[5]Generales!$F$6,[5]Generales!$F$5)</f>
         <v>Director Técnico</v>
       </c>
-      <c r="J90" s="391"/>
-      <c r="K90" s="391"/>
-      <c r="L90" s="391"/>
-      <c r="M90" s="391"/>
-      <c r="N90" s="391"/>
-      <c r="O90" s="391"/>
-      <c r="P90" s="391"/>
+      <c r="J90" s="352"/>
+      <c r="K90" s="352"/>
+      <c r="L90" s="352"/>
+      <c r="M90" s="352"/>
+      <c r="N90" s="352"/>
+      <c r="O90" s="352"/>
+      <c r="P90" s="352"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I91" s="392" t="s">
+      <c r="I91" s="353" t="s">
         <v>717</v>
       </c>
-      <c r="J91" s="392"/>
-      <c r="K91" s="392"/>
-      <c r="L91" s="392"/>
-      <c r="M91" s="392"/>
-      <c r="N91" s="392"/>
-      <c r="O91" s="392"/>
-      <c r="P91" s="392"/>
+      <c r="J91" s="353"/>
+      <c r="K91" s="353"/>
+      <c r="L91" s="353"/>
+      <c r="M91" s="353"/>
+      <c r="N91" s="353"/>
+      <c r="O91" s="353"/>
+      <c r="P91" s="353"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I92" s="393" t="s">
+      <c r="I92" s="354" t="s">
         <v>718</v>
       </c>
-      <c r="J92" s="393"/>
-      <c r="K92" s="393"/>
-      <c r="L92" s="393"/>
-      <c r="M92" s="393"/>
-      <c r="N92" s="393"/>
-      <c r="O92" s="393"/>
-      <c r="P92" s="393"/>
+      <c r="J92" s="354"/>
+      <c r="K92" s="354"/>
+      <c r="L92" s="354"/>
+      <c r="M92" s="354"/>
+      <c r="N92" s="354"/>
+      <c r="O92" s="354"/>
+      <c r="P92" s="354"/>
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="N21:X22"/>
+    <mergeCell ref="D24:W24"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="F25:K26"/>
+    <mergeCell ref="L25:Q26"/>
+    <mergeCell ref="R25:W26"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="D35:W35"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="F36:K37"/>
+    <mergeCell ref="L36:Q37"/>
+    <mergeCell ref="R36:W37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="L38:Q38"/>
+    <mergeCell ref="R38:W38"/>
+    <mergeCell ref="A60:X60"/>
+    <mergeCell ref="A63:X67"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="J70:N70"/>
+    <mergeCell ref="O70:T70"/>
+    <mergeCell ref="U70:X70"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="L43:Q43"/>
+    <mergeCell ref="R43:W43"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="N56:X56"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="L42:Q42"/>
+    <mergeCell ref="R42:W42"/>
+    <mergeCell ref="L39:Q39"/>
+    <mergeCell ref="R39:W39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="L40:Q40"/>
+    <mergeCell ref="R40:W40"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="L41:Q41"/>
+    <mergeCell ref="R41:W41"/>
+    <mergeCell ref="D42:E42"/>
     <mergeCell ref="I89:P89"/>
     <mergeCell ref="I90:P90"/>
     <mergeCell ref="I91:P91"/>
@@ -42115,90 +42168,6 @@
     <mergeCell ref="J73:N73"/>
     <mergeCell ref="O73:T73"/>
     <mergeCell ref="U73:X73"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="L42:Q42"/>
-    <mergeCell ref="R42:W42"/>
-    <mergeCell ref="L39:Q39"/>
-    <mergeCell ref="R39:W39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="L40:Q40"/>
-    <mergeCell ref="R40:W40"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="L41:Q41"/>
-    <mergeCell ref="R41:W41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A60:X60"/>
-    <mergeCell ref="A63:X67"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="J70:N70"/>
-    <mergeCell ref="O70:T70"/>
-    <mergeCell ref="U70:X70"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="L43:Q43"/>
-    <mergeCell ref="R43:W43"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="N56:X56"/>
-    <mergeCell ref="D35:W35"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="F36:K37"/>
-    <mergeCell ref="L36:Q37"/>
-    <mergeCell ref="R36:W37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="L38:Q38"/>
-    <mergeCell ref="R38:W38"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="N21:X22"/>
-    <mergeCell ref="D24:W24"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="F25:K26"/>
-    <mergeCell ref="L25:Q26"/>
-    <mergeCell ref="R25:W26"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="N18:X18"/>
-    <mergeCell ref="N19:X19"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="N12:X12"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N11:Q11"/>
   </mergeCells>
   <conditionalFormatting sqref="A82">
     <cfRule type="cellIs" priority="1" operator="equal">
@@ -42250,14 +42219,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B2" s="395" t="s">
+      <c r="B2" s="404" t="s">
         <v>791</v>
       </c>
-      <c r="C2" s="395"/>
-      <c r="D2" s="395"/>
-      <c r="E2" s="395"/>
-      <c r="F2" s="395"/>
-      <c r="G2" s="395"/>
+      <c r="C2" s="404"/>
+      <c r="D2" s="404"/>
+      <c r="E2" s="404"/>
+      <c r="F2" s="404"/>
+      <c r="G2" s="404"/>
       <c r="I2" s="276"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
@@ -42277,14 +42246,14 @@
       <c r="E4" s="277"/>
       <c r="F4" s="277"/>
       <c r="G4" s="277"/>
-      <c r="I4" s="397" t="s">
+      <c r="I4" s="405" t="s">
         <v>793</v>
       </c>
-      <c r="J4" s="397"/>
-      <c r="K4" s="397" t="s">
+      <c r="J4" s="405"/>
+      <c r="K4" s="405" t="s">
         <v>794</v>
       </c>
-      <c r="L4" s="397"/>
+      <c r="L4" s="405"/>
       <c r="N4" s="17" t="s">
         <v>795</v>
       </c>
@@ -42297,12 +42266,12 @@
       <c r="C5" s="279" t="s">
         <v>797</v>
       </c>
-      <c r="D5" s="398" t="s">
+      <c r="D5" s="397" t="s">
         <v>798</v>
       </c>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
-      <c r="G5" s="400"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
+      <c r="G5" s="399"/>
       <c r="I5" s="280" t="s">
         <v>403</v>
       </c>
@@ -42330,32 +42299,32 @@
       <c r="Q5" s="280" t="s">
         <v>803</v>
       </c>
-      <c r="W5" s="394" t="s">
+      <c r="W5" s="403" t="s">
         <v>1514</v>
       </c>
-      <c r="X5" s="394"/>
-      <c r="Y5" s="394"/>
-      <c r="Z5" s="394"/>
-      <c r="AA5" s="394"/>
-      <c r="AB5" s="394"/>
-      <c r="AC5" s="394"/>
-      <c r="AD5" s="394"/>
+      <c r="X5" s="403"/>
+      <c r="Y5" s="403"/>
+      <c r="Z5" s="403"/>
+      <c r="AA5" s="403"/>
+      <c r="AB5" s="403"/>
+      <c r="AC5" s="403"/>
+      <c r="AD5" s="403"/>
     </row>
     <row r="6" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="401">
+      <c r="B6" s="394">
         <v>-82.74</v>
       </c>
-      <c r="C6" s="401">
+      <c r="C6" s="394">
         <v>-0.06</v>
       </c>
-      <c r="D6" s="403" t="s">
+      <c r="D6" s="402" t="s">
         <v>1505</v>
       </c>
-      <c r="E6" s="400"/>
-      <c r="F6" s="398" t="s">
+      <c r="E6" s="399"/>
+      <c r="F6" s="397" t="s">
         <v>1506</v>
       </c>
-      <c r="G6" s="400"/>
+      <c r="G6" s="399"/>
       <c r="I6" s="29">
         <v>-82.74</v>
       </c>
@@ -42391,16 +42360,16 @@
       <c r="AD6" s="304"/>
     </row>
     <row r="7" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="402"/>
-      <c r="C7" s="402"/>
-      <c r="D7" s="398" t="s">
+      <c r="B7" s="395"/>
+      <c r="C7" s="395"/>
+      <c r="D7" s="397" t="s">
         <v>804</v>
       </c>
-      <c r="E7" s="400"/>
-      <c r="F7" s="398" t="s">
+      <c r="E7" s="399"/>
+      <c r="F7" s="397" t="s">
         <v>805</v>
       </c>
-      <c r="G7" s="400"/>
+      <c r="G7" s="399"/>
       <c r="I7" s="29">
         <v>0.01</v>
       </c>
@@ -42526,40 +42495,40 @@
       <c r="C10" s="279" t="s">
         <v>797</v>
       </c>
-      <c r="D10" s="398" t="s">
+      <c r="D10" s="397" t="s">
         <v>798</v>
       </c>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
-      <c r="G10" s="400"/>
+      <c r="E10" s="398"/>
+      <c r="F10" s="398"/>
+      <c r="G10" s="399"/>
     </row>
     <row r="11" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="401">
+      <c r="B11" s="394">
         <v>0.01</v>
       </c>
-      <c r="C11" s="401">
+      <c r="C11" s="394">
         <v>699.75</v>
       </c>
-      <c r="D11" s="403" t="s">
+      <c r="D11" s="402" t="s">
         <v>1507</v>
       </c>
-      <c r="E11" s="400"/>
-      <c r="F11" s="398" t="s">
+      <c r="E11" s="399"/>
+      <c r="F11" s="397" t="s">
         <v>1508</v>
       </c>
-      <c r="G11" s="400"/>
+      <c r="G11" s="399"/>
     </row>
     <row r="12" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="402"/>
-      <c r="C12" s="402"/>
-      <c r="D12" s="398" t="s">
+      <c r="B12" s="395"/>
+      <c r="C12" s="395"/>
+      <c r="D12" s="397" t="s">
         <v>804</v>
       </c>
-      <c r="E12" s="400"/>
-      <c r="F12" s="398" t="s">
+      <c r="E12" s="399"/>
+      <c r="F12" s="397" t="s">
         <v>805</v>
       </c>
-      <c r="G12" s="400"/>
+      <c r="G12" s="399"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B13" s="277"/>
@@ -42582,38 +42551,38 @@
         <v>795</v>
       </c>
       <c r="J14" s="17"/>
-      <c r="K14" s="404" t="s">
+      <c r="K14" s="400" t="s">
         <v>1511</v>
       </c>
-      <c r="L14" s="404"/>
-      <c r="M14" s="404"/>
+      <c r="L14" s="400"/>
+      <c r="M14" s="400"/>
       <c r="P14" s="17" t="s">
         <v>795</v>
       </c>
       <c r="Q14" s="17"/>
-      <c r="R14" s="404" t="s">
+      <c r="R14" s="400" t="s">
         <v>1512</v>
       </c>
-      <c r="S14" s="404"/>
-      <c r="T14" s="404"/>
+      <c r="S14" s="400"/>
+      <c r="T14" s="400"/>
       <c r="W14" s="17" t="s">
         <v>795</v>
       </c>
       <c r="X14" s="17"/>
-      <c r="Y14" s="405" t="s">
+      <c r="Y14" s="401" t="s">
         <v>1513</v>
       </c>
-      <c r="Z14" s="405"/>
-      <c r="AA14" s="405"/>
+      <c r="Z14" s="401"/>
+      <c r="AA14" s="401"/>
       <c r="AD14" s="17" t="s">
         <v>795</v>
       </c>
       <c r="AE14" s="17"/>
-      <c r="AF14" s="405" t="s">
+      <c r="AF14" s="401" t="s">
         <v>1510</v>
       </c>
-      <c r="AG14" s="405"/>
-      <c r="AH14" s="405"/>
+      <c r="AG14" s="401"/>
+      <c r="AH14" s="401"/>
     </row>
     <row r="15" spans="2:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="278" t="s">
@@ -42622,12 +42591,12 @@
       <c r="C15" s="279" t="s">
         <v>797</v>
       </c>
-      <c r="D15" s="398" t="s">
+      <c r="D15" s="397" t="s">
         <v>798</v>
       </c>
-      <c r="E15" s="399"/>
-      <c r="F15" s="399"/>
-      <c r="G15" s="400"/>
+      <c r="E15" s="398"/>
+      <c r="F15" s="398"/>
+      <c r="G15" s="399"/>
       <c r="I15" s="282" t="s">
         <v>806</v>
       </c>
@@ -42690,20 +42659,20 @@
       </c>
     </row>
     <row r="16" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="401">
+      <c r="B16" s="394">
         <v>700</v>
       </c>
-      <c r="C16" s="401">
+      <c r="C16" s="394">
         <v>7000</v>
       </c>
-      <c r="D16" s="398" t="s">
+      <c r="D16" s="397" t="s">
         <v>810</v>
       </c>
-      <c r="E16" s="400"/>
-      <c r="F16" s="398" t="s">
+      <c r="E16" s="399"/>
+      <c r="F16" s="397" t="s">
         <v>1509</v>
       </c>
-      <c r="G16" s="400"/>
+      <c r="G16" s="399"/>
       <c r="I16" s="22" t="s">
         <v>811</v>
       </c>
@@ -42782,16 +42751,16 @@
       </c>
     </row>
     <row r="17" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="402"/>
-      <c r="C17" s="402"/>
-      <c r="D17" s="398" t="s">
+      <c r="B17" s="395"/>
+      <c r="C17" s="395"/>
+      <c r="D17" s="397" t="s">
         <v>804</v>
       </c>
-      <c r="E17" s="400"/>
-      <c r="F17" s="398" t="s">
+      <c r="E17" s="399"/>
+      <c r="F17" s="397" t="s">
         <v>805</v>
       </c>
-      <c r="G17" s="400"/>
+      <c r="G17" s="399"/>
       <c r="I17" s="22" t="s">
         <v>812</v>
       </c>
@@ -43041,12 +43010,12 @@
       <c r="C20" s="279" t="s">
         <v>797</v>
       </c>
-      <c r="D20" s="398" t="s">
+      <c r="D20" s="397" t="s">
         <v>798</v>
       </c>
-      <c r="E20" s="399"/>
-      <c r="F20" s="399"/>
-      <c r="G20" s="400"/>
+      <c r="E20" s="398"/>
+      <c r="F20" s="398"/>
+      <c r="G20" s="399"/>
       <c r="I20" s="22" t="s">
         <v>815</v>
       </c>
@@ -43125,20 +43094,20 @@
       </c>
     </row>
     <row r="21" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="401">
+      <c r="B21" s="394">
         <v>7001</v>
       </c>
-      <c r="C21" s="401">
+      <c r="C21" s="394">
         <v>34500</v>
       </c>
-      <c r="D21" s="398" t="s">
+      <c r="D21" s="397" t="s">
         <v>816</v>
       </c>
-      <c r="E21" s="400"/>
-      <c r="F21" s="398" t="s">
+      <c r="E21" s="399"/>
+      <c r="F21" s="397" t="s">
         <v>1510</v>
       </c>
-      <c r="G21" s="400"/>
+      <c r="G21" s="399"/>
       <c r="I21" s="22" t="s">
         <v>817</v>
       </c>
@@ -43217,16 +43186,16 @@
       </c>
     </row>
     <row r="22" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="402"/>
-      <c r="C22" s="402"/>
-      <c r="D22" s="398" t="s">
+      <c r="B22" s="395"/>
+      <c r="C22" s="395"/>
+      <c r="D22" s="397" t="s">
         <v>804</v>
       </c>
-      <c r="E22" s="400"/>
-      <c r="F22" s="398" t="s">
+      <c r="E22" s="399"/>
+      <c r="F22" s="397" t="s">
         <v>805</v>
       </c>
-      <c r="G22" s="400"/>
+      <c r="G22" s="399"/>
       <c r="I22" s="22" t="s">
         <v>818</v>
       </c>
@@ -43583,75 +43552,49 @@
       </c>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="I28" s="401">
+      <c r="I28" s="394">
         <v>-82.74</v>
       </c>
-      <c r="J28" s="401">
+      <c r="J28" s="394">
         <v>-0.06</v>
       </c>
-      <c r="P28" s="401">
+      <c r="P28" s="394">
         <v>0.01</v>
       </c>
-      <c r="Q28" s="401">
+      <c r="Q28" s="394">
         <v>699.75</v>
       </c>
-      <c r="W28" s="401">
+      <c r="W28" s="394">
         <v>700</v>
       </c>
-      <c r="X28" s="401">
+      <c r="X28" s="394">
         <v>7000</v>
       </c>
-      <c r="AD28" s="401">
+      <c r="AD28" s="394">
         <v>7001</v>
       </c>
-      <c r="AE28" s="401">
+      <c r="AE28" s="394">
         <v>34500</v>
       </c>
     </row>
     <row r="29" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I29" s="402"/>
-      <c r="J29" s="402"/>
-      <c r="P29" s="402"/>
-      <c r="Q29" s="402"/>
-      <c r="W29" s="402"/>
-      <c r="X29" s="402"/>
-      <c r="AD29" s="402"/>
-      <c r="AE29" s="402"/>
+      <c r="I29" s="395"/>
+      <c r="J29" s="395"/>
+      <c r="P29" s="395"/>
+      <c r="Q29" s="395"/>
+      <c r="W29" s="395"/>
+      <c r="X29" s="395"/>
+      <c r="AD29" s="395"/>
+      <c r="AE29" s="395"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="W5:AD5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D5:G5"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D10:G10"/>
@@ -43666,12 +43609,38 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="W5:AD5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X28:X29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -43793,674 +43762,699 @@
       <c r="V7" s="9"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="373" t="s">
+      <c r="A8" s="365" t="s">
         <v>366</v>
       </c>
-      <c r="B8" s="374"/>
-      <c r="C8" s="374"/>
-      <c r="D8" s="374"/>
-      <c r="E8" s="374"/>
-      <c r="F8" s="375"/>
-      <c r="G8" s="373" t="s">
+      <c r="B8" s="366"/>
+      <c r="C8" s="366"/>
+      <c r="D8" s="366"/>
+      <c r="E8" s="366"/>
+      <c r="F8" s="367"/>
+      <c r="G8" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="374"/>
-      <c r="I8" s="375"/>
-      <c r="J8" s="376" t="s">
+      <c r="H8" s="366"/>
+      <c r="I8" s="367"/>
+      <c r="J8" s="368" t="s">
         <v>369</v>
       </c>
-      <c r="K8" s="377"/>
-      <c r="L8" s="377"/>
-      <c r="M8" s="377"/>
-      <c r="N8" s="378"/>
-      <c r="O8" s="373" t="s">
+      <c r="K8" s="369"/>
+      <c r="L8" s="369"/>
+      <c r="M8" s="369"/>
+      <c r="N8" s="370"/>
+      <c r="O8" s="365" t="s">
         <v>711</v>
       </c>
-      <c r="P8" s="374"/>
-      <c r="Q8" s="374"/>
-      <c r="R8" s="374"/>
-      <c r="S8" s="374"/>
-      <c r="T8" s="375"/>
-      <c r="U8" s="376" t="s">
+      <c r="P8" s="366"/>
+      <c r="Q8" s="366"/>
+      <c r="R8" s="366"/>
+      <c r="S8" s="366"/>
+      <c r="T8" s="367"/>
+      <c r="U8" s="368" t="s">
         <v>712</v>
       </c>
-      <c r="V8" s="377"/>
-      <c r="W8" s="377"/>
-      <c r="X8" s="378"/>
+      <c r="V8" s="369"/>
+      <c r="W8" s="369"/>
+      <c r="X8" s="370"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="381" t="s">
+      <c r="A9" s="355" t="s">
         <v>720</v>
       </c>
-      <c r="B9" s="382" t="s">
+      <c r="B9" s="356" t="s">
         <v>720</v>
       </c>
-      <c r="C9" s="382" t="s">
+      <c r="C9" s="356" t="s">
         <v>720</v>
       </c>
-      <c r="D9" s="382" t="s">
+      <c r="D9" s="356" t="s">
         <v>720</v>
       </c>
-      <c r="E9" s="382" t="s">
+      <c r="E9" s="356" t="s">
         <v>720</v>
       </c>
-      <c r="F9" s="383" t="s">
+      <c r="F9" s="357" t="s">
         <v>720</v>
       </c>
-      <c r="G9" s="381" t="s">
+      <c r="G9" s="355" t="s">
         <v>553</v>
       </c>
-      <c r="H9" s="382" t="s">
+      <c r="H9" s="356" t="s">
         <v>553</v>
       </c>
-      <c r="I9" s="383" t="s">
+      <c r="I9" s="357" t="s">
         <v>553</v>
       </c>
-      <c r="J9" s="384" t="s">
+      <c r="J9" s="358" t="s">
         <v>1119</v>
       </c>
-      <c r="K9" s="385" t="s">
+      <c r="K9" s="359" t="s">
         <v>722</v>
       </c>
-      <c r="L9" s="385">
+      <c r="L9" s="359">
         <v>43368</v>
       </c>
-      <c r="M9" s="385" t="s">
+      <c r="M9" s="359" t="s">
         <v>721</v>
       </c>
-      <c r="N9" s="386" t="s">
+      <c r="N9" s="360" t="s">
         <v>722</v>
       </c>
-      <c r="O9" s="381" t="s">
+      <c r="O9" s="355" t="s">
         <v>722</v>
       </c>
-      <c r="P9" s="382" t="s">
+      <c r="P9" s="356" t="s">
         <v>722</v>
       </c>
-      <c r="Q9" s="382" t="s">
+      <c r="Q9" s="356" t="s">
         <v>722</v>
       </c>
-      <c r="R9" s="382" t="s">
+      <c r="R9" s="356" t="s">
         <v>722</v>
       </c>
-      <c r="S9" s="382" t="s">
+      <c r="S9" s="356" t="s">
         <v>722</v>
       </c>
-      <c r="T9" s="383" t="s">
+      <c r="T9" s="357" t="s">
         <v>722</v>
       </c>
-      <c r="U9" s="384">
+      <c r="U9" s="358">
         <v>44096</v>
       </c>
-      <c r="V9" s="385" t="s">
+      <c r="V9" s="359" t="s">
         <v>721</v>
       </c>
-      <c r="W9" s="385" t="s">
+      <c r="W9" s="359" t="s">
         <v>722</v>
       </c>
-      <c r="X9" s="386">
+      <c r="X9" s="360">
         <v>43368</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="381" t="s">
+      <c r="A10" s="355" t="s">
         <v>720</v>
       </c>
-      <c r="B10" s="382" t="s">
+      <c r="B10" s="356" t="s">
         <v>720</v>
       </c>
-      <c r="C10" s="382" t="s">
+      <c r="C10" s="356" t="s">
         <v>720</v>
       </c>
-      <c r="D10" s="382" t="s">
+      <c r="D10" s="356" t="s">
         <v>720</v>
       </c>
-      <c r="E10" s="382" t="s">
+      <c r="E10" s="356" t="s">
         <v>720</v>
       </c>
-      <c r="F10" s="383" t="s">
+      <c r="F10" s="357" t="s">
         <v>720</v>
       </c>
-      <c r="G10" s="381" t="s">
+      <c r="G10" s="355" t="s">
         <v>561</v>
       </c>
-      <c r="H10" s="382" t="s">
+      <c r="H10" s="356" t="s">
         <v>561</v>
       </c>
-      <c r="I10" s="383" t="s">
+      <c r="I10" s="357" t="s">
         <v>561</v>
       </c>
-      <c r="J10" s="384" t="s">
+      <c r="J10" s="358" t="s">
         <v>1120</v>
       </c>
-      <c r="K10" s="385" t="s">
+      <c r="K10" s="359" t="s">
         <v>722</v>
       </c>
-      <c r="L10" s="385">
+      <c r="L10" s="359">
         <v>43369</v>
       </c>
-      <c r="M10" s="385" t="s">
+      <c r="M10" s="359" t="s">
         <v>1121</v>
       </c>
-      <c r="N10" s="386" t="s">
+      <c r="N10" s="360" t="s">
         <v>722</v>
       </c>
-      <c r="O10" s="381" t="s">
+      <c r="O10" s="355" t="s">
         <v>722</v>
       </c>
-      <c r="P10" s="382" t="s">
+      <c r="P10" s="356" t="s">
         <v>722</v>
       </c>
-      <c r="Q10" s="382" t="s">
+      <c r="Q10" s="356" t="s">
         <v>722</v>
       </c>
-      <c r="R10" s="382" t="s">
+      <c r="R10" s="356" t="s">
         <v>722</v>
       </c>
-      <c r="S10" s="382" t="s">
+      <c r="S10" s="356" t="s">
         <v>722</v>
       </c>
-      <c r="T10" s="383" t="s">
+      <c r="T10" s="357" t="s">
         <v>722</v>
       </c>
-      <c r="U10" s="384">
+      <c r="U10" s="358">
         <v>44431</v>
       </c>
-      <c r="V10" s="385" t="s">
+      <c r="V10" s="359" t="s">
         <v>1121</v>
       </c>
-      <c r="W10" s="385" t="s">
+      <c r="W10" s="359" t="s">
         <v>722</v>
       </c>
-      <c r="X10" s="386">
+      <c r="X10" s="360">
         <v>43369</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="381" t="s">
+      <c r="A11" s="355" t="s">
         <v>572</v>
       </c>
-      <c r="B11" s="382" t="s">
+      <c r="B11" s="356" t="s">
         <v>720</v>
       </c>
-      <c r="C11" s="382" t="s">
+      <c r="C11" s="356" t="s">
         <v>720</v>
       </c>
-      <c r="D11" s="382" t="s">
+      <c r="D11" s="356" t="s">
         <v>720</v>
       </c>
-      <c r="E11" s="382" t="s">
+      <c r="E11" s="356" t="s">
         <v>720</v>
       </c>
-      <c r="F11" s="383" t="s">
+      <c r="F11" s="357" t="s">
         <v>720</v>
       </c>
-      <c r="G11" s="381" t="s">
+      <c r="G11" s="355" t="s">
         <v>562</v>
       </c>
-      <c r="H11" s="382" t="s">
+      <c r="H11" s="356" t="s">
         <v>562</v>
       </c>
-      <c r="I11" s="383" t="s">
+      <c r="I11" s="357" t="s">
         <v>562</v>
       </c>
-      <c r="J11" s="384" t="s">
+      <c r="J11" s="358" t="s">
         <v>768</v>
       </c>
-      <c r="K11" s="385" t="s">
+      <c r="K11" s="359" t="s">
         <v>724</v>
       </c>
-      <c r="L11" s="385">
+      <c r="L11" s="359">
         <v>43392</v>
       </c>
-      <c r="M11" s="385" t="s">
+      <c r="M11" s="359" t="s">
         <v>723</v>
       </c>
-      <c r="N11" s="386" t="s">
+      <c r="N11" s="360" t="s">
         <v>724</v>
       </c>
-      <c r="O11" s="381" t="s">
+      <c r="O11" s="355" t="s">
         <v>724</v>
       </c>
-      <c r="P11" s="382" t="s">
+      <c r="P11" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="Q11" s="382" t="s">
+      <c r="Q11" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="R11" s="382" t="s">
+      <c r="R11" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="S11" s="382" t="s">
+      <c r="S11" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="T11" s="383" t="s">
+      <c r="T11" s="357" t="s">
         <v>724</v>
       </c>
-      <c r="U11" s="384">
+      <c r="U11" s="358">
         <v>44243</v>
       </c>
-      <c r="V11" s="385" t="s">
+      <c r="V11" s="359" t="s">
         <v>723</v>
       </c>
-      <c r="W11" s="385" t="s">
+      <c r="W11" s="359" t="s">
         <v>724</v>
       </c>
-      <c r="X11" s="386">
+      <c r="X11" s="360">
         <v>43392</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="381" t="s">
+      <c r="A12" s="355" t="s">
         <v>732</v>
       </c>
-      <c r="B12" s="382" t="s">
+      <c r="B12" s="356" t="s">
         <v>720</v>
       </c>
-      <c r="C12" s="382" t="s">
+      <c r="C12" s="356" t="s">
         <v>720</v>
       </c>
-      <c r="D12" s="382" t="s">
+      <c r="D12" s="356" t="s">
         <v>720</v>
       </c>
-      <c r="E12" s="382" t="s">
+      <c r="E12" s="356" t="s">
         <v>720</v>
       </c>
-      <c r="F12" s="383" t="s">
+      <c r="F12" s="357" t="s">
         <v>720</v>
       </c>
-      <c r="G12" s="381" t="s">
+      <c r="G12" s="355" t="s">
         <v>730</v>
       </c>
-      <c r="H12" s="382" t="s">
+      <c r="H12" s="356" t="s">
         <v>562</v>
       </c>
-      <c r="I12" s="383" t="s">
+      <c r="I12" s="357" t="s">
         <v>562</v>
       </c>
-      <c r="J12" s="384" t="s">
+      <c r="J12" s="358" t="s">
         <v>1129</v>
       </c>
-      <c r="K12" s="385" t="s">
+      <c r="K12" s="359" t="s">
         <v>724</v>
       </c>
-      <c r="L12" s="385">
+      <c r="L12" s="359">
         <v>43393</v>
       </c>
-      <c r="M12" s="385" t="s">
+      <c r="M12" s="359" t="s">
         <v>733</v>
       </c>
-      <c r="N12" s="386" t="s">
+      <c r="N12" s="360" t="s">
         <v>724</v>
       </c>
-      <c r="O12" s="381" t="s">
+      <c r="O12" s="355" t="s">
         <v>724</v>
       </c>
-      <c r="P12" s="382" t="s">
+      <c r="P12" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="Q12" s="382" t="s">
+      <c r="Q12" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="R12" s="382" t="s">
+      <c r="R12" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="S12" s="382" t="s">
+      <c r="S12" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="T12" s="383" t="s">
+      <c r="T12" s="357" t="s">
         <v>724</v>
       </c>
-      <c r="U12" s="384">
+      <c r="U12" s="358">
         <v>44542</v>
       </c>
-      <c r="V12" s="385" t="s">
+      <c r="V12" s="359" t="s">
         <v>733</v>
       </c>
-      <c r="W12" s="385" t="s">
+      <c r="W12" s="359" t="s">
         <v>724</v>
       </c>
-      <c r="X12" s="386">
+      <c r="X12" s="360">
         <v>43393</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="381" t="s">
+      <c r="A13" s="355" t="s">
         <v>1122</v>
       </c>
-      <c r="B13" s="382"/>
-      <c r="C13" s="382"/>
-      <c r="D13" s="382"/>
-      <c r="E13" s="382"/>
-      <c r="F13" s="383"/>
-      <c r="G13" s="381" t="s">
+      <c r="B13" s="356"/>
+      <c r="C13" s="356"/>
+      <c r="D13" s="356"/>
+      <c r="E13" s="356"/>
+      <c r="F13" s="357"/>
+      <c r="G13" s="355" t="s">
         <v>375</v>
       </c>
-      <c r="H13" s="382" t="s">
+      <c r="H13" s="356" t="s">
         <v>562</v>
       </c>
-      <c r="I13" s="383" t="s">
+      <c r="I13" s="357" t="s">
         <v>562</v>
       </c>
-      <c r="J13" s="384" t="s">
+      <c r="J13" s="358" t="s">
         <v>1123</v>
       </c>
-      <c r="K13" s="385" t="s">
+      <c r="K13" s="359" t="s">
         <v>724</v>
       </c>
-      <c r="L13" s="385">
+      <c r="L13" s="359">
         <v>43394</v>
       </c>
-      <c r="M13" s="385" t="s">
+      <c r="M13" s="359" t="s">
         <v>738</v>
       </c>
-      <c r="N13" s="386" t="s">
+      <c r="N13" s="360" t="s">
         <v>724</v>
       </c>
-      <c r="O13" s="381" t="s">
+      <c r="O13" s="355" t="s">
         <v>724</v>
       </c>
-      <c r="P13" s="382" t="s">
+      <c r="P13" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="Q13" s="382" t="s">
+      <c r="Q13" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="R13" s="382" t="s">
+      <c r="R13" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="S13" s="382" t="s">
+      <c r="S13" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="T13" s="383" t="s">
+      <c r="T13" s="357" t="s">
         <v>724</v>
       </c>
-      <c r="U13" s="384">
+      <c r="U13" s="358">
         <v>44158</v>
       </c>
-      <c r="V13" s="385" t="s">
+      <c r="V13" s="359" t="s">
         <v>738</v>
       </c>
-      <c r="W13" s="385" t="s">
+      <c r="W13" s="359" t="s">
         <v>724</v>
       </c>
-      <c r="X13" s="386">
+      <c r="X13" s="360">
         <v>43394</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="381" t="s">
+      <c r="A14" s="355" t="s">
         <v>1122</v>
       </c>
-      <c r="B14" s="382"/>
-      <c r="C14" s="382"/>
-      <c r="D14" s="382"/>
-      <c r="E14" s="382"/>
-      <c r="F14" s="383"/>
-      <c r="G14" s="381" t="s">
+      <c r="B14" s="356"/>
+      <c r="C14" s="356"/>
+      <c r="D14" s="356"/>
+      <c r="E14" s="356"/>
+      <c r="F14" s="357"/>
+      <c r="G14" s="355" t="s">
         <v>377</v>
       </c>
-      <c r="H14" s="382" t="s">
+      <c r="H14" s="356" t="s">
         <v>562</v>
       </c>
-      <c r="I14" s="383" t="s">
+      <c r="I14" s="357" t="s">
         <v>562</v>
       </c>
-      <c r="J14" s="384" t="s">
+      <c r="J14" s="358" t="s">
         <v>1124</v>
       </c>
-      <c r="K14" s="385" t="s">
+      <c r="K14" s="359" t="s">
         <v>724</v>
       </c>
-      <c r="L14" s="385">
+      <c r="L14" s="359">
         <v>43394</v>
       </c>
-      <c r="M14" s="385" t="s">
+      <c r="M14" s="359" t="s">
         <v>738</v>
       </c>
-      <c r="N14" s="386" t="s">
+      <c r="N14" s="360" t="s">
         <v>724</v>
       </c>
-      <c r="O14" s="381" t="s">
+      <c r="O14" s="355" t="s">
         <v>724</v>
       </c>
-      <c r="P14" s="382" t="s">
+      <c r="P14" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="Q14" s="382" t="s">
+      <c r="Q14" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="R14" s="382" t="s">
+      <c r="R14" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="S14" s="382" t="s">
+      <c r="S14" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="T14" s="383" t="s">
+      <c r="T14" s="357" t="s">
         <v>724</v>
       </c>
-      <c r="U14" s="384">
+      <c r="U14" s="358">
         <v>44331</v>
       </c>
-      <c r="V14" s="385" t="s">
+      <c r="V14" s="359" t="s">
         <v>738</v>
       </c>
-      <c r="W14" s="385" t="s">
+      <c r="W14" s="359" t="s">
         <v>724</v>
       </c>
-      <c r="X14" s="386">
+      <c r="X14" s="360">
         <v>43394</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="381" t="s">
+      <c r="A15" s="355" t="s">
         <v>1122</v>
       </c>
-      <c r="B15" s="382"/>
-      <c r="C15" s="382"/>
-      <c r="D15" s="382"/>
-      <c r="E15" s="382"/>
-      <c r="F15" s="383"/>
-      <c r="G15" s="381" t="s">
+      <c r="B15" s="356"/>
+      <c r="C15" s="356"/>
+      <c r="D15" s="356"/>
+      <c r="E15" s="356"/>
+      <c r="F15" s="357"/>
+      <c r="G15" s="355" t="s">
         <v>379</v>
       </c>
-      <c r="H15" s="382" t="s">
+      <c r="H15" s="356" t="s">
         <v>562</v>
       </c>
-      <c r="I15" s="383" t="s">
+      <c r="I15" s="357" t="s">
         <v>562</v>
       </c>
-      <c r="J15" s="384" t="s">
+      <c r="J15" s="358" t="s">
         <v>1125</v>
       </c>
-      <c r="K15" s="385" t="s">
+      <c r="K15" s="359" t="s">
         <v>724</v>
       </c>
-      <c r="L15" s="385">
+      <c r="L15" s="359">
         <v>43394</v>
       </c>
-      <c r="M15" s="385" t="s">
+      <c r="M15" s="359" t="s">
         <v>738</v>
       </c>
-      <c r="N15" s="386" t="s">
+      <c r="N15" s="360" t="s">
         <v>724</v>
       </c>
-      <c r="O15" s="381" t="s">
+      <c r="O15" s="355" t="s">
         <v>724</v>
       </c>
-      <c r="P15" s="382" t="s">
+      <c r="P15" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="Q15" s="382" t="s">
+      <c r="Q15" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="R15" s="382" t="s">
+      <c r="R15" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="S15" s="382" t="s">
+      <c r="S15" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="T15" s="383" t="s">
+      <c r="T15" s="357" t="s">
         <v>724</v>
       </c>
-      <c r="U15" s="384">
+      <c r="U15" s="358">
         <v>44331</v>
       </c>
-      <c r="V15" s="385" t="s">
+      <c r="V15" s="359" t="s">
         <v>738</v>
       </c>
-      <c r="W15" s="385" t="s">
+      <c r="W15" s="359" t="s">
         <v>724</v>
       </c>
-      <c r="X15" s="386">
+      <c r="X15" s="360">
         <v>43394</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="381" t="s">
+      <c r="A16" s="355" t="s">
         <v>1122</v>
       </c>
-      <c r="B16" s="382"/>
-      <c r="C16" s="382"/>
-      <c r="D16" s="382"/>
-      <c r="E16" s="382"/>
-      <c r="F16" s="383"/>
-      <c r="G16" s="381" t="s">
+      <c r="B16" s="356"/>
+      <c r="C16" s="356"/>
+      <c r="D16" s="356"/>
+      <c r="E16" s="356"/>
+      <c r="F16" s="357"/>
+      <c r="G16" s="355" t="s">
         <v>582</v>
       </c>
-      <c r="H16" s="382" t="s">
+      <c r="H16" s="356" t="s">
         <v>562</v>
       </c>
-      <c r="I16" s="383" t="s">
+      <c r="I16" s="357" t="s">
         <v>562</v>
       </c>
-      <c r="J16" s="384" t="s">
+      <c r="J16" s="358" t="s">
         <v>1126</v>
       </c>
-      <c r="K16" s="385" t="s">
+      <c r="K16" s="359" t="s">
         <v>724</v>
       </c>
-      <c r="L16" s="385">
+      <c r="L16" s="359">
         <v>43394</v>
       </c>
-      <c r="M16" s="385" t="s">
+      <c r="M16" s="359" t="s">
         <v>738</v>
       </c>
-      <c r="N16" s="386" t="s">
+      <c r="N16" s="360" t="s">
         <v>724</v>
       </c>
-      <c r="O16" s="381" t="s">
+      <c r="O16" s="355" t="s">
         <v>724</v>
       </c>
-      <c r="P16" s="382" t="s">
+      <c r="P16" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="Q16" s="382" t="s">
+      <c r="Q16" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="R16" s="382" t="s">
+      <c r="R16" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="S16" s="382" t="s">
+      <c r="S16" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="T16" s="383" t="s">
+      <c r="T16" s="357" t="s">
         <v>724</v>
       </c>
-      <c r="U16" s="384">
+      <c r="U16" s="358">
         <v>44331</v>
       </c>
-      <c r="V16" s="385" t="s">
+      <c r="V16" s="359" t="s">
         <v>738</v>
       </c>
-      <c r="W16" s="385" t="s">
+      <c r="W16" s="359" t="s">
         <v>724</v>
       </c>
-      <c r="X16" s="386">
+      <c r="X16" s="360">
         <v>43394</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="381" t="s">
+      <c r="A17" s="355" t="s">
         <v>737</v>
       </c>
-      <c r="B17" s="382" t="s">
+      <c r="B17" s="356" t="s">
         <v>720</v>
       </c>
-      <c r="C17" s="382" t="s">
+      <c r="C17" s="356" t="s">
         <v>720</v>
       </c>
-      <c r="D17" s="382" t="s">
+      <c r="D17" s="356" t="s">
         <v>720</v>
       </c>
-      <c r="E17" s="382" t="s">
+      <c r="E17" s="356" t="s">
         <v>720</v>
       </c>
-      <c r="F17" s="383" t="s">
+      <c r="F17" s="357" t="s">
         <v>720</v>
       </c>
-      <c r="G17" s="381" t="s">
+      <c r="G17" s="355" t="s">
         <v>734</v>
       </c>
-      <c r="H17" s="382" t="s">
+      <c r="H17" s="356" t="s">
         <v>562</v>
       </c>
-      <c r="I17" s="383" t="s">
+      <c r="I17" s="357" t="s">
         <v>562</v>
       </c>
-      <c r="J17" s="384" t="s">
+      <c r="J17" s="358" t="s">
         <v>1113</v>
       </c>
-      <c r="K17" s="385" t="s">
+      <c r="K17" s="359" t="s">
         <v>724</v>
       </c>
-      <c r="L17" s="385">
+      <c r="L17" s="359">
         <v>43394</v>
       </c>
-      <c r="M17" s="385" t="s">
+      <c r="M17" s="359" t="s">
         <v>738</v>
       </c>
-      <c r="N17" s="386" t="s">
+      <c r="N17" s="360" t="s">
         <v>724</v>
       </c>
-      <c r="O17" s="381" t="s">
+      <c r="O17" s="355" t="s">
         <v>724</v>
       </c>
-      <c r="P17" s="382" t="s">
+      <c r="P17" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="Q17" s="382" t="s">
+      <c r="Q17" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="R17" s="382" t="s">
+      <c r="R17" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="S17" s="382" t="s">
+      <c r="S17" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="T17" s="383" t="s">
+      <c r="T17" s="357" t="s">
         <v>724</v>
       </c>
-      <c r="U17" s="384">
+      <c r="U17" s="358">
         <v>44331</v>
       </c>
-      <c r="V17" s="385" t="s">
+      <c r="V17" s="359" t="s">
         <v>738</v>
       </c>
-      <c r="W17" s="385" t="s">
+      <c r="W17" s="359" t="s">
         <v>724</v>
       </c>
-      <c r="X17" s="386">
+      <c r="X17" s="360">
         <v>43394</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:T12"/>
-    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="O15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A5:X5"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="G10:I10"/>
@@ -44477,36 +44471,11 @@
     <mergeCell ref="J9:N9"/>
     <mergeCell ref="O9:T9"/>
     <mergeCell ref="U9:X9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="O14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="O15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="O17:T17"/>
-    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:T12"/>
+    <mergeCell ref="U12:X12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51" right="0.51" top="0.51" bottom="0.51" header="0" footer="0.31"/>
@@ -44601,23 +44570,23 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" s="412" t="s">
+      <c r="H4" s="409" t="s">
         <v>368</v>
       </c>
-      <c r="I4" s="413"/>
-      <c r="J4" s="412" t="s">
+      <c r="I4" s="410"/>
+      <c r="J4" s="409" t="s">
         <v>369</v>
       </c>
-      <c r="K4" s="413"/>
-      <c r="L4" s="414" t="s">
+      <c r="K4" s="410"/>
+      <c r="L4" s="411" t="s">
         <v>526</v>
       </c>
-      <c r="M4" s="416" t="s">
+      <c r="M4" s="413" t="s">
         <v>384</v>
       </c>
-      <c r="N4" s="417"/>
-      <c r="O4" s="417"/>
-      <c r="P4" s="418"/>
+      <c r="N4" s="414"/>
+      <c r="O4" s="414"/>
+      <c r="P4" s="415"/>
     </row>
     <row r="5" spans="2:23" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B5" s="47" t="s">
@@ -44650,11 +44619,11 @@
       <c r="K5" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="L5" s="415"/>
-      <c r="M5" s="419"/>
-      <c r="N5" s="420"/>
-      <c r="O5" s="420"/>
-      <c r="P5" s="421"/>
+      <c r="L5" s="412"/>
+      <c r="M5" s="416"/>
+      <c r="N5" s="417"/>
+      <c r="O5" s="417"/>
+      <c r="P5" s="418"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="18">
@@ -44898,26 +44867,26 @@
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
-      <c r="H13" s="410" t="s">
+      <c r="H13" s="407" t="s">
         <v>383</v>
       </c>
-      <c r="I13" s="411"/>
-      <c r="J13" s="410" t="s">
+      <c r="I13" s="408"/>
+      <c r="J13" s="407" t="s">
         <v>560</v>
       </c>
-      <c r="K13" s="411"/>
-      <c r="L13" s="410" t="s">
+      <c r="K13" s="408"/>
+      <c r="L13" s="407" t="s">
         <v>405</v>
       </c>
-      <c r="M13" s="411"/>
-      <c r="N13" s="410" t="s">
+      <c r="M13" s="408"/>
+      <c r="N13" s="407" t="s">
         <v>46</v>
       </c>
-      <c r="O13" s="411"/>
-      <c r="P13" s="410" t="s">
+      <c r="O13" s="408"/>
+      <c r="P13" s="407" t="s">
         <v>570</v>
       </c>
-      <c r="Q13" s="411"/>
+      <c r="Q13" s="408"/>
       <c r="T13" s="185" t="s">
         <v>601</v>
       </c>
@@ -47278,205 +47247,229 @@
       <c r="L89"/>
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D90" s="407" t="s">
+      <c r="D90" s="419" t="s">
         <v>744</v>
       </c>
-      <c r="E90" s="408"/>
-      <c r="F90" s="408"/>
-      <c r="G90" s="409"/>
+      <c r="E90" s="420"/>
+      <c r="F90" s="420"/>
+      <c r="G90" s="421"/>
       <c r="L90"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D91" s="328" t="s">
+      <c r="D91" s="338" t="s">
         <v>745</v>
       </c>
-      <c r="E91" s="329"/>
-      <c r="F91" s="329"/>
-      <c r="G91" s="330"/>
+      <c r="E91" s="339"/>
+      <c r="F91" s="339"/>
+      <c r="G91" s="340"/>
       <c r="L91"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D92" s="328" t="s">
+      <c r="D92" s="338" t="s">
         <v>746</v>
       </c>
-      <c r="E92" s="329"/>
-      <c r="F92" s="329"/>
-      <c r="G92" s="330"/>
+      <c r="E92" s="339"/>
+      <c r="F92" s="339"/>
+      <c r="G92" s="340"/>
       <c r="L92"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D93" s="328" t="s">
+      <c r="D93" s="338" t="s">
         <v>747</v>
       </c>
-      <c r="E93" s="329"/>
-      <c r="F93" s="329"/>
-      <c r="G93" s="330"/>
+      <c r="E93" s="339"/>
+      <c r="F93" s="339"/>
+      <c r="G93" s="340"/>
       <c r="L93"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D94" s="328" t="s">
+      <c r="D94" s="338" t="s">
         <v>748</v>
       </c>
-      <c r="E94" s="329"/>
-      <c r="F94" s="329"/>
-      <c r="G94" s="330"/>
+      <c r="E94" s="339"/>
+      <c r="F94" s="339"/>
+      <c r="G94" s="340"/>
       <c r="L94"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D95" s="328" t="s">
+      <c r="D95" s="338" t="s">
         <v>749</v>
       </c>
-      <c r="E95" s="329"/>
-      <c r="F95" s="329"/>
-      <c r="G95" s="330"/>
+      <c r="E95" s="339"/>
+      <c r="F95" s="339"/>
+      <c r="G95" s="340"/>
       <c r="L95"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D96" s="328" t="s">
+      <c r="D96" s="338" t="s">
         <v>750</v>
       </c>
-      <c r="E96" s="329"/>
-      <c r="F96" s="329"/>
-      <c r="G96" s="330"/>
+      <c r="E96" s="339"/>
+      <c r="F96" s="339"/>
+      <c r="G96" s="340"/>
     </row>
     <row r="97" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D97" s="328" t="s">
+      <c r="D97" s="338" t="s">
         <v>751</v>
       </c>
-      <c r="E97" s="329"/>
-      <c r="F97" s="329"/>
-      <c r="G97" s="330"/>
+      <c r="E97" s="339"/>
+      <c r="F97" s="339"/>
+      <c r="G97" s="340"/>
     </row>
     <row r="98" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D98" s="328" t="s">
+      <c r="D98" s="338" t="s">
         <v>752</v>
       </c>
-      <c r="E98" s="329"/>
-      <c r="F98" s="329"/>
-      <c r="G98" s="330"/>
+      <c r="E98" s="339"/>
+      <c r="F98" s="339"/>
+      <c r="G98" s="340"/>
     </row>
     <row r="99" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D99" s="328" t="s">
+      <c r="D99" s="338" t="s">
         <v>753</v>
       </c>
-      <c r="E99" s="329"/>
-      <c r="F99" s="329"/>
-      <c r="G99" s="330"/>
+      <c r="E99" s="339"/>
+      <c r="F99" s="339"/>
+      <c r="G99" s="340"/>
     </row>
     <row r="100" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D100" s="328" t="s">
+      <c r="D100" s="338" t="s">
         <v>754</v>
       </c>
-      <c r="E100" s="329"/>
-      <c r="F100" s="329"/>
-      <c r="G100" s="330"/>
+      <c r="E100" s="339"/>
+      <c r="F100" s="339"/>
+      <c r="G100" s="340"/>
     </row>
     <row r="101" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D101" s="328" t="s">
+      <c r="D101" s="338" t="s">
         <v>755</v>
       </c>
-      <c r="E101" s="329"/>
-      <c r="F101" s="329"/>
-      <c r="G101" s="330"/>
+      <c r="E101" s="339"/>
+      <c r="F101" s="339"/>
+      <c r="G101" s="340"/>
     </row>
     <row r="102" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D102" s="328" t="s">
+      <c r="D102" s="338" t="s">
         <v>756</v>
       </c>
-      <c r="E102" s="329"/>
-      <c r="F102" s="329"/>
-      <c r="G102" s="330"/>
+      <c r="E102" s="339"/>
+      <c r="F102" s="339"/>
+      <c r="G102" s="340"/>
     </row>
     <row r="103" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D103" s="328" t="s">
+      <c r="D103" s="338" t="s">
         <v>757</v>
       </c>
-      <c r="E103" s="329"/>
-      <c r="F103" s="329"/>
-      <c r="G103" s="330"/>
+      <c r="E103" s="339"/>
+      <c r="F103" s="339"/>
+      <c r="G103" s="340"/>
     </row>
     <row r="104" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D104" s="328" t="s">
+      <c r="D104" s="338" t="s">
         <v>758</v>
       </c>
-      <c r="E104" s="329"/>
-      <c r="F104" s="329"/>
-      <c r="G104" s="330"/>
+      <c r="E104" s="339"/>
+      <c r="F104" s="339"/>
+      <c r="G104" s="340"/>
     </row>
     <row r="105" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D105" s="328" t="s">
+      <c r="D105" s="338" t="s">
         <v>759</v>
       </c>
-      <c r="E105" s="329"/>
-      <c r="F105" s="329"/>
-      <c r="G105" s="330"/>
+      <c r="E105" s="339"/>
+      <c r="F105" s="339"/>
+      <c r="G105" s="340"/>
     </row>
     <row r="106" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D106" s="328" t="s">
+      <c r="D106" s="338" t="s">
         <v>760</v>
       </c>
-      <c r="E106" s="329"/>
-      <c r="F106" s="329"/>
-      <c r="G106" s="330"/>
+      <c r="E106" s="339"/>
+      <c r="F106" s="339"/>
+      <c r="G106" s="340"/>
     </row>
     <row r="107" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D107" s="328" t="s">
+      <c r="D107" s="338" t="s">
         <v>761</v>
       </c>
-      <c r="E107" s="329"/>
-      <c r="F107" s="329"/>
-      <c r="G107" s="330"/>
+      <c r="E107" s="339"/>
+      <c r="F107" s="339"/>
+      <c r="G107" s="340"/>
     </row>
     <row r="108" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D108" s="328" t="s">
+      <c r="D108" s="338" t="s">
         <v>762</v>
       </c>
-      <c r="E108" s="329"/>
-      <c r="F108" s="329"/>
-      <c r="G108" s="330"/>
+      <c r="E108" s="339"/>
+      <c r="F108" s="339"/>
+      <c r="G108" s="340"/>
     </row>
     <row r="109" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D109" s="328" t="s">
+      <c r="D109" s="338" t="s">
         <v>763</v>
       </c>
-      <c r="E109" s="329"/>
-      <c r="F109" s="329"/>
-      <c r="G109" s="330"/>
+      <c r="E109" s="339"/>
+      <c r="F109" s="339"/>
+      <c r="G109" s="340"/>
     </row>
     <row r="110" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D110" s="328" t="s">
+      <c r="D110" s="338" t="s">
         <v>764</v>
       </c>
-      <c r="E110" s="329"/>
-      <c r="F110" s="329"/>
-      <c r="G110" s="330"/>
+      <c r="E110" s="339"/>
+      <c r="F110" s="339"/>
+      <c r="G110" s="340"/>
     </row>
     <row r="111" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D111" s="328" t="s">
+      <c r="D111" s="338" t="s">
         <v>765</v>
       </c>
-      <c r="E111" s="329"/>
-      <c r="F111" s="329"/>
-      <c r="G111" s="330"/>
+      <c r="E111" s="339"/>
+      <c r="F111" s="339"/>
+      <c r="G111" s="340"/>
     </row>
     <row r="112" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D112" s="328" t="s">
+      <c r="D112" s="338" t="s">
         <v>766</v>
       </c>
-      <c r="E112" s="329"/>
-      <c r="F112" s="329"/>
-      <c r="G112" s="330"/>
+      <c r="E112" s="339"/>
+      <c r="F112" s="339"/>
+      <c r="G112" s="340"/>
     </row>
     <row r="113" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D113" s="331" t="s">
+      <c r="D113" s="341" t="s">
         <v>767</v>
       </c>
-      <c r="E113" s="332"/>
-      <c r="F113" s="332"/>
-      <c r="G113" s="333"/>
+      <c r="E113" s="342"/>
+      <c r="F113" s="342"/>
+      <c r="G113" s="343"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="D110:G110"/>
+    <mergeCell ref="D111:G111"/>
+    <mergeCell ref="D112:G112"/>
+    <mergeCell ref="D113:G113"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="D109:G109"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D94:G94"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
@@ -47486,30 +47479,6 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="D110:G110"/>
-    <mergeCell ref="D111:G111"/>
-    <mergeCell ref="D112:G112"/>
-    <mergeCell ref="D113:G113"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="D109:G109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
